--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects_collab\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D4BEA0-7510-4249-B527-841863745A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="487">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -634,9 +633,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;J&gt; </t>
-  </si>
-  <si>
-    <t>mdm ? null</t>
   </si>
   <si>
     <t>power ? null</t>
@@ -1039,14 +1035,6 @@
     <t>dt ? Id</t>
   </si>
   <si>
-    <t>Begin?  def ?  Class ? Abstract ? const ?
-dt ? Id ?null</t>
-  </si>
-  <si>
-    <t>def ?  Class ? Abstract ? const  ?
-dt ? Id ? Null</t>
-  </si>
-  <si>
     <t>if ? Shift ? const ? dt ? id ? Parent ? Self ?  Test ?  Loop ? do ? stop ? Ret ? Cont ? raise</t>
   </si>
   <si>
@@ -1123,9 +1111,6 @@
     <t>&lt;IMPORTS&gt; ? &lt;ST_BODY&gt;</t>
   </si>
   <si>
-    <t>import ? Begin?  def ?  Class ? Abstract ? const ? dt ? Id ? null</t>
-  </si>
-  <si>
     <t>&lt;ST_BODY&gt;</t>
   </si>
   <si>
@@ -1454,12 +1439,121 @@
   </si>
   <si>
     <t>SELECTION SET</t>
+  </si>
+  <si>
+    <t>import?Begin?def ?Class?Abstract?const?dt?Id?null</t>
+  </si>
+  <si>
+    <t>Begin?def?Class?Abstract?const?
+dt?Id?null</t>
+  </si>
+  <si>
+    <t>import?Begin? def? Class? Abstract?const?dt?Id ?~</t>
+  </si>
+  <si>
+    <t>Begin?def?Class?Abstract?const?
+dt?Id?~</t>
+  </si>
+  <si>
+    <t>def?Class?Abstract?const ?
+dt?id? Null</t>
+  </si>
+  <si>
+    <t>def?Class?Abstract?const ?
+dt?id?~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if ? Shift ? const ? dt ? id ? Parent ? Self ?  Test ?  Loop ? do ? stop ? Ret ? Cont ? Raise ?state ? default ? } </t>
+  </si>
+  <si>
+    <t>[?id ?protected?private</t>
+  </si>
+  <si>
+    <t>protected?private?id</t>
+  </si>
+  <si>
+    <t>[ ? Id ?(</t>
+  </si>
+  <si>
+    <t>[ ? private ? Protected ? id ?(</t>
+  </si>
+  <si>
+    <t>protected ?id</t>
+  </si>
+  <si>
+    <t>&lt;?(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot ? [ ? ( ? power ?  Mdm ?  Pm ? Rop ? 
+And ? Or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
+  </si>
+  <si>
+    <t>[ ? dot ? = ? Cma ? inc_dec ? new? NaN ? power 
+?  Mdm ?  Pm ? Rop ? And ? Or ? 
+, ? ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inc_dec ? dot  ? [ ? ( ?power ?  Mdm ?  Pm ? Rop 
+? And ? Or ?  ]  ? ) ? , ? }  ?  :  ? ; </t>
+  </si>
+  <si>
+    <t>parent ? Self ?id</t>
+  </si>
+  <si>
+    <t>dot ? power ?  Mdm ?  Pm ? Rop ? And ? 
+Or ?  [ ? (?, ? ;</t>
+  </si>
+  <si>
+    <t>dot ? = ? Cma ? inc_dec ? new? NaN ? power 
+?  Mdm ?  Pm ? Rop ? And ? Or ? , ? ;</t>
+  </si>
+  <si>
+    <t>dot ? power ?  Mdm ?  Pm ? Rop ? And ? 
+Or ?, ? ;</t>
+  </si>
+  <si>
+    <t>power ?  Mdm ?  Pm ? Rop ? And ? Or ?, ? ;</t>
+  </si>
+  <si>
+    <t>dot ? [ ? ( ?'= ? ; ? state ? default ? } else ? Till ? def ? 
+ Static ? const ? dt ? id  ? }? Begin?  Class ? Abstract ?  ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or ?]  ? ) ? , ? }  ? Or ? :  ? ; </t>
+  </si>
+  <si>
+    <t>and ?or ? ]  ? ) ? , ? }  ? :  ? ;</t>
+  </si>
+  <si>
+    <t>mdm ?pm ? rop ? and ? or ? ]  ? ) ? , ? }  
+? :  ? ;</t>
+  </si>
+  <si>
+    <t>power ? mdm ? pm ? rop ? and ? or ? ]  ? ) ? , ? }  ? :  ? ;</t>
+  </si>
+  <si>
+    <t> pm ? rop ? and ? or ? ]  ? ) ? , ? }  ? :  ? ;</t>
+  </si>
+  <si>
+    <t>mdm ? Null</t>
+  </si>
+  <si>
+    <t>else ? state ? default ? } else ? Till</t>
+  </si>
+  <si>
+    <t> dot ? [ ? ( ?)</t>
+  </si>
+  <si>
+    <t>except ? finally ?state ? default ? } else ? Till</t>
+  </si>
+  <si>
+    <t>raises ?{ ? ;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1517,7 +1611,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1548,6 +1642,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1610,15 +1710,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1676,13 +1777,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
@@ -1695,9 +1790,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1708,8 +1800,36 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
+    <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
@@ -1992,23 +2112,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" customWidth="1"/>
+    <col min="7" max="7" width="40.42578125" customWidth="1"/>
+    <col min="8" max="8" width="57.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
@@ -2019,19 +2139,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
@@ -2046,13 +2166,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>452</v>
+      <c r="E3" s="24" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -2060,33 +2180,39 @@
         <v>4</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>455</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>331</v>
+        <v>271</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>456</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>452</v>
+        <v>448</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -2094,16 +2220,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>459</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>452</v>
+        <v>448</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -2130,17 +2259,20 @@
       <c r="C10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>439</v>
+      <c r="D10" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>435</v>
       </c>
       <c r="F10" t="s">
-        <v>440</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>441</v>
+        <v>436</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -2156,18 +2288,21 @@
         <v>10</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="E13" t="s">
-        <v>438</v>
-      </c>
-      <c r="F13" t="s">
-        <v>441</v>
+        <v>272</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>437</v>
       </c>
       <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -2176,14 +2311,17 @@
       <c r="C14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>335</v>
+      <c r="D14" s="37" t="s">
+        <v>332</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>365</v>
+        <v>361</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -2198,446 +2336,542 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="35" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="35" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>322</v>
+      <c r="C22" s="35" t="s">
+        <v>321</v>
       </c>
       <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>296</v>
+      <c r="C26" s="35" t="s">
+        <v>295</v>
       </c>
       <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>276</v>
+      <c r="C27" s="35" t="s">
+        <v>275</v>
       </c>
       <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H27" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="35" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>274</v>
+      <c r="C29" s="35" t="s">
+        <v>273</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="18" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>275</v>
+      <c r="C30" s="35" t="s">
+        <v>274</v>
       </c>
       <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H30" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="35" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="35" t="s">
         <v>38</v>
       </c>
       <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="35" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D40" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="35" t="s">
         <v>44</v>
       </c>
       <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D42" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D44" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D45" s="35" t="s">
         <v>279</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="35" t="s">
         <v>38</v>
       </c>
       <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D49" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="H49" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D50" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D51" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D52" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>283</v>
+      <c r="D53" s="35" t="s">
+        <v>282</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G53" s="24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D57" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D58" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D58" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="H58" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>271</v>
+      <c r="C59" s="35" t="s">
+        <v>270</v>
       </c>
       <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="35" t="s">
         <v>63</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="24" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="35" t="s">
         <v>64</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="35" t="s">
         <v>65</v>
       </c>
       <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="35" t="s">
         <v>44</v>
       </c>
       <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2656,8 +2890,11 @@
       <c r="C66" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>294</v>
+      <c r="D66" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -2667,13 +2904,16 @@
       <c r="C67" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>295</v>
+      <c r="D67" s="35" t="s">
+        <v>294</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="F67" t="s">
+        <v>439</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>294</v>
       </c>
     </row>
@@ -2696,68 +2936,80 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>375</v>
+        <v>335</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>371</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="F71" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="G71" s="30" t="s">
-        <v>413</v>
+        <v>372</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="I71" s="8"/>
     </row>
-    <row r="72" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="35" t="s">
         <v>29</v>
       </c>
       <c r="D72" s="2"/>
-      <c r="E72" s="26" t="s">
+      <c r="E72" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="F72" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="F72" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="G72" s="32" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="G72" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C73" s="35" t="s">
         <v>285</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="F73" s="34" t="s">
-        <v>421</v>
+        <v>411</v>
+      </c>
+      <c r="F73" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="35" t="s">
         <v>39</v>
       </c>
       <c r="D74" s="2"/>
+      <c r="H74" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="75" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
@@ -2766,18 +3018,24 @@
       <c r="C75" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>304</v>
+      <c r="D75" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="38" t="s">
         <v>44</v>
       </c>
       <c r="D76" s="2"/>
+      <c r="H76" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="77" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
@@ -2786,22 +3044,25 @@
       <c r="C77" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>305</v>
+      <c r="D77" s="36" t="s">
+        <v>304</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="F77" t="s">
+        <v>383</v>
+      </c>
+      <c r="F77" s="24" t="s">
         <v>44</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>339</v>
+      <c r="C78" s="35" t="s">
+        <v>336</v>
       </c>
       <c r="D78" s="2"/>
     </row>
@@ -2810,1455 +3071,1751 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
+      </c>
+      <c r="D81" s="39" t="s">
+        <v>347</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="G81" s="30" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="H81" s="34" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>352</v>
+      <c r="D82" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>351</v>
+      <c r="C83" s="35" t="s">
+        <v>348</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="17" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="13" t="s">
         <v>85</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
         <v>87</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>306</v>
+      <c r="D87" s="35" t="s">
+        <v>305</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F87" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F87" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="D88" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D89" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C90" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>307</v>
+      <c r="D90" s="35" t="s">
+        <v>306</v>
       </c>
       <c r="E90" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="F90" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="F90" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="39" t="s">
         <v>106</v>
       </c>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C92" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>341</v>
+      <c r="D92" s="37" t="s">
+        <v>338</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F92" s="24" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>299</v>
+      <c r="D93" s="35" t="s">
+        <v>298</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>342</v>
+        <v>326</v>
+      </c>
+      <c r="D94" s="40" t="s">
+        <v>339</v>
       </c>
       <c r="E94" t="s">
-        <v>381</v>
-      </c>
-      <c r="F94" t="s">
+        <v>377</v>
+      </c>
+      <c r="F94" s="24" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="95" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H94" s="20" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>326</v>
+      <c r="D95" s="36" t="s">
+        <v>325</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G95" s="24" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="96" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H95" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C96" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>343</v>
+      <c r="D96" s="36" t="s">
+        <v>340</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G96" s="24" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="97" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H96" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C97" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="D97" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="E97" s="17" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G97" s="24" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="98" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H97" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>323</v>
+      <c r="D98" s="35" t="s">
+        <v>322</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G98" s="24" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="35" t="s">
         <v>112</v>
       </c>
       <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="39" t="s">
         <v>113</v>
       </c>
       <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="11" t="s">
         <v>115</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D104" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D105" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="35" t="s">
         <v>122</v>
       </c>
       <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D107" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="13" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="35" t="s">
         <v>127</v>
       </c>
       <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D111" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="13" t="s">
         <v>129</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="35" t="s">
         <v>29</v>
       </c>
       <c r="E114" t="s">
-        <v>435</v>
-      </c>
-      <c r="F114" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+      <c r="F114" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="35" t="s">
         <v>29</v>
       </c>
       <c r="E115" t="s">
-        <v>436</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>453</v>
+        <v>432</v>
+      </c>
+      <c r="F115" s="28" t="s">
+        <v>449</v>
       </c>
       <c r="G115" s="8"/>
-    </row>
-    <row r="116" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H115" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="35" t="s">
         <v>145</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s">
-        <v>434</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="F116" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B117" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="39" t="s">
         <v>146</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s">
-        <v>433</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="F117" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>318</v>
+      <c r="D118" s="36" t="s">
+        <v>317</v>
       </c>
       <c r="E118" t="s">
-        <v>432</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="F118" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C119" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="H119" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>136</v>
       </c>
       <c r="C120" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D120" s="8" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="D120" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>137</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="D121" t="s">
-        <v>375</v>
+        <v>418</v>
+      </c>
+      <c r="D121" s="38" t="s">
+        <v>371</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="F121" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="G121" s="36" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="F121" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="G121" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>138</v>
       </c>
-      <c r="C122" t="s">
-        <v>339</v>
+      <c r="C122" s="38" t="s">
+        <v>336</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="G122" s="20" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="G122" s="33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>139</v>
       </c>
       <c r="C123" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D123" t="s">
-        <v>423</v>
+      <c r="D123" s="38" t="s">
+        <v>419</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="F123" s="20" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+      <c r="F123" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="H123" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>140</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="41" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="125" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H124" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>141</v>
       </c>
       <c r="C125" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D125" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D125" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="G125" s="24"/>
+      <c r="H125" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>157</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="38" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="128" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>158</v>
       </c>
       <c r="C128" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="D128" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D128" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>159</v>
       </c>
       <c r="C129" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D129" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D129" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="H129" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>155</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="38" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="131" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H130" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>160</v>
       </c>
       <c r="C131" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="D131" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D131" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>156</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="38" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H132" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>142</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="38" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="136" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H135" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>143</v>
       </c>
       <c r="C136" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D136" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>144</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="38" t="s">
         <v>154</v>
       </c>
       <c r="G137" s="1"/>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H137" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>165</v>
       </c>
       <c r="C140" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D140" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="D140" t="s">
-        <v>330</v>
-      </c>
-      <c r="E140" s="26" t="s">
-        <v>444</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E140" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="F140" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="G140" s="24"/>
+      <c r="H140" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
+        <v>328</v>
+      </c>
+      <c r="C141" s="38" t="s">
         <v>329</v>
-      </c>
-      <c r="C141" t="s">
-        <v>330</v>
       </c>
       <c r="E141" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="F141" s="8" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F141" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="H141" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>166</v>
       </c>
       <c r="C142" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D142" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D142" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="H142" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>167</v>
       </c>
       <c r="C143" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>313</v>
+      <c r="D143" s="35" t="s">
+        <v>312</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="F143" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>168</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>311</v>
+      <c r="C144" s="41" t="s">
+        <v>310</v>
       </c>
       <c r="D144" s="5"/>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H144" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>169</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="38" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H145" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>174</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="D148" s="19" t="s">
-        <v>298</v>
+        <v>292</v>
+      </c>
+      <c r="D148" s="38" t="s">
+        <v>297</v>
       </c>
       <c r="E148" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F148" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F148" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="H148" s="19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>175</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="38" t="s">
         <v>180</v>
       </c>
       <c r="E149" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="F149" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F149" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="H149" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>176</v>
       </c>
-      <c r="C150" s="17" t="s">
+      <c r="C150" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D150" t="s">
-        <v>277</v>
+      <c r="D150" s="38" t="s">
+        <v>276</v>
       </c>
       <c r="E150" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="F150" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F150" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="H150" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>177</v>
       </c>
       <c r="C151" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D151" t="s">
-        <v>310</v>
+      <c r="D151" s="38" t="s">
+        <v>309</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F151" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="G151" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G151" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="H151" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>178</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C152" s="41" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H152" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>179</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="38" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H153" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="156" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>184</v>
       </c>
       <c r="C156" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>303</v>
+      <c r="D156" s="36" t="s">
+        <v>302</v>
       </c>
       <c r="E156" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="F156" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="F156" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>185</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="38" t="s">
         <v>197</v>
       </c>
       <c r="E157" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="F157" s="30" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="158" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="F157" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H157" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>186</v>
       </c>
       <c r="C158" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>303</v>
+      <c r="D158" s="36" t="s">
+        <v>302</v>
       </c>
       <c r="E158" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="F158" s="8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="F158" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>187</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="38" t="s">
         <v>198</v>
       </c>
       <c r="E159" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="F159" s="26" t="s">
-        <v>394</v>
+        <v>385</v>
+      </c>
+      <c r="F159" s="25" t="s">
+        <v>390</v>
       </c>
       <c r="G159" s="24" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="160" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="H159" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>188</v>
       </c>
       <c r="C160" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E160" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="F160" s="27" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D160" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="E160" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="F160" s="44" t="s">
+        <v>403</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>189</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="38" t="s">
         <v>199</v>
       </c>
       <c r="E161" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="F161" s="26" t="s">
-        <v>395</v>
+        <v>386</v>
+      </c>
+      <c r="F161" s="25" t="s">
+        <v>391</v>
       </c>
       <c r="G161" s="24" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="162" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="H161" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>190</v>
       </c>
       <c r="C162" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>303</v>
+      <c r="D162" s="36" t="s">
+        <v>302</v>
       </c>
       <c r="E162" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="F162" s="27" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="163" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="F162" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>191</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="E163" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="F163" s="26" t="s">
-        <v>396</v>
+      <c r="E163" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="F163" s="25" t="s">
+        <v>392</v>
       </c>
       <c r="G163" s="24" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="164" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+      <c r="H163" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>192</v>
       </c>
       <c r="C164" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>303</v>
+      <c r="D164" s="36" t="s">
+        <v>302</v>
       </c>
       <c r="E164" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="F164" s="27" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="165" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="F164" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>193</v>
       </c>
-      <c r="C165" t="s">
-        <v>202</v>
-      </c>
-      <c r="E165" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="F165" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="G165" s="30" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="166" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C165" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="E165" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="F165" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="G165" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>194</v>
       </c>
       <c r="C166" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>303</v>
+      <c r="D166" s="36" t="s">
+        <v>302</v>
       </c>
       <c r="E166" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="F166" s="27" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="167" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="F166" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>111</v>
       </c>
-      <c r="C167" t="s">
-        <v>203</v>
-      </c>
-      <c r="E167" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="F167" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="G167" s="30" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="168" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C167" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E167" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="F167" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="G167" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="H167" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>195</v>
       </c>
       <c r="C168" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>303</v>
+      <c r="D168" s="36" t="s">
+        <v>302</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="F168" s="27" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="169" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="F168" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>196</v>
       </c>
       <c r="C169" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D169" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="E169" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F169" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E169" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="F169" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B171" s="10" t="s">
+    </row>
+    <row r="172" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B172" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="172" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B172" s="9" t="s">
+      <c r="C172" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D172" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="E172" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="F172" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="G172" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
         <v>206</v>
       </c>
-      <c r="C172" s="18" t="s">
+      <c r="C173" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E172" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="F172" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="G172" s="8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
+      <c r="H173" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
         <v>207</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C174" s="38" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>208</v>
-      </c>
-      <c r="C174" t="s">
+      <c r="H174" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B176" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B177" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B176" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="177" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B177" s="2" t="s">
+      <c r="C177" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="H177" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B178" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C178" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="H178" s="20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B180" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B178" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C178" s="20" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B180" s="10" t="s">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B181" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B181" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
-        <v>215</v>
-      </c>
-      <c r="C182" t="s">
-        <v>217</v>
+      <c r="C182" s="38" t="s">
+        <v>216</v>
       </c>
       <c r="E182" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F182" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F182" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="H182" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>216</v>
-      </c>
-      <c r="C183" t="s">
-        <v>218</v>
+        <v>215</v>
+      </c>
+      <c r="C183" s="38" t="s">
+        <v>217</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F183" s="24" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="H183" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
+      <c r="C186" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="H186" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
         <v>221</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C187" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D187" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="H187" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>222</v>
+      </c>
+      <c r="C188" s="38" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>222</v>
-      </c>
-      <c r="C187" s="17" t="s">
+      <c r="H188" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>354</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D189" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="H189" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B191" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D187" t="s">
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B193" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>229</v>
+      </c>
+      <c r="C194" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="H194" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>230</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D195" s="38" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
-        <v>223</v>
-      </c>
-      <c r="C188" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="189" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>358</v>
-      </c>
-      <c r="C189" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="D189" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B191" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B193" s="12" t="s">
+      <c r="H195" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B197" s="12" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
-        <v>230</v>
-      </c>
-      <c r="C194" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
-        <v>231</v>
-      </c>
-      <c r="C195" s="17" t="s">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
         <v>233</v>
       </c>
-      <c r="D195" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B197" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
+      <c r="C198" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="H198" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
         <v>234</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C199" s="38" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>235</v>
-      </c>
-      <c r="C199" t="s">
+      <c r="H199" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B201" s="12" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B201" s="12" t="s">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
+      <c r="C202" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="H202" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
         <v>239</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C203" s="38" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
+      <c r="E203" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="H203" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
         <v>240</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C204" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="D204" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="E204" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="F204" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="H204" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>241</v>
+      </c>
+      <c r="C205" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="E205" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="F205" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="H205" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B207" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="E203" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
-        <v>241</v>
-      </c>
-      <c r="C204" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="D204" t="s">
-        <v>419</v>
-      </c>
-      <c r="E204" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="F204" s="24" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
-        <v>242</v>
-      </c>
-      <c r="C205" t="s">
-        <v>418</v>
-      </c>
-      <c r="E205" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="F205" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B207" s="10" t="s">
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B208" s="7"/>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B209" s="12" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B208" s="7"/>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B209" s="12" t="s">
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>247</v>
+      </c>
+      <c r="C210" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="H210" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>248</v>
+      </c>
+      <c r="C211" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="H211" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>249</v>
+      </c>
+      <c r="C212" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="H212" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B214" s="12" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
-        <v>248</v>
-      </c>
-      <c r="C210" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
-        <v>249</v>
-      </c>
-      <c r="C211" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
-        <v>250</v>
-      </c>
-      <c r="C212" t="s">
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B214" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
+      <c r="C215" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="C215" t="s">
+      <c r="H215" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B217" s="10" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B217" s="10" t="s">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
+      <c r="C218" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C218" t="s">
+      <c r="H218" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B220" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B220" s="10" t="s">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
-        <v>260</v>
-      </c>
-      <c r="C221" t="s">
-        <v>265</v>
+      <c r="C221" s="38" t="s">
+        <v>264</v>
       </c>
       <c r="E221" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F221" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F221" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="H221" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
+        <v>356</v>
+      </c>
+      <c r="C222" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="D222" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="E222" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="F222" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="H222" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>260</v>
+      </c>
+      <c r="C223" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H223" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>261</v>
+      </c>
+      <c r="C224" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="H224" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>262</v>
+      </c>
+      <c r="C225" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="E225" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="F225" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="C222" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="D222" t="s">
-        <v>362</v>
-      </c>
-      <c r="E222" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="F222" s="24" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
-        <v>261</v>
-      </c>
-      <c r="C223" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
-        <v>262</v>
-      </c>
-      <c r="C224" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B225" t="s">
+      <c r="H225" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
         <v>263</v>
       </c>
-      <c r="C225" t="s">
-        <v>267</v>
-      </c>
-      <c r="E225" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="F225" s="24" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B226" t="s">
-        <v>264</v>
-      </c>
-      <c r="C226" t="s">
-        <v>359</v>
+      <c r="C226" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="H226" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects_collab\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omera\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6529ED-5BBC-403F-83C9-6585570FFFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="493">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -137,9 +138,6 @@
     <t>&lt;PAR_LIST&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;DT_ID&gt; </t>
-  </si>
-  <si>
     <t>def</t>
   </si>
   <si>
@@ -152,12 +150,6 @@
     <t>&lt;RT_OBJ&gt;</t>
   </si>
   <si>
-    <t>&lt;DT_STR&gt; ? Id</t>
-  </si>
-  <si>
-    <t>&lt;DT_ID&gt;  ? )</t>
-  </si>
-  <si>
     <t>, ? )</t>
   </si>
   <si>
@@ -176,16 +168,6 @@
     <t>&lt;ACCESSMOD_C&gt;</t>
   </si>
   <si>
-    <t>&lt;DT_STR&gt; ? Id ? &lt;ACCESSMOD_C&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ARR_TYPE&gt; ? &lt;ACCESSMOD_C&gt; ? 
-Id ? Null</t>
-  </si>
-  <si>
-    <t>private ? Protected</t>
-  </si>
-  <si>
     <t>Class Statement</t>
   </si>
   <si>
@@ -240,9 +222,6 @@
     <t>&lt;FN_CLASS_DEC&gt; ? &lt;ATTR_CLASS_DEC&gt;</t>
   </si>
   <si>
-    <t>End only with ID, array subscript.</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;POS&gt;        </t>
   </si>
   <si>
@@ -261,9 +240,6 @@
     <t xml:space="preserve">&lt;EXPR_OBJ&gt;   </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;DOT_ID&gt;     </t>
-  </si>
-  <si>
     <t>&lt;EXPR_OBJ&gt; ? )</t>
   </si>
   <si>
@@ -276,18 +252,9 @@
     <t>&lt;INC_DEC_DOT&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;DOT_ID2&gt;    </t>
-  </si>
-  <si>
-    <t>&lt;INC_DEC&gt; ?  &lt;DOT_ID2&gt;</t>
-  </si>
-  <si>
     <t>Declaration and Initialization</t>
   </si>
   <si>
-    <t>Dot Separated Identifers, Function calls, array subscripts</t>
-  </si>
-  <si>
     <t>Not in Class There is no access modifer nor static</t>
   </si>
   <si>
@@ -324,9 +291,6 @@
     <t xml:space="preserve">&lt;DOT_EXPR2&gt;    </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;ID_TO_EXPR&gt;   </t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;LIST&gt;         </t>
   </si>
   <si>
@@ -337,12 +301,6 @@
   </si>
   <si>
     <t>[ ? id ? &lt;ASSIGN&gt;</t>
-  </si>
-  <si>
-    <t>]? &lt;EXPR&gt; ? &lt;DOT_ID3&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ARR_DEC&gt; ? Id</t>
   </si>
   <si>
     <t xml:space="preserve">=  ?  ; </t>
@@ -358,10 +316,6 @@
     <t xml:space="preserve">&lt;DOT_EXPR&gt; ? &lt;SUBSCRIPT&gt; ?&lt;FN_BRACKETS&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">dot? &lt;ASSIGN_OP&gt;? &lt;INC_DEC&gt; ? 
-&lt;NEW_OBJ&gt; ? &lt;ID_TO_EXPR&gt; </t>
-  </si>
-  <si>
     <t>&lt;J1&gt;</t>
   </si>
   <si>
@@ -380,18 +334,9 @@
     <t xml:space="preserve">&lt;ASSIGN&gt;    </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;DOT_ID3&gt;   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;DOT_ID4&gt;   </t>
-  </si>
-  <si>
     <t>&lt;TWO_ASSIGN&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;DOT_ID3&gt; ? &lt;SUBSCRIPT&gt; ? &lt;FN_BRACKETS&gt; </t>
-  </si>
-  <si>
     <t>dot ? &lt;TWO_ASSIGN&gt;</t>
   </si>
   <si>
@@ -621,12 +566,6 @@
   </si>
   <si>
     <t>or ? null</t>
-  </si>
-  <si>
-    <t>and ? null</t>
-  </si>
-  <si>
-    <t>rop ?  null</t>
   </si>
   <si>
     <t> pm ? null  </t>
@@ -754,9 +693,6 @@
     <t>&lt;POS3&gt;</t>
   </si>
   <si>
-    <t>&lt;DOT_ID5&gt;</t>
-  </si>
-  <si>
     <t>thru</t>
   </si>
   <si>
@@ -784,18 +720,12 @@
     <t>stop</t>
   </si>
   <si>
-    <t> cont</t>
-  </si>
-  <si>
     <t>id ? ;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;RET_ST&gt; </t>
   </si>
   <si>
-    <t>ret</t>
-  </si>
-  <si>
     <t>Throw</t>
   </si>
   <si>
@@ -830,10 +760,6 @@
   </si>
   <si>
     <t>raises ? null</t>
-  </si>
-  <si>
-    <t>End with ID and array subscript with posibility of pos 
-increment decrement in the end, and function call ends with null.</t>
   </si>
   <si>
     <t>FIRST SET (substituting NN)</t>
@@ -857,33 +783,15 @@
     <t>[ ? null</t>
   </si>
   <si>
-    <t>parent ? self</t>
-  </si>
-  <si>
     <t>dt ? str</t>
   </si>
   <si>
     <t>id | dt | str</t>
   </si>
   <si>
-    <t>id? dt ? Str</t>
-  </si>
-  <si>
     <t>&lt;ARR_TYPE&gt;? id? Null</t>
   </si>
   <si>
-    <t>[ ? Id ?null</t>
-  </si>
-  <si>
-    <t>dt ? str ? Id</t>
-  </si>
-  <si>
-    <t>dt ? str ? Id ? private ? Protected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ ? private ? Protected ? id ? null </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Class ? Abstract ? const </t>
   </si>
   <si>
@@ -920,70 +828,28 @@
     <t xml:space="preserve">def ? Static ? const ? dt ? id </t>
   </si>
   <si>
-    <t>id ? dt ? Str</t>
-  </si>
-  <si>
-    <t> Class ? id? dt ? Str</t>
-  </si>
-  <si>
     <t xml:space="preserve">Static ? const ? dt ? id </t>
   </si>
   <si>
-    <t>parent ? Self ? Null</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;INC_DEC&gt; </t>
   </si>
   <si>
     <t>Constants / Increment Decrement</t>
   </si>
   <si>
-    <t>parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
-floatConst ? charConst ? boolConst ? strConst</t>
-  </si>
-  <si>
-    <t>pm ? parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
-floatConst ? charConst ? boolConst ? strConst</t>
-  </si>
-  <si>
-    <t>pm ? parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
-floatConst ? charConst ? boolConst ? strConst ? )</t>
-  </si>
-  <si>
-    <t>pm ? parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
-floatConst ? charConst ? boolConst ? strConst ?  new ? NaN</t>
-  </si>
-  <si>
     <t xml:space="preserve">const ? dt ? id ? Parent ? Self </t>
   </si>
   <si>
-    <t>[  ? Id</t>
-  </si>
-  <si>
     <t>state ? default ? }</t>
   </si>
   <si>
     <t xml:space="preserve"> till ? thru</t>
   </si>
   <si>
-    <t>[ ? protected ? Private ? Id</t>
-  </si>
-  <si>
     <t>=  ? ;</t>
   </si>
   <si>
     <t>( ? [</t>
-  </si>
-  <si>
-    <t>[ ? Id ? =  ? ;</t>
-  </si>
-  <si>
-    <t>pm ? parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
-floatConst ? charConst ? boolConst ? strConst ? {  ? }</t>
-  </si>
-  <si>
-    <t>pm ? parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
-floatConst ? charConst ? boolConst ? strConst ? ]</t>
   </si>
   <si>
     <t>[ ? {</t>
@@ -999,82 +865,29 @@
 &lt;GLOBAL_DEC&gt; ? Null</t>
   </si>
   <si>
-    <t>&lt;ID_STAR&gt;</t>
-  </si>
-  <si>
     <t>id ? power ? ;</t>
   </si>
   <si>
     <t>dot ? ;</t>
-  </si>
-  <si>
-    <t>power ?  Mdm ?  Pm ? Rop ? And ? Or ? Null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dot ? &lt;ID_TO_EXPR&gt;  </t>
-  </si>
-  <si>
-    <t>dot ? power ?  Mdm ?  Pm ? Rop ? And ? 
-Or ? Null</t>
-  </si>
-  <si>
-    <t>dot ? power ?  Mdm ?  Pm ? Rop ? And ? 
-Or ? Null ? [ ? (</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;INC_DEC&gt;? (? &lt;UNARY&gt; ?
 &lt;CONST&gt; </t>
   </si>
   <si>
-    <t>Static ?dt ? str ? Id ? private ? Protected</t>
-  </si>
-  <si>
     <t>&lt;IS_OBJ_G&gt;</t>
   </si>
   <si>
-    <t>dt ? Id</t>
-  </si>
-  <si>
-    <t>if ? Shift ? const ? dt ? id ? Parent ? Self ?  Test ?  Loop ? do ? stop ? Ret ? Cont ? raise</t>
-  </si>
-  <si>
-    <t>; ?  if ? Shift ? const ? dt ? id ? Parent ? Self ?  
-Test ?  Loop ? do ? stop ? Ret ? Cont ? Raise ? {</t>
-  </si>
-  <si>
-    <t>if ? Shift ? const ? dt ? id ? Parent ? Self ?  Test ?  Loop ? do ? stop ? Ret ? Cont ? Raise ? Null</t>
-  </si>
-  <si>
     <t>Access Modifier</t>
   </si>
   <si>
-    <t>id? dt ? Str ? )</t>
-  </si>
-  <si>
-    <t>&lt;DOT_ID&gt; ? &lt;SUBSCRIPT&gt;  ? 
-&lt;FN_BRACKETS&gt; ? Null</t>
-  </si>
-  <si>
     <t>dot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">]? pm ? parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
-floatConst ? charConst ? boolConst ? strConst ?  dot ? inc_dec ? = ? cma </t>
-  </si>
-  <si>
-    <t>parent ? Self ? id ? new? NaN ?  inc_dec ? ( ? typeCast 
-? Not ? intConst ? floatConst 
-? charConst ? boolConst ? strConst ? Pm</t>
   </si>
   <si>
     <t xml:space="preserve">inc_dec ? ( ? typeCast ? Not ? intConst ? floatConst 
 ? charConst ? boolConst ? strConst </t>
   </si>
   <si>
-    <t>dot ? = ? Cma ? inc_dec ? new? NaN ? power 
-?  Mdm ?  Pm ? Rop ? And ? Or ? Null</t>
-  </si>
-  <si>
     <t xml:space="preserve"> dot ? inc_dec ? = ? cma ? [ ? (</t>
   </si>
   <si>
@@ -1141,19 +954,9 @@
     <t>{ ? ; ? &lt;MST&gt;</t>
   </si>
   <si>
-    <t>{ ? ; if ? Shift ? const ? dt ? id ? Parent ? Self ?  Test ?  Loop ? do ? stop ? Ret ? Cont ? Raise ? state ? default ? }</t>
-  </si>
-  <si>
     <t>} ? F&lt;STATE&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">F&lt;ARR_INIT&gt;  ? F&lt;ACCESSMOD&gt; ?  Id </t>
-  </si>
-  <si>
-    <t>&lt;ARR_TYPE&gt; ?&lt;DT_ID&gt; ? Id ? F&lt;ACCESSMOD&gt; ? 
-F&lt;ARR_INIT&gt;</t>
-  </si>
-  <si>
     <t> id ? protected?private</t>
   </si>
   <si>
@@ -1167,13 +970,6 @@
   </si>
   <si>
     <t>dot ? [ ? ( ? Null</t>
-  </si>
-  <si>
-    <t>&lt;DOT_ID&gt; ? F&lt;ID_TO_EXPR&gt; ? &lt;OPERAND&gt;</t>
-  </si>
-  <si>
-    <t>power ?  Mdm ?  Pm ? Rop ? 
-And ? Or ? &lt;OPER_TO_EXPR&gt; ? &lt;OPERAND&gt;</t>
   </si>
   <si>
     <t>F&lt;LIST&gt; ? &lt;DOT_EXPR&gt; ? ; F&lt;LIST_G&gt; ? F&lt;LIST_C&gt;</t>
@@ -1195,56 +991,15 @@
     <t>&lt;OPER_TO_EXPR&gt;  ? , ? ;</t>
   </si>
   <si>
-    <t>&lt;INIT&gt; ? F&lt;ID_TO_EXPR&gt; ? &lt;IS_FLAG&gt;</t>
-  </si>
-  <si>
-    <t>, ? ; ? power ?  Mdm ?  Pm ? Rop ? And ? Or ? &lt;OPER_TO_EXPR&gt; ? &lt;IS_FLAG&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">]  ? ) ? F&lt;EXPR_LIST&gt; ? Or ? : ? , ? ; ?  &lt;EXPR_OBJ&gt; </t>
   </si>
   <si>
     <t>F&lt;ARG_LIST&gt;</t>
   </si>
   <si>
-    <t>&lt;EXPR&gt;  ? &lt;ID_TO_EXPR&gt;</t>
-  </si>
-  <si>
-    <t>F&lt;EXPR1&gt; ? &lt;ID_TO_EXPR&gt; ? &lt;F&gt;</t>
-  </si>
-  <si>
-    <t>F&lt;F1&gt; ? F&lt;EXPR1&gt; ? &lt;ID_TO_EXPR&gt; ?  &lt;G&gt;</t>
-  </si>
-  <si>
-    <t>F&lt;G1&gt; ? F&lt;F1&gt; ? F&lt;EXPR1&gt; ?  &lt;ID_TO_EXPR&gt; ?  
-&lt;H&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F&lt;H1&gt; ? F&lt;G1&gt; ? F&lt;F1&gt; ? F&lt;EXPR1&gt; ? 
-&lt;ID_TO_EXPR&gt; ? &lt;I&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">F&lt;I1&gt; ? F&lt;H1&gt; ? F&lt;G1&gt; ? F&lt;F1&gt; ? F&lt;EXPR1&gt; ? 
-&lt;ID_TO_EXPR&gt; ? &lt;J&gt; </t>
-  </si>
-  <si>
     <t>or ? , ? ; ? &lt;F&gt;</t>
   </si>
   <si>
-    <t>and ? or ? , ? ; ? &lt;F&gt; ? &lt;G&gt;</t>
-  </si>
-  <si>
-    <t>rop ? and ? or ? , ? ; ? &lt;F&gt; ? &lt;G&gt; ? &lt;H&gt;</t>
-  </si>
-  <si>
-    <t>pm ? rop ? and ? or ? , ? ; ? &lt;F&gt; 
-? &lt;G&gt; ? &lt;H&gt; ? &lt;I&gt;</t>
-  </si>
-  <si>
-    <t>mdm ? pm ? rop ? and ? or ? , ? ; ? &lt;F&gt; 
-? &lt;G&gt; ? &lt;H&gt; ? &lt;I&gt; ? &lt;J&gt;</t>
-  </si>
-  <si>
     <t>F&lt;F1&gt; ? &lt;F&gt;</t>
   </si>
   <si>
@@ -1263,74 +1018,27 @@
     <t>F&lt;I1&gt; ? &lt;I&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">]  ? ) ? , ? }  ? Or ? :  ? ; </t>
-  </si>
-  <si>
     <t>or ? ]  ? ) ? , ? }  ? :  ? ;</t>
   </si>
   <si>
-    <t>and ? or ? ]  ? ) ? , ? }   ? :  ? ; 
-?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rop ? and ? or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm? rop ? and ? or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdm? pm? rop ? and ? or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">power ? mdm? pm? rop ? and ? or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">power ?  Mdm ?  Pm ? Rop 
-? And ? Or ?  ]  ? ) ? , ? }  ?  :  ? ; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">power ?  Mdm ?  Pm ? Rop ? 
-And ? Or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
-  </si>
-  <si>
     <t>id ? F&lt;ARR_INIT&gt;</t>
   </si>
   <si>
     <t>&lt;SUBSCRIPT&gt;</t>
   </si>
   <si>
-    <t>F&lt;DOT_ID&gt; ? F&lt;INC_DEC_DOT&gt; ? F&lt;DOT_EXPR&gt; ?
- F&lt;DOT_ID3&gt;? F&lt;DOT_ARR&gt; ?F&lt;DOT_ID5&gt;</t>
-  </si>
-  <si>
-    <t>&lt;DOT_ID5&gt; ? &lt;SUBSCRIPT&gt;? &lt;FN_BRACKETS&gt; ? Null</t>
-  </si>
-  <si>
     <t> dot</t>
   </si>
   <si>
     <t> dot ? [ ? ( ? Null</t>
   </si>
   <si>
-    <t>dot ? = ? Cma ? inc_dec ? new? NaN ? power 
-?  Mdm ?  Pm ? Rop ? And ? Or ? 
-&lt;ASSIGN_EXPR&gt;</t>
-  </si>
-  <si>
-    <t>dot ? = ? Cma ? inc_dec ? new? NaN ? power 
-?  Mdm ?  Pm ? Rop ? And ? Or ? 
-, ? ;</t>
-  </si>
-  <si>
     <t>&lt;DOT_ARR&gt;? &lt;SUBSCRIPT&gt; ? &lt;FN_BRACKETS&gt; ? Null</t>
   </si>
   <si>
     <t>dot  ? ;</t>
   </si>
   <si>
-    <t>&lt;DOT_ID2&gt; ? &lt;OPERANDS&gt;</t>
-  </si>
-  <si>
     <t>&lt;POS2&gt; ? &lt;INC_DEC&gt;</t>
   </si>
   <si>
@@ -1377,9 +1085,6 @@
   </si>
   <si>
     <t>else ? Till ? &lt;SST&gt;</t>
-  </si>
-  <si>
-    <t>state ? default ? } else ? Till</t>
   </si>
   <si>
     <t>&lt;IS_FINAL&gt; ? &lt;VAR_OBJ_C&gt;</t>
@@ -1395,23 +1100,7 @@
     <t>= ? ; ? &lt;POSARR&gt; ? &lt;CHOICE&gt;</t>
   </si>
   <si>
-    <t>&lt;FOR_ARG&gt; ? &lt;DOT_ID5&gt;</t>
-  </si>
-  <si>
     <t>)</t>
-  </si>
-  <si>
-    <t>and ? or ? ]  ? ) ? , ? }  ? :  ? ;</t>
-  </si>
-  <si>
-    <t>rop ? and ? or ? ]  ? ) ? , ? }  ? :  ? ;</t>
-  </si>
-  <si>
-    <t>pm ? rop ? and ? or ? ]  ? ) ? , ? }  
-? :  ? ;</t>
-  </si>
-  <si>
-    <t>mdm ? pm ? rop ? and ? or ? ]  ? ) ? , ? }  ? :  ? ;</t>
   </si>
   <si>
     <t>~</t>
@@ -1421,139 +1110,466 @@
  ? Begin?  Class ? Abstract ?  ~</t>
   </si>
   <si>
-    <t>state ? default ? } else ? Till ? def ?  Static ? const ? dt ? id  ? }
- ? Begin?  Class ? Abstract ?  ~</t>
-  </si>
-  <si>
-    <t>= ? ; ? state ? default ? } else ? Till ? def ?  Static ? const ? dt ? id  ? }
- ? Begin?  Class ? Abstract ?  ~</t>
-  </si>
-  <si>
-    <t>= ? ; ? state ? default ? } else ? Till 
-? def ?  Static ? const ? dt ? id  ? }
- ? Begin?  Class ? Abstract ?  ~</t>
-  </si>
-  <si>
-    <t>Begin?  def ?  Class ? Abstract ? 
-const ? dt ? Id ? ~</t>
-  </si>
-  <si>
     <t>SELECTION SET</t>
-  </si>
-  <si>
-    <t>import?Begin?def ?Class?Abstract?const?dt?Id?null</t>
-  </si>
-  <si>
-    <t>Begin?def?Class?Abstract?const?
-dt?Id?null</t>
-  </si>
-  <si>
-    <t>import?Begin? def? Class? Abstract?const?dt?Id ?~</t>
-  </si>
-  <si>
-    <t>Begin?def?Class?Abstract?const?
-dt?Id?~</t>
   </si>
   <si>
     <t>def?Class?Abstract?const ?
 dt?id? Null</t>
   </si>
   <si>
+    <t>mdm ? Null</t>
+  </si>
+  <si>
+    <t>import?Begin?def ?Class?Abstract?const?dt?id?null</t>
+  </si>
+  <si>
+    <t>Begin?def?Class?Abstract?const?
+dt?id?null</t>
+  </si>
+  <si>
+    <t>&lt;id_STAR&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F&lt;ARR_INIT&gt;  ? F&lt;ACCESSMOD&gt; ?  id </t>
+  </si>
+  <si>
+    <t>&lt;ARR_TYPE&gt; ?&lt;DT_id&gt; ? id ? F&lt;ACCESSMOD&gt; ? 
+F&lt;ARR_INIT&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DT_id&gt;  ? )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DT_id&gt; </t>
+  </si>
+  <si>
+    <t>&lt;DT_STR&gt; ? id</t>
+  </si>
+  <si>
+    <t>dt ? str ? id</t>
+  </si>
+  <si>
+    <t>[ ? id ?null</t>
+  </si>
+  <si>
+    <t>&lt;DT_STR&gt; ? id ? &lt;ACCESSMOD_C&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ARR_TYPE&gt; ? &lt;ACCESSMOD_C&gt; ? 
+id ? Null</t>
+  </si>
+  <si>
+    <t>Dot Separated identifers, Function calls, array subscripts</t>
+  </si>
+  <si>
+    <t>End only with id, array subscript.</t>
+  </si>
+  <si>
+    <t>&lt;DOT_id&gt; ? &lt;SUBSCRIPT&gt;  ? 
+&lt;FN_BRACKETS&gt; ? Null</t>
+  </si>
+  <si>
+    <t>&lt;DOT_id&gt; ? F&lt;id_TO_EXPR&gt; ? &lt;OPERAND&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;DOT_id&gt; ? F&lt;INC_DEC_DOT&gt; ? F&lt;DOT_EXPR&gt; ?
+ F&lt;DOT_id3&gt;? F&lt;DOT_ARR&gt; ?F&lt;DOT_id5&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DOT_id&gt;     </t>
+  </si>
+  <si>
+    <t>End with id and array subscript with posibility of pos 
+increment decrement in the end, and function call ends with null.</t>
+  </si>
+  <si>
+    <t>&lt;DOT_id2&gt; ? &lt;OPERANDS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;INC_DEC&gt; ?  &lt;DOT_id2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DOT_id2&gt;    </t>
+  </si>
+  <si>
+    <t>]? &lt;EXPR&gt; ? &lt;DOT_id3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ARR_DEC&gt; ? id</t>
+  </si>
+  <si>
+    <t>[  ? id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot? &lt;ASSIGN_OP&gt;? &lt;INC_DEC&gt; ? 
+&lt;NEW_OBJ&gt; ? &lt;id_TO_EXPR&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot ? &lt;id_TO_EXPR&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;id_TO_EXPR&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DOT_id3&gt; ? &lt;SUBSCRIPT&gt; ? &lt;FN_BRACKETS&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DOT_id3&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DOT_id4&gt;   </t>
+  </si>
+  <si>
+    <t>dt ? id</t>
+  </si>
+  <si>
+    <t>Begin?  def ?  Class ? Abstract ? 
+const ? dt ? id ? ~</t>
+  </si>
+  <si>
+    <t>[ ? id ? =  ? ;</t>
+  </si>
+  <si>
+    <t>&lt;EXPR&gt;  ? &lt;id_TO_EXPR&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;EXPR1&gt; ? &lt;id_TO_EXPR&gt; ? &lt;F&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;F1&gt; ? F&lt;EXPR1&gt; ? &lt;id_TO_EXPR&gt; ?  &lt;G&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;G1&gt; ? F&lt;F1&gt; ? F&lt;EXPR1&gt; ?  &lt;id_TO_EXPR&gt; ?  
+&lt;H&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F&lt;H1&gt; ? F&lt;G1&gt; ? F&lt;F1&gt; ? F&lt;EXPR1&gt; ? 
+&lt;id_TO_EXPR&gt; ? &lt;I&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F&lt;I1&gt; ? F&lt;H1&gt; ? F&lt;G1&gt; ? F&lt;F1&gt; ? F&lt;EXPR1&gt; ? 
+&lt;id_TO_EXPR&gt; ? &lt;J&gt; </t>
+  </si>
+  <si>
+    <t>&lt;INIT&gt; ? F&lt;id_TO_EXPR&gt; ? &lt;IS_FLAG&gt;</t>
+  </si>
+  <si>
+    <t>&lt;FOR_ARG&gt; ? &lt;DOT_id5&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DOT_id5&gt;</t>
+  </si>
+  <si>
+    <t>pm ? Parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
+floatConst ? charConst ? boolConst ? strConst ? )</t>
+  </si>
+  <si>
+    <t>pm ? Parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
+floatConst ? charConst ? boolConst ? strConst ?  new ? NaN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">]? pm ? Parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
+floatConst ? charConst ? boolConst ? strConst ?  dot ? inc_dec ? = ? cma </t>
+  </si>
+  <si>
+    <t>Parent ? Self ? Null</t>
+  </si>
+  <si>
+    <t>Parent ? Self ?id</t>
+  </si>
+  <si>
+    <t>pm ? Parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
+floatConst ? charConst ? boolConst ? strConst ? ]</t>
+  </si>
+  <si>
+    <t>pm ? Parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
+floatConst ? charConst ? boolConst ? strConst ? {  ? }</t>
+  </si>
+  <si>
+    <t>pm ? Parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
+floatConst ? charConst ? boolConst ? strConst</t>
+  </si>
+  <si>
+    <t>Parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
+floatConst ? charConst ? boolConst ? strConst</t>
+  </si>
+  <si>
+    <t>Parent ? Self</t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ? id ? Parent ? Self ?  test ?  loop ? do ? stop ? Ret ? Cont ? raise</t>
+  </si>
+  <si>
+    <t>Ret</t>
+  </si>
+  <si>
+    <t> Cont</t>
+  </si>
+  <si>
+    <t>; ?  if ? shift ? const ? dt ? id ? Parent ? Self ?  
+test ?  loop ? do ? stop ? Ret ? Cont ? raise ? {</t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ? id ? Parent ? Self ?  test ?  loop ? do ? stop ? Ret ? Cont ? raise ? Null</t>
+  </si>
+  <si>
+    <t>{ ? ; if ? shift ? const ? dt ? id ? Parent ? Self ?  test ?  Loop ? do ? stop ? Ret ? Cont ? raise ? state ? default ? }</t>
+  </si>
+  <si>
+    <t>id ? dt ? str</t>
+  </si>
+  <si>
+    <t>id? dt ? str ? )</t>
+  </si>
+  <si>
+    <t>id? dt ? str</t>
+  </si>
+  <si>
+    <t> Class ? id? dt ? str</t>
+  </si>
+  <si>
+    <t>dt ? str ? id ? private ? protected</t>
+  </si>
+  <si>
+    <t>Static ?dt ? str ? id ? private ? protected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ ? private ? protected ? id ? null </t>
+  </si>
+  <si>
+    <t>private ? protected</t>
+  </si>
+  <si>
+    <t>[ ? protected ? private ? id</t>
+  </si>
+  <si>
+    <t>power ?  mdm ?  pm ? Rop ? 
+And ? Or ? &lt;OPER_TO_EXPR&gt; ? &lt;OPERAND&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power ?  mdm ?  pm ? Rop ? 
+And ? Or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
+  </si>
+  <si>
+    <t>dot ? = ? Cma ? inc_dec ? new? NaN ? power 
+?  mdm ?  pm ? Rop ? And ? Or ? 
+&lt;ASSIGN_EXPR&gt;</t>
+  </si>
+  <si>
+    <t>dot ? = ? Cma ? inc_dec ? new? NaN ? power 
+?  mdm ?  pm ? Rop ? And ? Or ? 
+, ? ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power ?  mdm ?  pm ? Rop 
+? And ? Or ?  ]  ? ) ? , ? }  ?  :  ? ; </t>
+  </si>
+  <si>
+    <t>Parent ? Self ? id ? new? NaN ?  inc_dec ? ( ? typeCast 
+? Not ? intConst ? floatConst 
+? charConst ? boolConst ? strConst ? pm</t>
+  </si>
+  <si>
+    <t>dot ? power ?  mdm ?  pm ? Rop ? And ? 
+Or ? Null ? [ ? (</t>
+  </si>
+  <si>
+    <t>dot ? = ? Cma ? inc_dec ? new? NaN ? power 
+?  mdm ?  pm ? Rop ? And ? Or ? Null</t>
+  </si>
+  <si>
+    <t>dot ? power ?  mdm ?  pm ? Rop ? And ? 
+Or ? Null</t>
+  </si>
+  <si>
+    <t>power ?  mdm ?  pm ? Rop ? And ? Or ? Null</t>
+  </si>
+  <si>
+    <t>, ? ; ? power ?  mdm ?  pm ? Rop ? And ? Or ? &lt;OPER_TO_EXPR&gt; ? &lt;IS_FLAG&gt;</t>
+  </si>
+  <si>
+    <t>And ? null</t>
+  </si>
+  <si>
+    <t>And ? or ? ]  ? ) ? , ? }   ? :  ? ; 
+?</t>
+  </si>
+  <si>
+    <t>And ? or ? , ? ; ? &lt;F&gt; ? &lt;G&gt;</t>
+  </si>
+  <si>
+    <t>And ? or ? ]  ? ) ? , ? }  ? :  ? ;</t>
+  </si>
+  <si>
+    <t>Rop ?  null</t>
+  </si>
+  <si>
+    <t>Rop ? And ? or ? ]  ? ) ? , ? }  ? :  ? ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rop ? And ? or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
+  </si>
+  <si>
+    <t>Rop ? And ? or ? , ? ; ? &lt;F&gt; ? &lt;G&gt; ? &lt;H&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm? Rop ? And ? or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
+  </si>
+  <si>
+    <t>pm ? Rop ? And ? or ? , ? ; ? &lt;F&gt; 
+? &lt;G&gt; ? &lt;H&gt; ? &lt;I&gt;</t>
+  </si>
+  <si>
+    <t>pm ? Rop ? And ? or ? ]  ? ) ? , ? }  
+? :  ? ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdm? pm? Rop ? And ? or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
+  </si>
+  <si>
+    <t>mdm ? pm ? Rop ? And ? or ? , ? ; ? &lt;F&gt; 
+? &lt;G&gt; ? &lt;H&gt; ? &lt;I&gt; ? &lt;J&gt;</t>
+  </si>
+  <si>
+    <t>mdm ? pm ? Rop ? And ? or ? ]  ? ) ? , ? }  ? :  ? ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power ? mdm? pm? Rop ? And ? or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ? id ? Parent ?
+ Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise?state ? default ? } ?else ? Till</t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ? id ? Parent ?
+ Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise?state ? default ? } ?else ? Till?def ?  Static ?Begin?  Class ? Abstract ?  ~</t>
+  </si>
+  <si>
+    <t>= ? ;?if ? shift ? const ? dt ? id ? Parent ?
+ Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise?state ? default ? } ?else ? Till?def ?  Static ?Begin?  Class ? Abstract ?  ~</t>
+  </si>
+  <si>
+    <t>&lt;DOT_id5&gt; ? &lt;SUBSCRIPT&gt;? &lt;FN_BRACKETS&gt; 
+ ? Null</t>
+  </si>
+  <si>
+    <t>SELECTION SET NULL</t>
+  </si>
+  <si>
     <t>def?Class?Abstract?const ?
-dt?id?~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if ? Shift ? const ? dt ? id ? Parent ? Self ?  Test ?  Loop ? do ? stop ? Ret ? Cont ? Raise ?state ? default ? } </t>
-  </si>
-  <si>
-    <t>[?id ?protected?private</t>
-  </si>
-  <si>
-    <t>protected?private?id</t>
-  </si>
-  <si>
-    <t>[ ? Id ?(</t>
-  </si>
-  <si>
-    <t>[ ? private ? Protected ? id ?(</t>
-  </si>
-  <si>
-    <t>protected ?id</t>
-  </si>
-  <si>
-    <t>&lt;?(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dot ? [ ? ( ? power ?  Mdm ?  Pm ? Rop ? 
-And ? Or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
-  </si>
-  <si>
-    <t>[ ? dot ? = ? Cma ? inc_dec ? new? NaN ? power 
-?  Mdm ?  Pm ? Rop ? And ? Or ? 
-, ? ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inc_dec ? dot  ? [ ? ( ?power ?  Mdm ?  Pm ? Rop 
-? And ? Or ?  ]  ? ) ? , ? }  ?  :  ? ; </t>
-  </si>
-  <si>
-    <t>parent ? Self ?id</t>
-  </si>
-  <si>
-    <t>dot ? power ?  Mdm ?  Pm ? Rop ? And ? 
-Or ?  [ ? (?, ? ;</t>
+dt?id</t>
+  </si>
+  <si>
+    <t>Begin?def?Class?Abstract?const?
+dt?id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import?Begin? def? Class? Abstract?const?dt?id </t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ? id ? Parent ? Self ?  test ?  loop ? do ? stop ? Ret ? Cont ? Raise</t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ? id ? Parent ? Self ?  test ?  loop ? do ? stop ?
+ Ret ? Cont ? raise</t>
+  </si>
+  <si>
+    <t>id ?protected?private</t>
+  </si>
+  <si>
+    <t>protected?private</t>
+  </si>
+  <si>
+    <t>[ ? Id</t>
+  </si>
+  <si>
+    <t>[ ? private ? protected ? Id</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot ? [ ? ( </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ </t>
+  </si>
+  <si>
+    <t>inc_dec ? dot  ? [ ? (</t>
+  </si>
+  <si>
+    <t>dot ? power ?  mdm ?  pm ? Rop ? And ? 
+Or ?  [ ? (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power ?  mdm ?  pm ? Rop ? And ? Or </t>
   </si>
   <si>
     <t>dot ? = ? Cma ? inc_dec ? new? NaN ? power 
-?  Mdm ?  Pm ? Rop ? And ? Or ? , ? ;</t>
-  </si>
-  <si>
-    <t>dot ? power ?  Mdm ?  Pm ? Rop ? And ? 
-Or ?, ? ;</t>
-  </si>
-  <si>
-    <t>power ?  Mdm ?  Pm ? Rop ? And ? Or ?, ? ;</t>
-  </si>
-  <si>
-    <t>dot ? [ ? ( ?'= ? ; ? state ? default ? } else ? Till ? def ? 
+?  mdm ?  pm ? Rop ? And ? Or</t>
+  </si>
+  <si>
+    <t>dot ? power ?  mdm ?  pm ? Rop ? And ? Or</t>
+  </si>
+  <si>
+    <t>= ? ; ? state ? default ? } else ? Till ? def ? 
  Static ? const ? dt ? id  ? }? Begin?  Class ? Abstract ?  ~</t>
   </si>
   <si>
-    <t xml:space="preserve">or ?]  ? ) ? , ? }  ? Or ? :  ? ; </t>
-  </si>
-  <si>
-    <t>and ?or ? ]  ? ) ? , ? }  ? :  ? ;</t>
-  </si>
-  <si>
-    <t>mdm ?pm ? rop ? and ? or ? ]  ? ) ? , ? }  
+    <t xml:space="preserve">]  ? ) ? , ? }  ? :  ? ; </t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>rop</t>
+  </si>
+  <si>
+    <t>and ? or ? ]  ? ) ? , ? }  ? :  ? ;</t>
+  </si>
+  <si>
+    <t> pm</t>
+  </si>
+  <si>
+    <t>rop ? and ? or ? ]  ? ) ? , ? }  ? :  ? ;</t>
+  </si>
+  <si>
+    <t>mdm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pm ? rop ? and ? or ? ]  ? ) ? , ? }  
 ? :  ? ;</t>
   </si>
   <si>
-    <t>power ? mdm ? pm ? rop ? and ? or ? ]  ? ) ? , ? }  ? :  ? ;</t>
-  </si>
-  <si>
-    <t> pm ? rop ? and ? or ? ]  ? ) ? , ? }  ? :  ? ;</t>
-  </si>
-  <si>
-    <t>mdm ? Null</t>
-  </si>
-  <si>
-    <t>else ? state ? default ? } else ? Till</t>
-  </si>
-  <si>
-    <t> dot ? [ ? ( ?)</t>
-  </si>
-  <si>
-    <t>except ? finally ?state ? default ? } else ? Till</t>
-  </si>
-  <si>
-    <t>raises ?{ ? ;</t>
+    <t>power</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t> dot ? [ ? (</t>
+  </si>
+  <si>
+    <t>except ? Finally</t>
+  </si>
+  <si>
+    <t>raises</t>
+  </si>
+  <si>
+    <t>mdm ? pm ? rop ? and ? or 
+? ]  ? ) ? , ? }  ? :  ? ;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1719,7 +1735,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1821,11 +1837,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2112,26 +2129,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="C160" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="I170" sqref="I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" customWidth="1"/>
     <col min="5" max="5" width="48.85546875" customWidth="1"/>
     <col min="6" max="6" width="37.42578125" customWidth="1"/>
     <col min="7" max="7" width="40.42578125" customWidth="1"/>
-    <col min="8" max="8" width="57.28515625" customWidth="1"/>
+    <col min="8" max="8" width="44.85546875" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2139,204 +2157,219 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="D3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>455</v>
+        <v>360</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>448</v>
+        <v>355</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="I4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>456</v>
+        <v>361</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>448</v>
+        <v>355</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="I5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="D6" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>448</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>331</v>
+      <c r="D10" s="43" t="s">
+        <v>416</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>435</v>
+        <v>348</v>
       </c>
       <c r="F10" t="s">
-        <v>436</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>437</v>
+        <v>349</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>454</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>330</v>
+        <v>248</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>413</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>437</v>
+        <v>347</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>454</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="37" t="s">
-        <v>332</v>
+      <c r="D14" s="43" t="s">
+        <v>417</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+      <c r="I14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
@@ -2348,19 +2381,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
@@ -2372,7 +2405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
@@ -2384,67 +2417,67 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="D22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="D23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="35" t="s">
-        <v>295</v>
+      <c r="C26" s="45" t="s">
+        <v>419</v>
       </c>
       <c r="D26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="D27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
@@ -2453,58 +2486,61 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>367</v>
+        <v>363</v>
+      </c>
+      <c r="F28" t="s">
+        <v>307</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>367</v>
+        <v>307</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>274</v>
+        <v>412</v>
       </c>
       <c r="D30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
@@ -2513,408 +2549,423 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="17" t="s">
-        <v>410</v>
+        <v>328</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="I33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>334</v>
+        <v>365</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>420</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>366</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="35" t="s">
-        <v>277</v>
+      <c r="D42" s="45" t="s">
+        <v>421</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C45" s="15" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>279</v>
+        <v>369</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>368</v>
+        <v>308</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+      <c r="I45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D48" s="2"/>
       <c r="H48" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="G53" s="24" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>39</v>
-      </c>
       <c r="H53" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+      <c r="I53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>52</v>
+        <v>426</v>
       </c>
       <c r="D54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>296</v>
+        <v>56</v>
+      </c>
+      <c r="D58" s="44" t="s">
+        <v>422</v>
       </c>
       <c r="H58" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="D59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="35" t="s">
         <v>57</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>63</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="24" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="I60" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="35" t="s">
         <v>58</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>64</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="I61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="35" t="s">
         <v>59</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>65</v>
       </c>
       <c r="D62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="F67" s="24" t="s">
-        <v>293</v>
+        <v>351</v>
+      </c>
+      <c r="F67" t="s">
+        <v>263</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -2924,145 +2975,150 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
-        <v>86</v>
+        <v>372</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
-        <v>71</v>
+        <v>373</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="I71" s="8"/>
-    </row>
-    <row r="72" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C72" s="35" t="s">
         <v>29</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="25" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="F72" s="30" t="s">
-        <v>416</v>
-      </c>
-      <c r="G72" s="31" t="s">
-        <v>417</v>
+        <v>430</v>
+      </c>
+      <c r="G72" t="s">
+        <v>431</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="17" t="s">
-        <v>411</v>
+        <v>329</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>303</v>
+        <v>403</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>303</v>
+        <v>403</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C76" s="38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D76" s="2"/>
       <c r="H76" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D77" s="36" t="s">
-        <v>304</v>
+        <v>404</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="F77" s="24" t="s">
-        <v>44</v>
+        <v>319</v>
+      </c>
+      <c r="F77" t="s">
+        <v>41</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>304</v>
+        <v>404</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>78</v>
+        <v>377</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
       <c r="D78" s="2"/>
     </row>
@@ -3071,469 +3127,484 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>267</v>
+        <v>378</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="D81" s="39" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>423</v>
+        <v>336</v>
       </c>
       <c r="G81" s="28" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="H81" s="34" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>84</v>
+        <v>380</v>
       </c>
       <c r="D82" s="39" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>422</v>
+        <v>335</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>422</v>
+        <v>335</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>381</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="17" t="s">
-        <v>421</v>
+        <v>334</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>422</v>
+        <v>335</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="13" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="24" t="s">
+      <c r="F87" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D89" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D92" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="F92" t="s">
+        <v>97</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D94" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="E94" t="s">
+        <v>315</v>
+      </c>
+      <c r="F94" t="s">
+        <v>97</v>
+      </c>
+      <c r="H94" s="20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D95" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I95" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D96" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="D97" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="G97" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I97" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D98" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="H87" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D88" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D89" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D90" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="F90" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C91" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B92" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D92" s="37" t="s">
-        <v>338</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="F92" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D93" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B94" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="D94" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="E94" t="s">
-        <v>377</v>
-      </c>
-      <c r="F94" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H94" s="20" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B95" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D95" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="F95" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="G95" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B96" s="2" t="s">
+      <c r="E98" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="G98" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D96" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="E96" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="F96" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="G96" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B97" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="D97" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="F97" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="G97" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H97" s="1" t="s">
+      <c r="H98" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="98" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B98" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D98" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="F98" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="G98" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D99" s="2"/>
       <c r="H99" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D100" s="2"/>
       <c r="H100" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="13" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="11" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>120</v>
+        <v>388</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
-        <v>118</v>
+        <v>390</v>
       </c>
       <c r="C106" s="35" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D106" s="2"/>
       <c r="H106" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D107" s="39" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="13" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C110" s="35" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D110" s="2"/>
       <c r="H110" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="13" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>25</v>
@@ -3542,18 +3613,18 @@
         <v>29</v>
       </c>
       <c r="E114" t="s">
-        <v>431</v>
-      </c>
-      <c r="F114" s="24" t="s">
-        <v>437</v>
+        <v>344</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>454</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>25</v>
@@ -3562,293 +3633,295 @@
         <v>29</v>
       </c>
       <c r="E115" t="s">
-        <v>432</v>
-      </c>
-      <c r="F115" s="28" t="s">
-        <v>449</v>
+        <v>345</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>356</v>
       </c>
       <c r="G115" s="8"/>
       <c r="H115" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C116" s="35" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s">
-        <v>430</v>
-      </c>
-      <c r="F116" s="28" t="s">
-        <v>450</v>
+        <v>343</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B117" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s">
-        <v>429</v>
-      </c>
-      <c r="F117" s="28" t="s">
-        <v>450</v>
+        <v>342</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D118" s="36" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="E118" t="s">
-        <v>428</v>
-      </c>
-      <c r="F118" s="28" t="s">
-        <v>450</v>
+        <v>341</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="H119" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D120" s="37" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>418</v>
+        <v>332</v>
       </c>
       <c r="D121" s="38" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>424</v>
+        <v>337</v>
       </c>
       <c r="F121" s="32" t="s">
-        <v>441</v>
+        <v>353</v>
       </c>
       <c r="G121" s="33" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="I121" s="20" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>425</v>
+        <v>338</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="G122" s="33" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="G122" s="20" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
+        <v>121</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D123" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="F123" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="H123" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D125" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
         <v>139</v>
       </c>
-      <c r="C123" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D123" s="38" t="s">
-        <v>419</v>
-      </c>
-      <c r="E123" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="F123" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="H123" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
+      <c r="C127" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="H127" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
         <v>140</v>
       </c>
-      <c r="C124" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>141</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D125" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="G125" s="24"/>
-      <c r="H125" s="8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>157</v>
-      </c>
-      <c r="C127" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="H127" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>158</v>
-      </c>
       <c r="C128" s="17" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D128" s="37" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D129" s="38" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="H129" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C130" s="38" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="H130" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D131" s="37" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C132" s="38" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="H132" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C135" s="38" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="H135" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D136" s="36" t="s">
-        <v>313</v>
+        <v>409</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>313</v>
+        <v>409</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C137" s="38" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
@@ -3856,966 +3929,995 @@
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="D140" s="38" t="s">
-        <v>329</v>
+        <v>391</v>
       </c>
       <c r="E140" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="F140" s="28" t="s">
-        <v>453</v>
-      </c>
-      <c r="G140" s="24"/>
+        <v>352</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>392</v>
+      </c>
       <c r="H140" t="s">
-        <v>329</v>
+        <v>391</v>
       </c>
     </row>
     <row r="141" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="C141" s="38" t="s">
-        <v>329</v>
+        <v>391</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F141" s="28" t="s">
-        <v>453</v>
+        <v>147</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>392</v>
       </c>
       <c r="H141" t="s">
-        <v>329</v>
+        <v>391</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D142" s="38" t="s">
-        <v>295</v>
+        <v>152</v>
+      </c>
+      <c r="D142" s="44" t="s">
+        <v>419</v>
       </c>
       <c r="H142" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
     </row>
     <row r="143" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>312</v>
+        <v>393</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="F143" s="28" t="s">
-        <v>453</v>
+        <v>280</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>392</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>312</v>
+        <v>393</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C144" s="41" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="D144" s="5"/>
       <c r="H144" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C145" s="38" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="H145" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F148" s="24" t="s">
-        <v>293</v>
+        <v>62</v>
+      </c>
+      <c r="F148" t="s">
+        <v>263</v>
       </c>
       <c r="H148" s="19" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C149" s="38" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="F149" s="24" t="s">
-        <v>293</v>
+        <v>156</v>
+      </c>
+      <c r="F149" t="s">
+        <v>263</v>
       </c>
       <c r="H149" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C150" s="42" t="s">
         <v>23</v>
       </c>
       <c r="D150" s="38" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="E150" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F150" t="s">
+        <v>263</v>
+      </c>
+      <c r="H150" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>159</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D151" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="E151" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="F151" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G151" t="s">
+        <v>263</v>
+      </c>
+      <c r="H151" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>160</v>
+      </c>
+      <c r="C152" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>161</v>
+      </c>
+      <c r="C153" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="H153" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B155" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>166</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D156" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="E156" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="F156" t="s">
+        <v>478</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>167</v>
+      </c>
+      <c r="C157" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="E157" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="F157" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="H157" t="s">
+        <v>479</v>
+      </c>
+      <c r="I157" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>168</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D158" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="E158" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="F158" t="s">
+        <v>327</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>169</v>
+      </c>
+      <c r="C159" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="E159" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="F159" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="G159" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="H159" t="s">
+        <v>480</v>
+      </c>
+      <c r="I159" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>170</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D160" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="E160" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="F160" t="s">
+        <v>440</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>171</v>
+      </c>
+      <c r="C161" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="E161" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="F161" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="G161" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="H161" t="s">
+        <v>481</v>
+      </c>
+      <c r="I161" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>172</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D162" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="E162" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="F162" t="s">
+        <v>445</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>173</v>
+      </c>
+      <c r="C163" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E163" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="F163" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="G163" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="H163" t="s">
+        <v>483</v>
+      </c>
+      <c r="I163" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>174</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D164" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="E164" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="F164" t="s">
+        <v>447</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
         <v>175</v>
       </c>
-      <c r="F150" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="H150" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
+      <c r="C165" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="E165" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="F165" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="G165" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="I165" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>176</v>
+      </c>
+      <c r="C166" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C151" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D151" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="E151" s="17" t="s">
+      <c r="D166" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="E166" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="F166" t="s">
+        <v>450</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>96</v>
+      </c>
+      <c r="C167" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E167" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="F167" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="G167" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="H167" t="s">
+        <v>487</v>
+      </c>
+      <c r="I167" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>177</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D168" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="E168" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="F168" t="s">
+        <v>453</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>178</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D169" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="E169" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F169" t="s">
+        <v>453</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B171" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B172" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C172" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D172" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="E172" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="F172" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="F151" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="G151" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="H151" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>178</v>
-      </c>
-      <c r="C152" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="H152" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>179</v>
-      </c>
-      <c r="C153" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="H153" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="156" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>184</v>
-      </c>
-      <c r="C156" s="17" t="s">
+      <c r="G172" t="s">
+        <v>432</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
         <v>186</v>
       </c>
-      <c r="D156" s="36" t="s">
-        <v>302</v>
-      </c>
-      <c r="E156" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="F156" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>185</v>
-      </c>
-      <c r="C157" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="E157" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="F157" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="H157" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="158" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>186</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D158" s="36" t="s">
-        <v>302</v>
-      </c>
-      <c r="E158" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="F158" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="H158" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
+      <c r="C173" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="H173" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
         <v>187</v>
       </c>
-      <c r="C159" s="38" t="s">
+      <c r="C174" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="H174" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B176" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B177" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C177" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="H177" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C178" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="H178" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B181" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="E159" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="F159" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="G159" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="H159" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="160" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>188</v>
-      </c>
-      <c r="C160" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D160" s="36" t="s">
-        <v>302</v>
-      </c>
-      <c r="E160" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="F160" s="44" t="s">
-        <v>403</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>189</v>
-      </c>
-      <c r="C161" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="E161" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="F161" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="G161" s="24" t="s">
-        <v>444</v>
-      </c>
-      <c r="H161" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="162" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>190</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D162" s="36" t="s">
-        <v>302</v>
-      </c>
-      <c r="E162" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="F162" s="44" t="s">
-        <v>404</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="163" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>191</v>
-      </c>
-      <c r="C163" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="E163" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="F163" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="G163" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="H163" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="164" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>192</v>
-      </c>
-      <c r="C164" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D164" s="36" t="s">
-        <v>302</v>
-      </c>
-      <c r="E164" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="F164" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="165" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>193</v>
-      </c>
-      <c r="C165" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="E165" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="F165" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="G165" s="28" t="s">
-        <v>446</v>
-      </c>
-      <c r="H165" s="8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="166" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
+    </row>
+    <row r="182" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
         <v>194</v>
       </c>
-      <c r="C166" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D166" s="36" t="s">
-        <v>302</v>
-      </c>
-      <c r="E166" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="F166" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
-        <v>111</v>
-      </c>
-      <c r="C167" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="E167" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="F167" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="G167" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="H167" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>195</v>
-      </c>
-      <c r="C168" s="17" t="s">
+      <c r="C182" s="38" t="s">
         <v>196</v>
-      </c>
-      <c r="D168" s="36" t="s">
-        <v>302</v>
-      </c>
-      <c r="E168" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="F168" s="44" t="s">
-        <v>407</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
-        <v>196</v>
-      </c>
-      <c r="C169" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D169" s="36" t="s">
-        <v>302</v>
-      </c>
-      <c r="E169" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="F169" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B171" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="172" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B172" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C172" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="D172" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="E172" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="F172" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="G172" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
-        <v>206</v>
-      </c>
-      <c r="C173" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="H173" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>207</v>
-      </c>
-      <c r="C174" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H174" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B176" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="177" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B177" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C177" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="H177" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B178" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C178" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="H178" s="20" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B180" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B181" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
-        <v>214</v>
-      </c>
-      <c r="C182" s="38" t="s">
-        <v>216</v>
       </c>
       <c r="E182" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F182" s="24" t="s">
-        <v>437</v>
+      <c r="F182" s="8" t="s">
+        <v>454</v>
       </c>
       <c r="H182" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>195</v>
+      </c>
+      <c r="C183" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="E183" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F183" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="H183" t="s">
+        <v>488</v>
+      </c>
+      <c r="I183" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B185" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>200</v>
+      </c>
+      <c r="C186" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="H186" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>201</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D187" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="H187" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>202</v>
+      </c>
+      <c r="C188" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="H188" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>297</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="D189" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="H189" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B191" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B193" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>209</v>
+      </c>
+      <c r="C194" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="H194" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>210</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D195" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="H195" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B197" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>213</v>
+      </c>
+      <c r="C198" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H198" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>214</v>
+      </c>
+      <c r="C199" s="38" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
-        <v>215</v>
-      </c>
-      <c r="C183" s="38" t="s">
+      <c r="H199" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B201" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="E183" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="F183" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="H183" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B185" s="12" t="s">
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>218</v>
+      </c>
+      <c r="C202" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="H202" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
+      <c r="C203" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="E203" t="s">
+        <v>354</v>
+      </c>
+      <c r="H203" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
         <v>220</v>
       </c>
-      <c r="C186" s="38" t="s">
+      <c r="C204" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="D204" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="E204" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="F204" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="H204" t="s">
+        <v>489</v>
+      </c>
+      <c r="I204" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>402</v>
+      </c>
+      <c r="C205" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="E205" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F205" t="s">
+        <v>354</v>
+      </c>
+      <c r="H205" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B207" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H186" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>221</v>
-      </c>
-      <c r="C187" s="17" t="s">
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B208" s="7"/>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B209" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>226</v>
+      </c>
+      <c r="C210" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="H210" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>227</v>
+      </c>
+      <c r="C211" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="H211" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>228</v>
+      </c>
+      <c r="C212" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="H212" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B214" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D187" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="H187" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
-        <v>222</v>
-      </c>
-      <c r="C188" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="H188" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="189" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>354</v>
-      </c>
-      <c r="C189" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="D189" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="H189" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B191" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B193" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
-        <v>229</v>
-      </c>
-      <c r="C194" s="38" t="s">
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
         <v>231</v>
       </c>
-      <c r="H194" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
-        <v>230</v>
-      </c>
-      <c r="C195" s="17" t="s">
+      <c r="C215" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="H215" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B217" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D195" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="H195" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B197" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
         <v>233</v>
       </c>
-      <c r="C198" s="38" t="s">
+      <c r="C218" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="H218" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B220" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="H198" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>234</v>
-      </c>
-      <c r="C199" s="38" t="s">
+    </row>
+    <row r="221" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
         <v>236</v>
       </c>
-      <c r="H199" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B201" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
-        <v>238</v>
-      </c>
-      <c r="C202" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="H202" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
-        <v>239</v>
-      </c>
-      <c r="C203" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="E203" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H203" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
-        <v>240</v>
-      </c>
-      <c r="C204" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="D204" s="38" t="s">
-        <v>415</v>
-      </c>
-      <c r="E204" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="F204" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H204" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
+      <c r="C221" s="38" t="s">
         <v>241</v>
-      </c>
-      <c r="C205" s="38" t="s">
-        <v>414</v>
-      </c>
-      <c r="E205" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="F205" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H205" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B207" s="10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B208" s="7"/>
-    </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B209" s="12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
-        <v>247</v>
-      </c>
-      <c r="C210" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="H210" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
-        <v>248</v>
-      </c>
-      <c r="C211" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="H211" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
-        <v>249</v>
-      </c>
-      <c r="C212" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="H212" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B214" s="12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
-        <v>253</v>
-      </c>
-      <c r="C215" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="H215" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B217" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
-        <v>256</v>
-      </c>
-      <c r="C218" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="H218" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B220" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
-        <v>259</v>
-      </c>
-      <c r="C221" s="38" t="s">
-        <v>264</v>
       </c>
       <c r="E221" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F221" s="24" t="s">
-        <v>437</v>
+      <c r="F221" s="8" t="s">
+        <v>454</v>
       </c>
       <c r="H221" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="C222" s="23" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="D222" s="38" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="E222" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="F222" s="24" t="s">
-        <v>437</v>
+        <v>236</v>
+      </c>
+      <c r="F222" s="28" t="s">
+        <v>454</v>
       </c>
       <c r="H222" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="I222" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="C223" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H223" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="C224" s="38" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="H224" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="C225" s="38" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="E225" s="17" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
       <c r="F225" s="24" t="s">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="H225" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="I225" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="C226" s="38" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="H226" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omera\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6529ED-5BBC-403F-83C9-6585570FFFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182E7041-0906-4DB7-957D-1152D38C861F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="494">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -763,9 +763,6 @@
   </si>
   <si>
     <t>FIRST SET (substituting NN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;PACKAGE&gt; </t>
   </si>
   <si>
     <t>Class</t>
@@ -1564,6 +1561,12 @@
   <si>
     <t>mdm ? pm ? rop ? and ? or 
 ? ]  ? ) ? , ? }  ? :  ? ;</t>
+  </si>
+  <si>
+    <t>&lt;PACKAGE&gt;  | null</t>
+  </si>
+  <si>
+    <t>package | null</t>
   </si>
 </sst>
 </file>
@@ -2132,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C160" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="I170" sqref="I170"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2160,19 +2163,19 @@
         <v>244</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>294</v>
-      </c>
       <c r="G1" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -2187,13 +2190,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>245</v>
+        <v>492</v>
       </c>
       <c r="D3" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>355</v>
+      <c r="I3" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -2201,22 +2210,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -2224,22 +2233,22 @@
         <v>6</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -2247,22 +2256,22 @@
         <v>7</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -2290,19 +2299,19 @@
         <v>9</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E10" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="F10" t="s">
         <v>348</v>
       </c>
-      <c r="F10" t="s">
-        <v>349</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -2318,20 +2327,20 @@
         <v>10</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -2342,19 +2351,19 @@
         <v>28</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -2422,23 +2431,23 @@
         <v>19</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -2458,11 +2467,11 @@
         <v>23</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -2470,11 +2479,11 @@
         <v>24</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -2486,10 +2495,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>29</v>
@@ -2500,20 +2509,20 @@
         <v>26</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -2521,11 +2530,11 @@
         <v>27</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -2535,7 +2544,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2549,16 +2558,16 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -2612,13 +2621,13 @@
         <v>35</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -2635,16 +2644,16 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -2657,13 +2666,13 @@
         <v>39</v>
       </c>
       <c r="C44" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="D44" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="D44" s="35" t="s">
-        <v>368</v>
-      </c>
       <c r="H44" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -2671,22 +2680,22 @@
         <v>40</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>38</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I45" t="s">
         <v>38</v>
@@ -2721,41 +2730,41 @@
         <v>44</v>
       </c>
       <c r="C49" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D49" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="D49" s="35" t="s">
-        <v>257</v>
-      </c>
       <c r="H49" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>260</v>
-      </c>
       <c r="D51" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -2763,36 +2772,36 @@
         <v>45</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G53" s="24" t="s">
         <v>38</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I53" t="s">
         <v>38</v>
@@ -2803,11 +2812,11 @@
         <v>46</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -2830,10 +2839,10 @@
         <v>55</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -2844,10 +2853,10 @@
         <v>56</v>
       </c>
       <c r="D58" s="44" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H58" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -2855,11 +2864,11 @@
         <v>50</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -2871,13 +2880,13 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I60" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -2892,7 +2901,7 @@
         <v>38</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I61" t="s">
         <v>38</v>
@@ -2942,10 +2951,10 @@
         <v>63</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -2956,16 +2965,16 @@
         <v>64</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F67" t="s">
+        <v>262</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -2975,14 +2984,14 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2992,25 +3001,25 @@
         <v>65</v>
       </c>
       <c r="C71" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="E71" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="D71" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>375</v>
-      </c>
       <c r="F71" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="G71" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="G71" s="28" t="s">
-        <v>429</v>
-      </c>
       <c r="H71" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -3022,13 +3031,13 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F72" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="G72" t="s">
         <v>430</v>
-      </c>
-      <c r="G72" t="s">
-        <v>431</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>29</v>
@@ -3036,23 +3045,23 @@
     </row>
     <row r="73" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73" s="35" t="s">
         <v>254</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>255</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -3075,10 +3084,10 @@
         <v>71</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -3101,24 +3110,24 @@
         <v>72</v>
       </c>
       <c r="D77" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F77" t="s">
         <v>41</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D78" s="2"/>
     </row>
@@ -3129,7 +3138,7 @@
     </row>
     <row r="80" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3139,25 +3148,25 @@
         <v>73</v>
       </c>
       <c r="C81" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D81" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="D81" s="39" t="s">
-        <v>290</v>
-      </c>
       <c r="E81" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G81" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H81" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -3165,37 +3174,37 @@
         <v>74</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D82" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F83" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="F83" s="15" t="s">
-        <v>335</v>
-      </c>
       <c r="H83" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -3225,16 +3234,16 @@
         <v>90</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
@@ -3245,10 +3254,10 @@
         <v>91</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="89" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -3256,13 +3265,13 @@
         <v>79</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D89" s="36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="90" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -3270,19 +3279,19 @@
         <v>80</v>
       </c>
       <c r="C90" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D90" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="D90" s="35" t="s">
-        <v>384</v>
-      </c>
       <c r="E90" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
@@ -3302,16 +3311,16 @@
         <v>93</v>
       </c>
       <c r="D92" s="37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F92" t="s">
         <v>97</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
@@ -3322,13 +3331,13 @@
         <v>94</v>
       </c>
       <c r="D93" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="94" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -3336,19 +3345,19 @@
         <v>84</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E94" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F94" t="s">
         <v>97</v>
       </c>
       <c r="H94" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -3359,19 +3368,19 @@
         <v>95</v>
       </c>
       <c r="D95" s="36" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E95" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="F95" s="17" t="s">
         <v>314</v>
-      </c>
-      <c r="F95" s="17" t="s">
-        <v>315</v>
       </c>
       <c r="G95" s="24" t="s">
         <v>97</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I95" t="s">
         <v>97</v>
@@ -3382,22 +3391,22 @@
         <v>86</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D96" s="36" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G96" s="24" t="s">
         <v>97</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I96" t="s">
         <v>97</v>
@@ -3408,22 +3417,22 @@
         <v>87</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D97" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G97" s="24" t="s">
         <v>97</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I97" t="s">
         <v>97</v>
@@ -3431,25 +3440,25 @@
     </row>
     <row r="98" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>96</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E98" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="F98" s="17" t="s">
         <v>316</v>
-      </c>
-      <c r="F98" s="17" t="s">
-        <v>317</v>
       </c>
       <c r="G98" s="24" t="s">
         <v>97</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I98" t="s">
         <v>97</v>
@@ -3503,32 +3512,32 @@
         <v>101</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>103</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C106" s="35" t="s">
         <v>104</v>
@@ -3546,10 +3555,10 @@
         <v>105</v>
       </c>
       <c r="D107" s="39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
@@ -3584,10 +3593,10 @@
         <v>110</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
@@ -3613,10 +3622,10 @@
         <v>29</v>
       </c>
       <c r="E114" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>29</v>
@@ -3633,10 +3642,10 @@
         <v>29</v>
       </c>
       <c r="E115" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G115" s="8"/>
       <c r="H115" s="2" t="s">
@@ -3652,10 +3661,10 @@
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>127</v>
@@ -3670,10 +3679,10 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>128</v>
@@ -3687,16 +3696,16 @@
         <v>129</v>
       </c>
       <c r="D118" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E118" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
@@ -3704,10 +3713,10 @@
         <v>117</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H119" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
@@ -3718,36 +3727,36 @@
         <v>129</v>
       </c>
       <c r="D120" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>119</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D121" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F121" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G121" s="33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I121" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="122" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -3755,16 +3764,16 @@
         <v>120</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="123" spans="2:9" ht="75" x14ac:dyDescent="0.25">
@@ -3775,16 +3784,16 @@
         <v>130</v>
       </c>
       <c r="D123" s="38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H123" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
@@ -3806,10 +3815,10 @@
         <v>132</v>
       </c>
       <c r="D125" s="37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
@@ -3831,10 +3840,10 @@
         <v>144</v>
       </c>
       <c r="D128" s="37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
@@ -3845,10 +3854,10 @@
         <v>133</v>
       </c>
       <c r="D129" s="38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H129" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
@@ -3870,10 +3879,10 @@
         <v>144</v>
       </c>
       <c r="D131" s="37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
@@ -3906,10 +3915,10 @@
         <v>135</v>
       </c>
       <c r="D136" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
@@ -3937,36 +3946,36 @@
         <v>147</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D140" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="E140" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="F140" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="E140" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>392</v>
-      </c>
       <c r="H140" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="141" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C141" s="38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E141" s="17" t="s">
         <v>147</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H141" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
@@ -3977,10 +3986,10 @@
         <v>152</v>
       </c>
       <c r="D142" s="44" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H142" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="143" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -3991,16 +4000,16 @@
         <v>153</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F143" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="H143" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
@@ -4008,11 +4017,11 @@
         <v>150</v>
       </c>
       <c r="C144" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D144" s="5"/>
       <c r="H144" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
@@ -4036,19 +4045,19 @@
         <v>156</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E148" s="17" t="s">
         <v>62</v>
       </c>
       <c r="F148" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H148" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
@@ -4062,7 +4071,7 @@
         <v>156</v>
       </c>
       <c r="F149" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H149" t="s">
         <v>162</v>
@@ -4076,16 +4085,16 @@
         <v>23</v>
       </c>
       <c r="D150" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E150" s="17" t="s">
         <v>157</v>
       </c>
       <c r="F150" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H150" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
@@ -4096,19 +4105,19 @@
         <v>163</v>
       </c>
       <c r="D151" s="44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F151" s="17" t="s">
         <v>157</v>
       </c>
       <c r="G151" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
@@ -4146,16 +4155,16 @@
         <v>168</v>
       </c>
       <c r="D156" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E156" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F156" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
@@ -4166,16 +4175,16 @@
         <v>179</v>
       </c>
       <c r="E157" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F157" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="H157" t="s">
         <v>478</v>
       </c>
-      <c r="H157" t="s">
-        <v>479</v>
-      </c>
       <c r="I157" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="158" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -4186,16 +4195,16 @@
         <v>170</v>
       </c>
       <c r="D158" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E158" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F158" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
@@ -4203,22 +4212,22 @@
         <v>169</v>
       </c>
       <c r="C159" s="44" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E159" s="23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F159" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G159" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H159" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I159" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="160" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -4229,16 +4238,16 @@
         <v>172</v>
       </c>
       <c r="D160" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F160" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
@@ -4246,22 +4255,22 @@
         <v>171</v>
       </c>
       <c r="C161" s="38" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E161" s="23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F161" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="G161" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="G161" s="24" t="s">
-        <v>442</v>
-      </c>
       <c r="H161" t="s">
+        <v>480</v>
+      </c>
+      <c r="I161" t="s">
         <v>481</v>
-      </c>
-      <c r="I161" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="162" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -4272,16 +4281,16 @@
         <v>174</v>
       </c>
       <c r="D162" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E162" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F162" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="163" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -4292,19 +4301,19 @@
         <v>180</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F163" s="25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G163" s="24" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H163" t="s">
+        <v>482</v>
+      </c>
+      <c r="I163" t="s">
         <v>483</v>
-      </c>
-      <c r="I163" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="164" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -4315,16 +4324,16 @@
         <v>181</v>
       </c>
       <c r="D164" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E164" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F164" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="165" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -4332,22 +4341,22 @@
         <v>175</v>
       </c>
       <c r="C165" s="38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F165" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="G165" s="28" t="s">
         <v>448</v>
       </c>
-      <c r="G165" s="28" t="s">
-        <v>449</v>
-      </c>
       <c r="H165" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="I165" s="8" t="s">
         <v>485</v>
-      </c>
-      <c r="I165" s="8" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="166" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -4358,16 +4367,16 @@
         <v>177</v>
       </c>
       <c r="D166" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E166" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F166" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="167" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -4378,19 +4387,19 @@
         <v>182</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F167" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="G167" s="28" t="s">
         <v>451</v>
       </c>
-      <c r="G167" s="28" t="s">
-        <v>452</v>
-      </c>
       <c r="H167" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I167" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="168" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -4401,16 +4410,16 @@
         <v>178</v>
       </c>
       <c r="D168" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F168" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="169" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -4421,16 +4430,16 @@
         <v>183</v>
       </c>
       <c r="D169" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E169" s="27" t="s">
         <v>177</v>
       </c>
       <c r="F169" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
@@ -4446,19 +4455,19 @@
         <v>188</v>
       </c>
       <c r="D172" s="36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E172" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G172" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
@@ -4485,7 +4494,7 @@
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="177" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -4501,13 +4510,13 @@
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C178" s="40" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H178" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
@@ -4531,13 +4540,13 @@
         <v>10</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H182" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>195</v>
       </c>
@@ -4548,13 +4557,13 @@
         <v>194</v>
       </c>
       <c r="F183" s="28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H183" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I183" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
@@ -4581,10 +4590,10 @@
         <v>205</v>
       </c>
       <c r="D187" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H187" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.25">
@@ -4600,16 +4609,16 @@
     </row>
     <row r="189" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D189" s="37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
@@ -4641,10 +4650,10 @@
         <v>212</v>
       </c>
       <c r="D195" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H195" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
@@ -4698,7 +4707,7 @@
         <v>222</v>
       </c>
       <c r="E203" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H203" t="s">
         <v>222</v>
@@ -4709,39 +4718,39 @@
         <v>220</v>
       </c>
       <c r="C204" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D204" s="38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E204" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F204" s="24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H204" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I204" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C205" s="38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E205" s="17" t="s">
         <v>220</v>
       </c>
       <c r="F205" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H205" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="207" spans="2:9" x14ac:dyDescent="0.25">
@@ -4773,10 +4782,10 @@
         <v>227</v>
       </c>
       <c r="C211" s="44" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H211" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.25">
@@ -4800,10 +4809,10 @@
         <v>231</v>
       </c>
       <c r="C215" s="44" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H215" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.25">
@@ -4838,33 +4847,33 @@
         <v>10</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H221" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="222" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
+        <v>298</v>
+      </c>
+      <c r="C222" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="C222" s="23" t="s">
+      <c r="D222" s="38" t="s">
         <v>300</v>
-      </c>
-      <c r="D222" s="38" t="s">
-        <v>301</v>
       </c>
       <c r="E222" s="17" t="s">
         <v>236</v>
       </c>
       <c r="F222" s="28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H222" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I222" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
@@ -4897,16 +4906,16 @@
         <v>243</v>
       </c>
       <c r="E225" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="F225" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="F225" s="24" t="s">
-        <v>303</v>
-      </c>
       <c r="H225" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I225" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.25">
@@ -4914,10 +4923,10 @@
         <v>240</v>
       </c>
       <c r="C226" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H226" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182E7041-0906-4DB7-957D-1152D38C861F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000BF5D3-A39D-42DE-AEAF-4F94FDCAA1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2136,7 +2136,7 @@
   <dimension ref="B1:I226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000BF5D3-A39D-42DE-AEAF-4F94FDCAA1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91F189A-846F-4AB5-8E28-C3FC8C768703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="495">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -1124,9 +1124,6 @@
 dt?id?null</t>
   </si>
   <si>
-    <t>&lt;id_STAR&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">F&lt;ARR_INIT&gt;  ? F&lt;ACCESSMOD&gt; ?  id </t>
   </si>
   <si>
@@ -1464,13 +1461,6 @@
     <t xml:space="preserve">import?Begin? def? Class? Abstract?const?dt?id </t>
   </si>
   <si>
-    <t>if ? shift ? const ? dt ? id ? Parent ? Self ?  test ?  loop ? do ? stop ? Ret ? Cont ? Raise</t>
-  </si>
-  <si>
-    <t>if ? shift ? const ? dt ? id ? Parent ? Self ?  test ?  loop ? do ? stop ?
- Ret ? Cont ? raise</t>
-  </si>
-  <si>
     <t>id ?protected?private</t>
   </si>
   <si>
@@ -1567,6 +1557,19 @@
   </si>
   <si>
     <t>package | null</t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ? id ? Parent ? Self ?  test ?  loop ? do ? stop ?
+ ret ? Cont ? raise</t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ? id ? Parent ? Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>&lt;ID_STAR&gt;</t>
   </si>
 </sst>
 </file>
@@ -2135,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,7 +2178,7 @@
         <v>356</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -2190,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>354</v>
@@ -2222,7 +2225,7 @@
         <v>354</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I4" t="s">
         <v>354</v>
@@ -2245,7 +2248,7 @@
         <v>354</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I5" t="s">
         <v>354</v>
@@ -2268,7 +2271,7 @@
         <v>354</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I6" t="s">
         <v>354</v>
@@ -2299,7 +2302,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>347</v>
@@ -2308,10 +2311,10 @@
         <v>348</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -2330,17 +2333,17 @@
         <v>247</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>346</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -2351,7 +2354,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>305</v>
@@ -2360,7 +2363,7 @@
         <v>303</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="I14" t="s">
         <v>303</v>
@@ -2387,7 +2390,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>13</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -2440,7 +2443,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>361</v>
+        <v>494</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>276</v>
@@ -2467,11 +2470,11 @@
         <v>23</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -2495,7 +2498,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F28" t="s">
         <v>306</v>
@@ -2513,7 +2516,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>306</v>
@@ -2522,7 +2525,7 @@
         <v>29</v>
       </c>
       <c r="I29" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -2530,11 +2533,11 @@
         <v>27</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -2564,7 +2567,7 @@
         <v>309</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I33" t="s">
         <v>309</v>
@@ -2621,13 +2624,13 @@
         <v>35</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -2644,16 +2647,16 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -2666,13 +2669,13 @@
         <v>39</v>
       </c>
       <c r="C44" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="D44" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="D44" s="35" t="s">
-        <v>367</v>
-      </c>
       <c r="H44" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -2683,7 +2686,7 @@
         <v>251</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>39</v>
@@ -2695,7 +2698,7 @@
         <v>38</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I45" t="s">
         <v>38</v>
@@ -2747,10 +2750,10 @@
         <v>45</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -2761,10 +2764,10 @@
         <v>259</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -2772,13 +2775,13 @@
         <v>45</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -2786,10 +2789,10 @@
         <v>260</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>308</v>
@@ -2801,7 +2804,7 @@
         <v>38</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="I53" t="s">
         <v>38</v>
@@ -2812,11 +2815,11 @@
         <v>46</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -2853,10 +2856,10 @@
         <v>56</v>
       </c>
       <c r="D58" s="44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H58" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -2883,7 +2886,7 @@
         <v>309</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I60" t="s">
         <v>309</v>
@@ -2901,7 +2904,7 @@
         <v>38</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I61" t="s">
         <v>38</v>
@@ -2984,14 +2987,14 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3001,25 +3004,25 @@
         <v>65</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D71" s="35" t="s">
         <v>310</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F71" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="G71" s="28" t="s">
         <v>427</v>
       </c>
-      <c r="G71" s="28" t="s">
-        <v>428</v>
-      </c>
       <c r="H71" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -3031,19 +3034,19 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F72" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="G72" t="s">
         <v>429</v>
-      </c>
-      <c r="G72" t="s">
-        <v>430</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>253</v>
       </c>
@@ -3055,13 +3058,13 @@
         <v>328</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -3084,10 +3087,10 @@
         <v>71</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -3110,7 +3113,7 @@
         <v>72</v>
       </c>
       <c r="D77" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>318</v>
@@ -3119,12 +3122,12 @@
         <v>41</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C78" s="35" t="s">
         <v>281</v>
@@ -3138,12 +3141,12 @@
     </row>
     <row r="80" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>73</v>
       </c>
@@ -3154,19 +3157,19 @@
         <v>289</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F81" s="17" t="s">
         <v>335</v>
       </c>
       <c r="G81" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H81" s="34" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -3174,7 +3177,7 @@
         <v>74</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D82" s="39" t="s">
         <v>291</v>
@@ -3191,7 +3194,7 @@
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C83" s="35" t="s">
         <v>290</v>
@@ -3240,7 +3243,7 @@
         <v>10</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>267</v>
@@ -3265,13 +3268,13 @@
         <v>79</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D89" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="90" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -3279,19 +3282,19 @@
         <v>80</v>
       </c>
       <c r="C90" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D90" s="35" t="s">
         <v>382</v>
-      </c>
-      <c r="D90" s="35" t="s">
-        <v>383</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>345</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
@@ -3311,7 +3314,7 @@
         <v>93</v>
       </c>
       <c r="D92" s="37" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>311</v>
@@ -3320,7 +3323,7 @@
         <v>97</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
@@ -3331,13 +3334,13 @@
         <v>94</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E93" s="24" t="s">
         <v>309</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="94" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -3368,7 +3371,7 @@
         <v>95</v>
       </c>
       <c r="D95" s="36" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E95" s="17" t="s">
         <v>313</v>
@@ -3380,7 +3383,7 @@
         <v>97</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I95" t="s">
         <v>97</v>
@@ -3391,10 +3394,10 @@
         <v>86</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D96" s="36" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>312</v>
@@ -3406,7 +3409,7 @@
         <v>97</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I96" t="s">
         <v>97</v>
@@ -3417,10 +3420,10 @@
         <v>87</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D97" s="36" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E97" s="17" t="s">
         <v>312</v>
@@ -3432,7 +3435,7 @@
         <v>97</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I97" t="s">
         <v>97</v>
@@ -3440,13 +3443,13 @@
     </row>
     <row r="98" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>96</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>315</v>
@@ -3458,7 +3461,7 @@
         <v>97</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I98" t="s">
         <v>97</v>
@@ -3512,7 +3515,7 @@
         <v>101</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D104" s="35" t="s">
         <v>283</v>
@@ -3523,7 +3526,7 @@
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>103</v>
@@ -3537,7 +3540,7 @@
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C106" s="35" t="s">
         <v>104</v>
@@ -3625,7 +3628,7 @@
         <v>343</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>29</v>
@@ -3664,7 +3667,7 @@
         <v>342</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>127</v>
@@ -3682,7 +3685,7 @@
         <v>341</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>128</v>
@@ -3702,7 +3705,7 @@
         <v>340</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>274</v>
@@ -3750,13 +3753,13 @@
         <v>352</v>
       </c>
       <c r="G121" s="33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I121" s="20" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="122" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -3773,7 +3776,7 @@
         <v>339</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="123" spans="2:9" ht="75" x14ac:dyDescent="0.25">
@@ -3790,7 +3793,7 @@
         <v>338</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H123" t="s">
         <v>332</v>
@@ -3815,10 +3818,10 @@
         <v>132</v>
       </c>
       <c r="D125" s="37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
@@ -3840,10 +3843,10 @@
         <v>144</v>
       </c>
       <c r="D128" s="37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
@@ -3879,10 +3882,10 @@
         <v>144</v>
       </c>
       <c r="D131" s="37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
@@ -3915,10 +3918,10 @@
         <v>135</v>
       </c>
       <c r="D136" s="36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
@@ -3949,16 +3952,16 @@
         <v>279</v>
       </c>
       <c r="D140" s="38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E140" s="25" t="s">
         <v>351</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H140" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="141" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -3966,16 +3969,16 @@
         <v>279</v>
       </c>
       <c r="C141" s="38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E141" s="17" t="s">
         <v>147</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H141" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
@@ -3986,10 +3989,10 @@
         <v>152</v>
       </c>
       <c r="D142" s="44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H142" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="143" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4000,16 +4003,16 @@
         <v>153</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E143" s="17" t="s">
         <v>279</v>
       </c>
       <c r="F143" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="H143" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
@@ -4105,7 +4108,7 @@
         <v>163</v>
       </c>
       <c r="D151" s="44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E151" s="17" t="s">
         <v>349</v>
@@ -4117,7 +4120,7 @@
         <v>262</v>
       </c>
       <c r="H151" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
@@ -4155,16 +4158,16 @@
         <v>168</v>
       </c>
       <c r="D156" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E156" s="17" t="s">
         <v>317</v>
       </c>
       <c r="F156" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
@@ -4175,16 +4178,16 @@
         <v>179</v>
       </c>
       <c r="E157" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F157" s="28" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H157" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I157" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="158" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -4195,7 +4198,7 @@
         <v>170</v>
       </c>
       <c r="D158" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E158" s="17" t="s">
         <v>321</v>
@@ -4204,7 +4207,7 @@
         <v>326</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
@@ -4212,10 +4215,10 @@
         <v>169</v>
       </c>
       <c r="C159" s="44" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E159" s="23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F159" s="25" t="s">
         <v>319</v>
@@ -4224,7 +4227,7 @@
         <v>326</v>
       </c>
       <c r="H159" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I159" t="s">
         <v>326</v>
@@ -4238,16 +4241,16 @@
         <v>172</v>
       </c>
       <c r="D160" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E160" s="26" t="s">
         <v>320</v>
       </c>
       <c r="F160" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
@@ -4255,22 +4258,22 @@
         <v>171</v>
       </c>
       <c r="C161" s="38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E161" s="23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F161" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="G161" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="G161" s="24" t="s">
-        <v>441</v>
-      </c>
       <c r="H161" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I161" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="162" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -4281,16 +4284,16 @@
         <v>174</v>
       </c>
       <c r="D162" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E162" s="17" t="s">
         <v>322</v>
       </c>
       <c r="F162" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="163" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -4301,19 +4304,19 @@
         <v>180</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F163" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G163" s="24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H163" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I163" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="164" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -4324,16 +4327,16 @@
         <v>181</v>
       </c>
       <c r="D164" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E164" s="17" t="s">
         <v>323</v>
       </c>
       <c r="F164" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="165" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -4344,19 +4347,19 @@
         <v>358</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F165" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="G165" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="G165" s="28" t="s">
-        <v>448</v>
-      </c>
       <c r="H165" s="8" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I165" s="8" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="166" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -4367,16 +4370,16 @@
         <v>177</v>
       </c>
       <c r="D166" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E166" s="17" t="s">
         <v>325</v>
       </c>
       <c r="F166" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="167" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -4387,19 +4390,19 @@
         <v>182</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F167" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="G167" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="G167" s="28" t="s">
-        <v>451</v>
-      </c>
       <c r="H167" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I167" s="8" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="168" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -4410,16 +4413,16 @@
         <v>178</v>
       </c>
       <c r="D168" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E168" s="17" t="s">
         <v>324</v>
       </c>
       <c r="F168" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="169" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -4430,16 +4433,16 @@
         <v>183</v>
       </c>
       <c r="D169" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E169" s="27" t="s">
         <v>177</v>
       </c>
       <c r="F169" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
@@ -4455,19 +4458,19 @@
         <v>188</v>
       </c>
       <c r="D172" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E172" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G172" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
@@ -4540,7 +4543,7 @@
         <v>10</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H182" t="s">
         <v>196</v>
@@ -4557,13 +4560,13 @@
         <v>194</v>
       </c>
       <c r="F183" s="28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H183" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I183" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
@@ -4615,10 +4618,10 @@
         <v>304</v>
       </c>
       <c r="D189" s="37" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
@@ -4718,19 +4721,19 @@
         <v>220</v>
       </c>
       <c r="C204" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D204" s="38" t="s">
         <v>330</v>
       </c>
       <c r="E204" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F204" s="24" t="s">
         <v>353</v>
       </c>
       <c r="H204" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I204" t="s">
         <v>353</v>
@@ -4738,7 +4741,7 @@
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C205" s="38" t="s">
         <v>329</v>
@@ -4782,10 +4785,10 @@
         <v>227</v>
       </c>
       <c r="C211" s="44" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H211" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.25">
@@ -4809,10 +4812,10 @@
         <v>231</v>
       </c>
       <c r="C215" s="44" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H215" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.25">
@@ -4847,7 +4850,7 @@
         <v>10</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H221" t="s">
         <v>241</v>
@@ -4867,13 +4870,13 @@
         <v>236</v>
       </c>
       <c r="F222" s="28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H222" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I222" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
@@ -4912,7 +4915,7 @@
         <v>302</v>
       </c>
       <c r="H225" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I225" t="s">
         <v>302</v>

--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91F189A-846F-4AB5-8E28-C3FC8C768703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5426D858-74EB-48A3-9E0C-A680F5E93B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2138,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5426D858-74EB-48A3-9E0C-A680F5E93B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5679487-FB6E-452B-B493-7282D93595AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2138,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5679487-FB6E-452B-B493-7282D93595AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B44E20-FCFE-47CF-8D83-03A31C2C510E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2138,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="F136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H140" sqref="H140:H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B44E20-FCFE-47CF-8D83-03A31C2C510E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F5DC75-3B97-40DB-8AE8-46F93C98399B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="496">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -1570,13 +1570,16 @@
   </si>
   <si>
     <t>&lt;ID_STAR&gt;</t>
+  </si>
+  <si>
+    <t>dt ? str ? Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1632,8 +1635,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1672,8 +1682,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1712,9 +1727,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -1722,17 +1770,123 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1740,28 +1894,20 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1787,42 +1933,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyAlignment="1">
@@ -1850,11 +1966,115 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2138,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H140" sqref="H140:H145"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2156,1609 +2376,2029 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="71" t="s">
         <v>292</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="45" t="s">
         <v>293</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="53" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="54" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="34"/>
+      <c r="H4" s="51" t="s">
         <v>459</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="54" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="51" t="s">
         <v>458</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="54" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="72" t="s">
         <v>295</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="34"/>
+      <c r="H6" s="51" t="s">
         <v>457</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="54" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="54"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="54"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="54"/>
     </row>
     <row r="10" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="73" t="s">
         <v>347</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="36" t="s">
         <v>452</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="47" t="s">
         <v>414</v>
       </c>
+      <c r="I10" s="54"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="54"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="54"/>
     </row>
     <row r="13" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="72" t="s">
         <v>346</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
+      <c r="G13" s="36"/>
+      <c r="H13" s="47" t="s">
         <v>491</v>
       </c>
+      <c r="I13" s="54"/>
     </row>
     <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="34"/>
+      <c r="H14" s="47" t="s">
         <v>492</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="54" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="54"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="54"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="H17" s="2" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="59" t="s">
         <v>493</v>
       </c>
+      <c r="I17" s="54"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="54"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="54"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="H20" s="2" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="59" t="s">
         <v>20</v>
       </c>
+      <c r="I20" s="54"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="H21" s="2" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="59" t="s">
         <v>21</v>
       </c>
+      <c r="I21" s="54"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="H22" s="2" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="59" t="s">
         <v>277</v>
       </c>
+      <c r="I22" s="54"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="H23" s="2" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="59" t="s">
         <v>276</v>
       </c>
+      <c r="I23" s="54"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="54"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="54"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="H26" s="2" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="59" t="s">
         <v>417</v>
       </c>
+      <c r="I26" s="54"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="H27" s="2" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="59" t="s">
         <v>249</v>
       </c>
+      <c r="I27" s="54"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="17" t="s">
+      <c r="D28" s="1"/>
+      <c r="E28" s="72" t="s">
         <v>361</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="G28" s="34"/>
+      <c r="H28" s="59" t="s">
         <v>29</v>
       </c>
+      <c r="I28" s="54"/>
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="18" t="s">
+      <c r="D29" s="1"/>
+      <c r="E29" s="73" t="s">
         <v>362</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="G29" s="34"/>
+      <c r="H29" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="54" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="H30" s="2" t="s">
+      <c r="D30" s="1"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="59" t="s">
         <v>410</v>
       </c>
+      <c r="I30" s="54"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="54"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="54"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="17" t="s">
+      <c r="D33" s="1"/>
+      <c r="E33" s="72" t="s">
         <v>327</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="65" t="s">
         <v>309</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="G33" s="34"/>
+      <c r="H33" s="59" t="s">
         <v>461</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="54" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="54"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="54"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="54"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="54"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="H38" s="2" t="s">
+      <c r="D38" s="1"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="59" t="s">
         <v>37</v>
       </c>
+      <c r="I38" s="54"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="H39" s="2" t="s">
+      <c r="D39" s="1"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="59" t="s">
         <v>38</v>
       </c>
+      <c r="I39" s="54"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="E40" s="33"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="59" t="s">
         <v>418</v>
       </c>
+      <c r="I40" s="54"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="H41" s="2" t="s">
+      <c r="D41" s="1"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="59" t="s">
         <v>41</v>
       </c>
+      <c r="I41" s="54"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="45" t="s">
+      <c r="D42" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="E42" s="33"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="59" t="s">
         <v>419</v>
       </c>
+      <c r="I42" s="54"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="54"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="E44" s="33"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="59" t="s">
         <v>366</v>
       </c>
+      <c r="I44" s="54"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="59" t="s">
         <v>462</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="54" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="54"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="54"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="H48" s="2" t="s">
+      <c r="D48" s="1"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="59" t="s">
         <v>37</v>
       </c>
+      <c r="I48" s="54"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="E49" s="33"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="59" t="s">
         <v>256</v>
       </c>
+      <c r="I49" s="54"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="E50" s="33"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="59" t="s">
         <v>421</v>
       </c>
+      <c r="I50" s="54"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="E51" s="33"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="59" t="s">
         <v>422</v>
       </c>
+      <c r="I51" s="54"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="E52" s="33"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="59" t="s">
         <v>421</v>
       </c>
+      <c r="I52" s="54"/>
     </row>
     <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="72" t="s">
         <v>308</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="G53" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="59" t="s">
         <v>463</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="54" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="H54" s="2" t="s">
+      <c r="D54" s="1"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="59" t="s">
         <v>424</v>
       </c>
+      <c r="I54" s="54"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="54"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="54"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="E57" s="33"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="59" t="s">
         <v>252</v>
       </c>
+      <c r="I57" s="54"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="44" t="s">
+      <c r="D58" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="H58" t="s">
+      <c r="E58" s="33"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="46" t="s">
         <v>420</v>
       </c>
+      <c r="I58" s="54"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="H59" s="2" t="s">
+      <c r="D59" s="1"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="59" t="s">
         <v>245</v>
       </c>
+      <c r="I59" s="54"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="24" t="s">
+      <c r="D60" s="1"/>
+      <c r="E60" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="F60" s="46"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="59" t="s">
         <v>464</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="54" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="24" t="s">
+      <c r="D61" s="1"/>
+      <c r="E61" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="F61" s="46"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="59" t="s">
         <v>465</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="54" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="2"/>
-      <c r="H62" s="2" t="s">
+      <c r="D62" s="1"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="59" t="s">
         <v>59</v>
       </c>
+      <c r="I62" s="54"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="2"/>
-      <c r="H63" s="2" t="s">
+      <c r="D63" s="1"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="59" t="s">
         <v>41</v>
       </c>
+      <c r="I63" s="54"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="54"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="54"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="E66" s="33"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="59" t="s">
         <v>262</v>
       </c>
+      <c r="I66" s="54"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="72" t="s">
         <v>350</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="G67" s="34"/>
+      <c r="H67" s="59" t="s">
         <v>263</v>
       </c>
+      <c r="I67" s="54"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="54"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="54"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="54"/>
     </row>
     <row r="71" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="D71" s="35" t="s">
+      <c r="D71" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E71" s="72" t="s">
         <v>373</v>
       </c>
-      <c r="F71" s="25" t="s">
+      <c r="F71" s="66" t="s">
         <v>426</v>
       </c>
-      <c r="G71" s="28" t="s">
+      <c r="G71" s="38" t="s">
         <v>427</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" s="51" t="s">
         <v>466</v>
       </c>
-      <c r="I71" s="8" t="s">
+      <c r="I71" s="55" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="25" t="s">
+      <c r="D72" s="1"/>
+      <c r="E72" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="F72" s="30" t="s">
+      <c r="F72" s="67" t="s">
         <v>428</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H72" s="59" t="s">
         <v>29</v>
       </c>
+      <c r="I72" s="54"/>
     </row>
     <row r="73" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="17" t="s">
+      <c r="D73" s="1"/>
+      <c r="E73" s="72" t="s">
         <v>328</v>
       </c>
-      <c r="F73" s="31" t="s">
+      <c r="F73" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="G73" s="34"/>
+      <c r="H73" s="51" t="s">
         <v>467</v>
       </c>
-      <c r="I73" s="8" t="s">
+      <c r="I73" s="55" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D74" s="2"/>
-      <c r="H74" s="2" t="s">
+      <c r="D74" s="1"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="59" t="s">
         <v>38</v>
       </c>
+      <c r="I74" s="54"/>
     </row>
     <row r="75" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D75" s="37" t="s">
+      <c r="D75" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="E75" s="33"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="47" t="s">
         <v>401</v>
       </c>
+      <c r="I75" s="54"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="38" t="s">
+      <c r="C76" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D76" s="2"/>
-      <c r="H76" t="s">
+      <c r="D76" s="1"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="46" t="s">
         <v>41</v>
       </c>
+      <c r="I76" s="54"/>
     </row>
     <row r="77" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D77" s="36" t="s">
+      <c r="D77" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="E77" s="17" t="s">
+      <c r="E77" s="72" t="s">
         <v>318</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="G77" s="34"/>
+      <c r="H77" s="51" t="s">
         <v>402</v>
       </c>
+      <c r="I77" s="54"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="D78" s="2"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="54"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="54"/>
     </row>
     <row r="80" spans="2:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="54"/>
     </row>
     <row r="81" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="D81" s="39" t="s">
+      <c r="D81" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E81" s="72" t="s">
         <v>377</v>
       </c>
-      <c r="F81" s="17" t="s">
+      <c r="F81" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="G81" s="28" t="s">
+      <c r="G81" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="H81" s="34" t="s">
+      <c r="H81" s="60" t="s">
         <v>468</v>
       </c>
-      <c r="I81" s="8" t="s">
+      <c r="I81" s="55" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="D82" s="39" t="s">
+      <c r="D82" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="E82" s="17" t="s">
+      <c r="E82" s="72" t="s">
         <v>334</v>
       </c>
-      <c r="F82" s="17" t="s">
+      <c r="F82" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="G82" s="34"/>
+      <c r="H82" s="61" t="s">
         <v>291</v>
       </c>
+      <c r="I82" s="54"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="17" t="s">
+      <c r="D83" s="1"/>
+      <c r="E83" s="72" t="s">
         <v>333</v>
       </c>
-      <c r="F83" s="15" t="s">
+      <c r="F83" s="68" t="s">
         <v>334</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="G83" s="34"/>
+      <c r="H83" s="59" t="s">
         <v>290</v>
       </c>
+      <c r="I83" s="54"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="54"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="54"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="54"/>
     </row>
     <row r="87" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D87" s="35" t="s">
+      <c r="D87" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="E87" s="17" t="s">
+      <c r="E87" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="G87" s="34"/>
+      <c r="H87" s="59" t="s">
         <v>267</v>
       </c>
+      <c r="I87" s="54"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D88" s="35" t="s">
+      <c r="D88" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="E88" s="33"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="59" t="s">
         <v>287</v>
       </c>
+      <c r="I88" s="54"/>
     </row>
     <row r="89" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="D89" s="36" t="s">
+      <c r="D89" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="E89" s="33"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="51" t="s">
         <v>403</v>
       </c>
+      <c r="I89" s="54"/>
     </row>
     <row r="90" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="D90" s="35" t="s">
+      <c r="D90" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="E90" s="17" t="s">
+      <c r="E90" s="72" t="s">
         <v>345</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="G90" s="34"/>
+      <c r="H90" s="59" t="s">
         <v>382</v>
       </c>
+      <c r="I90" s="54"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C91" s="39" t="s">
+      <c r="C91" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D91" s="2"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="54"/>
     </row>
     <row r="92" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D92" s="37" t="s">
+      <c r="D92" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="E92" s="17" t="s">
+      <c r="E92" s="72" t="s">
         <v>311</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="H92" s="8" t="s">
+      <c r="G92" s="34"/>
+      <c r="H92" s="47" t="s">
         <v>431</v>
       </c>
+      <c r="I92" s="54"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D93" s="35" t="s">
+      <c r="D93" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="E93" s="24" t="s">
+      <c r="E93" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="F93" s="46"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="59" t="s">
         <v>405</v>
       </c>
+      <c r="I93" s="54"/>
     </row>
     <row r="94" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="D94" s="40" t="s">
+      <c r="D94" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="H94" s="20" t="s">
+      <c r="G94" s="34"/>
+      <c r="H94" s="50" t="s">
         <v>282</v>
       </c>
+      <c r="I94" s="54"/>
     </row>
     <row r="95" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="C95" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D95" s="36" t="s">
+      <c r="D95" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="E95" s="17" t="s">
+      <c r="E95" s="72" t="s">
         <v>313</v>
       </c>
-      <c r="F95" s="17" t="s">
+      <c r="F95" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="G95" s="24" t="s">
+      <c r="G95" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H95" s="51" t="s">
         <v>469</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="D96" s="36" t="s">
+      <c r="D96" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="E96" s="17" t="s">
+      <c r="E96" s="72" t="s">
         <v>312</v>
       </c>
-      <c r="F96" s="17" t="s">
+      <c r="F96" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="G96" s="24" t="s">
+      <c r="G96" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H96" s="51" t="s">
         <v>471</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="D97" s="36" t="s">
+      <c r="D97" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="E97" s="17" t="s">
+      <c r="E97" s="72" t="s">
         <v>312</v>
       </c>
-      <c r="F97" s="17" t="s">
+      <c r="F97" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="G97" s="24" t="s">
+      <c r="G97" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H97" s="51" t="s">
         <v>472</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="98" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D98" s="35" t="s">
+      <c r="D98" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="E98" s="18" t="s">
+      <c r="E98" s="73" t="s">
         <v>315</v>
       </c>
-      <c r="F98" s="17" t="s">
+      <c r="F98" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="G98" s="24" t="s">
+      <c r="G98" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="H98" s="59" t="s">
         <v>470</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="35" t="s">
+      <c r="C99" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D99" s="2"/>
-      <c r="H99" s="2" t="s">
+      <c r="D99" s="1"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="59" t="s">
         <v>97</v>
       </c>
+      <c r="I99" s="54"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C100" s="39" t="s">
+      <c r="C100" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D100" s="2"/>
-      <c r="H100" s="4" t="s">
+      <c r="D100" s="1"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="61" t="s">
         <v>98</v>
       </c>
+      <c r="I100" s="54"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="54"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="54"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="54"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="D104" s="35" t="s">
+      <c r="D104" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="E104" s="33"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="59" t="s">
         <v>283</v>
       </c>
+      <c r="I104" s="54"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D105" s="35" t="s">
+      <c r="D105" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="E105" s="33"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="59" t="s">
         <v>284</v>
       </c>
+      <c r="I105" s="54"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C106" s="35" t="s">
+      <c r="C106" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D106" s="2"/>
-      <c r="H106" s="2" t="s">
+      <c r="D106" s="1"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="59" t="s">
         <v>104</v>
       </c>
+      <c r="I106" s="54"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D107" s="39" t="s">
+      <c r="D107" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="H107" s="4" t="s">
+      <c r="E107" s="33"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="61" t="s">
         <v>285</v>
       </c>
+      <c r="I107" s="54"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="54"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="54"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="C110" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D110" s="2"/>
-      <c r="H110" s="2" t="s">
+      <c r="D110" s="1"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="59" t="s">
         <v>109</v>
       </c>
+      <c r="I110" s="54"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="15" t="s">
+      <c r="C111" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D111" s="35" t="s">
+      <c r="D111" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="E111" s="33"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="59" t="s">
         <v>271</v>
       </c>
+      <c r="I111" s="54"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="46"/>
+      <c r="I112" s="54"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="54"/>
     </row>
     <row r="114" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C114" s="15" t="s">
+      <c r="C114" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D114" s="35" t="s">
+      <c r="D114" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F114" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="H114" s="2" t="s">
+      <c r="G114" s="34"/>
+      <c r="H114" s="59" t="s">
         <v>29</v>
       </c>
+      <c r="I114" s="54"/>
     </row>
     <row r="115" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C115" s="15" t="s">
+      <c r="C115" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D115" s="35" t="s">
+      <c r="D115" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F115" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="G115" s="8"/>
-      <c r="H115" s="2" t="s">
+      <c r="G115" s="36"/>
+      <c r="H115" s="59" t="s">
         <v>29</v>
       </c>
+      <c r="I115" s="54"/>
     </row>
     <row r="116" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C116" s="35" t="s">
+      <c r="C116" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s">
+      <c r="D116" s="1"/>
+      <c r="E116" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F116" s="47" t="s">
         <v>453</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="G116" s="34"/>
+      <c r="H116" s="59" t="s">
         <v>127</v>
       </c>
+      <c r="I116" s="54"/>
     </row>
     <row r="117" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C117" s="39" t="s">
+      <c r="C117" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s">
+      <c r="D117" s="1"/>
+      <c r="E117" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F117" s="47" t="s">
         <v>453</v>
       </c>
-      <c r="H117" s="4" t="s">
+      <c r="G117" s="34"/>
+      <c r="H117" s="61" t="s">
         <v>128</v>
       </c>
+      <c r="I117" s="54"/>
     </row>
     <row r="118" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C118" s="15" t="s">
+      <c r="C118" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D118" s="36" t="s">
+      <c r="D118" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="F118" s="47" t="s">
         <v>453</v>
       </c>
-      <c r="H118" s="1" t="s">
+      <c r="G118" s="34"/>
+      <c r="H118" s="51" t="s">
         <v>274</v>
       </c>
+      <c r="I118" s="54"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C119" s="38" t="s">
+      <c r="C119" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="H119" t="s">
+      <c r="E119" s="33"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="34"/>
+      <c r="H119" s="46" t="s">
         <v>273</v>
       </c>
+      <c r="I119" s="54"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>118</v>
       </c>
-      <c r="C120" s="17" t="s">
+      <c r="C120" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D120" s="37" t="s">
+      <c r="D120" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="H120" s="8" t="s">
+      <c r="E120" s="33"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="47" t="s">
         <v>274</v>
       </c>
+      <c r="I120" s="54"/>
     </row>
     <row r="121" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>119</v>
       </c>
-      <c r="C121" s="17" t="s">
+      <c r="C121" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="D121" s="38" t="s">
+      <c r="D121" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="E121" s="17" t="s">
+      <c r="E121" s="72" t="s">
         <v>336</v>
       </c>
-      <c r="F121" s="32" t="s">
+      <c r="F121" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="G121" s="33" t="s">
+      <c r="G121" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="H121" s="8" t="s">
+      <c r="H121" s="47" t="s">
         <v>466</v>
       </c>
-      <c r="I121" s="20" t="s">
+      <c r="I121" s="56" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3766,427 +4406,568 @@
       <c r="B122" t="s">
         <v>120</v>
       </c>
-      <c r="C122" s="38" t="s">
+      <c r="C122" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="E122" s="17" t="s">
+      <c r="E122" s="72" t="s">
         <v>337</v>
       </c>
-      <c r="F122" s="17" t="s">
+      <c r="F122" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="G122" s="20" t="s">
+      <c r="G122" s="40" t="s">
         <v>454</v>
       </c>
+      <c r="H122" s="46"/>
+      <c r="I122" s="54"/>
     </row>
     <row r="123" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>121</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C123" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D123" s="38" t="s">
+      <c r="D123" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="E123" s="17" t="s">
+      <c r="E123" s="72" t="s">
         <v>338</v>
       </c>
-      <c r="F123" s="20" t="s">
+      <c r="F123" s="50" t="s">
         <v>454</v>
       </c>
-      <c r="H123" t="s">
+      <c r="G123" s="34"/>
+      <c r="H123" s="46" t="s">
         <v>332</v>
       </c>
+      <c r="I123" s="54"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>122</v>
       </c>
-      <c r="C124" s="41" t="s">
+      <c r="C124" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H124" s="5" t="s">
+      <c r="E124" s="33"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="34"/>
+      <c r="H124" s="62" t="s">
         <v>131</v>
       </c>
+      <c r="I124" s="54"/>
     </row>
     <row r="125" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>123</v>
       </c>
-      <c r="C125" s="17" t="s">
+      <c r="C125" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D125" s="37" t="s">
+      <c r="D125" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="H125" s="8" t="s">
+      <c r="E125" s="33"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="34"/>
+      <c r="H125" s="47" t="s">
         <v>406</v>
       </c>
+      <c r="I125" s="54"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E126" s="33"/>
+      <c r="F126" s="46"/>
+      <c r="G126" s="34"/>
+      <c r="H126" s="46"/>
+      <c r="I126" s="54"/>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>139</v>
       </c>
-      <c r="C127" s="38" t="s">
+      <c r="C127" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="H127" t="s">
+      <c r="E127" s="33"/>
+      <c r="F127" s="46"/>
+      <c r="G127" s="34"/>
+      <c r="H127" s="46" t="s">
         <v>143</v>
       </c>
+      <c r="I127" s="54"/>
     </row>
     <row r="128" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>140</v>
       </c>
-      <c r="C128" s="17" t="s">
+      <c r="C128" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D128" s="37" t="s">
+      <c r="D128" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="H128" s="8" t="s">
+      <c r="E128" s="33"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="47" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I128" s="54"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>141</v>
       </c>
-      <c r="C129" s="17" t="s">
+      <c r="C129" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="D129" s="38" t="s">
+      <c r="D129" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="H129" t="s">
+      <c r="E129" s="33"/>
+      <c r="F129" s="46"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="46" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I129" s="54"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>137</v>
       </c>
-      <c r="C130" s="38" t="s">
+      <c r="C130" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="H130" t="s">
+      <c r="E130" s="33"/>
+      <c r="F130" s="46"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="46" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="131" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="I130" s="54"/>
+    </row>
+    <row r="131" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>142</v>
       </c>
-      <c r="C131" s="17" t="s">
+      <c r="C131" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D131" s="37" t="s">
+      <c r="D131" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="H131" s="8" t="s">
+      <c r="E131" s="33"/>
+      <c r="F131" s="46"/>
+      <c r="G131" s="34"/>
+      <c r="H131" s="47" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I131" s="54"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>138</v>
       </c>
-      <c r="C132" s="38" t="s">
+      <c r="C132" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="H132" t="s">
+      <c r="E132" s="33"/>
+      <c r="F132" s="46"/>
+      <c r="G132" s="34"/>
+      <c r="H132" s="46" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I132" s="54"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E133" s="33"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="34"/>
+      <c r="H133" s="46"/>
+      <c r="I133" s="54"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E134" s="33"/>
+      <c r="F134" s="46"/>
+      <c r="G134" s="34"/>
+      <c r="H134" s="46"/>
+      <c r="I134" s="54"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>124</v>
       </c>
-      <c r="C135" s="38" t="s">
+      <c r="C135" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="H135" t="s">
+      <c r="E135" s="33"/>
+      <c r="F135" s="46"/>
+      <c r="G135" s="34"/>
+      <c r="H135" s="46" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="I135" s="54"/>
+    </row>
+    <row r="136" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>125</v>
       </c>
-      <c r="C136" s="17" t="s">
+      <c r="C136" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D136" s="36" t="s">
+      <c r="D136" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="H136" s="1" t="s">
+      <c r="E136" s="33"/>
+      <c r="F136" s="46"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="51" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I136" s="54"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>126</v>
       </c>
-      <c r="C137" s="38" t="s">
+      <c r="C137" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="G137" s="1"/>
-      <c r="H137" t="s">
+      <c r="E137" s="33"/>
+      <c r="F137" s="46"/>
+      <c r="G137" s="41"/>
+      <c r="H137" s="46" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="6"/>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="10" t="s">
+      <c r="I137" s="54"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="4"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="46"/>
+      <c r="G138" s="34"/>
+      <c r="H138" s="46"/>
+      <c r="I138" s="54"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="7" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="140" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E139" s="33"/>
+      <c r="F139" s="46"/>
+      <c r="G139" s="34"/>
+      <c r="H139" s="46"/>
+      <c r="I139" s="54"/>
+    </row>
+    <row r="140" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>147</v>
       </c>
-      <c r="C140" s="17" t="s">
+      <c r="C140" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D140" s="38" t="s">
+      <c r="D140" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="E140" s="25" t="s">
+      <c r="E140" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="F140" s="8" t="s">
+      <c r="F140" s="47" t="s">
         <v>390</v>
       </c>
-      <c r="H140" t="s">
+      <c r="G140" s="34"/>
+      <c r="H140" s="46" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="141" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I140" s="54"/>
+    </row>
+    <row r="141" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>279</v>
       </c>
-      <c r="C141" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="E141" s="17" t="s">
+      <c r="C141" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="D141" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="E141" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="F141" s="8" t="s">
+      <c r="F141" s="47" t="s">
         <v>390</v>
       </c>
-      <c r="H141" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G141" s="42"/>
+      <c r="H141" s="46" t="s">
+        <v>495</v>
+      </c>
+      <c r="I141" s="54"/>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>148</v>
       </c>
-      <c r="C142" s="17" t="s">
+      <c r="C142" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D142" s="44" t="s">
+      <c r="D142" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="H142" t="s">
+      <c r="E142" s="33"/>
+      <c r="F142" s="46"/>
+      <c r="G142" s="34"/>
+      <c r="H142" s="46" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="143" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I142" s="54"/>
+    </row>
+    <row r="143" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>149</v>
       </c>
-      <c r="C143" s="17" t="s">
+      <c r="C143" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D143" s="35" t="s">
+      <c r="D143" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="E143" s="17" t="s">
+      <c r="E143" s="72" t="s">
         <v>279</v>
       </c>
-      <c r="F143" s="8" t="s">
+      <c r="F143" s="47" t="s">
         <v>390</v>
       </c>
-      <c r="H143" s="2" t="s">
+      <c r="G143" s="34"/>
+      <c r="H143" s="59" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I143" s="54"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>150</v>
       </c>
-      <c r="C144" s="41" t="s">
+      <c r="C144" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="D144" s="5"/>
-      <c r="H144" s="5" t="s">
+      <c r="D144" s="3"/>
+      <c r="E144" s="33"/>
+      <c r="F144" s="46"/>
+      <c r="G144" s="34"/>
+      <c r="H144" s="62" t="s">
         <v>270</v>
       </c>
+      <c r="I144" s="54"/>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>151</v>
       </c>
-      <c r="C145" s="38" t="s">
+      <c r="C145" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="H145" t="s">
+      <c r="E145" s="33"/>
+      <c r="F145" s="46"/>
+      <c r="G145" s="34"/>
+      <c r="H145" s="46" t="s">
         <v>154</v>
       </c>
+      <c r="I145" s="54"/>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E146" s="33"/>
+      <c r="F146" s="46"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="46"/>
+      <c r="I146" s="54"/>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="7" t="s">
         <v>155</v>
       </c>
+      <c r="E147" s="33"/>
+      <c r="F147" s="46"/>
+      <c r="G147" s="34"/>
+      <c r="H147" s="46"/>
+      <c r="I147" s="54"/>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>156</v>
       </c>
-      <c r="C148" s="17" t="s">
+      <c r="C148" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="D148" s="38" t="s">
+      <c r="D148" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="E148" s="17" t="s">
+      <c r="E148" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="H148" s="19" t="s">
+      <c r="G148" s="34"/>
+      <c r="H148" s="63" t="s">
         <v>264</v>
       </c>
+      <c r="I148" s="54"/>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>157</v>
       </c>
-      <c r="C149" s="38" t="s">
+      <c r="C149" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E149" s="17" t="s">
+      <c r="E149" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="H149" t="s">
+      <c r="G149" s="34"/>
+      <c r="H149" s="46" t="s">
         <v>162</v>
       </c>
+      <c r="I149" s="54"/>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>158</v>
       </c>
-      <c r="C150" s="42" t="s">
+      <c r="C150" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D150" s="38" t="s">
+      <c r="D150" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="E150" s="17" t="s">
+      <c r="E150" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="H150" t="s">
+      <c r="G150" s="34"/>
+      <c r="H150" s="46" t="s">
         <v>250</v>
       </c>
+      <c r="I150" s="54"/>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>159</v>
       </c>
-      <c r="C151" s="17" t="s">
+      <c r="C151" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D151" s="44" t="s">
+      <c r="D151" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="E151" s="17" t="s">
+      <c r="E151" s="72" t="s">
         <v>349</v>
       </c>
-      <c r="F151" s="17" t="s">
+      <c r="F151" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="H151" t="s">
+      <c r="H151" s="46" t="s">
         <v>425</v>
       </c>
+      <c r="I151" s="54"/>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>160</v>
       </c>
-      <c r="C152" s="41" t="s">
+      <c r="C152" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="H152" s="5" t="s">
+      <c r="E152" s="33"/>
+      <c r="F152" s="46"/>
+      <c r="G152" s="34"/>
+      <c r="H152" s="62" t="s">
         <v>128</v>
       </c>
+      <c r="I152" s="54"/>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>161</v>
       </c>
-      <c r="C153" s="38" t="s">
+      <c r="C153" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="H153" t="s">
+      <c r="E153" s="33"/>
+      <c r="F153" s="46"/>
+      <c r="G153" s="34"/>
+      <c r="H153" s="46" t="s">
         <v>164</v>
       </c>
+      <c r="I153" s="54"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E154" s="33"/>
+      <c r="F154" s="46"/>
+      <c r="G154" s="34"/>
+      <c r="H154" s="46"/>
+      <c r="I154" s="54"/>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="7" t="s">
         <v>165</v>
       </c>
+      <c r="E155" s="33"/>
+      <c r="F155" s="46"/>
+      <c r="G155" s="34"/>
+      <c r="H155" s="46"/>
+      <c r="I155" s="54"/>
     </row>
     <row r="156" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>166</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="C156" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="D156" s="36" t="s">
+      <c r="D156" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="E156" s="17" t="s">
+      <c r="E156" s="72" t="s">
         <v>317</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="H156" s="1" t="s">
+      <c r="G156" s="34"/>
+      <c r="H156" s="51" t="s">
         <v>408</v>
       </c>
+      <c r="I156" s="54"/>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>167</v>
       </c>
-      <c r="C157" s="38" t="s">
+      <c r="C157" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="E157" s="17" t="s">
+      <c r="E157" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="F157" s="28" t="s">
+      <c r="F157" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="H157" t="s">
+      <c r="G157" s="34"/>
+      <c r="H157" s="46" t="s">
         <v>475</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I157" s="54" t="s">
         <v>474</v>
       </c>
     </row>
@@ -4194,42 +4975,44 @@
       <c r="B158" t="s">
         <v>168</v>
       </c>
-      <c r="C158" s="17" t="s">
+      <c r="C158" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D158" s="36" t="s">
+      <c r="D158" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="E158" s="17" t="s">
+      <c r="E158" s="72" t="s">
         <v>321</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="46" t="s">
         <v>326</v>
       </c>
-      <c r="H158" s="1" t="s">
+      <c r="G158" s="34"/>
+      <c r="H158" s="51" t="s">
         <v>408</v>
       </c>
+      <c r="I158" s="54"/>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>169</v>
       </c>
-      <c r="C159" s="44" t="s">
+      <c r="C159" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="E159" s="23" t="s">
+      <c r="E159" s="75" t="s">
         <v>393</v>
       </c>
-      <c r="F159" s="25" t="s">
+      <c r="F159" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="G159" s="24" t="s">
+      <c r="G159" s="37" t="s">
         <v>326</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H159" s="46" t="s">
         <v>476</v>
       </c>
-      <c r="I159" t="s">
+      <c r="I159" s="54" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4237,42 +5020,44 @@
       <c r="B160" t="s">
         <v>170</v>
       </c>
-      <c r="C160" s="17" t="s">
+      <c r="C160" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D160" s="36" t="s">
+      <c r="D160" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="E160" s="26" t="s">
+      <c r="E160" s="76" t="s">
         <v>320</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="46" t="s">
         <v>438</v>
       </c>
-      <c r="H160" s="1" t="s">
+      <c r="G160" s="34"/>
+      <c r="H160" s="51" t="s">
         <v>408</v>
       </c>
+      <c r="I160" s="54"/>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>171</v>
       </c>
-      <c r="C161" s="38" t="s">
+      <c r="C161" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="E161" s="23" t="s">
+      <c r="E161" s="75" t="s">
         <v>394</v>
       </c>
-      <c r="F161" s="25" t="s">
+      <c r="F161" s="66" t="s">
         <v>439</v>
       </c>
-      <c r="G161" s="24" t="s">
+      <c r="G161" s="37" t="s">
         <v>440</v>
       </c>
-      <c r="H161" t="s">
+      <c r="H161" s="46" t="s">
         <v>477</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I161" s="54" t="s">
         <v>478</v>
       </c>
     </row>
@@ -4280,42 +5065,44 @@
       <c r="B162" t="s">
         <v>172</v>
       </c>
-      <c r="C162" s="17" t="s">
+      <c r="C162" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D162" s="36" t="s">
+      <c r="D162" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="E162" s="17" t="s">
+      <c r="E162" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="46" t="s">
         <v>443</v>
       </c>
-      <c r="H162" s="1" t="s">
+      <c r="G162" s="34"/>
+      <c r="H162" s="51" t="s">
         <v>408</v>
       </c>
+      <c r="I162" s="54"/>
     </row>
     <row r="163" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>173</v>
       </c>
-      <c r="C163" s="38" t="s">
+      <c r="C163" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="E163" s="25" t="s">
+      <c r="E163" s="74" t="s">
         <v>395</v>
       </c>
-      <c r="F163" s="25" t="s">
+      <c r="F163" s="66" t="s">
         <v>444</v>
       </c>
-      <c r="G163" s="24" t="s">
+      <c r="G163" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H163" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="I163" t="s">
+      <c r="I163" s="54" t="s">
         <v>480</v>
       </c>
     </row>
@@ -4323,42 +5110,44 @@
       <c r="B164" t="s">
         <v>174</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="C164" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D164" s="36" t="s">
+      <c r="D164" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="E164" s="17" t="s">
+      <c r="E164" s="72" t="s">
         <v>323</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="46" t="s">
         <v>445</v>
       </c>
-      <c r="H164" s="1" t="s">
+      <c r="G164" s="34"/>
+      <c r="H164" s="51" t="s">
         <v>408</v>
       </c>
+      <c r="I164" s="54"/>
     </row>
     <row r="165" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>175</v>
       </c>
-      <c r="C165" s="38" t="s">
+      <c r="C165" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="E165" s="25" t="s">
+      <c r="E165" s="74" t="s">
         <v>396</v>
       </c>
-      <c r="F165" s="25" t="s">
+      <c r="F165" s="66" t="s">
         <v>446</v>
       </c>
-      <c r="G165" s="28" t="s">
+      <c r="G165" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="H165" s="8" t="s">
+      <c r="H165" s="47" t="s">
         <v>481</v>
       </c>
-      <c r="I165" s="8" t="s">
+      <c r="I165" s="55" t="s">
         <v>482</v>
       </c>
     </row>
@@ -4366,42 +5155,44 @@
       <c r="B166" t="s">
         <v>176</v>
       </c>
-      <c r="C166" s="17" t="s">
+      <c r="C166" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D166" s="36" t="s">
+      <c r="D166" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="E166" s="17" t="s">
+      <c r="E166" s="72" t="s">
         <v>325</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="H166" s="1" t="s">
+      <c r="G166" s="34"/>
+      <c r="H166" s="51" t="s">
         <v>408</v>
       </c>
+      <c r="I166" s="54"/>
     </row>
     <row r="167" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>96</v>
       </c>
-      <c r="C167" s="38" t="s">
+      <c r="C167" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="E167" s="25" t="s">
+      <c r="E167" s="74" t="s">
         <v>397</v>
       </c>
-      <c r="F167" s="25" t="s">
+      <c r="F167" s="66" t="s">
         <v>449</v>
       </c>
-      <c r="G167" s="28" t="s">
+      <c r="G167" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="H167" t="s">
+      <c r="H167" s="46" t="s">
         <v>483</v>
       </c>
-      <c r="I167" s="8" t="s">
+      <c r="I167" s="55" t="s">
         <v>488</v>
       </c>
     </row>
@@ -4409,333 +5200,498 @@
       <c r="B168" t="s">
         <v>177</v>
       </c>
-      <c r="C168" s="17" t="s">
+      <c r="C168" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="36" t="s">
+      <c r="D168" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="E168" s="17" t="s">
+      <c r="E168" s="72" t="s">
         <v>324</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="46" t="s">
         <v>451</v>
       </c>
-      <c r="H168" s="1" t="s">
+      <c r="G168" s="34"/>
+      <c r="H168" s="51" t="s">
         <v>408</v>
       </c>
+      <c r="I168" s="54"/>
     </row>
     <row r="169" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>178</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="C169" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="D169" s="36" t="s">
+      <c r="D169" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="E169" s="27" t="s">
+      <c r="E169" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="46" t="s">
         <v>451</v>
       </c>
-      <c r="H169" s="1" t="s">
+      <c r="G169" s="34"/>
+      <c r="H169" s="51" t="s">
         <v>408</v>
       </c>
+      <c r="I169" s="54"/>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E170" s="33"/>
+      <c r="F170" s="46"/>
+      <c r="G170" s="34"/>
+      <c r="H170" s="46"/>
+      <c r="I170" s="54"/>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="7" t="s">
         <v>184</v>
       </c>
+      <c r="E171" s="33"/>
+      <c r="F171" s="46"/>
+      <c r="G171" s="34"/>
+      <c r="H171" s="46"/>
+      <c r="I171" s="54"/>
     </row>
     <row r="172" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C172" s="18" t="s">
+      <c r="C172" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D172" s="36" t="s">
+      <c r="D172" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="E172" s="17" t="s">
+      <c r="E172" s="72" t="s">
         <v>398</v>
       </c>
-      <c r="F172" s="18" t="s">
+      <c r="F172" s="70" t="s">
         <v>436</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172" s="34" t="s">
         <v>430</v>
       </c>
-      <c r="H172" s="1" t="s">
+      <c r="H172" s="51" t="s">
         <v>409</v>
       </c>
+      <c r="I172" s="54"/>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>186</v>
       </c>
-      <c r="C173" s="38" t="s">
+      <c r="C173" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="H173" t="s">
+      <c r="E173" s="33"/>
+      <c r="F173" s="46"/>
+      <c r="G173" s="34"/>
+      <c r="H173" s="46" t="s">
         <v>189</v>
       </c>
+      <c r="I173" s="54"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>187</v>
       </c>
-      <c r="C174" s="38" t="s">
+      <c r="C174" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="H174" t="s">
+      <c r="E174" s="33"/>
+      <c r="F174" s="46"/>
+      <c r="G174" s="34"/>
+      <c r="H174" s="46" t="s">
         <v>190</v>
       </c>
+      <c r="I174" s="54"/>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E175" s="33"/>
+      <c r="F175" s="46"/>
+      <c r="G175" s="34"/>
+      <c r="H175" s="46"/>
+      <c r="I175" s="54"/>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="7" t="s">
         <v>266</v>
       </c>
+      <c r="E176" s="33"/>
+      <c r="F176" s="46"/>
+      <c r="G176" s="34"/>
+      <c r="H176" s="46"/>
+      <c r="I176" s="54"/>
     </row>
     <row r="177" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C177" s="37" t="s">
+      <c r="C177" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="H177" s="8" t="s">
+      <c r="E177" s="33"/>
+      <c r="F177" s="46"/>
+      <c r="G177" s="34"/>
+      <c r="H177" s="47" t="s">
         <v>192</v>
       </c>
+      <c r="I177" s="54"/>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C178" s="40" t="s">
+      <c r="C178" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="H178" s="20" t="s">
+      <c r="E178" s="33"/>
+      <c r="F178" s="46"/>
+      <c r="G178" s="34"/>
+      <c r="H178" s="50" t="s">
         <v>286</v>
       </c>
+      <c r="I178" s="54"/>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E179" s="33"/>
+      <c r="F179" s="46"/>
+      <c r="G179" s="34"/>
+      <c r="H179" s="46"/>
+      <c r="I179" s="54"/>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="7" t="s">
         <v>193</v>
       </c>
+      <c r="E180" s="33"/>
+      <c r="F180" s="46"/>
+      <c r="G180" s="34"/>
+      <c r="H180" s="46"/>
+      <c r="I180" s="54"/>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B181" s="12" t="s">
+      <c r="B181" s="9" t="s">
         <v>198</v>
       </c>
+      <c r="E181" s="33"/>
+      <c r="F181" s="46"/>
+      <c r="G181" s="34"/>
+      <c r="H181" s="46"/>
+      <c r="I181" s="54"/>
     </row>
     <row r="182" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>194</v>
       </c>
-      <c r="C182" s="38" t="s">
+      <c r="C182" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="E182" s="17" t="s">
+      <c r="E182" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F182" s="8" t="s">
+      <c r="F182" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="H182" t="s">
+      <c r="G182" s="34"/>
+      <c r="H182" s="46" t="s">
         <v>196</v>
       </c>
+      <c r="I182" s="54"/>
     </row>
     <row r="183" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>195</v>
       </c>
-      <c r="C183" s="38" t="s">
+      <c r="C183" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="E183" s="17" t="s">
+      <c r="E183" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="F183" s="28" t="s">
+      <c r="F183" s="49" t="s">
         <v>452</v>
       </c>
-      <c r="H183" t="s">
+      <c r="G183" s="34"/>
+      <c r="H183" s="46" t="s">
         <v>484</v>
       </c>
-      <c r="I183" s="8" t="s">
+      <c r="I183" s="55" t="s">
         <v>452</v>
       </c>
     </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E184" s="33"/>
+      <c r="F184" s="46"/>
+      <c r="G184" s="34"/>
+      <c r="H184" s="46"/>
+      <c r="I184" s="54"/>
+    </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B185" s="12" t="s">
+      <c r="B185" s="9" t="s">
         <v>199</v>
       </c>
+      <c r="E185" s="33"/>
+      <c r="F185" s="46"/>
+      <c r="G185" s="34"/>
+      <c r="H185" s="46"/>
+      <c r="I185" s="54"/>
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>200</v>
       </c>
-      <c r="C186" s="38" t="s">
+      <c r="C186" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="H186" t="s">
+      <c r="E186" s="33"/>
+      <c r="F186" s="46"/>
+      <c r="G186" s="34"/>
+      <c r="H186" s="46" t="s">
         <v>203</v>
       </c>
+      <c r="I186" s="54"/>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>201</v>
       </c>
-      <c r="C187" s="17" t="s">
+      <c r="C187" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="D187" s="38" t="s">
+      <c r="D187" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="H187" t="s">
+      <c r="E187" s="33"/>
+      <c r="F187" s="46"/>
+      <c r="G187" s="34"/>
+      <c r="H187" s="46" t="s">
         <v>268</v>
       </c>
+      <c r="I187" s="54"/>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>202</v>
       </c>
-      <c r="C188" s="38" t="s">
+      <c r="C188" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="H188" t="s">
+      <c r="E188" s="33"/>
+      <c r="F188" s="46"/>
+      <c r="G188" s="34"/>
+      <c r="H188" s="46" t="s">
         <v>204</v>
       </c>
+      <c r="I188" s="54"/>
     </row>
     <row r="189" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>296</v>
       </c>
-      <c r="C189" s="17" t="s">
+      <c r="C189" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="D189" s="37" t="s">
+      <c r="D189" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="H189" s="8" t="s">
+      <c r="E189" s="33"/>
+      <c r="F189" s="46"/>
+      <c r="G189" s="34"/>
+      <c r="H189" s="47" t="s">
         <v>416</v>
       </c>
+      <c r="I189" s="54"/>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E190" s="33"/>
+      <c r="F190" s="46"/>
+      <c r="G190" s="34"/>
+      <c r="H190" s="46"/>
+      <c r="I190" s="54"/>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="7" t="s">
         <v>206</v>
       </c>
+      <c r="E191" s="33"/>
+      <c r="F191" s="46"/>
+      <c r="G191" s="34"/>
+      <c r="H191" s="46"/>
+      <c r="I191" s="54"/>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E192" s="33"/>
+      <c r="F192" s="46"/>
+      <c r="G192" s="34"/>
+      <c r="H192" s="46"/>
+      <c r="I192" s="54"/>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B193" s="12" t="s">
+      <c r="B193" s="9" t="s">
         <v>207</v>
       </c>
+      <c r="E193" s="33"/>
+      <c r="F193" s="46"/>
+      <c r="G193" s="34"/>
+      <c r="H193" s="46"/>
+      <c r="I193" s="54"/>
     </row>
     <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>209</v>
       </c>
-      <c r="C194" s="38" t="s">
+      <c r="C194" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="H194" t="s">
+      <c r="E194" s="33"/>
+      <c r="F194" s="46"/>
+      <c r="G194" s="34"/>
+      <c r="H194" s="46" t="s">
         <v>211</v>
       </c>
+      <c r="I194" s="54"/>
     </row>
     <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>210</v>
       </c>
-      <c r="C195" s="17" t="s">
+      <c r="C195" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="D195" s="38" t="s">
+      <c r="D195" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="H195" t="s">
+      <c r="E195" s="33"/>
+      <c r="F195" s="46"/>
+      <c r="G195" s="34"/>
+      <c r="H195" s="46" t="s">
         <v>269</v>
       </c>
+      <c r="I195" s="54"/>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E196" s="33"/>
+      <c r="F196" s="46"/>
+      <c r="G196" s="34"/>
+      <c r="H196" s="46"/>
+      <c r="I196" s="54"/>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B197" s="12" t="s">
+      <c r="B197" s="9" t="s">
         <v>208</v>
       </c>
+      <c r="E197" s="33"/>
+      <c r="F197" s="46"/>
+      <c r="G197" s="34"/>
+      <c r="H197" s="46"/>
+      <c r="I197" s="54"/>
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>213</v>
       </c>
-      <c r="C198" s="38" t="s">
+      <c r="C198" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="H198" t="s">
+      <c r="E198" s="33"/>
+      <c r="F198" s="46"/>
+      <c r="G198" s="34"/>
+      <c r="H198" s="46" t="s">
         <v>215</v>
       </c>
+      <c r="I198" s="54"/>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>214</v>
       </c>
-      <c r="C199" s="38" t="s">
+      <c r="C199" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="H199" t="s">
+      <c r="E199" s="33"/>
+      <c r="F199" s="46"/>
+      <c r="G199" s="34"/>
+      <c r="H199" s="46" t="s">
         <v>216</v>
       </c>
+      <c r="I199" s="54"/>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E200" s="33"/>
+      <c r="F200" s="46"/>
+      <c r="G200" s="34"/>
+      <c r="H200" s="46"/>
+      <c r="I200" s="54"/>
     </row>
     <row r="201" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B201" s="12" t="s">
+      <c r="B201" s="9" t="s">
         <v>217</v>
       </c>
+      <c r="E201" s="33"/>
+      <c r="F201" s="46"/>
+      <c r="G201" s="34"/>
+      <c r="H201" s="46"/>
+      <c r="I201" s="54"/>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>218</v>
       </c>
-      <c r="C202" s="38" t="s">
+      <c r="C202" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="H202" t="s">
+      <c r="E202" s="33"/>
+      <c r="F202" s="46"/>
+      <c r="G202" s="34"/>
+      <c r="H202" s="46" t="s">
         <v>221</v>
       </c>
+      <c r="I202" s="54"/>
     </row>
     <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>219</v>
       </c>
-      <c r="C203" s="38" t="s">
+      <c r="C203" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="H203" t="s">
+      <c r="F203" s="46"/>
+      <c r="G203" s="34"/>
+      <c r="H203" s="46" t="s">
         <v>222</v>
       </c>
+      <c r="I203" s="54"/>
     </row>
     <row r="204" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>220</v>
       </c>
-      <c r="C204" s="18" t="s">
+      <c r="C204" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="D204" s="38" t="s">
+      <c r="D204" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="E204" s="17" t="s">
+      <c r="E204" s="72" t="s">
         <v>399</v>
       </c>
-      <c r="F204" s="24" t="s">
+      <c r="F204" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="H204" t="s">
+      <c r="G204" s="34"/>
+      <c r="H204" s="46" t="s">
         <v>485</v>
       </c>
-      <c r="I204" t="s">
+      <c r="I204" s="54" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4743,139 +5699,222 @@
       <c r="B205" t="s">
         <v>400</v>
       </c>
-      <c r="C205" s="38" t="s">
+      <c r="C205" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="E205" s="17" t="s">
+      <c r="E205" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205" s="46" t="s">
         <v>353</v>
       </c>
-      <c r="H205" t="s">
+      <c r="G205" s="34"/>
+      <c r="H205" s="46" t="s">
         <v>329</v>
       </c>
+      <c r="I205" s="54"/>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E206" s="33"/>
+      <c r="F206" s="46"/>
+      <c r="G206" s="34"/>
+      <c r="H206" s="46"/>
+      <c r="I206" s="54"/>
     </row>
     <row r="207" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B207" s="10" t="s">
+      <c r="B207" s="7" t="s">
         <v>223</v>
       </c>
+      <c r="E207" s="33"/>
+      <c r="F207" s="46"/>
+      <c r="G207" s="34"/>
+      <c r="H207" s="46"/>
+      <c r="I207" s="54"/>
     </row>
     <row r="208" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B208" s="7"/>
+      <c r="B208" s="5"/>
+      <c r="E208" s="33"/>
+      <c r="F208" s="46"/>
+      <c r="G208" s="34"/>
+      <c r="H208" s="46"/>
+      <c r="I208" s="54"/>
     </row>
     <row r="209" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B209" s="12" t="s">
+      <c r="B209" s="9" t="s">
         <v>224</v>
       </c>
+      <c r="E209" s="33"/>
+      <c r="F209" s="46"/>
+      <c r="G209" s="34"/>
+      <c r="H209" s="46"/>
+      <c r="I209" s="54"/>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>226</v>
       </c>
-      <c r="C210" s="38" t="s">
+      <c r="C210" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="H210" t="s">
+      <c r="E210" s="33"/>
+      <c r="F210" s="46"/>
+      <c r="G210" s="34"/>
+      <c r="H210" s="46" t="s">
         <v>229</v>
       </c>
+      <c r="I210" s="54"/>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>227</v>
       </c>
-      <c r="C211" s="44" t="s">
+      <c r="C211" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="H211" t="s">
+      <c r="E211" s="33"/>
+      <c r="F211" s="46"/>
+      <c r="G211" s="34"/>
+      <c r="H211" s="46" t="s">
         <v>413</v>
       </c>
+      <c r="I211" s="54"/>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>228</v>
       </c>
-      <c r="C212" s="38" t="s">
+      <c r="C212" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="H212" t="s">
+      <c r="E212" s="33"/>
+      <c r="F212" s="46"/>
+      <c r="G212" s="34"/>
+      <c r="H212" s="46" t="s">
         <v>230</v>
       </c>
+      <c r="I212" s="54"/>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E213" s="33"/>
+      <c r="F213" s="46"/>
+      <c r="G213" s="34"/>
+      <c r="H213" s="46"/>
+      <c r="I213" s="54"/>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B214" s="12" t="s">
+      <c r="B214" s="9" t="s">
         <v>225</v>
       </c>
+      <c r="E214" s="33"/>
+      <c r="F214" s="46"/>
+      <c r="G214" s="34"/>
+      <c r="H214" s="46"/>
+      <c r="I214" s="54"/>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>231</v>
       </c>
-      <c r="C215" s="44" t="s">
+      <c r="C215" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="H215" t="s">
+      <c r="E215" s="33"/>
+      <c r="F215" s="46"/>
+      <c r="G215" s="34"/>
+      <c r="H215" s="46" t="s">
         <v>412</v>
       </c>
+      <c r="I215" s="54"/>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E216" s="33"/>
+      <c r="F216" s="46"/>
+      <c r="G216" s="34"/>
+      <c r="H216" s="46"/>
+      <c r="I216" s="54"/>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B217" s="10" t="s">
+      <c r="B217" s="7" t="s">
         <v>232</v>
       </c>
+      <c r="E217" s="33"/>
+      <c r="F217" s="46"/>
+      <c r="G217" s="34"/>
+      <c r="H217" s="46"/>
+      <c r="I217" s="54"/>
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>233</v>
       </c>
-      <c r="C218" s="38" t="s">
+      <c r="C218" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="H218" t="s">
+      <c r="E218" s="33"/>
+      <c r="F218" s="46"/>
+      <c r="G218" s="34"/>
+      <c r="H218" s="46" t="s">
         <v>234</v>
       </c>
+      <c r="I218" s="54"/>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E219" s="33"/>
+      <c r="F219" s="46"/>
+      <c r="G219" s="34"/>
+      <c r="H219" s="46"/>
+      <c r="I219" s="54"/>
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="7" t="s">
         <v>235</v>
       </c>
+      <c r="E220" s="33"/>
+      <c r="F220" s="46"/>
+      <c r="G220" s="34"/>
+      <c r="H220" s="46"/>
+      <c r="I220" s="54"/>
     </row>
     <row r="221" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>236</v>
       </c>
-      <c r="C221" s="38" t="s">
+      <c r="C221" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="E221" s="17" t="s">
+      <c r="E221" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F221" s="8" t="s">
+      <c r="F221" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="H221" t="s">
+      <c r="G221" s="34"/>
+      <c r="H221" s="46" t="s">
         <v>241</v>
       </c>
+      <c r="I221" s="54"/>
     </row>
     <row r="222" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>298</v>
       </c>
-      <c r="C222" s="23" t="s">
+      <c r="C222" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D222" s="38" t="s">
+      <c r="D222" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="E222" s="17" t="s">
+      <c r="E222" s="72" t="s">
         <v>236</v>
       </c>
-      <c r="F222" s="28" t="s">
+      <c r="F222" s="49" t="s">
         <v>452</v>
       </c>
-      <c r="H222" t="s">
+      <c r="G222" s="34"/>
+      <c r="H222" s="46" t="s">
         <v>486</v>
       </c>
-      <c r="I222" s="8" t="s">
+      <c r="I222" s="55" t="s">
         <v>452</v>
       </c>
     </row>
@@ -4883,54 +5922,67 @@
       <c r="B223" t="s">
         <v>237</v>
       </c>
-      <c r="C223" s="38" t="s">
+      <c r="C223" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H223" t="s">
+      <c r="E223" s="33"/>
+      <c r="F223" s="46"/>
+      <c r="G223" s="34"/>
+      <c r="H223" s="46" t="s">
         <v>38</v>
       </c>
+      <c r="I223" s="54"/>
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>238</v>
       </c>
-      <c r="C224" s="38" t="s">
+      <c r="C224" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="H224" t="s">
+      <c r="E224" s="33"/>
+      <c r="F224" s="46"/>
+      <c r="G224" s="34"/>
+      <c r="H224" s="46" t="s">
         <v>242</v>
       </c>
+      <c r="I224" s="54"/>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>239</v>
       </c>
-      <c r="C225" s="38" t="s">
+      <c r="C225" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="E225" s="17" t="s">
+      <c r="E225" s="72" t="s">
         <v>301</v>
       </c>
-      <c r="F225" s="24" t="s">
+      <c r="F225" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="H225" t="s">
+      <c r="G225" s="34"/>
+      <c r="H225" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="I225" t="s">
+      <c r="I225" s="54" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
         <v>240</v>
       </c>
-      <c r="C226" s="38" t="s">
+      <c r="C226" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="H226" t="s">
+      <c r="E226" s="43"/>
+      <c r="F226" s="52"/>
+      <c r="G226" s="44"/>
+      <c r="H226" s="64" t="s">
         <v>297</v>
       </c>
+      <c r="I226" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F5DC75-3B97-40DB-8AE8-46F93C98399B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8308F48-FCDB-4708-9D97-B9ED3B54E601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="486">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -313,9 +313,6 @@
     <t>&lt;ACCESS_METH&gt; ? null</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;DOT_EXPR&gt; ? &lt;SUBSCRIPT&gt; ?&lt;FN_BRACKETS&gt; </t>
-  </si>
-  <si>
     <t>&lt;J1&gt;</t>
   </si>
   <si>
@@ -418,12 +415,6 @@
     <t>id ? &lt;NEW_ARR_CONST&gt;</t>
   </si>
   <si>
-    <t>&lt;DOT_ARR&gt; ? ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">= ? ; </t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;EXPR&gt; ? ] </t>
   </si>
   <si>
@@ -457,13 +448,7 @@
     <t>&lt;LEN_OF_ARR2&gt;</t>
   </si>
   <si>
-    <t>[ ? ;</t>
-  </si>
-  <si>
     <t>&lt;EXPR&gt;? ]</t>
-  </si>
-  <si>
-    <t>[? ;</t>
   </si>
   <si>
     <t>Global Variable Declaration</t>
@@ -969,9 +954,6 @@
     <t>dot ? [ ? ( ? Null</t>
   </si>
   <si>
-    <t>F&lt;LIST&gt; ? &lt;DOT_EXPR&gt; ? ; F&lt;LIST_G&gt; ? F&lt;LIST_C&gt;</t>
-  </si>
-  <si>
     <t>&lt;ASSIGN_EXPR&gt;</t>
   </si>
   <si>
@@ -1030,12 +1012,6 @@
     <t> dot ? [ ? ( ? Null</t>
   </si>
   <si>
-    <t>&lt;DOT_ARR&gt;? &lt;SUBSCRIPT&gt; ? &lt;FN_BRACKETS&gt; ? Null</t>
-  </si>
-  <si>
-    <t>dot  ? ;</t>
-  </si>
-  <si>
     <t>&lt;POS2&gt; ? &lt;INC_DEC&gt;</t>
   </si>
   <si>
@@ -1045,36 +1021,6 @@
     <t xml:space="preserve"> &lt;OPERANDS&gt;</t>
   </si>
   <si>
-    <t>F&lt;MORE_REF_STR&gt; ? &lt;DOT_ARR&gt; ? &lt;CHOICE&gt;</t>
-  </si>
-  <si>
-    <t>&lt;POSARR&gt; ? &lt;DOT_ARR_TRMIN&gt;</t>
-  </si>
-  <si>
-    <t>&lt;POSARR&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;POSARR&gt; </t>
-  </si>
-  <si>
-    <t>&lt;IS_ARR_INIT&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ARR_INIT&gt; </t>
-  </si>
-  <si>
-    <t>&lt;ARR_DEC&gt; ? &lt;ARR_CLASS_DEC&gt;</t>
-  </si>
-  <si>
-    <t>&lt;VAR_ARR&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;VAR_ARR_C&gt;  ? &lt;VAR_ARR_G&gt; </t>
-  </si>
-  <si>
-    <t>&lt;DEC&gt;</t>
-  </si>
-  <si>
     <t>F&lt;MST&gt; ? &lt;MST&gt; ? &lt;BODY&gt;</t>
   </si>
   <si>
@@ -1082,9 +1028,6 @@
   </si>
   <si>
     <t>else ? Till ? &lt;SST&gt;</t>
-  </si>
-  <si>
-    <t>&lt;IS_FINAL&gt; ? &lt;VAR_OBJ_C&gt;</t>
   </si>
   <si>
     <t>F&lt;CLASS_BODY&gt;</t>
@@ -1094,17 +1037,10 @@
 &lt;ST_BODY2&gt;</t>
   </si>
   <si>
-    <t>= ? ; ? &lt;POSARR&gt; ? &lt;CHOICE&gt;</t>
-  </si>
-  <si>
     <t>)</t>
   </si>
   <si>
     <t>~</t>
-  </si>
-  <si>
-    <t>def ?  Static ? const ? dt ? id  ? }
- ? Begin?  Class ? Abstract ?  ~</t>
   </si>
   <si>
     <t>SELECTION SET</t>
@@ -1195,14 +1131,7 @@
     <t>[  ? id</t>
   </si>
   <si>
-    <t xml:space="preserve">dot? &lt;ASSIGN_OP&gt;? &lt;INC_DEC&gt; ? 
-&lt;NEW_OBJ&gt; ? &lt;id_TO_EXPR&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">dot ? &lt;id_TO_EXPR&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;id_TO_EXPR&gt;   </t>
   </si>
   <si>
     <t xml:space="preserve">&lt;DOT_id3&gt; ? &lt;SUBSCRIPT&gt; ? &lt;FN_BRACKETS&gt; </t>
@@ -1365,14 +1294,6 @@
   </si>
   <si>
     <t>dot ? power ?  mdm ?  pm ? Rop ? And ? 
-Or ? Null ? [ ? (</t>
-  </si>
-  <si>
-    <t>dot ? = ? Cma ? inc_dec ? new? NaN ? power 
-?  mdm ?  pm ? Rop ? And ? Or ? Null</t>
-  </si>
-  <si>
-    <t>dot ? power ?  mdm ?  pm ? Rop ? And ? 
 Or ? Null</t>
   </si>
   <si>
@@ -1435,14 +1356,6 @@
  Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise?state ? default ? } ?else ? Till</t>
   </si>
   <si>
-    <t>if ? shift ? const ? dt ? id ? Parent ?
- Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise?state ? default ? } ?else ? Till?def ?  Static ?Begin?  Class ? Abstract ?  ~</t>
-  </si>
-  <si>
-    <t>= ? ;?if ? shift ? const ? dt ? id ? Parent ?
- Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise?state ? default ? } ?else ? Till?def ?  Static ?Begin?  Class ? Abstract ?  ~</t>
-  </si>
-  <si>
     <t>&lt;DOT_id5&gt; ? &lt;SUBSCRIPT&gt;? &lt;FN_BRACKETS&gt; 
  ? Null</t>
   </si>
@@ -1488,22 +1401,10 @@
     <t>inc_dec ? dot  ? [ ? (</t>
   </si>
   <si>
-    <t>dot ? power ?  mdm ?  pm ? Rop ? And ? 
-Or ?  [ ? (</t>
-  </si>
-  <si>
     <t xml:space="preserve">power ?  mdm ?  pm ? Rop ? And ? Or </t>
   </si>
   <si>
-    <t>dot ? = ? Cma ? inc_dec ? new? NaN ? power 
-?  mdm ?  pm ? Rop ? And ? Or</t>
-  </si>
-  <si>
     <t>dot ? power ?  mdm ?  pm ? Rop ? And ? Or</t>
-  </si>
-  <si>
-    <t>= ? ; ? state ? default ? } else ? Till ? def ? 
- Static ? const ? dt ? id  ? }? Begin?  Class ? Abstract ?  ~</t>
   </si>
   <si>
     <t xml:space="preserve">]  ? ) ? , ? }  ? :  ? ; </t>
@@ -1573,13 +1474,80 @@
   </si>
   <si>
     <t>dt ? str ? Id</t>
+  </si>
+  <si>
+    <t>&lt;DOT_ARR_REF&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DOT_ARR&gt; ?&lt;MORE_REF_STR&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot?= ? ; </t>
+  </si>
+  <si>
+    <t>&lt;LIST_ARR&gt;</t>
+  </si>
+  <si>
+    <t>= ? &lt;LIST_ARR&gt;</t>
+  </si>
+  <si>
+    <t>=?, ? ;</t>
+  </si>
+  <si>
+    <t>&lt;DOT_ARR&gt; ?&lt;LIST_ARR&gt;</t>
+  </si>
+  <si>
+    <t>dot? , ? ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot ? =?,?;? [ ? ( </t>
+  </si>
+  <si>
+    <t>dot ? =?,?;? [ ? (</t>
+  </si>
+  <si>
+    <t>&lt;DOT_ARR&gt;?&lt;MORE_REF_STR&gt; ?
+ &lt;SUBSCRIPT&gt; ? &lt;FN_BRACKETS&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;LIST&gt; ? &lt;DOT_EXPR&gt; ? ; F&lt;LIST_G&gt; ?
+ F&lt;LIST_C&gt;</t>
+  </si>
+  <si>
+    <t>[ ? ; ?&lt;LIST_ARR&gt;</t>
+  </si>
+  <si>
+    <t>[? ;?&lt;LIST_ARR&gt;</t>
+  </si>
+  <si>
+    <t>[?;?,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ID_TO_EXPR&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot? &lt;ASSIGN_OP&gt;? &lt;INC_DEC&gt; ? 
+&lt;ID_TO_EXPR&gt; </t>
+  </si>
+  <si>
+    <t>dot ? = ? Cma ? inc_dec ? NaN ? power 
+?  mdm ?  pm ? Rop ? And ? Or ? Null</t>
+  </si>
+  <si>
+    <t>&lt;DOT_EXPR&gt; ?&lt;SUBSCRIPT&gt; ?
+&lt;FN_BRACKETS&gt;</t>
+  </si>
+  <si>
+    <t>dot ? = ? Cma ? inc_dec ? NaN ? power 
+?  mdm ?  pm ? Rop ? And ? Or ? Null?
+ [ ? (</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1635,15 +1603,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1682,13 +1643,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1885,8 +1841,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1894,9 +1861,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1978,11 +1944,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1991,7 +1957,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2050,7 +2015,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2069,12 +2033,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2356,19 +2323,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I226"/>
+  <dimension ref="B1:I228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A96" activeCellId="1" sqref="A95 A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="5" max="5" width="52" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.42578125" customWidth="1"/>
     <col min="7" max="7" width="40.42578125" customWidth="1"/>
     <col min="8" max="8" width="44.85546875" customWidth="1"/>
@@ -2383,22 +2350,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>292</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>293</v>
+        <v>239</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>288</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="I1" s="53" t="s">
-        <v>456</v>
+        <v>288</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -2408,31 +2375,31 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="33"/>
-      <c r="F2" s="46"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="34"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="54"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="F3" s="46"/>
+        <v>334</v>
+      </c>
+      <c r="F3" s="45"/>
       <c r="G3" s="34"/>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="54" t="s">
-        <v>354</v>
+      <c r="I3" s="53" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -2440,23 +2407,23 @@
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="E4" s="72" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="48" t="s">
-        <v>354</v>
+      <c r="F4" s="47" t="s">
+        <v>334</v>
       </c>
       <c r="G4" s="34"/>
-      <c r="H4" s="51" t="s">
-        <v>459</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>354</v>
+      <c r="H4" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -2464,23 +2431,23 @@
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="E5" s="72" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="48" t="s">
-        <v>354</v>
+      <c r="F5" s="47" t="s">
+        <v>334</v>
       </c>
       <c r="G5" s="34"/>
-      <c r="H5" s="51" t="s">
-        <v>458</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>354</v>
+      <c r="H5" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -2488,23 +2455,23 @@
         <v>7</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>295</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>354</v>
+        <v>336</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>290</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>334</v>
       </c>
       <c r="G6" s="34"/>
-      <c r="H6" s="51" t="s">
-        <v>457</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>354</v>
+      <c r="H6" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -2512,20 +2479,20 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="33"/>
-      <c r="F7" s="46"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="34"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="54"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="53"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="33"/>
-      <c r="F8" s="46"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="34"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="54"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="53"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -2534,10 +2501,10 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="33"/>
-      <c r="F9" s="46"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="34"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="54"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="53"/>
     </row>
     <row r="10" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -2547,61 +2514,61 @@
         <v>9</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>347</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>348</v>
+        <v>391</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>330</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>452</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>414</v>
-      </c>
-      <c r="I10" s="54"/>
+        <v>427</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="I10" s="53"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="E11" s="33"/>
-      <c r="F11" s="46"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="34"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="54"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="53"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="33"/>
-      <c r="F12" s="46"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="54"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="53"/>
     </row>
     <row r="13" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="E13" s="72" t="s">
-        <v>346</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>452</v>
+        <v>388</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>328</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>427</v>
       </c>
       <c r="G13" s="36"/>
-      <c r="H13" s="47" t="s">
-        <v>491</v>
-      </c>
-      <c r="I13" s="54"/>
+      <c r="H13" s="46" t="s">
+        <v>461</v>
+      </c>
+      <c r="I13" s="53"/>
     </row>
     <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -2611,20 +2578,20 @@
         <v>28</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="E14" s="72" t="s">
-        <v>305</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>303</v>
+        <v>392</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>298</v>
       </c>
       <c r="G14" s="34"/>
-      <c r="H14" s="47" t="s">
-        <v>492</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>303</v>
+      <c r="H14" s="46" t="s">
+        <v>462</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -2632,10 +2599,10 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="33"/>
-      <c r="F15" s="46"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="34"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="54"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="53"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
@@ -2644,10 +2611,10 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="33"/>
-      <c r="F16" s="46"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="54"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="53"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
@@ -2658,22 +2625,22 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="33"/>
-      <c r="F17" s="46"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="59" t="s">
-        <v>493</v>
-      </c>
-      <c r="I17" s="54"/>
+      <c r="H17" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="33"/>
-      <c r="F18" s="46"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="34"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="54"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="53"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
@@ -2682,10 +2649,10 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="33"/>
-      <c r="F19" s="46"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="34"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="54"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="53"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
@@ -2696,12 +2663,12 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="33"/>
-      <c r="F20" s="46"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="34"/>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="54"/>
+      <c r="I20" s="53"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -2712,54 +2679,54 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="33"/>
-      <c r="F21" s="46"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="34"/>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="54"/>
+      <c r="I21" s="53"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="46"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="34"/>
-      <c r="H22" s="59" t="s">
-        <v>277</v>
-      </c>
-      <c r="I22" s="54"/>
+      <c r="H22" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="I22" s="53"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="33"/>
-      <c r="F23" s="46"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="34"/>
-      <c r="H23" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="I23" s="54"/>
+      <c r="H23" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="I23" s="53"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="33"/>
-      <c r="F24" s="46"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="34"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="54"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="53"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
@@ -2768,42 +2735,42 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="33"/>
-      <c r="F25" s="46"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="34"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="54"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="53"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="33"/>
-      <c r="F26" s="46"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="34"/>
-      <c r="H26" s="59" t="s">
-        <v>417</v>
-      </c>
-      <c r="I26" s="54"/>
+      <c r="H26" s="58" t="s">
+        <v>394</v>
+      </c>
+      <c r="I26" s="53"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="33"/>
-      <c r="F27" s="46"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="34"/>
-      <c r="H27" s="59" t="s">
-        <v>249</v>
-      </c>
-      <c r="I27" s="54"/>
+      <c r="H27" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="I27" s="53"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
@@ -2813,38 +2780,38 @@
         <v>29</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="72" t="s">
-        <v>361</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>306</v>
+      <c r="E28" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>301</v>
       </c>
       <c r="G28" s="34"/>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="54"/>
+      <c r="I28" s="53"/>
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="73" t="s">
-        <v>362</v>
-      </c>
-      <c r="F29" s="48" t="s">
-        <v>306</v>
+      <c r="E29" s="71" t="s">
+        <v>341</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>301</v>
       </c>
       <c r="G29" s="34"/>
-      <c r="H29" s="59" t="s">
+      <c r="H29" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="54" t="s">
-        <v>460</v>
+      <c r="I29" s="53" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -2852,38 +2819,38 @@
         <v>27</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="33"/>
-      <c r="F30" s="46"/>
+      <c r="F30" s="45"/>
       <c r="G30" s="34"/>
-      <c r="H30" s="59" t="s">
-        <v>410</v>
-      </c>
-      <c r="I30" s="54"/>
+      <c r="H30" s="58" t="s">
+        <v>387</v>
+      </c>
+      <c r="I30" s="53"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="33"/>
-      <c r="F31" s="46"/>
+      <c r="F31" s="45"/>
       <c r="G31" s="34"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="54"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="53"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="33"/>
-      <c r="F32" s="46"/>
+      <c r="F32" s="45"/>
       <c r="G32" s="34"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="54"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="53"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
@@ -2893,18 +2860,18 @@
         <v>31</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="72" t="s">
-        <v>327</v>
-      </c>
-      <c r="F33" s="65" t="s">
-        <v>309</v>
+      <c r="E33" s="70" t="s">
+        <v>321</v>
+      </c>
+      <c r="F33" s="64" t="s">
+        <v>304</v>
       </c>
       <c r="G33" s="34"/>
-      <c r="H33" s="59" t="s">
-        <v>461</v>
-      </c>
-      <c r="I33" s="54" t="s">
-        <v>309</v>
+      <c r="H33" s="58" t="s">
+        <v>434</v>
+      </c>
+      <c r="I33" s="53" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -2912,30 +2879,30 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="33"/>
-      <c r="F34" s="46"/>
+      <c r="F34" s="45"/>
       <c r="G34" s="34"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="54"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="53"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="33"/>
-      <c r="F35" s="46"/>
+      <c r="F35" s="45"/>
       <c r="G35" s="34"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="54"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="53"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="33"/>
-      <c r="F36" s="46"/>
+      <c r="F36" s="45"/>
       <c r="G36" s="34"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="54"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="53"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
@@ -2944,10 +2911,10 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="33"/>
-      <c r="F37" s="46"/>
+      <c r="F37" s="45"/>
       <c r="G37" s="34"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="54"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="53"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
@@ -2958,12 +2925,12 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="33"/>
-      <c r="F38" s="46"/>
+      <c r="F38" s="45"/>
       <c r="G38" s="34"/>
-      <c r="H38" s="59" t="s">
+      <c r="H38" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="54"/>
+      <c r="I38" s="53"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -2974,30 +2941,30 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="33"/>
-      <c r="F39" s="46"/>
+      <c r="F39" s="45"/>
       <c r="G39" s="34"/>
-      <c r="H39" s="59" t="s">
+      <c r="H39" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="54"/>
+      <c r="I39" s="53"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="E40" s="33"/>
-      <c r="F40" s="46"/>
+      <c r="F40" s="45"/>
       <c r="G40" s="34"/>
-      <c r="H40" s="59" t="s">
-        <v>418</v>
-      </c>
-      <c r="I40" s="54"/>
+      <c r="H40" s="58" t="s">
+        <v>395</v>
+      </c>
+      <c r="I40" s="53"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -3008,82 +2975,82 @@
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="33"/>
-      <c r="F41" s="46"/>
+      <c r="F41" s="45"/>
       <c r="G41" s="34"/>
-      <c r="H41" s="59" t="s">
+      <c r="H41" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I41" s="54"/>
+      <c r="I41" s="53"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="E42" s="33"/>
-      <c r="F42" s="46"/>
+      <c r="F42" s="45"/>
       <c r="G42" s="34"/>
-      <c r="H42" s="59" t="s">
-        <v>419</v>
-      </c>
-      <c r="I42" s="54"/>
+      <c r="H42" s="58" t="s">
+        <v>396</v>
+      </c>
+      <c r="I42" s="53"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="33"/>
-      <c r="F43" s="46"/>
+      <c r="F43" s="45"/>
       <c r="G43" s="34"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="54"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="53"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="E44" s="33"/>
-      <c r="F44" s="46"/>
+      <c r="F44" s="45"/>
       <c r="G44" s="34"/>
-      <c r="H44" s="59" t="s">
-        <v>366</v>
-      </c>
-      <c r="I44" s="54"/>
+      <c r="H44" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="I44" s="53"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="E45" s="72" t="s">
+        <v>346</v>
+      </c>
+      <c r="E45" s="70" t="s">
         <v>39</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="G45" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="G45" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="59" t="s">
-        <v>462</v>
-      </c>
-      <c r="I45" s="54" t="s">
+      <c r="H45" s="58" t="s">
+        <v>435</v>
+      </c>
+      <c r="I45" s="53" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3092,10 +3059,10 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="33"/>
-      <c r="F46" s="46"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="34"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="54"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="53"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
@@ -3104,10 +3071,10 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="33"/>
-      <c r="F47" s="46"/>
+      <c r="F47" s="45"/>
       <c r="G47" s="34"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="54"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="53"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
@@ -3118,108 +3085,108 @@
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="33"/>
-      <c r="F48" s="46"/>
+      <c r="F48" s="45"/>
       <c r="G48" s="34"/>
-      <c r="H48" s="59" t="s">
+      <c r="H48" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="I48" s="54"/>
+      <c r="I48" s="53"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E49" s="33"/>
-      <c r="F49" s="46"/>
+      <c r="F49" s="45"/>
       <c r="G49" s="34"/>
-      <c r="H49" s="59" t="s">
-        <v>256</v>
-      </c>
-      <c r="I49" s="54"/>
+      <c r="H49" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="I49" s="53"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="E50" s="33"/>
-      <c r="F50" s="46"/>
+      <c r="F50" s="45"/>
       <c r="G50" s="34"/>
-      <c r="H50" s="59" t="s">
-        <v>421</v>
-      </c>
-      <c r="I50" s="54"/>
+      <c r="H50" s="58" t="s">
+        <v>398</v>
+      </c>
+      <c r="I50" s="53"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="E51" s="33"/>
-      <c r="F51" s="46"/>
+      <c r="F51" s="45"/>
       <c r="G51" s="34"/>
-      <c r="H51" s="59" t="s">
-        <v>422</v>
-      </c>
-      <c r="I51" s="54"/>
+      <c r="H51" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="I51" s="53"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="E52" s="33"/>
-      <c r="F52" s="46"/>
+      <c r="F52" s="45"/>
       <c r="G52" s="34"/>
-      <c r="H52" s="59" t="s">
-        <v>421</v>
-      </c>
-      <c r="I52" s="54"/>
+      <c r="H52" s="58" t="s">
+        <v>398</v>
+      </c>
+      <c r="I52" s="53"/>
     </row>
     <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="E53" s="72" t="s">
-        <v>308</v>
+        <v>400</v>
+      </c>
+      <c r="E53" s="70" t="s">
+        <v>303</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="G53" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="G53" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H53" s="59" t="s">
-        <v>463</v>
-      </c>
-      <c r="I53" s="54" t="s">
+      <c r="H53" s="58" t="s">
+        <v>436</v>
+      </c>
+      <c r="I53" s="53" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3228,26 +3195,26 @@
         <v>46</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="33"/>
-      <c r="F54" s="46"/>
+      <c r="F54" s="45"/>
       <c r="G54" s="34"/>
-      <c r="H54" s="59" t="s">
-        <v>424</v>
-      </c>
-      <c r="I54" s="54"/>
+      <c r="H54" s="58" t="s">
+        <v>401</v>
+      </c>
+      <c r="I54" s="53"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="33"/>
-      <c r="F55" s="46"/>
+      <c r="F55" s="45"/>
       <c r="G55" s="34"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="54"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="53"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
@@ -3256,10 +3223,10 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="33"/>
-      <c r="F56" s="46"/>
+      <c r="F56" s="45"/>
       <c r="G56" s="34"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="54"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="53"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
@@ -3269,15 +3236,15 @@
         <v>55</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E57" s="33"/>
-      <c r="F57" s="46"/>
+      <c r="F57" s="45"/>
       <c r="G57" s="34"/>
-      <c r="H57" s="59" t="s">
-        <v>252</v>
-      </c>
-      <c r="I57" s="54"/>
+      <c r="H57" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="I57" s="53"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
@@ -3287,31 +3254,31 @@
         <v>56</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="E58" s="33"/>
-      <c r="F58" s="46"/>
+      <c r="F58" s="45"/>
       <c r="G58" s="34"/>
-      <c r="H58" s="46" t="s">
-        <v>420</v>
-      </c>
-      <c r="I58" s="54"/>
+      <c r="H58" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="I58" s="53"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="33"/>
-      <c r="F59" s="46"/>
+      <c r="F59" s="45"/>
       <c r="G59" s="34"/>
-      <c r="H59" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="I59" s="54"/>
+      <c r="H59" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="I59" s="53"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
@@ -3322,15 +3289,15 @@
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="F60" s="46"/>
+        <v>304</v>
+      </c>
+      <c r="F60" s="45"/>
       <c r="G60" s="34"/>
-      <c r="H60" s="59" t="s">
-        <v>464</v>
-      </c>
-      <c r="I60" s="54" t="s">
-        <v>309</v>
+      <c r="H60" s="58" t="s">
+        <v>437</v>
+      </c>
+      <c r="I60" s="53" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -3344,12 +3311,12 @@
       <c r="E61" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="46"/>
+      <c r="F61" s="45"/>
       <c r="G61" s="34"/>
-      <c r="H61" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="I61" s="54" t="s">
+      <c r="H61" s="58" t="s">
+        <v>438</v>
+      </c>
+      <c r="I61" s="53" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3362,12 +3329,12 @@
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="33"/>
-      <c r="F62" s="46"/>
+      <c r="F62" s="45"/>
       <c r="G62" s="34"/>
-      <c r="H62" s="59" t="s">
+      <c r="H62" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="I62" s="54"/>
+      <c r="I62" s="53"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
@@ -3378,22 +3345,22 @@
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="33"/>
-      <c r="F63" s="46"/>
+      <c r="F63" s="45"/>
       <c r="G63" s="34"/>
-      <c r="H63" s="59" t="s">
+      <c r="H63" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="54"/>
+      <c r="I63" s="53"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="33"/>
-      <c r="F64" s="46"/>
+      <c r="F64" s="45"/>
       <c r="G64" s="34"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="54"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="53"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
@@ -3402,10 +3369,10 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="33"/>
-      <c r="F65" s="46"/>
+      <c r="F65" s="45"/>
       <c r="G65" s="34"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="54"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="53"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
@@ -3415,15 +3382,15 @@
         <v>63</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E66" s="33"/>
-      <c r="F66" s="46"/>
+      <c r="F66" s="45"/>
       <c r="G66" s="34"/>
-      <c r="H66" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="I66" s="54"/>
+      <c r="H66" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="I66" s="53"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
@@ -3433,78 +3400,78 @@
         <v>64</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="E67" s="72" t="s">
-        <v>350</v>
-      </c>
-      <c r="F67" s="46" t="s">
-        <v>262</v>
+        <v>258</v>
+      </c>
+      <c r="E67" s="70" t="s">
+        <v>331</v>
+      </c>
+      <c r="F67" s="45" t="s">
+        <v>257</v>
       </c>
       <c r="G67" s="34"/>
-      <c r="H67" s="59" t="s">
-        <v>263</v>
-      </c>
-      <c r="I67" s="54"/>
+      <c r="H67" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="I67" s="53"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="33"/>
-      <c r="F68" s="46"/>
+      <c r="F68" s="45"/>
       <c r="G68" s="34"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="54"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="53"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="33"/>
-      <c r="F69" s="46"/>
+      <c r="F69" s="45"/>
       <c r="G69" s="34"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="54"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="53"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="33"/>
-      <c r="F70" s="46"/>
+      <c r="F70" s="45"/>
       <c r="G70" s="34"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="54"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="53"/>
     </row>
     <row r="71" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="E71" s="72" t="s">
-        <v>373</v>
-      </c>
-      <c r="F71" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="G71" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="H71" s="51" t="s">
-        <v>466</v>
-      </c>
-      <c r="I71" s="55" t="s">
-        <v>427</v>
+        <v>305</v>
+      </c>
+      <c r="E71" s="70" t="s">
+        <v>352</v>
+      </c>
+      <c r="F71" s="65" t="s">
+        <v>403</v>
+      </c>
+      <c r="G71" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="H71" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="I71" s="54" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -3515,40 +3482,40 @@
         <v>29</v>
       </c>
       <c r="D72" s="1"/>
-      <c r="E72" s="74" t="s">
-        <v>374</v>
-      </c>
-      <c r="F72" s="67" t="s">
-        <v>428</v>
+      <c r="E72" s="72" t="s">
+        <v>353</v>
+      </c>
+      <c r="F72" s="66" t="s">
+        <v>405</v>
       </c>
       <c r="G72" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="H72" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="H72" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="I72" s="54"/>
+      <c r="I72" s="53"/>
     </row>
     <row r="73" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D73" s="1"/>
-      <c r="E73" s="72" t="s">
-        <v>328</v>
+      <c r="E73" s="70" t="s">
+        <v>322</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="G73" s="34"/>
-      <c r="H73" s="51" t="s">
-        <v>467</v>
-      </c>
-      <c r="I73" s="55" t="s">
-        <v>429</v>
+      <c r="H73" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="I73" s="54" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -3560,12 +3527,12 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="33"/>
-      <c r="F74" s="46"/>
+      <c r="F74" s="45"/>
       <c r="G74" s="34"/>
-      <c r="H74" s="59" t="s">
+      <c r="H74" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="I74" s="54"/>
+      <c r="I74" s="53"/>
     </row>
     <row r="75" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
@@ -3575,15 +3542,15 @@
         <v>71</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="E75" s="33"/>
-      <c r="F75" s="46"/>
+      <c r="F75" s="45"/>
       <c r="G75" s="34"/>
-      <c r="H75" s="47" t="s">
-        <v>401</v>
-      </c>
-      <c r="I75" s="54"/>
+      <c r="H75" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="I75" s="53"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
@@ -3594,12 +3561,12 @@
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="33"/>
-      <c r="F76" s="46"/>
+      <c r="F76" s="45"/>
       <c r="G76" s="34"/>
-      <c r="H76" s="46" t="s">
+      <c r="H76" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="I76" s="54"/>
+      <c r="I76" s="53"/>
     </row>
     <row r="77" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
@@ -3609,80 +3576,80 @@
         <v>72</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="E77" s="72" t="s">
-        <v>318</v>
-      </c>
-      <c r="F77" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="E77" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="F77" s="45" t="s">
         <v>41</v>
       </c>
       <c r="G77" s="34"/>
-      <c r="H77" s="51" t="s">
-        <v>402</v>
-      </c>
-      <c r="I77" s="54"/>
+      <c r="H77" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="I77" s="53"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="33"/>
-      <c r="F78" s="46"/>
+      <c r="F78" s="45"/>
       <c r="G78" s="34"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="54"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="53"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="33"/>
-      <c r="F79" s="46"/>
+      <c r="F79" s="45"/>
       <c r="G79" s="34"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="54"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="53"/>
     </row>
     <row r="80" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="33"/>
-      <c r="F80" s="46"/>
+      <c r="F80" s="45"/>
       <c r="G80" s="34"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="54"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="53"/>
     </row>
     <row r="81" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="E81" s="72" t="s">
-        <v>377</v>
+        <v>284</v>
+      </c>
+      <c r="E81" s="70" t="s">
+        <v>356</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="G81" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="H81" s="60" t="s">
-        <v>468</v>
-      </c>
-      <c r="I81" s="55" t="s">
-        <v>430</v>
+        <v>327</v>
+      </c>
+      <c r="G81" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="H81" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="I81" s="54" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -3690,52 +3657,52 @@
         <v>74</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="E82" s="72" t="s">
-        <v>334</v>
+        <v>286</v>
+      </c>
+      <c r="E82" s="70" t="s">
+        <v>326</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G82" s="34"/>
-      <c r="H82" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="I82" s="54"/>
+      <c r="H82" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="I82" s="53"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D83" s="1"/>
-      <c r="E83" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="F83" s="68" t="s">
-        <v>334</v>
+      <c r="E83" s="70" t="s">
+        <v>325</v>
+      </c>
+      <c r="F83" s="67" t="s">
+        <v>326</v>
       </c>
       <c r="G83" s="34"/>
-      <c r="H83" s="59" t="s">
-        <v>290</v>
-      </c>
-      <c r="I83" s="54"/>
+      <c r="H83" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="I83" s="53"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="33"/>
-      <c r="F84" s="46"/>
+      <c r="F84" s="45"/>
       <c r="G84" s="34"/>
-      <c r="H84" s="46"/>
-      <c r="I84" s="54"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="53"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
@@ -3744,10 +3711,10 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="33"/>
-      <c r="F85" s="46"/>
+      <c r="F85" s="45"/>
       <c r="G85" s="34"/>
-      <c r="H85" s="46"/>
-      <c r="I85" s="54"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="53"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
@@ -3756,10 +3723,10 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="33"/>
-      <c r="F86" s="46"/>
+      <c r="F86" s="45"/>
       <c r="G86" s="34"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="54"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="53"/>
     </row>
     <row r="87" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
@@ -3769,19 +3736,19 @@
         <v>90</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="E87" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="E87" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="47" t="s">
-        <v>452</v>
+      <c r="F87" s="46" t="s">
+        <v>427</v>
       </c>
       <c r="G87" s="34"/>
-      <c r="H87" s="59" t="s">
-        <v>267</v>
-      </c>
-      <c r="I87" s="54"/>
+      <c r="H87" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="I87" s="53"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
@@ -3791,55 +3758,50 @@
         <v>91</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E88" s="33"/>
-      <c r="F88" s="46"/>
+      <c r="F88" s="45"/>
       <c r="G88" s="34"/>
-      <c r="H88" s="59" t="s">
-        <v>287</v>
-      </c>
-      <c r="I88" s="54"/>
+      <c r="H88" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="I88" s="53"/>
     </row>
     <row r="89" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C89" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D89" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="D89" s="21" t="s">
-        <v>403</v>
-      </c>
       <c r="E89" s="33"/>
-      <c r="F89" s="46"/>
+      <c r="F89" s="45"/>
       <c r="G89" s="34"/>
-      <c r="H89" s="51" t="s">
-        <v>403</v>
-      </c>
-      <c r="I89" s="54"/>
-    </row>
-    <row r="90" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H89" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="I89" s="53"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="E90" s="72" t="s">
-        <v>345</v>
-      </c>
-      <c r="F90" s="47" t="s">
-        <v>452</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="F90" s="46"/>
       <c r="G90" s="34"/>
-      <c r="H90" s="59" t="s">
-        <v>382</v>
-      </c>
-      <c r="I90" s="54"/>
+      <c r="H90" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="I90" s="53"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
@@ -3850,10 +3812,10 @@
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="33"/>
-      <c r="F91" s="46"/>
+      <c r="F91" s="45"/>
       <c r="G91" s="34"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="54"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="53"/>
     </row>
     <row r="92" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
@@ -3863,19 +3825,19 @@
         <v>93</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="E92" s="72" t="s">
-        <v>311</v>
-      </c>
-      <c r="F92" s="46" t="s">
-        <v>97</v>
+        <v>408</v>
+      </c>
+      <c r="E92" s="71" t="s">
+        <v>477</v>
+      </c>
+      <c r="F92" s="45" t="s">
+        <v>96</v>
       </c>
       <c r="G92" s="34"/>
-      <c r="H92" s="47" t="s">
-        <v>431</v>
-      </c>
-      <c r="I92" s="54"/>
+      <c r="H92" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="I92" s="53"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
@@ -3885,90 +3847,90 @@
         <v>94</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="E93" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="F93" s="46"/>
+        <v>304</v>
+      </c>
+      <c r="F93" s="45"/>
       <c r="G93" s="34"/>
-      <c r="H93" s="59" t="s">
-        <v>405</v>
-      </c>
-      <c r="I93" s="54"/>
+      <c r="H93" s="58" t="s">
+        <v>382</v>
+      </c>
+      <c r="I93" s="53"/>
     </row>
     <row r="94" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="F94" s="46" t="s">
-        <v>97</v>
+        <v>308</v>
+      </c>
+      <c r="F94" s="45" t="s">
+        <v>96</v>
       </c>
       <c r="G94" s="34"/>
-      <c r="H94" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="I94" s="54"/>
-    </row>
-    <row r="95" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H94" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="I94" s="53"/>
+    </row>
+    <row r="95" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>95</v>
+        <v>484</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="E95" s="72" t="s">
-        <v>313</v>
+        <v>485</v>
+      </c>
+      <c r="E95" s="70" t="s">
+        <v>307</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="G95" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="H95" s="51" t="s">
-        <v>469</v>
-      </c>
-      <c r="I95" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="G95" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H95" s="50" t="s">
+        <v>485</v>
+      </c>
+      <c r="I95" s="53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>383</v>
+        <v>482</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="E96" s="72" t="s">
-        <v>312</v>
+        <v>483</v>
+      </c>
+      <c r="E96" s="70" t="s">
+        <v>306</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="G96" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="H96" s="51" t="s">
-        <v>471</v>
-      </c>
-      <c r="I96" s="54" t="s">
-        <v>97</v>
+        <v>308</v>
+      </c>
+      <c r="G96" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H96" s="50" t="s">
+        <v>483</v>
+      </c>
+      <c r="I96" s="53" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -3976,51 +3938,51 @@
         <v>87</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="E97" s="72" t="s">
-        <v>312</v>
+        <v>409</v>
+      </c>
+      <c r="E97" s="70" t="s">
+        <v>306</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="G97" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="H97" s="51" t="s">
-        <v>472</v>
-      </c>
-      <c r="I97" s="54" t="s">
-        <v>97</v>
+        <v>308</v>
+      </c>
+      <c r="G97" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H97" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="I97" s="53" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>385</v>
+        <v>481</v>
       </c>
       <c r="C98" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="E98" s="71" t="s">
+        <v>309</v>
+      </c>
+      <c r="F98" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="G98" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="D98" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="E98" s="73" t="s">
-        <v>315</v>
-      </c>
-      <c r="F98" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="G98" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="H98" s="59" t="s">
-        <v>470</v>
-      </c>
-      <c r="I98" s="54" t="s">
-        <v>97</v>
+      <c r="H98" s="58" t="s">
+        <v>442</v>
+      </c>
+      <c r="I98" s="53" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
@@ -4028,218 +3990,218 @@
         <v>88</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="33"/>
-      <c r="F99" s="46"/>
+      <c r="F99" s="45"/>
       <c r="G99" s="34"/>
-      <c r="H99" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="I99" s="54"/>
+      <c r="H99" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="I99" s="53"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="33"/>
-      <c r="F100" s="46"/>
+      <c r="F100" s="45"/>
       <c r="G100" s="34"/>
-      <c r="H100" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="I100" s="54"/>
+      <c r="H100" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="I100" s="53"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="33"/>
-      <c r="F101" s="46"/>
+      <c r="F101" s="45"/>
       <c r="G101" s="34"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="54"/>
+      <c r="H101" s="45"/>
+      <c r="I101" s="53"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="33"/>
-      <c r="F102" s="46"/>
+      <c r="F102" s="45"/>
       <c r="G102" s="34"/>
-      <c r="H102" s="46"/>
-      <c r="I102" s="54"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="53"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="33"/>
-      <c r="F103" s="46"/>
+      <c r="F103" s="45"/>
       <c r="G103" s="34"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="54"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="53"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E104" s="33"/>
-      <c r="F104" s="46"/>
+      <c r="F104" s="45"/>
       <c r="G104" s="34"/>
-      <c r="H104" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="I104" s="54"/>
+      <c r="H104" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="I104" s="53"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E105" s="33"/>
-      <c r="F105" s="46"/>
+      <c r="F105" s="45"/>
       <c r="G105" s="34"/>
-      <c r="H105" s="59" t="s">
-        <v>284</v>
-      </c>
-      <c r="I105" s="54"/>
+      <c r="H105" s="58" t="s">
+        <v>279</v>
+      </c>
+      <c r="I105" s="53"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="33"/>
-      <c r="F106" s="46"/>
+      <c r="F106" s="45"/>
       <c r="G106" s="34"/>
-      <c r="H106" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="I106" s="54"/>
+      <c r="H106" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="I106" s="53"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E107" s="33"/>
-      <c r="F107" s="46"/>
+      <c r="F107" s="45"/>
       <c r="G107" s="34"/>
-      <c r="H107" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="I107" s="54"/>
+      <c r="H107" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="I107" s="53"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="33"/>
-      <c r="F108" s="46"/>
+      <c r="F108" s="45"/>
       <c r="G108" s="34"/>
-      <c r="H108" s="46"/>
-      <c r="I108" s="54"/>
+      <c r="H108" s="45"/>
+      <c r="I108" s="53"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="33"/>
-      <c r="F109" s="46"/>
+      <c r="F109" s="45"/>
       <c r="G109" s="34"/>
-      <c r="H109" s="46"/>
-      <c r="I109" s="54"/>
+      <c r="H109" s="45"/>
+      <c r="I109" s="53"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="33"/>
-      <c r="F110" s="46"/>
+      <c r="F110" s="45"/>
       <c r="G110" s="34"/>
-      <c r="H110" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="I110" s="54"/>
+      <c r="H110" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="I110" s="53"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E111" s="33"/>
-      <c r="F111" s="46"/>
+      <c r="F111" s="45"/>
       <c r="G111" s="34"/>
-      <c r="H111" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="I111" s="54"/>
+      <c r="H111" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="I111" s="53"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="33"/>
-      <c r="F112" s="46"/>
+      <c r="F112" s="45"/>
       <c r="G112" s="34"/>
-      <c r="H112" s="46"/>
-      <c r="I112" s="54"/>
+      <c r="H112" s="45"/>
+      <c r="I112" s="53"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="33"/>
-      <c r="F113" s="46"/>
+      <c r="F113" s="45"/>
       <c r="G113" s="34"/>
-      <c r="H113" s="46"/>
-      <c r="I113" s="54"/>
-    </row>
-    <row r="114" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H113" s="45"/>
+      <c r="I113" s="53"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>25</v>
@@ -4247,21 +4209,17 @@
       <c r="D114" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E114" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="F114" s="47" t="s">
-        <v>452</v>
-      </c>
+      <c r="E114" s="33"/>
+      <c r="F114" s="46"/>
       <c r="G114" s="34"/>
-      <c r="H114" s="59" t="s">
+      <c r="H114" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="I114" s="54"/>
-    </row>
-    <row r="115" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I114" s="53"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>25</v>
@@ -4269,1720 +4227,1718 @@
       <c r="D115" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E115" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="F115" s="47" t="s">
-        <v>355</v>
-      </c>
+      <c r="E115" s="33"/>
+      <c r="F115" s="46"/>
       <c r="G115" s="36"/>
-      <c r="H115" s="59" t="s">
+      <c r="H115" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="I115" s="54"/>
-    </row>
-    <row r="116" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="I115" s="53"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="I116" s="53"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C117" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D116" s="1"/>
-      <c r="E116" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="F116" s="47" t="s">
-        <v>453</v>
-      </c>
-      <c r="G116" s="34"/>
-      <c r="H116" s="59" t="s">
+      <c r="D117" s="1"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="I116" s="54"/>
-    </row>
-    <row r="117" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B117" s="1" t="s">
+      <c r="I117" s="53"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C117" s="24" t="s">
+      <c r="C118" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D117" s="1"/>
-      <c r="E117" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="F117" s="47" t="s">
-        <v>453</v>
-      </c>
-      <c r="G117" s="34"/>
-      <c r="H117" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="I117" s="54"/>
-    </row>
-    <row r="118" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B118" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>129</v>
-      </c>
       <c r="D118" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="E118" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="F118" s="47" t="s">
-        <v>453</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="E118" s="33"/>
+      <c r="F118" s="46"/>
       <c r="G118" s="34"/>
-      <c r="H118" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="I118" s="54"/>
+      <c r="H118" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="I118" s="53"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E119" s="33"/>
-      <c r="F119" s="46"/>
+      <c r="F119" s="45"/>
       <c r="G119" s="34"/>
-      <c r="H119" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="I119" s="54"/>
+      <c r="H119" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="I119" s="53"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
+        <v>117</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D120" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="E120" s="33"/>
+      <c r="F120" s="45"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="I120" s="53"/>
+    </row>
+    <row r="121" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
         <v>118</v>
       </c>
-      <c r="C120" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D120" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="E120" s="33"/>
-      <c r="F120" s="46"/>
-      <c r="G120" s="34"/>
-      <c r="H120" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="I120" s="54"/>
-    </row>
-    <row r="121" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
+      <c r="C121" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="D121" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="E121" s="33"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="78"/>
+      <c r="H121" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="I121" s="55"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
         <v>119</v>
       </c>
-      <c r="C121" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="D121" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="E121" s="72" t="s">
-        <v>336</v>
-      </c>
-      <c r="F121" s="69" t="s">
-        <v>352</v>
-      </c>
-      <c r="G121" s="39" t="s">
-        <v>454</v>
-      </c>
-      <c r="H121" s="47" t="s">
+      <c r="C122" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E122" s="33"/>
+      <c r="G122" s="40"/>
+      <c r="H122" s="45"/>
+      <c r="I122" s="53"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
         <v>466</v>
       </c>
-      <c r="I121" s="56" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>120</v>
-      </c>
-      <c r="C122" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="E122" s="72" t="s">
-        <v>337</v>
-      </c>
-      <c r="F122" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="G122" s="40" t="s">
-        <v>454</v>
-      </c>
-      <c r="H122" s="46"/>
-      <c r="I122" s="54"/>
-    </row>
-    <row r="123" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>121</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>130</v>
+      <c r="C123" s="27" t="s">
+        <v>467</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="E123" s="72" t="s">
-        <v>338</v>
-      </c>
-      <c r="F123" s="50" t="s">
-        <v>454</v>
-      </c>
-      <c r="G123" s="34"/>
-      <c r="H123" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="I123" s="54"/>
+        <v>468</v>
+      </c>
+      <c r="E123" s="33"/>
+      <c r="G123" s="40"/>
+      <c r="H123" s="45" t="s">
+        <v>468</v>
+      </c>
+      <c r="I123" s="53"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
+        <v>120</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="D124" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="E124" s="33"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="34"/>
+      <c r="H124" s="45" t="s">
+        <v>473</v>
+      </c>
+      <c r="I124" s="53"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>121</v>
+      </c>
+      <c r="C125" s="76" t="s">
+        <v>470</v>
+      </c>
+      <c r="D125" s="77" t="s">
+        <v>471</v>
+      </c>
+      <c r="E125" s="33"/>
+      <c r="F125" s="49"/>
+      <c r="G125" s="34"/>
+      <c r="H125" s="61" t="s">
+        <v>471</v>
+      </c>
+      <c r="I125" s="53"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>469</v>
+      </c>
+      <c r="C126" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E126" s="33"/>
+      <c r="F126" s="49"/>
+      <c r="G126" s="34"/>
+      <c r="H126" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="I126" s="53"/>
+    </row>
+    <row r="127" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
         <v>122</v>
       </c>
-      <c r="C124" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="E124" s="33"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="34"/>
-      <c r="H124" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="I124" s="54"/>
-    </row>
-    <row r="125" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>123</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D125" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="E125" s="33"/>
-      <c r="F125" s="46"/>
-      <c r="G125" s="34"/>
-      <c r="H125" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="I125" s="54"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E126" s="33"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="34"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="54"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>139</v>
-      </c>
-      <c r="C127" s="23" t="s">
-        <v>143</v>
+      <c r="C127" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>383</v>
       </c>
       <c r="E127" s="33"/>
-      <c r="F127" s="46"/>
+      <c r="F127" s="45"/>
       <c r="G127" s="34"/>
       <c r="H127" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="I127" s="54"/>
-    </row>
-    <row r="128" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>140</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D128" s="22" t="s">
-        <v>406</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="I127" s="53"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E128" s="33"/>
-      <c r="F128" s="46"/>
+      <c r="F128" s="45"/>
       <c r="G128" s="34"/>
-      <c r="H128" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="I128" s="54"/>
+      <c r="H128" s="45"/>
+      <c r="I128" s="53"/>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>133</v>
+        <v>478</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>272</v>
+        <v>480</v>
       </c>
       <c r="E129" s="33"/>
-      <c r="F129" s="46"/>
+      <c r="F129" s="45"/>
       <c r="G129" s="34"/>
-      <c r="H129" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="I129" s="54"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H129" s="45" t="s">
+        <v>480</v>
+      </c>
+      <c r="I129" s="53"/>
+    </row>
+    <row r="130" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>137</v>
       </c>
-      <c r="C130" s="23" t="s">
-        <v>143</v>
+      <c r="C130" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>383</v>
       </c>
       <c r="E130" s="33"/>
-      <c r="F130" s="46"/>
+      <c r="F130" s="45"/>
       <c r="G130" s="34"/>
       <c r="H130" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="I130" s="54"/>
-    </row>
-    <row r="131" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="I130" s="53"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D131" s="22" t="s">
-        <v>406</v>
+        <v>130</v>
+      </c>
+      <c r="D131" s="23" t="s">
+        <v>267</v>
       </c>
       <c r="E131" s="33"/>
-      <c r="F131" s="46"/>
+      <c r="F131" s="45"/>
       <c r="G131" s="34"/>
-      <c r="H131" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="I131" s="54"/>
+      <c r="H131" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="I131" s="53"/>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>138</v>
-      </c>
-      <c r="C132" s="23" t="s">
-        <v>145</v>
+        <v>134</v>
+      </c>
+      <c r="C132" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>480</v>
       </c>
       <c r="E132" s="33"/>
-      <c r="F132" s="46"/>
+      <c r="F132" s="45"/>
       <c r="G132" s="34"/>
-      <c r="H132" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="I132" s="54"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H132" s="45" t="s">
+        <v>480</v>
+      </c>
+      <c r="I132" s="53"/>
+    </row>
+    <row r="133" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>139</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>383</v>
+      </c>
       <c r="E133" s="33"/>
-      <c r="F133" s="46"/>
+      <c r="F133" s="45"/>
       <c r="G133" s="34"/>
-      <c r="H133" s="46"/>
-      <c r="I133" s="54"/>
+      <c r="H133" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="I133" s="53"/>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="D134" s="23" t="s">
+        <v>480</v>
+      </c>
       <c r="E134" s="33"/>
-      <c r="F134" s="46"/>
+      <c r="F134" s="45"/>
       <c r="G134" s="34"/>
-      <c r="H134" s="46"/>
-      <c r="I134" s="54"/>
+      <c r="H134" s="45" t="s">
+        <v>480</v>
+      </c>
+      <c r="I134" s="53"/>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>124</v>
-      </c>
-      <c r="C135" s="23" t="s">
-        <v>134</v>
-      </c>
       <c r="E135" s="33"/>
-      <c r="F135" s="46"/>
+      <c r="F135" s="45"/>
       <c r="G135" s="34"/>
-      <c r="H135" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="I135" s="54"/>
-    </row>
-    <row r="136" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>125</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D136" s="21" t="s">
-        <v>407</v>
-      </c>
+      <c r="H135" s="45"/>
+      <c r="I135" s="53"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E136" s="33"/>
-      <c r="F136" s="46"/>
+      <c r="F136" s="45"/>
       <c r="G136" s="34"/>
-      <c r="H136" s="51" t="s">
-        <v>407</v>
-      </c>
-      <c r="I136" s="54"/>
+      <c r="H136" s="45"/>
+      <c r="I136" s="53"/>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E137" s="33"/>
-      <c r="F137" s="46"/>
-      <c r="G137" s="41"/>
-      <c r="H137" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="I137" s="54"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="4"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="I137" s="53"/>
+    </row>
+    <row r="138" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>124</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>384</v>
+      </c>
       <c r="E138" s="33"/>
-      <c r="F138" s="46"/>
+      <c r="F138" s="45"/>
       <c r="G138" s="34"/>
-      <c r="H138" s="46"/>
-      <c r="I138" s="54"/>
+      <c r="H138" s="50" t="s">
+        <v>384</v>
+      </c>
+      <c r="I138" s="53"/>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="7" t="s">
-        <v>146</v>
+      <c r="B139" t="s">
+        <v>125</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="E139" s="33"/>
-      <c r="F139" s="46"/>
-      <c r="G139" s="34"/>
-      <c r="H139" s="46"/>
-      <c r="I139" s="54"/>
-    </row>
-    <row r="140" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>147</v>
-      </c>
-      <c r="C140" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="D140" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="E140" s="74" t="s">
-        <v>351</v>
-      </c>
-      <c r="F140" s="47" t="s">
-        <v>390</v>
-      </c>
+      <c r="F139" s="45"/>
+      <c r="G139" s="41"/>
+      <c r="H139" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="I139" s="53"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="4"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="45"/>
       <c r="G140" s="34"/>
-      <c r="H140" s="46" t="s">
-        <v>389</v>
-      </c>
-      <c r="I140" s="54"/>
-    </row>
-    <row r="141" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>279</v>
-      </c>
-      <c r="C141" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="D141" s="23" t="s">
+      <c r="H140" s="45"/>
+      <c r="I140" s="53"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B141" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E141" s="33"/>
+      <c r="F141" s="45"/>
+      <c r="G141" s="34"/>
+      <c r="H141" s="45"/>
+      <c r="I141" s="53"/>
+    </row>
+    <row r="142" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D142" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="E141" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="F141" s="47" t="s">
-        <v>390</v>
-      </c>
-      <c r="G141" s="42"/>
-      <c r="H141" s="46" t="s">
-        <v>495</v>
-      </c>
-      <c r="I141" s="54"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>148</v>
-      </c>
-      <c r="C142" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D142" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="E142" s="33"/>
-      <c r="F142" s="46"/>
+      <c r="E142" s="72" t="s">
+        <v>332</v>
+      </c>
+      <c r="F142" s="46" t="s">
+        <v>367</v>
+      </c>
       <c r="G142" s="34"/>
-      <c r="H142" s="46" t="s">
-        <v>417</v>
-      </c>
-      <c r="I142" s="54"/>
+      <c r="H142" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="I142" s="53"/>
     </row>
     <row r="143" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>149</v>
-      </c>
-      <c r="C143" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D143" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="E143" s="72" t="s">
-        <v>279</v>
-      </c>
-      <c r="F143" s="47" t="s">
-        <v>390</v>
+        <v>274</v>
+      </c>
+      <c r="C143" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="D143" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="E143" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="F143" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="G143" s="34"/>
-      <c r="H143" s="59" t="s">
-        <v>391</v>
-      </c>
-      <c r="I143" s="54"/>
+      <c r="H143" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="I143" s="53"/>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>150</v>
-      </c>
-      <c r="C144" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="D144" s="3"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="46"/>
+        <v>143</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D144" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="E144" s="79"/>
+      <c r="F144" s="45"/>
       <c r="G144" s="34"/>
-      <c r="H144" s="62" t="s">
-        <v>270</v>
-      </c>
-      <c r="I144" s="54"/>
+      <c r="H144" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="I144" s="53"/>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>151</v>
-      </c>
-      <c r="C145" s="23" t="s">
-        <v>154</v>
+        <v>144</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D145" s="20" t="s">
+        <v>368</v>
       </c>
       <c r="E145" s="33"/>
       <c r="F145" s="46"/>
       <c r="G145" s="34"/>
-      <c r="H145" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="I145" s="54"/>
+      <c r="H145" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="I145" s="53"/>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>145</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="D146" s="3"/>
       <c r="E146" s="33"/>
-      <c r="F146" s="46"/>
+      <c r="F146" s="45"/>
       <c r="G146" s="34"/>
-      <c r="H146" s="46"/>
-      <c r="I146" s="54"/>
+      <c r="H146" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="I146" s="53"/>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B147" s="7" t="s">
-        <v>155</v>
+      <c r="B147" t="s">
+        <v>146</v>
+      </c>
+      <c r="C147" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="E147" s="33"/>
-      <c r="F147" s="46"/>
+      <c r="F147" s="45"/>
       <c r="G147" s="34"/>
-      <c r="H147" s="46"/>
-      <c r="I147" s="54"/>
+      <c r="H147" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="I147" s="53"/>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>156</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="D148" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="E148" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="F148" s="46" t="s">
-        <v>262</v>
-      </c>
+      <c r="E148" s="33"/>
+      <c r="F148" s="45"/>
       <c r="G148" s="34"/>
-      <c r="H148" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="I148" s="54"/>
+      <c r="H148" s="45"/>
+      <c r="I148" s="53"/>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>157</v>
-      </c>
-      <c r="C149" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="E149" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="F149" s="46" t="s">
-        <v>262</v>
-      </c>
+      <c r="B149" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E149" s="33"/>
+      <c r="F149" s="45"/>
       <c r="G149" s="34"/>
-      <c r="H149" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="I149" s="54"/>
+      <c r="H149" s="45"/>
+      <c r="I149" s="53"/>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>158</v>
-      </c>
-      <c r="C150" s="27" t="s">
-        <v>23</v>
+        <v>151</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="D150" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="E150" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="F150" s="46" t="s">
-        <v>262</v>
+        <v>259</v>
+      </c>
+      <c r="E150" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="F150" s="45" t="s">
+        <v>257</v>
       </c>
       <c r="G150" s="34"/>
-      <c r="H150" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="I150" s="54"/>
+      <c r="H150" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="I150" s="53"/>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>159</v>
-      </c>
-      <c r="C151" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D151" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="E151" s="72" t="s">
-        <v>349</v>
-      </c>
-      <c r="F151" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C151" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="G151" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="H151" s="46" t="s">
-        <v>425</v>
-      </c>
-      <c r="I151" s="54"/>
+      <c r="E151" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="F151" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="G151" s="34"/>
+      <c r="H151" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="I151" s="53"/>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>160</v>
-      </c>
-      <c r="C152" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E152" s="33"/>
-      <c r="F152" s="46"/>
+        <v>153</v>
+      </c>
+      <c r="C152" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D152" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="E152" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="F152" s="45" t="s">
+        <v>257</v>
+      </c>
       <c r="G152" s="34"/>
-      <c r="H152" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="I152" s="54"/>
+      <c r="H152" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="I152" s="53"/>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>161</v>
-      </c>
-      <c r="C153" s="23" t="s">
-        <v>164</v>
+        <v>154</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D153" s="29" t="s">
+        <v>402</v>
       </c>
       <c r="E153" s="33"/>
-      <c r="F153" s="46"/>
       <c r="G153" s="34"/>
-      <c r="H153" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="I153" s="54"/>
+      <c r="H153" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="I153" s="53"/>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>155</v>
+      </c>
+      <c r="C154" s="26" t="s">
+        <v>127</v>
+      </c>
       <c r="E154" s="33"/>
-      <c r="F154" s="46"/>
+      <c r="F154" s="45"/>
       <c r="G154" s="34"/>
-      <c r="H154" s="46"/>
-      <c r="I154" s="54"/>
+      <c r="H154" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="I154" s="53"/>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B155" s="7" t="s">
-        <v>165</v>
+      <c r="B155" t="s">
+        <v>156</v>
+      </c>
+      <c r="C155" s="23" t="s">
+        <v>159</v>
       </c>
       <c r="E155" s="33"/>
-      <c r="F155" s="46"/>
+      <c r="F155" s="45"/>
       <c r="G155" s="34"/>
-      <c r="H155" s="46"/>
-      <c r="I155" s="54"/>
-    </row>
-    <row r="156" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>166</v>
-      </c>
-      <c r="C156" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E156" s="72" t="s">
-        <v>317</v>
-      </c>
-      <c r="F156" s="46" t="s">
-        <v>474</v>
-      </c>
+      <c r="H155" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="I155" s="53"/>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E156" s="33"/>
+      <c r="F156" s="45"/>
       <c r="G156" s="34"/>
-      <c r="H156" s="51" t="s">
-        <v>408</v>
-      </c>
-      <c r="I156" s="54"/>
+      <c r="H156" s="45"/>
+      <c r="I156" s="53"/>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>167</v>
-      </c>
-      <c r="C157" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="E157" s="72" t="s">
-        <v>392</v>
-      </c>
-      <c r="F157" s="49" t="s">
-        <v>474</v>
-      </c>
+      <c r="B157" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E157" s="33"/>
+      <c r="F157" s="45"/>
       <c r="G157" s="34"/>
-      <c r="H157" s="46" t="s">
-        <v>475</v>
-      </c>
-      <c r="I157" s="54" t="s">
-        <v>474</v>
-      </c>
+      <c r="H157" s="45"/>
+      <c r="I157" s="53"/>
     </row>
     <row r="158" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E158" s="72" t="s">
-        <v>321</v>
-      </c>
-      <c r="F158" s="46" t="s">
-        <v>326</v>
+        <v>385</v>
+      </c>
+      <c r="E158" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="F158" s="45" t="s">
+        <v>444</v>
       </c>
       <c r="G158" s="34"/>
-      <c r="H158" s="51" t="s">
-        <v>408</v>
-      </c>
-      <c r="I158" s="54"/>
+      <c r="H158" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="I158" s="53"/>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>169</v>
-      </c>
-      <c r="C159" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="E159" s="75" t="s">
-        <v>393</v>
-      </c>
-      <c r="F159" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="G159" s="37" t="s">
-        <v>326</v>
-      </c>
-      <c r="H159" s="46" t="s">
-        <v>476</v>
-      </c>
-      <c r="I159" s="54" t="s">
-        <v>326</v>
+        <v>162</v>
+      </c>
+      <c r="C159" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E159" s="70" t="s">
+        <v>369</v>
+      </c>
+      <c r="F159" s="48" t="s">
+        <v>444</v>
+      </c>
+      <c r="G159" s="34"/>
+      <c r="H159" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="I159" s="53" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="160" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E160" s="76" t="s">
+        <v>385</v>
+      </c>
+      <c r="E160" s="70" t="s">
+        <v>315</v>
+      </c>
+      <c r="F160" s="45" t="s">
         <v>320</v>
       </c>
-      <c r="F160" s="46" t="s">
-        <v>438</v>
-      </c>
       <c r="G160" s="34"/>
-      <c r="H160" s="51" t="s">
-        <v>408</v>
-      </c>
-      <c r="I160" s="54"/>
+      <c r="H160" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="I160" s="53"/>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>171</v>
-      </c>
-      <c r="C161" s="23" t="s">
-        <v>441</v>
-      </c>
-      <c r="E161" s="75" t="s">
-        <v>394</v>
-      </c>
-      <c r="F161" s="66" t="s">
-        <v>439</v>
-      </c>
-      <c r="G161" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="H161" s="46" t="s">
-        <v>477</v>
-      </c>
-      <c r="I161" s="54" t="s">
-        <v>478</v>
+        <v>164</v>
+      </c>
+      <c r="C161" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="E161" s="73" t="s">
+        <v>370</v>
+      </c>
+      <c r="F161" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="G161" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="H161" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="I161" s="53" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="162" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E162" s="72" t="s">
-        <v>322</v>
-      </c>
-      <c r="F162" s="46" t="s">
-        <v>443</v>
+        <v>385</v>
+      </c>
+      <c r="E162" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="F162" s="45" t="s">
+        <v>413</v>
       </c>
       <c r="G162" s="34"/>
-      <c r="H162" s="51" t="s">
-        <v>408</v>
-      </c>
-      <c r="I162" s="54"/>
-    </row>
-    <row r="163" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H162" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="I162" s="53"/>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C163" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E163" s="74" t="s">
-        <v>395</v>
-      </c>
-      <c r="F163" s="66" t="s">
-        <v>444</v>
-      </c>
-      <c r="G163" s="37" t="s">
-        <v>442</v>
-      </c>
-      <c r="H163" s="46" t="s">
-        <v>479</v>
-      </c>
-      <c r="I163" s="54" t="s">
-        <v>480</v>
+        <v>416</v>
+      </c>
+      <c r="E163" s="73" t="s">
+        <v>371</v>
+      </c>
+      <c r="F163" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="G163" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="H163" s="45" t="s">
+        <v>447</v>
+      </c>
+      <c r="I163" s="53" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="164" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E164" s="72" t="s">
-        <v>323</v>
-      </c>
-      <c r="F164" s="46" t="s">
-        <v>445</v>
+        <v>385</v>
+      </c>
+      <c r="E164" s="70" t="s">
+        <v>316</v>
+      </c>
+      <c r="F164" s="45" t="s">
+        <v>418</v>
       </c>
       <c r="G164" s="34"/>
-      <c r="H164" s="51" t="s">
-        <v>408</v>
-      </c>
-      <c r="I164" s="54"/>
-    </row>
-    <row r="165" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H164" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="I164" s="53"/>
+    </row>
+    <row r="165" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
+        <v>168</v>
+      </c>
+      <c r="C165" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C165" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="E165" s="74" t="s">
-        <v>396</v>
-      </c>
-      <c r="F165" s="66" t="s">
-        <v>446</v>
+      <c r="E165" s="72" t="s">
+        <v>372</v>
+      </c>
+      <c r="F165" s="65" t="s">
+        <v>419</v>
       </c>
       <c r="G165" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="H165" s="47" t="s">
-        <v>481</v>
-      </c>
-      <c r="I165" s="55" t="s">
-        <v>482</v>
+        <v>417</v>
+      </c>
+      <c r="H165" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="I165" s="53" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="166" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
+        <v>169</v>
+      </c>
+      <c r="C166" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C166" s="14" t="s">
-        <v>177</v>
-      </c>
       <c r="D166" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E166" s="72" t="s">
-        <v>325</v>
-      </c>
-      <c r="F166" s="46" t="s">
-        <v>448</v>
+        <v>385</v>
+      </c>
+      <c r="E166" s="70" t="s">
+        <v>317</v>
+      </c>
+      <c r="F166" s="45" t="s">
+        <v>420</v>
       </c>
       <c r="G166" s="34"/>
-      <c r="H166" s="51" t="s">
-        <v>408</v>
-      </c>
-      <c r="I166" s="54"/>
-    </row>
-    <row r="167" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H166" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="I166" s="53"/>
+    </row>
+    <row r="167" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="C167" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E167" s="74" t="s">
-        <v>397</v>
-      </c>
-      <c r="F167" s="66" t="s">
-        <v>449</v>
-      </c>
-      <c r="G167" s="38" t="s">
-        <v>450</v>
+        <v>337</v>
+      </c>
+      <c r="E167" s="72" t="s">
+        <v>373</v>
+      </c>
+      <c r="F167" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="G167" s="39" t="s">
+        <v>422</v>
       </c>
       <c r="H167" s="46" t="s">
-        <v>483</v>
-      </c>
-      <c r="I167" s="55" t="s">
-        <v>488</v>
+        <v>451</v>
+      </c>
+      <c r="I167" s="54" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="168" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
+        <v>171</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D168" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="E168" s="70" t="s">
+        <v>319</v>
+      </c>
+      <c r="F168" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="G168" s="34"/>
+      <c r="H168" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="I168" s="53"/>
+    </row>
+    <row r="169" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>95</v>
+      </c>
+      <c r="C169" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C168" s="14" t="s">
+      <c r="E169" s="72" t="s">
+        <v>374</v>
+      </c>
+      <c r="F169" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="G169" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="H169" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="I169" s="54" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>172</v>
+      </c>
+      <c r="C170" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D170" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="E170" s="70" t="s">
+        <v>318</v>
+      </c>
+      <c r="F170" s="45" t="s">
+        <v>426</v>
+      </c>
+      <c r="G170" s="34"/>
+      <c r="H170" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="I170" s="53"/>
+    </row>
+    <row r="171" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>173</v>
+      </c>
+      <c r="C171" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E168" s="72" t="s">
-        <v>324</v>
-      </c>
-      <c r="F168" s="46" t="s">
-        <v>451</v>
-      </c>
-      <c r="G168" s="34"/>
-      <c r="H168" s="51" t="s">
-        <v>408</v>
-      </c>
-      <c r="I168" s="54"/>
-    </row>
-    <row r="169" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
-        <v>178</v>
-      </c>
-      <c r="C169" s="14" t="s">
+      <c r="D171" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="E171" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="F171" s="45" t="s">
+        <v>426</v>
+      </c>
+      <c r="G171" s="34"/>
+      <c r="H171" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="I171" s="53"/>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E172" s="33"/>
+      <c r="F172" s="45"/>
+      <c r="G172" s="34"/>
+      <c r="H172" s="45"/>
+      <c r="I172" s="53"/>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B173" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E173" s="33"/>
+      <c r="F173" s="45"/>
+      <c r="G173" s="34"/>
+      <c r="H173" s="45"/>
+      <c r="I173" s="53"/>
+    </row>
+    <row r="174" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B174" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C174" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D169" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E169" s="77" t="s">
-        <v>177</v>
-      </c>
-      <c r="F169" s="46" t="s">
-        <v>451</v>
-      </c>
-      <c r="G169" s="34"/>
-      <c r="H169" s="51" t="s">
-        <v>408</v>
-      </c>
-      <c r="I169" s="54"/>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E170" s="33"/>
-      <c r="F170" s="46"/>
-      <c r="G170" s="34"/>
-      <c r="H170" s="46"/>
-      <c r="I170" s="54"/>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B171" s="7" t="s">
+      <c r="D174" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="E174" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="F174" s="68" t="s">
+        <v>411</v>
+      </c>
+      <c r="G174" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="H174" s="50" t="s">
+        <v>386</v>
+      </c>
+      <c r="I174" s="53"/>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>181</v>
+      </c>
+      <c r="C175" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="E171" s="33"/>
-      <c r="F171" s="46"/>
-      <c r="G171" s="34"/>
-      <c r="H171" s="46"/>
-      <c r="I171" s="54"/>
-    </row>
-    <row r="172" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B172" s="6" t="s">
+      <c r="E175" s="33"/>
+      <c r="F175" s="45"/>
+      <c r="G175" s="34"/>
+      <c r="H175" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="I175" s="53"/>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>182</v>
+      </c>
+      <c r="C176" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C172" s="15" t="s">
+      <c r="E176" s="33"/>
+      <c r="F176" s="45"/>
+      <c r="G176" s="34"/>
+      <c r="H176" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="I176" s="53"/>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E177" s="33"/>
+      <c r="F177" s="45"/>
+      <c r="G177" s="34"/>
+      <c r="H177" s="45"/>
+      <c r="I177" s="53"/>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E178" s="33"/>
+      <c r="F178" s="45"/>
+      <c r="G178" s="34"/>
+      <c r="H178" s="45"/>
+      <c r="I178" s="53"/>
+    </row>
+    <row r="179" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B179" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C179" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E179" s="33"/>
+      <c r="F179" s="45"/>
+      <c r="G179" s="34"/>
+      <c r="H179" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="I179" s="53"/>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C180" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="E180" s="33"/>
+      <c r="F180" s="45"/>
+      <c r="G180" s="34"/>
+      <c r="H180" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="I180" s="53"/>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E181" s="33"/>
+      <c r="F181" s="45"/>
+      <c r="G181" s="34"/>
+      <c r="H181" s="45"/>
+      <c r="I181" s="53"/>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B182" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D172" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="E172" s="72" t="s">
-        <v>398</v>
-      </c>
-      <c r="F172" s="70" t="s">
-        <v>436</v>
-      </c>
-      <c r="G172" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="H172" s="51" t="s">
-        <v>409</v>
-      </c>
-      <c r="I172" s="54"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
-        <v>186</v>
-      </c>
-      <c r="C173" s="23" t="s">
+      <c r="E182" s="33"/>
+      <c r="F182" s="45"/>
+      <c r="G182" s="34"/>
+      <c r="H182" s="45"/>
+      <c r="I182" s="53"/>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B183" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E183" s="33"/>
+      <c r="F183" s="45"/>
+      <c r="G183" s="34"/>
+      <c r="H183" s="45"/>
+      <c r="I183" s="53"/>
+    </row>
+    <row r="184" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
         <v>189</v>
       </c>
-      <c r="E173" s="33"/>
-      <c r="F173" s="46"/>
-      <c r="G173" s="34"/>
-      <c r="H173" s="46" t="s">
+      <c r="C184" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E184" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" s="46" t="s">
+        <v>427</v>
+      </c>
+      <c r="G184" s="34"/>
+      <c r="H184" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="I184" s="53"/>
+    </row>
+    <row r="185" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>190</v>
+      </c>
+      <c r="C185" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="E185" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="I173" s="54"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>187</v>
-      </c>
-      <c r="C174" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="E174" s="33"/>
-      <c r="F174" s="46"/>
-      <c r="G174" s="34"/>
-      <c r="H174" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="I174" s="54"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E175" s="33"/>
-      <c r="F175" s="46"/>
-      <c r="G175" s="34"/>
-      <c r="H175" s="46"/>
-      <c r="I175" s="54"/>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B176" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="E176" s="33"/>
-      <c r="F176" s="46"/>
-      <c r="G176" s="34"/>
-      <c r="H176" s="46"/>
-      <c r="I176" s="54"/>
-    </row>
-    <row r="177" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B177" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C177" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E177" s="33"/>
-      <c r="F177" s="46"/>
-      <c r="G177" s="34"/>
-      <c r="H177" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="I177" s="54"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B178" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C178" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="E178" s="33"/>
-      <c r="F178" s="46"/>
-      <c r="G178" s="34"/>
-      <c r="H178" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="I178" s="54"/>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E179" s="33"/>
-      <c r="F179" s="46"/>
-      <c r="G179" s="34"/>
-      <c r="H179" s="46"/>
-      <c r="I179" s="54"/>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B180" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E180" s="33"/>
-      <c r="F180" s="46"/>
-      <c r="G180" s="34"/>
-      <c r="H180" s="46"/>
-      <c r="I180" s="54"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B181" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E181" s="33"/>
-      <c r="F181" s="46"/>
-      <c r="G181" s="34"/>
-      <c r="H181" s="46"/>
-      <c r="I181" s="54"/>
-    </row>
-    <row r="182" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
+      <c r="F185" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="G185" s="34"/>
+      <c r="H185" s="45" t="s">
+        <v>454</v>
+      </c>
+      <c r="I185" s="54" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E186" s="33"/>
+      <c r="F186" s="45"/>
+      <c r="G186" s="34"/>
+      <c r="H186" s="45"/>
+      <c r="I186" s="53"/>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B187" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C182" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="E182" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F182" s="47" t="s">
-        <v>452</v>
-      </c>
-      <c r="G182" s="34"/>
-      <c r="H182" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="I182" s="54"/>
-    </row>
-    <row r="183" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
-        <v>195</v>
-      </c>
-      <c r="C183" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="E183" s="72" t="s">
-        <v>194</v>
-      </c>
-      <c r="F183" s="49" t="s">
-        <v>452</v>
-      </c>
-      <c r="G183" s="34"/>
-      <c r="H183" s="46" t="s">
-        <v>484</v>
-      </c>
-      <c r="I183" s="55" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E184" s="33"/>
-      <c r="F184" s="46"/>
-      <c r="G184" s="34"/>
-      <c r="H184" s="46"/>
-      <c r="I184" s="54"/>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B185" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E185" s="33"/>
-      <c r="F185" s="46"/>
-      <c r="G185" s="34"/>
-      <c r="H185" s="46"/>
-      <c r="I185" s="54"/>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>200</v>
-      </c>
-      <c r="C186" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="E186" s="33"/>
-      <c r="F186" s="46"/>
-      <c r="G186" s="34"/>
-      <c r="H186" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="I186" s="54"/>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>201</v>
-      </c>
-      <c r="C187" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D187" s="23" t="s">
-        <v>268</v>
-      </c>
       <c r="E187" s="33"/>
-      <c r="F187" s="46"/>
+      <c r="F187" s="45"/>
       <c r="G187" s="34"/>
-      <c r="H187" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="I187" s="54"/>
+      <c r="H187" s="45"/>
+      <c r="I187" s="53"/>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C188" s="23" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E188" s="33"/>
-      <c r="F188" s="46"/>
+      <c r="F188" s="45"/>
       <c r="G188" s="34"/>
-      <c r="H188" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="I188" s="54"/>
-    </row>
-    <row r="189" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H188" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="I188" s="53"/>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>296</v>
+        <v>196</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="D189" s="22" t="s">
-        <v>416</v>
+        <v>200</v>
+      </c>
+      <c r="D189" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="E189" s="33"/>
-      <c r="F189" s="46"/>
+      <c r="F189" s="45"/>
       <c r="G189" s="34"/>
-      <c r="H189" s="47" t="s">
-        <v>416</v>
-      </c>
-      <c r="I189" s="54"/>
+      <c r="H189" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="I189" s="53"/>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>197</v>
+      </c>
+      <c r="C190" s="23" t="s">
+        <v>199</v>
+      </c>
       <c r="E190" s="33"/>
-      <c r="F190" s="46"/>
+      <c r="F190" s="45"/>
       <c r="G190" s="34"/>
-      <c r="H190" s="46"/>
-      <c r="I190" s="54"/>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B191" s="7" t="s">
-        <v>206</v>
+      <c r="H190" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="I190" s="53"/>
+    </row>
+    <row r="191" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>291</v>
+      </c>
+      <c r="C191" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D191" s="22" t="s">
+        <v>393</v>
       </c>
       <c r="E191" s="33"/>
-      <c r="F191" s="46"/>
+      <c r="F191" s="45"/>
       <c r="G191" s="34"/>
-      <c r="H191" s="46"/>
-      <c r="I191" s="54"/>
+      <c r="H191" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="I191" s="53"/>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E192" s="33"/>
-      <c r="F192" s="46"/>
+      <c r="F192" s="45"/>
       <c r="G192" s="34"/>
-      <c r="H192" s="46"/>
-      <c r="I192" s="54"/>
+      <c r="H192" s="45"/>
+      <c r="I192" s="53"/>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B193" s="9" t="s">
+      <c r="B193" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E193" s="33"/>
+      <c r="F193" s="45"/>
+      <c r="G193" s="34"/>
+      <c r="H193" s="45"/>
+      <c r="I193" s="53"/>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E194" s="33"/>
+      <c r="F194" s="45"/>
+      <c r="G194" s="34"/>
+      <c r="H194" s="45"/>
+      <c r="I194" s="53"/>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B195" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E195" s="33"/>
+      <c r="F195" s="45"/>
+      <c r="G195" s="34"/>
+      <c r="H195" s="45"/>
+      <c r="I195" s="53"/>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>204</v>
+      </c>
+      <c r="C196" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E196" s="33"/>
+      <c r="F196" s="45"/>
+      <c r="G196" s="34"/>
+      <c r="H196" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="I196" s="53"/>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>205</v>
+      </c>
+      <c r="C197" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="E193" s="33"/>
-      <c r="F193" s="46"/>
-      <c r="G193" s="34"/>
-      <c r="H193" s="46"/>
-      <c r="I193" s="54"/>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
+      <c r="D197" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="E197" s="33"/>
+      <c r="F197" s="45"/>
+      <c r="G197" s="34"/>
+      <c r="H197" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="I197" s="53"/>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E198" s="33"/>
+      <c r="F198" s="45"/>
+      <c r="G198" s="34"/>
+      <c r="H198" s="45"/>
+      <c r="I198" s="53"/>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B199" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E199" s="33"/>
+      <c r="F199" s="45"/>
+      <c r="G199" s="34"/>
+      <c r="H199" s="45"/>
+      <c r="I199" s="53"/>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>208</v>
+      </c>
+      <c r="C200" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E200" s="33"/>
+      <c r="F200" s="45"/>
+      <c r="G200" s="34"/>
+      <c r="H200" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="I200" s="53"/>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
         <v>209</v>
       </c>
-      <c r="C194" s="23" t="s">
+      <c r="C201" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="E194" s="33"/>
-      <c r="F194" s="46"/>
-      <c r="G194" s="34"/>
-      <c r="H194" s="46" t="s">
+      <c r="E201" s="33"/>
+      <c r="F201" s="45"/>
+      <c r="G201" s="34"/>
+      <c r="H201" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="I194" s="54"/>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
-        <v>210</v>
-      </c>
-      <c r="C195" s="14" t="s">
+      <c r="I201" s="53"/>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E202" s="33"/>
+      <c r="F202" s="45"/>
+      <c r="G202" s="34"/>
+      <c r="H202" s="45"/>
+      <c r="I202" s="53"/>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B203" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D195" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="E195" s="33"/>
-      <c r="F195" s="46"/>
-      <c r="G195" s="34"/>
-      <c r="H195" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="I195" s="54"/>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E196" s="33"/>
-      <c r="F196" s="46"/>
-      <c r="G196" s="34"/>
-      <c r="H196" s="46"/>
-      <c r="I196" s="54"/>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B197" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E197" s="33"/>
-      <c r="F197" s="46"/>
-      <c r="G197" s="34"/>
-      <c r="H197" s="46"/>
-      <c r="I197" s="54"/>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
+      <c r="E203" s="33"/>
+      <c r="F203" s="45"/>
+      <c r="G203" s="34"/>
+      <c r="H203" s="45"/>
+      <c r="I203" s="53"/>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
         <v>213</v>
       </c>
-      <c r="C198" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="E198" s="33"/>
-      <c r="F198" s="46"/>
-      <c r="G198" s="34"/>
-      <c r="H198" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="I198" s="54"/>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>214</v>
-      </c>
-      <c r="C199" s="23" t="s">
+      <c r="C204" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="E199" s="33"/>
-      <c r="F199" s="46"/>
-      <c r="G199" s="34"/>
-      <c r="H199" s="46" t="s">
+      <c r="E204" s="33"/>
+      <c r="F204" s="45"/>
+      <c r="G204" s="34"/>
+      <c r="H204" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="I199" s="54"/>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E200" s="33"/>
-      <c r="F200" s="46"/>
-      <c r="G200" s="34"/>
-      <c r="H200" s="46"/>
-      <c r="I200" s="54"/>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B201" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E201" s="33"/>
-      <c r="F201" s="46"/>
-      <c r="G201" s="34"/>
-      <c r="H201" s="46"/>
-      <c r="I201" s="54"/>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
-        <v>218</v>
-      </c>
-      <c r="C202" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="E202" s="33"/>
-      <c r="F202" s="46"/>
-      <c r="G202" s="34"/>
-      <c r="H202" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="I202" s="54"/>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
-        <v>219</v>
-      </c>
-      <c r="C203" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="E203" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="F203" s="46"/>
-      <c r="G203" s="34"/>
-      <c r="H203" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="I203" s="54"/>
-    </row>
-    <row r="204" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
-        <v>220</v>
-      </c>
-      <c r="C204" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="D204" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="E204" s="72" t="s">
-        <v>399</v>
-      </c>
-      <c r="F204" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="G204" s="34"/>
-      <c r="H204" s="46" t="s">
-        <v>485</v>
-      </c>
-      <c r="I204" s="54" t="s">
-        <v>353</v>
-      </c>
+      <c r="I204" s="53"/>
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>400</v>
+        <v>214</v>
       </c>
       <c r="C205" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="E205" s="72" t="s">
-        <v>220</v>
-      </c>
-      <c r="F205" s="46" t="s">
-        <v>353</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="E205" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="F205" s="45"/>
       <c r="G205" s="34"/>
-      <c r="H205" s="46" t="s">
-        <v>329</v>
-      </c>
-      <c r="I205" s="54"/>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E206" s="33"/>
-      <c r="F206" s="46"/>
+      <c r="H205" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="I205" s="53"/>
+    </row>
+    <row r="206" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>215</v>
+      </c>
+      <c r="C206" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="D206" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="E206" s="70" t="s">
+        <v>376</v>
+      </c>
+      <c r="F206" s="47" t="s">
+        <v>333</v>
+      </c>
       <c r="G206" s="34"/>
-      <c r="H206" s="46"/>
-      <c r="I206" s="54"/>
+      <c r="H206" s="45" t="s">
+        <v>455</v>
+      </c>
+      <c r="I206" s="53" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="207" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B207" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E207" s="33"/>
-      <c r="F207" s="46"/>
+      <c r="B207" t="s">
+        <v>377</v>
+      </c>
+      <c r="C207" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="E207" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="F207" s="45" t="s">
+        <v>333</v>
+      </c>
       <c r="G207" s="34"/>
-      <c r="H207" s="46"/>
-      <c r="I207" s="54"/>
+      <c r="H207" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="I207" s="53"/>
     </row>
     <row r="208" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B208" s="5"/>
       <c r="E208" s="33"/>
-      <c r="F208" s="46"/>
+      <c r="F208" s="45"/>
       <c r="G208" s="34"/>
-      <c r="H208" s="46"/>
-      <c r="I208" s="54"/>
+      <c r="H208" s="45"/>
+      <c r="I208" s="53"/>
     </row>
     <row r="209" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B209" s="9" t="s">
-        <v>224</v>
+      <c r="B209" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="E209" s="33"/>
-      <c r="F209" s="46"/>
+      <c r="F209" s="45"/>
       <c r="G209" s="34"/>
-      <c r="H209" s="46"/>
-      <c r="I209" s="54"/>
+      <c r="H209" s="45"/>
+      <c r="I209" s="53"/>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
-        <v>226</v>
-      </c>
-      <c r="C210" s="23" t="s">
-        <v>229</v>
-      </c>
+      <c r="B210" s="5"/>
       <c r="E210" s="33"/>
-      <c r="F210" s="46"/>
+      <c r="F210" s="45"/>
       <c r="G210" s="34"/>
-      <c r="H210" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="I210" s="54"/>
+      <c r="H210" s="45"/>
+      <c r="I210" s="53"/>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
-        <v>227</v>
-      </c>
-      <c r="C211" s="29" t="s">
-        <v>413</v>
+      <c r="B211" s="9" t="s">
+        <v>219</v>
       </c>
       <c r="E211" s="33"/>
-      <c r="F211" s="46"/>
+      <c r="F211" s="45"/>
       <c r="G211" s="34"/>
-      <c r="H211" s="46" t="s">
-        <v>413</v>
-      </c>
-      <c r="I211" s="54"/>
+      <c r="H211" s="45"/>
+      <c r="I211" s="53"/>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
+        <v>221</v>
+      </c>
+      <c r="C212" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="E212" s="33"/>
+      <c r="F212" s="45"/>
+      <c r="G212" s="34"/>
+      <c r="H212" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="I212" s="53"/>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>222</v>
+      </c>
+      <c r="C213" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="E213" s="33"/>
+      <c r="F213" s="45"/>
+      <c r="G213" s="34"/>
+      <c r="H213" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="I213" s="53"/>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>223</v>
+      </c>
+      <c r="C214" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E214" s="33"/>
+      <c r="F214" s="45"/>
+      <c r="G214" s="34"/>
+      <c r="H214" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="I214" s="53"/>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E215" s="33"/>
+      <c r="F215" s="45"/>
+      <c r="G215" s="34"/>
+      <c r="H215" s="45"/>
+      <c r="I215" s="53"/>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B216" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E216" s="33"/>
+      <c r="F216" s="45"/>
+      <c r="G216" s="34"/>
+      <c r="H216" s="45"/>
+      <c r="I216" s="53"/>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>226</v>
+      </c>
+      <c r="C217" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="E217" s="33"/>
+      <c r="F217" s="45"/>
+      <c r="G217" s="34"/>
+      <c r="H217" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="I217" s="53"/>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E218" s="33"/>
+      <c r="F218" s="45"/>
+      <c r="G218" s="34"/>
+      <c r="H218" s="45"/>
+      <c r="I218" s="53"/>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B219" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E219" s="33"/>
+      <c r="F219" s="45"/>
+      <c r="G219" s="34"/>
+      <c r="H219" s="45"/>
+      <c r="I219" s="53"/>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
         <v>228</v>
       </c>
-      <c r="C212" s="23" t="s">
+      <c r="C220" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E220" s="33"/>
+      <c r="F220" s="45"/>
+      <c r="G220" s="34"/>
+      <c r="H220" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="I220" s="53"/>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E221" s="33"/>
+      <c r="F221" s="45"/>
+      <c r="G221" s="34"/>
+      <c r="H221" s="45"/>
+      <c r="I221" s="53"/>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B222" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E212" s="33"/>
-      <c r="F212" s="46"/>
-      <c r="G212" s="34"/>
-      <c r="H212" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="I212" s="54"/>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E213" s="33"/>
-      <c r="F213" s="46"/>
-      <c r="G213" s="34"/>
-      <c r="H213" s="46"/>
-      <c r="I213" s="54"/>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B214" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E214" s="33"/>
-      <c r="F214" s="46"/>
-      <c r="G214" s="34"/>
-      <c r="H214" s="46"/>
-      <c r="I214" s="54"/>
-    </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
+      <c r="E222" s="33"/>
+      <c r="F222" s="45"/>
+      <c r="G222" s="34"/>
+      <c r="H222" s="45"/>
+      <c r="I222" s="53"/>
+    </row>
+    <row r="223" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
         <v>231</v>
       </c>
-      <c r="C215" s="29" t="s">
-        <v>412</v>
-      </c>
-      <c r="E215" s="33"/>
-      <c r="F215" s="46"/>
-      <c r="G215" s="34"/>
-      <c r="H215" s="46" t="s">
-        <v>412</v>
-      </c>
-      <c r="I215" s="54"/>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E216" s="33"/>
-      <c r="F216" s="46"/>
-      <c r="G216" s="34"/>
-      <c r="H216" s="46"/>
-      <c r="I216" s="54"/>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B217" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E217" s="33"/>
-      <c r="F217" s="46"/>
-      <c r="G217" s="34"/>
-      <c r="H217" s="46"/>
-      <c r="I217" s="54"/>
-    </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
-        <v>233</v>
-      </c>
-      <c r="C218" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="E218" s="33"/>
-      <c r="F218" s="46"/>
-      <c r="G218" s="34"/>
-      <c r="H218" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="I218" s="54"/>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E219" s="33"/>
-      <c r="F219" s="46"/>
-      <c r="G219" s="34"/>
-      <c r="H219" s="46"/>
-      <c r="I219" s="54"/>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B220" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E220" s="33"/>
-      <c r="F220" s="46"/>
-      <c r="G220" s="34"/>
-      <c r="H220" s="46"/>
-      <c r="I220" s="54"/>
-    </row>
-    <row r="221" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
+      <c r="C223" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="C221" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="E221" s="72" t="s">
+      <c r="E223" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="F221" s="47" t="s">
-        <v>452</v>
-      </c>
-      <c r="G221" s="34"/>
-      <c r="H221" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="I221" s="54"/>
-    </row>
-    <row r="222" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B222" t="s">
-        <v>298</v>
-      </c>
-      <c r="C222" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="D222" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="E222" s="72" t="s">
+      <c r="F223" s="46" t="s">
+        <v>427</v>
+      </c>
+      <c r="G223" s="34"/>
+      <c r="H223" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="F222" s="49" t="s">
-        <v>452</v>
-      </c>
-      <c r="G222" s="34"/>
-      <c r="H222" s="46" t="s">
-        <v>486</v>
-      </c>
-      <c r="I222" s="55" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
-        <v>237</v>
-      </c>
-      <c r="C223" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E223" s="33"/>
-      <c r="F223" s="46"/>
-      <c r="G223" s="34"/>
-      <c r="H223" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="I223" s="54"/>
-    </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I223" s="53"/>
+    </row>
+    <row r="224" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>238</v>
-      </c>
-      <c r="C224" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="E224" s="33"/>
-      <c r="F224" s="46"/>
+        <v>293</v>
+      </c>
+      <c r="C224" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="D224" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="E224" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="F224" s="48" t="s">
+        <v>427</v>
+      </c>
       <c r="G224" s="34"/>
-      <c r="H224" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="I224" s="54"/>
+      <c r="H224" s="45" t="s">
+        <v>456</v>
+      </c>
+      <c r="I224" s="54" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C225" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E225" s="72" t="s">
-        <v>301</v>
-      </c>
-      <c r="F225" s="48" t="s">
-        <v>302</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E225" s="33"/>
+      <c r="F225" s="45"/>
       <c r="G225" s="34"/>
-      <c r="H225" s="46" t="s">
-        <v>487</v>
-      </c>
-      <c r="I225" s="54" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="226" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H225" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="I225" s="53"/>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C226" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E226" s="33"/>
+      <c r="F226" s="45"/>
+      <c r="G226" s="34"/>
+      <c r="H226" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="I226" s="53"/>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>234</v>
+      </c>
+      <c r="C227" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E227" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="F227" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="E226" s="43"/>
-      <c r="F226" s="52"/>
-      <c r="G226" s="44"/>
-      <c r="H226" s="64" t="s">
+      <c r="G227" s="34"/>
+      <c r="H227" s="45" t="s">
+        <v>457</v>
+      </c>
+      <c r="I227" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="I226" s="57"/>
+    </row>
+    <row r="228" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B228" t="s">
+        <v>235</v>
+      </c>
+      <c r="C228" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="E228" s="42"/>
+      <c r="F228" s="51"/>
+      <c r="G228" s="43"/>
+      <c r="H228" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="I228" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8308F48-FCDB-4708-9D97-B9ED3B54E601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1AA337-F7E2-411B-87CA-C517544CF3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1547,7 +1547,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1603,8 +1603,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1641,6 +1648,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1853,7 +1865,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1861,8 +1873,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1932,6 +1945,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2038,10 +2052,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2323,10 +2338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I228"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A96" activeCellId="1" sqref="A95 A96"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2349,22 +2364,22 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>335</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="53" t="s">
         <v>429</v>
       </c>
     </row>
@@ -2374,11 +2389,11 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="53"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -2390,15 +2405,15 @@
       <c r="D3" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="36" t="s">
         <v>334</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="45" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="54" t="s">
         <v>334</v>
       </c>
     </row>
@@ -2412,17 +2427,17 @@
       <c r="D4" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="50" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="54" t="s">
         <v>334</v>
       </c>
     </row>
@@ -2436,17 +2451,17 @@
       <c r="D5" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="50" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="51" t="s">
         <v>431</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="54" t="s">
         <v>334</v>
       </c>
     </row>
@@ -2460,17 +2475,17 @@
       <c r="D6" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="71" t="s">
         <v>290</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="50" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="51" t="s">
         <v>430</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="54" t="s">
         <v>334</v>
       </c>
     </row>
@@ -2478,21 +2493,21 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="53"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="54"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="53"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="54"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -2500,11 +2515,11 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="53"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="54"/>
     </row>
     <row r="10" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -2516,37 +2531,37 @@
       <c r="D10" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="47" t="s">
         <v>391</v>
       </c>
-      <c r="I10" s="53"/>
+      <c r="I10" s="54"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="53"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="54"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="53"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="54"/>
     </row>
     <row r="13" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -2558,17 +2573,17 @@
       <c r="D13" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="71" t="s">
         <v>328</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="46" t="s">
+      <c r="G13" s="37"/>
+      <c r="H13" s="47" t="s">
         <v>461</v>
       </c>
-      <c r="I13" s="53"/>
+      <c r="I13" s="54"/>
     </row>
     <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -2580,17 +2595,17 @@
       <c r="D14" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="71" t="s">
         <v>300</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="46" t="s">
+      <c r="G14" s="35"/>
+      <c r="H14" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="I14" s="53" t="s">
+      <c r="I14" s="54" t="s">
         <v>298</v>
       </c>
     </row>
@@ -2598,11 +2613,11 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="53"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="54"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
@@ -2610,11 +2625,11 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="53"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="54"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
@@ -2624,23 +2639,23 @@
         <v>13</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="58" t="s">
+      <c r="E17" s="34"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="59" t="s">
         <v>463</v>
       </c>
-      <c r="I17" s="53"/>
+      <c r="I17" s="54"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="53"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="54"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
@@ -2648,11 +2663,11 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="53"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="54"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
@@ -2662,13 +2677,13 @@
         <v>20</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="58" t="s">
+      <c r="E20" s="34"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="53"/>
+      <c r="I20" s="54"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -2678,13 +2693,13 @@
         <v>21</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="58" t="s">
+      <c r="E21" s="34"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="53"/>
+      <c r="I21" s="54"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
@@ -2694,13 +2709,13 @@
         <v>272</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="58" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="I22" s="53"/>
+      <c r="I22" s="54"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
@@ -2710,23 +2725,23 @@
         <v>271</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="58" t="s">
+      <c r="E23" s="34"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="I23" s="53"/>
+      <c r="I23" s="54"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="53"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="54"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
@@ -2734,11 +2749,11 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="53"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="54"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
@@ -2748,13 +2763,13 @@
         <v>394</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="58" t="s">
+      <c r="E26" s="34"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="59" t="s">
         <v>394</v>
       </c>
-      <c r="I26" s="53"/>
+      <c r="I26" s="54"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
@@ -2764,13 +2779,13 @@
         <v>244</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="58" t="s">
+      <c r="E27" s="34"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="I27" s="53"/>
+      <c r="I27" s="54"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
@@ -2780,17 +2795,17 @@
         <v>29</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="70" t="s">
+      <c r="E28" s="71" t="s">
         <v>340</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="58" t="s">
+      <c r="G28" s="35"/>
+      <c r="H28" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="53"/>
+      <c r="I28" s="54"/>
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
@@ -2800,17 +2815,17 @@
         <v>243</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="72" t="s">
         <v>341</v>
       </c>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="58" t="s">
+      <c r="G29" s="35"/>
+      <c r="H29" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="53" t="s">
+      <c r="I29" s="54" t="s">
         <v>433</v>
       </c>
     </row>
@@ -2822,23 +2837,23 @@
         <v>387</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="58" t="s">
+      <c r="E30" s="34"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="59" t="s">
         <v>387</v>
       </c>
-      <c r="I30" s="53"/>
+      <c r="I30" s="54"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="53"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="54"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
@@ -2846,11 +2861,11 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="53"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="54"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
@@ -2860,17 +2875,17 @@
         <v>31</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="71" t="s">
         <v>321</v>
       </c>
-      <c r="F33" s="64" t="s">
+      <c r="F33" s="65" t="s">
         <v>304</v>
       </c>
-      <c r="G33" s="34"/>
-      <c r="H33" s="58" t="s">
+      <c r="G33" s="35"/>
+      <c r="H33" s="59" t="s">
         <v>434</v>
       </c>
-      <c r="I33" s="53" t="s">
+      <c r="I33" s="54" t="s">
         <v>304</v>
       </c>
     </row>
@@ -2878,31 +2893,31 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="53"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="54"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="53"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="54"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="53"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="54"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
@@ -2910,11 +2925,11 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="53"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="54"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
@@ -2924,13 +2939,13 @@
         <v>37</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="58" t="s">
+      <c r="E38" s="34"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="53"/>
+      <c r="I38" s="54"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -2940,13 +2955,13 @@
         <v>38</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="58" t="s">
+      <c r="E39" s="34"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="53"/>
+      <c r="I39" s="54"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
@@ -2958,13 +2973,13 @@
       <c r="D40" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="58" t="s">
+      <c r="E40" s="34"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="59" t="s">
         <v>395</v>
       </c>
-      <c r="I40" s="53"/>
+      <c r="I40" s="54"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -2974,13 +2989,13 @@
         <v>41</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="58" t="s">
+      <c r="E41" s="34"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="I41" s="53"/>
+      <c r="I41" s="54"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
@@ -2992,23 +3007,23 @@
       <c r="D42" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="58" t="s">
+      <c r="E42" s="34"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="I42" s="53"/>
+      <c r="I42" s="54"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="53"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="54"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
@@ -3020,13 +3035,13 @@
       <c r="D44" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="58" t="s">
+      <c r="E44" s="34"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="I44" s="53"/>
+      <c r="I44" s="54"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
@@ -3038,19 +3053,19 @@
       <c r="D45" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="E45" s="70" t="s">
+      <c r="E45" s="71" t="s">
         <v>39</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="G45" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="58" t="s">
+      <c r="H45" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="I45" s="53" t="s">
+      <c r="I45" s="54" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3058,11 +3073,11 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="53"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="54"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
@@ -3070,11 +3085,11 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="53"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="54"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
@@ -3084,15 +3099,15 @@
         <v>37</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="58" t="s">
+      <c r="E48" s="34"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="I48" s="53"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="54"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>44</v>
       </c>
@@ -3102,15 +3117,15 @@
       <c r="D49" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E49" s="33"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="58" t="s">
+      <c r="E49" s="34"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="I49" s="53"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="54"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>252</v>
       </c>
@@ -3120,15 +3135,15 @@
       <c r="D50" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="E50" s="33"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="58" t="s">
+      <c r="E50" s="34"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="59" t="s">
         <v>398</v>
       </c>
-      <c r="I50" s="53"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="54"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>253</v>
       </c>
@@ -3138,15 +3153,15 @@
       <c r="D51" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="E51" s="33"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="58" t="s">
+      <c r="E51" s="34"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="59" t="s">
         <v>399</v>
       </c>
-      <c r="I51" s="53"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="54"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3156,15 +3171,15 @@
       <c r="D52" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="E52" s="33"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="58" t="s">
+      <c r="E52" s="34"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="59" t="s">
         <v>398</v>
       </c>
-      <c r="I52" s="53"/>
-    </row>
-    <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I52" s="54"/>
+    </row>
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>255</v>
       </c>
@@ -3174,23 +3189,23 @@
       <c r="D53" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="E53" s="70" t="s">
+      <c r="E53" s="71" t="s">
         <v>303</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="G53" s="38" t="s">
+      <c r="G53" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H53" s="58" t="s">
+      <c r="H53" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="I53" s="53" t="s">
+      <c r="I53" s="54" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>46</v>
       </c>
@@ -3198,37 +3213,38 @@
         <v>401</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="58" t="s">
+      <c r="E54" s="34"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="59" t="s">
         <v>401</v>
       </c>
-      <c r="I54" s="53"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I54" s="54"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="53"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E55" s="34"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="54"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="53"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E56" s="34"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="54"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="31"/>
       <c r="B57" s="1" t="s">
         <v>48</v>
       </c>
@@ -3238,15 +3254,16 @@
       <c r="D57" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="E57" s="33"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="58" t="s">
+      <c r="E57" s="34"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="I57" s="53"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="54"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="31"/>
       <c r="B58" s="1" t="s">
         <v>49</v>
       </c>
@@ -3256,15 +3273,16 @@
       <c r="D58" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="E58" s="33"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="45" t="s">
+      <c r="E58" s="34"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="46" t="s">
         <v>397</v>
       </c>
-      <c r="I58" s="53"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I58" s="54"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="31"/>
       <c r="B59" s="1" t="s">
         <v>50</v>
       </c>
@@ -3272,15 +3290,16 @@
         <v>240</v>
       </c>
       <c r="D59" s="1"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="58" t="s">
+      <c r="E59" s="34"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="I59" s="53"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I59" s="54"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="31"/>
       <c r="B60" s="1" t="s">
         <v>51</v>
       </c>
@@ -3288,19 +3307,19 @@
         <v>57</v>
       </c>
       <c r="D60" s="1"/>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="F60" s="45"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="58" t="s">
+      <c r="F60" s="46"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="59" t="s">
         <v>437</v>
       </c>
-      <c r="I60" s="53" t="s">
+      <c r="I60" s="54" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>52</v>
       </c>
@@ -3308,19 +3327,19 @@
         <v>58</v>
       </c>
       <c r="D61" s="1"/>
-      <c r="E61" s="35" t="s">
+      <c r="E61" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="45"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="58" t="s">
+      <c r="F61" s="46"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="59" t="s">
         <v>438</v>
       </c>
-      <c r="I61" s="53" t="s">
+      <c r="I61" s="54" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>53</v>
       </c>
@@ -3328,15 +3347,15 @@
         <v>59</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="58" t="s">
+      <c r="E62" s="34"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="I62" s="53"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I62" s="54"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>54</v>
       </c>
@@ -3344,23 +3363,23 @@
         <v>41</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="58" t="s">
+      <c r="E63" s="34"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="53"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I63" s="54"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="53"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="54"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
@@ -3368,11 +3387,11 @@
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="53"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="54"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
@@ -3384,13 +3403,13 @@
       <c r="D66" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="E66" s="33"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="58" t="s">
+      <c r="E66" s="34"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="I66" s="53"/>
+      <c r="I66" s="54"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
@@ -3402,27 +3421,27 @@
       <c r="D67" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="E67" s="70" t="s">
+      <c r="E67" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="F67" s="45" t="s">
+      <c r="F67" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="G67" s="34"/>
-      <c r="H67" s="58" t="s">
+      <c r="G67" s="35"/>
+      <c r="H67" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="I67" s="53"/>
+      <c r="I67" s="54"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="53"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="54"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
@@ -3430,11 +3449,11 @@
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="53"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="54"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
@@ -3442,11 +3461,11 @@
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="53"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="54"/>
     </row>
     <row r="71" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
@@ -3458,19 +3477,19 @@
       <c r="D71" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="E71" s="70" t="s">
+      <c r="E71" s="71" t="s">
         <v>352</v>
       </c>
-      <c r="F71" s="65" t="s">
+      <c r="F71" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="G71" s="39" t="s">
+      <c r="G71" s="40" t="s">
         <v>404</v>
       </c>
-      <c r="H71" s="50" t="s">
+      <c r="H71" s="51" t="s">
         <v>439</v>
       </c>
-      <c r="I71" s="54" t="s">
+      <c r="I71" s="55" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3482,19 +3501,19 @@
         <v>29</v>
       </c>
       <c r="D72" s="1"/>
-      <c r="E72" s="72" t="s">
+      <c r="E72" s="73" t="s">
         <v>353</v>
       </c>
-      <c r="F72" s="66" t="s">
+      <c r="F72" s="67" t="s">
         <v>405</v>
       </c>
-      <c r="G72" s="34" t="s">
+      <c r="G72" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="H72" s="58" t="s">
+      <c r="H72" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I72" s="53"/>
+      <c r="I72" s="54"/>
     </row>
     <row r="73" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
@@ -3504,17 +3523,17 @@
         <v>249</v>
       </c>
       <c r="D73" s="1"/>
-      <c r="E73" s="70" t="s">
+      <c r="E73" s="71" t="s">
         <v>322</v>
       </c>
       <c r="F73" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="G73" s="34"/>
-      <c r="H73" s="50" t="s">
+      <c r="G73" s="35"/>
+      <c r="H73" s="51" t="s">
         <v>440</v>
       </c>
-      <c r="I73" s="54" t="s">
+      <c r="I73" s="55" t="s">
         <v>406</v>
       </c>
     </row>
@@ -3526,13 +3545,13 @@
         <v>38</v>
       </c>
       <c r="D74" s="1"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="58" t="s">
+      <c r="E74" s="34"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="I74" s="53"/>
+      <c r="I74" s="54"/>
     </row>
     <row r="75" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
@@ -3544,13 +3563,13 @@
       <c r="D75" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="E75" s="33"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="46" t="s">
+      <c r="E75" s="34"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="I75" s="53"/>
+      <c r="I75" s="54"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
@@ -3560,13 +3579,13 @@
         <v>41</v>
       </c>
       <c r="D76" s="1"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="45" t="s">
+      <c r="E76" s="34"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="I76" s="53"/>
+      <c r="I76" s="54"/>
     </row>
     <row r="77" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
@@ -3578,17 +3597,17 @@
       <c r="D77" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="E77" s="70" t="s">
+      <c r="E77" s="71" t="s">
         <v>312</v>
       </c>
-      <c r="F77" s="45" t="s">
+      <c r="F77" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="G77" s="34"/>
-      <c r="H77" s="50" t="s">
+      <c r="G77" s="35"/>
+      <c r="H77" s="51" t="s">
         <v>379</v>
       </c>
-      <c r="I77" s="53"/>
+      <c r="I77" s="54"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
@@ -3598,21 +3617,21 @@
         <v>276</v>
       </c>
       <c r="D78" s="1"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="53"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="54"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="53"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="54"/>
     </row>
     <row r="80" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
@@ -3620,13 +3639,13 @@
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="53"/>
-    </row>
-    <row r="81" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="E80" s="34"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="54"/>
+    </row>
+    <row r="81" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>73</v>
       </c>
@@ -3636,23 +3655,23 @@
       <c r="D81" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="E81" s="70" t="s">
+      <c r="E81" s="71" t="s">
         <v>356</v>
       </c>
       <c r="F81" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="G81" s="39" t="s">
+      <c r="G81" s="40" t="s">
         <v>407</v>
       </c>
-      <c r="H81" s="59" t="s">
+      <c r="H81" s="60" t="s">
         <v>441</v>
       </c>
-      <c r="I81" s="54" t="s">
+      <c r="I81" s="55" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>74</v>
       </c>
@@ -3662,19 +3681,19 @@
       <c r="D82" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="E82" s="70" t="s">
+      <c r="E82" s="71" t="s">
         <v>326</v>
       </c>
       <c r="F82" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="G82" s="34"/>
-      <c r="H82" s="60" t="s">
+      <c r="G82" s="35"/>
+      <c r="H82" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="I82" s="53"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I82" s="54"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>358</v>
       </c>
@@ -3682,53 +3701,53 @@
         <v>285</v>
       </c>
       <c r="D83" s="1"/>
-      <c r="E83" s="70" t="s">
+      <c r="E83" s="71" t="s">
         <v>325</v>
       </c>
-      <c r="F83" s="67" t="s">
+      <c r="F83" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="G83" s="34"/>
-      <c r="H83" s="58" t="s">
+      <c r="G83" s="35"/>
+      <c r="H83" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="I83" s="53"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I83" s="54"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="53"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E84" s="34"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="54"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="53"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E85" s="34"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="54"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="45"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="45"/>
-      <c r="I86" s="53"/>
-    </row>
-    <row r="87" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="E86" s="34"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="54"/>
+    </row>
+    <row r="87" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>77</v>
       </c>
@@ -3738,19 +3757,20 @@
       <c r="D87" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="E87" s="70" t="s">
+      <c r="E87" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="46" t="s">
+      <c r="F87" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="G87" s="34"/>
-      <c r="H87" s="58" t="s">
+      <c r="G87" s="35"/>
+      <c r="H87" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="I87" s="53"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I87" s="54"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="31"/>
       <c r="B88" s="1" t="s">
         <v>78</v>
       </c>
@@ -3760,2185 +3780,2242 @@
       <c r="D88" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="E88" s="33"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="58" t="s">
+      <c r="E88" s="34"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="I88" s="53"/>
-    </row>
-    <row r="89" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
+      <c r="I88" s="54"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="31"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="59"/>
+      <c r="I89" s="54"/>
+    </row>
+    <row r="90" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C90" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="D89" s="21" t="s">
+      <c r="D90" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="E89" s="33"/>
-      <c r="F89" s="45"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="50" t="s">
+      <c r="E90" s="34"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="I89" s="53"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
+      <c r="I90" s="54"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="31"/>
+      <c r="B91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C91" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="D90" s="20" t="s">
+      <c r="D91" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="F90" s="46"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="58" t="s">
+      <c r="F91" s="47"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="I90" s="53"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
+      <c r="I91" s="54"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C91" s="24" t="s">
+      <c r="C92" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="53"/>
-    </row>
-    <row r="92" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
+      <c r="D92" s="1"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="54"/>
+    </row>
+    <row r="93" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C93" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D92" s="22" t="s">
+      <c r="D93" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="E92" s="71" t="s">
+      <c r="E93" s="72" t="s">
         <v>477</v>
       </c>
-      <c r="F92" s="45" t="s">
+      <c r="F93" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="G92" s="34"/>
-      <c r="H92" s="46" t="s">
+      <c r="G93" s="35"/>
+      <c r="H93" s="47" t="s">
         <v>408</v>
       </c>
-      <c r="I92" s="53"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
+      <c r="I93" s="54"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C94" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D93" s="20" t="s">
+      <c r="D94" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="E93" s="35" t="s">
+      <c r="E94" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="F93" s="45"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="58" t="s">
+      <c r="F94" s="46"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="59" t="s">
         <v>382</v>
       </c>
-      <c r="I93" s="53"/>
-    </row>
-    <row r="94" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
+      <c r="I94" s="54"/>
+    </row>
+    <row r="95" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C95" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="D94" s="25" t="s">
+      <c r="D95" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="E94" s="33" t="s">
+      <c r="E95" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="F94" s="45" t="s">
+      <c r="F95" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="G94" s="34"/>
-      <c r="H94" s="49" t="s">
+      <c r="G95" s="35"/>
+      <c r="H95" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="I94" s="53"/>
-    </row>
-    <row r="95" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
+      <c r="I95" s="54"/>
+    </row>
+    <row r="96" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C96" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="D96" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="E95" s="70" t="s">
+      <c r="E96" s="71" t="s">
         <v>307</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="G95" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="H95" s="50" t="s">
-        <v>485</v>
-      </c>
-      <c r="I95" s="53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="E96" s="70" t="s">
-        <v>306</v>
       </c>
       <c r="F96" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="G96" s="38" t="s">
+      <c r="G96" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="H96" s="50" t="s">
+      <c r="H96" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="I96" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="D97" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="I96" s="53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="D97" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="E97" s="70" t="s">
+      <c r="E97" s="71" t="s">
         <v>306</v>
       </c>
       <c r="F97" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="G97" s="38" t="s">
+      <c r="G97" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="H97" s="50" t="s">
+      <c r="H97" s="51" t="s">
+        <v>483</v>
+      </c>
+      <c r="I97" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="E98" s="71" t="s">
+        <v>306</v>
+      </c>
+      <c r="F98" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="G98" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H98" s="51" t="s">
         <v>443</v>
       </c>
-      <c r="I97" s="53" t="s">
+      <c r="I98" s="54" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
+    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="C99" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D98" s="20" t="s">
+      <c r="D99" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="E98" s="71" t="s">
+      <c r="E99" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="F98" s="18" t="s">
+      <c r="F99" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="G98" s="38" t="s">
+      <c r="G99" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="H98" s="58" t="s">
+      <c r="H99" s="59" t="s">
         <v>442</v>
       </c>
-      <c r="I98" s="53" t="s">
+      <c r="I99" s="54" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C100" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="58" t="s">
+      <c r="D100" s="1"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="I99" s="53"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="1" t="s">
+      <c r="I100" s="54"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C100" s="24" t="s">
+      <c r="C101" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="60" t="s">
+      <c r="D101" s="1"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="I100" s="53"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="45"/>
-      <c r="I101" s="53"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="10" t="s">
-        <v>98</v>
-      </c>
+      <c r="I101" s="54"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="53"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="8" t="s">
-        <v>99</v>
+      <c r="E102" s="34"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="54"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="53"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="1" t="s">
+      <c r="E103" s="34"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="54"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="54"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C104" s="12" t="s">
+      <c r="C105" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="D104" s="20" t="s">
+      <c r="D105" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="E104" s="33"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="34"/>
-      <c r="H104" s="58" t="s">
+      <c r="E105" s="34"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="I104" s="53"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="1" t="s">
+      <c r="I105" s="54"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C106" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D105" s="20" t="s">
+      <c r="D106" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="E105" s="33"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="58" t="s">
+      <c r="E106" s="34"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="I105" s="53"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="1" t="s">
+      <c r="I106" s="54"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C107" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D106" s="1"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="58" t="s">
+      <c r="D107" s="1"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="35"/>
+      <c r="H107" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="I106" s="53"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
+      <c r="I107" s="54"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="C108" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D107" s="24" t="s">
+      <c r="D108" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="E107" s="33"/>
-      <c r="F107" s="45"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="60" t="s">
+      <c r="E108" s="34"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="35"/>
+      <c r="H108" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="I107" s="53"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="34"/>
-      <c r="H108" s="45"/>
-      <c r="I108" s="53"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="I108" s="54"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="45"/>
-      <c r="I109" s="53"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="1" t="s">
+      <c r="E109" s="34"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="35"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="54"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="54"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="31"/>
+      <c r="B111" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="C111" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D110" s="1"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="34"/>
-      <c r="H110" s="58" t="s">
+      <c r="D111" s="1"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="I110" s="53"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
+      <c r="I111" s="54"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="31"/>
+      <c r="B112" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C112" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D111" s="20" t="s">
+      <c r="D112" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="E111" s="33"/>
-      <c r="F111" s="45"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="58" t="s">
+      <c r="E112" s="34"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="59" t="s">
         <v>266</v>
       </c>
-      <c r="I111" s="53"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="34"/>
-      <c r="H112" s="45"/>
-      <c r="I112" s="53"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="10" t="s">
+      <c r="I112" s="54"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="31"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="59"/>
+      <c r="I113" s="54"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="46"/>
+      <c r="I114" s="54"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="34"/>
-      <c r="H113" s="45"/>
-      <c r="I113" s="53"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="35"/>
+      <c r="H115" s="46"/>
+      <c r="I115" s="54"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="31"/>
+      <c r="B116" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C116" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D114" s="20" t="s">
+      <c r="D116" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E114" s="33"/>
-      <c r="F114" s="46"/>
-      <c r="G114" s="34"/>
-      <c r="H114" s="58" t="s">
+      <c r="E116" s="34"/>
+      <c r="F116" s="47"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I114" s="53"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="1" t="s">
+      <c r="I116" s="54"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="31"/>
+      <c r="B117" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="C117" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D115" s="20" t="s">
+      <c r="D117" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E115" s="33"/>
-      <c r="F115" s="46"/>
-      <c r="G115" s="36"/>
-      <c r="H115" s="58" t="s">
+      <c r="E117" s="34"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I115" s="53"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="1" t="s">
+      <c r="I117" s="54"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="31"/>
+      <c r="B118" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C118" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D116" s="1"/>
-      <c r="E116" s="37"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="34"/>
-      <c r="H116" s="58" t="s">
+      <c r="D118" s="1"/>
+      <c r="E118" s="38"/>
+      <c r="F118" s="47"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="I116" s="53"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="1" t="s">
+      <c r="I118" s="54"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="31"/>
+      <c r="B119" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C117" s="24" t="s">
+      <c r="C119" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D117" s="1"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="34"/>
-      <c r="H117" s="60" t="s">
+      <c r="D119" s="1"/>
+      <c r="E119" s="34"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="I117" s="53"/>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="1" t="s">
+      <c r="I119" s="54"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="31"/>
+      <c r="B120" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="C120" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D118" s="21" t="s">
+      <c r="D120" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="E118" s="33"/>
-      <c r="F118" s="46"/>
-      <c r="G118" s="34"/>
-      <c r="H118" s="50" t="s">
+      <c r="E120" s="34"/>
+      <c r="F120" s="47"/>
+      <c r="G120" s="35"/>
+      <c r="H120" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="I118" s="53"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="1" t="s">
+      <c r="I120" s="54"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="31"/>
+      <c r="B121" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C119" s="23" t="s">
+      <c r="C121" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="E119" s="33"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="34"/>
-      <c r="H119" s="45" t="s">
+      <c r="E121" s="34"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="I119" s="53"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
+      <c r="I121" s="54"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="31"/>
+      <c r="B122" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="C122" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D120" s="22" t="s">
+      <c r="D122" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="E120" s="33"/>
-      <c r="F120" s="45"/>
-      <c r="G120" s="34"/>
-      <c r="H120" s="46" t="s">
+      <c r="E122" s="34"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="I120" s="53"/>
-    </row>
-    <row r="121" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
+      <c r="I122" s="54"/>
+    </row>
+    <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="31"/>
+      <c r="B123" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="15" t="s">
+      <c r="C123" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="D121" s="23" t="s">
+      <c r="D123" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="E121" s="33"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="78"/>
-      <c r="H121" s="46" t="s">
+      <c r="E123" s="34"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="79"/>
+      <c r="H123" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="I121" s="55"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
+      <c r="I123" s="56"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="31"/>
+      <c r="B124" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="23" t="s">
+      <c r="C124" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="E122" s="33"/>
-      <c r="G122" s="40"/>
-      <c r="H122" s="45"/>
-      <c r="I122" s="53"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
+      <c r="E124" s="34"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="46"/>
+      <c r="I124" s="54"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="31"/>
+      <c r="B125" t="s">
         <v>466</v>
       </c>
-      <c r="C123" s="27" t="s">
+      <c r="C125" s="27" t="s">
         <v>467</v>
       </c>
-      <c r="D123" s="23" t="s">
+      <c r="D125" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="E123" s="33"/>
-      <c r="G123" s="40"/>
-      <c r="H123" s="45" t="s">
+      <c r="E125" s="34"/>
+      <c r="G125" s="41"/>
+      <c r="H125" s="46" t="s">
         <v>468</v>
       </c>
-      <c r="I123" s="53"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
+      <c r="I125" s="54"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="31"/>
+      <c r="B126" t="s">
         <v>120</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="C126" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="D124" s="23" t="s">
+      <c r="D126" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="E124" s="33"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="34"/>
-      <c r="H124" s="45" t="s">
+      <c r="E126" s="34"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="I124" s="53"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
+      <c r="I126" s="54"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="31"/>
+      <c r="B127" t="s">
         <v>121</v>
       </c>
-      <c r="C125" s="76" t="s">
+      <c r="C127" s="77" t="s">
         <v>470</v>
       </c>
-      <c r="D125" s="77" t="s">
+      <c r="D127" s="78" t="s">
         <v>471</v>
       </c>
-      <c r="E125" s="33"/>
-      <c r="F125" s="49"/>
-      <c r="G125" s="34"/>
-      <c r="H125" s="61" t="s">
+      <c r="E127" s="34"/>
+      <c r="F127" s="50"/>
+      <c r="G127" s="35"/>
+      <c r="H127" s="62" t="s">
         <v>471</v>
       </c>
-      <c r="I125" s="53"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
+      <c r="I127" s="54"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="31"/>
+      <c r="B128" t="s">
         <v>469</v>
       </c>
-      <c r="C126" s="26" t="s">
+      <c r="C128" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E126" s="33"/>
-      <c r="F126" s="49"/>
-      <c r="G126" s="34"/>
-      <c r="H126" s="61" t="s">
+      <c r="E128" s="34"/>
+      <c r="F128" s="50"/>
+      <c r="G128" s="35"/>
+      <c r="H128" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="I126" s="53"/>
-    </row>
-    <row r="127" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+      <c r="I128" s="54"/>
+    </row>
+    <row r="129" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A129" s="31"/>
+      <c r="B129" t="s">
         <v>122</v>
       </c>
-      <c r="C127" s="14" t="s">
+      <c r="C129" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D127" s="22" t="s">
+      <c r="D129" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="E127" s="33"/>
-      <c r="F127" s="45"/>
-      <c r="G127" s="34"/>
-      <c r="H127" s="46" t="s">
+      <c r="E129" s="34"/>
+      <c r="F129" s="46"/>
+      <c r="G129" s="35"/>
+      <c r="H129" s="47" t="s">
         <v>383</v>
       </c>
-      <c r="I127" s="53"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E128" s="33"/>
-      <c r="F128" s="45"/>
-      <c r="G128" s="34"/>
-      <c r="H128" s="45"/>
-      <c r="I128" s="53"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
+      <c r="I129" s="54"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="31"/>
+      <c r="E130" s="34"/>
+      <c r="F130" s="46"/>
+      <c r="G130" s="35"/>
+      <c r="H130" s="46"/>
+      <c r="I130" s="54"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="31"/>
+      <c r="B131" t="s">
         <v>136</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="C131" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="D129" s="23" t="s">
+      <c r="D131" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="E129" s="33"/>
-      <c r="F129" s="45"/>
-      <c r="G129" s="34"/>
-      <c r="H129" s="45" t="s">
+      <c r="E131" s="34"/>
+      <c r="F131" s="46"/>
+      <c r="G131" s="35"/>
+      <c r="H131" s="46" t="s">
         <v>480</v>
       </c>
-      <c r="I129" s="53"/>
-    </row>
-    <row r="130" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
+      <c r="I131" s="54"/>
+    </row>
+    <row r="132" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A132" s="31"/>
+      <c r="B132" t="s">
         <v>137</v>
       </c>
-      <c r="C130" s="14" t="s">
+      <c r="C132" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D130" s="22" t="s">
+      <c r="D132" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="E130" s="33"/>
-      <c r="F130" s="45"/>
-      <c r="G130" s="34"/>
-      <c r="H130" s="46" t="s">
+      <c r="E132" s="34"/>
+      <c r="F132" s="46"/>
+      <c r="G132" s="35"/>
+      <c r="H132" s="47" t="s">
         <v>383</v>
       </c>
-      <c r="I130" s="53"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
+      <c r="I132" s="54"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>138</v>
       </c>
-      <c r="C131" s="14" t="s">
+      <c r="C133" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D131" s="23" t="s">
+      <c r="D133" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="E131" s="33"/>
-      <c r="F131" s="45"/>
-      <c r="G131" s="34"/>
-      <c r="H131" s="45" t="s">
+      <c r="E133" s="34"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="I131" s="53"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
+      <c r="I133" s="54"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
         <v>134</v>
       </c>
-      <c r="C132" s="27" t="s">
+      <c r="C134" s="27" t="s">
         <v>478</v>
-      </c>
-      <c r="D132" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="E132" s="33"/>
-      <c r="F132" s="45"/>
-      <c r="G132" s="34"/>
-      <c r="H132" s="45" t="s">
-        <v>480</v>
-      </c>
-      <c r="I132" s="53"/>
-    </row>
-    <row r="133" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>139</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D133" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="E133" s="33"/>
-      <c r="F133" s="45"/>
-      <c r="G133" s="34"/>
-      <c r="H133" s="46" t="s">
-        <v>383</v>
-      </c>
-      <c r="I133" s="53"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>135</v>
-      </c>
-      <c r="C134" s="27" t="s">
-        <v>479</v>
       </c>
       <c r="D134" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="E134" s="33"/>
-      <c r="F134" s="45"/>
-      <c r="G134" s="34"/>
-      <c r="H134" s="45" t="s">
+      <c r="E134" s="34"/>
+      <c r="F134" s="46"/>
+      <c r="G134" s="35"/>
+      <c r="H134" s="46" t="s">
         <v>480</v>
       </c>
-      <c r="I134" s="53"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E135" s="33"/>
-      <c r="F135" s="45"/>
-      <c r="G135" s="34"/>
-      <c r="H135" s="45"/>
-      <c r="I135" s="53"/>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E136" s="33"/>
-      <c r="F136" s="45"/>
-      <c r="G136" s="34"/>
-      <c r="H136" s="45"/>
-      <c r="I136" s="53"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+      <c r="I134" s="54"/>
+    </row>
+    <row r="135" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="E135" s="34"/>
+      <c r="F135" s="46"/>
+      <c r="G135" s="35"/>
+      <c r="H135" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="I135" s="54"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>135</v>
+      </c>
+      <c r="C136" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="D136" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="E136" s="34"/>
+      <c r="F136" s="46"/>
+      <c r="G136" s="35"/>
+      <c r="H136" s="46" t="s">
+        <v>480</v>
+      </c>
+      <c r="I136" s="54"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E137" s="34"/>
+      <c r="F137" s="46"/>
+      <c r="G137" s="35"/>
+      <c r="H137" s="46"/>
+      <c r="I137" s="54"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E138" s="34"/>
+      <c r="F138" s="46"/>
+      <c r="G138" s="35"/>
+      <c r="H138" s="46"/>
+      <c r="I138" s="54"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
         <v>123</v>
       </c>
-      <c r="C137" s="23" t="s">
+      <c r="C139" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E137" s="33"/>
-      <c r="F137" s="45"/>
-      <c r="G137" s="34"/>
-      <c r="H137" s="45" t="s">
+      <c r="E139" s="34"/>
+      <c r="F139" s="46"/>
+      <c r="G139" s="35"/>
+      <c r="H139" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I137" s="53"/>
-    </row>
-    <row r="138" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
+      <c r="I139" s="54"/>
+    </row>
+    <row r="140" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
         <v>124</v>
       </c>
-      <c r="C138" s="14" t="s">
+      <c r="C140" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D138" s="21" t="s">
+      <c r="D140" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="E138" s="33"/>
-      <c r="F138" s="45"/>
-      <c r="G138" s="34"/>
-      <c r="H138" s="50" t="s">
+      <c r="E140" s="34"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="35"/>
+      <c r="H140" s="51" t="s">
         <v>384</v>
       </c>
-      <c r="I138" s="53"/>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
+      <c r="I140" s="54"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
         <v>125</v>
       </c>
-      <c r="C139" s="23" t="s">
+      <c r="C141" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="E139" s="33"/>
-      <c r="F139" s="45"/>
-      <c r="G139" s="41"/>
-      <c r="H139" s="45" t="s">
+      <c r="E141" s="34"/>
+      <c r="F141" s="46"/>
+      <c r="G141" s="42"/>
+      <c r="H141" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="I139" s="53"/>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="4"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="45"/>
-      <c r="G140" s="34"/>
-      <c r="H140" s="45"/>
-      <c r="I140" s="53"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="7" t="s">
+      <c r="I141" s="54"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B142" s="4"/>
+      <c r="E142" s="34"/>
+      <c r="F142" s="46"/>
+      <c r="G142" s="35"/>
+      <c r="H142" s="46"/>
+      <c r="I142" s="54"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B143" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E141" s="33"/>
-      <c r="F141" s="45"/>
-      <c r="G141" s="34"/>
-      <c r="H141" s="45"/>
-      <c r="I141" s="53"/>
-    </row>
-    <row r="142" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
+      <c r="E143" s="34"/>
+      <c r="F143" s="46"/>
+      <c r="G143" s="35"/>
+      <c r="H143" s="46"/>
+      <c r="I143" s="54"/>
+    </row>
+    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="31"/>
+      <c r="B144" t="s">
         <v>142</v>
       </c>
-      <c r="C142" s="14" t="s">
+      <c r="C144" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="D142" s="23" t="s">
+      <c r="D144" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="E142" s="72" t="s">
+      <c r="E144" s="73" t="s">
         <v>332</v>
       </c>
-      <c r="F142" s="46" t="s">
+      <c r="F144" s="47" t="s">
         <v>367</v>
       </c>
-      <c r="G142" s="34"/>
-      <c r="H142" s="45" t="s">
+      <c r="G144" s="35"/>
+      <c r="H144" s="46" t="s">
         <v>366</v>
       </c>
-      <c r="I142" s="53"/>
-    </row>
-    <row r="143" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
+      <c r="I144" s="54"/>
+    </row>
+    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="31"/>
+      <c r="B145" t="s">
         <v>274</v>
       </c>
-      <c r="C143" s="27" t="s">
+      <c r="C145" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="D143" s="23" t="s">
+      <c r="D145" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="E143" s="70" t="s">
+      <c r="E145" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F143" s="46" t="s">
+      <c r="F145" s="47" t="s">
         <v>367</v>
       </c>
-      <c r="G143" s="34"/>
-      <c r="H143" s="45" t="s">
+      <c r="G145" s="35"/>
+      <c r="H145" s="46" t="s">
         <v>465</v>
       </c>
-      <c r="I143" s="53"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
+      <c r="I145" s="54"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="31"/>
+      <c r="B146" t="s">
         <v>143</v>
       </c>
-      <c r="C144" s="14" t="s">
+      <c r="C146" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D144" s="29" t="s">
+      <c r="D146" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="E144" s="79"/>
-      <c r="F144" s="45"/>
-      <c r="G144" s="34"/>
-      <c r="H144" s="45" t="s">
+      <c r="E146" s="80"/>
+      <c r="F146" s="46"/>
+      <c r="G146" s="35"/>
+      <c r="H146" s="46" t="s">
         <v>394</v>
       </c>
-      <c r="I144" s="53"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
+      <c r="I146" s="54"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="31"/>
+      <c r="B147" t="s">
         <v>144</v>
       </c>
-      <c r="C145" s="14" t="s">
+      <c r="C147" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D145" s="20" t="s">
+      <c r="D147" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="E145" s="33"/>
-      <c r="F145" s="46"/>
-      <c r="G145" s="34"/>
-      <c r="H145" s="58" t="s">
+      <c r="E147" s="34"/>
+      <c r="F147" s="47"/>
+      <c r="G147" s="35"/>
+      <c r="H147" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="I145" s="53"/>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+      <c r="I147" s="54"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="31"/>
+      <c r="B148" t="s">
         <v>145</v>
       </c>
-      <c r="C146" s="26" t="s">
+      <c r="C148" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="D146" s="3"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="45"/>
-      <c r="G146" s="34"/>
-      <c r="H146" s="61" t="s">
+      <c r="D148" s="3"/>
+      <c r="E148" s="34"/>
+      <c r="F148" s="46"/>
+      <c r="G148" s="35"/>
+      <c r="H148" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="I146" s="53"/>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
+      <c r="I148" s="54"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="31"/>
+      <c r="B149" t="s">
         <v>146</v>
       </c>
-      <c r="C147" s="23" t="s">
+      <c r="C149" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E147" s="33"/>
-      <c r="F147" s="45"/>
-      <c r="G147" s="34"/>
-      <c r="H147" s="45" t="s">
+      <c r="E149" s="34"/>
+      <c r="F149" s="46"/>
+      <c r="G149" s="35"/>
+      <c r="H149" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="I147" s="53"/>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E148" s="33"/>
-      <c r="F148" s="45"/>
-      <c r="G148" s="34"/>
-      <c r="H148" s="45"/>
-      <c r="I148" s="53"/>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B149" s="7" t="s">
+      <c r="I149" s="54"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="31"/>
+      <c r="E150" s="34"/>
+      <c r="F150" s="46"/>
+      <c r="G150" s="35"/>
+      <c r="H150" s="46"/>
+      <c r="I150" s="54"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="31"/>
+      <c r="B151" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E149" s="33"/>
-      <c r="F149" s="45"/>
-      <c r="G149" s="34"/>
-      <c r="H149" s="45"/>
-      <c r="I149" s="53"/>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
+      <c r="E151" s="34"/>
+      <c r="F151" s="46"/>
+      <c r="G151" s="35"/>
+      <c r="H151" s="46"/>
+      <c r="I151" s="54"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="31"/>
+      <c r="B152" t="s">
         <v>151</v>
       </c>
-      <c r="C150" s="14" t="s">
+      <c r="C152" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="D150" s="23" t="s">
+      <c r="D152" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="E150" s="70" t="s">
+      <c r="E152" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F150" s="45" t="s">
+      <c r="F152" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="G150" s="34"/>
-      <c r="H150" s="62" t="s">
+      <c r="G152" s="35"/>
+      <c r="H152" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="I150" s="53"/>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
+      <c r="I152" s="54"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="31"/>
+      <c r="B153" t="s">
         <v>152</v>
       </c>
-      <c r="C151" s="23" t="s">
+      <c r="C153" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="E151" s="70" t="s">
+      <c r="E153" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="F151" s="45" t="s">
+      <c r="F153" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="G151" s="34"/>
-      <c r="H151" s="45" t="s">
+      <c r="G153" s="35"/>
+      <c r="H153" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="I151" s="53"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
+      <c r="I153" s="54"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="31"/>
+      <c r="B154" t="s">
         <v>153</v>
       </c>
-      <c r="C152" s="27" t="s">
+      <c r="C154" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D152" s="23" t="s">
+      <c r="D154" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="E152" s="70" t="s">
+      <c r="E154" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="F152" s="45" t="s">
+      <c r="F154" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="G152" s="34"/>
-      <c r="H152" s="45" t="s">
+      <c r="G154" s="35"/>
+      <c r="H154" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="I152" s="53"/>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
+      <c r="I154" s="54"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="31"/>
+      <c r="B155" t="s">
         <v>154</v>
       </c>
-      <c r="C153" s="14" t="s">
+      <c r="C155" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D153" s="29" t="s">
+      <c r="D155" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="E153" s="33"/>
-      <c r="G153" s="34"/>
-      <c r="H153" s="45" t="s">
+      <c r="E155" s="34"/>
+      <c r="G155" s="35"/>
+      <c r="H155" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="I153" s="53"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
+      <c r="I155" s="54"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="31"/>
+      <c r="B156" t="s">
         <v>155</v>
       </c>
-      <c r="C154" s="26" t="s">
+      <c r="C156" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="E154" s="33"/>
-      <c r="F154" s="45"/>
-      <c r="G154" s="34"/>
-      <c r="H154" s="61" t="s">
+      <c r="E156" s="34"/>
+      <c r="F156" s="46"/>
+      <c r="G156" s="35"/>
+      <c r="H156" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="I154" s="53"/>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
+      <c r="I156" s="54"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="31"/>
+      <c r="B157" t="s">
         <v>156</v>
       </c>
-      <c r="C155" s="23" t="s">
+      <c r="C157" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="E155" s="33"/>
-      <c r="F155" s="45"/>
-      <c r="G155" s="34"/>
-      <c r="H155" s="45" t="s">
+      <c r="E157" s="34"/>
+      <c r="F157" s="46"/>
+      <c r="G157" s="35"/>
+      <c r="H157" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="I155" s="53"/>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E156" s="33"/>
-      <c r="F156" s="45"/>
-      <c r="G156" s="34"/>
-      <c r="H156" s="45"/>
-      <c r="I156" s="53"/>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B157" s="7" t="s">
+      <c r="I157" s="54"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="31"/>
+      <c r="E158" s="34"/>
+      <c r="F158" s="46"/>
+      <c r="G158" s="35"/>
+      <c r="H158" s="46"/>
+      <c r="I158" s="54"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B159" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E157" s="33"/>
-      <c r="F157" s="45"/>
-      <c r="G157" s="34"/>
-      <c r="H157" s="45"/>
-      <c r="I157" s="53"/>
-    </row>
-    <row r="158" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
+      <c r="E159" s="34"/>
+      <c r="F159" s="46"/>
+      <c r="G159" s="35"/>
+      <c r="H159" s="46"/>
+      <c r="I159" s="54"/>
+    </row>
+    <row r="160" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
         <v>161</v>
       </c>
-      <c r="C158" s="14" t="s">
+      <c r="C160" s="14" t="s">
         <v>163</v>
-      </c>
-      <c r="D158" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="E158" s="70" t="s">
-        <v>311</v>
-      </c>
-      <c r="F158" s="45" t="s">
-        <v>444</v>
-      </c>
-      <c r="G158" s="34"/>
-      <c r="H158" s="50" t="s">
-        <v>385</v>
-      </c>
-      <c r="I158" s="53"/>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>162</v>
-      </c>
-      <c r="C159" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="E159" s="70" t="s">
-        <v>369</v>
-      </c>
-      <c r="F159" s="48" t="s">
-        <v>444</v>
-      </c>
-      <c r="G159" s="34"/>
-      <c r="H159" s="45" t="s">
-        <v>445</v>
-      </c>
-      <c r="I159" s="53" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>163</v>
-      </c>
-      <c r="C160" s="14" t="s">
-        <v>165</v>
       </c>
       <c r="D160" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="E160" s="70" t="s">
-        <v>315</v>
-      </c>
-      <c r="F160" s="45" t="s">
-        <v>320</v>
-      </c>
-      <c r="G160" s="34"/>
-      <c r="H160" s="50" t="s">
+      <c r="E160" s="71" t="s">
+        <v>311</v>
+      </c>
+      <c r="F160" s="46" t="s">
+        <v>444</v>
+      </c>
+      <c r="G160" s="35"/>
+      <c r="H160" s="51" t="s">
         <v>385</v>
       </c>
-      <c r="I160" s="53"/>
+      <c r="I160" s="54"/>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>164</v>
-      </c>
-      <c r="C161" s="29" t="s">
-        <v>412</v>
-      </c>
-      <c r="E161" s="73" t="s">
-        <v>370</v>
-      </c>
-      <c r="F161" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="G161" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="H161" s="45" t="s">
-        <v>446</v>
-      </c>
-      <c r="I161" s="53" t="s">
-        <v>320</v>
+        <v>162</v>
+      </c>
+      <c r="C161" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E161" s="71" t="s">
+        <v>369</v>
+      </c>
+      <c r="F161" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="G161" s="35"/>
+      <c r="H161" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="I161" s="54" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="162" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
+        <v>163</v>
+      </c>
+      <c r="C162" s="14" t="s">
         <v>165</v>
-      </c>
-      <c r="C162" s="14" t="s">
-        <v>167</v>
       </c>
       <c r="D162" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="E162" s="74" t="s">
-        <v>314</v>
-      </c>
-      <c r="F162" s="45" t="s">
-        <v>413</v>
-      </c>
-      <c r="G162" s="34"/>
-      <c r="H162" s="50" t="s">
+      <c r="E162" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="F162" s="46" t="s">
+        <v>320</v>
+      </c>
+      <c r="G162" s="35"/>
+      <c r="H162" s="51" t="s">
         <v>385</v>
       </c>
-      <c r="I162" s="53"/>
+      <c r="I162" s="54"/>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>166</v>
-      </c>
-      <c r="C163" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="E163" s="73" t="s">
-        <v>371</v>
-      </c>
-      <c r="F163" s="65" t="s">
-        <v>414</v>
-      </c>
-      <c r="G163" s="38" t="s">
-        <v>415</v>
-      </c>
-      <c r="H163" s="45" t="s">
-        <v>447</v>
-      </c>
-      <c r="I163" s="53" t="s">
-        <v>448</v>
+        <v>164</v>
+      </c>
+      <c r="C163" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="E163" s="74" t="s">
+        <v>370</v>
+      </c>
+      <c r="F163" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="G163" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="H163" s="46" t="s">
+        <v>446</v>
+      </c>
+      <c r="I163" s="54" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="164" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
+        <v>165</v>
+      </c>
+      <c r="C164" s="14" t="s">
         <v>167</v>
-      </c>
-      <c r="C164" s="14" t="s">
-        <v>169</v>
       </c>
       <c r="D164" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="E164" s="70" t="s">
-        <v>316</v>
-      </c>
-      <c r="F164" s="45" t="s">
-        <v>418</v>
-      </c>
-      <c r="G164" s="34"/>
-      <c r="H164" s="50" t="s">
+      <c r="E164" s="75" t="s">
+        <v>314</v>
+      </c>
+      <c r="F164" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="G164" s="35"/>
+      <c r="H164" s="51" t="s">
         <v>385</v>
       </c>
-      <c r="I164" s="53"/>
-    </row>
-    <row r="165" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I164" s="54"/>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C165" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="E165" s="72" t="s">
-        <v>372</v>
-      </c>
-      <c r="F165" s="65" t="s">
-        <v>419</v>
-      </c>
-      <c r="G165" s="38" t="s">
-        <v>417</v>
-      </c>
-      <c r="H165" s="45" t="s">
-        <v>449</v>
-      </c>
-      <c r="I165" s="53" t="s">
-        <v>450</v>
+        <v>416</v>
+      </c>
+      <c r="E165" s="74" t="s">
+        <v>371</v>
+      </c>
+      <c r="F165" s="66" t="s">
+        <v>414</v>
+      </c>
+      <c r="G165" s="39" t="s">
+        <v>415</v>
+      </c>
+      <c r="H165" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="I165" s="54" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="166" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
+        <v>167</v>
+      </c>
+      <c r="C166" s="14" t="s">
         <v>169</v>
-      </c>
-      <c r="C166" s="14" t="s">
-        <v>176</v>
       </c>
       <c r="D166" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="E166" s="70" t="s">
-        <v>317</v>
-      </c>
-      <c r="F166" s="45" t="s">
-        <v>420</v>
-      </c>
-      <c r="G166" s="34"/>
-      <c r="H166" s="50" t="s">
+      <c r="E166" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="F166" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="G166" s="35"/>
+      <c r="H166" s="51" t="s">
         <v>385</v>
       </c>
-      <c r="I166" s="53"/>
-    </row>
-    <row r="167" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I166" s="54"/>
+    </row>
+    <row r="167" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C167" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="E167" s="72" t="s">
-        <v>373</v>
-      </c>
-      <c r="F167" s="65" t="s">
-        <v>421</v>
+        <v>175</v>
+      </c>
+      <c r="E167" s="73" t="s">
+        <v>372</v>
+      </c>
+      <c r="F167" s="66" t="s">
+        <v>419</v>
       </c>
       <c r="G167" s="39" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H167" s="46" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I167" s="54" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="168" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D168" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="E168" s="70" t="s">
-        <v>319</v>
-      </c>
-      <c r="F168" s="45" t="s">
-        <v>423</v>
-      </c>
-      <c r="G168" s="34"/>
-      <c r="H168" s="50" t="s">
+      <c r="E168" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="F168" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="G168" s="35"/>
+      <c r="H168" s="51" t="s">
         <v>385</v>
       </c>
-      <c r="I168" s="53"/>
-    </row>
-    <row r="169" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I168" s="54"/>
+    </row>
+    <row r="169" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="E169" s="72" t="s">
-        <v>374</v>
-      </c>
-      <c r="F169" s="65" t="s">
-        <v>424</v>
-      </c>
-      <c r="G169" s="39" t="s">
-        <v>425</v>
-      </c>
-      <c r="H169" s="45" t="s">
-        <v>453</v>
-      </c>
-      <c r="I169" s="54" t="s">
-        <v>458</v>
+        <v>337</v>
+      </c>
+      <c r="E169" s="73" t="s">
+        <v>373</v>
+      </c>
+      <c r="F169" s="66" t="s">
+        <v>421</v>
+      </c>
+      <c r="G169" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="H169" s="47" t="s">
+        <v>451</v>
+      </c>
+      <c r="I169" s="55" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="170" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
+        <v>171</v>
+      </c>
+      <c r="C170" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="C170" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="D170" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="E170" s="70" t="s">
+      <c r="E170" s="71" t="s">
+        <v>319</v>
+      </c>
+      <c r="F170" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="G170" s="35"/>
+      <c r="H170" s="51" t="s">
+        <v>385</v>
+      </c>
+      <c r="I170" s="54"/>
+    </row>
+    <row r="171" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>95</v>
+      </c>
+      <c r="C171" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E171" s="73" t="s">
+        <v>374</v>
+      </c>
+      <c r="F171" s="66" t="s">
+        <v>424</v>
+      </c>
+      <c r="G171" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="H171" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="I171" s="55" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>172</v>
+      </c>
+      <c r="C172" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="E172" s="71" t="s">
         <v>318</v>
       </c>
-      <c r="F170" s="45" t="s">
+      <c r="F172" s="46" t="s">
         <v>426</v>
       </c>
-      <c r="G170" s="34"/>
-      <c r="H170" s="50" t="s">
+      <c r="G172" s="35"/>
+      <c r="H172" s="51" t="s">
         <v>385</v>
       </c>
-      <c r="I170" s="53"/>
-    </row>
-    <row r="171" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
+      <c r="I172" s="54"/>
+    </row>
+    <row r="173" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
         <v>173</v>
       </c>
-      <c r="C171" s="14" t="s">
+      <c r="C173" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D171" s="21" t="s">
+      <c r="D173" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="E171" s="75" t="s">
+      <c r="E173" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F171" s="45" t="s">
+      <c r="F173" s="46" t="s">
         <v>426</v>
       </c>
-      <c r="G171" s="34"/>
-      <c r="H171" s="50" t="s">
+      <c r="G173" s="35"/>
+      <c r="H173" s="51" t="s">
         <v>385</v>
       </c>
-      <c r="I171" s="53"/>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E172" s="33"/>
-      <c r="F172" s="45"/>
-      <c r="G172" s="34"/>
-      <c r="H172" s="45"/>
-      <c r="I172" s="53"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B173" s="7" t="s">
+      <c r="I173" s="54"/>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E174" s="34"/>
+      <c r="F174" s="46"/>
+      <c r="G174" s="35"/>
+      <c r="H174" s="46"/>
+      <c r="I174" s="54"/>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B175" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E173" s="33"/>
-      <c r="F173" s="45"/>
-      <c r="G173" s="34"/>
-      <c r="H173" s="45"/>
-      <c r="I173" s="53"/>
-    </row>
-    <row r="174" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B174" s="6" t="s">
+      <c r="E175" s="34"/>
+      <c r="F175" s="46"/>
+      <c r="G175" s="35"/>
+      <c r="H175" s="46"/>
+      <c r="I175" s="54"/>
+    </row>
+    <row r="176" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B176" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C174" s="15" t="s">
+      <c r="C176" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D174" s="21" t="s">
+      <c r="D176" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="E174" s="70" t="s">
+      <c r="E176" s="71" t="s">
         <v>375</v>
       </c>
-      <c r="F174" s="68" t="s">
+      <c r="F176" s="69" t="s">
         <v>411</v>
       </c>
-      <c r="G174" s="34" t="s">
+      <c r="G176" s="35" t="s">
         <v>407</v>
       </c>
-      <c r="H174" s="50" t="s">
+      <c r="H176" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="I174" s="53"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
+      <c r="I176" s="54"/>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
         <v>181</v>
       </c>
-      <c r="C175" s="23" t="s">
+      <c r="C177" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="E175" s="33"/>
-      <c r="F175" s="45"/>
-      <c r="G175" s="34"/>
-      <c r="H175" s="45" t="s">
+      <c r="E177" s="34"/>
+      <c r="F177" s="46"/>
+      <c r="G177" s="35"/>
+      <c r="H177" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="I175" s="53"/>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
+      <c r="I177" s="54"/>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
         <v>182</v>
       </c>
-      <c r="C176" s="23" t="s">
+      <c r="C178" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="E176" s="33"/>
-      <c r="F176" s="45"/>
-      <c r="G176" s="34"/>
-      <c r="H176" s="45" t="s">
+      <c r="E178" s="34"/>
+      <c r="F178" s="46"/>
+      <c r="G178" s="35"/>
+      <c r="H178" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="I176" s="53"/>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E177" s="33"/>
-      <c r="F177" s="45"/>
-      <c r="G177" s="34"/>
-      <c r="H177" s="45"/>
-      <c r="I177" s="53"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B178" s="7" t="s">
+      <c r="I178" s="54"/>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E179" s="34"/>
+      <c r="F179" s="46"/>
+      <c r="G179" s="35"/>
+      <c r="H179" s="46"/>
+      <c r="I179" s="54"/>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="E178" s="33"/>
-      <c r="F178" s="45"/>
-      <c r="G178" s="34"/>
-      <c r="H178" s="45"/>
-      <c r="I178" s="53"/>
-    </row>
-    <row r="179" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B179" s="1" t="s">
+      <c r="E180" s="34"/>
+      <c r="F180" s="46"/>
+      <c r="G180" s="35"/>
+      <c r="H180" s="46"/>
+      <c r="I180" s="54"/>
+    </row>
+    <row r="181" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C179" s="22" t="s">
+      <c r="C181" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="E179" s="33"/>
-      <c r="F179" s="45"/>
-      <c r="G179" s="34"/>
-      <c r="H179" s="46" t="s">
+      <c r="E181" s="34"/>
+      <c r="F181" s="46"/>
+      <c r="G181" s="35"/>
+      <c r="H181" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="I179" s="53"/>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B180" s="1" t="s">
+      <c r="I181" s="54"/>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C180" s="25" t="s">
+      <c r="C182" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="E180" s="33"/>
-      <c r="F180" s="45"/>
-      <c r="G180" s="34"/>
-      <c r="H180" s="49" t="s">
+      <c r="E182" s="34"/>
+      <c r="F182" s="46"/>
+      <c r="G182" s="35"/>
+      <c r="H182" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="I180" s="53"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E181" s="33"/>
-      <c r="F181" s="45"/>
-      <c r="G181" s="34"/>
-      <c r="H181" s="45"/>
-      <c r="I181" s="53"/>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B182" s="7" t="s">
+      <c r="I182" s="54"/>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E183" s="34"/>
+      <c r="F183" s="46"/>
+      <c r="G183" s="35"/>
+      <c r="H183" s="46"/>
+      <c r="I183" s="54"/>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B184" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E182" s="33"/>
-      <c r="F182" s="45"/>
-      <c r="G182" s="34"/>
-      <c r="H182" s="45"/>
-      <c r="I182" s="53"/>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B183" s="9" t="s">
+      <c r="E184" s="34"/>
+      <c r="F184" s="46"/>
+      <c r="G184" s="35"/>
+      <c r="H184" s="46"/>
+      <c r="I184" s="54"/>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B185" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E183" s="33"/>
-      <c r="F183" s="45"/>
-      <c r="G183" s="34"/>
-      <c r="H183" s="45"/>
-      <c r="I183" s="53"/>
-    </row>
-    <row r="184" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
+      <c r="E185" s="34"/>
+      <c r="F185" s="46"/>
+      <c r="G185" s="35"/>
+      <c r="H185" s="46"/>
+      <c r="I185" s="54"/>
+    </row>
+    <row r="186" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
         <v>189</v>
       </c>
-      <c r="C184" s="23" t="s">
+      <c r="C186" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="E184" s="70" t="s">
+      <c r="E186" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F184" s="46" t="s">
+      <c r="F186" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="G184" s="34"/>
-      <c r="H184" s="45" t="s">
+      <c r="G186" s="35"/>
+      <c r="H186" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="I184" s="53"/>
-    </row>
-    <row r="185" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
+      <c r="I186" s="54"/>
+    </row>
+    <row r="187" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
         <v>190</v>
       </c>
-      <c r="C185" s="23" t="s">
+      <c r="C187" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="E185" s="70" t="s">
+      <c r="E187" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="F185" s="48" t="s">
+      <c r="F187" s="49" t="s">
         <v>427</v>
       </c>
-      <c r="G185" s="34"/>
-      <c r="H185" s="45" t="s">
+      <c r="G187" s="35"/>
+      <c r="H187" s="46" t="s">
         <v>454</v>
       </c>
-      <c r="I185" s="54" t="s">
+      <c r="I187" s="55" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E186" s="33"/>
-      <c r="F186" s="45"/>
-      <c r="G186" s="34"/>
-      <c r="H186" s="45"/>
-      <c r="I186" s="53"/>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B187" s="9" t="s">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E188" s="34"/>
+      <c r="F188" s="46"/>
+      <c r="G188" s="35"/>
+      <c r="H188" s="46"/>
+      <c r="I188" s="54"/>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B189" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E187" s="33"/>
-      <c r="F187" s="45"/>
-      <c r="G187" s="34"/>
-      <c r="H187" s="45"/>
-      <c r="I187" s="53"/>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
-        <v>195</v>
-      </c>
-      <c r="C188" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E188" s="33"/>
-      <c r="F188" s="45"/>
-      <c r="G188" s="34"/>
-      <c r="H188" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="I188" s="53"/>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>196</v>
-      </c>
-      <c r="C189" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D189" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="E189" s="33"/>
-      <c r="F189" s="45"/>
-      <c r="G189" s="34"/>
-      <c r="H189" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="I189" s="53"/>
+      <c r="E189" s="34"/>
+      <c r="F189" s="46"/>
+      <c r="G189" s="35"/>
+      <c r="H189" s="46"/>
+      <c r="I189" s="54"/>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
+        <v>195</v>
+      </c>
+      <c r="C190" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E190" s="34"/>
+      <c r="F190" s="46"/>
+      <c r="G190" s="35"/>
+      <c r="H190" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="I190" s="54"/>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>196</v>
+      </c>
+      <c r="C191" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D191" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E191" s="34"/>
+      <c r="F191" s="46"/>
+      <c r="G191" s="35"/>
+      <c r="H191" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="I191" s="54"/>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
         <v>197</v>
       </c>
-      <c r="C190" s="23" t="s">
+      <c r="C192" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="E190" s="33"/>
-      <c r="F190" s="45"/>
-      <c r="G190" s="34"/>
-      <c r="H190" s="45" t="s">
+      <c r="E192" s="34"/>
+      <c r="F192" s="46"/>
+      <c r="G192" s="35"/>
+      <c r="H192" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="I190" s="53"/>
-    </row>
-    <row r="191" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
+      <c r="I192" s="54"/>
+    </row>
+    <row r="193" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
         <v>291</v>
       </c>
-      <c r="C191" s="14" t="s">
+      <c r="C193" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="D191" s="22" t="s">
+      <c r="D193" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="E191" s="33"/>
-      <c r="F191" s="45"/>
-      <c r="G191" s="34"/>
-      <c r="H191" s="46" t="s">
+      <c r="E193" s="34"/>
+      <c r="F193" s="46"/>
+      <c r="G193" s="35"/>
+      <c r="H193" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="I191" s="53"/>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E192" s="33"/>
-      <c r="F192" s="45"/>
-      <c r="G192" s="34"/>
-      <c r="H192" s="45"/>
-      <c r="I192" s="53"/>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B193" s="7" t="s">
+      <c r="I193" s="54"/>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E194" s="34"/>
+      <c r="F194" s="46"/>
+      <c r="G194" s="35"/>
+      <c r="H194" s="46"/>
+      <c r="I194" s="54"/>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B195" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E193" s="33"/>
-      <c r="F193" s="45"/>
-      <c r="G193" s="34"/>
-      <c r="H193" s="45"/>
-      <c r="I193" s="53"/>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E194" s="33"/>
-      <c r="F194" s="45"/>
-      <c r="G194" s="34"/>
-      <c r="H194" s="45"/>
-      <c r="I194" s="53"/>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B195" s="9" t="s">
+      <c r="E195" s="34"/>
+      <c r="F195" s="46"/>
+      <c r="G195" s="35"/>
+      <c r="H195" s="46"/>
+      <c r="I195" s="54"/>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E196" s="34"/>
+      <c r="F196" s="46"/>
+      <c r="G196" s="35"/>
+      <c r="H196" s="46"/>
+      <c r="I196" s="54"/>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B197" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E195" s="33"/>
-      <c r="F195" s="45"/>
-      <c r="G195" s="34"/>
-      <c r="H195" s="45"/>
-      <c r="I195" s="53"/>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
+      <c r="E197" s="34"/>
+      <c r="F197" s="46"/>
+      <c r="G197" s="35"/>
+      <c r="H197" s="46"/>
+      <c r="I197" s="54"/>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
         <v>204</v>
       </c>
-      <c r="C196" s="23" t="s">
+      <c r="C198" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E196" s="33"/>
-      <c r="F196" s="45"/>
-      <c r="G196" s="34"/>
-      <c r="H196" s="45" t="s">
+      <c r="E198" s="34"/>
+      <c r="F198" s="46"/>
+      <c r="G198" s="35"/>
+      <c r="H198" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="I196" s="53"/>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
+      <c r="I198" s="54"/>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
         <v>205</v>
       </c>
-      <c r="C197" s="14" t="s">
+      <c r="C199" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="D197" s="23" t="s">
+      <c r="D199" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="E197" s="33"/>
-      <c r="F197" s="45"/>
-      <c r="G197" s="34"/>
-      <c r="H197" s="45" t="s">
+      <c r="E199" s="34"/>
+      <c r="F199" s="46"/>
+      <c r="G199" s="35"/>
+      <c r="H199" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="I197" s="53"/>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E198" s="33"/>
-      <c r="F198" s="45"/>
-      <c r="G198" s="34"/>
-      <c r="H198" s="45"/>
-      <c r="I198" s="53"/>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B199" s="9" t="s">
+      <c r="I199" s="54"/>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E200" s="34"/>
+      <c r="F200" s="46"/>
+      <c r="G200" s="35"/>
+      <c r="H200" s="46"/>
+      <c r="I200" s="54"/>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B201" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E199" s="33"/>
-      <c r="F199" s="45"/>
-      <c r="G199" s="34"/>
-      <c r="H199" s="45"/>
-      <c r="I199" s="53"/>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
+      <c r="E201" s="34"/>
+      <c r="F201" s="46"/>
+      <c r="G201" s="35"/>
+      <c r="H201" s="46"/>
+      <c r="I201" s="54"/>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
         <v>208</v>
       </c>
-      <c r="C200" s="23" t="s">
+      <c r="C202" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="E200" s="33"/>
-      <c r="F200" s="45"/>
-      <c r="G200" s="34"/>
-      <c r="H200" s="45" t="s">
+      <c r="E202" s="34"/>
+      <c r="F202" s="46"/>
+      <c r="G202" s="35"/>
+      <c r="H202" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="I200" s="53"/>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
+      <c r="I202" s="54"/>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
         <v>209</v>
       </c>
-      <c r="C201" s="23" t="s">
+      <c r="C203" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="E201" s="33"/>
-      <c r="F201" s="45"/>
-      <c r="G201" s="34"/>
-      <c r="H201" s="45" t="s">
+      <c r="E203" s="34"/>
+      <c r="F203" s="46"/>
+      <c r="G203" s="35"/>
+      <c r="H203" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="I201" s="53"/>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E202" s="33"/>
-      <c r="F202" s="45"/>
-      <c r="G202" s="34"/>
-      <c r="H202" s="45"/>
-      <c r="I202" s="53"/>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B203" s="9" t="s">
+      <c r="I203" s="54"/>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E204" s="34"/>
+      <c r="F204" s="46"/>
+      <c r="G204" s="35"/>
+      <c r="H204" s="46"/>
+      <c r="I204" s="54"/>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B205" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E203" s="33"/>
-      <c r="F203" s="45"/>
-      <c r="G203" s="34"/>
-      <c r="H203" s="45"/>
-      <c r="I203" s="53"/>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
+      <c r="E205" s="34"/>
+      <c r="F205" s="46"/>
+      <c r="G205" s="35"/>
+      <c r="H205" s="46"/>
+      <c r="I205" s="54"/>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
         <v>213</v>
       </c>
-      <c r="C204" s="23" t="s">
+      <c r="C206" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="E204" s="33"/>
-      <c r="F204" s="45"/>
-      <c r="G204" s="34"/>
-      <c r="H204" s="45" t="s">
+      <c r="E206" s="34"/>
+      <c r="F206" s="46"/>
+      <c r="G206" s="35"/>
+      <c r="H206" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="I204" s="53"/>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
-        <v>214</v>
-      </c>
-      <c r="C205" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="E205" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="F205" s="45"/>
-      <c r="G205" s="34"/>
-      <c r="H205" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="I205" s="53"/>
-    </row>
-    <row r="206" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
-        <v>215</v>
-      </c>
-      <c r="C206" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="D206" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="E206" s="70" t="s">
-        <v>376</v>
-      </c>
-      <c r="F206" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="G206" s="34"/>
-      <c r="H206" s="45" t="s">
-        <v>455</v>
-      </c>
-      <c r="I206" s="53" t="s">
-        <v>333</v>
-      </c>
+      <c r="I206" s="54"/>
     </row>
     <row r="207" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
+        <v>214</v>
+      </c>
+      <c r="C207" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="E207" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="F207" s="46"/>
+      <c r="G207" s="35"/>
+      <c r="H207" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="I207" s="54"/>
+    </row>
+    <row r="208" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>215</v>
+      </c>
+      <c r="C208" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="D208" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="E208" s="71" t="s">
+        <v>376</v>
+      </c>
+      <c r="F208" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="G208" s="35"/>
+      <c r="H208" s="46" t="s">
+        <v>455</v>
+      </c>
+      <c r="I208" s="54" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
         <v>377</v>
       </c>
-      <c r="C207" s="23" t="s">
+      <c r="C209" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="E207" s="70" t="s">
+      <c r="E209" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="F207" s="45" t="s">
+      <c r="F209" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="G207" s="34"/>
-      <c r="H207" s="45" t="s">
+      <c r="G209" s="35"/>
+      <c r="H209" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="I207" s="53"/>
-    </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E208" s="33"/>
-      <c r="F208" s="45"/>
-      <c r="G208" s="34"/>
-      <c r="H208" s="45"/>
-      <c r="I208" s="53"/>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B209" s="7" t="s">
+      <c r="I209" s="54"/>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E210" s="34"/>
+      <c r="F210" s="46"/>
+      <c r="G210" s="35"/>
+      <c r="H210" s="46"/>
+      <c r="I210" s="54"/>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B211" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E209" s="33"/>
-      <c r="F209" s="45"/>
-      <c r="G209" s="34"/>
-      <c r="H209" s="45"/>
-      <c r="I209" s="53"/>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B210" s="5"/>
-      <c r="E210" s="33"/>
-      <c r="F210" s="45"/>
-      <c r="G210" s="34"/>
-      <c r="H210" s="45"/>
-      <c r="I210" s="53"/>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B211" s="9" t="s">
+      <c r="E211" s="34"/>
+      <c r="F211" s="46"/>
+      <c r="G211" s="35"/>
+      <c r="H211" s="46"/>
+      <c r="I211" s="54"/>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B212" s="5"/>
+      <c r="E212" s="34"/>
+      <c r="F212" s="46"/>
+      <c r="G212" s="35"/>
+      <c r="H212" s="46"/>
+      <c r="I212" s="54"/>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B213" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E211" s="33"/>
-      <c r="F211" s="45"/>
-      <c r="G211" s="34"/>
-      <c r="H211" s="45"/>
-      <c r="I211" s="53"/>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
-        <v>221</v>
-      </c>
-      <c r="C212" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="E212" s="33"/>
-      <c r="F212" s="45"/>
-      <c r="G212" s="34"/>
-      <c r="H212" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="I212" s="53"/>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
-        <v>222</v>
-      </c>
-      <c r="C213" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="E213" s="33"/>
-      <c r="F213" s="45"/>
-      <c r="G213" s="34"/>
-      <c r="H213" s="45" t="s">
-        <v>390</v>
-      </c>
-      <c r="I213" s="53"/>
+      <c r="E213" s="34"/>
+      <c r="F213" s="46"/>
+      <c r="G213" s="35"/>
+      <c r="H213" s="46"/>
+      <c r="I213" s="54"/>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
+        <v>221</v>
+      </c>
+      <c r="C214" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="E214" s="34"/>
+      <c r="F214" s="46"/>
+      <c r="G214" s="35"/>
+      <c r="H214" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="I214" s="54"/>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>222</v>
+      </c>
+      <c r="C215" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="E215" s="34"/>
+      <c r="F215" s="46"/>
+      <c r="G215" s="35"/>
+      <c r="H215" s="46" t="s">
+        <v>390</v>
+      </c>
+      <c r="I215" s="54"/>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
         <v>223</v>
       </c>
-      <c r="C214" s="23" t="s">
+      <c r="C216" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="E214" s="33"/>
-      <c r="F214" s="45"/>
-      <c r="G214" s="34"/>
-      <c r="H214" s="45" t="s">
+      <c r="E216" s="34"/>
+      <c r="F216" s="46"/>
+      <c r="G216" s="35"/>
+      <c r="H216" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="I214" s="53"/>
-    </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E215" s="33"/>
-      <c r="F215" s="45"/>
-      <c r="G215" s="34"/>
-      <c r="H215" s="45"/>
-      <c r="I215" s="53"/>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B216" s="9" t="s">
+      <c r="I216" s="54"/>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E217" s="34"/>
+      <c r="F217" s="46"/>
+      <c r="G217" s="35"/>
+      <c r="H217" s="46"/>
+      <c r="I217" s="54"/>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B218" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="E216" s="33"/>
-      <c r="F216" s="45"/>
-      <c r="G216" s="34"/>
-      <c r="H216" s="45"/>
-      <c r="I216" s="53"/>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B217" t="s">
+      <c r="E218" s="34"/>
+      <c r="F218" s="46"/>
+      <c r="G218" s="35"/>
+      <c r="H218" s="46"/>
+      <c r="I218" s="54"/>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
         <v>226</v>
       </c>
-      <c r="C217" s="29" t="s">
+      <c r="C219" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="E217" s="33"/>
-      <c r="F217" s="45"/>
-      <c r="G217" s="34"/>
-      <c r="H217" s="45" t="s">
+      <c r="E219" s="34"/>
+      <c r="F219" s="46"/>
+      <c r="G219" s="35"/>
+      <c r="H219" s="46" t="s">
         <v>389</v>
       </c>
-      <c r="I217" s="53"/>
-    </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E218" s="33"/>
-      <c r="F218" s="45"/>
-      <c r="G218" s="34"/>
-      <c r="H218" s="45"/>
-      <c r="I218" s="53"/>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B219" s="7" t="s">
+      <c r="I219" s="54"/>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E220" s="34"/>
+      <c r="F220" s="46"/>
+      <c r="G220" s="35"/>
+      <c r="H220" s="46"/>
+      <c r="I220" s="54"/>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B221" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E219" s="33"/>
-      <c r="F219" s="45"/>
-      <c r="G219" s="34"/>
-      <c r="H219" s="45"/>
-      <c r="I219" s="53"/>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B220" t="s">
+      <c r="E221" s="34"/>
+      <c r="F221" s="46"/>
+      <c r="G221" s="35"/>
+      <c r="H221" s="46"/>
+      <c r="I221" s="54"/>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
         <v>228</v>
       </c>
-      <c r="C220" s="23" t="s">
+      <c r="C222" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="E220" s="33"/>
-      <c r="F220" s="45"/>
-      <c r="G220" s="34"/>
-      <c r="H220" s="45" t="s">
+      <c r="E222" s="34"/>
+      <c r="F222" s="46"/>
+      <c r="G222" s="35"/>
+      <c r="H222" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="I220" s="53"/>
-    </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E221" s="33"/>
-      <c r="F221" s="45"/>
-      <c r="G221" s="34"/>
-      <c r="H221" s="45"/>
-      <c r="I221" s="53"/>
-    </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B222" s="7" t="s">
+      <c r="I222" s="54"/>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E223" s="34"/>
+      <c r="F223" s="46"/>
+      <c r="G223" s="35"/>
+      <c r="H223" s="46"/>
+      <c r="I223" s="54"/>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B224" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E222" s="33"/>
-      <c r="F222" s="45"/>
-      <c r="G222" s="34"/>
-      <c r="H222" s="45"/>
-      <c r="I222" s="53"/>
-    </row>
-    <row r="223" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
+      <c r="E224" s="34"/>
+      <c r="F224" s="46"/>
+      <c r="G224" s="35"/>
+      <c r="H224" s="46"/>
+      <c r="I224" s="54"/>
+    </row>
+    <row r="225" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
         <v>231</v>
       </c>
-      <c r="C223" s="23" t="s">
+      <c r="C225" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="E223" s="70" t="s">
+      <c r="E225" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F223" s="46" t="s">
+      <c r="F225" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="G223" s="34"/>
-      <c r="H223" s="45" t="s">
+      <c r="G225" s="35"/>
+      <c r="H225" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="I223" s="53"/>
-    </row>
-    <row r="224" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
+      <c r="I225" s="54"/>
+    </row>
+    <row r="226" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
         <v>293</v>
       </c>
-      <c r="C224" s="17" t="s">
+      <c r="C226" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="D224" s="23" t="s">
+      <c r="D226" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="E224" s="70" t="s">
+      <c r="E226" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="F224" s="48" t="s">
+      <c r="F226" s="49" t="s">
         <v>427</v>
       </c>
-      <c r="G224" s="34"/>
-      <c r="H224" s="45" t="s">
+      <c r="G226" s="35"/>
+      <c r="H226" s="46" t="s">
         <v>456</v>
       </c>
-      <c r="I224" s="54" t="s">
+      <c r="I226" s="55" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B225" t="s">
-        <v>232</v>
-      </c>
-      <c r="C225" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E225" s="33"/>
-      <c r="F225" s="45"/>
-      <c r="G225" s="34"/>
-      <c r="H225" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="I225" s="53"/>
-    </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B226" t="s">
-        <v>233</v>
-      </c>
-      <c r="C226" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="E226" s="33"/>
-      <c r="F226" s="45"/>
-      <c r="G226" s="34"/>
-      <c r="H226" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="I226" s="53"/>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
+        <v>232</v>
+      </c>
+      <c r="C227" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E227" s="34"/>
+      <c r="F227" s="46"/>
+      <c r="G227" s="35"/>
+      <c r="H227" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I227" s="54"/>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>233</v>
+      </c>
+      <c r="C228" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E228" s="34"/>
+      <c r="F228" s="46"/>
+      <c r="G228" s="35"/>
+      <c r="H228" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="I228" s="54"/>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
         <v>234</v>
       </c>
-      <c r="C227" s="23" t="s">
+      <c r="C229" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="E227" s="70" t="s">
+      <c r="E229" s="71" t="s">
         <v>296</v>
       </c>
-      <c r="F227" s="47" t="s">
+      <c r="F229" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="G227" s="34"/>
-      <c r="H227" s="45" t="s">
+      <c r="G229" s="35"/>
+      <c r="H229" s="46" t="s">
         <v>457</v>
       </c>
-      <c r="I227" s="53" t="s">
+      <c r="I229" s="54" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="228" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B228" t="s">
+    <row r="230" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B230" t="s">
         <v>235</v>
       </c>
-      <c r="C228" s="23" t="s">
+      <c r="C230" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="E228" s="42"/>
-      <c r="F228" s="51"/>
-      <c r="G228" s="43"/>
-      <c r="H228" s="63" t="s">
+      <c r="E230" s="43"/>
+      <c r="F230" s="52"/>
+      <c r="G230" s="44"/>
+      <c r="H230" s="64" t="s">
         <v>292</v>
       </c>
-      <c r="I228" s="56"/>
+      <c r="I230" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1AA337-F7E2-411B-87CA-C517544CF3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D530E5-7974-4355-9BBA-B8C164D112A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="487">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;CLASS_DEC&gt; ? Abstract ? const </t>
-  </si>
-  <si>
-    <t>&lt;CLASS_DEC&gt; ? &lt;VAR_OBJ_G&gt;</t>
   </si>
   <si>
     <t>protected ? null</t>
@@ -457,9 +454,6 @@
     <t>&lt;GLOBAL_DEC&gt;</t>
   </si>
   <si>
-    <t>&lt;VAR_OBJ_G&gt;</t>
-  </si>
-  <si>
     <t>&lt;VAR_ARR_G&gt;</t>
   </si>
   <si>
@@ -467,12 +461,6 @@
   </si>
   <si>
     <t>&lt;LIST_G&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;TYPE&gt; </t>
-  </si>
-  <si>
-    <t>&lt;ARR_CLASS_DEC&gt; ? id &lt;IS_INIT_G&gt;</t>
   </si>
   <si>
     <t>, ?  ;</t>
@@ -857,9 +845,6 @@
 &lt;CONST&gt; </t>
   </si>
   <si>
-    <t>&lt;IS_OBJ_G&gt;</t>
-  </si>
-  <si>
     <t>Access Modifier</t>
   </si>
   <si>
@@ -1046,18 +1031,7 @@
     <t>SELECTION SET</t>
   </si>
   <si>
-    <t>def?Class?Abstract?const ?
-dt?id? Null</t>
-  </si>
-  <si>
     <t>mdm ? Null</t>
-  </si>
-  <si>
-    <t>import?Begin?def ?Class?Abstract?const?dt?id?null</t>
-  </si>
-  <si>
-    <t>Begin?def?Class?Abstract?const?
-dt?id?null</t>
   </si>
   <si>
     <t xml:space="preserve">F&lt;ARR_INIT&gt;  ? F&lt;ACCESSMOD&gt; ?  id </t>
@@ -1143,14 +1117,8 @@
     <t xml:space="preserve">&lt;DOT_id4&gt;   </t>
   </si>
   <si>
-    <t>dt ? id</t>
-  </si>
-  <si>
     <t>Begin?  def ?  Class ? Abstract ? 
 const ? dt ? id ? ~</t>
-  </si>
-  <si>
-    <t>[ ? id ? =  ? ;</t>
   </si>
   <si>
     <t>&lt;EXPR&gt;  ? &lt;id_TO_EXPR&gt;</t>
@@ -1363,17 +1331,6 @@
     <t>SELECTION SET NULL</t>
   </si>
   <si>
-    <t>def?Class?Abstract?const ?
-dt?id</t>
-  </si>
-  <si>
-    <t>Begin?def?Class?Abstract?const?
-dt?id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">import?Begin? def? Class? Abstract?const?dt?id </t>
-  </si>
-  <si>
     <t>id ?protected?private</t>
   </si>
   <si>
@@ -1471,9 +1428,6 @@
   </si>
   <si>
     <t>&lt;ID_STAR&gt;</t>
-  </si>
-  <si>
-    <t>dt ? str ? Id</t>
   </si>
   <si>
     <t>&lt;DOT_ARR_REF&gt;</t>
@@ -1541,6 +1495,55 @@
     <t>dot ? = ? Cma ? inc_dec ? NaN ? power 
 ?  mdm ?  pm ? Rop ? And ? Or ? Null?
  [ ? (</t>
+  </si>
+  <si>
+    <t>id ? dt ? Str</t>
+  </si>
+  <si>
+    <t>&lt;ARR_TYPE&gt;?&lt;VAR_G&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;VAR_G&gt; </t>
+  </si>
+  <si>
+    <t>&lt;ACCESSMOD&gt;?id</t>
+  </si>
+  <si>
+    <t>protected?private?null?id</t>
+  </si>
+  <si>
+    <t>protected?private?id</t>
+  </si>
+  <si>
+    <t>[ ?protected?private?null?id</t>
+  </si>
+  <si>
+    <t>[ ?protected?private?id</t>
+  </si>
+  <si>
+    <t>def?Class?Abstract?const ?
+id ? dt ? str? Null</t>
+  </si>
+  <si>
+    <t>def?Class?Abstract?const ?
+id ? dt ?str</t>
+  </si>
+  <si>
+    <t>begin?def?Class?Abstract?const?
+id ? dt ?str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import?begin? def? Class? Abstract?const?dt?id </t>
+  </si>
+  <si>
+    <t>&lt;CLASS_DEC&gt; ?&lt;GLOBAL_DEC&gt;</t>
+  </si>
+  <si>
+    <t>begin?def?Class?Abstract?const?
+id ? dt ? str?null</t>
+  </si>
+  <si>
+    <t>import?begin?def ?Class?Abstract?const?dt?id?null</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1853,17 +1856,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1971,6 +1963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2050,7 +2043,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
@@ -2338,10 +2330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I230"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:A60"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2365,22 +2357,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="E1" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>288</v>
+        <v>235</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>283</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>335</v>
-      </c>
-      <c r="I1" s="53" t="s">
-        <v>429</v>
+        <v>283</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -2390,31 +2382,31 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="34"/>
-      <c r="F2" s="46"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="35"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="54"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="F3" s="46"/>
+        <v>329</v>
+      </c>
+      <c r="F3" s="47"/>
       <c r="G3" s="35"/>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="54" t="s">
-        <v>334</v>
+      <c r="I3" s="55" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -2422,23 +2414,23 @@
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="E4" s="71" t="s">
+        <v>486</v>
+      </c>
+      <c r="E4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="48" t="s">
-        <v>334</v>
+      <c r="F4" s="49" t="s">
+        <v>329</v>
       </c>
       <c r="G4" s="35"/>
-      <c r="H4" s="51" t="s">
-        <v>432</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>334</v>
+      <c r="H4" s="52" t="s">
+        <v>483</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -2446,23 +2438,23 @@
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E5" s="71" t="s">
+        <v>485</v>
+      </c>
+      <c r="E5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="48" t="s">
-        <v>334</v>
+      <c r="F5" s="49" t="s">
+        <v>329</v>
       </c>
       <c r="G5" s="35"/>
-      <c r="H5" s="51" t="s">
-        <v>431</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>334</v>
+      <c r="H5" s="52" t="s">
+        <v>482</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -2470,23 +2462,23 @@
         <v>7</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="E6" s="71" t="s">
-        <v>290</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>334</v>
+        <v>480</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>329</v>
       </c>
       <c r="G6" s="35"/>
-      <c r="H6" s="51" t="s">
-        <v>430</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>334</v>
+      <c r="H6" s="52" t="s">
+        <v>481</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -2494,20 +2486,20 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="34"/>
-      <c r="F7" s="46"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="35"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="54"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="34"/>
-      <c r="F8" s="46"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="35"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="54"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -2516,10 +2508,10 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="34"/>
-      <c r="F9" s="46"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="54"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -2529,61 +2521,61 @@
         <v>9</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="E10" s="72" t="s">
-        <v>329</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>330</v>
+        <v>381</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>324</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>325</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>427</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>391</v>
-      </c>
-      <c r="I10" s="54"/>
+        <v>417</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="I10" s="55"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="46"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="54"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="55"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="34"/>
-      <c r="F12" s="46"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="54"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="55"/>
     </row>
     <row r="13" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="E13" s="71" t="s">
-        <v>328</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>427</v>
+        <v>378</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>417</v>
       </c>
       <c r="G13" s="37"/>
-      <c r="H13" s="47" t="s">
-        <v>461</v>
-      </c>
-      <c r="I13" s="54"/>
+      <c r="H13" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="I13" s="55"/>
     </row>
     <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -2593,20 +2585,20 @@
         <v>28</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>300</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>298</v>
+        <v>382</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>293</v>
       </c>
       <c r="G14" s="35"/>
-      <c r="H14" s="47" t="s">
-        <v>462</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>298</v>
+      <c r="H14" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -2614,10 +2606,10 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="46"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="54"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="55"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
@@ -2626,10 +2618,10 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="46"/>
+      <c r="F16" s="47"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="54"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="55"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
@@ -2640,22 +2632,22 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="34"/>
-      <c r="F17" s="46"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="59" t="s">
-        <v>463</v>
-      </c>
-      <c r="I17" s="54"/>
+      <c r="H17" s="60" t="s">
+        <v>450</v>
+      </c>
+      <c r="I17" s="55"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="34"/>
-      <c r="F18" s="46"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="54"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="55"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
@@ -2664,10 +2656,10 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="46"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="54"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="55"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
@@ -2678,12 +2670,12 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="46"/>
+      <c r="F20" s="47"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="54"/>
+      <c r="I20" s="55"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -2694,54 +2686,54 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="34"/>
-      <c r="F21" s="46"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="54"/>
+      <c r="I21" s="55"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="34"/>
-      <c r="F22" s="46"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="35"/>
-      <c r="H22" s="59" t="s">
-        <v>272</v>
-      </c>
-      <c r="I22" s="54"/>
+      <c r="H22" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="I22" s="55"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="34"/>
-      <c r="F23" s="46"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="I23" s="54"/>
+      <c r="H23" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="I23" s="55"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="34"/>
-      <c r="F24" s="46"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="54"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="55"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
@@ -2750,42 +2742,42 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="34"/>
-      <c r="F25" s="46"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="35"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="54"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="55"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="34"/>
-      <c r="F26" s="46"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="35"/>
-      <c r="H26" s="59" t="s">
-        <v>394</v>
-      </c>
-      <c r="I26" s="54"/>
+      <c r="H26" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I26" s="55"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="34"/>
-      <c r="F27" s="46"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="35"/>
-      <c r="H27" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="I27" s="54"/>
+      <c r="H27" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="I27" s="55"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
@@ -2795,38 +2787,38 @@
         <v>29</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="71" t="s">
-        <v>340</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>301</v>
+      <c r="E28" s="72" t="s">
+        <v>332</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>296</v>
       </c>
       <c r="G28" s="35"/>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="54"/>
+      <c r="I28" s="55"/>
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="72" t="s">
-        <v>341</v>
-      </c>
-      <c r="F29" s="48" t="s">
-        <v>301</v>
+      <c r="E29" s="73" t="s">
+        <v>333</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>296</v>
       </c>
       <c r="G29" s="35"/>
-      <c r="H29" s="59" t="s">
+      <c r="H29" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="54" t="s">
-        <v>433</v>
+      <c r="I29" s="55" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -2834,38 +2826,38 @@
         <v>27</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="34"/>
-      <c r="F30" s="46"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="35"/>
-      <c r="H30" s="59" t="s">
-        <v>387</v>
-      </c>
-      <c r="I30" s="54"/>
+      <c r="H30" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="I30" s="55"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="34"/>
-      <c r="F31" s="46"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="35"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="54"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="55"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="34"/>
-      <c r="F32" s="46"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="35"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="54"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="55"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
@@ -2875,18 +2867,18 @@
         <v>31</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="71" t="s">
-        <v>321</v>
-      </c>
-      <c r="F33" s="65" t="s">
-        <v>304</v>
+      <c r="E33" s="72" t="s">
+        <v>316</v>
+      </c>
+      <c r="F33" s="66" t="s">
+        <v>299</v>
       </c>
       <c r="G33" s="35"/>
-      <c r="H33" s="59" t="s">
-        <v>434</v>
-      </c>
-      <c r="I33" s="54" t="s">
-        <v>304</v>
+      <c r="H33" s="60" t="s">
+        <v>421</v>
+      </c>
+      <c r="I33" s="55" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -2894,30 +2886,30 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="34"/>
-      <c r="F34" s="46"/>
+      <c r="F34" s="47"/>
       <c r="G34" s="35"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="54"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="55"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="34"/>
-      <c r="F35" s="46"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="35"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="54"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="55"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="34"/>
-      <c r="F36" s="46"/>
+      <c r="F36" s="47"/>
       <c r="G36" s="35"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="54"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="55"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
@@ -2926,10 +2918,10 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="34"/>
-      <c r="F37" s="46"/>
+      <c r="F37" s="47"/>
       <c r="G37" s="35"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="54"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="55"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
@@ -2940,12 +2932,12 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="46"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="59" t="s">
+      <c r="H38" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="54"/>
+      <c r="I38" s="55"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -2956,30 +2948,30 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="46"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="35"/>
-      <c r="H39" s="59" t="s">
+      <c r="H39" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="54"/>
+      <c r="I39" s="55"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="46"/>
+      <c r="F40" s="47"/>
       <c r="G40" s="35"/>
-      <c r="H40" s="59" t="s">
-        <v>395</v>
-      </c>
-      <c r="I40" s="54"/>
+      <c r="H40" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="I40" s="55"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -2990,82 +2982,82 @@
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="34"/>
-      <c r="F41" s="46"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="59" t="s">
+      <c r="H41" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="I41" s="54"/>
+      <c r="I41" s="55"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="E42" s="34"/>
-      <c r="F42" s="46"/>
+      <c r="F42" s="47"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="59" t="s">
-        <v>396</v>
-      </c>
-      <c r="I42" s="54"/>
+      <c r="H42" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I42" s="55"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="34"/>
-      <c r="F43" s="46"/>
+      <c r="F43" s="47"/>
       <c r="G43" s="35"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="54"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="55"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E44" s="34"/>
-      <c r="F44" s="46"/>
+      <c r="F44" s="47"/>
       <c r="G44" s="35"/>
-      <c r="H44" s="59" t="s">
-        <v>345</v>
-      </c>
-      <c r="I44" s="54"/>
+      <c r="H44" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="I44" s="55"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="E45" s="71" t="s">
+        <v>338</v>
+      </c>
+      <c r="E45" s="72" t="s">
         <v>39</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G45" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="I45" s="54" t="s">
+      <c r="H45" s="60" t="s">
+        <v>422</v>
+      </c>
+      <c r="I45" s="55" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3074,10 +3066,10 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="34"/>
-      <c r="F46" s="46"/>
+      <c r="F46" s="47"/>
       <c r="G46" s="35"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="54"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="55"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
@@ -3086,10 +3078,10 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="34"/>
-      <c r="F47" s="46"/>
+      <c r="F47" s="47"/>
       <c r="G47" s="35"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="54"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="55"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
@@ -3100,151 +3092,150 @@
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="34"/>
-      <c r="F48" s="46"/>
+      <c r="F48" s="47"/>
       <c r="G48" s="35"/>
-      <c r="H48" s="59" t="s">
+      <c r="H48" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="I48" s="54"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="55"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E49" s="34"/>
-      <c r="F49" s="46"/>
+      <c r="F49" s="47"/>
       <c r="G49" s="35"/>
-      <c r="H49" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="I49" s="54"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H49" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="I49" s="55"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="E50" s="34"/>
-      <c r="F50" s="46"/>
+      <c r="F50" s="47"/>
       <c r="G50" s="35"/>
-      <c r="H50" s="59" t="s">
-        <v>398</v>
-      </c>
-      <c r="I50" s="54"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H50" s="60" t="s">
+        <v>388</v>
+      </c>
+      <c r="I50" s="55"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E51" s="34"/>
-      <c r="F51" s="46"/>
+      <c r="F51" s="47"/>
       <c r="G51" s="35"/>
-      <c r="H51" s="59" t="s">
-        <v>399</v>
-      </c>
-      <c r="I51" s="54"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H51" s="60" t="s">
+        <v>389</v>
+      </c>
+      <c r="I51" s="55"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="E52" s="34"/>
-      <c r="F52" s="46"/>
+      <c r="F52" s="47"/>
       <c r="G52" s="35"/>
-      <c r="H52" s="59" t="s">
-        <v>398</v>
-      </c>
-      <c r="I52" s="54"/>
-    </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H52" s="60" t="s">
+        <v>388</v>
+      </c>
+      <c r="I52" s="55"/>
+    </row>
+    <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="E53" s="71" t="s">
-        <v>303</v>
+        <v>390</v>
+      </c>
+      <c r="E53" s="72" t="s">
+        <v>298</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G53" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H53" s="59" t="s">
-        <v>436</v>
-      </c>
-      <c r="I53" s="54" t="s">
+      <c r="H53" s="60" t="s">
+        <v>423</v>
+      </c>
+      <c r="I53" s="55" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="34"/>
-      <c r="F54" s="46"/>
+      <c r="F54" s="47"/>
       <c r="G54" s="35"/>
-      <c r="H54" s="59" t="s">
-        <v>401</v>
-      </c>
-      <c r="I54" s="54"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H54" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="I54" s="55"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="34"/>
-      <c r="F55" s="46"/>
+      <c r="F55" s="47"/>
       <c r="G55" s="35"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="54"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H55" s="47"/>
+      <c r="I55" s="55"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="34"/>
-      <c r="F56" s="46"/>
+      <c r="F56" s="47"/>
       <c r="G56" s="35"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="54"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="55"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>48</v>
       </c>
@@ -3252,110 +3243,107 @@
         <v>55</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E57" s="34"/>
-      <c r="F57" s="46"/>
+      <c r="F57" s="47"/>
       <c r="G57" s="35"/>
-      <c r="H57" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="I57" s="54"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
+      <c r="H57" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="I57" s="55"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>56</v>
+        <v>484</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="E58" s="34"/>
-      <c r="F58" s="46"/>
+      <c r="F58" s="47"/>
       <c r="G58" s="35"/>
-      <c r="H58" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="I58" s="54"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
+      <c r="H58" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="I58" s="55"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="34"/>
-      <c r="F59" s="46"/>
+      <c r="F59" s="47"/>
       <c r="G59" s="35"/>
-      <c r="H59" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="I59" s="54"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
+      <c r="H59" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="I59" s="55"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="F60" s="46"/>
+        <v>299</v>
+      </c>
+      <c r="F60" s="47"/>
       <c r="G60" s="35"/>
-      <c r="H60" s="59" t="s">
-        <v>437</v>
-      </c>
-      <c r="I60" s="54" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H60" s="60" t="s">
+        <v>424</v>
+      </c>
+      <c r="I60" s="55" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="46"/>
+      <c r="F61" s="47"/>
       <c r="G61" s="35"/>
-      <c r="H61" s="59" t="s">
-        <v>438</v>
-      </c>
-      <c r="I61" s="54" t="s">
+      <c r="H61" s="60" t="s">
+        <v>425</v>
+      </c>
+      <c r="I61" s="55" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="34"/>
-      <c r="F62" s="46"/>
+      <c r="F62" s="47"/>
       <c r="G62" s="35"/>
-      <c r="H62" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="I62" s="54"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H62" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="I62" s="55"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>54</v>
       </c>
@@ -3364,429 +3352,429 @@
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="34"/>
-      <c r="F63" s="46"/>
+      <c r="F63" s="47"/>
       <c r="G63" s="35"/>
-      <c r="H63" s="59" t="s">
+      <c r="H63" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="54"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I63" s="55"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="34"/>
-      <c r="F64" s="46"/>
+      <c r="F64" s="47"/>
       <c r="G64" s="35"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="54"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="55"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="34"/>
-      <c r="F65" s="46"/>
+      <c r="F65" s="47"/>
       <c r="G65" s="35"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="54"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="55"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E66" s="34"/>
-      <c r="F66" s="46"/>
+      <c r="F66" s="47"/>
       <c r="G66" s="35"/>
-      <c r="H66" s="59" t="s">
-        <v>257</v>
-      </c>
-      <c r="I66" s="54"/>
+      <c r="H66" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="I66" s="55"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="E67" s="71" t="s">
-        <v>331</v>
-      </c>
-      <c r="F67" s="46" t="s">
-        <v>257</v>
+        <v>254</v>
+      </c>
+      <c r="E67" s="72" t="s">
+        <v>326</v>
+      </c>
+      <c r="F67" s="47" t="s">
+        <v>253</v>
       </c>
       <c r="G67" s="35"/>
-      <c r="H67" s="59" t="s">
-        <v>258</v>
-      </c>
-      <c r="I67" s="54"/>
+      <c r="H67" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="I67" s="55"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="34"/>
-      <c r="F68" s="46"/>
+      <c r="F68" s="47"/>
       <c r="G68" s="35"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="54"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="55"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="34"/>
-      <c r="F69" s="46"/>
+      <c r="F69" s="47"/>
       <c r="G69" s="35"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="54"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="55"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="34"/>
-      <c r="F70" s="46"/>
+      <c r="F70" s="47"/>
       <c r="G70" s="35"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="54"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="55"/>
     </row>
     <row r="71" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="E71" s="71" t="s">
-        <v>352</v>
-      </c>
-      <c r="F71" s="66" t="s">
-        <v>403</v>
+        <v>300</v>
+      </c>
+      <c r="E71" s="72" t="s">
+        <v>344</v>
+      </c>
+      <c r="F71" s="67" t="s">
+        <v>393</v>
       </c>
       <c r="G71" s="40" t="s">
-        <v>404</v>
-      </c>
-      <c r="H71" s="51" t="s">
-        <v>439</v>
-      </c>
-      <c r="I71" s="55" t="s">
-        <v>404</v>
+        <v>394</v>
+      </c>
+      <c r="H71" s="52" t="s">
+        <v>426</v>
+      </c>
+      <c r="I71" s="56" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D72" s="1"/>
-      <c r="E72" s="73" t="s">
-        <v>353</v>
-      </c>
-      <c r="F72" s="67" t="s">
-        <v>405</v>
+      <c r="E72" s="74" t="s">
+        <v>345</v>
+      </c>
+      <c r="F72" s="68" t="s">
+        <v>395</v>
       </c>
       <c r="G72" s="35" t="s">
-        <v>406</v>
-      </c>
-      <c r="H72" s="59" t="s">
+        <v>396</v>
+      </c>
+      <c r="H72" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I72" s="54"/>
+      <c r="I72" s="55"/>
     </row>
     <row r="73" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D73" s="1"/>
-      <c r="E73" s="71" t="s">
-        <v>322</v>
+      <c r="E73" s="72" t="s">
+        <v>317</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G73" s="35"/>
-      <c r="H73" s="51" t="s">
-        <v>440</v>
-      </c>
-      <c r="I73" s="55" t="s">
-        <v>406</v>
+      <c r="H73" s="52" t="s">
+        <v>427</v>
+      </c>
+      <c r="I73" s="56" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="34"/>
-      <c r="F74" s="46"/>
+      <c r="F74" s="47"/>
       <c r="G74" s="35"/>
-      <c r="H74" s="59" t="s">
+      <c r="H74" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="I74" s="54"/>
+      <c r="I74" s="55"/>
     </row>
     <row r="75" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E75" s="34"/>
-      <c r="F75" s="46"/>
+      <c r="F75" s="47"/>
       <c r="G75" s="35"/>
-      <c r="H75" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="I75" s="54"/>
+      <c r="H75" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="I75" s="55"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C76" s="23" t="s">
         <v>41</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="34"/>
-      <c r="F76" s="46"/>
+      <c r="F76" s="47"/>
       <c r="G76" s="35"/>
-      <c r="H76" s="46" t="s">
+      <c r="H76" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="I76" s="54"/>
+      <c r="I76" s="55"/>
     </row>
     <row r="77" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="E77" s="71" t="s">
-        <v>312</v>
-      </c>
-      <c r="F77" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="E77" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="F77" s="47" t="s">
         <v>41</v>
       </c>
       <c r="G77" s="35"/>
-      <c r="H77" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="I77" s="54"/>
+      <c r="H77" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="I77" s="55"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="34"/>
-      <c r="F78" s="46"/>
+      <c r="F78" s="47"/>
       <c r="G78" s="35"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="54"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="55"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="34"/>
-      <c r="F79" s="46"/>
+      <c r="F79" s="47"/>
       <c r="G79" s="35"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="54"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="55"/>
     </row>
     <row r="80" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="34"/>
-      <c r="F80" s="46"/>
+      <c r="F80" s="47"/>
       <c r="G80" s="35"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="54"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="55"/>
     </row>
     <row r="81" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="E81" s="71" t="s">
-        <v>356</v>
+        <v>279</v>
+      </c>
+      <c r="E81" s="72" t="s">
+        <v>348</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G81" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="H81" s="60" t="s">
-        <v>441</v>
-      </c>
-      <c r="I81" s="55" t="s">
-        <v>407</v>
+        <v>397</v>
+      </c>
+      <c r="H81" s="61" t="s">
+        <v>428</v>
+      </c>
+      <c r="I81" s="56" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="E82" s="71" t="s">
-        <v>326</v>
+        <v>281</v>
+      </c>
+      <c r="E82" s="72" t="s">
+        <v>321</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G82" s="35"/>
-      <c r="H82" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="I82" s="54"/>
+      <c r="H82" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="I82" s="55"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D83" s="1"/>
-      <c r="E83" s="71" t="s">
-        <v>325</v>
-      </c>
-      <c r="F83" s="68" t="s">
-        <v>326</v>
+      <c r="E83" s="72" t="s">
+        <v>320</v>
+      </c>
+      <c r="F83" s="69" t="s">
+        <v>321</v>
       </c>
       <c r="G83" s="35"/>
-      <c r="H83" s="59" t="s">
-        <v>285</v>
-      </c>
-      <c r="I83" s="54"/>
+      <c r="H83" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="I83" s="55"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="34"/>
-      <c r="F84" s="46"/>
+      <c r="F84" s="47"/>
       <c r="G84" s="35"/>
-      <c r="H84" s="46"/>
-      <c r="I84" s="54"/>
+      <c r="H84" s="47"/>
+      <c r="I84" s="55"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="34"/>
-      <c r="F85" s="46"/>
+      <c r="F85" s="47"/>
       <c r="G85" s="35"/>
-      <c r="H85" s="46"/>
-      <c r="I85" s="54"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="55"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="34"/>
-      <c r="F86" s="46"/>
+      <c r="F86" s="47"/>
       <c r="G86" s="35"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="54"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="55"/>
     </row>
     <row r="87" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="E87" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="E87" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="47" t="s">
-        <v>427</v>
+      <c r="F87" s="48" t="s">
+        <v>417</v>
       </c>
       <c r="G87" s="35"/>
-      <c r="H87" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="I87" s="54"/>
+      <c r="H87" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="I87" s="55"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="31"/>
       <c r="B88" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E88" s="34"/>
-      <c r="F88" s="46"/>
+      <c r="F88" s="47"/>
       <c r="G88" s="35"/>
-      <c r="H88" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="I88" s="54"/>
+      <c r="H88" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="I88" s="55"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="31"/>
@@ -3794,422 +3782,422 @@
       <c r="C89" s="12"/>
       <c r="D89" s="20"/>
       <c r="E89" s="34"/>
-      <c r="F89" s="46"/>
+      <c r="F89" s="47"/>
       <c r="G89" s="35"/>
-      <c r="H89" s="59"/>
-      <c r="I89" s="54"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="55"/>
     </row>
     <row r="90" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E90" s="34"/>
-      <c r="F90" s="46"/>
+      <c r="F90" s="47"/>
       <c r="G90" s="35"/>
-      <c r="H90" s="51" t="s">
-        <v>380</v>
-      </c>
-      <c r="I90" s="54"/>
+      <c r="H90" s="52" t="s">
+        <v>370</v>
+      </c>
+      <c r="I90" s="55"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="31"/>
       <c r="B91" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="F91" s="47"/>
+        <v>353</v>
+      </c>
+      <c r="F91" s="48"/>
       <c r="G91" s="35"/>
-      <c r="H91" s="59" t="s">
-        <v>361</v>
-      </c>
-      <c r="I91" s="54"/>
+      <c r="H91" s="60" t="s">
+        <v>353</v>
+      </c>
+      <c r="I91" s="55"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="34"/>
-      <c r="F92" s="46"/>
+      <c r="F92" s="47"/>
       <c r="G92" s="35"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="54"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="55"/>
     </row>
     <row r="93" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="E93" s="72" t="s">
-        <v>477</v>
-      </c>
-      <c r="F93" s="46" t="s">
-        <v>96</v>
+        <v>398</v>
+      </c>
+      <c r="E93" s="73" t="s">
+        <v>463</v>
+      </c>
+      <c r="F93" s="47" t="s">
+        <v>95</v>
       </c>
       <c r="G93" s="35"/>
-      <c r="H93" s="47" t="s">
-        <v>408</v>
-      </c>
-      <c r="I93" s="54"/>
+      <c r="H93" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="I93" s="55"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E94" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="F94" s="46"/>
+        <v>299</v>
+      </c>
+      <c r="F94" s="47"/>
       <c r="G94" s="35"/>
-      <c r="H94" s="59" t="s">
-        <v>382</v>
-      </c>
-      <c r="I94" s="54"/>
+      <c r="H94" s="60" t="s">
+        <v>372</v>
+      </c>
+      <c r="I94" s="55"/>
     </row>
     <row r="95" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="F95" s="46" t="s">
-        <v>96</v>
+        <v>303</v>
+      </c>
+      <c r="F95" s="47" t="s">
+        <v>95</v>
       </c>
       <c r="G95" s="35"/>
-      <c r="H95" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="I95" s="54"/>
+      <c r="H95" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="I95" s="55"/>
     </row>
     <row r="96" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="E96" s="71" t="s">
-        <v>307</v>
+        <v>471</v>
+      </c>
+      <c r="E96" s="72" t="s">
+        <v>302</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="H96" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="I96" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="H96" s="52" t="s">
+        <v>471</v>
+      </c>
+      <c r="I96" s="55" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="E97" s="71" t="s">
-        <v>306</v>
+        <v>469</v>
+      </c>
+      <c r="E97" s="72" t="s">
+        <v>301</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="H97" s="51" t="s">
-        <v>483</v>
-      </c>
-      <c r="I97" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="H97" s="52" t="s">
+        <v>469</v>
+      </c>
+      <c r="I97" s="55" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="E98" s="71" t="s">
-        <v>306</v>
+        <v>399</v>
+      </c>
+      <c r="E98" s="72" t="s">
+        <v>301</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="H98" s="51" t="s">
-        <v>443</v>
-      </c>
-      <c r="I98" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="H98" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="I98" s="55" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="C99" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="E99" s="73" t="s">
+        <v>304</v>
+      </c>
+      <c r="F99" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="G99" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="D99" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="E99" s="72" t="s">
-        <v>309</v>
-      </c>
-      <c r="F99" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="G99" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="H99" s="59" t="s">
-        <v>442</v>
-      </c>
-      <c r="I99" s="54" t="s">
-        <v>96</v>
+      <c r="H99" s="60" t="s">
+        <v>429</v>
+      </c>
+      <c r="I99" s="55" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="34"/>
-      <c r="F100" s="46"/>
+      <c r="F100" s="47"/>
       <c r="G100" s="35"/>
-      <c r="H100" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="I100" s="54"/>
+      <c r="H100" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="I100" s="55"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="34"/>
-      <c r="F101" s="46"/>
+      <c r="F101" s="47"/>
       <c r="G101" s="35"/>
-      <c r="H101" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="I101" s="54"/>
+      <c r="H101" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="I101" s="55"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="34"/>
-      <c r="F102" s="46"/>
+      <c r="F102" s="47"/>
       <c r="G102" s="35"/>
-      <c r="H102" s="46"/>
-      <c r="I102" s="54"/>
+      <c r="H102" s="47"/>
+      <c r="I102" s="55"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="34"/>
-      <c r="F103" s="46"/>
+      <c r="F103" s="47"/>
       <c r="G103" s="35"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="54"/>
+      <c r="H103" s="47"/>
+      <c r="I103" s="55"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="34"/>
-      <c r="F104" s="46"/>
+      <c r="F104" s="47"/>
       <c r="G104" s="35"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="54"/>
+      <c r="H104" s="47"/>
+      <c r="I104" s="55"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E105" s="34"/>
-      <c r="F105" s="46"/>
+      <c r="F105" s="47"/>
       <c r="G105" s="35"/>
-      <c r="H105" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="I105" s="54"/>
+      <c r="H105" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="I105" s="55"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E106" s="34"/>
-      <c r="F106" s="46"/>
+      <c r="F106" s="47"/>
       <c r="G106" s="35"/>
-      <c r="H106" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="I106" s="54"/>
+      <c r="H106" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="I106" s="55"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="34"/>
-      <c r="F107" s="46"/>
+      <c r="F107" s="47"/>
       <c r="G107" s="35"/>
-      <c r="H107" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="I107" s="54"/>
+      <c r="H107" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="I107" s="55"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E108" s="34"/>
-      <c r="F108" s="46"/>
+      <c r="F108" s="47"/>
       <c r="G108" s="35"/>
-      <c r="H108" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="I108" s="54"/>
+      <c r="H108" s="62" t="s">
+        <v>275</v>
+      </c>
+      <c r="I108" s="55"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="34"/>
-      <c r="F109" s="46"/>
+      <c r="F109" s="47"/>
       <c r="G109" s="35"/>
-      <c r="H109" s="46"/>
-      <c r="I109" s="54"/>
+      <c r="H109" s="47"/>
+      <c r="I109" s="55"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="34"/>
-      <c r="F110" s="46"/>
+      <c r="F110" s="47"/>
       <c r="G110" s="35"/>
-      <c r="H110" s="46"/>
-      <c r="I110" s="54"/>
+      <c r="H110" s="47"/>
+      <c r="I110" s="55"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="31"/>
       <c r="B111" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="34"/>
-      <c r="F111" s="46"/>
+      <c r="F111" s="47"/>
       <c r="G111" s="35"/>
-      <c r="H111" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="I111" s="54"/>
+      <c r="H111" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="I111" s="55"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="31"/>
       <c r="B112" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E112" s="34"/>
-      <c r="F112" s="46"/>
+      <c r="F112" s="47"/>
       <c r="G112" s="35"/>
-      <c r="H112" s="59" t="s">
-        <v>266</v>
-      </c>
-      <c r="I112" s="54"/>
+      <c r="H112" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="I112" s="55"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="31"/>
@@ -4217,37 +4205,37 @@
       <c r="C113" s="12"/>
       <c r="D113" s="20"/>
       <c r="E113" s="34"/>
-      <c r="F113" s="46"/>
+      <c r="F113" s="47"/>
       <c r="G113" s="35"/>
-      <c r="H113" s="59"/>
-      <c r="I113" s="54"/>
+      <c r="H113" s="60"/>
+      <c r="I113" s="55"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="34"/>
-      <c r="F114" s="46"/>
+      <c r="F114" s="47"/>
       <c r="G114" s="35"/>
-      <c r="H114" s="46"/>
-      <c r="I114" s="54"/>
+      <c r="H114" s="47"/>
+      <c r="I114" s="55"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="34"/>
-      <c r="F115" s="46"/>
+      <c r="F115" s="47"/>
       <c r="G115" s="35"/>
-      <c r="H115" s="46"/>
-      <c r="I115" s="54"/>
+      <c r="H115" s="47"/>
+      <c r="I115" s="55"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="31"/>
       <c r="B116" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>25</v>
@@ -4256,17 +4244,17 @@
         <v>29</v>
       </c>
       <c r="E116" s="34"/>
-      <c r="F116" s="47"/>
+      <c r="F116" s="48"/>
       <c r="G116" s="35"/>
-      <c r="H116" s="59" t="s">
+      <c r="H116" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I116" s="54"/>
+      <c r="I116" s="55"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="31"/>
       <c r="B117" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>25</v>
@@ -4275,1747 +4263,1719 @@
         <v>29</v>
       </c>
       <c r="E117" s="34"/>
-      <c r="F117" s="47"/>
+      <c r="F117" s="48"/>
       <c r="G117" s="37"/>
-      <c r="H117" s="59" t="s">
+      <c r="H117" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I117" s="54"/>
+      <c r="I117" s="55"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="31"/>
       <c r="B118" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="38"/>
-      <c r="F118" s="47"/>
+      <c r="F118" s="48"/>
       <c r="G118" s="35"/>
-      <c r="H118" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="I118" s="54"/>
+      <c r="H118" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="I118" s="55"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="31"/>
       <c r="B119" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="34"/>
-      <c r="F119" s="47"/>
+      <c r="F119" s="48"/>
       <c r="G119" s="35"/>
-      <c r="H119" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="I119" s="54"/>
+      <c r="H119" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="I119" s="55"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="31"/>
       <c r="B120" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E120" s="34"/>
-      <c r="F120" s="47"/>
+      <c r="F120" s="48"/>
       <c r="G120" s="35"/>
-      <c r="H120" s="51" t="s">
-        <v>269</v>
-      </c>
-      <c r="I120" s="54"/>
+      <c r="H120" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="I120" s="55"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="31"/>
       <c r="B121" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E121" s="34"/>
-      <c r="F121" s="46"/>
+      <c r="F121" s="47"/>
       <c r="G121" s="35"/>
-      <c r="H121" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="I121" s="54"/>
+      <c r="H121" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="I121" s="55"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="31"/>
       <c r="B122" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D122" s="22" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E122" s="34"/>
-      <c r="F122" s="46"/>
+      <c r="F122" s="47"/>
       <c r="G122" s="35"/>
-      <c r="H122" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="I122" s="54"/>
+      <c r="H122" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="I122" s="55"/>
     </row>
     <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="31"/>
       <c r="B123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="E123" s="34"/>
       <c r="F123" s="3"/>
-      <c r="G123" s="79"/>
-      <c r="H123" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="I123" s="56"/>
+      <c r="G123" s="80"/>
+      <c r="H123" s="48" t="s">
+        <v>460</v>
+      </c>
+      <c r="I123" s="57"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="31"/>
       <c r="B124" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E124" s="34"/>
       <c r="G124" s="41"/>
-      <c r="H124" s="46"/>
-      <c r="I124" s="54"/>
+      <c r="H124" s="47"/>
+      <c r="I124" s="55"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="31"/>
       <c r="B125" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="C125" s="27" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="E125" s="34"/>
       <c r="G125" s="41"/>
-      <c r="H125" s="46" t="s">
-        <v>468</v>
-      </c>
-      <c r="I125" s="54"/>
+      <c r="H125" s="47" t="s">
+        <v>454</v>
+      </c>
+      <c r="I125" s="55"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="31"/>
       <c r="B126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="E126" s="34"/>
       <c r="F126" s="3"/>
       <c r="G126" s="35"/>
-      <c r="H126" s="46" t="s">
-        <v>473</v>
-      </c>
-      <c r="I126" s="54"/>
+      <c r="H126" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="I126" s="55"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="31"/>
       <c r="B127" t="s">
-        <v>121</v>
-      </c>
-      <c r="C127" s="77" t="s">
-        <v>470</v>
-      </c>
-      <c r="D127" s="78" t="s">
-        <v>471</v>
+        <v>120</v>
+      </c>
+      <c r="C127" s="78" t="s">
+        <v>456</v>
+      </c>
+      <c r="D127" s="79" t="s">
+        <v>457</v>
       </c>
       <c r="E127" s="34"/>
-      <c r="F127" s="50"/>
+      <c r="F127" s="51"/>
       <c r="G127" s="35"/>
-      <c r="H127" s="62" t="s">
-        <v>471</v>
-      </c>
-      <c r="I127" s="54"/>
+      <c r="H127" s="63" t="s">
+        <v>457</v>
+      </c>
+      <c r="I127" s="55"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="31"/>
       <c r="B128" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E128" s="34"/>
-      <c r="F128" s="50"/>
+      <c r="F128" s="51"/>
       <c r="G128" s="35"/>
-      <c r="H128" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="I128" s="54"/>
+      <c r="H128" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="I128" s="55"/>
     </row>
     <row r="129" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="31"/>
       <c r="B129" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D129" s="22" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="E129" s="34"/>
-      <c r="F129" s="46"/>
+      <c r="F129" s="47"/>
       <c r="G129" s="35"/>
-      <c r="H129" s="47" t="s">
-        <v>383</v>
-      </c>
-      <c r="I129" s="54"/>
+      <c r="H129" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="I129" s="55"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="31"/>
       <c r="E130" s="34"/>
-      <c r="F130" s="46"/>
+      <c r="F130" s="47"/>
       <c r="G130" s="35"/>
-      <c r="H130" s="46"/>
-      <c r="I130" s="54"/>
+      <c r="H130" s="47"/>
+      <c r="I130" s="55"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="31"/>
       <c r="B131" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="E131" s="34"/>
-      <c r="F131" s="46"/>
+      <c r="F131" s="47"/>
       <c r="G131" s="35"/>
-      <c r="H131" s="46" t="s">
-        <v>480</v>
-      </c>
-      <c r="I131" s="54"/>
+      <c r="H131" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="I131" s="55"/>
     </row>
     <row r="132" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="31"/>
       <c r="B132" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D132" s="22" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="E132" s="34"/>
-      <c r="F132" s="46"/>
+      <c r="F132" s="47"/>
       <c r="G132" s="35"/>
-      <c r="H132" s="47" t="s">
-        <v>383</v>
-      </c>
-      <c r="I132" s="54"/>
+      <c r="H132" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="I132" s="55"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E133" s="34"/>
-      <c r="F133" s="46"/>
+      <c r="F133" s="47"/>
       <c r="G133" s="35"/>
-      <c r="H133" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="I133" s="54"/>
+      <c r="H133" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="I133" s="55"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C134" s="27" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="E134" s="34"/>
-      <c r="F134" s="46"/>
+      <c r="F134" s="47"/>
       <c r="G134" s="35"/>
-      <c r="H134" s="46" t="s">
-        <v>480</v>
-      </c>
-      <c r="I134" s="54"/>
+      <c r="H134" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="I134" s="55"/>
     </row>
     <row r="135" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
+        <v>138</v>
+      </c>
+      <c r="C135" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C135" s="14" t="s">
-        <v>140</v>
-      </c>
       <c r="D135" s="22" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="E135" s="34"/>
-      <c r="F135" s="46"/>
+      <c r="F135" s="47"/>
       <c r="G135" s="35"/>
-      <c r="H135" s="47" t="s">
-        <v>383</v>
-      </c>
-      <c r="I135" s="54"/>
+      <c r="H135" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="I135" s="55"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C136" s="27" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="E136" s="34"/>
-      <c r="F136" s="46"/>
+      <c r="F136" s="47"/>
       <c r="G136" s="35"/>
-      <c r="H136" s="46" t="s">
-        <v>480</v>
-      </c>
-      <c r="I136" s="54"/>
+      <c r="H136" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="I136" s="55"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E137" s="34"/>
-      <c r="F137" s="46"/>
+      <c r="F137" s="47"/>
       <c r="G137" s="35"/>
-      <c r="H137" s="46"/>
-      <c r="I137" s="54"/>
+      <c r="H137" s="47"/>
+      <c r="I137" s="55"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E138" s="34"/>
-      <c r="F138" s="46"/>
+      <c r="F138" s="47"/>
       <c r="G138" s="35"/>
-      <c r="H138" s="46"/>
-      <c r="I138" s="54"/>
+      <c r="H138" s="47"/>
+      <c r="I138" s="55"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E139" s="34"/>
-      <c r="F139" s="46"/>
+      <c r="F139" s="47"/>
       <c r="G139" s="35"/>
-      <c r="H139" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="I139" s="54"/>
+      <c r="H139" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="I139" s="55"/>
     </row>
     <row r="140" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E140" s="34"/>
-      <c r="F140" s="46"/>
+      <c r="F140" s="47"/>
       <c r="G140" s="35"/>
-      <c r="H140" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="I140" s="54"/>
+      <c r="H140" s="52" t="s">
+        <v>374</v>
+      </c>
+      <c r="I140" s="55"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E141" s="34"/>
-      <c r="F141" s="46"/>
+      <c r="F141" s="47"/>
       <c r="G141" s="42"/>
-      <c r="H141" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="I141" s="54"/>
+      <c r="H141" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="I141" s="55"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B142" s="4"/>
       <c r="E142" s="34"/>
-      <c r="F142" s="46"/>
+      <c r="F142" s="47"/>
       <c r="G142" s="35"/>
-      <c r="H142" s="46"/>
-      <c r="I142" s="54"/>
+      <c r="H142" s="47"/>
+      <c r="I142" s="55"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E143" s="34"/>
+      <c r="F143" s="47"/>
+      <c r="G143" s="35"/>
+      <c r="H143" s="47"/>
+      <c r="I143" s="55"/>
+    </row>
+    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
         <v>141</v>
       </c>
-      <c r="E143" s="34"/>
-      <c r="F143" s="46"/>
-      <c r="G143" s="35"/>
-      <c r="H143" s="46"/>
-      <c r="I143" s="54"/>
-    </row>
-    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="31"/>
-      <c r="B144" t="s">
+      <c r="C144" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="E144" s="74" t="s">
+        <v>327</v>
+      </c>
+      <c r="F144" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="G144" s="43"/>
+      <c r="H144" s="47" t="s">
+        <v>472</v>
+      </c>
+      <c r="I144" s="55"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
         <v>142</v>
       </c>
-      <c r="C144" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D144" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="E144" s="73" t="s">
-        <v>332</v>
-      </c>
-      <c r="F144" s="47" t="s">
-        <v>367</v>
-      </c>
-      <c r="G144" s="35"/>
-      <c r="H144" s="46" t="s">
-        <v>366</v>
-      </c>
-      <c r="I144" s="54"/>
-    </row>
-    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="31"/>
-      <c r="B145" t="s">
-        <v>274</v>
-      </c>
-      <c r="C145" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="D145" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="E145" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="F145" s="47" t="s">
-        <v>367</v>
-      </c>
-      <c r="G145" s="35"/>
-      <c r="H145" s="46" t="s">
-        <v>465</v>
-      </c>
-      <c r="I145" s="54"/>
+      <c r="C145" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="D145" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="E145" s="34"/>
+      <c r="F145" s="48"/>
+      <c r="G145" s="43"/>
+      <c r="H145" s="60" t="s">
+        <v>479</v>
+      </c>
+      <c r="I145" s="55"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="31"/>
       <c r="B146" t="s">
+        <v>474</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="E146" s="34"/>
+      <c r="F146" s="48"/>
+      <c r="G146" s="43"/>
+      <c r="H146" s="60" t="s">
+        <v>477</v>
+      </c>
+      <c r="I146" s="55"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
         <v>143</v>
       </c>
-      <c r="C146" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D146" s="29" t="s">
-        <v>394</v>
-      </c>
-      <c r="E146" s="80"/>
-      <c r="F146" s="46"/>
-      <c r="G146" s="35"/>
-      <c r="H146" s="46" t="s">
-        <v>394</v>
-      </c>
-      <c r="I146" s="54"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="31"/>
-      <c r="B147" t="s">
-        <v>144</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D147" s="20" t="s">
-        <v>368</v>
-      </c>
+      <c r="C147" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D147" s="3"/>
       <c r="E147" s="34"/>
       <c r="F147" s="47"/>
       <c r="G147" s="35"/>
-      <c r="H147" s="59" t="s">
-        <v>368</v>
-      </c>
-      <c r="I147" s="54"/>
+      <c r="H147" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="I147" s="55"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="31"/>
       <c r="B148" t="s">
+        <v>144</v>
+      </c>
+      <c r="C148" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C148" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="D148" s="3"/>
       <c r="E148" s="34"/>
-      <c r="F148" s="46"/>
+      <c r="F148" s="47"/>
       <c r="G148" s="35"/>
-      <c r="H148" s="62" t="s">
-        <v>265</v>
-      </c>
-      <c r="I148" s="54"/>
+      <c r="H148" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="I148" s="55"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="31"/>
-      <c r="B149" t="s">
-        <v>146</v>
-      </c>
-      <c r="C149" s="23" t="s">
-        <v>149</v>
-      </c>
       <c r="E149" s="34"/>
-      <c r="F149" s="46"/>
+      <c r="F149" s="47"/>
       <c r="G149" s="35"/>
-      <c r="H149" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="I149" s="54"/>
+      <c r="H149" s="47"/>
+      <c r="I149" s="55"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="31"/>
+      <c r="B150" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="E150" s="34"/>
-      <c r="F150" s="46"/>
+      <c r="F150" s="47"/>
       <c r="G150" s="35"/>
-      <c r="H150" s="46"/>
-      <c r="I150" s="54"/>
+      <c r="H150" s="47"/>
+      <c r="I150" s="55"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="31"/>
-      <c r="B151" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E151" s="34"/>
-      <c r="F151" s="46"/>
+      <c r="B151" t="s">
+        <v>147</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D151" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E151" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="F151" s="47" t="s">
+        <v>253</v>
+      </c>
       <c r="G151" s="35"/>
-      <c r="H151" s="46"/>
-      <c r="I151" s="54"/>
+      <c r="H151" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="I151" s="55"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="31"/>
       <c r="B152" t="s">
-        <v>151</v>
-      </c>
-      <c r="C152" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="D152" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="E152" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="F152" s="46" t="s">
-        <v>257</v>
+        <v>148</v>
+      </c>
+      <c r="C152" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E152" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="F152" s="47" t="s">
+        <v>253</v>
       </c>
       <c r="G152" s="35"/>
-      <c r="H152" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="I152" s="54"/>
+      <c r="H152" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="I152" s="55"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="31"/>
       <c r="B153" t="s">
-        <v>152</v>
-      </c>
-      <c r="C153" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="E153" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="F153" s="46" t="s">
-        <v>257</v>
+        <v>149</v>
+      </c>
+      <c r="C153" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D153" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="E153" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="F153" s="47" t="s">
+        <v>253</v>
       </c>
       <c r="G153" s="35"/>
-      <c r="H153" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="I153" s="54"/>
+      <c r="H153" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="I153" s="55"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="31"/>
       <c r="B154" t="s">
-        <v>153</v>
-      </c>
-      <c r="C154" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D154" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="E154" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="F154" s="46" t="s">
-        <v>257</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C154" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D154" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="E154" s="34"/>
       <c r="G154" s="35"/>
-      <c r="H154" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="I154" s="54"/>
+      <c r="H154" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="I154" s="55"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="31"/>
       <c r="B155" t="s">
-        <v>154</v>
-      </c>
-      <c r="C155" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D155" s="29" t="s">
-        <v>402</v>
+        <v>151</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>126</v>
       </c>
       <c r="E155" s="34"/>
+      <c r="F155" s="47"/>
       <c r="G155" s="35"/>
-      <c r="H155" s="46" t="s">
-        <v>402</v>
-      </c>
-      <c r="I155" s="54"/>
+      <c r="H155" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="I155" s="55"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="31"/>
       <c r="B156" t="s">
+        <v>152</v>
+      </c>
+      <c r="C156" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C156" s="26" t="s">
-        <v>127</v>
-      </c>
       <c r="E156" s="34"/>
-      <c r="F156" s="46"/>
+      <c r="F156" s="47"/>
       <c r="G156" s="35"/>
-      <c r="H156" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="I156" s="54"/>
+      <c r="H156" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="I156" s="55"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="31"/>
-      <c r="B157" t="s">
+      <c r="E157" s="34"/>
+      <c r="F157" s="47"/>
+      <c r="G157" s="35"/>
+      <c r="H157" s="47"/>
+      <c r="I157" s="55"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B158" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C157" s="23" t="s">
+      <c r="E158" s="34"/>
+      <c r="F158" s="47"/>
+      <c r="G158" s="35"/>
+      <c r="H158" s="47"/>
+      <c r="I158" s="55"/>
+    </row>
+    <row r="159" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="E157" s="34"/>
-      <c r="F157" s="46"/>
-      <c r="G157" s="35"/>
-      <c r="H157" s="46" t="s">
+      <c r="D159" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="E159" s="72" t="s">
+        <v>306</v>
+      </c>
+      <c r="F159" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="G159" s="35"/>
+      <c r="H159" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="I159" s="55"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>158</v>
+      </c>
+      <c r="C160" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E160" s="72" t="s">
+        <v>359</v>
+      </c>
+      <c r="F160" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="G160" s="35"/>
+      <c r="H160" s="47" t="s">
+        <v>432</v>
+      </c>
+      <c r="I160" s="55" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
         <v>159</v>
       </c>
-      <c r="I157" s="54"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="31"/>
-      <c r="E158" s="34"/>
-      <c r="F158" s="46"/>
-      <c r="G158" s="35"/>
-      <c r="H158" s="46"/>
-      <c r="I158" s="54"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B159" s="7" t="s">
+      <c r="C161" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D161" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="E161" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="F161" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="G161" s="35"/>
+      <c r="H161" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="I161" s="55"/>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
         <v>160</v>
       </c>
-      <c r="E159" s="34"/>
-      <c r="F159" s="46"/>
-      <c r="G159" s="35"/>
-      <c r="H159" s="46"/>
-      <c r="I159" s="54"/>
-    </row>
-    <row r="160" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
+      <c r="C162" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="E162" s="75" t="s">
+        <v>360</v>
+      </c>
+      <c r="F162" s="67" t="s">
+        <v>308</v>
+      </c>
+      <c r="G162" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="H162" s="47" t="s">
+        <v>433</v>
+      </c>
+      <c r="I162" s="55" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
         <v>161</v>
       </c>
-      <c r="C160" s="14" t="s">
+      <c r="C163" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D160" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="E160" s="71" t="s">
+      <c r="D163" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="E163" s="76" t="s">
+        <v>309</v>
+      </c>
+      <c r="F163" s="47" t="s">
+        <v>403</v>
+      </c>
+      <c r="G163" s="35"/>
+      <c r="H163" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="I163" s="55"/>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>162</v>
+      </c>
+      <c r="C164" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="E164" s="75" t="s">
+        <v>361</v>
+      </c>
+      <c r="F164" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="G164" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="H164" s="47" t="s">
+        <v>434</v>
+      </c>
+      <c r="I164" s="55" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>163</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D165" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="E165" s="72" t="s">
         <v>311</v>
       </c>
-      <c r="F160" s="46" t="s">
-        <v>444</v>
-      </c>
-      <c r="G160" s="35"/>
-      <c r="H160" s="51" t="s">
-        <v>385</v>
-      </c>
-      <c r="I160" s="54"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>162</v>
-      </c>
-      <c r="C161" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="E161" s="71" t="s">
-        <v>369</v>
-      </c>
-      <c r="F161" s="49" t="s">
-        <v>444</v>
-      </c>
-      <c r="G161" s="35"/>
-      <c r="H161" s="46" t="s">
+      <c r="F165" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="G165" s="35"/>
+      <c r="H165" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="I165" s="55"/>
+    </row>
+    <row r="166" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>164</v>
+      </c>
+      <c r="C166" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E166" s="74" t="s">
+        <v>362</v>
+      </c>
+      <c r="F166" s="67" t="s">
+        <v>409</v>
+      </c>
+      <c r="G166" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="H166" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="I166" s="55" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>165</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D167" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="E167" s="72" t="s">
+        <v>312</v>
+      </c>
+      <c r="F167" s="47" t="s">
+        <v>410</v>
+      </c>
+      <c r="G167" s="35"/>
+      <c r="H167" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="I167" s="55"/>
+    </row>
+    <row r="168" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>166</v>
+      </c>
+      <c r="C168" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="E168" s="74" t="s">
+        <v>363</v>
+      </c>
+      <c r="F168" s="67" t="s">
+        <v>411</v>
+      </c>
+      <c r="G168" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="H168" s="48" t="s">
+        <v>438</v>
+      </c>
+      <c r="I168" s="56" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>167</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D169" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="E169" s="72" t="s">
+        <v>314</v>
+      </c>
+      <c r="F169" s="47" t="s">
+        <v>413</v>
+      </c>
+      <c r="G169" s="35"/>
+      <c r="H169" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="I169" s="55"/>
+    </row>
+    <row r="170" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>94</v>
+      </c>
+      <c r="C170" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E170" s="74" t="s">
+        <v>364</v>
+      </c>
+      <c r="F170" s="67" t="s">
+        <v>414</v>
+      </c>
+      <c r="G170" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="H170" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="I170" s="56" t="s">
         <v>445</v>
       </c>
-      <c r="I161" s="54" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>163</v>
-      </c>
-      <c r="C162" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D162" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="E162" s="71" t="s">
-        <v>315</v>
-      </c>
-      <c r="F162" s="46" t="s">
-        <v>320</v>
-      </c>
-      <c r="G162" s="35"/>
-      <c r="H162" s="51" t="s">
-        <v>385</v>
-      </c>
-      <c r="I162" s="54"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>164</v>
-      </c>
-      <c r="C163" s="29" t="s">
-        <v>412</v>
-      </c>
-      <c r="E163" s="74" t="s">
-        <v>370</v>
-      </c>
-      <c r="F163" s="66" t="s">
+    </row>
+    <row r="171" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>168</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D171" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="E171" s="72" t="s">
         <v>313</v>
       </c>
-      <c r="G163" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="H163" s="46" t="s">
-        <v>446</v>
-      </c>
-      <c r="I163" s="54" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>165</v>
-      </c>
-      <c r="C164" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D164" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="E164" s="75" t="s">
-        <v>314</v>
-      </c>
-      <c r="F164" s="46" t="s">
-        <v>413</v>
-      </c>
-      <c r="G164" s="35"/>
-      <c r="H164" s="51" t="s">
-        <v>385</v>
-      </c>
-      <c r="I164" s="54"/>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>166</v>
-      </c>
-      <c r="C165" s="23" t="s">
+      <c r="F171" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="E165" s="74" t="s">
-        <v>371</v>
-      </c>
-      <c r="F165" s="66" t="s">
-        <v>414</v>
-      </c>
-      <c r="G165" s="39" t="s">
-        <v>415</v>
-      </c>
-      <c r="H165" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="I165" s="54" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
-        <v>167</v>
-      </c>
-      <c r="C166" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D166" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="E166" s="71" t="s">
-        <v>316</v>
-      </c>
-      <c r="F166" s="46" t="s">
-        <v>418</v>
-      </c>
-      <c r="G166" s="35"/>
-      <c r="H166" s="51" t="s">
-        <v>385</v>
-      </c>
-      <c r="I166" s="54"/>
-    </row>
-    <row r="167" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
-        <v>168</v>
-      </c>
-      <c r="C167" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="E167" s="73" t="s">
-        <v>372</v>
-      </c>
-      <c r="F167" s="66" t="s">
-        <v>419</v>
-      </c>
-      <c r="G167" s="39" t="s">
-        <v>417</v>
-      </c>
-      <c r="H167" s="46" t="s">
-        <v>449</v>
-      </c>
-      <c r="I167" s="54" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>169</v>
-      </c>
-      <c r="C168" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D168" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="E168" s="71" t="s">
-        <v>317</v>
-      </c>
-      <c r="F168" s="46" t="s">
-        <v>420</v>
-      </c>
-      <c r="G168" s="35"/>
-      <c r="H168" s="51" t="s">
-        <v>385</v>
-      </c>
-      <c r="I168" s="54"/>
-    </row>
-    <row r="169" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
-        <v>170</v>
-      </c>
-      <c r="C169" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="E169" s="73" t="s">
-        <v>373</v>
-      </c>
-      <c r="F169" s="66" t="s">
-        <v>421</v>
-      </c>
-      <c r="G169" s="40" t="s">
-        <v>422</v>
-      </c>
-      <c r="H169" s="47" t="s">
-        <v>451</v>
-      </c>
-      <c r="I169" s="55" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
-        <v>171</v>
-      </c>
-      <c r="C170" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D170" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="E170" s="71" t="s">
-        <v>319</v>
-      </c>
-      <c r="F170" s="46" t="s">
-        <v>423</v>
-      </c>
-      <c r="G170" s="35"/>
-      <c r="H170" s="51" t="s">
-        <v>385</v>
-      </c>
-      <c r="I170" s="54"/>
-    </row>
-    <row r="171" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>95</v>
-      </c>
-      <c r="C171" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="E171" s="73" t="s">
-        <v>374</v>
-      </c>
-      <c r="F171" s="66" t="s">
-        <v>424</v>
-      </c>
-      <c r="G171" s="40" t="s">
-        <v>425</v>
-      </c>
-      <c r="H171" s="46" t="s">
-        <v>453</v>
-      </c>
-      <c r="I171" s="55" t="s">
-        <v>458</v>
-      </c>
+      <c r="G171" s="35"/>
+      <c r="H171" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="I171" s="55"/>
     </row>
     <row r="172" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="E172" s="71" t="s">
-        <v>318</v>
-      </c>
-      <c r="F172" s="46" t="s">
-        <v>426</v>
+        <v>375</v>
+      </c>
+      <c r="E172" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="F172" s="47" t="s">
+        <v>416</v>
       </c>
       <c r="G172" s="35"/>
-      <c r="H172" s="51" t="s">
-        <v>385</v>
-      </c>
-      <c r="I172" s="54"/>
-    </row>
-    <row r="173" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
-        <v>173</v>
-      </c>
-      <c r="C173" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D173" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="E173" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="F173" s="46" t="s">
-        <v>426</v>
-      </c>
+      <c r="H172" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="I172" s="55"/>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E173" s="34"/>
+      <c r="F173" s="47"/>
       <c r="G173" s="35"/>
-      <c r="H173" s="51" t="s">
-        <v>385</v>
-      </c>
-      <c r="I173" s="54"/>
+      <c r="H173" s="47"/>
+      <c r="I173" s="55"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B174" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="E174" s="34"/>
-      <c r="F174" s="46"/>
+      <c r="F174" s="47"/>
       <c r="G174" s="35"/>
-      <c r="H174" s="46"/>
-      <c r="I174" s="54"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B175" s="7" t="s">
+      <c r="H174" s="47"/>
+      <c r="I174" s="55"/>
+    </row>
+    <row r="175" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B175" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C175" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="E175" s="34"/>
-      <c r="F175" s="46"/>
-      <c r="G175" s="35"/>
-      <c r="H175" s="46"/>
-      <c r="I175" s="54"/>
-    </row>
-    <row r="176" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B176" s="6" t="s">
+      <c r="D175" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="E175" s="72" t="s">
+        <v>365</v>
+      </c>
+      <c r="F175" s="70" t="s">
+        <v>401</v>
+      </c>
+      <c r="G175" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="H175" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="I175" s="55"/>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>177</v>
+      </c>
+      <c r="C176" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C176" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D176" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="E176" s="71" t="s">
-        <v>375</v>
-      </c>
-      <c r="F176" s="69" t="s">
-        <v>411</v>
-      </c>
-      <c r="G176" s="35" t="s">
-        <v>407</v>
-      </c>
-      <c r="H176" s="51" t="s">
-        <v>386</v>
-      </c>
-      <c r="I176" s="54"/>
+      <c r="E176" s="34"/>
+      <c r="F176" s="47"/>
+      <c r="G176" s="35"/>
+      <c r="H176" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="I176" s="55"/>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
+        <v>178</v>
+      </c>
+      <c r="C177" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C177" s="23" t="s">
+      <c r="E177" s="34"/>
+      <c r="F177" s="47"/>
+      <c r="G177" s="35"/>
+      <c r="H177" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="I177" s="55"/>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E178" s="34"/>
+      <c r="F178" s="47"/>
+      <c r="G178" s="35"/>
+      <c r="H178" s="47"/>
+      <c r="I178" s="55"/>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B179" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E179" s="34"/>
+      <c r="F179" s="47"/>
+      <c r="G179" s="35"/>
+      <c r="H179" s="47"/>
+      <c r="I179" s="55"/>
+    </row>
+    <row r="180" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B180" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C180" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E180" s="34"/>
+      <c r="F180" s="47"/>
+      <c r="G180" s="35"/>
+      <c r="H180" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="I180" s="55"/>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C181" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="E181" s="34"/>
+      <c r="F181" s="47"/>
+      <c r="G181" s="35"/>
+      <c r="H181" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="I181" s="55"/>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E182" s="34"/>
+      <c r="F182" s="47"/>
+      <c r="G182" s="35"/>
+      <c r="H182" s="47"/>
+      <c r="I182" s="55"/>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B183" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E177" s="34"/>
-      <c r="F177" s="46"/>
-      <c r="G177" s="35"/>
-      <c r="H177" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="I177" s="54"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
-        <v>182</v>
-      </c>
-      <c r="C178" s="23" t="s">
+      <c r="E183" s="34"/>
+      <c r="F183" s="47"/>
+      <c r="G183" s="35"/>
+      <c r="H183" s="47"/>
+      <c r="I183" s="55"/>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B184" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E184" s="34"/>
+      <c r="F184" s="47"/>
+      <c r="G184" s="35"/>
+      <c r="H184" s="47"/>
+      <c r="I184" s="55"/>
+    </row>
+    <row r="185" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
         <v>185</v>
       </c>
-      <c r="E178" s="34"/>
-      <c r="F178" s="46"/>
-      <c r="G178" s="35"/>
-      <c r="H178" s="46" t="s">
+      <c r="C185" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E185" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" s="48" t="s">
+        <v>417</v>
+      </c>
+      <c r="G185" s="35"/>
+      <c r="H185" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="I185" s="55"/>
+    </row>
+    <row r="186" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>186</v>
+      </c>
+      <c r="C186" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E186" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="I178" s="54"/>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E179" s="34"/>
-      <c r="F179" s="46"/>
-      <c r="G179" s="35"/>
-      <c r="H179" s="46"/>
-      <c r="I179" s="54"/>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B180" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E180" s="34"/>
-      <c r="F180" s="46"/>
-      <c r="G180" s="35"/>
-      <c r="H180" s="46"/>
-      <c r="I180" s="54"/>
-    </row>
-    <row r="181" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B181" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C181" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E181" s="34"/>
-      <c r="F181" s="46"/>
-      <c r="G181" s="35"/>
-      <c r="H181" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="I181" s="54"/>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B182" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C182" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="E182" s="34"/>
-      <c r="F182" s="46"/>
-      <c r="G182" s="35"/>
-      <c r="H182" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="I182" s="54"/>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E183" s="34"/>
-      <c r="F183" s="46"/>
-      <c r="G183" s="35"/>
-      <c r="H183" s="46"/>
-      <c r="I183" s="54"/>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B184" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E184" s="34"/>
-      <c r="F184" s="46"/>
-      <c r="G184" s="35"/>
-      <c r="H184" s="46"/>
-      <c r="I184" s="54"/>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B185" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E185" s="34"/>
-      <c r="F185" s="46"/>
-      <c r="G185" s="35"/>
-      <c r="H185" s="46"/>
-      <c r="I185" s="54"/>
-    </row>
-    <row r="186" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>189</v>
-      </c>
-      <c r="C186" s="23" t="s">
+      <c r="F186" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="G186" s="35"/>
+      <c r="H186" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="I186" s="56" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E187" s="34"/>
+      <c r="F187" s="47"/>
+      <c r="G187" s="35"/>
+      <c r="H187" s="47"/>
+      <c r="I187" s="55"/>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B188" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E188" s="34"/>
+      <c r="F188" s="47"/>
+      <c r="G188" s="35"/>
+      <c r="H188" s="47"/>
+      <c r="I188" s="55"/>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
         <v>191</v>
       </c>
-      <c r="E186" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F186" s="47" t="s">
-        <v>427</v>
-      </c>
-      <c r="G186" s="35"/>
-      <c r="H186" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="I186" s="54"/>
-    </row>
-    <row r="187" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>190</v>
-      </c>
-      <c r="C187" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="E187" s="71" t="s">
-        <v>189</v>
-      </c>
-      <c r="F187" s="49" t="s">
-        <v>427</v>
-      </c>
-      <c r="G187" s="35"/>
-      <c r="H187" s="46" t="s">
-        <v>454</v>
-      </c>
-      <c r="I187" s="55" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E188" s="34"/>
-      <c r="F188" s="46"/>
-      <c r="G188" s="35"/>
-      <c r="H188" s="46"/>
-      <c r="I188" s="54"/>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B189" s="9" t="s">
+      <c r="C189" s="23" t="s">
         <v>194</v>
       </c>
       <c r="E189" s="34"/>
-      <c r="F189" s="46"/>
+      <c r="F189" s="47"/>
       <c r="G189" s="35"/>
-      <c r="H189" s="46"/>
-      <c r="I189" s="54"/>
+      <c r="H189" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="I189" s="55"/>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>195</v>
-      </c>
-      <c r="C190" s="23" t="s">
-        <v>198</v>
+        <v>192</v>
+      </c>
+      <c r="C190" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D190" s="23" t="s">
+        <v>259</v>
       </c>
       <c r="E190" s="34"/>
-      <c r="F190" s="46"/>
+      <c r="F190" s="47"/>
       <c r="G190" s="35"/>
-      <c r="H190" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="I190" s="54"/>
+      <c r="H190" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="I190" s="55"/>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>196</v>
-      </c>
-      <c r="C191" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C191" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E191" s="34"/>
+      <c r="F191" s="47"/>
+      <c r="G191" s="35"/>
+      <c r="H191" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="I191" s="55"/>
+    </row>
+    <row r="192" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>286</v>
+      </c>
+      <c r="C192" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D192" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="E192" s="34"/>
+      <c r="F192" s="47"/>
+      <c r="G192" s="35"/>
+      <c r="H192" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="I192" s="55"/>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E193" s="34"/>
+      <c r="F193" s="47"/>
+      <c r="G193" s="35"/>
+      <c r="H193" s="47"/>
+      <c r="I193" s="55"/>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B194" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E194" s="34"/>
+      <c r="F194" s="47"/>
+      <c r="G194" s="35"/>
+      <c r="H194" s="47"/>
+      <c r="I194" s="55"/>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E195" s="34"/>
+      <c r="F195" s="47"/>
+      <c r="G195" s="35"/>
+      <c r="H195" s="47"/>
+      <c r="I195" s="55"/>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B196" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E196" s="34"/>
+      <c r="F196" s="47"/>
+      <c r="G196" s="35"/>
+      <c r="H196" s="47"/>
+      <c r="I196" s="55"/>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
         <v>200</v>
       </c>
-      <c r="D191" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="E191" s="34"/>
-      <c r="F191" s="46"/>
-      <c r="G191" s="35"/>
-      <c r="H191" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="I191" s="54"/>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
-        <v>197</v>
-      </c>
-      <c r="C192" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="E192" s="34"/>
-      <c r="F192" s="46"/>
-      <c r="G192" s="35"/>
-      <c r="H192" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="I192" s="54"/>
-    </row>
-    <row r="193" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
-        <v>291</v>
-      </c>
-      <c r="C193" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="D193" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="E193" s="34"/>
-      <c r="F193" s="46"/>
-      <c r="G193" s="35"/>
-      <c r="H193" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="I193" s="54"/>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E194" s="34"/>
-      <c r="F194" s="46"/>
-      <c r="G194" s="35"/>
-      <c r="H194" s="46"/>
-      <c r="I194" s="54"/>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B195" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E195" s="34"/>
-      <c r="F195" s="46"/>
-      <c r="G195" s="35"/>
-      <c r="H195" s="46"/>
-      <c r="I195" s="54"/>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E196" s="34"/>
-      <c r="F196" s="46"/>
-      <c r="G196" s="35"/>
-      <c r="H196" s="46"/>
-      <c r="I196" s="54"/>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B197" s="9" t="s">
+      <c r="C197" s="23" t="s">
         <v>202</v>
       </c>
       <c r="E197" s="34"/>
-      <c r="F197" s="46"/>
+      <c r="F197" s="47"/>
       <c r="G197" s="35"/>
-      <c r="H197" s="46"/>
-      <c r="I197" s="54"/>
+      <c r="H197" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="I197" s="55"/>
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
+        <v>201</v>
+      </c>
+      <c r="C198" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D198" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E198" s="34"/>
+      <c r="F198" s="47"/>
+      <c r="G198" s="35"/>
+      <c r="H198" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="I198" s="55"/>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E199" s="34"/>
+      <c r="F199" s="47"/>
+      <c r="G199" s="35"/>
+      <c r="H199" s="47"/>
+      <c r="I199" s="55"/>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B200" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E200" s="34"/>
+      <c r="F200" s="47"/>
+      <c r="G200" s="35"/>
+      <c r="H200" s="47"/>
+      <c r="I200" s="55"/>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
         <v>204</v>
       </c>
-      <c r="C198" s="23" t="s">
+      <c r="C201" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E198" s="34"/>
-      <c r="F198" s="46"/>
-      <c r="G198" s="35"/>
-      <c r="H198" s="46" t="s">
+      <c r="E201" s="34"/>
+      <c r="F201" s="47"/>
+      <c r="G201" s="35"/>
+      <c r="H201" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="I198" s="54"/>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>205</v>
-      </c>
-      <c r="C199" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="D199" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="E199" s="34"/>
-      <c r="F199" s="46"/>
-      <c r="G199" s="35"/>
-      <c r="H199" s="46" t="s">
-        <v>264</v>
-      </c>
-      <c r="I199" s="54"/>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E200" s="34"/>
-      <c r="F200" s="46"/>
-      <c r="G200" s="35"/>
-      <c r="H200" s="46"/>
-      <c r="I200" s="54"/>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B201" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E201" s="34"/>
-      <c r="F201" s="46"/>
-      <c r="G201" s="35"/>
-      <c r="H201" s="46"/>
-      <c r="I201" s="54"/>
+      <c r="I201" s="55"/>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
+        <v>205</v>
+      </c>
+      <c r="C202" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="E202" s="34"/>
+      <c r="F202" s="47"/>
+      <c r="G202" s="35"/>
+      <c r="H202" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="I202" s="55"/>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E203" s="34"/>
+      <c r="F203" s="47"/>
+      <c r="G203" s="35"/>
+      <c r="H203" s="47"/>
+      <c r="I203" s="55"/>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B204" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C202" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="E202" s="34"/>
-      <c r="F202" s="46"/>
-      <c r="G202" s="35"/>
-      <c r="H202" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="I202" s="54"/>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
+      <c r="E204" s="34"/>
+      <c r="F204" s="47"/>
+      <c r="G204" s="35"/>
+      <c r="H204" s="47"/>
+      <c r="I204" s="55"/>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
         <v>209</v>
       </c>
-      <c r="C203" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="E203" s="34"/>
-      <c r="F203" s="46"/>
-      <c r="G203" s="35"/>
-      <c r="H203" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="I203" s="54"/>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E204" s="34"/>
-      <c r="F204" s="46"/>
-      <c r="G204" s="35"/>
-      <c r="H204" s="46"/>
-      <c r="I204" s="54"/>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B205" s="9" t="s">
+      <c r="C205" s="23" t="s">
         <v>212</v>
       </c>
       <c r="E205" s="34"/>
-      <c r="F205" s="46"/>
+      <c r="F205" s="47"/>
       <c r="G205" s="35"/>
-      <c r="H205" s="46"/>
-      <c r="I205" s="54"/>
+      <c r="H205" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="I205" s="55"/>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
+        <v>210</v>
+      </c>
+      <c r="C206" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="C206" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="E206" s="34"/>
-      <c r="F206" s="46"/>
+      <c r="E206" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="F206" s="47"/>
       <c r="G206" s="35"/>
-      <c r="H206" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="I206" s="54"/>
-    </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H206" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="I206" s="55"/>
+    </row>
+    <row r="207" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
+        <v>211</v>
+      </c>
+      <c r="C207" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="D207" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="E207" s="72" t="s">
+        <v>366</v>
+      </c>
+      <c r="F207" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="G207" s="35"/>
+      <c r="H207" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="I207" s="55" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>367</v>
+      </c>
+      <c r="C208" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="E208" s="72" t="s">
+        <v>211</v>
+      </c>
+      <c r="F208" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="G208" s="35"/>
+      <c r="H208" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="I208" s="55"/>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E209" s="34"/>
+      <c r="F209" s="47"/>
+      <c r="G209" s="35"/>
+      <c r="H209" s="47"/>
+      <c r="I209" s="55"/>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B210" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C207" s="23" t="s">
+      <c r="E210" s="34"/>
+      <c r="F210" s="47"/>
+      <c r="G210" s="35"/>
+      <c r="H210" s="47"/>
+      <c r="I210" s="55"/>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B211" s="5"/>
+      <c r="E211" s="34"/>
+      <c r="F211" s="47"/>
+      <c r="G211" s="35"/>
+      <c r="H211" s="47"/>
+      <c r="I211" s="55"/>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B212" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E212" s="34"/>
+      <c r="F212" s="47"/>
+      <c r="G212" s="35"/>
+      <c r="H212" s="47"/>
+      <c r="I212" s="55"/>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
         <v>217</v>
       </c>
-      <c r="E207" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="F207" s="46"/>
-      <c r="G207" s="35"/>
-      <c r="H207" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="I207" s="54"/>
-    </row>
-    <row r="208" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
-        <v>215</v>
-      </c>
-      <c r="C208" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="D208" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="E208" s="71" t="s">
-        <v>376</v>
-      </c>
-      <c r="F208" s="48" t="s">
-        <v>333</v>
-      </c>
-      <c r="G208" s="35"/>
-      <c r="H208" s="46" t="s">
-        <v>455</v>
-      </c>
-      <c r="I208" s="54" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
-        <v>377</v>
-      </c>
-      <c r="C209" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E209" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="F209" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="G209" s="35"/>
-      <c r="H209" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="I209" s="54"/>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E210" s="34"/>
-      <c r="F210" s="46"/>
-      <c r="G210" s="35"/>
-      <c r="H210" s="46"/>
-      <c r="I210" s="54"/>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B211" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E211" s="34"/>
-      <c r="F211" s="46"/>
-      <c r="G211" s="35"/>
-      <c r="H211" s="46"/>
-      <c r="I211" s="54"/>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B212" s="5"/>
-      <c r="E212" s="34"/>
-      <c r="F212" s="46"/>
-      <c r="G212" s="35"/>
-      <c r="H212" s="46"/>
-      <c r="I212" s="54"/>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B213" s="9" t="s">
-        <v>219</v>
+      <c r="C213" s="23" t="s">
+        <v>220</v>
       </c>
       <c r="E213" s="34"/>
-      <c r="F213" s="46"/>
+      <c r="F213" s="47"/>
       <c r="G213" s="35"/>
-      <c r="H213" s="46"/>
-      <c r="I213" s="54"/>
+      <c r="H213" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="I213" s="55"/>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>221</v>
-      </c>
-      <c r="C214" s="23" t="s">
-        <v>224</v>
+        <v>218</v>
+      </c>
+      <c r="C214" s="29" t="s">
+        <v>380</v>
       </c>
       <c r="E214" s="34"/>
-      <c r="F214" s="46"/>
+      <c r="F214" s="47"/>
       <c r="G214" s="35"/>
-      <c r="H214" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="I214" s="54"/>
+      <c r="H214" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="I214" s="55"/>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
+        <v>219</v>
+      </c>
+      <c r="C215" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E215" s="34"/>
+      <c r="F215" s="47"/>
+      <c r="G215" s="35"/>
+      <c r="H215" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="I215" s="55"/>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E216" s="34"/>
+      <c r="F216" s="47"/>
+      <c r="G216" s="35"/>
+      <c r="H216" s="47"/>
+      <c r="I216" s="55"/>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B217" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E217" s="34"/>
+      <c r="F217" s="47"/>
+      <c r="G217" s="35"/>
+      <c r="H217" s="47"/>
+      <c r="I217" s="55"/>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
         <v>222</v>
       </c>
-      <c r="C215" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="E215" s="34"/>
-      <c r="F215" s="46"/>
-      <c r="G215" s="35"/>
-      <c r="H215" s="46" t="s">
-        <v>390</v>
-      </c>
-      <c r="I215" s="54"/>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B216" t="s">
+      <c r="C218" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="E218" s="34"/>
+      <c r="F218" s="47"/>
+      <c r="G218" s="35"/>
+      <c r="H218" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="I218" s="55"/>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E219" s="34"/>
+      <c r="F219" s="47"/>
+      <c r="G219" s="35"/>
+      <c r="H219" s="47"/>
+      <c r="I219" s="55"/>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B220" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C216" s="23" t="s">
+      <c r="E220" s="34"/>
+      <c r="F220" s="47"/>
+      <c r="G220" s="35"/>
+      <c r="H220" s="47"/>
+      <c r="I220" s="55"/>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>224</v>
+      </c>
+      <c r="C221" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="E216" s="34"/>
-      <c r="F216" s="46"/>
-      <c r="G216" s="35"/>
-      <c r="H216" s="46" t="s">
+      <c r="E221" s="34"/>
+      <c r="F221" s="47"/>
+      <c r="G221" s="35"/>
+      <c r="H221" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="I216" s="54"/>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E217" s="34"/>
-      <c r="F217" s="46"/>
-      <c r="G217" s="35"/>
-      <c r="H217" s="46"/>
-      <c r="I217" s="54"/>
-    </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B218" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E218" s="34"/>
-      <c r="F218" s="46"/>
-      <c r="G218" s="35"/>
-      <c r="H218" s="46"/>
-      <c r="I218" s="54"/>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B219" t="s">
+      <c r="I221" s="55"/>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E222" s="34"/>
+      <c r="F222" s="47"/>
+      <c r="G222" s="35"/>
+      <c r="H222" s="47"/>
+      <c r="I222" s="55"/>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B223" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C219" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="E219" s="34"/>
-      <c r="F219" s="46"/>
-      <c r="G219" s="35"/>
-      <c r="H219" s="46" t="s">
-        <v>389</v>
-      </c>
-      <c r="I219" s="54"/>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E220" s="34"/>
-      <c r="F220" s="46"/>
-      <c r="G220" s="35"/>
-      <c r="H220" s="46"/>
-      <c r="I220" s="54"/>
-    </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B221" s="7" t="s">
+      <c r="E223" s="34"/>
+      <c r="F223" s="47"/>
+      <c r="G223" s="35"/>
+      <c r="H223" s="47"/>
+      <c r="I223" s="55"/>
+    </row>
+    <row r="224" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
         <v>227</v>
       </c>
-      <c r="E221" s="34"/>
-      <c r="F221" s="46"/>
-      <c r="G221" s="35"/>
-      <c r="H221" s="46"/>
-      <c r="I221" s="54"/>
-    </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B222" t="s">
+      <c r="C224" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="E224" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F224" s="48" t="s">
+        <v>417</v>
+      </c>
+      <c r="G224" s="35"/>
+      <c r="H224" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="I224" s="55"/>
+    </row>
+    <row r="225" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>288</v>
+      </c>
+      <c r="C225" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D225" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E225" s="72" t="s">
+        <v>227</v>
+      </c>
+      <c r="F225" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="G225" s="35"/>
+      <c r="H225" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="I225" s="56" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
         <v>228</v>
       </c>
-      <c r="C222" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="E222" s="34"/>
-      <c r="F222" s="46"/>
-      <c r="G222" s="35"/>
-      <c r="H222" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="I222" s="54"/>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E223" s="34"/>
-      <c r="F223" s="46"/>
-      <c r="G223" s="35"/>
-      <c r="H223" s="46"/>
-      <c r="I223" s="54"/>
-    </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B224" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E224" s="34"/>
-      <c r="F224" s="46"/>
-      <c r="G224" s="35"/>
-      <c r="H224" s="46"/>
-      <c r="I224" s="54"/>
-    </row>
-    <row r="225" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B225" t="s">
-        <v>231</v>
-      </c>
-      <c r="C225" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="E225" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F225" s="47" t="s">
-        <v>427</v>
-      </c>
-      <c r="G225" s="35"/>
-      <c r="H225" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="I225" s="54"/>
-    </row>
-    <row r="226" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B226" t="s">
-        <v>293</v>
-      </c>
-      <c r="C226" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="D226" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="E226" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="F226" s="49" t="s">
-        <v>427</v>
-      </c>
+      <c r="C226" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E226" s="34"/>
+      <c r="F226" s="47"/>
       <c r="G226" s="35"/>
-      <c r="H226" s="46" t="s">
-        <v>456</v>
-      </c>
-      <c r="I226" s="55" t="s">
-        <v>427</v>
-      </c>
+      <c r="H226" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I226" s="55"/>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C227" s="23" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="E227" s="34"/>
-      <c r="F227" s="46"/>
+      <c r="F227" s="47"/>
       <c r="G227" s="35"/>
-      <c r="H227" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="I227" s="54"/>
+      <c r="H227" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="I227" s="55"/>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C228" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="E228" s="34"/>
-      <c r="F228" s="46"/>
+        <v>234</v>
+      </c>
+      <c r="E228" s="72" t="s">
+        <v>291</v>
+      </c>
+      <c r="F228" s="49" t="s">
+        <v>292</v>
+      </c>
       <c r="G228" s="35"/>
-      <c r="H228" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="I228" s="54"/>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H228" s="47" t="s">
+        <v>444</v>
+      </c>
+      <c r="I228" s="55" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C229" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="E229" s="71" t="s">
-        <v>296</v>
-      </c>
-      <c r="F229" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="G229" s="35"/>
-      <c r="H229" s="46" t="s">
-        <v>457</v>
-      </c>
-      <c r="I229" s="54" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="230" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B230" t="s">
-        <v>235</v>
-      </c>
-      <c r="C230" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="E230" s="43"/>
-      <c r="F230" s="52"/>
-      <c r="G230" s="44"/>
-      <c r="H230" s="64" t="s">
-        <v>292</v>
-      </c>
-      <c r="I230" s="57"/>
+        <v>287</v>
+      </c>
+      <c r="E229" s="44"/>
+      <c r="F229" s="53"/>
+      <c r="G229" s="45"/>
+      <c r="H229" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="I229" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D530E5-7974-4355-9BBA-B8C164D112A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF60F09E-CC06-415B-A3E1-31F6E34CA6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="489">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -292,9 +292,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;ASSIGN_OP&gt;    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">const ? dt ? id ? &lt;ACCESS_METH&gt; </t>
   </si>
   <si>
     <t>[ ? id ? &lt;ASSIGN&gt;</t>
@@ -745,11 +742,6 @@
 &lt;GLOBAL_DEC&gt; ? null</t>
   </si>
   <si>
-    <t>&lt;IF_ELSE&gt;?&lt;SWITCH&gt;? &lt;DEC&gt;?&lt;TRY_CATCH&gt;? 
-&lt;LOOP&gt;?&lt;DO_WHILE&gt;?&lt;BREAK&gt;?&lt;RET_ST&gt;?
- &lt;CONTINUE&gt;?&lt;THROW&gt;</t>
-  </si>
-  <si>
     <t>[ ? null</t>
   </si>
   <si>
@@ -807,9 +799,6 @@
     <t>Constants / Increment Decrement</t>
   </si>
   <si>
-    <t xml:space="preserve">const ? dt ? id ? Parent ? Self </t>
-  </si>
-  <si>
     <t>state ? default ? }</t>
   </si>
   <si>
@@ -817,9 +806,6 @@
   </si>
   <si>
     <t>=  ? ;</t>
-  </si>
-  <si>
-    <t>( ? [</t>
   </si>
   <si>
     <t>[ ? {</t>
@@ -1018,10 +1004,6 @@
     <t>F&lt;CLASS_BODY&gt;</t>
   </si>
   <si>
-    <t>F&lt;ST_BODY&gt; ?  F&lt;ST_BODY2&gt; ? &lt;ST_BODY&gt; ? 
-&lt;ST_BODY2&gt;</t>
-  </si>
-  <si>
     <t>)</t>
   </si>
   <si>
@@ -1096,12 +1078,6 @@
     <t xml:space="preserve">&lt;DOT_id2&gt;    </t>
   </si>
   <si>
-    <t>]? &lt;EXPR&gt; ? &lt;DOT_id3&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ARR_DEC&gt; ? id</t>
-  </si>
-  <si>
     <t>[  ? id</t>
   </si>
   <si>
@@ -1115,13 +1091,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;DOT_id4&gt;   </t>
-  </si>
-  <si>
-    <t>Begin?  def ?  Class ? Abstract ? 
-const ? dt ? id ? ~</t>
-  </si>
-  <si>
-    <t>&lt;EXPR&gt;  ? &lt;id_TO_EXPR&gt;</t>
   </si>
   <si>
     <t>F&lt;EXPR1&gt; ? &lt;id_TO_EXPR&gt; ? &lt;F&gt;</t>
@@ -1145,12 +1114,6 @@
     <t>&lt;INIT&gt; ? F&lt;id_TO_EXPR&gt; ? &lt;IS_FLAG&gt;</t>
   </si>
   <si>
-    <t>&lt;FOR_ARG&gt; ? &lt;DOT_id5&gt;</t>
-  </si>
-  <si>
-    <t>&lt;DOT_id5&gt;</t>
-  </si>
-  <si>
     <t>pm ? Parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
 floatConst ? charConst ? boolConst ? strConst ? )</t>
   </si>
@@ -1159,10 +1122,6 @@
 floatConst ? charConst ? boolConst ? strConst ?  new ? NaN</t>
   </si>
   <si>
-    <t xml:space="preserve">]? pm ? Parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
-floatConst ? charConst ? boolConst ? strConst ?  dot ? inc_dec ? = ? cma </t>
-  </si>
-  <si>
     <t>Parent ? Self ? Null</t>
   </si>
   <si>
@@ -1188,20 +1147,10 @@
     <t>Parent ? Self</t>
   </si>
   <si>
-    <t>if ? shift ? const ? dt ? id ? Parent ? Self ?  test ?  loop ? do ? stop ? Ret ? Cont ? raise</t>
-  </si>
-  <si>
     <t>Ret</t>
   </si>
   <si>
     <t> Cont</t>
-  </si>
-  <si>
-    <t>; ?  if ? shift ? const ? dt ? id ? Parent ? Self ?  
-test ?  loop ? do ? stop ? Ret ? Cont ? raise ? {</t>
-  </si>
-  <si>
-    <t>if ? shift ? const ? dt ? id ? Parent ? Self ?  test ?  loop ? do ? stop ? Ret ? Cont ? raise ? Null</t>
   </si>
   <si>
     <t>{ ? ; if ? shift ? const ? dt ? id ? Parent ? Self ?  test ?  Loop ? do ? stop ? Ret ? Cont ? raise ? state ? default ? }</t>
@@ -1265,9 +1214,6 @@
 Or ? Null</t>
   </si>
   <si>
-    <t>power ?  mdm ?  pm ? Rop ? And ? Or ? Null</t>
-  </si>
-  <si>
     <t>, ? ; ? power ?  mdm ?  pm ? Rop ? And ? Or ? &lt;OPER_TO_EXPR&gt; ? &lt;IS_FLAG&gt;</t>
   </si>
   <si>
@@ -1320,10 +1266,6 @@
     <t xml:space="preserve">power ? mdm? pm? Rop ? And ? or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
   </si>
   <si>
-    <t>if ? shift ? const ? dt ? id ? Parent ?
- Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise?state ? default ? } ?else ? Till</t>
-  </si>
-  <si>
     <t>&lt;DOT_id5&gt; ? &lt;SUBSCRIPT&gt;? &lt;FN_BRACKETS&gt; 
  ? Null</t>
   </si>
@@ -1415,13 +1357,6 @@
   </si>
   <si>
     <t>package | null</t>
-  </si>
-  <si>
-    <t>if ? shift ? const ? dt ? id ? Parent ? Self ?  test ?  loop ? do ? stop ?
- ret ? Cont ? raise</t>
-  </si>
-  <si>
-    <t>if ? shift ? const ? dt ? id ? Parent ? Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise</t>
   </si>
   <si>
     <t>begin</t>
@@ -1509,13 +1444,7 @@
     <t>&lt;ACCESSMOD&gt;?id</t>
   </si>
   <si>
-    <t>protected?private?null?id</t>
-  </si>
-  <si>
     <t>protected?private?id</t>
-  </si>
-  <si>
-    <t>[ ?protected?private?null?id</t>
   </si>
   <si>
     <t>[ ?protected?private?id</t>
@@ -1544,6 +1473,85 @@
   </si>
   <si>
     <t>import?begin?def ?Class?Abstract?const?dt?id?null</t>
+  </si>
+  <si>
+    <t>[ ?id</t>
+  </si>
+  <si>
+    <t>&lt;DOT_ID5&gt;</t>
+  </si>
+  <si>
+    <t>&lt;FOR_ARG&gt; ? &lt;DOT_ID5&gt;</t>
+  </si>
+  <si>
+    <t>id?dt?str</t>
+  </si>
+  <si>
+    <t>&lt;FN_ARR&gt;</t>
+  </si>
+  <si>
+    <t>(?[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const ? &lt;DT_STR&gt; ? id
+&lt;ACCESS_METH&gt; </t>
+  </si>
+  <si>
+    <t>]? &lt;EXPR&gt;</t>
+  </si>
+  <si>
+    <t>&lt;EXPR&gt;  ? &lt;ID_TO_EXPR&gt;</t>
+  </si>
+  <si>
+    <t>]?pm ? Parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
+floatConst ? charConst ? boolConst ? strConst</t>
+  </si>
+  <si>
+    <t>&lt;ARR_TYPE&gt;? id</t>
+  </si>
+  <si>
+    <t>&lt;IF_ELSE&gt;?&lt;SWITCH&gt;? &lt;DEC&gt;?&lt;TRY_CATCH&gt;? 
+&lt;LOOP&gt;?&lt;DO_WHILE&gt;?
+&lt;BREAK&gt;?&lt;RET_ST&gt;?
+ &lt;CONTINUE&gt;?&lt;THROW&gt;</t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ?str? id ? Parent ? Self ?  test ?  loop ? do ? stop ? Ret ? Cont ? raise</t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ?str? id ? Parent ? Self ?  test ?  loop ? do ? stop ? Ret ? Cont ? Raise</t>
+  </si>
+  <si>
+    <t>; ?  if ? shift ? const ? dt ?str? id ? Parent ? Self ?  
+test ?  loop ? do ? stop ? Ret ? Cont ? raise ? {</t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ?str?id ?Parent ? Self ?  test ?  loop ? do ? stop ? Ret ? Cont ? raise ? Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if ? shift ? const ? dt ?str?id ?Parent ? Self ?  test ?  loop ? do ? stop ? Ret ? Cont ? raise </t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ?str? id ? Parent ?
+ Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise?state ? default ? } ?else ? Till</t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ? str?id ? Parent ?
+ Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise?state ? default ? } ?else ? Till</t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ?str?id ? Parent ?
+ Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise?state ? default ? } ?else ? Till</t>
+  </si>
+  <si>
+    <t>{ ? ; if ? shift ? const ? dt ?str? id ? Parent ? Self ?  test ?  Loop ? do ? stop ? Ret ? Cont ? raise ? state ? default ? }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const ? dt ?str?id ? Parent ? Self </t>
+  </si>
+  <si>
+    <t>power ?  mdm ?  pm ? Rop ? And ? Or ? 
+Null</t>
   </si>
 </sst>
 </file>
@@ -1963,7 +1971,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2043,6 +2050,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
@@ -2332,8 +2342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,22 +2367,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>282</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>283</v>
+        <v>234</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>279</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="H1" s="59" t="s">
-        <v>330</v>
-      </c>
-      <c r="I1" s="54" t="s">
-        <v>419</v>
+        <v>279</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -2382,31 +2392,31 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="34"/>
-      <c r="F2" s="47"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="35"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="55"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="F3" s="47"/>
+        <v>324</v>
+      </c>
+      <c r="F3" s="46"/>
       <c r="G3" s="35"/>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="55" t="s">
-        <v>329</v>
+      <c r="I3" s="54" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -2414,23 +2424,23 @@
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="E4" s="72" t="s">
+        <v>465</v>
+      </c>
+      <c r="E4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="49" t="s">
-        <v>329</v>
+      <c r="F4" s="48" t="s">
+        <v>324</v>
       </c>
       <c r="G4" s="35"/>
-      <c r="H4" s="52" t="s">
-        <v>483</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>329</v>
+      <c r="H4" s="51" t="s">
+        <v>462</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -2438,23 +2448,22 @@
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="E5" s="72" t="s">
+        <v>464</v>
+      </c>
+      <c r="E5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="52" t="s">
-        <v>482</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>329</v>
+      <c r="F5" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>461</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -2462,23 +2471,22 @@
         <v>7</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>285</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="52" t="s">
-        <v>481</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>329</v>
+        <v>459</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>460</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -2486,20 +2494,20 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="34"/>
-      <c r="F7" s="47"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="35"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="55"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="54"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="34"/>
-      <c r="F8" s="47"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="35"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="55"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="54"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -2508,10 +2516,10 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="34"/>
-      <c r="F9" s="47"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="55"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="54"/>
     </row>
     <row r="10" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -2521,61 +2529,61 @@
         <v>9</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>325</v>
+        <v>480</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>321</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>417</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>381</v>
-      </c>
-      <c r="I10" s="55"/>
+        <v>483</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="I10" s="54"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="47"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="55"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="54"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="34"/>
-      <c r="F12" s="47"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="55"/>
-    </row>
-    <row r="13" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="46"/>
+      <c r="I12" s="54"/>
+    </row>
+    <row r="13" spans="2:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>238</v>
+        <v>477</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="E13" s="72" t="s">
-        <v>323</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>417</v>
+        <v>478</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>319</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>483</v>
       </c>
       <c r="G13" s="37"/>
-      <c r="H13" s="48" t="s">
-        <v>448</v>
-      </c>
-      <c r="I13" s="55"/>
+      <c r="H13" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="I13" s="54"/>
     </row>
     <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -2585,20 +2593,20 @@
         <v>28</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>382</v>
-      </c>
-      <c r="E14" s="72" t="s">
-        <v>295</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>293</v>
+        <v>481</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>291</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>289</v>
       </c>
       <c r="G14" s="35"/>
-      <c r="H14" s="48" t="s">
-        <v>449</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>293</v>
+      <c r="H14" s="47" t="s">
+        <v>482</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -2606,10 +2614,10 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="47"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="55"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="54"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
@@ -2618,10 +2626,10 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="47"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="55"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="54"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
@@ -2632,22 +2640,22 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="34"/>
-      <c r="F17" s="47"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="60" t="s">
-        <v>450</v>
-      </c>
-      <c r="I17" s="55"/>
+      <c r="H17" s="59" t="s">
+        <v>431</v>
+      </c>
+      <c r="I17" s="54"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="34"/>
-      <c r="F18" s="47"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="55"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="54"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
@@ -2656,10 +2664,10 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="47"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="55"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="54"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
@@ -2670,12 +2678,12 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="47"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="60" t="s">
+      <c r="H20" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="55"/>
+      <c r="I20" s="54"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -2686,54 +2694,54 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="34"/>
-      <c r="F21" s="47"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="60" t="s">
+      <c r="H21" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="55"/>
+      <c r="I21" s="54"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="34"/>
-      <c r="F22" s="47"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="35"/>
-      <c r="H22" s="60" t="s">
-        <v>268</v>
-      </c>
-      <c r="I22" s="55"/>
+      <c r="H22" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="I22" s="54"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="34"/>
-      <c r="F23" s="47"/>
+      <c r="F23" s="46"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="60" t="s">
-        <v>267</v>
-      </c>
-      <c r="I23" s="55"/>
+      <c r="H23" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="I23" s="54"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="34"/>
-      <c r="F24" s="47"/>
+      <c r="F24" s="46"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="55"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="54"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
@@ -2742,42 +2750,42 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="34"/>
-      <c r="F25" s="47"/>
+      <c r="F25" s="46"/>
       <c r="G25" s="35"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="55"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="54"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="34"/>
-      <c r="F26" s="47"/>
+      <c r="F26" s="46"/>
       <c r="G26" s="35"/>
-      <c r="H26" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="I26" s="55"/>
+      <c r="H26" s="59" t="s">
+        <v>369</v>
+      </c>
+      <c r="I26" s="54"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="34"/>
-      <c r="F27" s="47"/>
+      <c r="F27" s="46"/>
       <c r="G27" s="35"/>
-      <c r="H27" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="I27" s="55"/>
+      <c r="H27" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="I27" s="54"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
@@ -2787,38 +2795,38 @@
         <v>29</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="72" t="s">
-        <v>332</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>296</v>
+      <c r="E28" s="71" t="s">
+        <v>327</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>292</v>
       </c>
       <c r="G28" s="35"/>
-      <c r="H28" s="60" t="s">
+      <c r="H28" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="55"/>
+      <c r="I28" s="54"/>
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="73" t="s">
-        <v>333</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>296</v>
+      <c r="E29" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>292</v>
       </c>
       <c r="G29" s="35"/>
-      <c r="H29" s="60" t="s">
+      <c r="H29" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="55" t="s">
-        <v>420</v>
+      <c r="I29" s="54" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -2826,38 +2834,38 @@
         <v>27</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="34"/>
-      <c r="F30" s="47"/>
+      <c r="F30" s="46"/>
       <c r="G30" s="35"/>
-      <c r="H30" s="60" t="s">
-        <v>377</v>
-      </c>
-      <c r="I30" s="55"/>
+      <c r="H30" s="59" t="s">
+        <v>365</v>
+      </c>
+      <c r="I30" s="54"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="34"/>
-      <c r="F31" s="47"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="35"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="55"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="54"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="34"/>
-      <c r="F32" s="47"/>
+      <c r="F32" s="46"/>
       <c r="G32" s="35"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="55"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="54"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
@@ -2867,18 +2875,18 @@
         <v>31</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="72" t="s">
-        <v>316</v>
-      </c>
-      <c r="F33" s="66" t="s">
-        <v>299</v>
+      <c r="E33" s="71" t="s">
+        <v>312</v>
+      </c>
+      <c r="F33" s="65" t="s">
+        <v>295</v>
       </c>
       <c r="G33" s="35"/>
-      <c r="H33" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="I33" s="55" t="s">
-        <v>299</v>
+      <c r="H33" s="59" t="s">
+        <v>404</v>
+      </c>
+      <c r="I33" s="54" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -2886,30 +2894,30 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="34"/>
-      <c r="F34" s="47"/>
+      <c r="F34" s="46"/>
       <c r="G34" s="35"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="55"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="54"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="34"/>
-      <c r="F35" s="47"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="35"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="55"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="54"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="34"/>
-      <c r="F36" s="47"/>
+      <c r="F36" s="46"/>
       <c r="G36" s="35"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="55"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="54"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
@@ -2918,10 +2926,10 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="34"/>
-      <c r="F37" s="47"/>
+      <c r="F37" s="46"/>
       <c r="G37" s="35"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="55"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="54"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
@@ -2932,12 +2940,12 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="47"/>
+      <c r="F38" s="46"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="60" t="s">
+      <c r="H38" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="55"/>
+      <c r="I38" s="54"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -2948,30 +2956,30 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="47"/>
+      <c r="F39" s="46"/>
       <c r="G39" s="35"/>
-      <c r="H39" s="60" t="s">
+      <c r="H39" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="55"/>
+      <c r="I39" s="54"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="47"/>
+      <c r="F40" s="46"/>
       <c r="G40" s="35"/>
-      <c r="H40" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="I40" s="55"/>
+      <c r="H40" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="I40" s="54"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -2982,82 +2990,82 @@
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="34"/>
-      <c r="F41" s="47"/>
+      <c r="F41" s="46"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="60" t="s">
+      <c r="H41" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="I41" s="55"/>
+      <c r="I41" s="54"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="E42" s="34"/>
-      <c r="F42" s="47"/>
+      <c r="F42" s="46"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="I42" s="55"/>
+      <c r="H42" s="59" t="s">
+        <v>371</v>
+      </c>
+      <c r="I42" s="54"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="34"/>
-      <c r="F43" s="47"/>
+      <c r="F43" s="46"/>
       <c r="G43" s="35"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="55"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="54"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E44" s="34"/>
-      <c r="F44" s="47"/>
+      <c r="F44" s="46"/>
       <c r="G44" s="35"/>
-      <c r="H44" s="60" t="s">
-        <v>337</v>
-      </c>
-      <c r="I44" s="55"/>
+      <c r="H44" s="59" t="s">
+        <v>332</v>
+      </c>
+      <c r="I44" s="54"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="E45" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="E45" s="71" t="s">
         <v>39</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G45" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="I45" s="55" t="s">
+      <c r="H45" s="59" t="s">
+        <v>405</v>
+      </c>
+      <c r="I45" s="54" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3066,10 +3074,10 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="34"/>
-      <c r="F46" s="47"/>
+      <c r="F46" s="46"/>
       <c r="G46" s="35"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="55"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="54"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
@@ -3078,10 +3086,10 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="34"/>
-      <c r="F47" s="47"/>
+      <c r="F47" s="46"/>
       <c r="G47" s="35"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="55"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="54"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
@@ -3092,108 +3100,108 @@
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="34"/>
-      <c r="F48" s="47"/>
+      <c r="F48" s="46"/>
       <c r="G48" s="35"/>
-      <c r="H48" s="60" t="s">
+      <c r="H48" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="I48" s="55"/>
+      <c r="I48" s="54"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E49" s="34"/>
-      <c r="F49" s="47"/>
+      <c r="F49" s="46"/>
       <c r="G49" s="35"/>
-      <c r="H49" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="I49" s="55"/>
+      <c r="H49" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="I49" s="54"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="E50" s="34"/>
-      <c r="F50" s="47"/>
+      <c r="F50" s="46"/>
       <c r="G50" s="35"/>
-      <c r="H50" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="I50" s="55"/>
+      <c r="H50" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="I50" s="54"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="E51" s="34"/>
-      <c r="F51" s="47"/>
+      <c r="F51" s="46"/>
       <c r="G51" s="35"/>
-      <c r="H51" s="60" t="s">
-        <v>389</v>
-      </c>
-      <c r="I51" s="55"/>
+      <c r="H51" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="I51" s="54"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="E52" s="34"/>
-      <c r="F52" s="47"/>
+      <c r="F52" s="46"/>
       <c r="G52" s="35"/>
-      <c r="H52" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="I52" s="55"/>
+      <c r="H52" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="I52" s="54"/>
     </row>
     <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="E53" s="72" t="s">
-        <v>298</v>
+        <v>375</v>
+      </c>
+      <c r="E53" s="71" t="s">
+        <v>294</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G53" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H53" s="60" t="s">
-        <v>423</v>
-      </c>
-      <c r="I53" s="55" t="s">
+      <c r="H53" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="I53" s="54" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3202,26 +3210,26 @@
         <v>46</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="34"/>
-      <c r="F54" s="47"/>
+      <c r="F54" s="46"/>
       <c r="G54" s="35"/>
-      <c r="H54" s="60" t="s">
-        <v>391</v>
-      </c>
-      <c r="I54" s="55"/>
+      <c r="H54" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="I54" s="54"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="34"/>
-      <c r="F55" s="47"/>
+      <c r="F55" s="46"/>
       <c r="G55" s="35"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="55"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="54"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
@@ -3230,10 +3238,10 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="34"/>
-      <c r="F56" s="47"/>
+      <c r="F56" s="46"/>
       <c r="G56" s="35"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="55"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="54"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
@@ -3243,49 +3251,49 @@
         <v>55</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E57" s="34"/>
-      <c r="F57" s="47"/>
+      <c r="F57" s="46"/>
       <c r="G57" s="35"/>
-      <c r="H57" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="I57" s="55"/>
+      <c r="H57" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="I57" s="54"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="E58" s="34"/>
-      <c r="F58" s="47"/>
+      <c r="F58" s="46"/>
       <c r="G58" s="35"/>
-      <c r="H58" s="47" t="s">
-        <v>387</v>
-      </c>
-      <c r="I58" s="55"/>
+      <c r="H58" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="I58" s="54"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="34"/>
-      <c r="F59" s="47"/>
+      <c r="F59" s="46"/>
       <c r="G59" s="35"/>
-      <c r="H59" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="I59" s="55"/>
+      <c r="H59" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="I59" s="54"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
@@ -3296,15 +3304,15 @@
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="F60" s="47"/>
+        <v>295</v>
+      </c>
+      <c r="F60" s="46"/>
       <c r="G60" s="35"/>
-      <c r="H60" s="60" t="s">
-        <v>424</v>
-      </c>
-      <c r="I60" s="55" t="s">
-        <v>299</v>
+      <c r="H60" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="I60" s="54" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -3318,12 +3326,12 @@
       <c r="E61" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="47"/>
+      <c r="F61" s="46"/>
       <c r="G61" s="35"/>
-      <c r="H61" s="60" t="s">
-        <v>425</v>
-      </c>
-      <c r="I61" s="55" t="s">
+      <c r="H61" s="59" t="s">
+        <v>408</v>
+      </c>
+      <c r="I61" s="54" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3336,12 +3344,12 @@
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="34"/>
-      <c r="F62" s="47"/>
+      <c r="F62" s="46"/>
       <c r="G62" s="35"/>
-      <c r="H62" s="60" t="s">
+      <c r="H62" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="I62" s="55"/>
+      <c r="I62" s="54"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
@@ -3352,22 +3360,22 @@
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="34"/>
-      <c r="F63" s="47"/>
+      <c r="F63" s="46"/>
       <c r="G63" s="35"/>
-      <c r="H63" s="60" t="s">
+      <c r="H63" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="55"/>
+      <c r="I63" s="54"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="34"/>
-      <c r="F64" s="47"/>
+      <c r="F64" s="46"/>
       <c r="G64" s="35"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="55"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="54"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
@@ -3376,10 +3384,10 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="34"/>
-      <c r="F65" s="47"/>
+      <c r="F65" s="46"/>
       <c r="G65" s="35"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="55"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="54"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
@@ -3389,15 +3397,15 @@
         <v>62</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E66" s="34"/>
-      <c r="F66" s="47"/>
+      <c r="F66" s="46"/>
       <c r="G66" s="35"/>
-      <c r="H66" s="60" t="s">
-        <v>253</v>
-      </c>
-      <c r="I66" s="55"/>
+      <c r="H66" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="I66" s="54"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
@@ -3407,78 +3415,78 @@
         <v>63</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="E67" s="72" t="s">
-        <v>326</v>
-      </c>
-      <c r="F67" s="47" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="E67" s="71" t="s">
+        <v>322</v>
+      </c>
+      <c r="F67" s="46" t="s">
+        <v>251</v>
       </c>
       <c r="G67" s="35"/>
-      <c r="H67" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="I67" s="55"/>
+      <c r="H67" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="I67" s="54"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="34"/>
-      <c r="F68" s="47"/>
+      <c r="F68" s="46"/>
       <c r="G68" s="35"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="55"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="54"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="34"/>
-      <c r="F69" s="47"/>
+      <c r="F69" s="46"/>
       <c r="G69" s="35"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="55"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="54"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="34"/>
-      <c r="F70" s="47"/>
+      <c r="F70" s="46"/>
       <c r="G70" s="35"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="55"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="54"/>
     </row>
     <row r="71" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="E71" s="72" t="s">
-        <v>344</v>
-      </c>
-      <c r="F71" s="67" t="s">
-        <v>393</v>
+        <v>296</v>
+      </c>
+      <c r="E71" s="71" t="s">
+        <v>339</v>
+      </c>
+      <c r="F71" s="66" t="s">
+        <v>378</v>
       </c>
       <c r="G71" s="40" t="s">
-        <v>394</v>
-      </c>
-      <c r="H71" s="52" t="s">
-        <v>426</v>
-      </c>
-      <c r="I71" s="56" t="s">
-        <v>394</v>
+        <v>379</v>
+      </c>
+      <c r="H71" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="I71" s="55" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -3489,40 +3497,40 @@
         <v>29</v>
       </c>
       <c r="D72" s="1"/>
-      <c r="E72" s="74" t="s">
-        <v>345</v>
-      </c>
-      <c r="F72" s="68" t="s">
-        <v>395</v>
+      <c r="E72" s="73" t="s">
+        <v>340</v>
+      </c>
+      <c r="F72" s="67" t="s">
+        <v>380</v>
       </c>
       <c r="G72" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="H72" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="H72" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I72" s="55"/>
+      <c r="I72" s="54"/>
     </row>
     <row r="73" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D73" s="1"/>
-      <c r="E73" s="72" t="s">
-        <v>317</v>
+      <c r="E73" s="71" t="s">
+        <v>313</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="G73" s="35"/>
-      <c r="H73" s="52" t="s">
-        <v>427</v>
-      </c>
-      <c r="I73" s="56" t="s">
-        <v>396</v>
+      <c r="H73" s="51" t="s">
+        <v>410</v>
+      </c>
+      <c r="I73" s="55" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -3534,12 +3542,12 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="34"/>
-      <c r="F74" s="47"/>
+      <c r="F74" s="46"/>
       <c r="G74" s="35"/>
-      <c r="H74" s="60" t="s">
+      <c r="H74" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="I74" s="55"/>
+      <c r="I74" s="54"/>
     </row>
     <row r="75" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
@@ -3549,15 +3557,15 @@
         <v>70</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E75" s="34"/>
-      <c r="F75" s="47"/>
+      <c r="F75" s="46"/>
       <c r="G75" s="35"/>
-      <c r="H75" s="48" t="s">
-        <v>368</v>
-      </c>
-      <c r="I75" s="55"/>
+      <c r="H75" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="I75" s="54"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
@@ -3568,12 +3576,12 @@
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="34"/>
-      <c r="F76" s="47"/>
+      <c r="F76" s="46"/>
       <c r="G76" s="35"/>
-      <c r="H76" s="47" t="s">
+      <c r="H76" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="I76" s="55"/>
+      <c r="I76" s="54"/>
     </row>
     <row r="77" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
@@ -3583,659 +3591,651 @@
         <v>71</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="E77" s="72" t="s">
-        <v>307</v>
-      </c>
-      <c r="F77" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="E77" s="71" t="s">
+        <v>303</v>
+      </c>
+      <c r="F77" s="46" t="s">
         <v>41</v>
       </c>
       <c r="G77" s="35"/>
-      <c r="H77" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="I77" s="55"/>
+      <c r="H77" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="I77" s="54"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="34"/>
-      <c r="F78" s="47"/>
+      <c r="F78" s="46"/>
       <c r="G78" s="35"/>
-      <c r="H78" s="47"/>
-      <c r="I78" s="55"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="54"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="34"/>
-      <c r="F79" s="47"/>
+      <c r="F79" s="46"/>
       <c r="G79" s="35"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="55"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="54"/>
     </row>
     <row r="80" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="34"/>
-      <c r="F80" s="47"/>
+      <c r="F80" s="46"/>
       <c r="G80" s="35"/>
-      <c r="H80" s="47"/>
-      <c r="I80" s="55"/>
-    </row>
-    <row r="81" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H80" s="46"/>
+      <c r="I80" s="54"/>
+    </row>
+    <row r="81" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="E81" s="72" t="s">
-        <v>348</v>
+        <v>275</v>
+      </c>
+      <c r="E81" s="71" t="s">
+        <v>343</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G81" s="40" t="s">
-        <v>397</v>
-      </c>
-      <c r="H81" s="61" t="s">
-        <v>428</v>
-      </c>
-      <c r="I81" s="56" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="H81" s="60" t="s">
+        <v>411</v>
+      </c>
+      <c r="I81" s="55" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="E82" s="72" t="s">
-        <v>321</v>
+        <v>277</v>
+      </c>
+      <c r="E82" s="71" t="s">
+        <v>317</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G82" s="35"/>
-      <c r="H82" s="62" t="s">
-        <v>281</v>
-      </c>
-      <c r="I82" s="55"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H82" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="I82" s="54"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D83" s="1"/>
-      <c r="E83" s="72" t="s">
-        <v>320</v>
-      </c>
-      <c r="F83" s="69" t="s">
-        <v>321</v>
+      <c r="E83" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="F83" s="68" t="s">
+        <v>317</v>
       </c>
       <c r="G83" s="35"/>
-      <c r="H83" s="60" t="s">
-        <v>280</v>
-      </c>
-      <c r="I83" s="55"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H83" s="59" t="s">
+        <v>276</v>
+      </c>
+      <c r="I83" s="54"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="34"/>
-      <c r="F84" s="47"/>
+      <c r="F84" s="46"/>
       <c r="G84" s="35"/>
-      <c r="H84" s="47"/>
-      <c r="I84" s="55"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H84" s="46"/>
+      <c r="I84" s="54"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="34"/>
-      <c r="F85" s="47"/>
+      <c r="F85" s="46"/>
       <c r="G85" s="35"/>
-      <c r="H85" s="47"/>
-      <c r="I85" s="55"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H85" s="46"/>
+      <c r="I85" s="54"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="34"/>
-      <c r="F86" s="47"/>
+      <c r="F86" s="46"/>
       <c r="G86" s="35"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="55"/>
-    </row>
-    <row r="87" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H86" s="46"/>
+      <c r="I86" s="54"/>
+    </row>
+    <row r="87" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C87" s="12" t="s">
-        <v>89</v>
+      <c r="C87" s="13" t="s">
+        <v>472</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="E87" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="48" t="s">
-        <v>417</v>
-      </c>
-      <c r="G87" s="35"/>
-      <c r="H87" s="60" t="s">
-        <v>258</v>
-      </c>
-      <c r="I87" s="55"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
+        <v>487</v>
+      </c>
+      <c r="F87" s="47"/>
+      <c r="H87" s="59" t="s">
+        <v>487</v>
+      </c>
+      <c r="I87" s="54"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E88" s="34"/>
-      <c r="F88" s="47"/>
+      <c r="F88" s="46"/>
       <c r="G88" s="35"/>
-      <c r="H88" s="60" t="s">
-        <v>277</v>
-      </c>
-      <c r="I88" s="55"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="31"/>
+      <c r="H88" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="I88" s="54"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="12"/>
       <c r="D89" s="20"/>
       <c r="E89" s="34"/>
-      <c r="F89" s="47"/>
+      <c r="F89" s="46"/>
       <c r="G89" s="35"/>
-      <c r="H89" s="60"/>
-      <c r="I89" s="55"/>
-    </row>
-    <row r="90" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H89" s="59"/>
+      <c r="I89" s="54"/>
+    </row>
+    <row r="90" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>351</v>
+        <v>473</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="E90" s="34"/>
-      <c r="F90" s="47"/>
+        <v>475</v>
+      </c>
+      <c r="E90" s="38"/>
+      <c r="F90" s="46"/>
       <c r="G90" s="35"/>
-      <c r="H90" s="52" t="s">
-        <v>370</v>
-      </c>
-      <c r="I90" s="55"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="31"/>
+      <c r="H90" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="I90" s="54"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>352</v>
+        <v>476</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="F91" s="48"/>
+        <v>346</v>
+      </c>
+      <c r="F91" s="47"/>
       <c r="G91" s="35"/>
-      <c r="H91" s="60" t="s">
-        <v>353</v>
-      </c>
-      <c r="I91" s="55"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H91" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="I91" s="54"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="34"/>
-      <c r="F92" s="47"/>
+      <c r="F92" s="46"/>
       <c r="G92" s="35"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="55"/>
-    </row>
-    <row r="93" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H92" s="46"/>
+      <c r="I92" s="54"/>
+    </row>
+    <row r="93" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="E93" s="73" t="s">
-        <v>463</v>
-      </c>
-      <c r="F93" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="G93" s="35"/>
-      <c r="H93" s="48" t="s">
-        <v>398</v>
-      </c>
-      <c r="I93" s="55"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="E93" s="72" t="s">
+        <v>444</v>
+      </c>
+      <c r="F93" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="H93" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="I93" s="54"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E94" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="F94" s="47"/>
+        <v>295</v>
+      </c>
+      <c r="F94" s="46"/>
       <c r="G94" s="35"/>
-      <c r="H94" s="60" t="s">
-        <v>372</v>
-      </c>
-      <c r="I94" s="55"/>
-    </row>
-    <row r="95" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H94" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="I94" s="54"/>
+    </row>
+    <row r="95" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="F95" s="47" t="s">
-        <v>95</v>
+        <v>299</v>
+      </c>
+      <c r="F95" s="46" t="s">
+        <v>94</v>
       </c>
       <c r="G95" s="35"/>
-      <c r="H95" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="I95" s="55"/>
-    </row>
-    <row r="96" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H95" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="I95" s="54"/>
+    </row>
+    <row r="96" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="E96" s="72" t="s">
-        <v>302</v>
+        <v>452</v>
+      </c>
+      <c r="E96" s="71" t="s">
+        <v>298</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="H96" s="52" t="s">
-        <v>471</v>
-      </c>
-      <c r="I96" s="55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H96" s="51" t="s">
+        <v>452</v>
+      </c>
+      <c r="I96" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="E97" s="72" t="s">
-        <v>301</v>
+        <v>450</v>
+      </c>
+      <c r="E97" s="71" t="s">
+        <v>297</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="H97" s="52" t="s">
-        <v>469</v>
-      </c>
-      <c r="I97" s="55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H97" s="51" t="s">
+        <v>450</v>
+      </c>
+      <c r="I97" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="E98" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="E98" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="F98" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="G98" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="H98" s="51" t="s">
+        <v>413</v>
+      </c>
+      <c r="I98" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="E99" s="72" t="s">
+        <v>300</v>
+      </c>
+      <c r="F99" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="F98" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="G98" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="H98" s="52" t="s">
-        <v>430</v>
-      </c>
-      <c r="I98" s="55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C99" s="12" t="s">
+      <c r="G99" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D99" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="E99" s="73" t="s">
-        <v>304</v>
-      </c>
-      <c r="F99" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="G99" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="H99" s="60" t="s">
-        <v>429</v>
-      </c>
-      <c r="I99" s="55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H99" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="I99" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="34"/>
-      <c r="F100" s="47"/>
+      <c r="F100" s="46"/>
       <c r="G100" s="35"/>
-      <c r="H100" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="I100" s="55"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H100" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="I100" s="54"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="34"/>
-      <c r="F101" s="47"/>
+      <c r="F101" s="46"/>
       <c r="G101" s="35"/>
-      <c r="H101" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="I101" s="55"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H101" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="I101" s="54"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="34"/>
-      <c r="F102" s="47"/>
+      <c r="F102" s="46"/>
       <c r="G102" s="35"/>
-      <c r="H102" s="47"/>
-      <c r="I102" s="55"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H102" s="46"/>
+      <c r="I102" s="54"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="34"/>
-      <c r="F103" s="47"/>
+      <c r="F103" s="46"/>
       <c r="G103" s="35"/>
-      <c r="H103" s="47"/>
-      <c r="I103" s="55"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H103" s="46"/>
+      <c r="I103" s="54"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="34"/>
-      <c r="F104" s="47"/>
+      <c r="F104" s="46"/>
       <c r="G104" s="35"/>
-      <c r="H104" s="47"/>
-      <c r="I104" s="55"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H104" s="46"/>
+      <c r="I104" s="54"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E105" s="34"/>
-      <c r="F105" s="47"/>
+      <c r="F105" s="46"/>
       <c r="G105" s="35"/>
-      <c r="H105" s="60" t="s">
-        <v>273</v>
-      </c>
-      <c r="I105" s="55"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H105" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="I105" s="54"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C106" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="E106" s="34"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="I106" s="54"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C107" s="20" t="s">
         <v>101</v>
-      </c>
-      <c r="D106" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="E106" s="34"/>
-      <c r="F106" s="47"/>
-      <c r="G106" s="35"/>
-      <c r="H106" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="I106" s="55"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>102</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="34"/>
-      <c r="F107" s="47"/>
+      <c r="F107" s="46"/>
       <c r="G107" s="35"/>
-      <c r="H107" s="60" t="s">
+      <c r="H107" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="I107" s="54"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C108" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I107" s="55"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="D108" s="24" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E108" s="34"/>
-      <c r="F108" s="47"/>
+      <c r="F108" s="46"/>
       <c r="G108" s="35"/>
-      <c r="H108" s="62" t="s">
-        <v>275</v>
-      </c>
-      <c r="I108" s="55"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H108" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="I108" s="54"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="34"/>
-      <c r="F109" s="47"/>
+      <c r="F109" s="46"/>
       <c r="G109" s="35"/>
-      <c r="H109" s="47"/>
-      <c r="I109" s="55"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H109" s="46"/>
+      <c r="I109" s="54"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="34"/>
-      <c r="F110" s="47"/>
+      <c r="F110" s="46"/>
       <c r="G110" s="35"/>
-      <c r="H110" s="47"/>
-      <c r="I110" s="55"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="31"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="54"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="34"/>
-      <c r="F111" s="47"/>
+      <c r="F111" s="46"/>
       <c r="G111" s="35"/>
-      <c r="H111" s="60" t="s">
+      <c r="H111" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="I111" s="54"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C112" s="80" t="s">
+        <v>469</v>
+      </c>
+      <c r="E112" s="34"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="59" t="s">
+        <v>469</v>
+      </c>
+      <c r="I112" s="54"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C113" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="I111" s="55"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="31"/>
-      <c r="B112" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D112" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="E112" s="34"/>
-      <c r="F112" s="47"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="60" t="s">
-        <v>262</v>
-      </c>
-      <c r="I112" s="55"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="31"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="20"/>
+      <c r="D113" s="20" t="s">
+        <v>471</v>
+      </c>
       <c r="E113" s="34"/>
-      <c r="F113" s="47"/>
+      <c r="F113" s="46"/>
       <c r="G113" s="35"/>
-      <c r="H113" s="60"/>
-      <c r="I113" s="55"/>
+      <c r="H113" s="59" t="s">
+        <v>471</v>
+      </c>
+      <c r="I113" s="54"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="34"/>
-      <c r="F114" s="47"/>
+      <c r="F114" s="46"/>
       <c r="G114" s="35"/>
-      <c r="H114" s="47"/>
-      <c r="I114" s="55"/>
+      <c r="H114" s="46"/>
+      <c r="I114" s="54"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="34"/>
-      <c r="F115" s="47"/>
+      <c r="F115" s="46"/>
       <c r="G115" s="35"/>
-      <c r="H115" s="47"/>
-      <c r="I115" s="55"/>
+      <c r="H115" s="46"/>
+      <c r="I115" s="54"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="31"/>
       <c r="B116" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>25</v>
@@ -4244,17 +4244,17 @@
         <v>29</v>
       </c>
       <c r="E116" s="34"/>
-      <c r="F116" s="48"/>
+      <c r="F116" s="47"/>
       <c r="G116" s="35"/>
-      <c r="H116" s="60" t="s">
+      <c r="H116" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I116" s="55"/>
+      <c r="I116" s="54"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="31"/>
       <c r="B117" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>25</v>
@@ -4263,1719 +4263,1711 @@
         <v>29</v>
       </c>
       <c r="E117" s="34"/>
-      <c r="F117" s="48"/>
+      <c r="F117" s="47"/>
       <c r="G117" s="37"/>
-      <c r="H117" s="60" t="s">
+      <c r="H117" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I117" s="55"/>
+      <c r="I117" s="54"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="31"/>
       <c r="B118" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="38"/>
-      <c r="F118" s="48"/>
+      <c r="F118" s="47"/>
       <c r="G118" s="35"/>
-      <c r="H118" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="I118" s="55"/>
+      <c r="H118" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="I118" s="54"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="31"/>
       <c r="B119" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="34"/>
-      <c r="F119" s="48"/>
+      <c r="F119" s="47"/>
       <c r="G119" s="35"/>
-      <c r="H119" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="I119" s="55"/>
+      <c r="H119" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="I119" s="54"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="31"/>
       <c r="B120" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E120" s="34"/>
-      <c r="F120" s="48"/>
+      <c r="F120" s="47"/>
       <c r="G120" s="35"/>
-      <c r="H120" s="52" t="s">
-        <v>265</v>
-      </c>
-      <c r="I120" s="55"/>
+      <c r="H120" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="I120" s="54"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="31"/>
       <c r="B121" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E121" s="34"/>
-      <c r="F121" s="47"/>
+      <c r="F121" s="46"/>
       <c r="G121" s="35"/>
-      <c r="H121" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="I121" s="55"/>
+      <c r="H121" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="I121" s="54"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="31"/>
       <c r="B122" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D122" s="22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E122" s="34"/>
-      <c r="F122" s="47"/>
+      <c r="F122" s="46"/>
       <c r="G122" s="35"/>
-      <c r="H122" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="I122" s="55"/>
+      <c r="H122" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="I122" s="54"/>
     </row>
     <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="31"/>
       <c r="B123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="E123" s="34"/>
       <c r="F123" s="3"/>
-      <c r="G123" s="80"/>
-      <c r="H123" s="48" t="s">
-        <v>460</v>
-      </c>
-      <c r="I123" s="57"/>
+      <c r="G123" s="79"/>
+      <c r="H123" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="I123" s="56"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="31"/>
       <c r="B124" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E124" s="34"/>
       <c r="G124" s="41"/>
-      <c r="H124" s="47"/>
-      <c r="I124" s="55"/>
+      <c r="H124" s="46"/>
+      <c r="I124" s="54"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="31"/>
       <c r="B125" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="C125" s="27" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="E125" s="34"/>
       <c r="G125" s="41"/>
-      <c r="H125" s="47" t="s">
-        <v>454</v>
-      </c>
-      <c r="I125" s="55"/>
+      <c r="H125" s="46" t="s">
+        <v>435</v>
+      </c>
+      <c r="I125" s="54"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="31"/>
       <c r="B126" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="E126" s="34"/>
       <c r="F126" s="3"/>
       <c r="G126" s="35"/>
-      <c r="H126" s="47" t="s">
-        <v>459</v>
-      </c>
-      <c r="I126" s="55"/>
+      <c r="H126" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="I126" s="54"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="31"/>
       <c r="B127" t="s">
-        <v>120</v>
-      </c>
-      <c r="C127" s="78" t="s">
-        <v>456</v>
-      </c>
-      <c r="D127" s="79" t="s">
-        <v>457</v>
+        <v>119</v>
+      </c>
+      <c r="C127" s="77" t="s">
+        <v>437</v>
+      </c>
+      <c r="D127" s="78" t="s">
+        <v>438</v>
       </c>
       <c r="E127" s="34"/>
-      <c r="F127" s="51"/>
+      <c r="F127" s="50"/>
       <c r="G127" s="35"/>
-      <c r="H127" s="63" t="s">
-        <v>457</v>
-      </c>
-      <c r="I127" s="55"/>
+      <c r="H127" s="62" t="s">
+        <v>438</v>
+      </c>
+      <c r="I127" s="54"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="31"/>
       <c r="B128" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E128" s="34"/>
-      <c r="F128" s="51"/>
+      <c r="F128" s="50"/>
       <c r="G128" s="35"/>
-      <c r="H128" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="I128" s="55"/>
+      <c r="H128" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="I128" s="54"/>
     </row>
     <row r="129" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="31"/>
       <c r="B129" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D129" s="22" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E129" s="34"/>
-      <c r="F129" s="47"/>
+      <c r="F129" s="46"/>
       <c r="G129" s="35"/>
-      <c r="H129" s="48" t="s">
-        <v>373</v>
-      </c>
-      <c r="I129" s="55"/>
+      <c r="H129" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="I129" s="54"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="31"/>
       <c r="E130" s="34"/>
-      <c r="F130" s="47"/>
+      <c r="F130" s="46"/>
       <c r="G130" s="35"/>
-      <c r="H130" s="47"/>
-      <c r="I130" s="55"/>
+      <c r="H130" s="46"/>
+      <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="31"/>
       <c r="B131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="E131" s="34"/>
-      <c r="F131" s="47"/>
+      <c r="F131" s="46"/>
       <c r="G131" s="35"/>
-      <c r="H131" s="47" t="s">
-        <v>466</v>
-      </c>
-      <c r="I131" s="55"/>
+      <c r="H131" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="31"/>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D132" s="22" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E132" s="34"/>
-      <c r="F132" s="47"/>
+      <c r="F132" s="46"/>
       <c r="G132" s="35"/>
-      <c r="H132" s="48" t="s">
-        <v>373</v>
-      </c>
-      <c r="I132" s="55"/>
+      <c r="H132" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E133" s="34"/>
-      <c r="F133" s="47"/>
+      <c r="F133" s="46"/>
       <c r="G133" s="35"/>
-      <c r="H133" s="47" t="s">
-        <v>263</v>
-      </c>
-      <c r="I133" s="55"/>
+      <c r="H133" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="I133" s="54"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C134" s="27" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="E134" s="34"/>
-      <c r="F134" s="47"/>
+      <c r="F134" s="46"/>
       <c r="G134" s="35"/>
-      <c r="H134" s="47" t="s">
-        <v>466</v>
-      </c>
-      <c r="I134" s="55"/>
+      <c r="H134" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="I134" s="54"/>
     </row>
     <row r="135" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C135" s="14" t="s">
-        <v>139</v>
-      </c>
       <c r="D135" s="22" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E135" s="34"/>
-      <c r="F135" s="47"/>
+      <c r="F135" s="46"/>
       <c r="G135" s="35"/>
-      <c r="H135" s="48" t="s">
-        <v>373</v>
-      </c>
-      <c r="I135" s="55"/>
+      <c r="H135" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="I135" s="54"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C136" s="27" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="E136" s="34"/>
-      <c r="F136" s="47"/>
+      <c r="F136" s="46"/>
       <c r="G136" s="35"/>
-      <c r="H136" s="47" t="s">
-        <v>466</v>
-      </c>
-      <c r="I136" s="55"/>
+      <c r="H136" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="I136" s="54"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E137" s="34"/>
-      <c r="F137" s="47"/>
+      <c r="F137" s="46"/>
       <c r="G137" s="35"/>
-      <c r="H137" s="47"/>
-      <c r="I137" s="55"/>
+      <c r="H137" s="46"/>
+      <c r="I137" s="54"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E138" s="34"/>
-      <c r="F138" s="47"/>
+      <c r="F138" s="46"/>
       <c r="G138" s="35"/>
-      <c r="H138" s="47"/>
-      <c r="I138" s="55"/>
+      <c r="H138" s="46"/>
+      <c r="I138" s="54"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E139" s="34"/>
-      <c r="F139" s="47"/>
+      <c r="F139" s="46"/>
       <c r="G139" s="35"/>
-      <c r="H139" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="I139" s="55"/>
+      <c r="H139" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="I139" s="54"/>
     </row>
     <row r="140" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E140" s="34"/>
-      <c r="F140" s="47"/>
+      <c r="F140" s="46"/>
       <c r="G140" s="35"/>
-      <c r="H140" s="52" t="s">
-        <v>374</v>
-      </c>
-      <c r="I140" s="55"/>
+      <c r="H140" s="51" t="s">
+        <v>362</v>
+      </c>
+      <c r="I140" s="54"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E141" s="34"/>
-      <c r="F141" s="47"/>
+      <c r="F141" s="46"/>
       <c r="G141" s="42"/>
-      <c r="H141" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="I141" s="55"/>
+      <c r="H141" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I141" s="54"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B142" s="4"/>
       <c r="E142" s="34"/>
-      <c r="F142" s="47"/>
+      <c r="F142" s="46"/>
       <c r="G142" s="35"/>
-      <c r="H142" s="47"/>
-      <c r="I142" s="55"/>
+      <c r="H142" s="46"/>
+      <c r="I142" s="54"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E143" s="34"/>
+      <c r="F143" s="46"/>
+      <c r="G143" s="35"/>
+      <c r="H143" s="46"/>
+      <c r="I143" s="54"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
         <v>140</v>
-      </c>
-      <c r="E143" s="34"/>
-      <c r="F143" s="47"/>
-      <c r="G143" s="35"/>
-      <c r="H143" s="47"/>
-      <c r="I143" s="55"/>
-    </row>
-    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>141</v>
       </c>
       <c r="C144" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="E144" s="74" t="s">
-        <v>327</v>
-      </c>
-      <c r="F144" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="G144" s="43"/>
-      <c r="H144" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="I144" s="55"/>
+        <v>369</v>
+      </c>
+      <c r="F144" s="47"/>
+      <c r="H144" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="I144" s="54"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="E145" s="34"/>
-      <c r="F145" s="48"/>
-      <c r="G145" s="43"/>
-      <c r="H145" s="60" t="s">
-        <v>479</v>
-      </c>
-      <c r="I145" s="55"/>
+      <c r="F145" s="47"/>
+      <c r="H145" s="59" t="s">
+        <v>458</v>
+      </c>
+      <c r="I145" s="54"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>476</v>
+        <v>295</v>
       </c>
       <c r="E146" s="34"/>
-      <c r="F146" s="48"/>
-      <c r="G146" s="43"/>
-      <c r="H146" s="60" t="s">
-        <v>477</v>
-      </c>
-      <c r="I146" s="55"/>
+      <c r="F146" s="47"/>
+      <c r="H146" s="59" t="s">
+        <v>457</v>
+      </c>
+      <c r="I146" s="54"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="34"/>
-      <c r="F147" s="47"/>
+      <c r="F147" s="46"/>
       <c r="G147" s="35"/>
-      <c r="H147" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="I147" s="55"/>
+      <c r="H147" s="62" t="s">
+        <v>258</v>
+      </c>
+      <c r="I147" s="54"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
+        <v>143</v>
+      </c>
+      <c r="C148" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C148" s="23" t="s">
-        <v>145</v>
-      </c>
       <c r="E148" s="34"/>
-      <c r="F148" s="47"/>
+      <c r="F148" s="46"/>
       <c r="G148" s="35"/>
-      <c r="H148" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="I148" s="55"/>
+      <c r="H148" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="I148" s="54"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="31"/>
       <c r="E149" s="34"/>
-      <c r="F149" s="47"/>
+      <c r="F149" s="46"/>
       <c r="G149" s="35"/>
-      <c r="H149" s="47"/>
-      <c r="I149" s="55"/>
+      <c r="H149" s="46"/>
+      <c r="I149" s="54"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="31"/>
       <c r="B150" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E150" s="34"/>
-      <c r="F150" s="47"/>
+      <c r="F150" s="46"/>
       <c r="G150" s="35"/>
-      <c r="H150" s="47"/>
-      <c r="I150" s="55"/>
+      <c r="H150" s="46"/>
+      <c r="I150" s="54"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="31"/>
       <c r="B151" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D151" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="E151" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="E151" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="F151" s="47" t="s">
+      <c r="F151" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="G151" s="35"/>
+      <c r="H151" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="G151" s="35"/>
-      <c r="H151" s="64" t="s">
-        <v>255</v>
-      </c>
-      <c r="I151" s="55"/>
+      <c r="I151" s="54"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="31"/>
       <c r="B152" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C152" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="E152" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="F152" s="47" t="s">
-        <v>253</v>
+        <v>152</v>
+      </c>
+      <c r="E152" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F152" s="46" t="s">
+        <v>251</v>
       </c>
       <c r="G152" s="35"/>
-      <c r="H152" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="I152" s="55"/>
+      <c r="H152" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="I152" s="54"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="31"/>
       <c r="B153" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C153" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D153" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="E153" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="F153" s="47" t="s">
-        <v>253</v>
+        <v>239</v>
+      </c>
+      <c r="E153" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="F153" s="46" t="s">
+        <v>251</v>
       </c>
       <c r="G153" s="35"/>
-      <c r="H153" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="I153" s="55"/>
+      <c r="H153" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="I153" s="54"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="31"/>
       <c r="B154" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D154" s="29" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="E154" s="34"/>
       <c r="G154" s="35"/>
-      <c r="H154" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="I154" s="55"/>
+      <c r="H154" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="I154" s="54"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="31"/>
       <c r="B155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E155" s="34"/>
-      <c r="F155" s="47"/>
+      <c r="F155" s="46"/>
       <c r="G155" s="35"/>
-      <c r="H155" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="I155" s="55"/>
+      <c r="H155" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I155" s="54"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="31"/>
       <c r="B156" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C156" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E156" s="34"/>
-      <c r="F156" s="47"/>
+      <c r="F156" s="46"/>
       <c r="G156" s="35"/>
-      <c r="H156" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="I156" s="55"/>
+      <c r="H156" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="I156" s="54"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="31"/>
       <c r="E157" s="34"/>
-      <c r="F157" s="47"/>
+      <c r="F157" s="46"/>
       <c r="G157" s="35"/>
-      <c r="H157" s="47"/>
-      <c r="I157" s="55"/>
+      <c r="H157" s="46"/>
+      <c r="I157" s="54"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E158" s="34"/>
-      <c r="F158" s="47"/>
+      <c r="F158" s="46"/>
       <c r="G158" s="35"/>
-      <c r="H158" s="47"/>
-      <c r="I158" s="55"/>
+      <c r="H158" s="46"/>
+      <c r="I158" s="54"/>
     </row>
     <row r="159" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="E159" s="72" t="s">
-        <v>306</v>
-      </c>
-      <c r="F159" s="47" t="s">
-        <v>431</v>
+        <v>363</v>
+      </c>
+      <c r="E159" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="F159" s="46" t="s">
+        <v>414</v>
       </c>
       <c r="G159" s="35"/>
-      <c r="H159" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="I159" s="55"/>
+      <c r="H159" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="I159" s="54"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="E160" s="72" t="s">
-        <v>359</v>
-      </c>
-      <c r="F160" s="50" t="s">
-        <v>431</v>
+        <v>169</v>
+      </c>
+      <c r="E160" s="71" t="s">
+        <v>474</v>
+      </c>
+      <c r="F160" s="49" t="s">
+        <v>414</v>
       </c>
       <c r="G160" s="35"/>
-      <c r="H160" s="47" t="s">
-        <v>432</v>
-      </c>
-      <c r="I160" s="55" t="s">
-        <v>431</v>
+      <c r="H160" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="I160" s="54" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="161" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="E161" s="72" t="s">
-        <v>310</v>
-      </c>
-      <c r="F161" s="47" t="s">
-        <v>315</v>
+        <v>363</v>
+      </c>
+      <c r="E161" s="71" t="s">
+        <v>306</v>
+      </c>
+      <c r="F161" s="46" t="s">
+        <v>311</v>
       </c>
       <c r="G161" s="35"/>
-      <c r="H161" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="I161" s="55"/>
+      <c r="H161" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="I161" s="54"/>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C162" s="29" t="s">
-        <v>402</v>
-      </c>
-      <c r="E162" s="75" t="s">
-        <v>360</v>
-      </c>
-      <c r="F162" s="67" t="s">
-        <v>308</v>
+        <v>386</v>
+      </c>
+      <c r="E162" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="F162" s="66" t="s">
+        <v>304</v>
       </c>
       <c r="G162" s="39" t="s">
-        <v>315</v>
-      </c>
-      <c r="H162" s="47" t="s">
-        <v>433</v>
-      </c>
-      <c r="I162" s="55" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="H162" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="I162" s="54" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="163" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="E163" s="76" t="s">
-        <v>309</v>
-      </c>
-      <c r="F163" s="47" t="s">
-        <v>403</v>
+        <v>363</v>
+      </c>
+      <c r="E163" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="F163" s="46" t="s">
+        <v>387</v>
       </c>
       <c r="G163" s="35"/>
-      <c r="H163" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="I163" s="55"/>
+      <c r="H163" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="I163" s="54"/>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C164" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="E164" s="75" t="s">
-        <v>361</v>
-      </c>
-      <c r="F164" s="67" t="s">
-        <v>404</v>
+        <v>390</v>
+      </c>
+      <c r="E164" s="74" t="s">
+        <v>352</v>
+      </c>
+      <c r="F164" s="66" t="s">
+        <v>388</v>
       </c>
       <c r="G164" s="39" t="s">
-        <v>405</v>
-      </c>
-      <c r="H164" s="47" t="s">
-        <v>434</v>
-      </c>
-      <c r="I164" s="55" t="s">
-        <v>435</v>
+        <v>389</v>
+      </c>
+      <c r="H164" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="I164" s="54" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="165" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="E165" s="72" t="s">
-        <v>311</v>
-      </c>
-      <c r="F165" s="47" t="s">
-        <v>408</v>
+        <v>363</v>
+      </c>
+      <c r="E165" s="71" t="s">
+        <v>307</v>
+      </c>
+      <c r="F165" s="46" t="s">
+        <v>392</v>
       </c>
       <c r="G165" s="35"/>
-      <c r="H165" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="I165" s="55"/>
+      <c r="H165" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="I165" s="54"/>
     </row>
     <row r="166" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C166" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="E166" s="74" t="s">
-        <v>362</v>
-      </c>
-      <c r="F166" s="67" t="s">
-        <v>409</v>
+        <v>170</v>
+      </c>
+      <c r="E166" s="73" t="s">
+        <v>353</v>
+      </c>
+      <c r="F166" s="66" t="s">
+        <v>393</v>
       </c>
       <c r="G166" s="39" t="s">
-        <v>407</v>
-      </c>
-      <c r="H166" s="47" t="s">
-        <v>436</v>
-      </c>
-      <c r="I166" s="55" t="s">
-        <v>437</v>
+        <v>391</v>
+      </c>
+      <c r="H166" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="I166" s="54" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="167" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="E167" s="72" t="s">
-        <v>312</v>
-      </c>
-      <c r="F167" s="47" t="s">
-        <v>410</v>
+        <v>363</v>
+      </c>
+      <c r="E167" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="F167" s="46" t="s">
+        <v>394</v>
       </c>
       <c r="G167" s="35"/>
-      <c r="H167" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="I167" s="55"/>
+      <c r="H167" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="I167" s="54"/>
     </row>
     <row r="168" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="E168" s="74" t="s">
-        <v>363</v>
-      </c>
-      <c r="F168" s="67" t="s">
-        <v>411</v>
+        <v>326</v>
+      </c>
+      <c r="E168" s="73" t="s">
+        <v>354</v>
+      </c>
+      <c r="F168" s="66" t="s">
+        <v>395</v>
       </c>
       <c r="G168" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="H168" s="48" t="s">
-        <v>438</v>
-      </c>
-      <c r="I168" s="56" t="s">
-        <v>439</v>
+        <v>396</v>
+      </c>
+      <c r="H168" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="I168" s="55" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="169" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
+        <v>166</v>
+      </c>
+      <c r="C169" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C169" s="14" t="s">
-        <v>168</v>
-      </c>
       <c r="D169" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="E169" s="72" t="s">
-        <v>314</v>
-      </c>
-      <c r="F169" s="47" t="s">
-        <v>413</v>
+        <v>363</v>
+      </c>
+      <c r="E169" s="71" t="s">
+        <v>310</v>
+      </c>
+      <c r="F169" s="46" t="s">
+        <v>397</v>
       </c>
       <c r="G169" s="35"/>
-      <c r="H169" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="I169" s="55"/>
+      <c r="H169" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="I169" s="54"/>
     </row>
     <row r="170" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C170" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="E170" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="F170" s="67" t="s">
-        <v>414</v>
+        <v>172</v>
+      </c>
+      <c r="E170" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="F170" s="66" t="s">
+        <v>398</v>
       </c>
       <c r="G170" s="40" t="s">
-        <v>415</v>
-      </c>
-      <c r="H170" s="47" t="s">
-        <v>440</v>
-      </c>
-      <c r="I170" s="56" t="s">
-        <v>445</v>
+        <v>399</v>
+      </c>
+      <c r="H170" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="I170" s="55" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="171" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
+        <v>167</v>
+      </c>
+      <c r="C171" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C171" s="14" t="s">
-        <v>169</v>
-      </c>
       <c r="D171" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="E171" s="72" t="s">
-        <v>313</v>
-      </c>
-      <c r="F171" s="47" t="s">
-        <v>416</v>
+        <v>363</v>
+      </c>
+      <c r="E171" s="71" t="s">
+        <v>309</v>
+      </c>
+      <c r="F171" s="46" t="s">
+        <v>400</v>
       </c>
       <c r="G171" s="35"/>
-      <c r="H171" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="I171" s="55"/>
+      <c r="H171" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="I171" s="54"/>
     </row>
     <row r="172" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="E172" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="F172" s="47" t="s">
-        <v>416</v>
+        <v>363</v>
+      </c>
+      <c r="E172" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="F172" s="46" t="s">
+        <v>400</v>
       </c>
       <c r="G172" s="35"/>
-      <c r="H172" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="I172" s="55"/>
+      <c r="H172" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="I172" s="54"/>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E173" s="34"/>
-      <c r="F173" s="47"/>
+      <c r="F173" s="46"/>
       <c r="G173" s="35"/>
-      <c r="H173" s="47"/>
-      <c r="I173" s="55"/>
+      <c r="H173" s="46"/>
+      <c r="I173" s="54"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E174" s="34"/>
-      <c r="F174" s="47"/>
+      <c r="F174" s="46"/>
       <c r="G174" s="35"/>
-      <c r="H174" s="47"/>
-      <c r="I174" s="55"/>
+      <c r="H174" s="46"/>
+      <c r="I174" s="54"/>
     </row>
     <row r="175" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B175" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="E175" s="72" t="s">
-        <v>365</v>
-      </c>
-      <c r="F175" s="70" t="s">
-        <v>401</v>
+        <v>364</v>
+      </c>
+      <c r="E175" s="71" t="s">
+        <v>356</v>
+      </c>
+      <c r="F175" s="69" t="s">
+        <v>385</v>
       </c>
       <c r="G175" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="H175" s="52" t="s">
-        <v>376</v>
-      </c>
-      <c r="I175" s="55"/>
+        <v>382</v>
+      </c>
+      <c r="H175" s="51" t="s">
+        <v>364</v>
+      </c>
+      <c r="I175" s="54"/>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C176" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E176" s="34"/>
-      <c r="F176" s="47"/>
+      <c r="F176" s="46"/>
       <c r="G176" s="35"/>
-      <c r="H176" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="I176" s="55"/>
+      <c r="H176" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="I176" s="54"/>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E177" s="34"/>
-      <c r="F177" s="47"/>
+      <c r="F177" s="46"/>
       <c r="G177" s="35"/>
-      <c r="H177" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="I177" s="55"/>
+      <c r="H177" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="I177" s="54"/>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E178" s="34"/>
-      <c r="F178" s="47"/>
+      <c r="F178" s="46"/>
       <c r="G178" s="35"/>
-      <c r="H178" s="47"/>
-      <c r="I178" s="55"/>
+      <c r="H178" s="46"/>
+      <c r="I178" s="54"/>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E179" s="34"/>
-      <c r="F179" s="47"/>
+      <c r="F179" s="46"/>
       <c r="G179" s="35"/>
-      <c r="H179" s="47"/>
-      <c r="I179" s="55"/>
+      <c r="H179" s="46"/>
+      <c r="I179" s="54"/>
     </row>
     <row r="180" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C180" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C180" s="22" t="s">
-        <v>183</v>
-      </c>
       <c r="E180" s="34"/>
-      <c r="F180" s="47"/>
+      <c r="F180" s="46"/>
       <c r="G180" s="35"/>
-      <c r="H180" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="I180" s="55"/>
+      <c r="H180" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="I180" s="54"/>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C181" s="25" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E181" s="34"/>
-      <c r="F181" s="47"/>
+      <c r="F181" s="46"/>
       <c r="G181" s="35"/>
-      <c r="H181" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="I181" s="55"/>
+      <c r="H181" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="I181" s="54"/>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E182" s="34"/>
-      <c r="F182" s="47"/>
+      <c r="F182" s="46"/>
       <c r="G182" s="35"/>
-      <c r="H182" s="47"/>
-      <c r="I182" s="55"/>
+      <c r="H182" s="46"/>
+      <c r="I182" s="54"/>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E183" s="34"/>
-      <c r="F183" s="47"/>
+      <c r="F183" s="46"/>
       <c r="G183" s="35"/>
-      <c r="H183" s="47"/>
-      <c r="I183" s="55"/>
+      <c r="H183" s="46"/>
+      <c r="I183" s="54"/>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B184" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E184" s="34"/>
-      <c r="F184" s="47"/>
+      <c r="F184" s="46"/>
       <c r="G184" s="35"/>
-      <c r="H184" s="47"/>
-      <c r="I184" s="55"/>
+      <c r="H184" s="46"/>
+      <c r="I184" s="54"/>
     </row>
     <row r="185" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C185" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E185" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="E185" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F185" s="48" t="s">
-        <v>417</v>
+      <c r="F185" s="47" t="s">
+        <v>483</v>
       </c>
       <c r="G185" s="35"/>
-      <c r="H185" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="I185" s="55"/>
+      <c r="H185" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="I185" s="54"/>
     </row>
     <row r="186" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C186" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E186" s="72" t="s">
-        <v>185</v>
-      </c>
-      <c r="F186" s="50" t="s">
-        <v>417</v>
+        <v>187</v>
+      </c>
+      <c r="E186" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="F186" s="49" t="s">
+        <v>483</v>
       </c>
       <c r="G186" s="35"/>
-      <c r="H186" s="47" t="s">
-        <v>441</v>
-      </c>
-      <c r="I186" s="56" t="s">
-        <v>417</v>
+      <c r="H186" s="46" t="s">
+        <v>424</v>
+      </c>
+      <c r="I186" s="55" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E187" s="34"/>
-      <c r="F187" s="47"/>
+      <c r="F187" s="46"/>
       <c r="G187" s="35"/>
-      <c r="H187" s="47"/>
-      <c r="I187" s="55"/>
+      <c r="H187" s="46"/>
+      <c r="I187" s="54"/>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B188" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E188" s="34"/>
-      <c r="F188" s="47"/>
+      <c r="F188" s="46"/>
       <c r="G188" s="35"/>
-      <c r="H188" s="47"/>
-      <c r="I188" s="55"/>
+      <c r="H188" s="46"/>
+      <c r="I188" s="54"/>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C189" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E189" s="34"/>
-      <c r="F189" s="47"/>
+      <c r="F189" s="46"/>
       <c r="G189" s="35"/>
-      <c r="H189" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="I189" s="55"/>
+      <c r="H189" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="I189" s="54"/>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D190" s="23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E190" s="34"/>
-      <c r="F190" s="47"/>
+      <c r="F190" s="46"/>
       <c r="G190" s="35"/>
-      <c r="H190" s="47" t="s">
-        <v>259</v>
-      </c>
-      <c r="I190" s="55"/>
+      <c r="H190" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="I190" s="54"/>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C191" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E191" s="34"/>
-      <c r="F191" s="47"/>
+      <c r="F191" s="46"/>
       <c r="G191" s="35"/>
-      <c r="H191" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="I191" s="55"/>
+      <c r="H191" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="I191" s="54"/>
     </row>
     <row r="192" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D192" s="22" t="s">
-        <v>383</v>
+        <v>486</v>
       </c>
       <c r="E192" s="34"/>
-      <c r="F192" s="47"/>
+      <c r="F192" s="46"/>
       <c r="G192" s="35"/>
-      <c r="H192" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="I192" s="55"/>
+      <c r="H192" s="47" t="s">
+        <v>368</v>
+      </c>
+      <c r="I192" s="54"/>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E193" s="34"/>
-      <c r="F193" s="47"/>
+      <c r="F193" s="46"/>
       <c r="G193" s="35"/>
-      <c r="H193" s="47"/>
-      <c r="I193" s="55"/>
+      <c r="H193" s="46"/>
+      <c r="I193" s="54"/>
     </row>
     <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B194" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E194" s="34"/>
-      <c r="F194" s="47"/>
+      <c r="F194" s="46"/>
       <c r="G194" s="35"/>
-      <c r="H194" s="47"/>
-      <c r="I194" s="55"/>
+      <c r="H194" s="46"/>
+      <c r="I194" s="54"/>
     </row>
     <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E195" s="34"/>
-      <c r="F195" s="47"/>
+      <c r="F195" s="46"/>
       <c r="G195" s="35"/>
-      <c r="H195" s="47"/>
-      <c r="I195" s="55"/>
+      <c r="H195" s="46"/>
+      <c r="I195" s="54"/>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B196" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E196" s="34"/>
-      <c r="F196" s="47"/>
+      <c r="F196" s="46"/>
       <c r="G196" s="35"/>
-      <c r="H196" s="47"/>
-      <c r="I196" s="55"/>
+      <c r="H196" s="46"/>
+      <c r="I196" s="54"/>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C197" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E197" s="34"/>
-      <c r="F197" s="47"/>
+      <c r="F197" s="46"/>
       <c r="G197" s="35"/>
-      <c r="H197" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="I197" s="55"/>
+      <c r="H197" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="I197" s="54"/>
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E198" s="34"/>
-      <c r="F198" s="47"/>
+      <c r="F198" s="46"/>
       <c r="G198" s="35"/>
-      <c r="H198" s="47" t="s">
-        <v>260</v>
-      </c>
-      <c r="I198" s="55"/>
+      <c r="H198" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="I198" s="54"/>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E199" s="34"/>
-      <c r="F199" s="47"/>
+      <c r="F199" s="46"/>
       <c r="G199" s="35"/>
-      <c r="H199" s="47"/>
-      <c r="I199" s="55"/>
+      <c r="H199" s="46"/>
+      <c r="I199" s="54"/>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B200" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E200" s="34"/>
-      <c r="F200" s="47"/>
+      <c r="F200" s="46"/>
       <c r="G200" s="35"/>
-      <c r="H200" s="47"/>
-      <c r="I200" s="55"/>
+      <c r="H200" s="46"/>
+      <c r="I200" s="54"/>
     </row>
     <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C201" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E201" s="34"/>
-      <c r="F201" s="47"/>
+      <c r="F201" s="46"/>
       <c r="G201" s="35"/>
-      <c r="H201" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="I201" s="55"/>
+      <c r="H201" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="I201" s="54"/>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C202" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E202" s="34"/>
-      <c r="F202" s="47"/>
+      <c r="F202" s="46"/>
       <c r="G202" s="35"/>
-      <c r="H202" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="I202" s="55"/>
+      <c r="H202" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="I202" s="54"/>
     </row>
     <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E203" s="34"/>
-      <c r="F203" s="47"/>
+      <c r="F203" s="46"/>
       <c r="G203" s="35"/>
-      <c r="H203" s="47"/>
-      <c r="I203" s="55"/>
+      <c r="H203" s="46"/>
+      <c r="I203" s="54"/>
     </row>
     <row r="204" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B204" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E204" s="34"/>
-      <c r="F204" s="47"/>
+      <c r="F204" s="46"/>
       <c r="G204" s="35"/>
-      <c r="H204" s="47"/>
-      <c r="I204" s="55"/>
+      <c r="H204" s="46"/>
+      <c r="I204" s="54"/>
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C205" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E205" s="34"/>
-      <c r="F205" s="47"/>
+      <c r="F205" s="46"/>
       <c r="G205" s="35"/>
-      <c r="H205" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="I205" s="55"/>
+      <c r="H205" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="I205" s="54"/>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C206" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E206" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="F206" s="47"/>
+        <v>323</v>
+      </c>
+      <c r="F206" s="46"/>
       <c r="G206" s="35"/>
-      <c r="H206" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="I206" s="55"/>
+      <c r="H206" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="I206" s="54"/>
     </row>
     <row r="207" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="D207" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="E207" s="72" t="s">
-        <v>366</v>
-      </c>
-      <c r="F207" s="49" t="s">
-        <v>328</v>
+        <v>315</v>
+      </c>
+      <c r="E207" s="71" t="s">
+        <v>468</v>
+      </c>
+      <c r="F207" s="48" t="s">
+        <v>323</v>
       </c>
       <c r="G207" s="35"/>
-      <c r="H207" s="47" t="s">
-        <v>442</v>
-      </c>
-      <c r="I207" s="55" t="s">
-        <v>328</v>
+      <c r="H207" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="I207" s="54" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="208" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>367</v>
+        <v>467</v>
       </c>
       <c r="C208" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="E208" s="72" t="s">
-        <v>211</v>
-      </c>
-      <c r="F208" s="47" t="s">
-        <v>328</v>
+        <v>314</v>
+      </c>
+      <c r="E208" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="F208" s="46" t="s">
+        <v>323</v>
       </c>
       <c r="G208" s="35"/>
-      <c r="H208" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="I208" s="55"/>
+      <c r="H208" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="I208" s="54"/>
     </row>
     <row r="209" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E209" s="34"/>
-      <c r="F209" s="47"/>
+      <c r="F209" s="46"/>
       <c r="G209" s="35"/>
-      <c r="H209" s="47"/>
-      <c r="I209" s="55"/>
+      <c r="H209" s="46"/>
+      <c r="I209" s="54"/>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B210" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E210" s="34"/>
-      <c r="F210" s="47"/>
+      <c r="F210" s="46"/>
       <c r="G210" s="35"/>
-      <c r="H210" s="47"/>
-      <c r="I210" s="55"/>
+      <c r="H210" s="46"/>
+      <c r="I210" s="54"/>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B211" s="5"/>
       <c r="E211" s="34"/>
-      <c r="F211" s="47"/>
+      <c r="F211" s="46"/>
       <c r="G211" s="35"/>
-      <c r="H211" s="47"/>
-      <c r="I211" s="55"/>
+      <c r="H211" s="46"/>
+      <c r="I211" s="54"/>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B212" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E212" s="34"/>
-      <c r="F212" s="47"/>
+      <c r="F212" s="46"/>
       <c r="G212" s="35"/>
-      <c r="H212" s="47"/>
-      <c r="I212" s="55"/>
+      <c r="H212" s="46"/>
+      <c r="I212" s="54"/>
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C213" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E213" s="34"/>
-      <c r="F213" s="47"/>
+      <c r="F213" s="46"/>
       <c r="G213" s="35"/>
-      <c r="H213" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="I213" s="55"/>
+      <c r="H213" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="I213" s="54"/>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C214" s="29" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E214" s="34"/>
-      <c r="F214" s="47"/>
+      <c r="F214" s="46"/>
       <c r="G214" s="35"/>
-      <c r="H214" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="I214" s="55"/>
+      <c r="H214" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="I214" s="54"/>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C215" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E215" s="34"/>
-      <c r="F215" s="47"/>
+      <c r="F215" s="46"/>
       <c r="G215" s="35"/>
-      <c r="H215" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="I215" s="55"/>
+      <c r="H215" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="I215" s="54"/>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E216" s="34"/>
-      <c r="F216" s="47"/>
+      <c r="F216" s="46"/>
       <c r="G216" s="35"/>
-      <c r="H216" s="47"/>
-      <c r="I216" s="55"/>
+      <c r="H216" s="46"/>
+      <c r="I216" s="54"/>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B217" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E217" s="34"/>
-      <c r="F217" s="47"/>
+      <c r="F217" s="46"/>
       <c r="G217" s="35"/>
-      <c r="H217" s="47"/>
-      <c r="I217" s="55"/>
+      <c r="H217" s="46"/>
+      <c r="I217" s="54"/>
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C218" s="29" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="E218" s="34"/>
-      <c r="F218" s="47"/>
+      <c r="F218" s="46"/>
       <c r="G218" s="35"/>
-      <c r="H218" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="I218" s="55"/>
+      <c r="H218" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="I218" s="54"/>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E219" s="34"/>
-      <c r="F219" s="47"/>
+      <c r="F219" s="46"/>
       <c r="G219" s="35"/>
-      <c r="H219" s="47"/>
-      <c r="I219" s="55"/>
+      <c r="H219" s="46"/>
+      <c r="I219" s="54"/>
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B220" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E220" s="34"/>
-      <c r="F220" s="47"/>
+      <c r="F220" s="46"/>
       <c r="G220" s="35"/>
-      <c r="H220" s="47"/>
-      <c r="I220" s="55"/>
+      <c r="H220" s="46"/>
+      <c r="I220" s="54"/>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
+        <v>223</v>
+      </c>
+      <c r="C221" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="C221" s="23" t="s">
-        <v>225</v>
-      </c>
       <c r="E221" s="34"/>
-      <c r="F221" s="47"/>
+      <c r="F221" s="46"/>
       <c r="G221" s="35"/>
-      <c r="H221" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="I221" s="55"/>
+      <c r="H221" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="I221" s="54"/>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E222" s="34"/>
-      <c r="F222" s="47"/>
+      <c r="F222" s="46"/>
       <c r="G222" s="35"/>
-      <c r="H222" s="47"/>
-      <c r="I222" s="55"/>
+      <c r="H222" s="46"/>
+      <c r="I222" s="54"/>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B223" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E223" s="34"/>
-      <c r="F223" s="47"/>
+      <c r="F223" s="46"/>
       <c r="G223" s="35"/>
-      <c r="H223" s="47"/>
-      <c r="I223" s="55"/>
+      <c r="H223" s="46"/>
+      <c r="I223" s="54"/>
     </row>
     <row r="224" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C224" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="E224" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="E224" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F224" s="48" t="s">
-        <v>417</v>
+      <c r="F224" s="47" t="s">
+        <v>483</v>
       </c>
       <c r="G224" s="35"/>
-      <c r="H224" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="I224" s="55"/>
+      <c r="H224" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="I224" s="54"/>
     </row>
     <row r="225" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C225" s="17" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D225" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="E225" s="72" t="s">
-        <v>227</v>
-      </c>
-      <c r="F225" s="50" t="s">
-        <v>417</v>
+        <v>286</v>
+      </c>
+      <c r="E225" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="F225" s="49" t="s">
+        <v>484</v>
       </c>
       <c r="G225" s="35"/>
-      <c r="H225" s="47" t="s">
-        <v>443</v>
-      </c>
-      <c r="I225" s="56" t="s">
-        <v>417</v>
+      <c r="H225" s="46" t="s">
+        <v>426</v>
+      </c>
+      <c r="I225" s="55" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C226" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E226" s="34"/>
-      <c r="F226" s="47"/>
+      <c r="F226" s="46"/>
       <c r="G226" s="35"/>
-      <c r="H226" s="47" t="s">
+      <c r="H226" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="I226" s="55"/>
+      <c r="I226" s="54"/>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C227" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E227" s="34"/>
-      <c r="F227" s="47"/>
+      <c r="F227" s="46"/>
       <c r="G227" s="35"/>
-      <c r="H227" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="I227" s="55"/>
+      <c r="H227" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="I227" s="54"/>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C228" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="E228" s="72" t="s">
-        <v>291</v>
-      </c>
-      <c r="F228" s="49" t="s">
-        <v>292</v>
+        <v>233</v>
+      </c>
+      <c r="E228" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="F228" s="48" t="s">
+        <v>288</v>
       </c>
       <c r="G228" s="35"/>
-      <c r="H228" s="47" t="s">
-        <v>444</v>
-      </c>
-      <c r="I228" s="55" t="s">
-        <v>292</v>
+      <c r="H228" s="46" t="s">
+        <v>427</v>
+      </c>
+      <c r="I228" s="54" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="229" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C229" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="E229" s="44"/>
-      <c r="F229" s="53"/>
-      <c r="G229" s="45"/>
-      <c r="H229" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="I229" s="58"/>
+        <v>283</v>
+      </c>
+      <c r="E229" s="43"/>
+      <c r="F229" s="52"/>
+      <c r="G229" s="44"/>
+      <c r="H229" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="I229" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF60F09E-CC06-415B-A3E1-31F6E34CA6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C8979F-38E5-42E4-B629-1B4B389C435B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="491">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -1401,15 +1401,6 @@
   <si>
     <t>F&lt;LIST&gt; ? &lt;DOT_EXPR&gt; ? ; F&lt;LIST_G&gt; ?
  F&lt;LIST_C&gt;</t>
-  </si>
-  <si>
-    <t>[ ? ; ?&lt;LIST_ARR&gt;</t>
-  </si>
-  <si>
-    <t>[? ;?&lt;LIST_ARR&gt;</t>
-  </si>
-  <si>
-    <t>[?;?,</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;ID_TO_EXPR&gt;   </t>
@@ -1552,6 +1543,21 @@
   <si>
     <t>power ?  mdm ?  pm ? Rop ? And ? Or ? 
 Null</t>
+  </si>
+  <si>
+    <t>[ ?null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DIM_PASS&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;CONSTR_ARR&gt;?&lt;FN_ARR&gt;</t>
+  </si>
+  <si>
+    <t>&lt;EXPR_OBJ&gt;?&lt;INIT&gt;?;</t>
+  </si>
+  <si>
+    <t>, ? ) ? ;?;</t>
   </si>
 </sst>
 </file>
@@ -1622,7 +1628,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1664,6 +1670,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -1865,7 +1876,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1874,8 +1885,9 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1965,9 +1977,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1996,9 +2005,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -2047,16 +2053,70 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="8" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="6" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
+    <cellStyle name="Accent2" xfId="8" builtinId="33"/>
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
     <cellStyle name="Bad" xfId="7" builtinId="27"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
@@ -2342,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2369,19 +2429,19 @@
       <c r="D1" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="44" t="s">
         <v>279</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="56" t="s">
         <v>325</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="52" t="s">
         <v>402</v>
       </c>
     </row>
@@ -2392,10 +2452,10 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="34"/>
-      <c r="F2" s="46"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="35"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="54"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -2410,12 +2470,12 @@
       <c r="E3" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="F3" s="46"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="35"/>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="53" t="s">
         <v>324</v>
       </c>
     </row>
@@ -2427,19 +2487,19 @@
         <v>280</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="E4" s="71" t="s">
+        <v>462</v>
+      </c>
+      <c r="E4" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>324</v>
       </c>
       <c r="G4" s="35"/>
-      <c r="H4" s="51" t="s">
-        <v>462</v>
-      </c>
-      <c r="I4" s="54" t="s">
+      <c r="H4" s="50" t="s">
+        <v>459</v>
+      </c>
+      <c r="I4" s="53" t="s">
         <v>324</v>
       </c>
     </row>
@@ -2451,18 +2511,18 @@
         <v>236</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="E5" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="E5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="H5" s="51" t="s">
-        <v>461</v>
-      </c>
-      <c r="I5" s="54" t="s">
+      <c r="H5" s="50" t="s">
+        <v>458</v>
+      </c>
+      <c r="I5" s="53" t="s">
         <v>324</v>
       </c>
     </row>
@@ -2474,18 +2534,18 @@
         <v>262</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="E6" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="E6" s="69" t="s">
         <v>281</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="H6" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="I6" s="54" t="s">
+      <c r="H6" s="50" t="s">
+        <v>457</v>
+      </c>
+      <c r="I6" s="53" t="s">
         <v>324</v>
       </c>
     </row>
@@ -2494,20 +2554,20 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="34"/>
-      <c r="F7" s="46"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="35"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="54"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="53"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="34"/>
-      <c r="F8" s="46"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="35"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="54"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="53"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -2516,10 +2576,10 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="34"/>
-      <c r="F9" s="46"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="54"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="53"/>
     </row>
     <row r="10" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -2529,61 +2589,61 @@
         <v>9</v>
       </c>
       <c r="D10" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="G10" s="37" t="s">
         <v>480</v>
       </c>
-      <c r="E10" s="72" t="s">
-        <v>320</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>480</v>
-      </c>
-      <c r="I10" s="54"/>
+      <c r="H10" s="46" t="s">
+        <v>477</v>
+      </c>
+      <c r="I10" s="53"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="46"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="54"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="53"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="34"/>
-      <c r="F12" s="46"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="54"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="53"/>
     </row>
     <row r="13" spans="2:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>478</v>
-      </c>
-      <c r="E13" s="71" t="s">
+        <v>475</v>
+      </c>
+      <c r="E13" s="69" t="s">
         <v>319</v>
       </c>
-      <c r="F13" s="47" t="s">
-        <v>483</v>
+      <c r="F13" s="46" t="s">
+        <v>480</v>
       </c>
       <c r="G13" s="37"/>
-      <c r="H13" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="I13" s="54"/>
+      <c r="H13" s="46" t="s">
+        <v>476</v>
+      </c>
+      <c r="I13" s="53"/>
     </row>
     <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -2593,19 +2653,19 @@
         <v>28</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="E14" s="71" t="s">
+        <v>478</v>
+      </c>
+      <c r="E14" s="69" t="s">
         <v>291</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="47" t="s">
         <v>289</v>
       </c>
       <c r="G14" s="35"/>
-      <c r="H14" s="47" t="s">
-        <v>482</v>
-      </c>
-      <c r="I14" s="54" t="s">
+      <c r="H14" s="46" t="s">
+        <v>479</v>
+      </c>
+      <c r="I14" s="53" t="s">
         <v>289</v>
       </c>
     </row>
@@ -2614,10 +2674,10 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="34"/>
-      <c r="F15" s="46"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="54"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="53"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
@@ -2626,10 +2686,10 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="46"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="54"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="53"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
@@ -2640,22 +2700,22 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="34"/>
-      <c r="F17" s="46"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="59" t="s">
+      <c r="H17" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="I17" s="54"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="34"/>
-      <c r="F18" s="46"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="54"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="53"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
@@ -2664,10 +2724,10 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="46"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="54"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="53"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
@@ -2678,12 +2738,12 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="46"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="54"/>
+      <c r="I20" s="53"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -2694,12 +2754,12 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="34"/>
-      <c r="F21" s="46"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="54"/>
+      <c r="I21" s="53"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
@@ -2710,12 +2770,12 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="34"/>
-      <c r="F22" s="46"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="35"/>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="I22" s="54"/>
+      <c r="I22" s="53"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
@@ -2726,22 +2786,22 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="34"/>
-      <c r="F23" s="46"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="I23" s="54"/>
+      <c r="I23" s="53"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="34"/>
-      <c r="F24" s="46"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="54"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="53"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
@@ -2750,10 +2810,10 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="34"/>
-      <c r="F25" s="46"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="35"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="54"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="53"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
@@ -2764,12 +2824,12 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="34"/>
-      <c r="F26" s="46"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="35"/>
-      <c r="H26" s="59" t="s">
+      <c r="H26" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="I26" s="54"/>
+      <c r="I26" s="53"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
@@ -2780,12 +2840,12 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="34"/>
-      <c r="F27" s="46"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="35"/>
-      <c r="H27" s="59" t="s">
+      <c r="H27" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="I27" s="54"/>
+      <c r="I27" s="53"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
@@ -2795,17 +2855,17 @@
         <v>29</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="71" t="s">
+      <c r="E28" s="69" t="s">
         <v>327</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="45" t="s">
         <v>292</v>
       </c>
       <c r="G28" s="35"/>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="54"/>
+      <c r="I28" s="53"/>
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
@@ -2815,17 +2875,17 @@
         <v>237</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="70" t="s">
         <v>328</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="47" t="s">
         <v>292</v>
       </c>
       <c r="G29" s="35"/>
-      <c r="H29" s="59" t="s">
+      <c r="H29" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="54" t="s">
+      <c r="I29" s="53" t="s">
         <v>403</v>
       </c>
     </row>
@@ -2838,22 +2898,22 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="34"/>
-      <c r="F30" s="46"/>
+      <c r="F30" s="45"/>
       <c r="G30" s="35"/>
-      <c r="H30" s="59" t="s">
+      <c r="H30" s="57" t="s">
         <v>365</v>
       </c>
-      <c r="I30" s="54"/>
+      <c r="I30" s="53"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="34"/>
-      <c r="F31" s="46"/>
+      <c r="F31" s="45"/>
       <c r="G31" s="35"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="54"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="53"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
@@ -2862,10 +2922,10 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="34"/>
-      <c r="F32" s="46"/>
+      <c r="F32" s="45"/>
       <c r="G32" s="35"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="54"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="53"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
@@ -2875,17 +2935,17 @@
         <v>31</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="71" t="s">
+      <c r="E33" s="69" t="s">
         <v>312</v>
       </c>
-      <c r="F33" s="65" t="s">
+      <c r="F33" s="63" t="s">
         <v>295</v>
       </c>
       <c r="G33" s="35"/>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="57" t="s">
         <v>404</v>
       </c>
-      <c r="I33" s="54" t="s">
+      <c r="I33" s="53" t="s">
         <v>295</v>
       </c>
     </row>
@@ -2894,30 +2954,30 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="34"/>
-      <c r="F34" s="46"/>
+      <c r="F34" s="45"/>
       <c r="G34" s="35"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="54"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="53"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="34"/>
-      <c r="F35" s="46"/>
+      <c r="F35" s="45"/>
       <c r="G35" s="35"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="54"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="53"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="34"/>
-      <c r="F36" s="46"/>
+      <c r="F36" s="45"/>
       <c r="G36" s="35"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="54"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="53"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
@@ -2926,10 +2986,10 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="34"/>
-      <c r="F37" s="46"/>
+      <c r="F37" s="45"/>
       <c r="G37" s="35"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="54"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="53"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
@@ -2940,12 +3000,12 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="46"/>
+      <c r="F38" s="45"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="59" t="s">
+      <c r="H38" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="54"/>
+      <c r="I38" s="53"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -2956,12 +3016,12 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="46"/>
+      <c r="F39" s="45"/>
       <c r="G39" s="35"/>
-      <c r="H39" s="59" t="s">
+      <c r="H39" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="54"/>
+      <c r="I39" s="53"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
@@ -2974,12 +3034,12 @@
         <v>370</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="46"/>
+      <c r="F40" s="45"/>
       <c r="G40" s="35"/>
-      <c r="H40" s="59" t="s">
+      <c r="H40" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="I40" s="54"/>
+      <c r="I40" s="53"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -2990,12 +3050,12 @@
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="34"/>
-      <c r="F41" s="46"/>
+      <c r="F41" s="45"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="59" t="s">
+      <c r="H41" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="I41" s="54"/>
+      <c r="I41" s="53"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
@@ -3008,22 +3068,22 @@
         <v>371</v>
       </c>
       <c r="E42" s="34"/>
-      <c r="F42" s="46"/>
+      <c r="F42" s="45"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="59" t="s">
+      <c r="H42" s="57" t="s">
         <v>371</v>
       </c>
-      <c r="I42" s="54"/>
+      <c r="I42" s="53"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="34"/>
-      <c r="F43" s="46"/>
+      <c r="F43" s="45"/>
       <c r="G43" s="35"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="54"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="53"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
@@ -3036,12 +3096,12 @@
         <v>332</v>
       </c>
       <c r="E44" s="34"/>
-      <c r="F44" s="46"/>
+      <c r="F44" s="45"/>
       <c r="G44" s="35"/>
-      <c r="H44" s="59" t="s">
+      <c r="H44" s="57" t="s">
         <v>332</v>
       </c>
-      <c r="I44" s="54"/>
+      <c r="I44" s="53"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
@@ -3053,7 +3113,7 @@
       <c r="D45" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="E45" s="71" t="s">
+      <c r="E45" s="69" t="s">
         <v>39</v>
       </c>
       <c r="F45" s="18" t="s">
@@ -3062,10 +3122,10 @@
       <c r="G45" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="59" t="s">
+      <c r="H45" s="57" t="s">
         <v>405</v>
       </c>
-      <c r="I45" s="54" t="s">
+      <c r="I45" s="53" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3074,10 +3134,10 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="34"/>
-      <c r="F46" s="46"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="35"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="54"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="53"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
@@ -3086,10 +3146,10 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="34"/>
-      <c r="F47" s="46"/>
+      <c r="F47" s="45"/>
       <c r="G47" s="35"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="54"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="53"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
@@ -3100,12 +3160,12 @@
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="34"/>
-      <c r="F48" s="46"/>
+      <c r="F48" s="45"/>
       <c r="G48" s="35"/>
-      <c r="H48" s="59" t="s">
+      <c r="H48" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="I48" s="54"/>
+      <c r="I48" s="53"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
@@ -3118,12 +3178,12 @@
         <v>245</v>
       </c>
       <c r="E49" s="34"/>
-      <c r="F49" s="46"/>
+      <c r="F49" s="45"/>
       <c r="G49" s="35"/>
-      <c r="H49" s="59" t="s">
+      <c r="H49" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="I49" s="54"/>
+      <c r="I49" s="53"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
@@ -3136,12 +3196,12 @@
         <v>373</v>
       </c>
       <c r="E50" s="34"/>
-      <c r="F50" s="46"/>
+      <c r="F50" s="45"/>
       <c r="G50" s="35"/>
-      <c r="H50" s="59" t="s">
+      <c r="H50" s="57" t="s">
         <v>373</v>
       </c>
-      <c r="I50" s="54"/>
+      <c r="I50" s="53"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
@@ -3154,12 +3214,12 @@
         <v>374</v>
       </c>
       <c r="E51" s="34"/>
-      <c r="F51" s="46"/>
+      <c r="F51" s="45"/>
       <c r="G51" s="35"/>
-      <c r="H51" s="59" t="s">
+      <c r="H51" s="57" t="s">
         <v>374</v>
       </c>
-      <c r="I51" s="54"/>
+      <c r="I51" s="53"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
@@ -3172,12 +3232,12 @@
         <v>373</v>
       </c>
       <c r="E52" s="34"/>
-      <c r="F52" s="46"/>
+      <c r="F52" s="45"/>
       <c r="G52" s="35"/>
-      <c r="H52" s="59" t="s">
+      <c r="H52" s="57" t="s">
         <v>373</v>
       </c>
-      <c r="I52" s="54"/>
+      <c r="I52" s="53"/>
     </row>
     <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
@@ -3189,7 +3249,7 @@
       <c r="D53" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="E53" s="71" t="s">
+      <c r="E53" s="69" t="s">
         <v>294</v>
       </c>
       <c r="F53" s="18" t="s">
@@ -3198,10 +3258,10 @@
       <c r="G53" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H53" s="59" t="s">
+      <c r="H53" s="57" t="s">
         <v>406</v>
       </c>
-      <c r="I53" s="54" t="s">
+      <c r="I53" s="53" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3214,22 +3274,22 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="34"/>
-      <c r="F54" s="46"/>
+      <c r="F54" s="45"/>
       <c r="G54" s="35"/>
-      <c r="H54" s="59" t="s">
+      <c r="H54" s="57" t="s">
         <v>376</v>
       </c>
-      <c r="I54" s="54"/>
+      <c r="I54" s="53"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="34"/>
-      <c r="F55" s="46"/>
+      <c r="F55" s="45"/>
       <c r="G55" s="35"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="54"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="53"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
@@ -3238,10 +3298,10 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="34"/>
-      <c r="F56" s="46"/>
+      <c r="F56" s="45"/>
       <c r="G56" s="35"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="54"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="53"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
@@ -3254,30 +3314,30 @@
         <v>241</v>
       </c>
       <c r="E57" s="34"/>
-      <c r="F57" s="46"/>
+      <c r="F57" s="45"/>
       <c r="G57" s="35"/>
-      <c r="H57" s="59" t="s">
+      <c r="H57" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="I57" s="54"/>
+      <c r="I57" s="53"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D58" s="29" t="s">
         <v>372</v>
       </c>
       <c r="E58" s="34"/>
-      <c r="F58" s="46"/>
+      <c r="F58" s="45"/>
       <c r="G58" s="35"/>
-      <c r="H58" s="46" t="s">
+      <c r="H58" s="45" t="s">
         <v>372</v>
       </c>
-      <c r="I58" s="54"/>
+      <c r="I58" s="53"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
@@ -3288,12 +3348,12 @@
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="34"/>
-      <c r="F59" s="46"/>
+      <c r="F59" s="45"/>
       <c r="G59" s="35"/>
-      <c r="H59" s="59" t="s">
+      <c r="H59" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="I59" s="54"/>
+      <c r="I59" s="53"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
@@ -3306,12 +3366,12 @@
       <c r="E60" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="F60" s="46"/>
+      <c r="F60" s="45"/>
       <c r="G60" s="35"/>
-      <c r="H60" s="59" t="s">
+      <c r="H60" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="I60" s="54" t="s">
+      <c r="I60" s="53" t="s">
         <v>295</v>
       </c>
     </row>
@@ -3326,12 +3386,12 @@
       <c r="E61" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="46"/>
+      <c r="F61" s="45"/>
       <c r="G61" s="35"/>
-      <c r="H61" s="59" t="s">
+      <c r="H61" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="I61" s="54" t="s">
+      <c r="I61" s="53" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3344,12 +3404,12 @@
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="34"/>
-      <c r="F62" s="46"/>
+      <c r="F62" s="45"/>
       <c r="G62" s="35"/>
-      <c r="H62" s="59" t="s">
+      <c r="H62" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="I62" s="54"/>
+      <c r="I62" s="53"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
@@ -3360,22 +3420,22 @@
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="34"/>
-      <c r="F63" s="46"/>
+      <c r="F63" s="45"/>
       <c r="G63" s="35"/>
-      <c r="H63" s="59" t="s">
+      <c r="H63" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="54"/>
+      <c r="I63" s="53"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="34"/>
-      <c r="F64" s="46"/>
+      <c r="F64" s="45"/>
       <c r="G64" s="35"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="54"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="53"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
@@ -3384,10 +3444,10 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="34"/>
-      <c r="F65" s="46"/>
+      <c r="F65" s="45"/>
       <c r="G65" s="35"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="54"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="53"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
@@ -3400,12 +3460,12 @@
         <v>251</v>
       </c>
       <c r="E66" s="34"/>
-      <c r="F66" s="46"/>
+      <c r="F66" s="45"/>
       <c r="G66" s="35"/>
-      <c r="H66" s="59" t="s">
+      <c r="H66" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="I66" s="54"/>
+      <c r="I66" s="53"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
@@ -3417,27 +3477,27 @@
       <c r="D67" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E67" s="71" t="s">
+      <c r="E67" s="69" t="s">
         <v>322</v>
       </c>
-      <c r="F67" s="46" t="s">
+      <c r="F67" s="45" t="s">
         <v>251</v>
       </c>
       <c r="G67" s="35"/>
-      <c r="H67" s="59" t="s">
+      <c r="H67" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="I67" s="54"/>
+      <c r="I67" s="53"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="34"/>
-      <c r="F68" s="46"/>
+      <c r="F68" s="45"/>
       <c r="G68" s="35"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="54"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="53"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
@@ -3446,10 +3506,10 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="34"/>
-      <c r="F69" s="46"/>
+      <c r="F69" s="45"/>
       <c r="G69" s="35"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="54"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="53"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
@@ -3458,10 +3518,10 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="34"/>
-      <c r="F70" s="46"/>
+      <c r="F70" s="45"/>
       <c r="G70" s="35"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="54"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="53"/>
     </row>
     <row r="71" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
@@ -3473,19 +3533,19 @@
       <c r="D71" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="E71" s="71" t="s">
+      <c r="E71" s="69" t="s">
         <v>339</v>
       </c>
-      <c r="F71" s="66" t="s">
+      <c r="F71" s="64" t="s">
         <v>378</v>
       </c>
       <c r="G71" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="H71" s="51" t="s">
+      <c r="H71" s="50" t="s">
         <v>409</v>
       </c>
-      <c r="I71" s="55" t="s">
+      <c r="I71" s="54" t="s">
         <v>379</v>
       </c>
     </row>
@@ -3497,19 +3557,19 @@
         <v>29</v>
       </c>
       <c r="D72" s="1"/>
-      <c r="E72" s="73" t="s">
+      <c r="E72" s="71" t="s">
         <v>340</v>
       </c>
-      <c r="F72" s="67" t="s">
+      <c r="F72" s="65" t="s">
         <v>380</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="H72" s="59" t="s">
+      <c r="H72" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I72" s="54"/>
+      <c r="I72" s="53"/>
     </row>
     <row r="73" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
@@ -3519,17 +3579,17 @@
         <v>243</v>
       </c>
       <c r="D73" s="1"/>
-      <c r="E73" s="71" t="s">
+      <c r="E73" s="69" t="s">
         <v>313</v>
       </c>
       <c r="F73" s="19" t="s">
         <v>381</v>
       </c>
       <c r="G73" s="35"/>
-      <c r="H73" s="51" t="s">
+      <c r="H73" s="50" t="s">
         <v>410</v>
       </c>
-      <c r="I73" s="55" t="s">
+      <c r="I73" s="54" t="s">
         <v>381</v>
       </c>
     </row>
@@ -3542,12 +3602,12 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="34"/>
-      <c r="F74" s="46"/>
+      <c r="F74" s="45"/>
       <c r="G74" s="35"/>
-      <c r="H74" s="59" t="s">
+      <c r="H74" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="I74" s="54"/>
+      <c r="I74" s="53"/>
     </row>
     <row r="75" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
@@ -3560,12 +3620,12 @@
         <v>357</v>
       </c>
       <c r="E75" s="34"/>
-      <c r="F75" s="46"/>
+      <c r="F75" s="45"/>
       <c r="G75" s="35"/>
-      <c r="H75" s="47" t="s">
+      <c r="H75" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="I75" s="54"/>
+      <c r="I75" s="53"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
@@ -3576,12 +3636,12 @@
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="34"/>
-      <c r="F76" s="46"/>
+      <c r="F76" s="45"/>
       <c r="G76" s="35"/>
-      <c r="H76" s="46" t="s">
+      <c r="H76" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="I76" s="54"/>
+      <c r="I76" s="53"/>
     </row>
     <row r="77" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
@@ -3593,17 +3653,17 @@
       <c r="D77" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="E77" s="71" t="s">
+      <c r="E77" s="69" t="s">
         <v>303</v>
       </c>
-      <c r="F77" s="46" t="s">
+      <c r="F77" s="45" t="s">
         <v>41</v>
       </c>
       <c r="G77" s="35"/>
-      <c r="H77" s="51" t="s">
+      <c r="H77" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="I77" s="54"/>
+      <c r="I77" s="53"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
@@ -3614,20 +3674,20 @@
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="34"/>
-      <c r="F78" s="46"/>
+      <c r="F78" s="45"/>
       <c r="G78" s="35"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="54"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="53"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="34"/>
-      <c r="F79" s="46"/>
+      <c r="F79" s="45"/>
       <c r="G79" s="35"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="54"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="53"/>
     </row>
     <row r="80" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
@@ -3636,10 +3696,10 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="34"/>
-      <c r="F80" s="46"/>
+      <c r="F80" s="45"/>
       <c r="G80" s="35"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="54"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="53"/>
     </row>
     <row r="81" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
@@ -3651,7 +3711,7 @@
       <c r="D81" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="E81" s="71" t="s">
+      <c r="E81" s="69" t="s">
         <v>343</v>
       </c>
       <c r="F81" s="18" t="s">
@@ -3660,10 +3720,10 @@
       <c r="G81" s="40" t="s">
         <v>382</v>
       </c>
-      <c r="H81" s="60" t="s">
+      <c r="H81" s="58" t="s">
         <v>411</v>
       </c>
-      <c r="I81" s="55" t="s">
+      <c r="I81" s="54" t="s">
         <v>382</v>
       </c>
     </row>
@@ -3677,17 +3737,17 @@
       <c r="D82" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="E82" s="71" t="s">
+      <c r="E82" s="69" t="s">
         <v>317</v>
       </c>
       <c r="F82" s="18" t="s">
         <v>317</v>
       </c>
       <c r="G82" s="35"/>
-      <c r="H82" s="61" t="s">
+      <c r="H82" s="59" t="s">
         <v>277</v>
       </c>
-      <c r="I82" s="54"/>
+      <c r="I82" s="53"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
@@ -3697,27 +3757,27 @@
         <v>276</v>
       </c>
       <c r="D83" s="1"/>
-      <c r="E83" s="71" t="s">
+      <c r="E83" s="69" t="s">
         <v>316</v>
       </c>
-      <c r="F83" s="68" t="s">
+      <c r="F83" s="66" t="s">
         <v>317</v>
       </c>
       <c r="G83" s="35"/>
-      <c r="H83" s="59" t="s">
+      <c r="H83" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="I83" s="54"/>
+      <c r="I83" s="53"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="34"/>
-      <c r="F84" s="46"/>
+      <c r="F84" s="45"/>
       <c r="G84" s="35"/>
-      <c r="H84" s="46"/>
-      <c r="I84" s="54"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="53"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
@@ -3726,10 +3786,10 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="34"/>
-      <c r="F85" s="46"/>
+      <c r="F85" s="45"/>
       <c r="G85" s="35"/>
-      <c r="H85" s="46"/>
-      <c r="I85" s="54"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="53"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
@@ -3738,26 +3798,26 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="34"/>
-      <c r="F86" s="46"/>
+      <c r="F86" s="45"/>
       <c r="G86" s="35"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="54"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="53"/>
     </row>
     <row r="87" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="F87" s="47"/>
-      <c r="H87" s="59" t="s">
-        <v>487</v>
-      </c>
-      <c r="I87" s="54"/>
+        <v>484</v>
+      </c>
+      <c r="F87" s="46"/>
+      <c r="H87" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="I87" s="53"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
@@ -3770,57 +3830,57 @@
         <v>273</v>
       </c>
       <c r="E88" s="34"/>
-      <c r="F88" s="46"/>
+      <c r="F88" s="45"/>
       <c r="G88" s="35"/>
-      <c r="H88" s="59" t="s">
+      <c r="H88" s="57" t="s">
         <v>273</v>
       </c>
-      <c r="I88" s="54"/>
+      <c r="I88" s="53"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="12"/>
       <c r="D89" s="20"/>
       <c r="E89" s="34"/>
-      <c r="F89" s="46"/>
+      <c r="F89" s="45"/>
       <c r="G89" s="35"/>
-      <c r="H89" s="59"/>
-      <c r="I89" s="54"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="53"/>
     </row>
     <row r="90" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E90" s="38"/>
-      <c r="F90" s="46"/>
+      <c r="F90" s="45"/>
       <c r="G90" s="35"/>
-      <c r="H90" s="51" t="s">
-        <v>475</v>
-      </c>
-      <c r="I90" s="54"/>
+      <c r="H90" s="50" t="s">
+        <v>472</v>
+      </c>
+      <c r="I90" s="53"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="F91" s="47"/>
+      <c r="F91" s="46"/>
       <c r="G91" s="35"/>
-      <c r="H91" s="59" t="s">
+      <c r="H91" s="57" t="s">
         <v>346</v>
       </c>
-      <c r="I91" s="54"/>
+      <c r="I91" s="53"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
@@ -3831,10 +3891,10 @@
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="34"/>
-      <c r="F92" s="46"/>
+      <c r="F92" s="45"/>
       <c r="G92" s="35"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="54"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="53"/>
     </row>
     <row r="93" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
@@ -3846,16 +3906,16 @@
       <c r="D93" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="E93" s="72" t="s">
+      <c r="E93" s="70" t="s">
         <v>444</v>
       </c>
-      <c r="F93" s="46" t="s">
+      <c r="F93" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="H93" s="47" t="s">
+      <c r="H93" s="46" t="s">
         <v>383</v>
       </c>
-      <c r="I93" s="54"/>
+      <c r="I93" s="53"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
@@ -3870,12 +3930,12 @@
       <c r="E94" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="F94" s="46"/>
+      <c r="F94" s="45"/>
       <c r="G94" s="35"/>
-      <c r="H94" s="59" t="s">
+      <c r="H94" s="57" t="s">
         <v>360</v>
       </c>
-      <c r="I94" s="54"/>
+      <c r="I94" s="53"/>
     </row>
     <row r="95" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
@@ -3890,26 +3950,26 @@
       <c r="E95" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="F95" s="46" t="s">
+      <c r="F95" s="45" t="s">
         <v>94</v>
       </c>
       <c r="G95" s="35"/>
-      <c r="H95" s="50" t="s">
+      <c r="H95" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="I95" s="54"/>
+      <c r="I95" s="53"/>
     </row>
     <row r="96" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="E96" s="71" t="s">
+        <v>449</v>
+      </c>
+      <c r="E96" s="69" t="s">
         <v>298</v>
       </c>
       <c r="F96" s="18" t="s">
@@ -3918,10 +3978,10 @@
       <c r="G96" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="H96" s="51" t="s">
-        <v>452</v>
-      </c>
-      <c r="I96" s="54" t="s">
+      <c r="H96" s="50" t="s">
+        <v>449</v>
+      </c>
+      <c r="I96" s="53" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3930,12 +3990,12 @@
         <v>85</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="E97" s="71" t="s">
+        <v>447</v>
+      </c>
+      <c r="E97" s="69" t="s">
         <v>297</v>
       </c>
       <c r="F97" s="18" t="s">
@@ -3944,10 +4004,10 @@
       <c r="G97" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="H97" s="51" t="s">
-        <v>450</v>
-      </c>
-      <c r="I97" s="54" t="s">
+      <c r="H97" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="I97" s="53" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3961,7 +4021,7 @@
       <c r="D98" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="E98" s="71" t="s">
+      <c r="E98" s="69" t="s">
         <v>297</v>
       </c>
       <c r="F98" s="18" t="s">
@@ -3970,24 +4030,24 @@
       <c r="G98" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="H98" s="51" t="s">
+      <c r="H98" s="50" t="s">
         <v>413</v>
       </c>
-      <c r="I98" s="54" t="s">
+      <c r="I98" s="53" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="99" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="E99" s="72" t="s">
+        <v>485</v>
+      </c>
+      <c r="E99" s="70" t="s">
         <v>300</v>
       </c>
       <c r="F99" s="18" t="s">
@@ -3996,10 +4056,10 @@
       <c r="G99" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="H99" s="59" t="s">
+      <c r="H99" s="57" t="s">
         <v>412</v>
       </c>
-      <c r="I99" s="54" t="s">
+      <c r="I99" s="53" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4012,12 +4072,12 @@
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="34"/>
-      <c r="F100" s="46"/>
+      <c r="F100" s="45"/>
       <c r="G100" s="35"/>
-      <c r="H100" s="59" t="s">
+      <c r="H100" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="I100" s="54"/>
+      <c r="I100" s="53"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
@@ -4028,22 +4088,22 @@
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="34"/>
-      <c r="F101" s="46"/>
+      <c r="F101" s="45"/>
       <c r="G101" s="35"/>
-      <c r="H101" s="61" t="s">
+      <c r="H101" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="I101" s="54"/>
+      <c r="I101" s="53"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="34"/>
-      <c r="F102" s="46"/>
+      <c r="F102" s="45"/>
       <c r="G102" s="35"/>
-      <c r="H102" s="46"/>
-      <c r="I102" s="54"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="53"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
@@ -4052,10 +4112,10 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="34"/>
-      <c r="F103" s="46"/>
+      <c r="F103" s="45"/>
       <c r="G103" s="35"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="54"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="53"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
@@ -4064,10 +4124,10 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="34"/>
-      <c r="F104" s="46"/>
+      <c r="F104" s="45"/>
       <c r="G104" s="35"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="54"/>
+      <c r="H104" s="45"/>
+      <c r="I104" s="53"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
@@ -4080,12 +4140,12 @@
         <v>269</v>
       </c>
       <c r="E105" s="34"/>
-      <c r="F105" s="46"/>
+      <c r="F105" s="45"/>
       <c r="G105" s="35"/>
-      <c r="H105" s="59" t="s">
+      <c r="H105" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="I105" s="54"/>
+      <c r="I105" s="53"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
@@ -4098,12 +4158,12 @@
         <v>270</v>
       </c>
       <c r="E106" s="34"/>
-      <c r="F106" s="46"/>
+      <c r="F106" s="45"/>
       <c r="G106" s="35"/>
-      <c r="H106" s="59" t="s">
+      <c r="H106" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="I106" s="54"/>
+      <c r="I106" s="53"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
@@ -4114,12 +4174,12 @@
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="34"/>
-      <c r="F107" s="46"/>
+      <c r="F107" s="45"/>
       <c r="G107" s="35"/>
-      <c r="H107" s="59" t="s">
+      <c r="H107" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="I107" s="54"/>
+      <c r="I107" s="53"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
@@ -4132,22 +4192,22 @@
         <v>271</v>
       </c>
       <c r="E108" s="34"/>
-      <c r="F108" s="46"/>
+      <c r="F108" s="45"/>
       <c r="G108" s="35"/>
-      <c r="H108" s="61" t="s">
+      <c r="H108" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="I108" s="54"/>
+      <c r="I108" s="53"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="34"/>
-      <c r="F109" s="46"/>
+      <c r="F109" s="45"/>
       <c r="G109" s="35"/>
-      <c r="H109" s="46"/>
-      <c r="I109" s="54"/>
+      <c r="H109" s="45"/>
+      <c r="I109" s="53"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
@@ -4156,10 +4216,10 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="34"/>
-      <c r="F110" s="46"/>
+      <c r="F110" s="45"/>
       <c r="G110" s="35"/>
-      <c r="H110" s="46"/>
-      <c r="I110" s="54"/>
+      <c r="H110" s="45"/>
+      <c r="I110" s="53"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
@@ -4169,301 +4229,300 @@
         <v>106</v>
       </c>
       <c r="D111" s="1"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="46"/>
+      <c r="E111" s="34" t="s">
+        <v>489</v>
+      </c>
+      <c r="F111" s="46" t="s">
+        <v>490</v>
+      </c>
       <c r="G111" s="35"/>
-      <c r="H111" s="59" t="s">
+      <c r="H111" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="I111" s="54"/>
+      <c r="I111" s="53"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C112" s="80" t="s">
-        <v>469</v>
-      </c>
-      <c r="E112" s="34"/>
+      <c r="C112" s="75" t="s">
+        <v>466</v>
+      </c>
+      <c r="E112" s="34" t="s">
+        <v>104</v>
+      </c>
       <c r="F112" s="46"/>
       <c r="G112" s="35"/>
-      <c r="H112" s="59" t="s">
-        <v>469</v>
-      </c>
-      <c r="I112" s="54"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H112" s="57" t="s">
+        <v>466</v>
+      </c>
+      <c r="I112" s="53"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="E113" s="34"/>
+        <v>468</v>
+      </c>
+      <c r="E113" s="34" t="s">
+        <v>105</v>
+      </c>
       <c r="F113" s="46"/>
       <c r="G113" s="35"/>
-      <c r="H113" s="59" t="s">
-        <v>471</v>
-      </c>
-      <c r="I113" s="54"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H113" s="57" t="s">
+        <v>468</v>
+      </c>
+      <c r="I113" s="53"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="34"/>
-      <c r="F114" s="46"/>
+      <c r="F114" s="45"/>
       <c r="G114" s="35"/>
-      <c r="H114" s="46"/>
-      <c r="I114" s="54"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H114" s="45"/>
+      <c r="I114" s="53"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
         <v>108</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="34"/>
-      <c r="F115" s="46"/>
+      <c r="F115" s="45"/>
       <c r="G115" s="35"/>
-      <c r="H115" s="46"/>
-      <c r="I115" s="54"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="31"/>
-      <c r="B116" s="1" t="s">
+      <c r="H115" s="45"/>
+      <c r="I115" s="53"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C116" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="D116" s="20" t="s">
+      <c r="D116" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="E116" s="34"/>
-      <c r="F116" s="47"/>
-      <c r="G116" s="35"/>
-      <c r="H116" s="59" t="s">
+      <c r="E116" s="78"/>
+      <c r="F116" s="79"/>
+      <c r="G116" s="80"/>
+      <c r="H116" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="I116" s="54"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="31"/>
-      <c r="B117" s="1" t="s">
+      <c r="I116" s="82"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="C117" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="D117" s="20" t="s">
+      <c r="D117" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="E117" s="34"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="37"/>
-      <c r="H117" s="59" t="s">
+      <c r="E117" s="78"/>
+      <c r="F117" s="79"/>
+      <c r="G117" s="83"/>
+      <c r="H117" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="I117" s="54"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="31"/>
-      <c r="B118" s="1" t="s">
+      <c r="I117" s="82"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="D118" s="1"/>
-      <c r="E118" s="38"/>
-      <c r="F118" s="47"/>
-      <c r="G118" s="35"/>
-      <c r="H118" s="59" t="s">
+      <c r="D118" s="76"/>
+      <c r="E118" s="84"/>
+      <c r="F118" s="79"/>
+      <c r="G118" s="80"/>
+      <c r="H118" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="I118" s="54"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="31"/>
-      <c r="B119" s="1" t="s">
+      <c r="I118" s="82"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="D119" s="1"/>
-      <c r="E119" s="34"/>
-      <c r="F119" s="47"/>
-      <c r="G119" s="35"/>
-      <c r="H119" s="61" t="s">
+      <c r="D119" s="76"/>
+      <c r="E119" s="78"/>
+      <c r="F119" s="79"/>
+      <c r="G119" s="80"/>
+      <c r="H119" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="I119" s="54"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="31"/>
-      <c r="B120" s="1" t="s">
+      <c r="I119" s="82"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C120" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="21" t="s">
+      <c r="D120" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="E120" s="34"/>
-      <c r="F120" s="47"/>
-      <c r="G120" s="35"/>
-      <c r="H120" s="51" t="s">
+      <c r="E120" s="78"/>
+      <c r="F120" s="79"/>
+      <c r="G120" s="80"/>
+      <c r="H120" s="88" t="s">
         <v>261</v>
       </c>
-      <c r="I120" s="54"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="31"/>
-      <c r="B121" s="1" t="s">
+      <c r="I120" s="82"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="C121" s="23" t="s">
+      <c r="C121" s="89" t="s">
         <v>260</v>
       </c>
-      <c r="E121" s="34"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="35"/>
-      <c r="H121" s="46" t="s">
+      <c r="D121" s="89"/>
+      <c r="E121" s="78"/>
+      <c r="F121" s="90"/>
+      <c r="G121" s="80"/>
+      <c r="H121" s="90" t="s">
         <v>260</v>
       </c>
-      <c r="I121" s="54"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="31"/>
-      <c r="B122" t="s">
+      <c r="I121" s="82"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C122" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="D122" s="22" t="s">
+      <c r="D122" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="E122" s="34"/>
-      <c r="F122" s="46"/>
-      <c r="G122" s="35"/>
-      <c r="H122" s="47" t="s">
+      <c r="E122" s="78"/>
+      <c r="F122" s="90"/>
+      <c r="G122" s="80"/>
+      <c r="H122" s="79" t="s">
         <v>261</v>
       </c>
-      <c r="I122" s="54"/>
-    </row>
-    <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="31"/>
-      <c r="B123" t="s">
+      <c r="I122" s="82"/>
+    </row>
+    <row r="123" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B123" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="C123" s="15" t="s">
+      <c r="C123" s="93" t="s">
         <v>443</v>
       </c>
-      <c r="D123" s="23" t="s">
+      <c r="D123" s="89" t="s">
         <v>442</v>
       </c>
-      <c r="E123" s="34"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="79"/>
-      <c r="H123" s="47" t="s">
+      <c r="E123" s="78"/>
+      <c r="F123" s="94"/>
+      <c r="G123" s="95"/>
+      <c r="H123" s="79" t="s">
         <v>441</v>
       </c>
-      <c r="I123" s="56"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="31"/>
-      <c r="B124" t="s">
+      <c r="I123" s="96"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="C124" s="23" t="s">
+      <c r="C124" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="E124" s="34"/>
-      <c r="G124" s="41"/>
-      <c r="H124" s="46"/>
-      <c r="I124" s="54"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="31"/>
-      <c r="B125" t="s">
+      <c r="D124" s="89"/>
+      <c r="E124" s="78"/>
+      <c r="F124" s="89"/>
+      <c r="G124" s="97"/>
+      <c r="H124" s="90"/>
+      <c r="I124" s="82"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="89" t="s">
         <v>433</v>
       </c>
-      <c r="C125" s="27" t="s">
+      <c r="C125" s="91" t="s">
         <v>434</v>
       </c>
-      <c r="D125" s="23" t="s">
+      <c r="D125" s="89" t="s">
         <v>435</v>
       </c>
-      <c r="E125" s="34"/>
-      <c r="G125" s="41"/>
-      <c r="H125" s="46" t="s">
+      <c r="E125" s="78"/>
+      <c r="F125" s="89"/>
+      <c r="G125" s="97"/>
+      <c r="H125" s="90" t="s">
         <v>435</v>
       </c>
-      <c r="I125" s="54"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="31"/>
-      <c r="B126" t="s">
+      <c r="I125" s="82"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="C126" s="14" t="s">
+      <c r="C126" s="91" t="s">
         <v>439</v>
       </c>
-      <c r="D126" s="23" t="s">
+      <c r="D126" s="89" t="s">
         <v>440</v>
       </c>
-      <c r="E126" s="34"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="35"/>
-      <c r="H126" s="46" t="s">
+      <c r="E126" s="78"/>
+      <c r="F126" s="94"/>
+      <c r="G126" s="80"/>
+      <c r="H126" s="90" t="s">
         <v>440</v>
       </c>
-      <c r="I126" s="54"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="31"/>
-      <c r="B127" t="s">
+      <c r="I126" s="82"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="C127" s="77" t="s">
+      <c r="C127" s="98" t="s">
         <v>437</v>
       </c>
-      <c r="D127" s="78" t="s">
+      <c r="D127" s="99" t="s">
         <v>438</v>
       </c>
-      <c r="E127" s="34"/>
-      <c r="F127" s="50"/>
-      <c r="G127" s="35"/>
-      <c r="H127" s="62" t="s">
+      <c r="E127" s="78"/>
+      <c r="F127" s="100"/>
+      <c r="G127" s="80"/>
+      <c r="H127" s="99" t="s">
         <v>438</v>
       </c>
-      <c r="I127" s="54"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="31"/>
-      <c r="B128" t="s">
+      <c r="I127" s="82"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="C128" s="26" t="s">
+      <c r="C128" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="E128" s="34"/>
-      <c r="F128" s="50"/>
-      <c r="G128" s="35"/>
-      <c r="H128" s="62" t="s">
+      <c r="D128" s="89"/>
+      <c r="E128" s="78"/>
+      <c r="F128" s="100"/>
+      <c r="G128" s="80"/>
+      <c r="H128" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="I128" s="54"/>
-    </row>
-    <row r="129" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A129" s="31"/>
+      <c r="I128" s="82"/>
+    </row>
+    <row r="129" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>120</v>
       </c>
@@ -4473,43 +4532,47 @@
       <c r="D129" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="E129" s="34"/>
-      <c r="F129" s="46"/>
-      <c r="G129" s="35"/>
-      <c r="H129" s="47" t="s">
+      <c r="E129" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F129" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G129" s="37"/>
+      <c r="H129" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="I129" s="54"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="31"/>
+      <c r="I129" s="53"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E130" s="34"/>
-      <c r="F130" s="46"/>
+      <c r="F130" s="45"/>
       <c r="G130" s="35"/>
-      <c r="H130" s="46"/>
-      <c r="I130" s="54"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="31"/>
+      <c r="H130" s="45"/>
+      <c r="I130" s="53"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>134</v>
       </c>
-      <c r="C131" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="D131" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="E131" s="34"/>
-      <c r="F131" s="46"/>
+      <c r="C131" s="101" t="s">
+        <v>486</v>
+      </c>
+      <c r="E131" t="s">
+        <v>487</v>
+      </c>
+      <c r="F131" s="48" t="s">
+        <v>490</v>
+      </c>
       <c r="G131" s="35"/>
-      <c r="H131" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="I131" s="54"/>
-    </row>
-    <row r="132" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A132" s="31"/>
+      <c r="H131" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I131" s="53" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>135</v>
       </c>
@@ -4519,15 +4582,17 @@
       <c r="D132" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="E132" s="34"/>
-      <c r="F132" s="46"/>
+      <c r="E132" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F132" s="45"/>
       <c r="G132" s="35"/>
-      <c r="H132" s="47" t="s">
+      <c r="H132" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="I132" s="54"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I132" s="53"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>136</v>
       </c>
@@ -4538,32 +4603,35 @@
         <v>259</v>
       </c>
       <c r="E133" s="34"/>
-      <c r="F133" s="46"/>
+      <c r="F133" s="45"/>
       <c r="G133" s="35"/>
-      <c r="H133" s="46" t="s">
+      <c r="H133" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="I133" s="54"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I133" s="53"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>132</v>
       </c>
-      <c r="C134" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="D134" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="E134" s="34"/>
-      <c r="F134" s="46"/>
+      <c r="C134" s="101" t="s">
+        <v>486</v>
+      </c>
+      <c r="E134" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F134" s="48" t="s">
+        <v>490</v>
+      </c>
       <c r="G134" s="35"/>
-      <c r="H134" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="I134" s="54"/>
-    </row>
-    <row r="135" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H134" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I134" s="53" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>137</v>
       </c>
@@ -4573,47 +4641,52 @@
       <c r="D135" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="E135" s="34"/>
-      <c r="F135" s="46"/>
+      <c r="E135" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F135" s="45"/>
       <c r="G135" s="35"/>
-      <c r="H135" s="47" t="s">
+      <c r="H135" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="I135" s="54"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I135" s="53"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="27" t="s">
-        <v>446</v>
-      </c>
-      <c r="D136" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="E136" s="34"/>
-      <c r="F136" s="46"/>
+      <c r="C136" s="101" t="s">
+        <v>486</v>
+      </c>
+      <c r="E136" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="F136" s="48" t="s">
+        <v>490</v>
+      </c>
       <c r="G136" s="35"/>
-      <c r="H136" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="I136" s="54"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H136" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I136" s="53" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E137" s="34"/>
-      <c r="F137" s="46"/>
+      <c r="F137" s="45"/>
       <c r="G137" s="35"/>
-      <c r="H137" s="46"/>
-      <c r="I137" s="54"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H137" s="45"/>
+      <c r="I137" s="53"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E138" s="34"/>
-      <c r="F138" s="46"/>
+      <c r="F138" s="45"/>
       <c r="G138" s="35"/>
-      <c r="H138" s="46"/>
-      <c r="I138" s="54"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H138" s="45"/>
+      <c r="I138" s="53"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>121</v>
       </c>
@@ -4621,14 +4694,14 @@
         <v>129</v>
       </c>
       <c r="E139" s="34"/>
-      <c r="F139" s="46"/>
+      <c r="F139" s="45"/>
       <c r="G139" s="35"/>
-      <c r="H139" s="46" t="s">
+      <c r="H139" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="I139" s="54"/>
-    </row>
-    <row r="140" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="I139" s="53"/>
+    </row>
+    <row r="140" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>122</v>
       </c>
@@ -4639,14 +4712,14 @@
         <v>362</v>
       </c>
       <c r="E140" s="34"/>
-      <c r="F140" s="46"/>
+      <c r="F140" s="45"/>
       <c r="G140" s="35"/>
-      <c r="H140" s="51" t="s">
+      <c r="H140" s="50" t="s">
         <v>362</v>
       </c>
-      <c r="I140" s="54"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I140" s="53"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>123</v>
       </c>
@@ -4654,32 +4727,32 @@
         <v>131</v>
       </c>
       <c r="E141" s="34"/>
-      <c r="F141" s="46"/>
-      <c r="G141" s="42"/>
-      <c r="H141" s="46" t="s">
+      <c r="F141" s="45"/>
+      <c r="G141" s="41"/>
+      <c r="H141" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="I141" s="54"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I141" s="53"/>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="4"/>
       <c r="E142" s="34"/>
-      <c r="F142" s="46"/>
+      <c r="F142" s="45"/>
       <c r="G142" s="35"/>
-      <c r="H142" s="46"/>
-      <c r="I142" s="54"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H142" s="45"/>
+      <c r="I142" s="53"/>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
         <v>139</v>
       </c>
       <c r="E143" s="34"/>
-      <c r="F143" s="46"/>
+      <c r="F143" s="45"/>
       <c r="G143" s="35"/>
-      <c r="H143" s="46"/>
-      <c r="I143" s="54"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H143" s="45"/>
+      <c r="I143" s="53"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>140</v>
       </c>
@@ -4689,45 +4762,45 @@
       <c r="D144" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="F144" s="47"/>
-      <c r="H144" s="46" t="s">
-        <v>453</v>
-      </c>
-      <c r="I144" s="54"/>
+      <c r="F144" s="46"/>
+      <c r="H144" s="45" t="s">
+        <v>450</v>
+      </c>
+      <c r="I144" s="53"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>141</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E145" s="34"/>
-      <c r="F145" s="47"/>
-      <c r="H145" s="59" t="s">
-        <v>458</v>
-      </c>
-      <c r="I145" s="54"/>
+      <c r="F145" s="46"/>
+      <c r="H145" s="57" t="s">
+        <v>455</v>
+      </c>
+      <c r="I145" s="53"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D146" s="20" t="s">
         <v>295</v>
       </c>
       <c r="E146" s="34"/>
-      <c r="F146" s="47"/>
-      <c r="H146" s="59" t="s">
-        <v>457</v>
-      </c>
-      <c r="I146" s="54"/>
+      <c r="F146" s="46"/>
+      <c r="H146" s="57" t="s">
+        <v>454</v>
+      </c>
+      <c r="I146" s="53"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
@@ -4738,12 +4811,12 @@
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="34"/>
-      <c r="F147" s="46"/>
+      <c r="F147" s="45"/>
       <c r="G147" s="35"/>
-      <c r="H147" s="62" t="s">
+      <c r="H147" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="I147" s="54"/>
+      <c r="I147" s="53"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
@@ -4753,20 +4826,20 @@
         <v>144</v>
       </c>
       <c r="E148" s="34"/>
-      <c r="F148" s="46"/>
+      <c r="F148" s="45"/>
       <c r="G148" s="35"/>
-      <c r="H148" s="46" t="s">
+      <c r="H148" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="I148" s="54"/>
+      <c r="I148" s="53"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="31"/>
       <c r="E149" s="34"/>
-      <c r="F149" s="46"/>
+      <c r="F149" s="45"/>
       <c r="G149" s="35"/>
-      <c r="H149" s="46"/>
-      <c r="I149" s="54"/>
+      <c r="H149" s="45"/>
+      <c r="I149" s="53"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="31"/>
@@ -4774,10 +4847,10 @@
         <v>145</v>
       </c>
       <c r="E150" s="34"/>
-      <c r="F150" s="46"/>
+      <c r="F150" s="45"/>
       <c r="G150" s="35"/>
-      <c r="H150" s="46"/>
-      <c r="I150" s="54"/>
+      <c r="H150" s="45"/>
+      <c r="I150" s="53"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="31"/>
@@ -4790,17 +4863,17 @@
       <c r="D151" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="E151" s="71" t="s">
+      <c r="E151" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="F151" s="46" t="s">
+      <c r="F151" s="45" t="s">
         <v>251</v>
       </c>
       <c r="G151" s="35"/>
-      <c r="H151" s="63" t="s">
+      <c r="H151" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="I151" s="54"/>
+      <c r="I151" s="53"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="31"/>
@@ -4810,17 +4883,17 @@
       <c r="C152" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="E152" s="71" t="s">
+      <c r="E152" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="F152" s="46" t="s">
+      <c r="F152" s="45" t="s">
         <v>251</v>
       </c>
       <c r="G152" s="35"/>
-      <c r="H152" s="46" t="s">
+      <c r="H152" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="I152" s="54"/>
+      <c r="I152" s="53"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="31"/>
@@ -4833,17 +4906,17 @@
       <c r="D153" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="E153" s="71" t="s">
+      <c r="E153" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="F153" s="46" t="s">
+      <c r="F153" s="45" t="s">
         <v>251</v>
       </c>
       <c r="G153" s="35"/>
-      <c r="H153" s="46" t="s">
+      <c r="H153" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="I153" s="54"/>
+      <c r="I153" s="53"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="31"/>
@@ -4858,10 +4931,10 @@
       </c>
       <c r="E154" s="34"/>
       <c r="G154" s="35"/>
-      <c r="H154" s="46" t="s">
+      <c r="H154" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="I154" s="54"/>
+      <c r="I154" s="53"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="31"/>
@@ -4872,12 +4945,12 @@
         <v>125</v>
       </c>
       <c r="E155" s="34"/>
-      <c r="F155" s="46"/>
+      <c r="F155" s="45"/>
       <c r="G155" s="35"/>
-      <c r="H155" s="62" t="s">
+      <c r="H155" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="I155" s="54"/>
+      <c r="I155" s="53"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="31"/>
@@ -4888,30 +4961,30 @@
         <v>154</v>
       </c>
       <c r="E156" s="34"/>
-      <c r="F156" s="46"/>
+      <c r="F156" s="45"/>
       <c r="G156" s="35"/>
-      <c r="H156" s="46" t="s">
+      <c r="H156" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I156" s="54"/>
+      <c r="I156" s="53"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="31"/>
       <c r="E157" s="34"/>
-      <c r="F157" s="46"/>
+      <c r="F157" s="45"/>
       <c r="G157" s="35"/>
-      <c r="H157" s="46"/>
-      <c r="I157" s="54"/>
+      <c r="H157" s="45"/>
+      <c r="I157" s="53"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E158" s="34"/>
-      <c r="F158" s="46"/>
+      <c r="F158" s="45"/>
       <c r="G158" s="35"/>
-      <c r="H158" s="46"/>
-      <c r="I158" s="54"/>
+      <c r="H158" s="45"/>
+      <c r="I158" s="53"/>
     </row>
     <row r="159" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
@@ -4923,17 +4996,17 @@
       <c r="D159" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="E159" s="71" t="s">
+      <c r="E159" s="69" t="s">
         <v>302</v>
       </c>
-      <c r="F159" s="46" t="s">
+      <c r="F159" s="45" t="s">
         <v>414</v>
       </c>
       <c r="G159" s="35"/>
-      <c r="H159" s="51" t="s">
+      <c r="H159" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="I159" s="54"/>
+      <c r="I159" s="53"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
@@ -4942,17 +5015,17 @@
       <c r="C160" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="E160" s="71" t="s">
-        <v>474</v>
-      </c>
-      <c r="F160" s="49" t="s">
+      <c r="E160" s="69" t="s">
+        <v>471</v>
+      </c>
+      <c r="F160" s="48" t="s">
         <v>414</v>
       </c>
       <c r="G160" s="35"/>
-      <c r="H160" s="46" t="s">
+      <c r="H160" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="I160" s="54" t="s">
+      <c r="I160" s="53" t="s">
         <v>414</v>
       </c>
     </row>
@@ -4966,17 +5039,17 @@
       <c r="D161" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="E161" s="71" t="s">
+      <c r="E161" s="69" t="s">
         <v>306</v>
       </c>
-      <c r="F161" s="46" t="s">
+      <c r="F161" s="45" t="s">
         <v>311</v>
       </c>
       <c r="G161" s="35"/>
-      <c r="H161" s="51" t="s">
+      <c r="H161" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="I161" s="54"/>
+      <c r="I161" s="53"/>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
@@ -4985,19 +5058,19 @@
       <c r="C162" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="E162" s="74" t="s">
+      <c r="E162" s="72" t="s">
         <v>351</v>
       </c>
-      <c r="F162" s="66" t="s">
+      <c r="F162" s="64" t="s">
         <v>304</v>
       </c>
       <c r="G162" s="39" t="s">
         <v>311</v>
       </c>
-      <c r="H162" s="46" t="s">
+      <c r="H162" s="45" t="s">
         <v>416</v>
       </c>
-      <c r="I162" s="54" t="s">
+      <c r="I162" s="53" t="s">
         <v>311</v>
       </c>
     </row>
@@ -5011,17 +5084,17 @@
       <c r="D163" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="E163" s="75" t="s">
+      <c r="E163" s="73" t="s">
         <v>305</v>
       </c>
-      <c r="F163" s="46" t="s">
+      <c r="F163" s="45" t="s">
         <v>387</v>
       </c>
       <c r="G163" s="35"/>
-      <c r="H163" s="51" t="s">
+      <c r="H163" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="I163" s="54"/>
+      <c r="I163" s="53"/>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
@@ -5030,19 +5103,19 @@
       <c r="C164" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="E164" s="74" t="s">
+      <c r="E164" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="F164" s="66" t="s">
+      <c r="F164" s="64" t="s">
         <v>388</v>
       </c>
       <c r="G164" s="39" t="s">
         <v>389</v>
       </c>
-      <c r="H164" s="46" t="s">
+      <c r="H164" s="45" t="s">
         <v>417</v>
       </c>
-      <c r="I164" s="54" t="s">
+      <c r="I164" s="53" t="s">
         <v>418</v>
       </c>
     </row>
@@ -5056,17 +5129,17 @@
       <c r="D165" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="E165" s="71" t="s">
+      <c r="E165" s="69" t="s">
         <v>307</v>
       </c>
-      <c r="F165" s="46" t="s">
+      <c r="F165" s="45" t="s">
         <v>392</v>
       </c>
       <c r="G165" s="35"/>
-      <c r="H165" s="51" t="s">
+      <c r="H165" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="I165" s="54"/>
+      <c r="I165" s="53"/>
     </row>
     <row r="166" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
@@ -5075,19 +5148,19 @@
       <c r="C166" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="E166" s="73" t="s">
+      <c r="E166" s="71" t="s">
         <v>353</v>
       </c>
-      <c r="F166" s="66" t="s">
+      <c r="F166" s="64" t="s">
         <v>393</v>
       </c>
       <c r="G166" s="39" t="s">
         <v>391</v>
       </c>
-      <c r="H166" s="46" t="s">
+      <c r="H166" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="I166" s="54" t="s">
+      <c r="I166" s="53" t="s">
         <v>420</v>
       </c>
     </row>
@@ -5101,17 +5174,17 @@
       <c r="D167" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="E167" s="71" t="s">
+      <c r="E167" s="69" t="s">
         <v>308</v>
       </c>
-      <c r="F167" s="46" t="s">
+      <c r="F167" s="45" t="s">
         <v>394</v>
       </c>
       <c r="G167" s="35"/>
-      <c r="H167" s="51" t="s">
+      <c r="H167" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="I167" s="54"/>
+      <c r="I167" s="53"/>
     </row>
     <row r="168" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
@@ -5120,19 +5193,19 @@
       <c r="C168" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="E168" s="73" t="s">
+      <c r="E168" s="71" t="s">
         <v>354</v>
       </c>
-      <c r="F168" s="66" t="s">
+      <c r="F168" s="64" t="s">
         <v>395</v>
       </c>
       <c r="G168" s="40" t="s">
         <v>396</v>
       </c>
-      <c r="H168" s="47" t="s">
+      <c r="H168" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="I168" s="55" t="s">
+      <c r="I168" s="54" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5146,17 +5219,17 @@
       <c r="D169" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="E169" s="71" t="s">
+      <c r="E169" s="69" t="s">
         <v>310</v>
       </c>
-      <c r="F169" s="46" t="s">
+      <c r="F169" s="45" t="s">
         <v>397</v>
       </c>
       <c r="G169" s="35"/>
-      <c r="H169" s="51" t="s">
+      <c r="H169" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="I169" s="54"/>
+      <c r="I169" s="53"/>
     </row>
     <row r="170" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
@@ -5165,19 +5238,19 @@
       <c r="C170" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E170" s="73" t="s">
+      <c r="E170" s="71" t="s">
         <v>355</v>
       </c>
-      <c r="F170" s="66" t="s">
+      <c r="F170" s="64" t="s">
         <v>398</v>
       </c>
       <c r="G170" s="40" t="s">
         <v>399</v>
       </c>
-      <c r="H170" s="46" t="s">
+      <c r="H170" s="45" t="s">
         <v>423</v>
       </c>
-      <c r="I170" s="55" t="s">
+      <c r="I170" s="54" t="s">
         <v>428</v>
       </c>
     </row>
@@ -5191,17 +5264,17 @@
       <c r="D171" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="E171" s="71" t="s">
+      <c r="E171" s="69" t="s">
         <v>309</v>
       </c>
-      <c r="F171" s="46" t="s">
+      <c r="F171" s="45" t="s">
         <v>400</v>
       </c>
       <c r="G171" s="35"/>
-      <c r="H171" s="51" t="s">
+      <c r="H171" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="I171" s="54"/>
+      <c r="I171" s="53"/>
     </row>
     <row r="172" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
@@ -5213,34 +5286,34 @@
       <c r="D172" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="E172" s="76" t="s">
+      <c r="E172" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="F172" s="46" t="s">
+      <c r="F172" s="45" t="s">
         <v>400</v>
       </c>
       <c r="G172" s="35"/>
-      <c r="H172" s="51" t="s">
+      <c r="H172" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="I172" s="54"/>
+      <c r="I172" s="53"/>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E173" s="34"/>
-      <c r="F173" s="46"/>
+      <c r="F173" s="45"/>
       <c r="G173" s="35"/>
-      <c r="H173" s="46"/>
-      <c r="I173" s="54"/>
+      <c r="H173" s="45"/>
+      <c r="I173" s="53"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="7" t="s">
         <v>174</v>
       </c>
       <c r="E174" s="34"/>
-      <c r="F174" s="46"/>
+      <c r="F174" s="45"/>
       <c r="G174" s="35"/>
-      <c r="H174" s="46"/>
-      <c r="I174" s="54"/>
+      <c r="H174" s="45"/>
+      <c r="I174" s="53"/>
     </row>
     <row r="175" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B175" s="6" t="s">
@@ -5252,19 +5325,19 @@
       <c r="D175" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="E175" s="71" t="s">
+      <c r="E175" s="69" t="s">
         <v>356</v>
       </c>
-      <c r="F175" s="69" t="s">
+      <c r="F175" s="67" t="s">
         <v>385</v>
       </c>
       <c r="G175" s="35" t="s">
         <v>382</v>
       </c>
-      <c r="H175" s="51" t="s">
+      <c r="H175" s="50" t="s">
         <v>364</v>
       </c>
-      <c r="I175" s="54"/>
+      <c r="I175" s="53"/>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
@@ -5274,12 +5347,12 @@
         <v>179</v>
       </c>
       <c r="E176" s="34"/>
-      <c r="F176" s="46"/>
+      <c r="F176" s="45"/>
       <c r="G176" s="35"/>
-      <c r="H176" s="46" t="s">
+      <c r="H176" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="I176" s="54"/>
+      <c r="I176" s="53"/>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
@@ -5289,29 +5362,29 @@
         <v>180</v>
       </c>
       <c r="E177" s="34"/>
-      <c r="F177" s="46"/>
+      <c r="F177" s="45"/>
       <c r="G177" s="35"/>
-      <c r="H177" s="46" t="s">
+      <c r="H177" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="I177" s="54"/>
+      <c r="I177" s="53"/>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E178" s="34"/>
-      <c r="F178" s="46"/>
+      <c r="F178" s="45"/>
       <c r="G178" s="35"/>
-      <c r="H178" s="46"/>
-      <c r="I178" s="54"/>
+      <c r="H178" s="45"/>
+      <c r="I178" s="53"/>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
         <v>255</v>
       </c>
       <c r="E179" s="34"/>
-      <c r="F179" s="46"/>
+      <c r="F179" s="45"/>
       <c r="G179" s="35"/>
-      <c r="H179" s="46"/>
-      <c r="I179" s="54"/>
+      <c r="H179" s="45"/>
+      <c r="I179" s="53"/>
     </row>
     <row r="180" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
@@ -5321,12 +5394,12 @@
         <v>182</v>
       </c>
       <c r="E180" s="34"/>
-      <c r="F180" s="46"/>
+      <c r="F180" s="45"/>
       <c r="G180" s="35"/>
-      <c r="H180" s="47" t="s">
+      <c r="H180" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="I180" s="54"/>
+      <c r="I180" s="53"/>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
@@ -5336,39 +5409,39 @@
         <v>272</v>
       </c>
       <c r="E181" s="34"/>
-      <c r="F181" s="46"/>
+      <c r="F181" s="45"/>
       <c r="G181" s="35"/>
-      <c r="H181" s="50" t="s">
+      <c r="H181" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="I181" s="54"/>
+      <c r="I181" s="53"/>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E182" s="34"/>
-      <c r="F182" s="46"/>
+      <c r="F182" s="45"/>
       <c r="G182" s="35"/>
-      <c r="H182" s="46"/>
-      <c r="I182" s="54"/>
+      <c r="H182" s="45"/>
+      <c r="I182" s="53"/>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
         <v>183</v>
       </c>
       <c r="E183" s="34"/>
-      <c r="F183" s="46"/>
+      <c r="F183" s="45"/>
       <c r="G183" s="35"/>
-      <c r="H183" s="46"/>
-      <c r="I183" s="54"/>
+      <c r="H183" s="45"/>
+      <c r="I183" s="53"/>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B184" s="9" t="s">
         <v>188</v>
       </c>
       <c r="E184" s="34"/>
-      <c r="F184" s="46"/>
+      <c r="F184" s="45"/>
       <c r="G184" s="35"/>
-      <c r="H184" s="46"/>
-      <c r="I184" s="54"/>
+      <c r="H184" s="45"/>
+      <c r="I184" s="53"/>
     </row>
     <row r="185" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
@@ -5377,17 +5450,17 @@
       <c r="C185" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="E185" s="71" t="s">
+      <c r="E185" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F185" s="47" t="s">
-        <v>483</v>
+      <c r="F185" s="46" t="s">
+        <v>480</v>
       </c>
       <c r="G185" s="35"/>
-      <c r="H185" s="46" t="s">
+      <c r="H185" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="I185" s="54"/>
+      <c r="I185" s="53"/>
     </row>
     <row r="186" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
@@ -5396,36 +5469,36 @@
       <c r="C186" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="E186" s="71" t="s">
+      <c r="E186" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="F186" s="49" t="s">
-        <v>483</v>
+      <c r="F186" s="48" t="s">
+        <v>480</v>
       </c>
       <c r="G186" s="35"/>
-      <c r="H186" s="46" t="s">
+      <c r="H186" s="45" t="s">
         <v>424</v>
       </c>
-      <c r="I186" s="55" t="s">
-        <v>483</v>
+      <c r="I186" s="54" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E187" s="34"/>
-      <c r="F187" s="46"/>
+      <c r="F187" s="45"/>
       <c r="G187" s="35"/>
-      <c r="H187" s="46"/>
-      <c r="I187" s="54"/>
+      <c r="H187" s="45"/>
+      <c r="I187" s="53"/>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B188" s="9" t="s">
         <v>189</v>
       </c>
       <c r="E188" s="34"/>
-      <c r="F188" s="46"/>
+      <c r="F188" s="45"/>
       <c r="G188" s="35"/>
-      <c r="H188" s="46"/>
-      <c r="I188" s="54"/>
+      <c r="H188" s="45"/>
+      <c r="I188" s="53"/>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
@@ -5435,12 +5508,12 @@
         <v>193</v>
       </c>
       <c r="E189" s="34"/>
-      <c r="F189" s="46"/>
+      <c r="F189" s="45"/>
       <c r="G189" s="35"/>
-      <c r="H189" s="46" t="s">
+      <c r="H189" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="I189" s="54"/>
+      <c r="I189" s="53"/>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
@@ -5453,12 +5526,12 @@
         <v>256</v>
       </c>
       <c r="E190" s="34"/>
-      <c r="F190" s="46"/>
+      <c r="F190" s="45"/>
       <c r="G190" s="35"/>
-      <c r="H190" s="46" t="s">
+      <c r="H190" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="I190" s="54"/>
+      <c r="I190" s="53"/>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
@@ -5468,12 +5541,12 @@
         <v>194</v>
       </c>
       <c r="E191" s="34"/>
-      <c r="F191" s="46"/>
+      <c r="F191" s="45"/>
       <c r="G191" s="35"/>
-      <c r="H191" s="46" t="s">
+      <c r="H191" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="I191" s="54"/>
+      <c r="I191" s="53"/>
     </row>
     <row r="192" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
@@ -5483,49 +5556,49 @@
         <v>290</v>
       </c>
       <c r="D192" s="22" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E192" s="34"/>
-      <c r="F192" s="46"/>
+      <c r="F192" s="45"/>
       <c r="G192" s="35"/>
-      <c r="H192" s="47" t="s">
+      <c r="H192" s="46" t="s">
         <v>368</v>
       </c>
-      <c r="I192" s="54"/>
+      <c r="I192" s="53"/>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E193" s="34"/>
-      <c r="F193" s="46"/>
+      <c r="F193" s="45"/>
       <c r="G193" s="35"/>
-      <c r="H193" s="46"/>
-      <c r="I193" s="54"/>
+      <c r="H193" s="45"/>
+      <c r="I193" s="53"/>
     </row>
     <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B194" s="7" t="s">
         <v>196</v>
       </c>
       <c r="E194" s="34"/>
-      <c r="F194" s="46"/>
+      <c r="F194" s="45"/>
       <c r="G194" s="35"/>
-      <c r="H194" s="46"/>
-      <c r="I194" s="54"/>
+      <c r="H194" s="45"/>
+      <c r="I194" s="53"/>
     </row>
     <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E195" s="34"/>
-      <c r="F195" s="46"/>
+      <c r="F195" s="45"/>
       <c r="G195" s="35"/>
-      <c r="H195" s="46"/>
-      <c r="I195" s="54"/>
+      <c r="H195" s="45"/>
+      <c r="I195" s="53"/>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B196" s="9" t="s">
         <v>197</v>
       </c>
       <c r="E196" s="34"/>
-      <c r="F196" s="46"/>
+      <c r="F196" s="45"/>
       <c r="G196" s="35"/>
-      <c r="H196" s="46"/>
-      <c r="I196" s="54"/>
+      <c r="H196" s="45"/>
+      <c r="I196" s="53"/>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
@@ -5535,12 +5608,12 @@
         <v>201</v>
       </c>
       <c r="E197" s="34"/>
-      <c r="F197" s="46"/>
+      <c r="F197" s="45"/>
       <c r="G197" s="35"/>
-      <c r="H197" s="46" t="s">
+      <c r="H197" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="I197" s="54"/>
+      <c r="I197" s="53"/>
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
@@ -5553,29 +5626,29 @@
         <v>257</v>
       </c>
       <c r="E198" s="34"/>
-      <c r="F198" s="46"/>
+      <c r="F198" s="45"/>
       <c r="G198" s="35"/>
-      <c r="H198" s="46" t="s">
+      <c r="H198" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="I198" s="54"/>
+      <c r="I198" s="53"/>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E199" s="34"/>
-      <c r="F199" s="46"/>
+      <c r="F199" s="45"/>
       <c r="G199" s="35"/>
-      <c r="H199" s="46"/>
-      <c r="I199" s="54"/>
+      <c r="H199" s="45"/>
+      <c r="I199" s="53"/>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B200" s="9" t="s">
         <v>198</v>
       </c>
       <c r="E200" s="34"/>
-      <c r="F200" s="46"/>
+      <c r="F200" s="45"/>
       <c r="G200" s="35"/>
-      <c r="H200" s="46"/>
-      <c r="I200" s="54"/>
+      <c r="H200" s="45"/>
+      <c r="I200" s="53"/>
     </row>
     <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
@@ -5585,12 +5658,12 @@
         <v>205</v>
       </c>
       <c r="E201" s="34"/>
-      <c r="F201" s="46"/>
+      <c r="F201" s="45"/>
       <c r="G201" s="35"/>
-      <c r="H201" s="46" t="s">
+      <c r="H201" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="I201" s="54"/>
+      <c r="I201" s="53"/>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
@@ -5600,29 +5673,29 @@
         <v>206</v>
       </c>
       <c r="E202" s="34"/>
-      <c r="F202" s="46"/>
+      <c r="F202" s="45"/>
       <c r="G202" s="35"/>
-      <c r="H202" s="46" t="s">
+      <c r="H202" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="I202" s="54"/>
+      <c r="I202" s="53"/>
     </row>
     <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E203" s="34"/>
-      <c r="F203" s="46"/>
+      <c r="F203" s="45"/>
       <c r="G203" s="35"/>
-      <c r="H203" s="46"/>
-      <c r="I203" s="54"/>
+      <c r="H203" s="45"/>
+      <c r="I203" s="53"/>
     </row>
     <row r="204" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B204" s="9" t="s">
         <v>207</v>
       </c>
       <c r="E204" s="34"/>
-      <c r="F204" s="46"/>
+      <c r="F204" s="45"/>
       <c r="G204" s="35"/>
-      <c r="H204" s="46"/>
-      <c r="I204" s="54"/>
+      <c r="H204" s="45"/>
+      <c r="I204" s="53"/>
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
@@ -5632,12 +5705,12 @@
         <v>211</v>
       </c>
       <c r="E205" s="34"/>
-      <c r="F205" s="46"/>
+      <c r="F205" s="45"/>
       <c r="G205" s="35"/>
-      <c r="H205" s="46" t="s">
+      <c r="H205" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="I205" s="54"/>
+      <c r="I205" s="53"/>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
@@ -5649,12 +5722,12 @@
       <c r="E206" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="F206" s="46"/>
+      <c r="F206" s="45"/>
       <c r="G206" s="35"/>
-      <c r="H206" s="46" t="s">
+      <c r="H206" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="I206" s="54"/>
+      <c r="I206" s="53"/>
     </row>
     <row r="207" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
@@ -5666,73 +5739,73 @@
       <c r="D207" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="E207" s="71" t="s">
-        <v>468</v>
-      </c>
-      <c r="F207" s="48" t="s">
+      <c r="E207" s="69" t="s">
+        <v>465</v>
+      </c>
+      <c r="F207" s="47" t="s">
         <v>323</v>
       </c>
       <c r="G207" s="35"/>
-      <c r="H207" s="46" t="s">
+      <c r="H207" s="45" t="s">
         <v>425</v>
       </c>
-      <c r="I207" s="54" t="s">
+      <c r="I207" s="53" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="208" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C208" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="E208" s="71" t="s">
+      <c r="E208" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="F208" s="46" t="s">
+      <c r="F208" s="45" t="s">
         <v>323</v>
       </c>
       <c r="G208" s="35"/>
-      <c r="H208" s="46" t="s">
+      <c r="H208" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="I208" s="54"/>
+      <c r="I208" s="53"/>
     </row>
     <row r="209" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E209" s="34"/>
-      <c r="F209" s="46"/>
+      <c r="F209" s="45"/>
       <c r="G209" s="35"/>
-      <c r="H209" s="46"/>
-      <c r="I209" s="54"/>
+      <c r="H209" s="45"/>
+      <c r="I209" s="53"/>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B210" s="7" t="s">
         <v>213</v>
       </c>
       <c r="E210" s="34"/>
-      <c r="F210" s="46"/>
+      <c r="F210" s="45"/>
       <c r="G210" s="35"/>
-      <c r="H210" s="46"/>
-      <c r="I210" s="54"/>
+      <c r="H210" s="45"/>
+      <c r="I210" s="53"/>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B211" s="5"/>
       <c r="E211" s="34"/>
-      <c r="F211" s="46"/>
+      <c r="F211" s="45"/>
       <c r="G211" s="35"/>
-      <c r="H211" s="46"/>
-      <c r="I211" s="54"/>
+      <c r="H211" s="45"/>
+      <c r="I211" s="53"/>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B212" s="9" t="s">
         <v>214</v>
       </c>
       <c r="E212" s="34"/>
-      <c r="F212" s="46"/>
+      <c r="F212" s="45"/>
       <c r="G212" s="35"/>
-      <c r="H212" s="46"/>
-      <c r="I212" s="54"/>
+      <c r="H212" s="45"/>
+      <c r="I212" s="53"/>
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
@@ -5742,12 +5815,12 @@
         <v>219</v>
       </c>
       <c r="E213" s="34"/>
-      <c r="F213" s="46"/>
+      <c r="F213" s="45"/>
       <c r="G213" s="35"/>
-      <c r="H213" s="46" t="s">
+      <c r="H213" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="I213" s="54"/>
+      <c r="I213" s="53"/>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
@@ -5757,12 +5830,12 @@
         <v>367</v>
       </c>
       <c r="E214" s="34"/>
-      <c r="F214" s="46"/>
+      <c r="F214" s="45"/>
       <c r="G214" s="35"/>
-      <c r="H214" s="46" t="s">
+      <c r="H214" s="45" t="s">
         <v>367</v>
       </c>
-      <c r="I214" s="54"/>
+      <c r="I214" s="53"/>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
@@ -5772,29 +5845,29 @@
         <v>220</v>
       </c>
       <c r="E215" s="34"/>
-      <c r="F215" s="46"/>
+      <c r="F215" s="45"/>
       <c r="G215" s="35"/>
-      <c r="H215" s="46" t="s">
+      <c r="H215" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="I215" s="54"/>
+      <c r="I215" s="53"/>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E216" s="34"/>
-      <c r="F216" s="46"/>
+      <c r="F216" s="45"/>
       <c r="G216" s="35"/>
-      <c r="H216" s="46"/>
-      <c r="I216" s="54"/>
+      <c r="H216" s="45"/>
+      <c r="I216" s="53"/>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B217" s="9" t="s">
         <v>215</v>
       </c>
       <c r="E217" s="34"/>
-      <c r="F217" s="46"/>
+      <c r="F217" s="45"/>
       <c r="G217" s="35"/>
-      <c r="H217" s="46"/>
-      <c r="I217" s="54"/>
+      <c r="H217" s="45"/>
+      <c r="I217" s="53"/>
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
@@ -5804,29 +5877,29 @@
         <v>366</v>
       </c>
       <c r="E218" s="34"/>
-      <c r="F218" s="46"/>
+      <c r="F218" s="45"/>
       <c r="G218" s="35"/>
-      <c r="H218" s="46" t="s">
+      <c r="H218" s="45" t="s">
         <v>366</v>
       </c>
-      <c r="I218" s="54"/>
+      <c r="I218" s="53"/>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E219" s="34"/>
-      <c r="F219" s="46"/>
+      <c r="F219" s="45"/>
       <c r="G219" s="35"/>
-      <c r="H219" s="46"/>
-      <c r="I219" s="54"/>
+      <c r="H219" s="45"/>
+      <c r="I219" s="53"/>
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B220" s="7" t="s">
         <v>222</v>
       </c>
       <c r="E220" s="34"/>
-      <c r="F220" s="46"/>
+      <c r="F220" s="45"/>
       <c r="G220" s="35"/>
-      <c r="H220" s="46"/>
-      <c r="I220" s="54"/>
+      <c r="H220" s="45"/>
+      <c r="I220" s="53"/>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
@@ -5835,30 +5908,29 @@
       <c r="C221" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E221" s="34"/>
       <c r="F221" s="46"/>
       <c r="G221" s="35"/>
-      <c r="H221" s="46" t="s">
+      <c r="H221" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="I221" s="54"/>
+      <c r="I221" s="53"/>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E222" s="34"/>
-      <c r="F222" s="46"/>
+      <c r="F222" s="45"/>
       <c r="G222" s="35"/>
-      <c r="H222" s="46"/>
-      <c r="I222" s="54"/>
+      <c r="H222" s="45"/>
+      <c r="I222" s="53"/>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B223" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E223" s="34"/>
-      <c r="F223" s="46"/>
+      <c r="F223" s="45"/>
       <c r="G223" s="35"/>
-      <c r="H223" s="46"/>
-      <c r="I223" s="54"/>
+      <c r="H223" s="45"/>
+      <c r="I223" s="53"/>
     </row>
     <row r="224" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
@@ -5867,17 +5939,17 @@
       <c r="C224" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="E224" s="71" t="s">
+      <c r="E224" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F224" s="47" t="s">
-        <v>483</v>
+      <c r="F224" s="46" t="s">
+        <v>480</v>
       </c>
       <c r="G224" s="35"/>
-      <c r="H224" s="46" t="s">
+      <c r="H224" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="I224" s="54"/>
+      <c r="I224" s="53"/>
     </row>
     <row r="225" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
@@ -5889,18 +5961,18 @@
       <c r="D225" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="E225" s="71" t="s">
+      <c r="E225" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="F225" s="49" t="s">
-        <v>484</v>
+      <c r="F225" s="48" t="s">
+        <v>481</v>
       </c>
       <c r="G225" s="35"/>
-      <c r="H225" s="46" t="s">
+      <c r="H225" s="45" t="s">
         <v>426</v>
       </c>
-      <c r="I225" s="55" t="s">
-        <v>485</v>
+      <c r="I225" s="54" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.25">
@@ -5911,12 +5983,12 @@
         <v>38</v>
       </c>
       <c r="E226" s="34"/>
-      <c r="F226" s="46"/>
+      <c r="F226" s="45"/>
       <c r="G226" s="35"/>
-      <c r="H226" s="46" t="s">
+      <c r="H226" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="I226" s="54"/>
+      <c r="I226" s="53"/>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
@@ -5926,12 +5998,12 @@
         <v>232</v>
       </c>
       <c r="E227" s="34"/>
-      <c r="F227" s="46"/>
+      <c r="F227" s="45"/>
       <c r="G227" s="35"/>
-      <c r="H227" s="46" t="s">
+      <c r="H227" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="I227" s="54"/>
+      <c r="I227" s="53"/>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
@@ -5940,17 +6012,17 @@
       <c r="C228" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="E228" s="71" t="s">
+      <c r="E228" s="69" t="s">
         <v>287</v>
       </c>
-      <c r="F228" s="48" t="s">
+      <c r="F228" s="47" t="s">
         <v>288</v>
       </c>
       <c r="G228" s="35"/>
-      <c r="H228" s="46" t="s">
+      <c r="H228" s="45" t="s">
         <v>427</v>
       </c>
-      <c r="I228" s="54" t="s">
+      <c r="I228" s="53" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5961,13 +6033,13 @@
       <c r="C229" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="E229" s="43"/>
-      <c r="F229" s="52"/>
-      <c r="G229" s="44"/>
-      <c r="H229" s="64" t="s">
+      <c r="E229" s="42"/>
+      <c r="F229" s="51"/>
+      <c r="G229" s="43"/>
+      <c r="H229" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="I229" s="57"/>
+      <c r="I229" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C8979F-38E5-42E4-B629-1B4B389C435B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56D7A6E-A7FD-478E-B1BC-F4ACA5EDEFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="495">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -472,9 +472,6 @@
     <t>&lt;IS_FINAL&gt;</t>
   </si>
   <si>
-    <t>&lt;VAR_OBJ_C&gt;</t>
-  </si>
-  <si>
     <t>&lt;VAR_ARR_C&gt;</t>
   </si>
   <si>
@@ -485,9 +482,6 @@
   </si>
   <si>
     <t xml:space="preserve">const ? dt ? id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ARR_CLASS_DEC&gt; ? &lt;ACCESSMOD&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">, ? ; </t>
@@ -1558,13 +1552,31 @@
   </si>
   <si>
     <t>, ? ) ? ;?;</t>
+  </si>
+  <si>
+    <t>const ? &lt;TYPE_VAR_ARR&gt;</t>
+  </si>
+  <si>
+    <t>&lt;TYPE_VAR_ARR&gt;</t>
+  </si>
+  <si>
+    <t>const? id ? dt ? str</t>
+  </si>
+  <si>
+    <t>&lt;ARR_TYPE&gt;?&lt;VAR_C&gt;</t>
+  </si>
+  <si>
+    <t>&lt;VAR_C&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ACCESSMOD&gt;? id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1620,15 +1632,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1665,11 +1670,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1876,7 +1876,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1884,10 +1884,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1957,7 +1956,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2056,69 +2054,68 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="8" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="7" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="7" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="6" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="8">
     <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
-    <cellStyle name="Accent2" xfId="8" builtinId="33"/>
+    <cellStyle name="Accent2" xfId="7" builtinId="33"/>
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2400,10 +2397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I229"/>
+  <dimension ref="B1:I230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2426,23 +2423,23 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="68" t="s">
-        <v>278</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>325</v>
-      </c>
-      <c r="I1" s="52" t="s">
-        <v>402</v>
+      <c r="D1" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -2451,32 +2448,32 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="53"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="45" t="s">
+        <v>428</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="53" t="s">
-        <v>324</v>
+      <c r="I3" s="52" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -2484,23 +2481,23 @@
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="E4" s="69" t="s">
+        <v>460</v>
+      </c>
+      <c r="E4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="50" t="s">
-        <v>459</v>
-      </c>
-      <c r="I4" s="53" t="s">
-        <v>324</v>
+      <c r="F4" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -2508,22 +2505,22 @@
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="E5" s="69" t="s">
+        <v>459</v>
+      </c>
+      <c r="E5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="H5" s="50" t="s">
-        <v>458</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>324</v>
+      <c r="F5" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -2531,43 +2528,43 @@
         <v>7</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>281</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>457</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>324</v>
+        <v>454</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="53"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="53"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="52"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -2575,11 +2572,11 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="53"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="52"/>
     </row>
     <row r="10" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -2589,61 +2586,61 @@
         <v>9</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>477</v>
-      </c>
-      <c r="E10" s="70" t="s">
-        <v>320</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>480</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>477</v>
-      </c>
-      <c r="I10" s="53"/>
+        <v>475</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>475</v>
+      </c>
+      <c r="I10" s="52"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="53"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="53"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="52"/>
     </row>
     <row r="13" spans="2:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>317</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="45" t="s">
         <v>474</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>475</v>
-      </c>
-      <c r="E13" s="69" t="s">
-        <v>319</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>480</v>
-      </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="46" t="s">
-        <v>476</v>
-      </c>
-      <c r="I13" s="53"/>
+      <c r="I13" s="52"/>
     </row>
     <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -2653,31 +2650,31 @@
         <v>28</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>478</v>
-      </c>
-      <c r="E14" s="69" t="s">
-        <v>291</v>
-      </c>
-      <c r="F14" s="47" t="s">
+        <v>476</v>
+      </c>
+      <c r="E14" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="46" t="s">
-        <v>479</v>
-      </c>
-      <c r="I14" s="53" t="s">
-        <v>289</v>
+      <c r="F14" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="45" t="s">
+        <v>477</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="53"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="52"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
@@ -2685,11 +2682,11 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="53"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="52"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
@@ -2699,23 +2696,23 @@
         <v>13</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="57" t="s">
-        <v>431</v>
-      </c>
-      <c r="I17" s="53"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="I17" s="52"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="53"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="52"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
@@ -2723,11 +2720,11 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="53"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="52"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
@@ -2737,13 +2734,13 @@
         <v>20</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="57" t="s">
+      <c r="E20" s="33"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="53"/>
+      <c r="I20" s="52"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -2753,55 +2750,55 @@
         <v>21</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="57" t="s">
+      <c r="E21" s="33"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="53"/>
+      <c r="I21" s="52"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="57" t="s">
-        <v>264</v>
-      </c>
-      <c r="I22" s="53"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="I22" s="52"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="57" t="s">
-        <v>263</v>
-      </c>
-      <c r="I23" s="53"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="I23" s="52"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="53"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="52"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
@@ -2809,43 +2806,43 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="53"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="52"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="57" t="s">
-        <v>369</v>
-      </c>
-      <c r="I26" s="53"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="56" t="s">
+        <v>367</v>
+      </c>
+      <c r="I26" s="52"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="I27" s="53"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="I27" s="52"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
@@ -2855,38 +2852,38 @@
         <v>29</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="69" t="s">
-        <v>327</v>
-      </c>
-      <c r="F28" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="57" t="s">
+      <c r="E28" s="68" t="s">
+        <v>325</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="53"/>
+      <c r="I28" s="52"/>
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="70" t="s">
-        <v>328</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="57" t="s">
+      <c r="E29" s="69" t="s">
+        <v>326</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="G29" s="34"/>
+      <c r="H29" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="53" t="s">
-        <v>403</v>
+      <c r="I29" s="52" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -2894,38 +2891,38 @@
         <v>27</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="57" t="s">
-        <v>365</v>
-      </c>
-      <c r="I30" s="53"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="56" t="s">
+        <v>363</v>
+      </c>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="53"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="52"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="53"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="52"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
@@ -2935,49 +2932,49 @@
         <v>31</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="69" t="s">
-        <v>312</v>
-      </c>
-      <c r="F33" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="57" t="s">
-        <v>404</v>
-      </c>
-      <c r="I33" s="53" t="s">
-        <v>295</v>
+      <c r="E33" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="F33" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="G33" s="34"/>
+      <c r="H33" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="I33" s="52" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="53"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="52"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="53"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="52"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="53"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="52"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
@@ -2985,11 +2982,11 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="53"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="52"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
@@ -2999,13 +2996,13 @@
         <v>37</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="57" t="s">
+      <c r="E38" s="33"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="53"/>
+      <c r="I38" s="52"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -3015,31 +3012,31 @@
         <v>38</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="57" t="s">
+      <c r="E39" s="33"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="53"/>
+      <c r="I39" s="52"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="57" t="s">
-        <v>370</v>
-      </c>
-      <c r="I40" s="53"/>
+        <v>368</v>
+      </c>
+      <c r="E40" s="33"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="I40" s="52"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -3049,83 +3046,83 @@
         <v>41</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="57" t="s">
+      <c r="E41" s="33"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="I41" s="53"/>
+      <c r="I41" s="52"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="E42" s="34"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="57" t="s">
-        <v>371</v>
-      </c>
-      <c r="I42" s="53"/>
+        <v>369</v>
+      </c>
+      <c r="E42" s="33"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="56" t="s">
+        <v>369</v>
+      </c>
+      <c r="I42" s="52"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="53"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="52"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="57" t="s">
-        <v>332</v>
-      </c>
-      <c r="I44" s="53"/>
+        <v>330</v>
+      </c>
+      <c r="E44" s="33"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="56" t="s">
+        <v>330</v>
+      </c>
+      <c r="I44" s="52"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="E45" s="69" t="s">
+        <v>331</v>
+      </c>
+      <c r="E45" s="68" t="s">
         <v>39</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="G45" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="G45" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="57" t="s">
-        <v>405</v>
-      </c>
-      <c r="I45" s="53" t="s">
+      <c r="H45" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="I45" s="52" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3133,11 +3130,11 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="53"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="52"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
@@ -3145,11 +3142,11 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="53"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="52"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
@@ -3159,109 +3156,109 @@
         <v>37</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="57" t="s">
+      <c r="E48" s="33"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="I48" s="53"/>
+      <c r="I48" s="52"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="E49" s="34"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="57" t="s">
-        <v>245</v>
-      </c>
-      <c r="I49" s="53"/>
+        <v>243</v>
+      </c>
+      <c r="E49" s="33"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="I49" s="52"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="E50" s="34"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="57" t="s">
-        <v>373</v>
-      </c>
-      <c r="I50" s="53"/>
+        <v>371</v>
+      </c>
+      <c r="E50" s="33"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="56" t="s">
+        <v>371</v>
+      </c>
+      <c r="I50" s="52"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="E51" s="34"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="57" t="s">
-        <v>374</v>
-      </c>
-      <c r="I51" s="53"/>
+        <v>372</v>
+      </c>
+      <c r="E51" s="33"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I51" s="52"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="E52" s="34"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="57" t="s">
-        <v>373</v>
-      </c>
-      <c r="I52" s="53"/>
+        <v>371</v>
+      </c>
+      <c r="E52" s="33"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="56" t="s">
+        <v>371</v>
+      </c>
+      <c r="I52" s="52"/>
     </row>
     <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="E53" s="69" t="s">
-        <v>294</v>
+        <v>373</v>
+      </c>
+      <c r="E53" s="68" t="s">
+        <v>292</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="G53" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="G53" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H53" s="57" t="s">
-        <v>406</v>
-      </c>
-      <c r="I53" s="53" t="s">
+      <c r="H53" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="I53" s="52" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3270,26 +3267,26 @@
         <v>46</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="57" t="s">
-        <v>376</v>
-      </c>
-      <c r="I54" s="53"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="56" t="s">
+        <v>374</v>
+      </c>
+      <c r="I54" s="52"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="53"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="52"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
@@ -3297,11 +3294,11 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="53"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="52"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
@@ -3311,49 +3308,49 @@
         <v>55</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="E57" s="34"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="I57" s="53"/>
+        <v>239</v>
+      </c>
+      <c r="E57" s="33"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="I57" s="52"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="E58" s="34"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="45" t="s">
-        <v>372</v>
-      </c>
-      <c r="I58" s="53"/>
+        <v>370</v>
+      </c>
+      <c r="E58" s="33"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="I58" s="52"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D59" s="1"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="57" t="s">
-        <v>235</v>
-      </c>
-      <c r="I59" s="53"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="I59" s="52"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
@@ -3363,16 +3360,16 @@
         <v>56</v>
       </c>
       <c r="D60" s="1"/>
-      <c r="E60" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="F60" s="45"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="57" t="s">
-        <v>407</v>
-      </c>
-      <c r="I60" s="53" t="s">
-        <v>295</v>
+      <c r="E60" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="F60" s="44"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="I60" s="52" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -3383,15 +3380,15 @@
         <v>57</v>
       </c>
       <c r="D61" s="1"/>
-      <c r="E61" s="36" t="s">
+      <c r="E61" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="45"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="57" t="s">
-        <v>408</v>
-      </c>
-      <c r="I61" s="53" t="s">
+      <c r="F61" s="44"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="I61" s="52" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3403,13 +3400,13 @@
         <v>58</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="57" t="s">
+      <c r="E62" s="33"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="I62" s="53"/>
+      <c r="I62" s="52"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
@@ -3419,23 +3416,23 @@
         <v>41</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="57" t="s">
+      <c r="E63" s="33"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="53"/>
+      <c r="I63" s="52"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="53"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="52"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
@@ -3443,11 +3440,11 @@
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="53"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="52"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
@@ -3457,15 +3454,15 @@
         <v>62</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="E66" s="34"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="57" t="s">
-        <v>251</v>
-      </c>
-      <c r="I66" s="53"/>
+        <v>249</v>
+      </c>
+      <c r="E66" s="33"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="I66" s="52"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
@@ -3475,78 +3472,78 @@
         <v>63</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="E67" s="69" t="s">
-        <v>322</v>
-      </c>
-      <c r="F67" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="G67" s="35"/>
-      <c r="H67" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="I67" s="53"/>
+        <v>250</v>
+      </c>
+      <c r="E67" s="68" t="s">
+        <v>320</v>
+      </c>
+      <c r="F67" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="G67" s="34"/>
+      <c r="H67" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="I67" s="52"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="53"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="52"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="53"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="52"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="53"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="52"/>
     </row>
     <row r="71" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="E71" s="69" t="s">
-        <v>339</v>
-      </c>
-      <c r="F71" s="64" t="s">
-        <v>378</v>
-      </c>
-      <c r="G71" s="40" t="s">
-        <v>379</v>
-      </c>
-      <c r="H71" s="50" t="s">
-        <v>409</v>
-      </c>
-      <c r="I71" s="54" t="s">
-        <v>379</v>
+        <v>294</v>
+      </c>
+      <c r="E71" s="68" t="s">
+        <v>337</v>
+      </c>
+      <c r="F71" s="63" t="s">
+        <v>376</v>
+      </c>
+      <c r="G71" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="H71" s="49" t="s">
+        <v>407</v>
+      </c>
+      <c r="I71" s="53" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -3557,40 +3554,40 @@
         <v>29</v>
       </c>
       <c r="D72" s="1"/>
-      <c r="E72" s="71" t="s">
-        <v>340</v>
-      </c>
-      <c r="F72" s="65" t="s">
-        <v>380</v>
-      </c>
-      <c r="G72" s="35" t="s">
-        <v>381</v>
-      </c>
-      <c r="H72" s="57" t="s">
+      <c r="E72" s="70" t="s">
+        <v>338</v>
+      </c>
+      <c r="F72" s="64" t="s">
+        <v>378</v>
+      </c>
+      <c r="G72" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="H72" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="I72" s="53"/>
+      <c r="I72" s="52"/>
     </row>
     <row r="73" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D73" s="1"/>
-      <c r="E73" s="69" t="s">
-        <v>313</v>
+      <c r="E73" s="68" t="s">
+        <v>311</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="G73" s="35"/>
-      <c r="H73" s="50" t="s">
-        <v>410</v>
-      </c>
-      <c r="I73" s="54" t="s">
-        <v>381</v>
+        <v>379</v>
+      </c>
+      <c r="G73" s="34"/>
+      <c r="H73" s="49" t="s">
+        <v>408</v>
+      </c>
+      <c r="I73" s="53" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -3601,13 +3598,13 @@
         <v>38</v>
       </c>
       <c r="D74" s="1"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="57" t="s">
+      <c r="E74" s="33"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="I74" s="53"/>
+      <c r="I74" s="52"/>
     </row>
     <row r="75" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
@@ -3617,15 +3614,15 @@
         <v>70</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="E75" s="34"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="46" t="s">
-        <v>357</v>
-      </c>
-      <c r="I75" s="53"/>
+        <v>355</v>
+      </c>
+      <c r="E75" s="33"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="I75" s="52"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
@@ -3635,13 +3632,13 @@
         <v>41</v>
       </c>
       <c r="D76" s="1"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="45" t="s">
+      <c r="E76" s="33"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="I76" s="53"/>
+      <c r="I76" s="52"/>
     </row>
     <row r="77" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
@@ -3651,80 +3648,80 @@
         <v>71</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="E77" s="69" t="s">
-        <v>303</v>
-      </c>
-      <c r="F77" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="E77" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="F77" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="G77" s="35"/>
-      <c r="H77" s="50" t="s">
-        <v>358</v>
-      </c>
-      <c r="I77" s="53"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="I77" s="52"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D78" s="1"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="53"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="52"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="53"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="52"/>
     </row>
     <row r="80" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="53"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="52"/>
     </row>
     <row r="81" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="E81" s="69" t="s">
-        <v>343</v>
+        <v>273</v>
+      </c>
+      <c r="E81" s="68" t="s">
+        <v>341</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="G81" s="40" t="s">
-        <v>382</v>
-      </c>
-      <c r="H81" s="58" t="s">
-        <v>411</v>
-      </c>
-      <c r="I81" s="54" t="s">
-        <v>382</v>
+        <v>316</v>
+      </c>
+      <c r="G81" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="H81" s="57" t="s">
+        <v>409</v>
+      </c>
+      <c r="I81" s="53" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -3732,52 +3729,52 @@
         <v>73</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="E82" s="69" t="s">
-        <v>317</v>
+        <v>275</v>
+      </c>
+      <c r="E82" s="68" t="s">
+        <v>315</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="G82" s="35"/>
-      <c r="H82" s="59" t="s">
-        <v>277</v>
-      </c>
-      <c r="I82" s="53"/>
+        <v>315</v>
+      </c>
+      <c r="G82" s="34"/>
+      <c r="H82" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="I82" s="52"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D83" s="1"/>
-      <c r="E83" s="69" t="s">
-        <v>316</v>
-      </c>
-      <c r="F83" s="66" t="s">
-        <v>317</v>
-      </c>
-      <c r="G83" s="35"/>
-      <c r="H83" s="57" t="s">
-        <v>276</v>
-      </c>
-      <c r="I83" s="53"/>
+      <c r="E83" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="F83" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="G83" s="34"/>
+      <c r="H83" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="I83" s="52"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="53"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="52"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
@@ -3785,11 +3782,11 @@
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="53"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="52"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
@@ -3797,27 +3794,27 @@
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="45"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="45"/>
-      <c r="I86" s="53"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="52"/>
     </row>
     <row r="87" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="F87" s="46"/>
-      <c r="H87" s="57" t="s">
-        <v>484</v>
-      </c>
-      <c r="I87" s="53"/>
+        <v>482</v>
+      </c>
+      <c r="F87" s="45"/>
+      <c r="H87" s="56" t="s">
+        <v>482</v>
+      </c>
+      <c r="I87" s="52"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
@@ -3827,60 +3824,60 @@
         <v>89</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="E88" s="34"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="57" t="s">
-        <v>273</v>
-      </c>
-      <c r="I88" s="53"/>
+        <v>271</v>
+      </c>
+      <c r="E88" s="33"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="I88" s="52"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="12"/>
       <c r="D89" s="20"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="45"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="57"/>
-      <c r="I89" s="53"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="52"/>
     </row>
     <row r="90" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C90" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="D90" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="E90" s="38"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="50" t="s">
-        <v>472</v>
-      </c>
-      <c r="I90" s="53"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="I90" s="52"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="F91" s="46"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="57" t="s">
-        <v>346</v>
-      </c>
-      <c r="I91" s="53"/>
+        <v>344</v>
+      </c>
+      <c r="F91" s="45"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="56" t="s">
+        <v>344</v>
+      </c>
+      <c r="I91" s="52"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
@@ -3890,11 +3887,11 @@
         <v>90</v>
       </c>
       <c r="D92" s="1"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="45"/>
-      <c r="I92" s="53"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="52"/>
     </row>
     <row r="93" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
@@ -3904,18 +3901,18 @@
         <v>91</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="E93" s="70" t="s">
-        <v>444</v>
-      </c>
-      <c r="F93" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="E93" s="69" t="s">
+        <v>442</v>
+      </c>
+      <c r="F93" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="H93" s="46" t="s">
-        <v>383</v>
-      </c>
-      <c r="I93" s="53"/>
+      <c r="H93" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="I93" s="52"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
@@ -3925,63 +3922,63 @@
         <v>92</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="E94" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="F94" s="45"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="57" t="s">
-        <v>360</v>
-      </c>
-      <c r="I94" s="53"/>
+        <v>357</v>
+      </c>
+      <c r="E94" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="F94" s="44"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="I94" s="52"/>
     </row>
     <row r="95" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="E95" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="F95" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="E95" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="F95" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="G95" s="35"/>
-      <c r="H95" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="I95" s="53"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="I95" s="52"/>
     </row>
     <row r="96" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="E96" s="69" t="s">
-        <v>298</v>
+        <v>447</v>
+      </c>
+      <c r="E96" s="68" t="s">
+        <v>296</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="G96" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="G96" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="H96" s="50" t="s">
-        <v>449</v>
-      </c>
-      <c r="I96" s="53" t="s">
+      <c r="H96" s="49" t="s">
+        <v>447</v>
+      </c>
+      <c r="I96" s="52" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3990,24 +3987,24 @@
         <v>85</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="E97" s="69" t="s">
+        <v>445</v>
+      </c>
+      <c r="E97" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="F97" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="F97" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="G97" s="39" t="s">
+      <c r="G97" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="H97" s="50" t="s">
-        <v>447</v>
-      </c>
-      <c r="I97" s="53" t="s">
+      <c r="H97" s="49" t="s">
+        <v>445</v>
+      </c>
+      <c r="I97" s="52" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4016,50 +4013,50 @@
         <v>86</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="E98" s="69" t="s">
+        <v>382</v>
+      </c>
+      <c r="E98" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="F98" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="F98" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="G98" s="39" t="s">
+      <c r="G98" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="H98" s="50" t="s">
-        <v>413</v>
-      </c>
-      <c r="I98" s="53" t="s">
+      <c r="H98" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="I98" s="52" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="99" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="E99" s="70" t="s">
-        <v>300</v>
+        <v>483</v>
+      </c>
+      <c r="E99" s="69" t="s">
+        <v>298</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="G99" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="G99" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="H99" s="57" t="s">
-        <v>412</v>
-      </c>
-      <c r="I99" s="53" t="s">
+      <c r="H99" s="56" t="s">
+        <v>410</v>
+      </c>
+      <c r="I99" s="52" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4071,13 +4068,13 @@
         <v>94</v>
       </c>
       <c r="D100" s="1"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="57" t="s">
+      <c r="E100" s="33"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="I100" s="53"/>
+      <c r="I100" s="52"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
@@ -4087,23 +4084,23 @@
         <v>95</v>
       </c>
       <c r="D101" s="1"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="35"/>
-      <c r="H101" s="59" t="s">
+      <c r="E101" s="33"/>
+      <c r="F101" s="44"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="I101" s="53"/>
+      <c r="I101" s="52"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="53"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="52"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
@@ -4111,11 +4108,11 @@
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="53"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="44"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="52"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
@@ -4123,63 +4120,63 @@
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="45"/>
-      <c r="I104" s="53"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="52"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E105" s="34"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="35"/>
-      <c r="H105" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="I105" s="53"/>
+        <v>267</v>
+      </c>
+      <c r="E105" s="33"/>
+      <c r="F105" s="44"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="I105" s="52"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="E106" s="34"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="35"/>
-      <c r="H106" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="I106" s="53"/>
+        <v>268</v>
+      </c>
+      <c r="E106" s="33"/>
+      <c r="F106" s="44"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="I106" s="52"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C107" s="20" t="s">
         <v>101</v>
       </c>
       <c r="D107" s="1"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="45"/>
-      <c r="G107" s="35"/>
-      <c r="H107" s="57" t="s">
+      <c r="E107" s="33"/>
+      <c r="F107" s="44"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="I107" s="53"/>
+      <c r="I107" s="52"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
@@ -4189,25 +4186,25 @@
         <v>102</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="E108" s="34"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="35"/>
-      <c r="H108" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="I108" s="53"/>
+        <v>269</v>
+      </c>
+      <c r="E108" s="33"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="I108" s="52"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="35"/>
-      <c r="H109" s="45"/>
-      <c r="I109" s="53"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="44"/>
+      <c r="I109" s="52"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
@@ -4215,11 +4212,11 @@
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="45"/>
-      <c r="I110" s="53"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="44"/>
+      <c r="I110" s="52"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
@@ -4229,64 +4226,64 @@
         <v>106</v>
       </c>
       <c r="D111" s="1"/>
-      <c r="E111" s="34" t="s">
-        <v>489</v>
-      </c>
-      <c r="F111" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="G111" s="35"/>
-      <c r="H111" s="57" t="s">
+      <c r="E111" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="F111" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="G111" s="34"/>
+      <c r="H111" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="I111" s="53"/>
+      <c r="I111" s="52"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C112" s="75" t="s">
-        <v>466</v>
-      </c>
-      <c r="E112" s="34" t="s">
+      <c r="C112" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="E112" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="F112" s="46"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="57" t="s">
-        <v>466</v>
-      </c>
-      <c r="I112" s="53"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="56" t="s">
+        <v>464</v>
+      </c>
+      <c r="I112" s="52"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="E113" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="E113" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="F113" s="46"/>
-      <c r="G113" s="35"/>
-      <c r="H113" s="57" t="s">
-        <v>468</v>
-      </c>
-      <c r="I113" s="53"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="56" t="s">
+        <v>466</v>
+      </c>
+      <c r="I113" s="52"/>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="45"/>
-      <c r="G114" s="35"/>
-      <c r="H114" s="45"/>
-      <c r="I114" s="53"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="44"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="44"/>
+      <c r="I114" s="52"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
@@ -4294,233 +4291,233 @@
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="35"/>
-      <c r="H115" s="45"/>
-      <c r="I115" s="53"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="34"/>
+      <c r="H115" s="44"/>
+      <c r="I115" s="52"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="76" t="s">
+      <c r="B116" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="C116" s="77" t="s">
+      <c r="C116" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D116" s="76" t="s">
+      <c r="D116" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="E116" s="78"/>
-      <c r="F116" s="79"/>
-      <c r="G116" s="80"/>
-      <c r="H116" s="81" t="s">
+      <c r="E116" s="77"/>
+      <c r="F116" s="78"/>
+      <c r="G116" s="79"/>
+      <c r="H116" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="I116" s="82"/>
+      <c r="I116" s="81"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="76" t="s">
+      <c r="B117" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="C117" s="77" t="s">
+      <c r="C117" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D117" s="76" t="s">
+      <c r="D117" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="E117" s="78"/>
-      <c r="F117" s="79"/>
-      <c r="G117" s="83"/>
-      <c r="H117" s="81" t="s">
+      <c r="E117" s="77"/>
+      <c r="F117" s="78"/>
+      <c r="G117" s="82"/>
+      <c r="H117" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="I117" s="82"/>
+      <c r="I117" s="81"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="76" t="s">
+      <c r="B118" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="C118" s="76" t="s">
+      <c r="C118" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="D118" s="76"/>
-      <c r="E118" s="84"/>
-      <c r="F118" s="79"/>
-      <c r="G118" s="80"/>
-      <c r="H118" s="81" t="s">
+      <c r="D118" s="75"/>
+      <c r="E118" s="83"/>
+      <c r="F118" s="78"/>
+      <c r="G118" s="79"/>
+      <c r="H118" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="I118" s="82"/>
+      <c r="I118" s="81"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="76" t="s">
+      <c r="B119" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="C119" s="85" t="s">
+      <c r="C119" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="D119" s="76"/>
-      <c r="E119" s="78"/>
-      <c r="F119" s="79"/>
-      <c r="G119" s="80"/>
-      <c r="H119" s="86" t="s">
+      <c r="D119" s="75"/>
+      <c r="E119" s="77"/>
+      <c r="F119" s="78"/>
+      <c r="G119" s="79"/>
+      <c r="H119" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="I119" s="82"/>
+      <c r="I119" s="81"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="76" t="s">
+      <c r="B120" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="C120" s="77" t="s">
+      <c r="C120" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="E120" s="78"/>
-      <c r="F120" s="79"/>
-      <c r="G120" s="80"/>
-      <c r="H120" s="88" t="s">
-        <v>261</v>
-      </c>
-      <c r="I120" s="82"/>
+      <c r="D120" s="86" t="s">
+        <v>259</v>
+      </c>
+      <c r="E120" s="77"/>
+      <c r="F120" s="78"/>
+      <c r="G120" s="79"/>
+      <c r="H120" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="I120" s="81"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="76" t="s">
+      <c r="B121" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="C121" s="89" t="s">
-        <v>260</v>
-      </c>
-      <c r="D121" s="89"/>
-      <c r="E121" s="78"/>
-      <c r="F121" s="90"/>
-      <c r="G121" s="80"/>
-      <c r="H121" s="90" t="s">
-        <v>260</v>
-      </c>
-      <c r="I121" s="82"/>
+      <c r="C121" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="D121" s="88"/>
+      <c r="E121" s="77"/>
+      <c r="F121" s="89"/>
+      <c r="G121" s="79"/>
+      <c r="H121" s="89" t="s">
+        <v>258</v>
+      </c>
+      <c r="I121" s="81"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B122" s="89" t="s">
+      <c r="B122" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="C122" s="91" t="s">
+      <c r="C122" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="D122" s="92" t="s">
-        <v>261</v>
-      </c>
-      <c r="E122" s="78"/>
-      <c r="F122" s="90"/>
-      <c r="G122" s="80"/>
-      <c r="H122" s="79" t="s">
-        <v>261</v>
-      </c>
-      <c r="I122" s="82"/>
+      <c r="D122" s="91" t="s">
+        <v>259</v>
+      </c>
+      <c r="E122" s="77"/>
+      <c r="F122" s="89"/>
+      <c r="G122" s="79"/>
+      <c r="H122" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="I122" s="81"/>
     </row>
     <row r="123" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B123" s="89" t="s">
+      <c r="B123" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="C123" s="93" t="s">
-        <v>443</v>
-      </c>
-      <c r="D123" s="89" t="s">
-        <v>442</v>
-      </c>
-      <c r="E123" s="78"/>
-      <c r="F123" s="94"/>
-      <c r="G123" s="95"/>
-      <c r="H123" s="79" t="s">
+      <c r="C123" s="92" t="s">
         <v>441</v>
       </c>
-      <c r="I123" s="96"/>
+      <c r="D123" s="88" t="s">
+        <v>440</v>
+      </c>
+      <c r="E123" s="77"/>
+      <c r="F123" s="93"/>
+      <c r="G123" s="94"/>
+      <c r="H123" s="78" t="s">
+        <v>439</v>
+      </c>
+      <c r="I123" s="95"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="89" t="s">
+      <c r="B124" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="C124" s="89" t="s">
-        <v>267</v>
-      </c>
-      <c r="D124" s="89"/>
-      <c r="E124" s="78"/>
-      <c r="F124" s="89"/>
-      <c r="G124" s="97"/>
-      <c r="H124" s="90"/>
-      <c r="I124" s="82"/>
+      <c r="C124" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="D124" s="88"/>
+      <c r="E124" s="77"/>
+      <c r="F124" s="88"/>
+      <c r="G124" s="96"/>
+      <c r="H124" s="89"/>
+      <c r="I124" s="81"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B125" s="89" t="s">
+      <c r="B125" s="88" t="s">
+        <v>431</v>
+      </c>
+      <c r="C125" s="90" t="s">
+        <v>432</v>
+      </c>
+      <c r="D125" s="88" t="s">
         <v>433</v>
       </c>
-      <c r="C125" s="91" t="s">
+      <c r="E125" s="77"/>
+      <c r="F125" s="88"/>
+      <c r="G125" s="96"/>
+      <c r="H125" s="89" t="s">
+        <v>433</v>
+      </c>
+      <c r="I125" s="81"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="C126" s="90" t="s">
+        <v>437</v>
+      </c>
+      <c r="D126" s="88" t="s">
+        <v>438</v>
+      </c>
+      <c r="E126" s="77"/>
+      <c r="F126" s="93"/>
+      <c r="G126" s="79"/>
+      <c r="H126" s="89" t="s">
+        <v>438</v>
+      </c>
+      <c r="I126" s="81"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="C127" s="97" t="s">
+        <v>435</v>
+      </c>
+      <c r="D127" s="98" t="s">
+        <v>436</v>
+      </c>
+      <c r="E127" s="77"/>
+      <c r="F127" s="99"/>
+      <c r="G127" s="79"/>
+      <c r="H127" s="98" t="s">
+        <v>436</v>
+      </c>
+      <c r="I127" s="81"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="88" t="s">
         <v>434</v>
       </c>
-      <c r="D125" s="89" t="s">
-        <v>435</v>
-      </c>
-      <c r="E125" s="78"/>
-      <c r="F125" s="89"/>
-      <c r="G125" s="97"/>
-      <c r="H125" s="90" t="s">
-        <v>435</v>
-      </c>
-      <c r="I125" s="82"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B126" s="89" t="s">
-        <v>118</v>
-      </c>
-      <c r="C126" s="91" t="s">
-        <v>439</v>
-      </c>
-      <c r="D126" s="89" t="s">
-        <v>440</v>
-      </c>
-      <c r="E126" s="78"/>
-      <c r="F126" s="94"/>
-      <c r="G126" s="80"/>
-      <c r="H126" s="90" t="s">
-        <v>440</v>
-      </c>
-      <c r="I126" s="82"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="89" t="s">
-        <v>119</v>
-      </c>
-      <c r="C127" s="98" t="s">
-        <v>437</v>
-      </c>
-      <c r="D127" s="99" t="s">
-        <v>438</v>
-      </c>
-      <c r="E127" s="78"/>
-      <c r="F127" s="100"/>
-      <c r="G127" s="80"/>
-      <c r="H127" s="99" t="s">
-        <v>438</v>
-      </c>
-      <c r="I127" s="82"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="89" t="s">
-        <v>436</v>
-      </c>
-      <c r="C128" s="94" t="s">
+      <c r="C128" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="D128" s="89"/>
-      <c r="E128" s="78"/>
-      <c r="F128" s="100"/>
-      <c r="G128" s="80"/>
-      <c r="H128" s="99" t="s">
+      <c r="D128" s="88"/>
+      <c r="E128" s="77"/>
+      <c r="F128" s="99"/>
+      <c r="G128" s="79"/>
+      <c r="H128" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="I128" s="82"/>
+      <c r="I128" s="81"/>
     </row>
     <row r="129" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
@@ -4530,46 +4527,46 @@
         <v>127</v>
       </c>
       <c r="D129" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="E129" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="F129" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="E129" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="F129" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="G129" s="37"/>
-      <c r="H129" s="46" t="s">
-        <v>361</v>
-      </c>
-      <c r="I129" s="53"/>
+      <c r="G129" s="36"/>
+      <c r="H129" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="I129" s="52"/>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E130" s="34"/>
-      <c r="F130" s="45"/>
-      <c r="G130" s="35"/>
-      <c r="H130" s="45"/>
-      <c r="I130" s="53"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="44"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="44"/>
+      <c r="I130" s="52"/>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>134</v>
       </c>
-      <c r="C131" s="101" t="s">
-        <v>486</v>
+      <c r="C131" s="100" t="s">
+        <v>484</v>
       </c>
       <c r="E131" t="s">
-        <v>487</v>
-      </c>
-      <c r="F131" s="48" t="s">
-        <v>490</v>
-      </c>
-      <c r="G131" s="35"/>
-      <c r="H131" s="45" t="s">
+        <v>485</v>
+      </c>
+      <c r="F131" s="47" t="s">
+        <v>488</v>
+      </c>
+      <c r="G131" s="34"/>
+      <c r="H131" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I131" s="53" t="s">
-        <v>490</v>
+      <c r="I131" s="52" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="132" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -4580,17 +4577,17 @@
         <v>138</v>
       </c>
       <c r="D132" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="E132" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="E132" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="F132" s="45"/>
-      <c r="G132" s="35"/>
-      <c r="H132" s="46" t="s">
-        <v>361</v>
-      </c>
-      <c r="I132" s="53"/>
+      <c r="F132" s="44"/>
+      <c r="G132" s="34"/>
+      <c r="H132" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="I132" s="52"/>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
@@ -4600,35 +4597,35 @@
         <v>128</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="E133" s="34"/>
-      <c r="F133" s="45"/>
-      <c r="G133" s="35"/>
-      <c r="H133" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="I133" s="53"/>
+        <v>257</v>
+      </c>
+      <c r="E133" s="33"/>
+      <c r="F133" s="44"/>
+      <c r="G133" s="34"/>
+      <c r="H133" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="I133" s="52"/>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>132</v>
       </c>
-      <c r="C134" s="101" t="s">
-        <v>486</v>
-      </c>
-      <c r="E134" s="34" t="s">
+      <c r="C134" s="100" t="s">
+        <v>484</v>
+      </c>
+      <c r="E134" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="F134" s="48" t="s">
-        <v>490</v>
-      </c>
-      <c r="G134" s="35"/>
-      <c r="H134" s="45" t="s">
+      <c r="F134" s="47" t="s">
+        <v>488</v>
+      </c>
+      <c r="G134" s="34"/>
+      <c r="H134" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I134" s="53" t="s">
-        <v>490</v>
+      <c r="I134" s="52" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="135" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -4639,52 +4636,52 @@
         <v>138</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="E135" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="E135" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="F135" s="45"/>
-      <c r="G135" s="35"/>
-      <c r="H135" s="46" t="s">
-        <v>361</v>
-      </c>
-      <c r="I135" s="53"/>
+      <c r="F135" s="44"/>
+      <c r="G135" s="34"/>
+      <c r="H135" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="I135" s="52"/>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="101" t="s">
-        <v>486</v>
-      </c>
-      <c r="E136" s="34" t="s">
+      <c r="C136" s="100" t="s">
+        <v>484</v>
+      </c>
+      <c r="E136" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="F136" s="48" t="s">
-        <v>490</v>
-      </c>
-      <c r="G136" s="35"/>
-      <c r="H136" s="45" t="s">
+      <c r="F136" s="47" t="s">
+        <v>488</v>
+      </c>
+      <c r="G136" s="34"/>
+      <c r="H136" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I136" s="53" t="s">
-        <v>490</v>
+      <c r="I136" s="52" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E137" s="34"/>
-      <c r="F137" s="45"/>
-      <c r="G137" s="35"/>
-      <c r="H137" s="45"/>
-      <c r="I137" s="53"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="44"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="44"/>
+      <c r="I137" s="52"/>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E138" s="34"/>
-      <c r="F138" s="45"/>
-      <c r="G138" s="35"/>
-      <c r="H138" s="45"/>
-      <c r="I138" s="53"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="44"/>
+      <c r="G138" s="34"/>
+      <c r="H138" s="44"/>
+      <c r="I138" s="52"/>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
@@ -4693,13 +4690,13 @@
       <c r="C139" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E139" s="34"/>
-      <c r="F139" s="45"/>
-      <c r="G139" s="35"/>
-      <c r="H139" s="45" t="s">
+      <c r="E139" s="33"/>
+      <c r="F139" s="44"/>
+      <c r="G139" s="34"/>
+      <c r="H139" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="I139" s="53"/>
+      <c r="I139" s="52"/>
     </row>
     <row r="140" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
@@ -4709,15 +4706,15 @@
         <v>130</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="E140" s="34"/>
-      <c r="F140" s="45"/>
-      <c r="G140" s="35"/>
-      <c r="H140" s="50" t="s">
-        <v>362</v>
-      </c>
-      <c r="I140" s="53"/>
+        <v>360</v>
+      </c>
+      <c r="E140" s="33"/>
+      <c r="F140" s="44"/>
+      <c r="G140" s="34"/>
+      <c r="H140" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="I140" s="52"/>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
@@ -4726,31 +4723,31 @@
       <c r="C141" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E141" s="34"/>
-      <c r="F141" s="45"/>
-      <c r="G141" s="41"/>
-      <c r="H141" s="45" t="s">
+      <c r="E141" s="33"/>
+      <c r="F141" s="44"/>
+      <c r="G141" s="40"/>
+      <c r="H141" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="I141" s="53"/>
+      <c r="I141" s="52"/>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="4"/>
-      <c r="E142" s="34"/>
-      <c r="F142" s="45"/>
-      <c r="G142" s="35"/>
-      <c r="H142" s="45"/>
-      <c r="I142" s="53"/>
+      <c r="E142" s="33"/>
+      <c r="F142" s="44"/>
+      <c r="G142" s="34"/>
+      <c r="H142" s="44"/>
+      <c r="I142" s="52"/>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E143" s="34"/>
-      <c r="F143" s="45"/>
-      <c r="G143" s="35"/>
-      <c r="H143" s="45"/>
-      <c r="I143" s="53"/>
+      <c r="E143" s="33"/>
+      <c r="F143" s="44"/>
+      <c r="G143" s="34"/>
+      <c r="H143" s="44"/>
+      <c r="I143" s="52"/>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
@@ -4760,1286 +4757,1276 @@
         <v>23</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="F144" s="46"/>
-      <c r="H144" s="45" t="s">
-        <v>450</v>
-      </c>
-      <c r="I144" s="53"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="F144" s="45"/>
+      <c r="H144" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="I144" s="52"/>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>141</v>
       </c>
       <c r="C145" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="D145" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="E145" s="33"/>
+      <c r="F145" s="45"/>
+      <c r="H145" s="56" t="s">
+        <v>453</v>
+      </c>
+      <c r="I145" s="52"/>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>450</v>
+      </c>
+      <c r="C146" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="D145" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E145" s="34"/>
-      <c r="F145" s="46"/>
-      <c r="H145" s="57" t="s">
-        <v>455</v>
-      </c>
-      <c r="I145" s="53"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+      <c r="D146" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="E146" s="33"/>
+      <c r="F146" s="45"/>
+      <c r="H146" s="56" t="s">
         <v>452</v>
       </c>
-      <c r="C146" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="D146" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="E146" s="34"/>
-      <c r="F146" s="46"/>
-      <c r="H146" s="57" t="s">
-        <v>454</v>
-      </c>
-      <c r="I146" s="53"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I146" s="52"/>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>142</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D147" s="3"/>
-      <c r="E147" s="34"/>
-      <c r="F147" s="45"/>
-      <c r="G147" s="35"/>
-      <c r="H147" s="60" t="s">
-        <v>258</v>
-      </c>
-      <c r="I147" s="53"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E147" s="33"/>
+      <c r="F147" s="44"/>
+      <c r="G147" s="34"/>
+      <c r="H147" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="I147" s="52"/>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>143</v>
       </c>
       <c r="C148" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E148" s="34"/>
-      <c r="F148" s="45"/>
-      <c r="G148" s="35"/>
-      <c r="H148" s="45" t="s">
+      <c r="E148" s="33"/>
+      <c r="F148" s="44"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="I148" s="53"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="31"/>
-      <c r="E149" s="34"/>
-      <c r="F149" s="45"/>
-      <c r="G149" s="35"/>
-      <c r="H149" s="45"/>
-      <c r="I149" s="53"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="31"/>
+      <c r="I148" s="52"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E149" s="33"/>
+      <c r="F149" s="44"/>
+      <c r="G149" s="34"/>
+      <c r="H149" s="44"/>
+      <c r="I149" s="52"/>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E150" s="34"/>
-      <c r="F150" s="45"/>
-      <c r="G150" s="35"/>
-      <c r="H150" s="45"/>
-      <c r="I150" s="53"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="31"/>
+      <c r="E150" s="33"/>
+      <c r="F150" s="44"/>
+      <c r="G150" s="34"/>
+      <c r="H150" s="44"/>
+      <c r="I150" s="52"/>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>146</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D151" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="E151" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="F151" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="G151" s="35"/>
-      <c r="H151" s="61" t="s">
-        <v>253</v>
-      </c>
-      <c r="I151" s="53"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="31"/>
+      <c r="G151" s="34"/>
+      <c r="H151" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="I151" s="52"/>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>147</v>
       </c>
-      <c r="C152" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E152" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="F152" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="G152" s="35"/>
-      <c r="H152" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="I152" s="53"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="31"/>
+      <c r="C152" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="D152" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="G152" s="34"/>
+      <c r="H152" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="I152" s="52"/>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>148</v>
+        <v>490</v>
       </c>
       <c r="C153" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D153" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="E153" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="F153" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="G153" s="35"/>
-      <c r="H153" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="I153" s="53"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="31"/>
+        <v>367</v>
+      </c>
+      <c r="G153" s="34"/>
+      <c r="H153" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="I153" s="52"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
+        <v>148</v>
+      </c>
+      <c r="C154" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="D154" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="G154" s="34"/>
+      <c r="H154" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="I154" s="52"/>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>493</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="D155" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E155" s="33"/>
+      <c r="G155" s="34"/>
+      <c r="H155" s="44"/>
+      <c r="I155" s="52"/>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
         <v>149</v>
       </c>
-      <c r="C154" s="14" t="s">
+      <c r="C156" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E156" s="33"/>
+      <c r="F156" s="44"/>
+      <c r="G156" s="34"/>
+      <c r="H156" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="I156" s="52"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>150</v>
+      </c>
+      <c r="C157" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E157" s="33"/>
+      <c r="F157" s="44"/>
+      <c r="G157" s="34"/>
+      <c r="H157" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="I157" s="52"/>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E158" s="33"/>
+      <c r="F158" s="44"/>
+      <c r="G158" s="34"/>
+      <c r="H158" s="44"/>
+      <c r="I158" s="52"/>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B159" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D154" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="E154" s="34"/>
-      <c r="G154" s="35"/>
-      <c r="H154" s="45" t="s">
-        <v>377</v>
-      </c>
-      <c r="I154" s="53"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="31"/>
-      <c r="B155" t="s">
-        <v>150</v>
-      </c>
-      <c r="C155" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E155" s="34"/>
-      <c r="F155" s="45"/>
-      <c r="G155" s="35"/>
-      <c r="H155" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="I155" s="53"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="31"/>
-      <c r="B156" t="s">
-        <v>151</v>
-      </c>
-      <c r="C156" s="23" t="s">
+      <c r="E159" s="33"/>
+      <c r="F159" s="44"/>
+      <c r="G159" s="34"/>
+      <c r="H159" s="44"/>
+      <c r="I159" s="52"/>
+    </row>
+    <row r="160" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
         <v>154</v>
       </c>
-      <c r="E156" s="34"/>
-      <c r="F156" s="45"/>
-      <c r="G156" s="35"/>
-      <c r="H156" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="I156" s="53"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="31"/>
-      <c r="E157" s="34"/>
-      <c r="F157" s="45"/>
-      <c r="G157" s="35"/>
-      <c r="H157" s="45"/>
-      <c r="I157" s="53"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B158" s="7" t="s">
+      <c r="C160" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D160" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E160" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="F160" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="G160" s="34"/>
+      <c r="H160" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="I160" s="52"/>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
         <v>155</v>
       </c>
-      <c r="E158" s="34"/>
-      <c r="F158" s="45"/>
-      <c r="G158" s="35"/>
-      <c r="H158" s="45"/>
-      <c r="I158" s="53"/>
-    </row>
-    <row r="159" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
+      <c r="C161" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E161" s="68" t="s">
+        <v>469</v>
+      </c>
+      <c r="F161" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="G161" s="34"/>
+      <c r="H161" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="I161" s="52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
         <v>156</v>
       </c>
-      <c r="C159" s="14" t="s">
+      <c r="C162" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D159" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="E159" s="69" t="s">
+      <c r="D162" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E162" s="68" t="s">
+        <v>304</v>
+      </c>
+      <c r="F162" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="G162" s="34"/>
+      <c r="H162" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="I162" s="52"/>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="E163" s="71" t="s">
+        <v>349</v>
+      </c>
+      <c r="F163" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="F159" s="45" t="s">
+      <c r="G163" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="H163" s="44" t="s">
         <v>414</v>
       </c>
-      <c r="G159" s="35"/>
-      <c r="H159" s="50" t="s">
-        <v>363</v>
-      </c>
-      <c r="I159" s="53"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>157</v>
-      </c>
-      <c r="C160" s="23" t="s">
+      <c r="I163" s="52" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>158</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D164" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E164" s="72" t="s">
+        <v>303</v>
+      </c>
+      <c r="F164" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="G164" s="34"/>
+      <c r="H164" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="I164" s="52"/>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>159</v>
+      </c>
+      <c r="C165" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="E165" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="F165" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="G165" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="H165" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="I165" s="52" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>160</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D166" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E166" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="F166" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="G166" s="34"/>
+      <c r="H166" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="I166" s="52"/>
+    </row>
+    <row r="167" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>161</v>
+      </c>
+      <c r="C167" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E167" s="70" t="s">
+        <v>351</v>
+      </c>
+      <c r="F167" s="63" t="s">
+        <v>391</v>
+      </c>
+      <c r="G167" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="H167" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="I167" s="52" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>162</v>
+      </c>
+      <c r="C168" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E160" s="69" t="s">
-        <v>471</v>
-      </c>
-      <c r="F160" s="48" t="s">
-        <v>414</v>
-      </c>
-      <c r="G160" s="35"/>
-      <c r="H160" s="45" t="s">
-        <v>415</v>
-      </c>
-      <c r="I160" s="53" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>158</v>
-      </c>
-      <c r="C161" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D161" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="E161" s="69" t="s">
+      <c r="D168" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E168" s="68" t="s">
         <v>306</v>
       </c>
-      <c r="F161" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="G161" s="35"/>
-      <c r="H161" s="50" t="s">
-        <v>363</v>
-      </c>
-      <c r="I161" s="53"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>159</v>
-      </c>
-      <c r="C162" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="E162" s="72" t="s">
-        <v>351</v>
-      </c>
-      <c r="F162" s="64" t="s">
-        <v>304</v>
-      </c>
-      <c r="G162" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="H162" s="45" t="s">
-        <v>416</v>
-      </c>
-      <c r="I162" s="53" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>160</v>
-      </c>
-      <c r="C163" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D163" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="E163" s="73" t="s">
-        <v>305</v>
-      </c>
-      <c r="F163" s="45" t="s">
-        <v>387</v>
-      </c>
-      <c r="G163" s="35"/>
-      <c r="H163" s="50" t="s">
-        <v>363</v>
-      </c>
-      <c r="I163" s="53"/>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>161</v>
-      </c>
-      <c r="C164" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="E164" s="72" t="s">
+      <c r="F168" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="G168" s="34"/>
+      <c r="H168" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="I168" s="52"/>
+    </row>
+    <row r="169" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>163</v>
+      </c>
+      <c r="C169" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="E169" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="F164" s="64" t="s">
-        <v>388</v>
-      </c>
-      <c r="G164" s="39" t="s">
-        <v>389</v>
-      </c>
-      <c r="H164" s="45" t="s">
-        <v>417</v>
-      </c>
-      <c r="I164" s="53" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>162</v>
-      </c>
-      <c r="C165" s="14" t="s">
+      <c r="F169" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="G169" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="H169" s="45" t="s">
+        <v>419</v>
+      </c>
+      <c r="I169" s="53" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
         <v>164</v>
       </c>
-      <c r="D165" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="E165" s="69" t="s">
-        <v>307</v>
-      </c>
-      <c r="F165" s="45" t="s">
-        <v>392</v>
-      </c>
-      <c r="G165" s="35"/>
-      <c r="H165" s="50" t="s">
-        <v>363</v>
-      </c>
-      <c r="I165" s="53"/>
-    </row>
-    <row r="166" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
-        <v>163</v>
-      </c>
-      <c r="C166" s="23" t="s">
+      <c r="C170" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D170" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E170" s="68" t="s">
+        <v>308</v>
+      </c>
+      <c r="F170" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="G170" s="34"/>
+      <c r="H170" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="I170" s="52"/>
+    </row>
+    <row r="171" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>93</v>
+      </c>
+      <c r="C171" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="E166" s="71" t="s">
+      <c r="E171" s="70" t="s">
         <v>353</v>
       </c>
-      <c r="F166" s="64" t="s">
-        <v>393</v>
-      </c>
-      <c r="G166" s="39" t="s">
-        <v>391</v>
-      </c>
-      <c r="H166" s="45" t="s">
-        <v>419</v>
-      </c>
-      <c r="I166" s="53" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
-        <v>164</v>
-      </c>
-      <c r="C167" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D167" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="E167" s="69" t="s">
-        <v>308</v>
-      </c>
-      <c r="F167" s="45" t="s">
-        <v>394</v>
-      </c>
-      <c r="G167" s="35"/>
-      <c r="H167" s="50" t="s">
-        <v>363</v>
-      </c>
-      <c r="I167" s="53"/>
-    </row>
-    <row r="168" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>165</v>
-      </c>
-      <c r="C168" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="E168" s="71" t="s">
-        <v>354</v>
-      </c>
-      <c r="F168" s="64" t="s">
-        <v>395</v>
-      </c>
-      <c r="G168" s="40" t="s">
+      <c r="F171" s="63" t="s">
         <v>396</v>
       </c>
-      <c r="H168" s="46" t="s">
+      <c r="G171" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="H171" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="I168" s="54" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
-        <v>166</v>
-      </c>
-      <c r="C169" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D169" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="E169" s="69" t="s">
-        <v>310</v>
-      </c>
-      <c r="F169" s="45" t="s">
-        <v>397</v>
-      </c>
-      <c r="G169" s="35"/>
-      <c r="H169" s="50" t="s">
-        <v>363</v>
-      </c>
-      <c r="I169" s="53"/>
-    </row>
-    <row r="170" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
-        <v>93</v>
-      </c>
-      <c r="C170" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="E170" s="71" t="s">
-        <v>355</v>
-      </c>
-      <c r="F170" s="64" t="s">
-        <v>398</v>
-      </c>
-      <c r="G170" s="40" t="s">
-        <v>399</v>
-      </c>
-      <c r="H170" s="45" t="s">
-        <v>423</v>
-      </c>
-      <c r="I170" s="54" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>167</v>
-      </c>
-      <c r="C171" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D171" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="E171" s="69" t="s">
-        <v>309</v>
-      </c>
-      <c r="F171" s="45" t="s">
-        <v>400</v>
-      </c>
-      <c r="G171" s="35"/>
-      <c r="H171" s="50" t="s">
-        <v>363</v>
-      </c>
-      <c r="I171" s="53"/>
+      <c r="I171" s="53" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="172" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C172" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E172" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="F172" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="G172" s="34"/>
+      <c r="H172" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="I172" s="52"/>
+    </row>
+    <row r="173" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>166</v>
+      </c>
+      <c r="C173" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D173" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E173" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="F173" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="G173" s="34"/>
+      <c r="H173" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="I173" s="52"/>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E174" s="33"/>
+      <c r="F174" s="44"/>
+      <c r="G174" s="34"/>
+      <c r="H174" s="44"/>
+      <c r="I174" s="52"/>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B175" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E175" s="33"/>
+      <c r="F175" s="44"/>
+      <c r="G175" s="34"/>
+      <c r="H175" s="44"/>
+      <c r="I175" s="52"/>
+    </row>
+    <row r="176" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B176" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D172" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="E172" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="F172" s="45" t="s">
-        <v>400</v>
-      </c>
-      <c r="G172" s="35"/>
-      <c r="H172" s="50" t="s">
-        <v>363</v>
-      </c>
-      <c r="I172" s="53"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E173" s="34"/>
-      <c r="F173" s="45"/>
-      <c r="G173" s="35"/>
-      <c r="H173" s="45"/>
-      <c r="I173" s="53"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B174" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E174" s="34"/>
-      <c r="F174" s="45"/>
-      <c r="G174" s="35"/>
-      <c r="H174" s="45"/>
-      <c r="I174" s="53"/>
-    </row>
-    <row r="175" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B175" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C175" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D175" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="E175" s="69" t="s">
-        <v>356</v>
-      </c>
-      <c r="F175" s="67" t="s">
-        <v>385</v>
-      </c>
-      <c r="G175" s="35" t="s">
-        <v>382</v>
-      </c>
-      <c r="H175" s="50" t="s">
-        <v>364</v>
-      </c>
-      <c r="I175" s="53"/>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
+      <c r="C176" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C176" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="E176" s="34"/>
-      <c r="F176" s="45"/>
-      <c r="G176" s="35"/>
-      <c r="H176" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="I176" s="53"/>
+      <c r="D176" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="E176" s="68" t="s">
+        <v>354</v>
+      </c>
+      <c r="F176" s="66" t="s">
+        <v>383</v>
+      </c>
+      <c r="G176" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="H176" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="I176" s="52"/>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
+        <v>174</v>
+      </c>
+      <c r="C177" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C177" s="23" t="s">
+      <c r="E177" s="33"/>
+      <c r="F177" s="44"/>
+      <c r="G177" s="34"/>
+      <c r="H177" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="I177" s="52"/>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>175</v>
+      </c>
+      <c r="C178" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E178" s="33"/>
+      <c r="F178" s="44"/>
+      <c r="G178" s="34"/>
+      <c r="H178" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="I178" s="52"/>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E179" s="33"/>
+      <c r="F179" s="44"/>
+      <c r="G179" s="34"/>
+      <c r="H179" s="44"/>
+      <c r="I179" s="52"/>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E180" s="33"/>
+      <c r="F180" s="44"/>
+      <c r="G180" s="34"/>
+      <c r="H180" s="44"/>
+      <c r="I180" s="52"/>
+    </row>
+    <row r="181" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C181" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="E177" s="34"/>
-      <c r="F177" s="45"/>
-      <c r="G177" s="35"/>
-      <c r="H177" s="45" t="s">
+      <c r="E181" s="33"/>
+      <c r="F181" s="44"/>
+      <c r="G181" s="34"/>
+      <c r="H181" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="I177" s="53"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E178" s="34"/>
-      <c r="F178" s="45"/>
-      <c r="G178" s="35"/>
-      <c r="H178" s="45"/>
-      <c r="I178" s="53"/>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B179" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E179" s="34"/>
-      <c r="F179" s="45"/>
-      <c r="G179" s="35"/>
-      <c r="H179" s="45"/>
-      <c r="I179" s="53"/>
-    </row>
-    <row r="180" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B180" s="1" t="s">
+      <c r="I181" s="52"/>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C182" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E182" s="33"/>
+      <c r="F182" s="44"/>
+      <c r="G182" s="34"/>
+      <c r="H182" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="I182" s="52"/>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E183" s="33"/>
+      <c r="F183" s="44"/>
+      <c r="G183" s="34"/>
+      <c r="H183" s="44"/>
+      <c r="I183" s="52"/>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B184" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C180" s="22" t="s">
+      <c r="E184" s="33"/>
+      <c r="F184" s="44"/>
+      <c r="G184" s="34"/>
+      <c r="H184" s="44"/>
+      <c r="I184" s="52"/>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B185" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E185" s="33"/>
+      <c r="F185" s="44"/>
+      <c r="G185" s="34"/>
+      <c r="H185" s="44"/>
+      <c r="I185" s="52"/>
+    </row>
+    <row r="186" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
         <v>182</v>
       </c>
-      <c r="E180" s="34"/>
-      <c r="F180" s="45"/>
-      <c r="G180" s="35"/>
-      <c r="H180" s="46" t="s">
+      <c r="C186" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E186" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="G186" s="34"/>
+      <c r="H186" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="I186" s="52"/>
+    </row>
+    <row r="187" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>183</v>
+      </c>
+      <c r="C187" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E187" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="I180" s="53"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B181" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C181" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="E181" s="34"/>
-      <c r="F181" s="45"/>
-      <c r="G181" s="35"/>
-      <c r="H181" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="I181" s="53"/>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E182" s="34"/>
-      <c r="F182" s="45"/>
-      <c r="G182" s="35"/>
-      <c r="H182" s="45"/>
-      <c r="I182" s="53"/>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B183" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E183" s="34"/>
-      <c r="F183" s="45"/>
-      <c r="G183" s="35"/>
-      <c r="H183" s="45"/>
-      <c r="I183" s="53"/>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B184" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="E184" s="34"/>
-      <c r="F184" s="45"/>
-      <c r="G184" s="35"/>
-      <c r="H184" s="45"/>
-      <c r="I184" s="53"/>
-    </row>
-    <row r="185" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
-        <v>184</v>
-      </c>
-      <c r="C185" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E185" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="F185" s="46" t="s">
-        <v>480</v>
-      </c>
-      <c r="G185" s="35"/>
-      <c r="H185" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="I185" s="53"/>
-    </row>
-    <row r="186" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>185</v>
-      </c>
-      <c r="C186" s="23" t="s">
+      <c r="F187" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="G187" s="34"/>
+      <c r="H187" s="44" t="s">
+        <v>422</v>
+      </c>
+      <c r="I187" s="53" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E188" s="33"/>
+      <c r="F188" s="44"/>
+      <c r="G188" s="34"/>
+      <c r="H188" s="44"/>
+      <c r="I188" s="52"/>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B189" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E186" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="F186" s="48" t="s">
-        <v>480</v>
-      </c>
-      <c r="G186" s="35"/>
-      <c r="H186" s="45" t="s">
-        <v>424</v>
-      </c>
-      <c r="I186" s="54" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E187" s="34"/>
-      <c r="F187" s="45"/>
-      <c r="G187" s="35"/>
-      <c r="H187" s="45"/>
-      <c r="I187" s="53"/>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B188" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E188" s="34"/>
-      <c r="F188" s="45"/>
-      <c r="G188" s="35"/>
-      <c r="H188" s="45"/>
-      <c r="I188" s="53"/>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>190</v>
-      </c>
-      <c r="C189" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="E189" s="34"/>
-      <c r="F189" s="45"/>
-      <c r="G189" s="35"/>
-      <c r="H189" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="I189" s="53"/>
+      <c r="E189" s="33"/>
+      <c r="F189" s="44"/>
+      <c r="G189" s="34"/>
+      <c r="H189" s="44"/>
+      <c r="I189" s="52"/>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
+        <v>188</v>
+      </c>
+      <c r="C190" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C190" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D190" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="E190" s="34"/>
-      <c r="F190" s="45"/>
-      <c r="G190" s="35"/>
-      <c r="H190" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="I190" s="53"/>
+      <c r="E190" s="33"/>
+      <c r="F190" s="44"/>
+      <c r="G190" s="34"/>
+      <c r="H190" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="I190" s="52"/>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
+        <v>189</v>
+      </c>
+      <c r="C191" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D191" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="E191" s="33"/>
+      <c r="F191" s="44"/>
+      <c r="G191" s="34"/>
+      <c r="H191" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="I191" s="52"/>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>190</v>
+      </c>
+      <c r="C192" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C191" s="23" t="s">
+      <c r="E192" s="33"/>
+      <c r="F192" s="44"/>
+      <c r="G192" s="34"/>
+      <c r="H192" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="I192" s="52"/>
+    </row>
+    <row r="193" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>280</v>
+      </c>
+      <c r="C193" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="D193" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="E193" s="33"/>
+      <c r="F193" s="44"/>
+      <c r="G193" s="34"/>
+      <c r="H193" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="I193" s="52"/>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E194" s="33"/>
+      <c r="F194" s="44"/>
+      <c r="G194" s="34"/>
+      <c r="H194" s="44"/>
+      <c r="I194" s="52"/>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B195" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E191" s="34"/>
-      <c r="F191" s="45"/>
-      <c r="G191" s="35"/>
-      <c r="H191" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="I191" s="53"/>
-    </row>
-    <row r="192" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
-        <v>282</v>
-      </c>
-      <c r="C192" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="D192" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="E192" s="34"/>
-      <c r="F192" s="45"/>
-      <c r="G192" s="35"/>
-      <c r="H192" s="46" t="s">
-        <v>368</v>
-      </c>
-      <c r="I192" s="53"/>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E193" s="34"/>
-      <c r="F193" s="45"/>
-      <c r="G193" s="35"/>
-      <c r="H193" s="45"/>
-      <c r="I193" s="53"/>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B194" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E194" s="34"/>
-      <c r="F194" s="45"/>
-      <c r="G194" s="35"/>
-      <c r="H194" s="45"/>
-      <c r="I194" s="53"/>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E195" s="34"/>
-      <c r="F195" s="45"/>
-      <c r="G195" s="35"/>
-      <c r="H195" s="45"/>
-      <c r="I195" s="53"/>
+      <c r="E195" s="33"/>
+      <c r="F195" s="44"/>
+      <c r="G195" s="34"/>
+      <c r="H195" s="44"/>
+      <c r="I195" s="52"/>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B196" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E196" s="34"/>
-      <c r="F196" s="45"/>
-      <c r="G196" s="35"/>
-      <c r="H196" s="45"/>
-      <c r="I196" s="53"/>
+      <c r="E196" s="33"/>
+      <c r="F196" s="44"/>
+      <c r="G196" s="34"/>
+      <c r="H196" s="44"/>
+      <c r="I196" s="52"/>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>199</v>
-      </c>
-      <c r="C197" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="E197" s="34"/>
-      <c r="F197" s="45"/>
-      <c r="G197" s="35"/>
-      <c r="H197" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="I197" s="53"/>
+      <c r="B197" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E197" s="33"/>
+      <c r="F197" s="44"/>
+      <c r="G197" s="34"/>
+      <c r="H197" s="44"/>
+      <c r="I197" s="52"/>
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
+        <v>197</v>
+      </c>
+      <c r="C198" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E198" s="33"/>
+      <c r="F198" s="44"/>
+      <c r="G198" s="34"/>
+      <c r="H198" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="I198" s="52"/>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>198</v>
+      </c>
+      <c r="C199" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C198" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D198" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="E198" s="34"/>
-      <c r="F198" s="45"/>
-      <c r="G198" s="35"/>
-      <c r="H198" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="I198" s="53"/>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E199" s="34"/>
-      <c r="F199" s="45"/>
-      <c r="G199" s="35"/>
-      <c r="H199" s="45"/>
-      <c r="I199" s="53"/>
+      <c r="D199" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E199" s="33"/>
+      <c r="F199" s="44"/>
+      <c r="G199" s="34"/>
+      <c r="H199" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="I199" s="52"/>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B200" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E200" s="34"/>
-      <c r="F200" s="45"/>
-      <c r="G200" s="35"/>
-      <c r="H200" s="45"/>
-      <c r="I200" s="53"/>
+      <c r="E200" s="33"/>
+      <c r="F200" s="44"/>
+      <c r="G200" s="34"/>
+      <c r="H200" s="44"/>
+      <c r="I200" s="52"/>
     </row>
     <row r="201" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
-        <v>203</v>
-      </c>
-      <c r="C201" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="E201" s="34"/>
-      <c r="F201" s="45"/>
-      <c r="G201" s="35"/>
-      <c r="H201" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="I201" s="53"/>
+      <c r="B201" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E201" s="33"/>
+      <c r="F201" s="44"/>
+      <c r="G201" s="34"/>
+      <c r="H201" s="44"/>
+      <c r="I201" s="52"/>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
+        <v>201</v>
+      </c>
+      <c r="C202" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E202" s="33"/>
+      <c r="F202" s="44"/>
+      <c r="G202" s="34"/>
+      <c r="H202" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="I202" s="52"/>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>202</v>
+      </c>
+      <c r="C203" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="C202" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="E202" s="34"/>
-      <c r="F202" s="45"/>
-      <c r="G202" s="35"/>
-      <c r="H202" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="I202" s="53"/>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E203" s="34"/>
-      <c r="F203" s="45"/>
-      <c r="G203" s="35"/>
-      <c r="H203" s="45"/>
-      <c r="I203" s="53"/>
+      <c r="E203" s="33"/>
+      <c r="F203" s="44"/>
+      <c r="G203" s="34"/>
+      <c r="H203" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="I203" s="52"/>
     </row>
     <row r="204" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B204" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E204" s="34"/>
-      <c r="F204" s="45"/>
-      <c r="G204" s="35"/>
-      <c r="H204" s="45"/>
-      <c r="I204" s="53"/>
+      <c r="E204" s="33"/>
+      <c r="F204" s="44"/>
+      <c r="G204" s="34"/>
+      <c r="H204" s="44"/>
+      <c r="I204" s="52"/>
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
-        <v>208</v>
-      </c>
-      <c r="C205" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="E205" s="34"/>
-      <c r="F205" s="45"/>
-      <c r="G205" s="35"/>
-      <c r="H205" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="I205" s="53"/>
+      <c r="B205" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E205" s="33"/>
+      <c r="F205" s="44"/>
+      <c r="G205" s="34"/>
+      <c r="H205" s="44"/>
+      <c r="I205" s="52"/>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
+        <v>206</v>
+      </c>
+      <c r="C206" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="C206" s="23" t="s">
+      <c r="E206" s="33"/>
+      <c r="F206" s="44"/>
+      <c r="G206" s="34"/>
+      <c r="H206" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="I206" s="52"/>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>207</v>
+      </c>
+      <c r="C207" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E207" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="F207" s="44"/>
+      <c r="G207" s="34"/>
+      <c r="H207" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="I207" s="52"/>
+    </row>
+    <row r="208" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>208</v>
+      </c>
+      <c r="C208" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="D208" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="E208" s="68" t="s">
+        <v>463</v>
+      </c>
+      <c r="F208" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="G208" s="34"/>
+      <c r="H208" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="I208" s="52" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>462</v>
+      </c>
+      <c r="C209" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="E209" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="F209" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="G209" s="34"/>
+      <c r="H209" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="I209" s="52"/>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E210" s="33"/>
+      <c r="F210" s="44"/>
+      <c r="G210" s="34"/>
+      <c r="H210" s="44"/>
+      <c r="I210" s="52"/>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B211" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E211" s="33"/>
+      <c r="F211" s="44"/>
+      <c r="G211" s="34"/>
+      <c r="H211" s="44"/>
+      <c r="I211" s="52"/>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B212" s="5"/>
+      <c r="E212" s="33"/>
+      <c r="F212" s="44"/>
+      <c r="G212" s="34"/>
+      <c r="H212" s="44"/>
+      <c r="I212" s="52"/>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B213" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E206" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="F206" s="45"/>
-      <c r="G206" s="35"/>
-      <c r="H206" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="I206" s="53"/>
-    </row>
-    <row r="207" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
-        <v>210</v>
-      </c>
-      <c r="C207" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="D207" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="E207" s="69" t="s">
-        <v>465</v>
-      </c>
-      <c r="F207" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="G207" s="35"/>
-      <c r="H207" s="45" t="s">
-        <v>425</v>
-      </c>
-      <c r="I207" s="53" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
-        <v>464</v>
-      </c>
-      <c r="C208" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="E208" s="69" t="s">
-        <v>210</v>
-      </c>
-      <c r="F208" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="G208" s="35"/>
-      <c r="H208" s="45" t="s">
-        <v>314</v>
-      </c>
-      <c r="I208" s="53"/>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E209" s="34"/>
-      <c r="F209" s="45"/>
-      <c r="G209" s="35"/>
-      <c r="H209" s="45"/>
-      <c r="I209" s="53"/>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B210" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E210" s="34"/>
-      <c r="F210" s="45"/>
-      <c r="G210" s="35"/>
-      <c r="H210" s="45"/>
-      <c r="I210" s="53"/>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B211" s="5"/>
-      <c r="E211" s="34"/>
-      <c r="F211" s="45"/>
-      <c r="G211" s="35"/>
-      <c r="H211" s="45"/>
-      <c r="I211" s="53"/>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B212" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="E212" s="34"/>
-      <c r="F212" s="45"/>
-      <c r="G212" s="35"/>
-      <c r="H212" s="45"/>
-      <c r="I212" s="53"/>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
-        <v>216</v>
-      </c>
-      <c r="C213" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="E213" s="34"/>
-      <c r="F213" s="45"/>
-      <c r="G213" s="35"/>
-      <c r="H213" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="I213" s="53"/>
+      <c r="E213" s="33"/>
+      <c r="F213" s="44"/>
+      <c r="G213" s="34"/>
+      <c r="H213" s="44"/>
+      <c r="I213" s="52"/>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
+        <v>214</v>
+      </c>
+      <c r="C214" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="C214" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="E214" s="34"/>
-      <c r="F214" s="45"/>
-      <c r="G214" s="35"/>
-      <c r="H214" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="I214" s="53"/>
+      <c r="E214" s="33"/>
+      <c r="F214" s="44"/>
+      <c r="G214" s="34"/>
+      <c r="H214" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="I214" s="52"/>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
+        <v>215</v>
+      </c>
+      <c r="C215" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="E215" s="33"/>
+      <c r="F215" s="44"/>
+      <c r="G215" s="34"/>
+      <c r="H215" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="I215" s="52"/>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>216</v>
+      </c>
+      <c r="C216" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="C215" s="23" t="s">
+      <c r="E216" s="33"/>
+      <c r="F216" s="44"/>
+      <c r="G216" s="34"/>
+      <c r="H216" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="I216" s="52"/>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E217" s="33"/>
+      <c r="F217" s="44"/>
+      <c r="G217" s="34"/>
+      <c r="H217" s="44"/>
+      <c r="I217" s="52"/>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B218" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E218" s="33"/>
+      <c r="F218" s="44"/>
+      <c r="G218" s="34"/>
+      <c r="H218" s="44"/>
+      <c r="I218" s="52"/>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>219</v>
+      </c>
+      <c r="C219" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="E219" s="33"/>
+      <c r="F219" s="44"/>
+      <c r="G219" s="34"/>
+      <c r="H219" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="I219" s="52"/>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E220" s="33"/>
+      <c r="F220" s="44"/>
+      <c r="G220" s="34"/>
+      <c r="H220" s="44"/>
+      <c r="I220" s="52"/>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B221" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E215" s="34"/>
-      <c r="F215" s="45"/>
-      <c r="G215" s="35"/>
-      <c r="H215" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="I215" s="53"/>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E216" s="34"/>
-      <c r="F216" s="45"/>
-      <c r="G216" s="35"/>
-      <c r="H216" s="45"/>
-      <c r="I216" s="53"/>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B217" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E217" s="34"/>
-      <c r="F217" s="45"/>
-      <c r="G217" s="35"/>
-      <c r="H217" s="45"/>
-      <c r="I217" s="53"/>
-    </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
+      <c r="E221" s="33"/>
+      <c r="F221" s="44"/>
+      <c r="G221" s="34"/>
+      <c r="H221" s="44"/>
+      <c r="I221" s="52"/>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
         <v>221</v>
       </c>
-      <c r="C218" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="E218" s="34"/>
-      <c r="F218" s="45"/>
-      <c r="G218" s="35"/>
-      <c r="H218" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="I218" s="53"/>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E219" s="34"/>
-      <c r="F219" s="45"/>
-      <c r="G219" s="35"/>
-      <c r="H219" s="45"/>
-      <c r="I219" s="53"/>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B220" s="7" t="s">
+      <c r="C222" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="E220" s="34"/>
-      <c r="F220" s="45"/>
-      <c r="G220" s="35"/>
-      <c r="H220" s="45"/>
-      <c r="I220" s="53"/>
-    </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
+      <c r="F222" s="45"/>
+      <c r="G222" s="34"/>
+      <c r="H222" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="I222" s="52"/>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E223" s="33"/>
+      <c r="F223" s="44"/>
+      <c r="G223" s="34"/>
+      <c r="H223" s="44"/>
+      <c r="I223" s="52"/>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B224" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C221" s="23" t="s">
+      <c r="E224" s="33"/>
+      <c r="F224" s="44"/>
+      <c r="G224" s="34"/>
+      <c r="H224" s="44"/>
+      <c r="I224" s="52"/>
+    </row>
+    <row r="225" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
         <v>224</v>
       </c>
-      <c r="F221" s="46"/>
-      <c r="G221" s="35"/>
-      <c r="H221" s="45" t="s">
+      <c r="C225" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E225" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F225" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="G225" s="34"/>
+      <c r="H225" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="I225" s="52"/>
+    </row>
+    <row r="226" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>282</v>
+      </c>
+      <c r="C226" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D226" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="E226" s="68" t="s">
         <v>224</v>
       </c>
-      <c r="I221" s="53"/>
-    </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E222" s="34"/>
-      <c r="F222" s="45"/>
-      <c r="G222" s="35"/>
-      <c r="H222" s="45"/>
-      <c r="I222" s="53"/>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B223" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E223" s="34"/>
-      <c r="F223" s="45"/>
-      <c r="G223" s="35"/>
-      <c r="H223" s="45"/>
-      <c r="I223" s="53"/>
-    </row>
-    <row r="224" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
-        <v>226</v>
-      </c>
-      <c r="C224" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="E224" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="F224" s="46" t="s">
+      <c r="F226" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="G226" s="34"/>
+      <c r="H226" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="I226" s="53" t="s">
         <v>480</v>
       </c>
-      <c r="G224" s="35"/>
-      <c r="H224" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="I224" s="53"/>
-    </row>
-    <row r="225" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B225" t="s">
-        <v>284</v>
-      </c>
-      <c r="C225" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="D225" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="E225" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="F225" s="48" t="s">
-        <v>481</v>
-      </c>
-      <c r="G225" s="35"/>
-      <c r="H225" s="45" t="s">
-        <v>426</v>
-      </c>
-      <c r="I225" s="54" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B226" t="s">
-        <v>227</v>
-      </c>
-      <c r="C226" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E226" s="34"/>
-      <c r="F226" s="45"/>
-      <c r="G226" s="35"/>
-      <c r="H226" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="I226" s="53"/>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C227" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="E227" s="34"/>
-      <c r="F227" s="45"/>
-      <c r="G227" s="35"/>
-      <c r="H227" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="I227" s="53"/>
+        <v>38</v>
+      </c>
+      <c r="E227" s="33"/>
+      <c r="F227" s="44"/>
+      <c r="G227" s="34"/>
+      <c r="H227" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="I227" s="52"/>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C228" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="E228" s="69" t="s">
-        <v>287</v>
-      </c>
-      <c r="F228" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="G228" s="35"/>
-      <c r="H228" s="45" t="s">
-        <v>427</v>
-      </c>
-      <c r="I228" s="53" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="229" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="E228" s="33"/>
+      <c r="F228" s="44"/>
+      <c r="G228" s="34"/>
+      <c r="H228" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="I228" s="52"/>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C229" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="E229" s="42"/>
-      <c r="F229" s="51"/>
-      <c r="G229" s="43"/>
-      <c r="H229" s="62" t="s">
-        <v>283</v>
-      </c>
-      <c r="I229" s="55"/>
+        <v>231</v>
+      </c>
+      <c r="E229" s="68" t="s">
+        <v>285</v>
+      </c>
+      <c r="F229" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="G229" s="34"/>
+      <c r="H229" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="I229" s="52" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B230" t="s">
+        <v>228</v>
+      </c>
+      <c r="C230" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="E230" s="41"/>
+      <c r="F230" s="50"/>
+      <c r="G230" s="42"/>
+      <c r="H230" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="I230" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56D7A6E-A7FD-478E-B1BC-F4ACA5EDEFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EC105B-9140-4AB7-90A3-8556D524188A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1020,9 +1020,6 @@
     <t>&lt;DT_id&gt;  ? )</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;DT_id&gt; </t>
-  </si>
-  <si>
     <t>&lt;DT_STR&gt; ? id</t>
   </si>
   <si>
@@ -1447,17 +1444,11 @@
 id ? dt ?str</t>
   </si>
   <si>
-    <t xml:space="preserve">import?begin? def? Class? Abstract?const?dt?id </t>
-  </si>
-  <si>
     <t>&lt;CLASS_DEC&gt; ?&lt;GLOBAL_DEC&gt;</t>
   </si>
   <si>
     <t>begin?def?Class?Abstract?const?
 id ? dt ? str?null</t>
-  </si>
-  <si>
-    <t>import?begin?def ?Class?Abstract?const?dt?id?null</t>
   </si>
   <si>
     <t>[ ?id</t>
@@ -1570,6 +1561,17 @@
   </si>
   <si>
     <t>&lt;ACCESSMOD&gt;? id</t>
+  </si>
+  <si>
+    <t>import?begin?def?Class?Abstract?const?
+id ? dt ?str</t>
+  </si>
+  <si>
+    <t>import?begin?def ?Class?
+Abstract?const?id?dt?str?null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DT_ID&gt; </t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1730,17 +1732,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1750,30 +1741,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1799,6 +1770,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1806,6 +1790,15 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1819,10 +1812,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
         <color indexed="64"/>
-      </right>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1831,18 +1824,9 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1886,7 +1870,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1959,28 +1943,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1991,36 +1960,43 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2036,19 +2012,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
@@ -2060,31 +2036,18 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7"/>
@@ -2097,11 +2060,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="7" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="7" quotePrefix="1" applyBorder="1"/>
@@ -2110,6 +2069,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
@@ -2399,8 +2372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K226" sqref="K226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2426,20 +2399,20 @@
       <c r="D1" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="43" t="s">
         <v>323</v>
       </c>
-      <c r="I1" s="51" t="s">
-        <v>400</v>
+      <c r="I1" s="44" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -2448,31 +2421,31 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="52"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="44" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="46" t="s">
         <v>322</v>
       </c>
     </row>
@@ -2484,19 +2457,19 @@
         <v>278</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="E4" s="68" t="s">
+        <v>493</v>
+      </c>
+      <c r="E4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="49" t="s">
-        <v>457</v>
-      </c>
-      <c r="I4" s="52" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="47" t="s">
+        <v>492</v>
+      </c>
+      <c r="I4" s="46" t="s">
         <v>322</v>
       </c>
     </row>
@@ -2508,18 +2481,19 @@
         <v>234</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="E5" s="68" t="s">
+        <v>457</v>
+      </c>
+      <c r="E5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="H5" s="49" t="s">
-        <v>456</v>
-      </c>
-      <c r="I5" s="52" t="s">
+      <c r="G5" s="37"/>
+      <c r="H5" s="47" t="s">
+        <v>455</v>
+      </c>
+      <c r="I5" s="46" t="s">
         <v>322</v>
       </c>
     </row>
@@ -2531,18 +2505,19 @@
         <v>260</v>
       </c>
       <c r="D6" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="47" t="s">
         <v>454</v>
       </c>
-      <c r="E6" s="68" t="s">
-        <v>279</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>322</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="46" t="s">
         <v>322</v>
       </c>
     </row>
@@ -2550,21 +2525,21 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="52"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="52"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -2572,11 +2547,11 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="52"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="46"/>
     </row>
     <row r="10" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -2586,61 +2561,61 @@
         <v>9</v>
       </c>
       <c r="D10" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10" s="38" t="s">
         <v>475</v>
       </c>
-      <c r="E10" s="69" t="s">
-        <v>318</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>319</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>478</v>
-      </c>
-      <c r="H10" s="45" t="s">
-        <v>475</v>
-      </c>
-      <c r="I10" s="52"/>
+      <c r="H10" s="48" t="s">
+        <v>472</v>
+      </c>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="52"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="52"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
     </row>
     <row r="13" spans="2:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="E13" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="E13" s="64" t="s">
         <v>317</v>
       </c>
-      <c r="F13" s="45" t="s">
-        <v>478</v>
-      </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="45" t="s">
-        <v>474</v>
-      </c>
-      <c r="I13" s="52"/>
+      <c r="F13" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="48" t="s">
+        <v>471</v>
+      </c>
+      <c r="I13" s="46"/>
     </row>
     <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -2650,19 +2625,19 @@
         <v>28</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="E14" s="68" t="s">
+        <v>473</v>
+      </c>
+      <c r="E14" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="45" t="s">
-        <v>477</v>
-      </c>
-      <c r="I14" s="52" t="s">
+      <c r="G14" s="37"/>
+      <c r="H14" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="I14" s="46" t="s">
         <v>287</v>
       </c>
     </row>
@@ -2670,11 +2645,11 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="52"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
@@ -2682,11 +2657,11 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="52"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
@@ -2696,23 +2671,23 @@
         <v>13</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="I17" s="52"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="52"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
@@ -2720,11 +2695,11 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="52"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
@@ -2734,13 +2709,13 @@
         <v>20</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="56" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="52"/>
+      <c r="I20" s="46"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -2750,13 +2725,13 @@
         <v>21</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="56" t="s">
+      <c r="E21" s="32"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="52"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
@@ -2766,39 +2741,39 @@
         <v>262</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="56" t="s">
+      <c r="E22" s="32"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="I22" s="52"/>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>261</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="56" t="s">
+      <c r="E23" s="32"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="I23" s="52"/>
+      <c r="I23" s="46"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="52"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
@@ -2806,27 +2781,27 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="52"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="56" t="s">
-        <v>367</v>
-      </c>
-      <c r="I26" s="52"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="I26" s="46"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
@@ -2836,13 +2811,13 @@
         <v>236</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="56" t="s">
+      <c r="E27" s="32"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="I27" s="52"/>
+      <c r="I27" s="46"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
@@ -2852,17 +2827,17 @@
         <v>29</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="68" t="s">
+      <c r="E28" s="64" t="s">
         <v>325</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="56" t="s">
+      <c r="G28" s="37"/>
+      <c r="H28" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="52"/>
+      <c r="I28" s="46"/>
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
@@ -2872,18 +2847,18 @@
         <v>235</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="65" t="s">
         <v>326</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="56" t="s">
+      <c r="G29" s="37"/>
+      <c r="H29" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="52" t="s">
-        <v>401</v>
+      <c r="I29" s="46" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -2891,26 +2866,26 @@
         <v>27</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="56" t="s">
-        <v>363</v>
-      </c>
-      <c r="I30" s="52"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="I30" s="46"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="52"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
@@ -2918,11 +2893,11 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="52"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
@@ -2932,17 +2907,17 @@
         <v>31</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="68" t="s">
+      <c r="E33" s="64" t="s">
         <v>310</v>
       </c>
-      <c r="F33" s="62" t="s">
+      <c r="F33" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="G33" s="34"/>
-      <c r="H33" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="I33" s="52" t="s">
+      <c r="G33" s="37"/>
+      <c r="H33" s="49" t="s">
+        <v>401</v>
+      </c>
+      <c r="I33" s="46" t="s">
         <v>293</v>
       </c>
     </row>
@@ -2950,31 +2925,31 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="52"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="46"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="52"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="52"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="46"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
@@ -2982,11 +2957,11 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="52"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
@@ -2996,13 +2971,13 @@
         <v>37</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="56" t="s">
+      <c r="E38" s="32"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="52"/>
+      <c r="I38" s="46"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -3012,13 +2987,13 @@
         <v>38</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="56" t="s">
+      <c r="E39" s="32"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="52"/>
+      <c r="I39" s="46"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
@@ -3028,15 +3003,15 @@
         <v>327</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="56" t="s">
-        <v>368</v>
-      </c>
-      <c r="I40" s="52"/>
+        <v>367</v>
+      </c>
+      <c r="E40" s="32"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="I40" s="46"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -3046,59 +3021,59 @@
         <v>41</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="56" t="s">
+      <c r="E41" s="32"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="I41" s="52"/>
+      <c r="I41" s="46"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>328</v>
+        <v>494</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="56" t="s">
-        <v>369</v>
-      </c>
-      <c r="I42" s="52"/>
+        <v>368</v>
+      </c>
+      <c r="E42" s="32"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="I42" s="46"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="52"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="46"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="D44" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="56" t="s">
-        <v>330</v>
-      </c>
-      <c r="I44" s="52"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="I44" s="46"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
@@ -3108,21 +3083,21 @@
         <v>238</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="E45" s="68" t="s">
+        <v>330</v>
+      </c>
+      <c r="E45" s="64" t="s">
         <v>39</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="G45" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="I45" s="52" t="s">
+      <c r="H45" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="I45" s="46" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3130,11 +3105,11 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="52"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="46"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
@@ -3142,11 +3117,11 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="52"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="46"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
@@ -3156,13 +3131,13 @@
         <v>37</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="56" t="s">
+      <c r="E48" s="32"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="I48" s="52"/>
+      <c r="I48" s="46"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
@@ -3174,13 +3149,13 @@
       <c r="D49" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="E49" s="33"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="56" t="s">
+      <c r="E49" s="32"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="I49" s="52"/>
+      <c r="I49" s="46"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
@@ -3190,15 +3165,15 @@
         <v>45</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="E50" s="33"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="56" t="s">
-        <v>371</v>
-      </c>
-      <c r="I50" s="52"/>
+        <v>370</v>
+      </c>
+      <c r="E50" s="32"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="I50" s="46"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
@@ -3208,57 +3183,57 @@
         <v>246</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="E51" s="33"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="56" t="s">
-        <v>372</v>
-      </c>
-      <c r="I51" s="52"/>
+        <v>371</v>
+      </c>
+      <c r="E51" s="32"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="49" t="s">
+        <v>371</v>
+      </c>
+      <c r="I51" s="46"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="E52" s="33"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="56" t="s">
-        <v>371</v>
-      </c>
-      <c r="I52" s="52"/>
+        <v>370</v>
+      </c>
+      <c r="E52" s="32"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="I52" s="46"/>
     </row>
     <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="E53" s="68" t="s">
+        <v>372</v>
+      </c>
+      <c r="E53" s="64" t="s">
         <v>292</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="G53" s="38" t="s">
+      <c r="G53" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H53" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="I53" s="52" t="s">
+      <c r="H53" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="I53" s="46" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3267,26 +3242,26 @@
         <v>46</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="56" t="s">
-        <v>374</v>
-      </c>
-      <c r="I54" s="52"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="I54" s="46"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="52"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="46"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
@@ -3294,11 +3269,11 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="52"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="46"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
@@ -3310,31 +3285,31 @@
       <c r="D57" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="E57" s="33"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="56" t="s">
+      <c r="E57" s="32"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="I57" s="52"/>
+      <c r="I57" s="46"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="E58" s="33"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="I58" s="52"/>
+        <v>369</v>
+      </c>
+      <c r="E58" s="32"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="I58" s="46"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
@@ -3344,13 +3319,13 @@
         <v>233</v>
       </c>
       <c r="D59" s="1"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="56" t="s">
+      <c r="E59" s="32"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="I59" s="52"/>
+      <c r="I59" s="46"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
@@ -3360,15 +3335,15 @@
         <v>56</v>
       </c>
       <c r="D60" s="1"/>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="F60" s="44"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="56" t="s">
-        <v>405</v>
-      </c>
-      <c r="I60" s="52" t="s">
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="I60" s="46" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3380,15 +3355,15 @@
         <v>57</v>
       </c>
       <c r="D61" s="1"/>
-      <c r="E61" s="35" t="s">
+      <c r="E61" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="44"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="56" t="s">
-        <v>406</v>
-      </c>
-      <c r="I61" s="52" t="s">
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="I61" s="46" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3400,13 +3375,13 @@
         <v>58</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="56" t="s">
+      <c r="E62" s="32"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I62" s="52"/>
+      <c r="I62" s="46"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
@@ -3416,23 +3391,23 @@
         <v>41</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="56" t="s">
+      <c r="E63" s="32"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="52"/>
+      <c r="I63" s="46"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="52"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="46"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
@@ -3440,11 +3415,11 @@
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="52"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="46"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
@@ -3456,13 +3431,13 @@
       <c r="D66" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E66" s="33"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="56" t="s">
+      <c r="E66" s="32"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="I66" s="52"/>
+      <c r="I66" s="46"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
@@ -3474,76 +3449,76 @@
       <c r="D67" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="E67" s="68" t="s">
+      <c r="E67" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="F67" s="44" t="s">
+      <c r="F67" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="G67" s="34"/>
-      <c r="H67" s="56" t="s">
+      <c r="G67" s="37"/>
+      <c r="H67" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="I67" s="52"/>
+      <c r="I67" s="46"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="52"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="46"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="52"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="46"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="52"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="46"/>
     </row>
     <row r="71" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="E71" s="68" t="s">
-        <v>337</v>
-      </c>
-      <c r="F71" s="63" t="s">
+      <c r="E71" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="F71" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="G71" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="G71" s="39" t="s">
-        <v>377</v>
-      </c>
-      <c r="H71" s="49" t="s">
-        <v>407</v>
-      </c>
-      <c r="I71" s="53" t="s">
-        <v>377</v>
+      <c r="H71" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I71" s="50" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -3554,19 +3529,19 @@
         <v>29</v>
       </c>
       <c r="D72" s="1"/>
-      <c r="E72" s="70" t="s">
-        <v>338</v>
-      </c>
-      <c r="F72" s="64" t="s">
+      <c r="E72" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="F72" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="G72" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="G72" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="H72" s="56" t="s">
+      <c r="H72" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I72" s="52"/>
+      <c r="I72" s="46"/>
     </row>
     <row r="73" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
@@ -3576,18 +3551,18 @@
         <v>241</v>
       </c>
       <c r="D73" s="1"/>
-      <c r="E73" s="68" t="s">
+      <c r="E73" s="64" t="s">
         <v>311</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="G73" s="34"/>
-      <c r="H73" s="49" t="s">
-        <v>408</v>
-      </c>
-      <c r="I73" s="53" t="s">
-        <v>379</v>
+        <v>378</v>
+      </c>
+      <c r="G73" s="37"/>
+      <c r="H73" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="I73" s="50" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -3598,13 +3573,13 @@
         <v>38</v>
       </c>
       <c r="D74" s="1"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="56" t="s">
+      <c r="E74" s="32"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I74" s="52"/>
+      <c r="I74" s="46"/>
     </row>
     <row r="75" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
@@ -3614,15 +3589,15 @@
         <v>70</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="E75" s="33"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="45" t="s">
-        <v>355</v>
-      </c>
-      <c r="I75" s="52"/>
+        <v>354</v>
+      </c>
+      <c r="E75" s="32"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="I75" s="46"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
@@ -3632,13 +3607,13 @@
         <v>41</v>
       </c>
       <c r="D76" s="1"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="44" t="s">
+      <c r="E76" s="32"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="I76" s="52"/>
+      <c r="I76" s="46"/>
     </row>
     <row r="77" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
@@ -3648,55 +3623,55 @@
         <v>71</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="E77" s="68" t="s">
+        <v>355</v>
+      </c>
+      <c r="E77" s="64" t="s">
         <v>301</v>
       </c>
-      <c r="F77" s="44" t="s">
+      <c r="F77" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G77" s="34"/>
-      <c r="H77" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="I77" s="52"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="I77" s="46"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>265</v>
       </c>
       <c r="D78" s="1"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="52"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="46"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="52"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="46"/>
     </row>
     <row r="80" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="52"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="46"/>
     </row>
     <row r="81" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
@@ -3708,20 +3683,20 @@
       <c r="D81" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="E81" s="68" t="s">
-        <v>341</v>
+      <c r="E81" s="64" t="s">
+        <v>340</v>
       </c>
       <c r="F81" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="G81" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="H81" s="57" t="s">
-        <v>409</v>
-      </c>
-      <c r="I81" s="53" t="s">
-        <v>380</v>
+      <c r="G81" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="H81" s="51" t="s">
+        <v>408</v>
+      </c>
+      <c r="I81" s="50" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -3729,52 +3704,52 @@
         <v>73</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D82" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="E82" s="68" t="s">
+      <c r="E82" s="64" t="s">
         <v>315</v>
       </c>
       <c r="F82" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="G82" s="34"/>
-      <c r="H82" s="58" t="s">
+      <c r="G82" s="37"/>
+      <c r="H82" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="I82" s="52"/>
+      <c r="I82" s="46"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>274</v>
       </c>
       <c r="D83" s="1"/>
-      <c r="E83" s="68" t="s">
+      <c r="E83" s="64" t="s">
         <v>314</v>
       </c>
-      <c r="F83" s="65" t="s">
+      <c r="F83" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="G83" s="34"/>
-      <c r="H83" s="56" t="s">
+      <c r="G83" s="37"/>
+      <c r="H83" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="I83" s="52"/>
+      <c r="I83" s="46"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="52"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="46"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
@@ -3782,11 +3757,11 @@
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="52"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="46"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
@@ -3794,27 +3769,29 @@
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="52"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="46"/>
     </row>
     <row r="87" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="F87" s="45"/>
-      <c r="H87" s="56" t="s">
-        <v>482</v>
-      </c>
-      <c r="I87" s="52"/>
+        <v>479</v>
+      </c>
+      <c r="E87" s="32"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="I87" s="46"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
@@ -3826,58 +3803,59 @@
       <c r="D88" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="E88" s="33"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="56" t="s">
+      <c r="E88" s="32"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="I88" s="52"/>
+      <c r="I88" s="46"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="12"/>
       <c r="D89" s="20"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="52"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="46"/>
     </row>
     <row r="90" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="E90" s="37"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="49" t="s">
-        <v>470</v>
-      </c>
-      <c r="I90" s="52"/>
+        <v>467</v>
+      </c>
+      <c r="E90" s="34"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="47" t="s">
+        <v>467</v>
+      </c>
+      <c r="I90" s="46"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="F91" s="45"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="56" t="s">
-        <v>344</v>
-      </c>
-      <c r="I91" s="52"/>
+        <v>343</v>
+      </c>
+      <c r="E91" s="32"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="I91" s="46"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
@@ -3887,11 +3865,11 @@
         <v>90</v>
       </c>
       <c r="D92" s="1"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="52"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="46"/>
     </row>
     <row r="93" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
@@ -3901,18 +3879,19 @@
         <v>91</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="E93" s="69" t="s">
-        <v>442</v>
-      </c>
-      <c r="F93" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="E93" s="65" t="s">
+        <v>441</v>
+      </c>
+      <c r="F93" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="H93" s="45" t="s">
-        <v>381</v>
-      </c>
-      <c r="I93" s="52"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="I93" s="46"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
@@ -3922,17 +3901,17 @@
         <v>92</v>
       </c>
       <c r="D94" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="E94" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="49" t="s">
         <v>357</v>
       </c>
-      <c r="E94" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="F94" s="44"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="56" t="s">
-        <v>358</v>
-      </c>
-      <c r="I94" s="52"/>
+      <c r="I94" s="46"/>
     </row>
     <row r="95" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
@@ -3944,41 +3923,41 @@
       <c r="D95" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="E95" s="33" t="s">
+      <c r="E95" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="F95" s="44" t="s">
+      <c r="F95" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="G95" s="34"/>
-      <c r="H95" s="48" t="s">
+      <c r="G95" s="37"/>
+      <c r="H95" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="I95" s="52"/>
+      <c r="I95" s="46"/>
     </row>
     <row r="96" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C96" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="D96" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="D96" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="E96" s="68" t="s">
+      <c r="E96" s="64" t="s">
         <v>296</v>
       </c>
       <c r="F96" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="G96" s="38" t="s">
+      <c r="G96" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="H96" s="49" t="s">
-        <v>447</v>
-      </c>
-      <c r="I96" s="52" t="s">
+      <c r="H96" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="I96" s="46" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3987,24 +3966,24 @@
         <v>85</v>
       </c>
       <c r="C97" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="D97" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="D97" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="E97" s="68" t="s">
+      <c r="E97" s="64" t="s">
         <v>295</v>
       </c>
       <c r="F97" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="G97" s="38" t="s">
+      <c r="G97" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="H97" s="49" t="s">
-        <v>445</v>
-      </c>
-      <c r="I97" s="52" t="s">
+      <c r="H97" s="47" t="s">
+        <v>444</v>
+      </c>
+      <c r="I97" s="46" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4013,50 +3992,50 @@
         <v>86</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="E98" s="68" t="s">
+        <v>381</v>
+      </c>
+      <c r="E98" s="64" t="s">
         <v>295</v>
       </c>
       <c r="F98" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="G98" s="38" t="s">
+      <c r="G98" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="H98" s="49" t="s">
-        <v>411</v>
-      </c>
-      <c r="I98" s="52" t="s">
+      <c r="H98" s="47" t="s">
+        <v>410</v>
+      </c>
+      <c r="I98" s="46" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="99" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="E99" s="69" t="s">
+        <v>480</v>
+      </c>
+      <c r="E99" s="65" t="s">
         <v>298</v>
       </c>
       <c r="F99" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="G99" s="38" t="s">
+      <c r="G99" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="H99" s="56" t="s">
-        <v>410</v>
-      </c>
-      <c r="I99" s="52" t="s">
+      <c r="H99" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="I99" s="46" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4068,13 +4047,13 @@
         <v>94</v>
       </c>
       <c r="D100" s="1"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="44"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="56" t="s">
+      <c r="E100" s="32"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="I100" s="52"/>
+      <c r="I100" s="46"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
@@ -4084,23 +4063,23 @@
         <v>95</v>
       </c>
       <c r="D101" s="1"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="44"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="58" t="s">
+      <c r="E101" s="32"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="I101" s="52"/>
+      <c r="I101" s="46"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="44"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="44"/>
-      <c r="I102" s="52"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="46"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
@@ -4108,11 +4087,11 @@
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="44"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="52"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="46"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
@@ -4120,33 +4099,33 @@
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="34"/>
-      <c r="H104" s="44"/>
-      <c r="I104" s="52"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="45"/>
+      <c r="I104" s="46"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D105" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="E105" s="33"/>
-      <c r="F105" s="44"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="56" t="s">
+      <c r="E105" s="32"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="I105" s="52"/>
+      <c r="I105" s="46"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>100</v>
@@ -4154,29 +4133,29 @@
       <c r="D106" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="E106" s="33"/>
-      <c r="F106" s="44"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="56" t="s">
+      <c r="E106" s="32"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="I106" s="52"/>
+      <c r="I106" s="46"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C107" s="20" t="s">
         <v>101</v>
       </c>
       <c r="D107" s="1"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="44"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="56" t="s">
+      <c r="E107" s="32"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="I107" s="52"/>
+      <c r="I107" s="46"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
@@ -4188,23 +4167,23 @@
       <c r="D108" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="E108" s="33"/>
-      <c r="F108" s="44"/>
-      <c r="G108" s="34"/>
-      <c r="H108" s="58" t="s">
+      <c r="E108" s="32"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="I108" s="52"/>
+      <c r="I108" s="46"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="44"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="44"/>
-      <c r="I109" s="52"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="45"/>
+      <c r="I109" s="46"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
@@ -4212,11 +4191,11 @@
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="44"/>
-      <c r="G110" s="34"/>
-      <c r="H110" s="44"/>
-      <c r="I110" s="52"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="45"/>
+      <c r="I110" s="46"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
@@ -4226,64 +4205,64 @@
         <v>106</v>
       </c>
       <c r="D111" s="1"/>
-      <c r="E111" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="F111" s="45" t="s">
-        <v>488</v>
-      </c>
-      <c r="G111" s="34"/>
-      <c r="H111" s="56" t="s">
+      <c r="E111" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="F111" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="G111" s="37"/>
+      <c r="H111" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="I111" s="52"/>
+      <c r="I111" s="46"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C112" s="74" t="s">
-        <v>464</v>
-      </c>
-      <c r="E112" s="33" t="s">
+      <c r="C112" s="70" t="s">
+        <v>461</v>
+      </c>
+      <c r="E112" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="F112" s="45"/>
-      <c r="G112" s="34"/>
-      <c r="H112" s="56" t="s">
-        <v>464</v>
-      </c>
-      <c r="I112" s="52"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="49" t="s">
+        <v>461</v>
+      </c>
+      <c r="I112" s="46"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>466</v>
-      </c>
-      <c r="E113" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="E113" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="F113" s="45"/>
-      <c r="G113" s="34"/>
-      <c r="H113" s="56" t="s">
-        <v>466</v>
-      </c>
-      <c r="I113" s="52"/>
+      <c r="F113" s="38"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="49" t="s">
+        <v>463</v>
+      </c>
+      <c r="I113" s="46"/>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="44"/>
-      <c r="G114" s="34"/>
-      <c r="H114" s="44"/>
-      <c r="I114" s="52"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="45"/>
+      <c r="I114" s="46"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
@@ -4291,233 +4270,233 @@
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="44"/>
-      <c r="G115" s="34"/>
-      <c r="H115" s="44"/>
-      <c r="I115" s="52"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="45"/>
+      <c r="I115" s="46"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="75" t="s">
+      <c r="B116" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C116" s="76" t="s">
+      <c r="C116" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="D116" s="75" t="s">
+      <c r="D116" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E116" s="77"/>
-      <c r="F116" s="78"/>
-      <c r="G116" s="79"/>
-      <c r="H116" s="80" t="s">
+      <c r="E116" s="73"/>
+      <c r="F116" s="74"/>
+      <c r="G116" s="80"/>
+      <c r="H116" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="I116" s="81"/>
+      <c r="I116" s="75"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="75" t="s">
+      <c r="B117" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="C117" s="76" t="s">
+      <c r="C117" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="D117" s="75" t="s">
+      <c r="D117" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E117" s="77"/>
-      <c r="F117" s="78"/>
-      <c r="G117" s="82"/>
-      <c r="H117" s="80" t="s">
+      <c r="E117" s="73"/>
+      <c r="F117" s="74"/>
+      <c r="G117" s="74"/>
+      <c r="H117" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="I117" s="81"/>
+      <c r="I117" s="75"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="75" t="s">
+      <c r="B118" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="C118" s="75" t="s">
+      <c r="C118" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="D118" s="75"/>
-      <c r="E118" s="83"/>
-      <c r="F118" s="78"/>
-      <c r="G118" s="79"/>
-      <c r="H118" s="80" t="s">
+      <c r="D118" s="71"/>
+      <c r="E118" s="76"/>
+      <c r="F118" s="74"/>
+      <c r="G118" s="80"/>
+      <c r="H118" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="I118" s="81"/>
+      <c r="I118" s="75"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="75" t="s">
+      <c r="B119" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="C119" s="84" t="s">
+      <c r="C119" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="D119" s="75"/>
-      <c r="E119" s="77"/>
-      <c r="F119" s="78"/>
-      <c r="G119" s="79"/>
-      <c r="H119" s="85" t="s">
+      <c r="D119" s="71"/>
+      <c r="E119" s="73"/>
+      <c r="F119" s="74"/>
+      <c r="G119" s="80"/>
+      <c r="H119" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="I119" s="81"/>
+      <c r="I119" s="75"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="75" t="s">
+      <c r="B120" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="C120" s="76" t="s">
+      <c r="C120" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="86" t="s">
+      <c r="D120" s="78" t="s">
         <v>259</v>
       </c>
-      <c r="E120" s="77"/>
-      <c r="F120" s="78"/>
-      <c r="G120" s="79"/>
-      <c r="H120" s="87" t="s">
+      <c r="E120" s="73"/>
+      <c r="F120" s="74"/>
+      <c r="G120" s="80"/>
+      <c r="H120" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="I120" s="81"/>
+      <c r="I120" s="75"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="75" t="s">
+      <c r="B121" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="C121" s="88" t="s">
+      <c r="C121" s="79" t="s">
         <v>258</v>
       </c>
-      <c r="D121" s="88"/>
-      <c r="E121" s="77"/>
-      <c r="F121" s="89"/>
-      <c r="G121" s="79"/>
-      <c r="H121" s="89" t="s">
+      <c r="D121" s="79"/>
+      <c r="E121" s="73"/>
+      <c r="F121" s="80"/>
+      <c r="G121" s="80"/>
+      <c r="H121" s="93" t="s">
         <v>258</v>
       </c>
-      <c r="I121" s="81"/>
+      <c r="I121" s="75"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B122" s="88" t="s">
+      <c r="B122" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="C122" s="90" t="s">
+      <c r="C122" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="D122" s="91" t="s">
+      <c r="D122" s="82" t="s">
         <v>259</v>
       </c>
-      <c r="E122" s="77"/>
-      <c r="F122" s="89"/>
-      <c r="G122" s="79"/>
-      <c r="H122" s="78" t="s">
+      <c r="E122" s="73"/>
+      <c r="F122" s="80"/>
+      <c r="G122" s="80"/>
+      <c r="H122" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="I122" s="81"/>
+      <c r="I122" s="75"/>
     </row>
     <row r="123" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B123" s="88" t="s">
+      <c r="B123" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="C123" s="92" t="s">
-        <v>441</v>
-      </c>
-      <c r="D123" s="88" t="s">
+      <c r="C123" s="83" t="s">
         <v>440</v>
       </c>
-      <c r="E123" s="77"/>
-      <c r="F123" s="93"/>
-      <c r="G123" s="94"/>
-      <c r="H123" s="78" t="s">
+      <c r="D123" s="79" t="s">
         <v>439</v>
       </c>
-      <c r="I123" s="95"/>
+      <c r="E123" s="73"/>
+      <c r="F123" s="87"/>
+      <c r="G123" s="87"/>
+      <c r="H123" s="94" t="s">
+        <v>438</v>
+      </c>
+      <c r="I123" s="85"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="88" t="s">
+      <c r="B124" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="C124" s="88" t="s">
+      <c r="C124" s="79" t="s">
         <v>265</v>
       </c>
-      <c r="D124" s="88"/>
-      <c r="E124" s="77"/>
-      <c r="F124" s="88"/>
-      <c r="G124" s="96"/>
-      <c r="H124" s="89"/>
-      <c r="I124" s="81"/>
+      <c r="D124" s="79"/>
+      <c r="E124" s="73"/>
+      <c r="F124" s="80"/>
+      <c r="G124" s="88"/>
+      <c r="H124" s="93"/>
+      <c r="I124" s="75"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B125" s="88" t="s">
+      <c r="B125" s="79" t="s">
+        <v>430</v>
+      </c>
+      <c r="C125" s="81" t="s">
         <v>431</v>
       </c>
-      <c r="C125" s="90" t="s">
+      <c r="D125" s="79" t="s">
         <v>432</v>
       </c>
-      <c r="D125" s="88" t="s">
+      <c r="E125" s="73"/>
+      <c r="F125" s="80"/>
+      <c r="G125" s="88"/>
+      <c r="H125" s="93" t="s">
+        <v>432</v>
+      </c>
+      <c r="I125" s="75"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="C126" s="81" t="s">
+        <v>436</v>
+      </c>
+      <c r="D126" s="79" t="s">
+        <v>437</v>
+      </c>
+      <c r="E126" s="73"/>
+      <c r="F126" s="87"/>
+      <c r="G126" s="80"/>
+      <c r="H126" s="93" t="s">
+        <v>437</v>
+      </c>
+      <c r="I126" s="75"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="C127" s="86" t="s">
+        <v>434</v>
+      </c>
+      <c r="D127" s="87" t="s">
+        <v>435</v>
+      </c>
+      <c r="E127" s="73"/>
+      <c r="F127" s="88"/>
+      <c r="G127" s="80"/>
+      <c r="H127" s="95" t="s">
+        <v>435</v>
+      </c>
+      <c r="I127" s="75"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="79" t="s">
         <v>433</v>
       </c>
-      <c r="E125" s="77"/>
-      <c r="F125" s="88"/>
-      <c r="G125" s="96"/>
-      <c r="H125" s="89" t="s">
-        <v>433</v>
-      </c>
-      <c r="I125" s="81"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B126" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="C126" s="90" t="s">
-        <v>437</v>
-      </c>
-      <c r="D126" s="88" t="s">
-        <v>438</v>
-      </c>
-      <c r="E126" s="77"/>
-      <c r="F126" s="93"/>
-      <c r="G126" s="79"/>
-      <c r="H126" s="89" t="s">
-        <v>438</v>
-      </c>
-      <c r="I126" s="81"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="C127" s="97" t="s">
-        <v>435</v>
-      </c>
-      <c r="D127" s="98" t="s">
-        <v>436</v>
-      </c>
-      <c r="E127" s="77"/>
-      <c r="F127" s="99"/>
-      <c r="G127" s="79"/>
-      <c r="H127" s="98" t="s">
-        <v>436</v>
-      </c>
-      <c r="I127" s="81"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="88" t="s">
-        <v>434</v>
-      </c>
-      <c r="C128" s="93" t="s">
+      <c r="C128" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="D128" s="88"/>
-      <c r="E128" s="77"/>
-      <c r="F128" s="99"/>
-      <c r="G128" s="79"/>
-      <c r="H128" s="98" t="s">
+      <c r="D128" s="79"/>
+      <c r="E128" s="73"/>
+      <c r="F128" s="88"/>
+      <c r="G128" s="80"/>
+      <c r="H128" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="I128" s="81"/>
+      <c r="I128" s="75"/>
     </row>
     <row r="129" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
@@ -4527,46 +4506,46 @@
         <v>127</v>
       </c>
       <c r="D129" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="E129" s="33" t="s">
-        <v>486</v>
-      </c>
-      <c r="F129" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="E129" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="F129" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="G129" s="36"/>
-      <c r="H129" s="45" t="s">
-        <v>359</v>
-      </c>
-      <c r="I129" s="52"/>
+      <c r="G129" s="38"/>
+      <c r="H129" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="I129" s="46"/>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E130" s="33"/>
-      <c r="F130" s="44"/>
-      <c r="G130" s="34"/>
-      <c r="H130" s="44"/>
-      <c r="I130" s="52"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="37"/>
+      <c r="H130" s="45"/>
+      <c r="I130" s="46"/>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>134</v>
       </c>
-      <c r="C131" s="100" t="s">
-        <v>484</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="C131" s="89" t="s">
+        <v>481</v>
+      </c>
+      <c r="E131" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="F131" s="40" t="s">
         <v>485</v>
       </c>
-      <c r="F131" s="47" t="s">
-        <v>488</v>
-      </c>
-      <c r="G131" s="34"/>
-      <c r="H131" s="44" t="s">
+      <c r="G131" s="37"/>
+      <c r="H131" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="I131" s="52" t="s">
-        <v>488</v>
+      <c r="I131" s="46" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="132" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -4577,17 +4556,17 @@
         <v>138</v>
       </c>
       <c r="D132" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="E132" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="E132" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="F132" s="44"/>
-      <c r="G132" s="34"/>
-      <c r="H132" s="45" t="s">
-        <v>359</v>
-      </c>
-      <c r="I132" s="52"/>
+      <c r="F132" s="37"/>
+      <c r="G132" s="37"/>
+      <c r="H132" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="I132" s="46"/>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
@@ -4599,33 +4578,33 @@
       <c r="D133" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="E133" s="33"/>
-      <c r="F133" s="44"/>
-      <c r="G133" s="34"/>
-      <c r="H133" s="44" t="s">
+      <c r="E133" s="32"/>
+      <c r="F133" s="37"/>
+      <c r="G133" s="37"/>
+      <c r="H133" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="I133" s="52"/>
+      <c r="I133" s="46"/>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>132</v>
       </c>
-      <c r="C134" s="100" t="s">
-        <v>484</v>
-      </c>
-      <c r="E134" s="33" t="s">
+      <c r="C134" s="89" t="s">
+        <v>481</v>
+      </c>
+      <c r="E134" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="F134" s="47" t="s">
-        <v>488</v>
-      </c>
-      <c r="G134" s="34"/>
-      <c r="H134" s="44" t="s">
+      <c r="F134" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="G134" s="37"/>
+      <c r="H134" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="I134" s="52" t="s">
-        <v>488</v>
+      <c r="I134" s="46" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -4636,52 +4615,52 @@
         <v>138</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="E135" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="E135" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="F135" s="44"/>
-      <c r="G135" s="34"/>
-      <c r="H135" s="45" t="s">
-        <v>359</v>
-      </c>
-      <c r="I135" s="52"/>
+      <c r="F135" s="37"/>
+      <c r="G135" s="37"/>
+      <c r="H135" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="I135" s="46"/>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="100" t="s">
-        <v>484</v>
-      </c>
-      <c r="E136" s="33" t="s">
+      <c r="C136" s="89" t="s">
+        <v>481</v>
+      </c>
+      <c r="E136" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="F136" s="47" t="s">
-        <v>488</v>
-      </c>
-      <c r="G136" s="34"/>
-      <c r="H136" s="44" t="s">
+      <c r="F136" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="G136" s="37"/>
+      <c r="H136" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="I136" s="52" t="s">
-        <v>488</v>
+      <c r="I136" s="46" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E137" s="33"/>
-      <c r="F137" s="44"/>
-      <c r="G137" s="34"/>
-      <c r="H137" s="44"/>
-      <c r="I137" s="52"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="37"/>
+      <c r="G137" s="37"/>
+      <c r="H137" s="45"/>
+      <c r="I137" s="46"/>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E138" s="33"/>
-      <c r="F138" s="44"/>
-      <c r="G138" s="34"/>
-      <c r="H138" s="44"/>
-      <c r="I138" s="52"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="37"/>
+      <c r="G138" s="37"/>
+      <c r="H138" s="45"/>
+      <c r="I138" s="46"/>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
@@ -4690,13 +4669,13 @@
       <c r="C139" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E139" s="33"/>
-      <c r="F139" s="44"/>
-      <c r="G139" s="34"/>
-      <c r="H139" s="44" t="s">
+      <c r="E139" s="32"/>
+      <c r="F139" s="37"/>
+      <c r="G139" s="37"/>
+      <c r="H139" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="I139" s="52"/>
+      <c r="I139" s="46"/>
     </row>
     <row r="140" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
@@ -4706,15 +4685,15 @@
         <v>130</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="E140" s="33"/>
-      <c r="F140" s="44"/>
-      <c r="G140" s="34"/>
-      <c r="H140" s="49" t="s">
-        <v>360</v>
-      </c>
-      <c r="I140" s="52"/>
+        <v>359</v>
+      </c>
+      <c r="E140" s="32"/>
+      <c r="F140" s="37"/>
+      <c r="G140" s="37"/>
+      <c r="H140" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="I140" s="46"/>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
@@ -4723,31 +4702,31 @@
       <c r="C141" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E141" s="33"/>
-      <c r="F141" s="44"/>
-      <c r="G141" s="40"/>
-      <c r="H141" s="44" t="s">
+      <c r="E141" s="32"/>
+      <c r="F141" s="37"/>
+      <c r="G141" s="41"/>
+      <c r="H141" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="I141" s="52"/>
+      <c r="I141" s="46"/>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="4"/>
-      <c r="E142" s="33"/>
-      <c r="F142" s="44"/>
-      <c r="G142" s="34"/>
-      <c r="H142" s="44"/>
-      <c r="I142" s="52"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="37"/>
+      <c r="G142" s="37"/>
+      <c r="H142" s="45"/>
+      <c r="I142" s="46"/>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E143" s="33"/>
-      <c r="F143" s="44"/>
-      <c r="G143" s="34"/>
-      <c r="H143" s="44"/>
-      <c r="I143" s="52"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="37"/>
+      <c r="G143" s="37"/>
+      <c r="H143" s="45"/>
+      <c r="I143" s="46"/>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
@@ -4757,47 +4736,51 @@
         <v>23</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="F144" s="45"/>
-      <c r="H144" s="44" t="s">
-        <v>448</v>
-      </c>
-      <c r="I144" s="52"/>
+        <v>366</v>
+      </c>
+      <c r="E144" s="32"/>
+      <c r="F144" s="38"/>
+      <c r="G144" s="37"/>
+      <c r="H144" s="45" t="s">
+        <v>447</v>
+      </c>
+      <c r="I144" s="46"/>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>141</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="E145" s="33"/>
-      <c r="F145" s="45"/>
-      <c r="H145" s="56" t="s">
-        <v>453</v>
-      </c>
-      <c r="I145" s="52"/>
+        <v>458</v>
+      </c>
+      <c r="E145" s="32"/>
+      <c r="F145" s="38"/>
+      <c r="G145" s="37"/>
+      <c r="H145" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="I145" s="46"/>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
+        <v>449</v>
+      </c>
+      <c r="C146" s="14" t="s">
         <v>450</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>451</v>
       </c>
       <c r="D146" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="E146" s="33"/>
-      <c r="F146" s="45"/>
-      <c r="H146" s="56" t="s">
-        <v>452</v>
-      </c>
-      <c r="I146" s="52"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="38"/>
+      <c r="G146" s="37"/>
+      <c r="H146" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="I146" s="46"/>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
@@ -4807,13 +4790,13 @@
         <v>256</v>
       </c>
       <c r="D147" s="3"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="44"/>
-      <c r="G147" s="34"/>
-      <c r="H147" s="59" t="s">
+      <c r="E147" s="32"/>
+      <c r="F147" s="37"/>
+      <c r="G147" s="37"/>
+      <c r="H147" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="I147" s="52"/>
+      <c r="I147" s="46"/>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
@@ -4822,30 +4805,30 @@
       <c r="C148" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E148" s="33"/>
-      <c r="F148" s="44"/>
-      <c r="G148" s="34"/>
-      <c r="H148" s="44" t="s">
+      <c r="E148" s="32"/>
+      <c r="F148" s="37"/>
+      <c r="G148" s="37"/>
+      <c r="H148" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="I148" s="52"/>
+      <c r="I148" s="46"/>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E149" s="33"/>
-      <c r="F149" s="44"/>
-      <c r="G149" s="34"/>
-      <c r="H149" s="44"/>
-      <c r="I149" s="52"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="37"/>
+      <c r="G149" s="37"/>
+      <c r="H149" s="45"/>
+      <c r="I149" s="46"/>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E150" s="33"/>
-      <c r="F150" s="44"/>
-      <c r="G150" s="34"/>
-      <c r="H150" s="44"/>
-      <c r="I150" s="52"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="37"/>
+      <c r="G150" s="37"/>
+      <c r="H150" s="45"/>
+      <c r="I150" s="46"/>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
@@ -4857,74 +4840,83 @@
       <c r="D151" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="G151" s="34"/>
-      <c r="H151" s="60" t="s">
+      <c r="E151" s="32"/>
+      <c r="F151" s="37"/>
+      <c r="G151" s="37"/>
+      <c r="H151" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="I151" s="52"/>
+      <c r="I151" s="46"/>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>147</v>
       </c>
       <c r="C152" s="27" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D152" s="23" t="s">
-        <v>491</v>
-      </c>
-      <c r="G152" s="34"/>
-      <c r="H152" s="44" t="s">
+        <v>488</v>
+      </c>
+      <c r="E152" s="32"/>
+      <c r="F152" s="37"/>
+      <c r="G152" s="37"/>
+      <c r="H152" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="I152" s="52"/>
+      <c r="I152" s="46"/>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C153" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D153" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="G153" s="34"/>
-      <c r="H153" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="E153" s="32"/>
+      <c r="F153" s="37"/>
+      <c r="G153" s="37"/>
+      <c r="H153" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="I153" s="52"/>
+      <c r="I153" s="46"/>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>148</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D154" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="G154" s="34"/>
-      <c r="H154" s="44" t="s">
-        <v>375</v>
-      </c>
-      <c r="I154" s="52"/>
+        <v>374</v>
+      </c>
+      <c r="E154" s="32"/>
+      <c r="F154" s="37"/>
+      <c r="G154" s="37"/>
+      <c r="H154" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="I154" s="46"/>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D155" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="E155" s="33"/>
-      <c r="G155" s="34"/>
-      <c r="H155" s="44"/>
-      <c r="I155" s="52"/>
+        <v>451</v>
+      </c>
+      <c r="E155" s="32"/>
+      <c r="F155" s="37"/>
+      <c r="G155" s="37"/>
+      <c r="H155" s="45"/>
+      <c r="I155" s="46"/>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
@@ -4933,13 +4925,13 @@
       <c r="C156" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E156" s="33"/>
-      <c r="F156" s="44"/>
-      <c r="G156" s="34"/>
-      <c r="H156" s="59" t="s">
+      <c r="E156" s="32"/>
+      <c r="F156" s="37"/>
+      <c r="G156" s="37"/>
+      <c r="H156" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="I156" s="52"/>
+      <c r="I156" s="46"/>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
@@ -4948,30 +4940,30 @@
       <c r="C157" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="E157" s="33"/>
-      <c r="F157" s="44"/>
-      <c r="G157" s="34"/>
-      <c r="H157" s="44" t="s">
+      <c r="E157" s="32"/>
+      <c r="F157" s="37"/>
+      <c r="G157" s="37"/>
+      <c r="H157" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="I157" s="52"/>
+      <c r="I157" s="46"/>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E158" s="33"/>
-      <c r="F158" s="44"/>
-      <c r="G158" s="34"/>
-      <c r="H158" s="44"/>
-      <c r="I158" s="52"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="37"/>
+      <c r="G158" s="37"/>
+      <c r="H158" s="45"/>
+      <c r="I158" s="46"/>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E159" s="33"/>
-      <c r="F159" s="44"/>
-      <c r="G159" s="34"/>
-      <c r="H159" s="44"/>
-      <c r="I159" s="52"/>
+      <c r="E159" s="32"/>
+      <c r="F159" s="37"/>
+      <c r="G159" s="37"/>
+      <c r="H159" s="45"/>
+      <c r="I159" s="46"/>
     </row>
     <row r="160" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
@@ -4981,19 +4973,19 @@
         <v>156</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="E160" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="E160" s="64" t="s">
         <v>300</v>
       </c>
-      <c r="F160" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="G160" s="34"/>
-      <c r="H160" s="49" t="s">
-        <v>361</v>
-      </c>
-      <c r="I160" s="52"/>
+      <c r="F160" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="G160" s="37"/>
+      <c r="H160" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="I160" s="46"/>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
@@ -5002,18 +4994,18 @@
       <c r="C161" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="E161" s="68" t="s">
-        <v>469</v>
-      </c>
-      <c r="F161" s="47" t="s">
+      <c r="E161" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="F161" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="G161" s="37"/>
+      <c r="H161" s="45" t="s">
         <v>412</v>
       </c>
-      <c r="G161" s="34"/>
-      <c r="H161" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="I161" s="52" t="s">
-        <v>412</v>
+      <c r="I161" s="46" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="162" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -5024,40 +5016,40 @@
         <v>158</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="E162" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="E162" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="F162" s="44" t="s">
+      <c r="F162" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="G162" s="34"/>
-      <c r="H162" s="49" t="s">
-        <v>361</v>
-      </c>
-      <c r="I162" s="52"/>
+      <c r="G162" s="37"/>
+      <c r="H162" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="I162" s="46"/>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>157</v>
       </c>
       <c r="C163" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="E163" s="71" t="s">
-        <v>349</v>
-      </c>
-      <c r="F163" s="63" t="s">
+        <v>383</v>
+      </c>
+      <c r="E163" s="67" t="s">
+        <v>348</v>
+      </c>
+      <c r="F163" s="59" t="s">
         <v>302</v>
       </c>
-      <c r="G163" s="38" t="s">
+      <c r="G163" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="H163" s="44" t="s">
-        <v>414</v>
-      </c>
-      <c r="I163" s="52" t="s">
+      <c r="H163" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="I163" s="46" t="s">
         <v>309</v>
       </c>
     </row>
@@ -5069,41 +5061,41 @@
         <v>160</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="E164" s="72" t="s">
+        <v>360</v>
+      </c>
+      <c r="E164" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="F164" s="44" t="s">
-        <v>385</v>
-      </c>
-      <c r="G164" s="34"/>
-      <c r="H164" s="49" t="s">
-        <v>361</v>
-      </c>
-      <c r="I164" s="52"/>
+      <c r="F164" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="G164" s="37"/>
+      <c r="H164" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="I164" s="46"/>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>159</v>
       </c>
       <c r="C165" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="E165" s="71" t="s">
-        <v>350</v>
-      </c>
-      <c r="F165" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="E165" s="67" t="s">
+        <v>349</v>
+      </c>
+      <c r="F165" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="G165" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="G165" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="H165" s="44" t="s">
+      <c r="H165" s="45" t="s">
+        <v>414</v>
+      </c>
+      <c r="I165" s="46" t="s">
         <v>415</v>
-      </c>
-      <c r="I165" s="52" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="166" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -5114,19 +5106,19 @@
         <v>162</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="E166" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="E166" s="64" t="s">
         <v>305</v>
       </c>
-      <c r="F166" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="G166" s="34"/>
-      <c r="H166" s="49" t="s">
-        <v>361</v>
-      </c>
-      <c r="I166" s="52"/>
+      <c r="F166" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="G166" s="37"/>
+      <c r="H166" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="I166" s="46"/>
     </row>
     <row r="167" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
@@ -5135,20 +5127,20 @@
       <c r="C167" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="E167" s="70" t="s">
-        <v>351</v>
-      </c>
-      <c r="F167" s="63" t="s">
-        <v>391</v>
-      </c>
-      <c r="G167" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="H167" s="44" t="s">
+      <c r="E167" s="66" t="s">
+        <v>350</v>
+      </c>
+      <c r="F167" s="59" t="s">
+        <v>390</v>
+      </c>
+      <c r="G167" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="H167" s="45" t="s">
+        <v>416</v>
+      </c>
+      <c r="I167" s="46" t="s">
         <v>417</v>
-      </c>
-      <c r="I167" s="52" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="168" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -5159,19 +5151,19 @@
         <v>169</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="E168" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="E168" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="F168" s="44" t="s">
-        <v>392</v>
-      </c>
-      <c r="G168" s="34"/>
-      <c r="H168" s="49" t="s">
-        <v>361</v>
-      </c>
-      <c r="I168" s="52"/>
+      <c r="F168" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="G168" s="37"/>
+      <c r="H168" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="I168" s="46"/>
     </row>
     <row r="169" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
@@ -5180,20 +5172,20 @@
       <c r="C169" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="E169" s="70" t="s">
-        <v>352</v>
-      </c>
-      <c r="F169" s="63" t="s">
+      <c r="E169" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="F169" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="G169" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="G169" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="H169" s="45" t="s">
+      <c r="H169" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="I169" s="50" t="s">
         <v>419</v>
-      </c>
-      <c r="I169" s="53" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="170" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -5204,19 +5196,19 @@
         <v>165</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="E170" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="E170" s="64" t="s">
         <v>308</v>
       </c>
-      <c r="F170" s="44" t="s">
-        <v>395</v>
-      </c>
-      <c r="G170" s="34"/>
-      <c r="H170" s="49" t="s">
-        <v>361</v>
-      </c>
-      <c r="I170" s="52"/>
+      <c r="F170" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="G170" s="37"/>
+      <c r="H170" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="I170" s="46"/>
     </row>
     <row r="171" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
@@ -5225,20 +5217,20 @@
       <c r="C171" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="E171" s="70" t="s">
-        <v>353</v>
-      </c>
-      <c r="F171" s="63" t="s">
+      <c r="E171" s="66" t="s">
+        <v>352</v>
+      </c>
+      <c r="F171" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="G171" s="40" t="s">
         <v>396</v>
       </c>
-      <c r="G171" s="39" t="s">
-        <v>397</v>
-      </c>
-      <c r="H171" s="44" t="s">
-        <v>421</v>
-      </c>
-      <c r="I171" s="53" t="s">
-        <v>426</v>
+      <c r="H171" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="I171" s="50" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="172" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -5249,19 +5241,19 @@
         <v>166</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="E172" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="E172" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="F172" s="44" t="s">
-        <v>398</v>
-      </c>
-      <c r="G172" s="34"/>
-      <c r="H172" s="49" t="s">
-        <v>361</v>
-      </c>
-      <c r="I172" s="52"/>
+      <c r="F172" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="G172" s="37"/>
+      <c r="H172" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="I172" s="46"/>
     </row>
     <row r="173" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
@@ -5271,36 +5263,36 @@
         <v>171</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="E173" s="73" t="s">
+        <v>360</v>
+      </c>
+      <c r="E173" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="F173" s="44" t="s">
-        <v>398</v>
-      </c>
-      <c r="G173" s="34"/>
-      <c r="H173" s="49" t="s">
-        <v>361</v>
-      </c>
-      <c r="I173" s="52"/>
+      <c r="F173" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="G173" s="37"/>
+      <c r="H173" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="I173" s="46"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E174" s="33"/>
-      <c r="F174" s="44"/>
-      <c r="G174" s="34"/>
-      <c r="H174" s="44"/>
-      <c r="I174" s="52"/>
+      <c r="E174" s="32"/>
+      <c r="F174" s="37"/>
+      <c r="G174" s="37"/>
+      <c r="H174" s="45"/>
+      <c r="I174" s="46"/>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E175" s="33"/>
-      <c r="F175" s="44"/>
-      <c r="G175" s="34"/>
-      <c r="H175" s="44"/>
-      <c r="I175" s="52"/>
+      <c r="E175" s="32"/>
+      <c r="F175" s="37"/>
+      <c r="G175" s="37"/>
+      <c r="H175" s="45"/>
+      <c r="I175" s="46"/>
     </row>
     <row r="176" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B176" s="6" t="s">
@@ -5310,21 +5302,21 @@
         <v>176</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="E176" s="68" t="s">
-        <v>354</v>
-      </c>
-      <c r="F176" s="66" t="s">
-        <v>383</v>
-      </c>
-      <c r="G176" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="H176" s="49" t="s">
-        <v>362</v>
-      </c>
-      <c r="I176" s="52"/>
+        <v>361</v>
+      </c>
+      <c r="E176" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="F176" s="62" t="s">
+        <v>382</v>
+      </c>
+      <c r="G176" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="H176" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="I176" s="46"/>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
@@ -5333,13 +5325,13 @@
       <c r="C177" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="E177" s="33"/>
-      <c r="F177" s="44"/>
-      <c r="G177" s="34"/>
-      <c r="H177" s="44" t="s">
+      <c r="E177" s="32"/>
+      <c r="F177" s="37"/>
+      <c r="G177" s="37"/>
+      <c r="H177" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="I177" s="52"/>
+      <c r="I177" s="46"/>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
@@ -5348,30 +5340,30 @@
       <c r="C178" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="E178" s="33"/>
-      <c r="F178" s="44"/>
-      <c r="G178" s="34"/>
-      <c r="H178" s="44" t="s">
+      <c r="E178" s="32"/>
+      <c r="F178" s="37"/>
+      <c r="G178" s="37"/>
+      <c r="H178" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="I178" s="52"/>
+      <c r="I178" s="46"/>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E179" s="33"/>
-      <c r="F179" s="44"/>
-      <c r="G179" s="34"/>
-      <c r="H179" s="44"/>
-      <c r="I179" s="52"/>
+      <c r="E179" s="32"/>
+      <c r="F179" s="37"/>
+      <c r="G179" s="37"/>
+      <c r="H179" s="45"/>
+      <c r="I179" s="46"/>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E180" s="33"/>
-      <c r="F180" s="44"/>
-      <c r="G180" s="34"/>
-      <c r="H180" s="44"/>
-      <c r="I180" s="52"/>
+      <c r="E180" s="32"/>
+      <c r="F180" s="37"/>
+      <c r="G180" s="37"/>
+      <c r="H180" s="45"/>
+      <c r="I180" s="46"/>
     </row>
     <row r="181" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
@@ -5380,13 +5372,13 @@
       <c r="C181" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="E181" s="33"/>
-      <c r="F181" s="44"/>
-      <c r="G181" s="34"/>
-      <c r="H181" s="45" t="s">
+      <c r="E181" s="32"/>
+      <c r="F181" s="37"/>
+      <c r="G181" s="37"/>
+      <c r="H181" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="I181" s="52"/>
+      <c r="I181" s="46"/>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
@@ -5395,40 +5387,40 @@
       <c r="C182" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="E182" s="33"/>
-      <c r="F182" s="44"/>
-      <c r="G182" s="34"/>
-      <c r="H182" s="48" t="s">
+      <c r="E182" s="32"/>
+      <c r="F182" s="37"/>
+      <c r="G182" s="37"/>
+      <c r="H182" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="I182" s="52"/>
+      <c r="I182" s="46"/>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E183" s="33"/>
-      <c r="F183" s="44"/>
-      <c r="G183" s="34"/>
-      <c r="H183" s="44"/>
-      <c r="I183" s="52"/>
+      <c r="E183" s="32"/>
+      <c r="F183" s="37"/>
+      <c r="G183" s="37"/>
+      <c r="H183" s="45"/>
+      <c r="I183" s="46"/>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B184" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E184" s="33"/>
-      <c r="F184" s="44"/>
-      <c r="G184" s="34"/>
-      <c r="H184" s="44"/>
-      <c r="I184" s="52"/>
+      <c r="E184" s="32"/>
+      <c r="F184" s="37"/>
+      <c r="G184" s="37"/>
+      <c r="H184" s="45"/>
+      <c r="I184" s="46"/>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B185" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E185" s="33"/>
-      <c r="F185" s="44"/>
-      <c r="G185" s="34"/>
-      <c r="H185" s="44"/>
-      <c r="I185" s="52"/>
+      <c r="E185" s="32"/>
+      <c r="F185" s="37"/>
+      <c r="G185" s="37"/>
+      <c r="H185" s="45"/>
+      <c r="I185" s="46"/>
     </row>
     <row r="186" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
@@ -5437,17 +5429,17 @@
       <c r="C186" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="E186" s="68" t="s">
+      <c r="E186" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="F186" s="45" t="s">
-        <v>478</v>
-      </c>
-      <c r="G186" s="34"/>
-      <c r="H186" s="44" t="s">
+      <c r="F186" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="G186" s="37"/>
+      <c r="H186" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="I186" s="52"/>
+      <c r="I186" s="46"/>
     </row>
     <row r="187" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
@@ -5456,36 +5448,36 @@
       <c r="C187" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="E187" s="68" t="s">
+      <c r="E187" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="F187" s="47" t="s">
-        <v>478</v>
-      </c>
-      <c r="G187" s="34"/>
-      <c r="H187" s="44" t="s">
-        <v>422</v>
-      </c>
-      <c r="I187" s="53" t="s">
-        <v>478</v>
+      <c r="F187" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="G187" s="37"/>
+      <c r="H187" s="45" t="s">
+        <v>421</v>
+      </c>
+      <c r="I187" s="50" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E188" s="33"/>
-      <c r="F188" s="44"/>
-      <c r="G188" s="34"/>
-      <c r="H188" s="44"/>
-      <c r="I188" s="52"/>
+      <c r="E188" s="32"/>
+      <c r="F188" s="37"/>
+      <c r="G188" s="37"/>
+      <c r="H188" s="45"/>
+      <c r="I188" s="46"/>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B189" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E189" s="33"/>
-      <c r="F189" s="44"/>
-      <c r="G189" s="34"/>
-      <c r="H189" s="44"/>
-      <c r="I189" s="52"/>
+      <c r="E189" s="32"/>
+      <c r="F189" s="37"/>
+      <c r="G189" s="37"/>
+      <c r="H189" s="45"/>
+      <c r="I189" s="46"/>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
@@ -5494,13 +5486,13 @@
       <c r="C190" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="E190" s="33"/>
-      <c r="F190" s="44"/>
-      <c r="G190" s="34"/>
-      <c r="H190" s="44" t="s">
+      <c r="E190" s="32"/>
+      <c r="F190" s="37"/>
+      <c r="G190" s="37"/>
+      <c r="H190" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="I190" s="52"/>
+      <c r="I190" s="46"/>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
@@ -5512,13 +5504,13 @@
       <c r="D191" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="E191" s="33"/>
-      <c r="F191" s="44"/>
-      <c r="G191" s="34"/>
-      <c r="H191" s="44" t="s">
+      <c r="E191" s="32"/>
+      <c r="F191" s="37"/>
+      <c r="G191" s="37"/>
+      <c r="H191" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="I191" s="52"/>
+      <c r="I191" s="46"/>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
@@ -5527,13 +5519,13 @@
       <c r="C192" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="E192" s="33"/>
-      <c r="F192" s="44"/>
-      <c r="G192" s="34"/>
-      <c r="H192" s="44" t="s">
+      <c r="E192" s="32"/>
+      <c r="F192" s="37"/>
+      <c r="G192" s="37"/>
+      <c r="H192" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="I192" s="52"/>
+      <c r="I192" s="46"/>
     </row>
     <row r="193" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
@@ -5543,49 +5535,49 @@
         <v>288</v>
       </c>
       <c r="D193" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="E193" s="33"/>
-      <c r="F193" s="44"/>
-      <c r="G193" s="34"/>
-      <c r="H193" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="I193" s="52"/>
+        <v>478</v>
+      </c>
+      <c r="E193" s="32"/>
+      <c r="F193" s="37"/>
+      <c r="G193" s="37"/>
+      <c r="H193" s="48" t="s">
+        <v>365</v>
+      </c>
+      <c r="I193" s="46"/>
     </row>
     <row r="194" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E194" s="33"/>
-      <c r="F194" s="44"/>
-      <c r="G194" s="34"/>
-      <c r="H194" s="44"/>
-      <c r="I194" s="52"/>
+      <c r="E194" s="32"/>
+      <c r="F194" s="37"/>
+      <c r="G194" s="37"/>
+      <c r="H194" s="45"/>
+      <c r="I194" s="46"/>
     </row>
     <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E195" s="33"/>
-      <c r="F195" s="44"/>
-      <c r="G195" s="34"/>
-      <c r="H195" s="44"/>
-      <c r="I195" s="52"/>
+      <c r="E195" s="32"/>
+      <c r="F195" s="37"/>
+      <c r="G195" s="37"/>
+      <c r="H195" s="45"/>
+      <c r="I195" s="46"/>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E196" s="33"/>
-      <c r="F196" s="44"/>
-      <c r="G196" s="34"/>
-      <c r="H196" s="44"/>
-      <c r="I196" s="52"/>
+      <c r="E196" s="32"/>
+      <c r="F196" s="37"/>
+      <c r="G196" s="37"/>
+      <c r="H196" s="45"/>
+      <c r="I196" s="46"/>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E197" s="33"/>
-      <c r="F197" s="44"/>
-      <c r="G197" s="34"/>
-      <c r="H197" s="44"/>
-      <c r="I197" s="52"/>
+      <c r="E197" s="32"/>
+      <c r="F197" s="37"/>
+      <c r="G197" s="37"/>
+      <c r="H197" s="45"/>
+      <c r="I197" s="46"/>
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
@@ -5594,13 +5586,13 @@
       <c r="C198" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="E198" s="33"/>
-      <c r="F198" s="44"/>
-      <c r="G198" s="34"/>
-      <c r="H198" s="44" t="s">
+      <c r="E198" s="32"/>
+      <c r="F198" s="37"/>
+      <c r="G198" s="37"/>
+      <c r="H198" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="I198" s="52"/>
+      <c r="I198" s="46"/>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
@@ -5612,30 +5604,30 @@
       <c r="D199" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="E199" s="33"/>
-      <c r="F199" s="44"/>
-      <c r="G199" s="34"/>
-      <c r="H199" s="44" t="s">
+      <c r="E199" s="32"/>
+      <c r="F199" s="37"/>
+      <c r="G199" s="37"/>
+      <c r="H199" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="I199" s="52"/>
+      <c r="I199" s="46"/>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E200" s="33"/>
-      <c r="F200" s="44"/>
-      <c r="G200" s="34"/>
-      <c r="H200" s="44"/>
-      <c r="I200" s="52"/>
+      <c r="E200" s="32"/>
+      <c r="F200" s="37"/>
+      <c r="G200" s="37"/>
+      <c r="H200" s="45"/>
+      <c r="I200" s="46"/>
     </row>
     <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B201" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E201" s="33"/>
-      <c r="F201" s="44"/>
-      <c r="G201" s="34"/>
-      <c r="H201" s="44"/>
-      <c r="I201" s="52"/>
+      <c r="E201" s="32"/>
+      <c r="F201" s="37"/>
+      <c r="G201" s="37"/>
+      <c r="H201" s="45"/>
+      <c r="I201" s="46"/>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
@@ -5644,13 +5636,13 @@
       <c r="C202" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="E202" s="33"/>
-      <c r="F202" s="44"/>
-      <c r="G202" s="34"/>
-      <c r="H202" s="44" t="s">
+      <c r="E202" s="32"/>
+      <c r="F202" s="37"/>
+      <c r="G202" s="37"/>
+      <c r="H202" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="I202" s="52"/>
+      <c r="I202" s="46"/>
     </row>
     <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
@@ -5659,30 +5651,30 @@
       <c r="C203" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="E203" s="33"/>
-      <c r="F203" s="44"/>
-      <c r="G203" s="34"/>
-      <c r="H203" s="44" t="s">
+      <c r="E203" s="32"/>
+      <c r="F203" s="37"/>
+      <c r="G203" s="37"/>
+      <c r="H203" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="I203" s="52"/>
+      <c r="I203" s="46"/>
     </row>
     <row r="204" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E204" s="33"/>
-      <c r="F204" s="44"/>
-      <c r="G204" s="34"/>
-      <c r="H204" s="44"/>
-      <c r="I204" s="52"/>
+      <c r="E204" s="32"/>
+      <c r="F204" s="37"/>
+      <c r="G204" s="37"/>
+      <c r="H204" s="45"/>
+      <c r="I204" s="46"/>
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B205" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E205" s="33"/>
-      <c r="F205" s="44"/>
-      <c r="G205" s="34"/>
-      <c r="H205" s="44"/>
-      <c r="I205" s="52"/>
+      <c r="E205" s="32"/>
+      <c r="F205" s="37"/>
+      <c r="G205" s="37"/>
+      <c r="H205" s="45"/>
+      <c r="I205" s="46"/>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
@@ -5691,13 +5683,13 @@
       <c r="C206" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="E206" s="33"/>
-      <c r="F206" s="44"/>
-      <c r="G206" s="34"/>
-      <c r="H206" s="44" t="s">
+      <c r="E206" s="32"/>
+      <c r="F206" s="37"/>
+      <c r="G206" s="37"/>
+      <c r="H206" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="I206" s="52"/>
+      <c r="I206" s="46"/>
     </row>
     <row r="207" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
@@ -5706,93 +5698,93 @@
       <c r="C207" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="E207" s="33" t="s">
+      <c r="E207" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F207" s="44"/>
-      <c r="G207" s="34"/>
-      <c r="H207" s="44" t="s">
+      <c r="F207" s="37"/>
+      <c r="G207" s="37"/>
+      <c r="H207" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="I207" s="52"/>
+      <c r="I207" s="46"/>
     </row>
     <row r="208" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>208</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D208" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="E208" s="68" t="s">
-        <v>463</v>
-      </c>
-      <c r="F208" s="46" t="s">
+      <c r="E208" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="F208" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="G208" s="34"/>
-      <c r="H208" s="44" t="s">
-        <v>423</v>
-      </c>
-      <c r="I208" s="52" t="s">
+      <c r="G208" s="37"/>
+      <c r="H208" s="45" t="s">
+        <v>422</v>
+      </c>
+      <c r="I208" s="46" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="209" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C209" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="E209" s="68" t="s">
+      <c r="E209" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="F209" s="44" t="s">
+      <c r="F209" s="37" t="s">
         <v>321</v>
       </c>
-      <c r="G209" s="34"/>
-      <c r="H209" s="44" t="s">
+      <c r="G209" s="37"/>
+      <c r="H209" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="I209" s="52"/>
+      <c r="I209" s="46"/>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E210" s="33"/>
-      <c r="F210" s="44"/>
-      <c r="G210" s="34"/>
-      <c r="H210" s="44"/>
-      <c r="I210" s="52"/>
+      <c r="E210" s="32"/>
+      <c r="F210" s="37"/>
+      <c r="G210" s="37"/>
+      <c r="H210" s="45"/>
+      <c r="I210" s="46"/>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B211" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E211" s="33"/>
-      <c r="F211" s="44"/>
-      <c r="G211" s="34"/>
-      <c r="H211" s="44"/>
-      <c r="I211" s="52"/>
+      <c r="E211" s="32"/>
+      <c r="F211" s="37"/>
+      <c r="G211" s="37"/>
+      <c r="H211" s="45"/>
+      <c r="I211" s="46"/>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B212" s="5"/>
-      <c r="E212" s="33"/>
-      <c r="F212" s="44"/>
-      <c r="G212" s="34"/>
-      <c r="H212" s="44"/>
-      <c r="I212" s="52"/>
+      <c r="E212" s="32"/>
+      <c r="F212" s="37"/>
+      <c r="G212" s="37"/>
+      <c r="H212" s="45"/>
+      <c r="I212" s="46"/>
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B213" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E213" s="33"/>
-      <c r="F213" s="44"/>
-      <c r="G213" s="34"/>
-      <c r="H213" s="44"/>
-      <c r="I213" s="52"/>
+      <c r="E213" s="32"/>
+      <c r="F213" s="37"/>
+      <c r="G213" s="37"/>
+      <c r="H213" s="45"/>
+      <c r="I213" s="46"/>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
@@ -5801,28 +5793,28 @@
       <c r="C214" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="E214" s="33"/>
-      <c r="F214" s="44"/>
-      <c r="G214" s="34"/>
-      <c r="H214" s="44" t="s">
+      <c r="E214" s="32"/>
+      <c r="F214" s="37"/>
+      <c r="G214" s="37"/>
+      <c r="H214" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="I214" s="52"/>
+      <c r="I214" s="46"/>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>215</v>
       </c>
       <c r="C215" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="E215" s="33"/>
-      <c r="F215" s="44"/>
-      <c r="G215" s="34"/>
-      <c r="H215" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="I215" s="52"/>
+        <v>364</v>
+      </c>
+      <c r="E215" s="32"/>
+      <c r="F215" s="37"/>
+      <c r="G215" s="37"/>
+      <c r="H215" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="I215" s="46"/>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
@@ -5831,62 +5823,62 @@
       <c r="C216" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="E216" s="33"/>
-      <c r="F216" s="44"/>
-      <c r="G216" s="34"/>
-      <c r="H216" s="44" t="s">
+      <c r="E216" s="32"/>
+      <c r="F216" s="37"/>
+      <c r="G216" s="37"/>
+      <c r="H216" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="I216" s="52"/>
+      <c r="I216" s="46"/>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E217" s="33"/>
-      <c r="F217" s="44"/>
-      <c r="G217" s="34"/>
-      <c r="H217" s="44"/>
-      <c r="I217" s="52"/>
+      <c r="E217" s="32"/>
+      <c r="F217" s="37"/>
+      <c r="G217" s="37"/>
+      <c r="H217" s="45"/>
+      <c r="I217" s="46"/>
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B218" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E218" s="33"/>
-      <c r="F218" s="44"/>
-      <c r="G218" s="34"/>
-      <c r="H218" s="44"/>
-      <c r="I218" s="52"/>
+      <c r="E218" s="32"/>
+      <c r="F218" s="37"/>
+      <c r="G218" s="37"/>
+      <c r="H218" s="45"/>
+      <c r="I218" s="46"/>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>219</v>
       </c>
       <c r="C219" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="E219" s="33"/>
-      <c r="F219" s="44"/>
-      <c r="G219" s="34"/>
-      <c r="H219" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="I219" s="52"/>
+        <v>363</v>
+      </c>
+      <c r="E219" s="32"/>
+      <c r="F219" s="37"/>
+      <c r="G219" s="37"/>
+      <c r="H219" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="I219" s="46"/>
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E220" s="33"/>
-      <c r="F220" s="44"/>
-      <c r="G220" s="34"/>
-      <c r="H220" s="44"/>
-      <c r="I220" s="52"/>
+      <c r="E220" s="32"/>
+      <c r="F220" s="37"/>
+      <c r="G220" s="37"/>
+      <c r="H220" s="45"/>
+      <c r="I220" s="46"/>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B221" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E221" s="33"/>
-      <c r="F221" s="44"/>
-      <c r="G221" s="34"/>
-      <c r="H221" s="44"/>
-      <c r="I221" s="52"/>
+      <c r="E221" s="32"/>
+      <c r="F221" s="37"/>
+      <c r="G221" s="37"/>
+      <c r="H221" s="45"/>
+      <c r="I221" s="46"/>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
@@ -5895,29 +5887,30 @@
       <c r="C222" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="F222" s="45"/>
-      <c r="G222" s="34"/>
-      <c r="H222" s="44" t="s">
+      <c r="E222" s="32"/>
+      <c r="F222" s="38"/>
+      <c r="G222" s="37"/>
+      <c r="H222" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="I222" s="52"/>
+      <c r="I222" s="46"/>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E223" s="33"/>
-      <c r="F223" s="44"/>
-      <c r="G223" s="34"/>
-      <c r="H223" s="44"/>
-      <c r="I223" s="52"/>
+      <c r="E223" s="32"/>
+      <c r="F223" s="37"/>
+      <c r="G223" s="37"/>
+      <c r="H223" s="45"/>
+      <c r="I223" s="46"/>
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B224" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E224" s="33"/>
-      <c r="F224" s="44"/>
-      <c r="G224" s="34"/>
-      <c r="H224" s="44"/>
-      <c r="I224" s="52"/>
+      <c r="E224" s="32"/>
+      <c r="F224" s="37"/>
+      <c r="G224" s="37"/>
+      <c r="H224" s="45"/>
+      <c r="I224" s="46"/>
     </row>
     <row r="225" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
@@ -5926,17 +5919,17 @@
       <c r="C225" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="E225" s="68" t="s">
+      <c r="E225" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="F225" s="45" t="s">
-        <v>478</v>
-      </c>
-      <c r="G225" s="34"/>
-      <c r="H225" s="44" t="s">
+      <c r="F225" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="G225" s="37"/>
+      <c r="H225" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I225" s="52"/>
+      <c r="I225" s="46"/>
     </row>
     <row r="226" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
@@ -5948,18 +5941,18 @@
       <c r="D226" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="E226" s="68" t="s">
+      <c r="E226" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="F226" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="G226" s="34"/>
-      <c r="H226" s="44" t="s">
-        <v>424</v>
-      </c>
-      <c r="I226" s="53" t="s">
-        <v>480</v>
+      <c r="F226" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="G226" s="37"/>
+      <c r="H226" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="I226" s="50" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
@@ -5969,13 +5962,13 @@
       <c r="C227" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E227" s="33"/>
-      <c r="F227" s="44"/>
-      <c r="G227" s="34"/>
-      <c r="H227" s="44" t="s">
+      <c r="E227" s="32"/>
+      <c r="F227" s="37"/>
+      <c r="G227" s="37"/>
+      <c r="H227" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="I227" s="52"/>
+      <c r="I227" s="46"/>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
@@ -5984,13 +5977,13 @@
       <c r="C228" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="E228" s="33"/>
-      <c r="F228" s="44"/>
-      <c r="G228" s="34"/>
-      <c r="H228" s="44" t="s">
+      <c r="E228" s="32"/>
+      <c r="F228" s="37"/>
+      <c r="G228" s="37"/>
+      <c r="H228" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="I228" s="52"/>
+      <c r="I228" s="46"/>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
@@ -5999,17 +5992,17 @@
       <c r="C229" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="E229" s="68" t="s">
+      <c r="E229" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="F229" s="46" t="s">
+      <c r="F229" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="G229" s="34"/>
-      <c r="H229" s="44" t="s">
-        <v>425</v>
-      </c>
-      <c r="I229" s="52" t="s">
+      <c r="G229" s="37"/>
+      <c r="H229" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="I229" s="46" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6020,13 +6013,13 @@
       <c r="C230" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="E230" s="41"/>
-      <c r="F230" s="50"/>
+      <c r="E230" s="35"/>
+      <c r="F230" s="42"/>
       <c r="G230" s="42"/>
-      <c r="H230" s="61" t="s">
+      <c r="H230" s="56" t="s">
         <v>281</v>
       </c>
-      <c r="I230" s="54"/>
+      <c r="I230" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EC105B-9140-4AB7-90A3-8556D524188A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09B1E80-540C-48FD-A267-04D31DF285D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="494">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -54,9 +54,6 @@
     <t>&lt;BODY&gt;</t>
   </si>
   <si>
-    <t>; ?  &lt;SST&gt; ? {</t>
-  </si>
-  <si>
     <t>&lt;SST&gt;</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>&lt;MAIN&gt;</t>
   </si>
   <si>
-    <t>Begin</t>
-  </si>
-  <si>
     <t>Start Structure</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
   </si>
   <si>
     <t>&lt;ACCESS_METH&gt;</t>
-  </si>
-  <si>
-    <t>&lt;SST&gt;?null</t>
   </si>
   <si>
     <t>[</t>
@@ -896,9 +887,6 @@
   </si>
   <si>
     <t xml:space="preserve">state ? default ? } </t>
-  </si>
-  <si>
-    <t>{ ? ; ? &lt;MST&gt;</t>
   </si>
   <si>
     <t>} ? F&lt;STATE&gt;</t>
@@ -1492,34 +1480,10 @@
  &lt;CONTINUE&gt;?&lt;THROW&gt;</t>
   </si>
   <si>
-    <t>if ? shift ? const ? dt ?str? id ? Parent ? Self ?  test ?  loop ? do ? stop ? Ret ? Cont ? raise</t>
-  </si>
-  <si>
-    <t>if ? shift ? const ? dt ?str? id ? Parent ? Self ?  test ?  loop ? do ? stop ? Ret ? Cont ? Raise</t>
-  </si>
-  <si>
     <t>; ?  if ? shift ? const ? dt ?str? id ? Parent ? Self ?  
 test ?  loop ? do ? stop ? Ret ? Cont ? raise ? {</t>
   </si>
   <si>
-    <t>if ? shift ? const ? dt ?str?id ?Parent ? Self ?  test ?  loop ? do ? stop ? Ret ? Cont ? raise ? Null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if ? shift ? const ? dt ?str?id ?Parent ? Self ?  test ?  loop ? do ? stop ? Ret ? Cont ? raise </t>
-  </si>
-  <si>
-    <t>if ? shift ? const ? dt ?str? id ? Parent ?
- Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise?state ? default ? } ?else ? Till</t>
-  </si>
-  <si>
-    <t>if ? shift ? const ? dt ? str?id ? Parent ?
- Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise?state ? default ? } ?else ? Till</t>
-  </si>
-  <si>
-    <t>if ? shift ? const ? dt ?str?id ? Parent ?
- Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise?state ? default ? } ?else ? Till</t>
-  </si>
-  <si>
     <t>{ ? ; if ? shift ? const ? dt ?str? id ? Parent ? Self ?  test ?  Loop ? do ? stop ? Ret ? Cont ? raise ? state ? default ? }</t>
   </si>
   <si>
@@ -1572,6 +1536,40 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;DT_ID&gt; </t>
+  </si>
+  <si>
+    <t>&lt;SST&gt; ? {</t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ?str? id ? Parent ? Self ?  test ?  loop ? do ? stop ? Ret ? Cont ? Raise?;</t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ?str?id ?Parent ? Self ?  test ?  loop ? do ? stop ? Ret ? Cont ? raise ?;? Null</t>
+  </si>
+  <si>
+    <t>&lt;SST&gt;?;?null</t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ?str?id ?Parent ? Self ?  test ?  loop ? do ? stop ? Ret ? Cont ? raise ?;</t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ?str? id ? Parent ?
+ Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise?state ? default ? } ?else ? Till?;</t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ? str?id ? Parent ?
+ Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise?state ? default ? } ?else ? Till?;</t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ?str?id ? Parent ?
+ Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise?state ? default ? } ?else ? Till?;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if ? shift ? const ? dt ?str? id ? Parent ? Self ?  
+test ?  loop ? do ? stop ? Ret ? Cont ? raise ? {?;</t>
+  </si>
+  <si>
+    <t>{ ? &lt;MST&gt;</t>
   </si>
 </sst>
 </file>
@@ -2372,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K226" sqref="K226"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2397,27 +2395,27 @@
         <v>1</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E1" s="63" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2432,21 +2430,21 @@
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
       <c r="H3" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" s="46" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -2454,23 +2452,23 @@
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="E4" s="64" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G4" s="37"/>
       <c r="H4" s="47" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -2478,23 +2476,23 @@
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E5" s="64" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G5" s="37"/>
       <c r="H5" s="47" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -2502,23 +2500,23 @@
         <v>7</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E6" s="64" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G6" s="37"/>
       <c r="H6" s="47" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -2543,7 +2541,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2558,22 +2556,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>9</v>
+        <v>484</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="I10" s="46"/>
     </row>
@@ -2587,7 +2585,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="37"/>
@@ -2597,48 +2595,48 @@
     </row>
     <row r="13" spans="2:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="48" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="I13" s="46"/>
     </row>
     <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>28</v>
+        <v>487</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="48" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -2653,7 +2651,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2665,17 +2663,17 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>13</v>
+        <v>424</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="32"/>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="49" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="I17" s="46"/>
     </row>
@@ -2691,7 +2689,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2706,14 +2704,14 @@
         <v>3</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="32"/>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
       <c r="H20" s="49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I20" s="46"/>
     </row>
@@ -2722,46 +2720,46 @@
         <v>5</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="32"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
       <c r="H21" s="49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I21" s="46"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="32"/>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="49" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I22" s="46"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="32"/>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
       <c r="H23" s="49" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I23" s="46"/>
     </row>
@@ -2777,7 +2775,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2789,91 +2787,91 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="32"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="H26" s="49" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I26" s="46"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="32"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
       <c r="H27" s="49" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I27" s="46"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="64" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="49" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I28" s="46"/>
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="65" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="49" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I29" s="46" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="32"/>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
       <c r="H30" s="49" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I30" s="46"/>
     </row>
@@ -2889,7 +2887,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2901,24 +2899,24 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="64" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F33" s="58" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G33" s="37"/>
       <c r="H33" s="49" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I33" s="46" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -2953,7 +2951,7 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2965,85 +2963,85 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="32"/>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
       <c r="H38" s="49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I38" s="46"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="32"/>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
       <c r="H39" s="49" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I39" s="46"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
       <c r="H40" s="49" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I40" s="46"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="32"/>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
       <c r="H41" s="49" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I41" s="46"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
       <c r="H42" s="49" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I42" s="46"/>
     </row>
@@ -3059,46 +3057,46 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
       <c r="H44" s="49" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I44" s="46"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E45" s="64" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I45" s="46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -3113,7 +3111,7 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3125,131 +3123,131 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="32"/>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
       <c r="H48" s="49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I48" s="46"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
       <c r="H49" s="49" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I49" s="46"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
       <c r="H50" s="49" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I50" s="46"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
       <c r="H51" s="49" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I51" s="46"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
       <c r="H52" s="49" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I52" s="46"/>
     </row>
     <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E53" s="64" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G53" s="39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H53" s="49" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I53" s="46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="32"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
       <c r="H54" s="49" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I54" s="46"/>
     </row>
@@ -3265,7 +3263,7 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3277,125 +3275,125 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E57" s="32"/>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
       <c r="H57" s="49" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I57" s="46"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E58" s="32"/>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
       <c r="H58" s="45" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I58" s="46"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="32"/>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
       <c r="H59" s="49" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I59" s="46"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="33" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
       <c r="H60" s="49" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I60" s="46" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
       <c r="H61" s="49" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I61" s="46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="32"/>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
       <c r="H62" s="49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I62" s="46"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="32"/>
       <c r="F63" s="37"/>
       <c r="G63" s="37"/>
       <c r="H63" s="49" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I63" s="46"/>
     </row>
@@ -3411,7 +3409,7 @@
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -3423,41 +3421,41 @@
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
       <c r="H66" s="49" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I66" s="46"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E67" s="64" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F67" s="37" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G67" s="37"/>
       <c r="H67" s="49" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I67" s="46"/>
     </row>
@@ -3473,7 +3471,7 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3485,7 +3483,7 @@
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3497,152 +3495,152 @@
     </row>
     <row r="71" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E71" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F71" s="59" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G71" s="40" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H71" s="47" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I71" s="50" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="66" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F72" s="60" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H72" s="49" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I72" s="46"/>
     </row>
     <row r="73" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="64" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G73" s="37"/>
       <c r="H73" s="47" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I73" s="50" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="32"/>
       <c r="F74" s="37"/>
       <c r="G74" s="37"/>
       <c r="H74" s="49" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I74" s="46"/>
     </row>
     <row r="75" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="D75" s="22" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E75" s="32"/>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
       <c r="H75" s="48" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I75" s="46"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="32"/>
       <c r="F76" s="37"/>
       <c r="G76" s="37"/>
       <c r="H76" s="45" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I76" s="46"/>
     </row>
     <row r="77" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E77" s="64" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F77" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G77" s="37"/>
       <c r="H77" s="47" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I77" s="46"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="32"/>
@@ -3663,7 +3661,7 @@
     </row>
     <row r="80" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3675,69 +3673,69 @@
     </row>
     <row r="81" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E81" s="64" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G81" s="40" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H81" s="51" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="I81" s="50" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E82" s="64" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G82" s="37"/>
       <c r="H82" s="52" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I82" s="46"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="64" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F83" s="61" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G83" s="37"/>
       <c r="H83" s="49" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I83" s="46"/>
     </row>
@@ -3753,7 +3751,7 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3765,7 +3763,7 @@
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3777,37 +3775,37 @@
     </row>
     <row r="87" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="38"/>
       <c r="G87" s="37"/>
       <c r="H87" s="49" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="I87" s="46"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E88" s="32"/>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
       <c r="H88" s="49" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I88" s="46"/>
     </row>
@@ -3823,46 +3821,46 @@
     </row>
     <row r="90" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E90" s="34"/>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
       <c r="H90" s="47" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="I90" s="46"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E91" s="32"/>
       <c r="F91" s="38"/>
       <c r="G91" s="37"/>
       <c r="H91" s="49" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I91" s="46"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="32"/>
@@ -3873,201 +3871,201 @@
     </row>
     <row r="93" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C93" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="E93" s="65" t="s">
+        <v>437</v>
+      </c>
+      <c r="F93" s="37" t="s">
         <v>91</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="E93" s="65" t="s">
-        <v>441</v>
-      </c>
-      <c r="F93" s="37" t="s">
-        <v>94</v>
       </c>
       <c r="G93" s="37"/>
       <c r="H93" s="48" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I93" s="46"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F94" s="37"/>
       <c r="G94" s="37"/>
       <c r="H94" s="49" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="I94" s="46"/>
     </row>
     <row r="95" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C95" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D95" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="D95" s="25" t="s">
-        <v>266</v>
-      </c>
       <c r="E95" s="32" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F95" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G95" s="37"/>
       <c r="H95" s="53" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I95" s="46"/>
     </row>
     <row r="96" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E96" s="64" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H96" s="47" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="I96" s="46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E97" s="64" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H97" s="47" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I97" s="46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E98" s="64" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H98" s="47" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I98" s="46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="E99" s="65" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G99" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H99" s="49" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I99" s="46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="32"/>
       <c r="F100" s="37"/>
       <c r="G100" s="37"/>
       <c r="H100" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I100" s="46"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="32"/>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
       <c r="H101" s="52" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I101" s="46"/>
     </row>
@@ -4083,7 +4081,7 @@
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4095,7 +4093,7 @@
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4107,71 +4105,71 @@
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E105" s="32"/>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
       <c r="H105" s="49" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I105" s="46"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E106" s="32"/>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
       <c r="H106" s="49" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I106" s="46"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="32"/>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
       <c r="H107" s="49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I107" s="46"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C108" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C108" s="12" t="s">
-        <v>102</v>
-      </c>
       <c r="D108" s="24" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E108" s="32"/>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
       <c r="H108" s="52" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I108" s="46"/>
     </row>
@@ -4187,7 +4185,7 @@
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4199,58 +4197,58 @@
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="32" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="F111" s="38" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="G111" s="37"/>
       <c r="H111" s="49" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I111" s="46"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C112" s="70" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E112" s="32" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="37"/>
       <c r="H112" s="49" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="I112" s="46"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E113" s="32" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="37"/>
       <c r="H113" s="49" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="I113" s="46"/>
     </row>
@@ -4266,7 +4264,7 @@
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4278,148 +4276,148 @@
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="71" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C116" s="72" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D116" s="71" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E116" s="73"/>
       <c r="F116" s="74"/>
       <c r="G116" s="80"/>
       <c r="H116" s="90" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I116" s="75"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="71" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C117" s="72" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D117" s="71" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E117" s="73"/>
       <c r="F117" s="74"/>
       <c r="G117" s="74"/>
       <c r="H117" s="90" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I117" s="75"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="71" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C118" s="71" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D118" s="71"/>
       <c r="E118" s="76"/>
       <c r="F118" s="74"/>
       <c r="G118" s="80"/>
       <c r="H118" s="90" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I118" s="75"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="71" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C119" s="77" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D119" s="71"/>
       <c r="E119" s="73"/>
       <c r="F119" s="74"/>
       <c r="G119" s="80"/>
       <c r="H119" s="91" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I119" s="75"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="71" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C120" s="72" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D120" s="78" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E120" s="73"/>
       <c r="F120" s="74"/>
       <c r="G120" s="80"/>
       <c r="H120" s="92" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I120" s="75"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="71" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C121" s="79" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D121" s="79"/>
       <c r="E121" s="73"/>
       <c r="F121" s="80"/>
       <c r="G121" s="80"/>
       <c r="H121" s="93" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I121" s="75"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="79" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C122" s="81" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D122" s="82" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E122" s="73"/>
       <c r="F122" s="80"/>
       <c r="G122" s="80"/>
       <c r="H122" s="94" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I122" s="75"/>
     </row>
     <row r="123" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="79" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C123" s="83" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D123" s="79" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E123" s="73"/>
       <c r="F123" s="87"/>
       <c r="G123" s="87"/>
       <c r="H123" s="94" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I123" s="85"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" s="79" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C124" s="79" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D124" s="79"/>
       <c r="E124" s="73"/>
@@ -4430,93 +4428,93 @@
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" s="79" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C125" s="81" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D125" s="79" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E125" s="73"/>
       <c r="F125" s="80"/>
       <c r="G125" s="88"/>
       <c r="H125" s="93" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I125" s="75"/>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" s="79" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C126" s="81" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D126" s="79" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E126" s="73"/>
       <c r="F126" s="87"/>
       <c r="G126" s="80"/>
       <c r="H126" s="93" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="I126" s="75"/>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" s="79" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C127" s="86" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D127" s="87" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E127" s="73"/>
       <c r="F127" s="88"/>
       <c r="G127" s="80"/>
       <c r="H127" s="95" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I127" s="75"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" s="79" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C128" s="84" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D128" s="79"/>
       <c r="E128" s="73"/>
       <c r="F128" s="88"/>
       <c r="G128" s="80"/>
       <c r="H128" s="95" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I128" s="75"/>
     </row>
     <row r="129" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D129" s="22" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E129" s="32" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="F129" s="37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G129" s="38"/>
       <c r="H129" s="48" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I129" s="46"/>
     </row>
@@ -4529,123 +4527,123 @@
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C131" s="89" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="E131" s="32" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="F131" s="40" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="G131" s="37"/>
       <c r="H131" s="45" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I131" s="46" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="132" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C132" s="14" t="s">
-        <v>138</v>
-      </c>
       <c r="D132" s="22" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
       <c r="H132" s="48" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I132" s="46"/>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E133" s="32"/>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
       <c r="H133" s="45" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I133" s="46"/>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
+        <v>129</v>
+      </c>
+      <c r="C134" s="89" t="s">
+        <v>470</v>
+      </c>
+      <c r="E134" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C134" s="89" t="s">
-        <v>481</v>
-      </c>
-      <c r="E134" s="32" t="s">
-        <v>135</v>
-      </c>
       <c r="F134" s="40" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="G134" s="37"/>
       <c r="H134" s="45" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I134" s="46" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="135" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E135" s="32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
       <c r="H135" s="48" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I135" s="46"/>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C136" s="89" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="E136" s="32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F136" s="40" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="G136" s="37"/>
       <c r="H136" s="45" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I136" s="46" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
@@ -4664,49 +4662,49 @@
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E139" s="32"/>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
       <c r="H139" s="45" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I139" s="46"/>
     </row>
     <row r="140" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E140" s="32"/>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
       <c r="H140" s="47" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I140" s="46"/>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E141" s="32"/>
       <c r="F141" s="37"/>
       <c r="G141" s="41"/>
       <c r="H141" s="45" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I141" s="46"/>
     </row>
@@ -4720,7 +4718,7 @@
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E143" s="32"/>
       <c r="F143" s="37"/>
@@ -4730,86 +4728,86 @@
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E144" s="32"/>
       <c r="F144" s="38"/>
       <c r="G144" s="37"/>
       <c r="H144" s="45" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="I144" s="46"/>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E145" s="32"/>
       <c r="F145" s="38"/>
       <c r="G145" s="37"/>
       <c r="H145" s="49" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I145" s="46"/>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E146" s="32"/>
       <c r="F146" s="38"/>
       <c r="G146" s="37"/>
       <c r="H146" s="49" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="I146" s="46"/>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="32"/>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
       <c r="H147" s="54" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I147" s="46"/>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E148" s="32"/>
       <c r="F148" s="37"/>
       <c r="G148" s="37"/>
       <c r="H148" s="45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I148" s="46"/>
     </row>
@@ -4822,7 +4820,7 @@
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E150" s="32"/>
       <c r="F150" s="37"/>
@@ -4832,85 +4830,85 @@
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C151" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D151" s="23" t="s">
         <v>248</v>
-      </c>
-      <c r="D151" s="23" t="s">
-        <v>251</v>
       </c>
       <c r="E151" s="32"/>
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
       <c r="H151" s="55" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I151" s="46"/>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C152" s="27" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D152" s="23" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="E152" s="32"/>
       <c r="F152" s="37"/>
       <c r="G152" s="37"/>
       <c r="H152" s="45" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I152" s="46"/>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="C153" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D153" s="23" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E153" s="32"/>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
       <c r="H153" s="45" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I153" s="46"/>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="D154" s="29" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E154" s="32"/>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
       <c r="H154" s="45" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I154" s="46"/>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D155" s="29" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E155" s="32"/>
       <c r="F155" s="37"/>
@@ -4920,31 +4918,31 @@
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E156" s="32"/>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
       <c r="H156" s="54" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I156" s="46"/>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C157" s="23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E157" s="32"/>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
       <c r="H157" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I157" s="46"/>
     </row>
@@ -4957,7 +4955,7 @@
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E159" s="32"/>
       <c r="F159" s="37"/>
@@ -4967,313 +4965,313 @@
     </row>
     <row r="160" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E160" s="64" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F160" s="37" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G160" s="37"/>
       <c r="H160" s="47" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I160" s="46"/>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C161" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E161" s="64" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F161" s="40" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G161" s="37"/>
       <c r="H161" s="45" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I161" s="46" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="162" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E162" s="64" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F162" s="37" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G162" s="37"/>
       <c r="H162" s="47" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I162" s="46"/>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C163" s="29" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E163" s="67" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F163" s="59" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G163" s="39" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H163" s="45" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I163" s="46" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="164" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E164" s="68" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F164" s="37" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G164" s="37"/>
       <c r="H164" s="47" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I164" s="46"/>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C165" s="23" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E165" s="67" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F165" s="59" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G165" s="39" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H165" s="45" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I165" s="46" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="166" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E166" s="64" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F166" s="37" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G166" s="37"/>
       <c r="H166" s="47" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I166" s="46"/>
     </row>
     <row r="167" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C167" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E167" s="66" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F167" s="59" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G167" s="39" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H167" s="45" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I167" s="46" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="168" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E168" s="64" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F168" s="37" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G168" s="37"/>
       <c r="H168" s="47" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I168" s="46"/>
     </row>
     <row r="169" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E169" s="66" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F169" s="59" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G169" s="40" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H169" s="48" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I169" s="50" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="170" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E170" s="64" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F170" s="37" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G170" s="37"/>
       <c r="H170" s="47" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I170" s="46"/>
     </row>
     <row r="171" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C171" s="23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E171" s="66" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F171" s="59" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G171" s="40" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H171" s="45" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I171" s="50" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="172" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E172" s="64" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F172" s="37" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G172" s="37"/>
       <c r="H172" s="47" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I172" s="46"/>
     </row>
     <row r="173" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E173" s="69" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F173" s="37" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G173" s="37"/>
       <c r="H173" s="47" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I173" s="46"/>
     </row>
@@ -5286,7 +5284,7 @@
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E175" s="32"/>
       <c r="F175" s="37"/>
@@ -5296,55 +5294,55 @@
     </row>
     <row r="176" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B176" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C176" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C176" s="15" t="s">
-        <v>176</v>
-      </c>
       <c r="D176" s="21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E176" s="64" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F176" s="62" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G176" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H176" s="47" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I176" s="46"/>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
+        <v>171</v>
+      </c>
+      <c r="C177" s="23" t="s">
         <v>174</v>
-      </c>
-      <c r="C177" s="23" t="s">
-        <v>177</v>
       </c>
       <c r="E177" s="32"/>
       <c r="F177" s="37"/>
       <c r="G177" s="37"/>
       <c r="H177" s="45" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I177" s="46"/>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
+        <v>172</v>
+      </c>
+      <c r="C178" s="23" t="s">
         <v>175</v>
-      </c>
-      <c r="C178" s="23" t="s">
-        <v>178</v>
       </c>
       <c r="E178" s="32"/>
       <c r="F178" s="37"/>
       <c r="G178" s="37"/>
       <c r="H178" s="45" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I178" s="46"/>
     </row>
@@ -5357,7 +5355,7 @@
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E180" s="32"/>
       <c r="F180" s="37"/>
@@ -5367,31 +5365,31 @@
     </row>
     <row r="181" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C181" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E181" s="32"/>
       <c r="F181" s="37"/>
       <c r="G181" s="37"/>
       <c r="H181" s="48" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I181" s="46"/>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C182" s="25" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E182" s="32"/>
       <c r="F182" s="37"/>
       <c r="G182" s="37"/>
       <c r="H182" s="53" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I182" s="46"/>
     </row>
@@ -5404,7 +5402,7 @@
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B184" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E184" s="32"/>
       <c r="F184" s="37"/>
@@ -5414,7 +5412,7 @@
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B185" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E185" s="32"/>
       <c r="F185" s="37"/>
@@ -5422,44 +5420,44 @@
       <c r="H185" s="45"/>
       <c r="I185" s="46"/>
     </row>
-    <row r="186" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C186" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E186" s="64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F186" s="38" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="G186" s="37"/>
       <c r="H186" s="45" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I186" s="46"/>
     </row>
     <row r="187" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C187" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E187" s="64" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F187" s="40" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="G187" s="37"/>
       <c r="H187" s="45" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I187" s="50" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.25">
@@ -5471,7 +5469,7 @@
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B189" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E189" s="32"/>
       <c r="F189" s="37"/>
@@ -5481,67 +5479,67 @@
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
+        <v>185</v>
+      </c>
+      <c r="C190" s="23" t="s">
         <v>188</v>
-      </c>
-      <c r="C190" s="23" t="s">
-        <v>191</v>
       </c>
       <c r="E190" s="32"/>
       <c r="F190" s="37"/>
       <c r="G190" s="37"/>
       <c r="H190" s="45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I190" s="46"/>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D191" s="23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E191" s="32"/>
       <c r="F191" s="37"/>
       <c r="G191" s="37"/>
       <c r="H191" s="45" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I191" s="46"/>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C192" s="23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E192" s="32"/>
       <c r="F192" s="37"/>
       <c r="G192" s="37"/>
       <c r="H192" s="45" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I192" s="46"/>
     </row>
     <row r="193" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>288</v>
+        <v>493</v>
       </c>
       <c r="D193" s="22" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="E193" s="32"/>
       <c r="F193" s="37"/>
       <c r="G193" s="37"/>
       <c r="H193" s="48" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I193" s="46"/>
     </row>
@@ -5554,7 +5552,7 @@
     </row>
     <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E195" s="32"/>
       <c r="F195" s="37"/>
@@ -5571,7 +5569,7 @@
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E197" s="32"/>
       <c r="F197" s="37"/>
@@ -5581,34 +5579,34 @@
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C198" s="23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E198" s="32"/>
       <c r="F198" s="37"/>
       <c r="G198" s="37"/>
       <c r="H198" s="45" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I198" s="46"/>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E199" s="32"/>
       <c r="F199" s="37"/>
       <c r="G199" s="37"/>
       <c r="H199" s="45" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I199" s="46"/>
     </row>
@@ -5621,7 +5619,7 @@
     </row>
     <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B201" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E201" s="32"/>
       <c r="F201" s="37"/>
@@ -5631,31 +5629,31 @@
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C202" s="23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E202" s="32"/>
       <c r="F202" s="37"/>
       <c r="G202" s="37"/>
       <c r="H202" s="45" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I202" s="46"/>
     </row>
     <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C203" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E203" s="32"/>
       <c r="F203" s="37"/>
       <c r="G203" s="37"/>
       <c r="H203" s="45" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I203" s="46"/>
     </row>
@@ -5668,7 +5666,7 @@
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B205" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E205" s="32"/>
       <c r="F205" s="37"/>
@@ -5678,76 +5676,76 @@
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
+        <v>203</v>
+      </c>
+      <c r="C206" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="C206" s="23" t="s">
-        <v>209</v>
       </c>
       <c r="E206" s="32"/>
       <c r="F206" s="37"/>
       <c r="G206" s="37"/>
       <c r="H206" s="45" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I206" s="46"/>
     </row>
     <row r="207" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
+        <v>204</v>
+      </c>
+      <c r="C207" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="C207" s="23" t="s">
-        <v>210</v>
-      </c>
       <c r="E207" s="32" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F207" s="37"/>
       <c r="G207" s="37"/>
       <c r="H207" s="45" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I207" s="46"/>
     </row>
     <row r="208" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D208" s="23" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E208" s="64" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F208" s="39" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G208" s="37"/>
       <c r="H208" s="45" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I208" s="46" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="209" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C209" s="23" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E209" s="64" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F209" s="37" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G209" s="37"/>
       <c r="H209" s="45" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I209" s="46"/>
     </row>
@@ -5760,7 +5758,7 @@
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B211" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E211" s="32"/>
       <c r="F211" s="37"/>
@@ -5778,7 +5776,7 @@
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B213" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E213" s="32"/>
       <c r="F213" s="37"/>
@@ -5788,46 +5786,46 @@
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
+        <v>211</v>
+      </c>
+      <c r="C214" s="23" t="s">
         <v>214</v>
-      </c>
-      <c r="C214" s="23" t="s">
-        <v>217</v>
       </c>
       <c r="E214" s="32"/>
       <c r="F214" s="37"/>
       <c r="G214" s="37"/>
       <c r="H214" s="45" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I214" s="46"/>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C215" s="29" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E215" s="32"/>
       <c r="F215" s="37"/>
       <c r="G215" s="37"/>
       <c r="H215" s="45" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I215" s="46"/>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C216" s="23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E216" s="32"/>
       <c r="F216" s="37"/>
       <c r="G216" s="37"/>
       <c r="H216" s="45" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I216" s="46"/>
     </row>
@@ -5840,7 +5838,7 @@
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B218" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E218" s="32"/>
       <c r="F218" s="37"/>
@@ -5850,16 +5848,16 @@
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C219" s="29" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E219" s="32"/>
       <c r="F219" s="37"/>
       <c r="G219" s="37"/>
       <c r="H219" s="45" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I219" s="46"/>
     </row>
@@ -5872,7 +5870,7 @@
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B221" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E221" s="32"/>
       <c r="F221" s="37"/>
@@ -5882,16 +5880,16 @@
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C222" s="23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E222" s="32"/>
       <c r="F222" s="38"/>
       <c r="G222" s="37"/>
       <c r="H222" s="45" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I222" s="46"/>
     </row>
@@ -5904,7 +5902,7 @@
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B224" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E224" s="32"/>
       <c r="F224" s="37"/>
@@ -5914,110 +5912,110 @@
     </row>
     <row r="225" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C225" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E225" s="64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F225" s="38" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="G225" s="37"/>
       <c r="H225" s="45" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I225" s="46"/>
     </row>
     <row r="226" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C226" s="17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D226" s="23" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E226" s="64" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F226" s="40" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="G226" s="37"/>
       <c r="H226" s="45" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I226" s="50" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C227" s="23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E227" s="32"/>
       <c r="F227" s="37"/>
       <c r="G227" s="37"/>
       <c r="H227" s="45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I227" s="46"/>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C228" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E228" s="32"/>
       <c r="F228" s="37"/>
       <c r="G228" s="37"/>
       <c r="H228" s="45" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I228" s="46"/>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C229" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E229" s="64" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F229" s="39" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G229" s="37"/>
       <c r="H229" s="45" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I229" s="46" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="230" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C230" s="23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E230" s="35"/>
       <c r="F230" s="42"/>
       <c r="G230" s="42"/>
       <c r="H230" s="56" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I230" s="57"/>
     </row>

--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09B1E80-540C-48FD-A267-04D31DF285D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780D7A95-C5D3-4CB3-8CAE-5E1409C6AE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="494">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -547,10 +547,6 @@
     <t>&lt;FLAG&gt;</t>
   </si>
   <si>
-    <t>&lt;IS_ACMETH&gt;? &lt;INC_DEC&gt; ? ( ? &lt;UNARY&gt;
-? &lt;CONST&gt;</t>
-  </si>
-  <si>
     <t>typeCast ? not</t>
   </si>
   <si>
@@ -790,9 +786,6 @@
     <t xml:space="preserve"> till ? thru</t>
   </si>
   <si>
-    <t>=  ? ;</t>
-  </si>
-  <si>
     <t>[ ? {</t>
   </si>
   <si>
@@ -1037,10 +1030,6 @@
     <t>&lt;DOT_id&gt; ? F&lt;id_TO_EXPR&gt; ? &lt;OPERAND&gt;</t>
   </si>
   <si>
-    <t>F&lt;DOT_id&gt; ? F&lt;INC_DEC_DOT&gt; ? F&lt;DOT_EXPR&gt; ?
- F&lt;DOT_id3&gt;? F&lt;DOT_ARR&gt; ?F&lt;DOT_id5&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;DOT_id&gt;     </t>
   </si>
   <si>
@@ -1051,9 +1040,6 @@
     <t>&lt;DOT_id2&gt; ? &lt;OPERANDS&gt;</t>
   </si>
   <si>
-    <t>&lt;INC_DEC&gt; ?  &lt;DOT_id2&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;DOT_id2&gt;    </t>
   </si>
   <si>
@@ -1064,12 +1050,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;DOT_id3&gt; ? &lt;SUBSCRIPT&gt; ? &lt;FN_BRACKETS&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;DOT_id3&gt;   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;DOT_id4&gt;   </t>
   </si>
   <si>
     <t>F&lt;EXPR1&gt; ? &lt;id_TO_EXPR&gt; ? &lt;F&gt;</t>
@@ -1094,10 +1074,6 @@
   </si>
   <si>
     <t>pm ? Parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
-floatConst ? charConst ? boolConst ? strConst ? )</t>
-  </si>
-  <si>
-    <t>pm ? Parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
 floatConst ? charConst ? boolConst ? strConst ?  new ? NaN</t>
   </si>
   <si>
@@ -1119,10 +1095,6 @@
 floatConst ? charConst ? boolConst ? strConst</t>
   </si>
   <si>
-    <t>Parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
-floatConst ? charConst ? boolConst ? strConst</t>
-  </si>
-  <si>
     <t>Parent ? Self</t>
   </si>
   <si>
@@ -1168,16 +1140,6 @@
   <si>
     <t xml:space="preserve">power ?  mdm ?  pm ? Rop ? 
 And ? Or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
-  </si>
-  <si>
-    <t>dot ? = ? Cma ? inc_dec ? new? NaN ? power 
-?  mdm ?  pm ? Rop ? And ? Or ? 
-&lt;ASSIGN_EXPR&gt;</t>
-  </si>
-  <si>
-    <t>dot ? = ? Cma ? inc_dec ? new? NaN ? power 
-?  mdm ?  pm ? Rop ? And ? Or ? 
-, ? ;</t>
   </si>
   <si>
     <t xml:space="preserve">power ?  mdm ?  pm ? Rop 
@@ -1389,35 +1351,17 @@
 &lt;ID_TO_EXPR&gt; </t>
   </si>
   <si>
-    <t>dot ? = ? Cma ? inc_dec ? NaN ? power 
-?  mdm ?  pm ? Rop ? And ? Or ? Null</t>
-  </si>
-  <si>
     <t>&lt;DOT_EXPR&gt; ?&lt;SUBSCRIPT&gt; ?
 &lt;FN_BRACKETS&gt;</t>
   </si>
   <si>
-    <t>dot ? = ? Cma ? inc_dec ? NaN ? power 
-?  mdm ?  pm ? Rop ? And ? Or ? Null?
- [ ? (</t>
-  </si>
-  <si>
-    <t>id ? dt ? Str</t>
-  </si>
-  <si>
     <t>&lt;ARR_TYPE&gt;?&lt;VAR_G&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;VAR_G&gt; </t>
   </si>
   <si>
-    <t>&lt;ACCESSMOD&gt;?id</t>
-  </si>
-  <si>
     <t>protected?private?id</t>
-  </si>
-  <si>
-    <t>[ ?protected?private?id</t>
   </si>
   <si>
     <t>def?Class?Abstract?const ?
@@ -1557,26 +1501,84 @@
  Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise?state ? default ? } ?else ? Till?;</t>
   </si>
   <si>
-    <t>if ? shift ? const ? dt ? str?id ? Parent ?
- Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise?state ? default ? } ?else ? Till?;</t>
-  </si>
-  <si>
-    <t>if ? shift ? const ? dt ?str?id ? Parent ?
- Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise?state ? default ? } ?else ? Till?;</t>
-  </si>
-  <si>
     <t xml:space="preserve"> if ? shift ? const ? dt ?str? id ? Parent ? Self ?  
 test ?  loop ? do ? stop ? Ret ? Cont ? raise ? {?;</t>
   </si>
   <si>
     <t>{ ? &lt;MST&gt;</t>
+  </si>
+  <si>
+    <t>=  ? , ?  ;</t>
+  </si>
+  <si>
+    <t>=  ? &lt;LIST_G&gt;</t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ? str?id ? Parent ?
+ Self ?  test ?  loop ? do ? stop ? ret ? cont ? raise?state ? default ? } ?else ? till?;</t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ?str?id ? Parent ?
+ Self ?  test ?  loop ? do ? stop ? ret ? cont ? raise?state ? default ? } ?else ? till?;</t>
+  </si>
+  <si>
+    <t>&lt;SUBSCRIPT&gt; ? Null</t>
+  </si>
+  <si>
+    <t>pm ? Parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
+floatConst ? charConst ? boolConst ? strConst ?  new ? NaN ? )</t>
+  </si>
+  <si>
+    <t>&lt;INC_DEC&gt; ?  &lt;DOT_ID2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;IS_ACMETH&gt;? &lt;INC_DEC&gt; ? ( ? &lt;UNARY&gt;
+? &lt;CONST&gt; ? &lt;FLAG&gt;</t>
+  </si>
+  <si>
+    <t>Parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
+floatConst ? charConst ? boolConst ? strConst ? pm</t>
+  </si>
+  <si>
+    <t>F&lt;DOT_id&gt; ? F&lt;INC_DEC_DOT&gt; ? F&lt;DOT_EXPR&gt; ?
+ F&lt;DOT_ID3&gt;? F&lt;DOT_ARR&gt; ?F&lt;DOT_ID5&gt;</t>
+  </si>
+  <si>
+    <t>dot ? = ? Cma ? inc_dec ? power 
+?  mdm ?  pm ? Rop ? And ? Or ? Null</t>
+  </si>
+  <si>
+    <t>dot ? = ? Cma ? inc_dec  ? power 
+?  mdm ?  pm ? Rop ? And ? Or ? Null?
+ [ ? (</t>
+  </si>
+  <si>
+    <t>dot ? = ? Cma ? inc_dec ? power 
+?  mdm ?  pm ? Rop ? And ? Or ? Null?
+ [ ? (</t>
+  </si>
+  <si>
+    <t>dot ? = ? Cma ? inc_dec ?  power 
+?  mdm ?  pm ? Rop ? And ? Or ? 
+&lt;ASSIGN_EXPR&gt;</t>
+  </si>
+  <si>
+    <t>dot ? = ? Cma ? inc_dec ? power 
+?  mdm ?  pm ? Rop ? And ? Or ? 
+, ? ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DOT_ID4&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;DOT_ID3&gt;   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1632,8 +1634,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1674,7 +1683,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -1858,7 +1877,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1866,9 +1885,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1876,7 +1897,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1938,6 +1958,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2025,68 +2046,75 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="7" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="8" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="9"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
-    <cellStyle name="Accent2" xfId="7" builtinId="33"/>
+    <cellStyle name="Accent2" xfId="8" builtinId="33"/>
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
+    <cellStyle name="Accent6" xfId="9" builtinId="49"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2368,10 +2396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I230"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2395,26 +2423,26 @@
         <v>1</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E1" s="63" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1"/>
@@ -2429,14 +2457,14 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>423</v>
+      <c r="C3" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>413</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
@@ -2444,79 +2472,79 @@
         <v>18</v>
       </c>
       <c r="I3" s="46" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>482</v>
+      <c r="C4" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>467</v>
       </c>
       <c r="E4" s="64" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G4" s="37"/>
       <c r="H4" s="47" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>453</v>
+      <c r="C5" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>438</v>
       </c>
       <c r="E5" s="64" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G5" s="37"/>
       <c r="H5" s="47" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>449</v>
+      <c r="C6" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>434</v>
       </c>
       <c r="E6" s="64" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G6" s="37"/>
       <c r="H6" s="47" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -2540,7 +2568,7 @@
       <c r="I8" s="46"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1"/>
@@ -2555,23 +2583,23 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>466</v>
+      <c r="C10" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>451</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="I10" s="46"/>
     </row>
@@ -2584,7 +2612,7 @@
       <c r="I11" s="46"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="32"/>
@@ -2597,21 +2625,21 @@
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>485</v>
+      <c r="C13" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>470</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="48" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="I13" s="46"/>
     </row>
@@ -2619,24 +2647,24 @@
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>486</v>
+      <c r="C14" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>471</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="48" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -2650,7 +2678,7 @@
       <c r="I15" s="46"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1"/>
@@ -2665,15 +2693,15 @@
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>424</v>
+      <c r="C17" s="19" t="s">
+        <v>414</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="32"/>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="49" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="I17" s="46"/>
     </row>
@@ -2688,7 +2716,7 @@
       <c r="I18" s="46"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="1"/>
@@ -2703,7 +2731,7 @@
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="1"/>
@@ -2719,7 +2747,7 @@
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="1"/>
@@ -2735,31 +2763,31 @@
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>259</v>
+      <c r="C22" s="19" t="s">
+        <v>257</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="32"/>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="49" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I22" s="46"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>258</v>
+        <v>415</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>256</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="32"/>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
       <c r="H23" s="49" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I23" s="46"/>
     </row>
@@ -2774,7 +2802,7 @@
       <c r="I24" s="46"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="1"/>
@@ -2789,15 +2817,15 @@
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>362</v>
+      <c r="C26" s="29" t="s">
+        <v>354</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="32"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="H26" s="49" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="I26" s="46"/>
     </row>
@@ -2805,15 +2833,15 @@
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>233</v>
+      <c r="C27" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="32"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
       <c r="H27" s="49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I27" s="46"/>
     </row>
@@ -2821,15 +2849,15 @@
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="49" t="s">
@@ -2841,37 +2869,37 @@
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>232</v>
+      <c r="C29" s="19" t="s">
+        <v>231</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="65" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="49" t="s">
         <v>26</v>
       </c>
       <c r="I29" s="46" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>358</v>
+      <c r="C30" s="19" t="s">
+        <v>350</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="32"/>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
       <c r="H30" s="49" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="I30" s="46"/>
     </row>
@@ -2886,8 +2914,8 @@
       <c r="I31" s="46"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
-        <v>261</v>
+      <c r="B32" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2901,22 +2929,22 @@
       <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="64" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F33" s="58" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G33" s="37"/>
       <c r="H33" s="49" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="I33" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -2950,7 +2978,7 @@
       <c r="I36" s="46"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C37" s="1"/>
@@ -2965,7 +2993,7 @@
       <c r="B38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D38" s="1"/>
@@ -2981,7 +3009,7 @@
       <c r="B39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="1"/>
@@ -2997,17 +3025,17 @@
       <c r="B40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>363</v>
+      <c r="C40" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>355</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
       <c r="H40" s="49" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="I40" s="46"/>
     </row>
@@ -3015,7 +3043,7 @@
       <c r="B41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="1"/>
@@ -3029,19 +3057,19 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C42" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="30" t="s">
-        <v>364</v>
+      <c r="D42" s="29" t="s">
+        <v>356</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
       <c r="H42" s="49" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="I42" s="46"/>
     </row>
@@ -3059,17 +3087,17 @@
       <c r="B44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>325</v>
+      <c r="C44" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>323</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
       <c r="H44" s="49" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I44" s="46"/>
     </row>
@@ -3077,23 +3105,23 @@
       <c r="B45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>326</v>
+      <c r="C45" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="E45" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="18" t="s">
-        <v>287</v>
+      <c r="F45" s="17" t="s">
+        <v>285</v>
       </c>
       <c r="G45" s="39" t="s">
         <v>35</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="I45" s="46" t="s">
         <v>35</v>
@@ -3110,7 +3138,7 @@
       <c r="I46" s="46"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C47" s="1"/>
@@ -3125,7 +3153,7 @@
       <c r="B48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D48" s="1"/>
@@ -3141,53 +3169,53 @@
       <c r="B49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>240</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
       <c r="H49" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I49" s="46"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C50" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="20" t="s">
-        <v>366</v>
+      <c r="D50" s="19" t="s">
+        <v>358</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
       <c r="H50" s="49" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I50" s="46"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>367</v>
+      <c r="D51" s="19" t="s">
+        <v>359</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
       <c r="H51" s="49" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="I51" s="46"/>
     </row>
@@ -3195,41 +3223,41 @@
       <c r="B52" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>366</v>
+      <c r="C52" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>358</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
       <c r="H52" s="49" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I52" s="46"/>
     </row>
     <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>368</v>
+        <v>243</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>360</v>
       </c>
       <c r="E53" s="64" t="s">
-        <v>288</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>285</v>
       </c>
       <c r="G53" s="39" t="s">
         <v>35</v>
       </c>
       <c r="H53" s="49" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="I53" s="46" t="s">
         <v>35</v>
@@ -3239,15 +3267,15 @@
       <c r="B54" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="20" t="s">
-        <v>369</v>
+      <c r="C54" s="19" t="s">
+        <v>361</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="32"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
       <c r="H54" s="49" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I54" s="46"/>
     </row>
@@ -3262,7 +3290,7 @@
       <c r="I55" s="46"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C56" s="1"/>
@@ -3277,17 +3305,17 @@
       <c r="B57" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="20" t="s">
-        <v>236</v>
+      <c r="D57" s="19" t="s">
+        <v>235</v>
       </c>
       <c r="E57" s="32"/>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
       <c r="H57" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I57" s="46"/>
     </row>
@@ -3295,17 +3323,17 @@
       <c r="B58" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>365</v>
+      <c r="C58" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>357</v>
       </c>
       <c r="E58" s="32"/>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
       <c r="H58" s="45" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="I58" s="46"/>
     </row>
@@ -3313,15 +3341,15 @@
       <c r="B59" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="20" t="s">
-        <v>230</v>
+      <c r="C59" s="19" t="s">
+        <v>229</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="32"/>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
       <c r="H59" s="49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I59" s="46"/>
     </row>
@@ -3329,27 +3357,27 @@
       <c r="B60" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="19" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="33" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
       <c r="H60" s="49" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="I60" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="19" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="1"/>
@@ -3359,7 +3387,7 @@
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
       <c r="H61" s="49" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="I61" s="46" t="s">
         <v>35</v>
@@ -3369,7 +3397,7 @@
       <c r="B62" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="1"/>
@@ -3385,7 +3413,7 @@
       <c r="B63" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D63" s="1"/>
@@ -3407,8 +3435,8 @@
       <c r="H64" s="45"/>
       <c r="I64" s="46"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="10" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C65" s="1"/>
@@ -3419,47 +3447,47 @@
       <c r="H65" s="45"/>
       <c r="I65" s="46"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D66" s="20" t="s">
-        <v>246</v>
+      <c r="D66" s="19" t="s">
+        <v>245</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
       <c r="H66" s="49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I66" s="46"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="20" t="s">
-        <v>247</v>
+      <c r="D67" s="19" t="s">
+        <v>246</v>
       </c>
       <c r="E67" s="64" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F67" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G67" s="37"/>
       <c r="H67" s="49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I67" s="46"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3469,9 +3497,9 @@
       <c r="H68" s="45"/>
       <c r="I68" s="46"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="10" t="s">
-        <v>329</v>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3481,9 +3509,9 @@
       <c r="H69" s="45"/>
       <c r="I69" s="46"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
-        <v>330</v>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="9" t="s">
+        <v>328</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3493,81 +3521,86 @@
       <c r="H70" s="45"/>
       <c r="I70" s="46"/>
     </row>
-    <row r="71" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="30"/>
       <c r="B71" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>290</v>
+      <c r="C71" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>288</v>
       </c>
       <c r="E71" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F71" s="59" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G71" s="40" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H71" s="47" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="I71" s="50" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="30"/>
       <c r="B72" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="66" t="s">
-        <v>333</v>
+        <v>486</v>
       </c>
       <c r="F72" s="60" t="s">
-        <v>373</v>
-      </c>
-      <c r="G72" s="37" t="s">
-        <v>374</v>
+        <v>490</v>
+      </c>
+      <c r="G72" s="38" t="s">
+        <v>491</v>
       </c>
       <c r="H72" s="49" t="s">
         <v>26</v>
       </c>
       <c r="I72" s="46"/>
     </row>
-    <row r="73" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73" s="30"/>
       <c r="B73" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D73" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C73" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="D73" s="1"/>
       <c r="E73" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>374</v>
+        <v>305</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>491</v>
       </c>
       <c r="G73" s="37"/>
       <c r="H73" s="47" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="I73" s="50" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D74" s="1"/>
@@ -3579,29 +3612,29 @@
       </c>
       <c r="I74" s="46"/>
     </row>
-    <row r="75" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D75" s="22" t="s">
-        <v>350</v>
+      <c r="D75" s="21" t="s">
+        <v>482</v>
       </c>
       <c r="E75" s="32"/>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
       <c r="H75" s="48" t="s">
-        <v>350</v>
+        <v>482</v>
       </c>
       <c r="I75" s="46"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D76" s="1"/>
@@ -3613,43 +3646,45 @@
       </c>
       <c r="I76" s="46"/>
     </row>
-    <row r="77" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D77" s="21" t="s">
-        <v>351</v>
+      <c r="D77" s="20" t="s">
+        <v>344</v>
       </c>
       <c r="E77" s="64" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F77" s="37" t="s">
         <v>38</v>
       </c>
       <c r="G77" s="37"/>
       <c r="H77" s="47" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="I77" s="46"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>262</v>
+        <v>331</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>260</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="32"/>
       <c r="F78" s="37"/>
       <c r="G78" s="37"/>
-      <c r="H78" s="45"/>
+      <c r="H78" s="45" t="s">
+        <v>260</v>
+      </c>
       <c r="I78" s="46"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3659,9 +3694,9 @@
       <c r="H79" s="45"/>
       <c r="I79" s="46"/>
     </row>
-    <row r="80" spans="2:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="B80" s="11" t="s">
-        <v>335</v>
+    <row r="80" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="B80" s="10" t="s">
+        <v>332</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3671,75 +3706,78 @@
       <c r="H80" s="45"/>
       <c r="I80" s="46"/>
     </row>
-    <row r="81" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="30"/>
       <c r="B81" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C81" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>270</v>
+      <c r="C81" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>268</v>
       </c>
       <c r="E81" s="64" t="s">
-        <v>336</v>
-      </c>
-      <c r="F81" s="18" t="s">
-        <v>312</v>
+        <v>333</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>310</v>
       </c>
       <c r="G81" s="40" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="H81" s="51" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="I81" s="50" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="30"/>
       <c r="B82" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C82" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D82" s="24" t="s">
-        <v>272</v>
+      <c r="C82" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>270</v>
       </c>
       <c r="E82" s="64" t="s">
-        <v>311</v>
-      </c>
-      <c r="F82" s="18" t="s">
-        <v>311</v>
+        <v>309</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>309</v>
       </c>
       <c r="G82" s="37"/>
       <c r="H82" s="52" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I82" s="46"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="30"/>
       <c r="B83" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>271</v>
+        <v>334</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>269</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="64" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F83" s="61" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G83" s="37"/>
       <c r="H83" s="49" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I83" s="46"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3749,8 +3787,8 @@
       <c r="H84" s="45"/>
       <c r="I84" s="46"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="10" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C85" s="1"/>
@@ -3761,8 +3799,8 @@
       <c r="H85" s="45"/>
       <c r="I85" s="46"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="8" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C86" s="1"/>
@@ -3773,93 +3811,93 @@
       <c r="H86" s="45"/>
       <c r="I86" s="46"/>
     </row>
-    <row r="87" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C87" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>468</v>
+      <c r="C87" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>453</v>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="38"/>
       <c r="G87" s="37"/>
       <c r="H87" s="49" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="I87" s="46"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="20" t="s">
-        <v>268</v>
+      <c r="D88" s="19" t="s">
+        <v>266</v>
       </c>
       <c r="E88" s="32"/>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
       <c r="H88" s="49" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I88" s="46"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="20"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="19"/>
       <c r="E89" s="32"/>
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
       <c r="H89" s="49"/>
       <c r="I89" s="46"/>
     </row>
-    <row r="90" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C90" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>463</v>
+      <c r="C90" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>448</v>
       </c>
       <c r="E90" s="34"/>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
       <c r="H90" s="47" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="I90" s="46"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C91" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>339</v>
+      <c r="C91" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>335</v>
       </c>
       <c r="E91" s="32"/>
       <c r="F91" s="38"/>
       <c r="G91" s="37"/>
       <c r="H91" s="49" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I91" s="46"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="C92" s="23" t="s">
         <v>87</v>
       </c>
       <c r="D92" s="1"/>
@@ -3869,179 +3907,183 @@
       <c r="H92" s="45"/>
       <c r="I92" s="46"/>
     </row>
-    <row r="93" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D93" s="22" t="s">
-        <v>376</v>
+      <c r="D93" s="21" t="s">
+        <v>366</v>
       </c>
       <c r="E93" s="65" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="F93" s="37" t="s">
         <v>91</v>
       </c>
       <c r="G93" s="37"/>
       <c r="H93" s="48" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="I93" s="46"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C94" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D94" s="20" t="s">
-        <v>352</v>
+      <c r="D94" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F94" s="37"/>
       <c r="G94" s="37"/>
       <c r="H94" s="49" t="s">
-        <v>353</v>
-      </c>
-      <c r="I94" s="46"/>
-    </row>
-    <row r="95" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="I94" s="46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C95" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D95" s="25" t="s">
-        <v>263</v>
+      <c r="C95" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>261</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F95" s="37" t="s">
         <v>91</v>
       </c>
       <c r="G95" s="37"/>
       <c r="H95" s="53" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I95" s="46"/>
     </row>
-    <row r="96" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="98"/>
       <c r="B96" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C96" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>442</v>
+      <c r="C96" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>488</v>
       </c>
       <c r="E96" s="64" t="s">
-        <v>292</v>
-      </c>
-      <c r="F96" s="18" t="s">
-        <v>293</v>
+        <v>290</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>291</v>
       </c>
       <c r="G96" s="39" t="s">
         <v>91</v>
       </c>
       <c r="H96" s="47" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="I96" s="46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="98"/>
       <c r="B97" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C97" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="D97" s="21" t="s">
-        <v>440</v>
+      <c r="C97" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>487</v>
       </c>
       <c r="E97" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="F97" s="17" t="s">
         <v>291</v>
-      </c>
-      <c r="F97" s="18" t="s">
-        <v>293</v>
       </c>
       <c r="G97" s="39" t="s">
         <v>91</v>
       </c>
       <c r="H97" s="47" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="I97" s="46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C98" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>377</v>
+      <c r="C98" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="E98" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="F98" s="17" t="s">
         <v>291</v>
-      </c>
-      <c r="F98" s="18" t="s">
-        <v>293</v>
       </c>
       <c r="G98" s="39" t="s">
         <v>91</v>
       </c>
       <c r="H98" s="47" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="I98" s="46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C99" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C99" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D99" s="21" t="s">
-        <v>469</v>
+      <c r="D99" s="20" t="s">
+        <v>454</v>
       </c>
       <c r="E99" s="65" t="s">
-        <v>294</v>
-      </c>
-      <c r="F99" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>293</v>
       </c>
       <c r="G99" s="39" t="s">
         <v>91</v>
       </c>
       <c r="H99" s="49" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="I99" s="46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="19" t="s">
         <v>91</v>
       </c>
       <c r="D100" s="1"/>
@@ -4053,11 +4095,11 @@
       </c>
       <c r="I100" s="46"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="C101" s="23" t="s">
         <v>92</v>
       </c>
       <c r="D101" s="1"/>
@@ -4069,7 +4111,7 @@
       </c>
       <c r="I101" s="46"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -4079,8 +4121,8 @@
       <c r="H102" s="45"/>
       <c r="I102" s="46"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="10" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C103" s="1"/>
@@ -4091,8 +4133,8 @@
       <c r="H103" s="45"/>
       <c r="I103" s="46"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="8" t="s">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C104" s="1"/>
@@ -4103,47 +4145,47 @@
       <c r="H104" s="45"/>
       <c r="I104" s="46"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C105" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>264</v>
+      <c r="C105" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>262</v>
       </c>
       <c r="E105" s="32"/>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
       <c r="H105" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I105" s="46"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C106" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C106" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D106" s="20" t="s">
-        <v>265</v>
+      <c r="D106" s="19" t="s">
+        <v>263</v>
       </c>
       <c r="E106" s="32"/>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
       <c r="H106" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I106" s="46"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C107" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="C107" s="19" t="s">
         <v>98</v>
       </c>
       <c r="D107" s="1"/>
@@ -4155,25 +4197,25 @@
       </c>
       <c r="I107" s="46"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C108" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D108" s="24" t="s">
-        <v>266</v>
+      <c r="D108" s="23" t="s">
+        <v>264</v>
       </c>
       <c r="E108" s="32"/>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
       <c r="H108" s="52" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I108" s="46"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4183,8 +4225,8 @@
       <c r="H109" s="45"/>
       <c r="I109" s="46"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="10" t="s">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="9" t="s">
         <v>100</v>
       </c>
       <c r="C110" s="1"/>
@@ -4195,19 +4237,19 @@
       <c r="H110" s="45"/>
       <c r="I110" s="46"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="19" t="s">
         <v>103</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="32" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="F111" s="38" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="G111" s="37"/>
       <c r="H111" s="49" t="s">
@@ -4215,12 +4257,12 @@
       </c>
       <c r="I111" s="46"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C112" s="70" t="s">
-        <v>457</v>
+      <c r="C112" s="71" t="s">
+        <v>442</v>
       </c>
       <c r="E112" s="32" t="s">
         <v>101</v>
@@ -4228,19 +4270,19 @@
       <c r="F112" s="38"/>
       <c r="G112" s="37"/>
       <c r="H112" s="49" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="I112" s="46"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C113" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C113" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D113" s="20" t="s">
-        <v>459</v>
+      <c r="D113" s="19" t="s">
+        <v>444</v>
       </c>
       <c r="E113" s="32" t="s">
         <v>102</v>
@@ -4248,7 +4290,7 @@
       <c r="F113" s="38"/>
       <c r="G113" s="37"/>
       <c r="H113" s="49" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="I113" s="46"/>
     </row>
@@ -4263,7 +4305,7 @@
       <c r="I114" s="46"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C115" s="1"/>
@@ -4275,246 +4317,246 @@
       <c r="I115" s="46"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="71" t="s">
+      <c r="B116" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="C116" s="72" t="s">
+      <c r="C116" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D116" s="71" t="s">
+      <c r="D116" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="E116" s="73"/>
-      <c r="F116" s="74"/>
-      <c r="G116" s="80"/>
-      <c r="H116" s="90" t="s">
+      <c r="E116" s="74"/>
+      <c r="F116" s="75"/>
+      <c r="G116" s="81"/>
+      <c r="H116" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="I116" s="75"/>
+      <c r="I116" s="76"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="71" t="s">
+      <c r="B117" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="C117" s="72" t="s">
+      <c r="C117" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D117" s="71" t="s">
+      <c r="D117" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="E117" s="73"/>
-      <c r="F117" s="74"/>
-      <c r="G117" s="74"/>
-      <c r="H117" s="90" t="s">
+      <c r="E117" s="74"/>
+      <c r="F117" s="75"/>
+      <c r="G117" s="75"/>
+      <c r="H117" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="I117" s="75"/>
+      <c r="I117" s="76"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="71" t="s">
+      <c r="B118" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="C118" s="71" t="s">
+      <c r="C118" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="D118" s="71"/>
-      <c r="E118" s="76"/>
-      <c r="F118" s="74"/>
-      <c r="G118" s="80"/>
-      <c r="H118" s="90" t="s">
+      <c r="D118" s="72"/>
+      <c r="E118" s="77"/>
+      <c r="F118" s="75"/>
+      <c r="G118" s="81"/>
+      <c r="H118" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="I118" s="75"/>
+      <c r="I118" s="76"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="71" t="s">
+      <c r="B119" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C119" s="77" t="s">
+      <c r="C119" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="D119" s="71"/>
-      <c r="E119" s="73"/>
-      <c r="F119" s="74"/>
-      <c r="G119" s="80"/>
-      <c r="H119" s="91" t="s">
+      <c r="D119" s="72"/>
+      <c r="E119" s="74"/>
+      <c r="F119" s="75"/>
+      <c r="G119" s="81"/>
+      <c r="H119" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="I119" s="75"/>
+      <c r="I119" s="76"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="71" t="s">
+      <c r="B120" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="C120" s="72" t="s">
+      <c r="C120" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="D120" s="78" t="s">
-        <v>256</v>
-      </c>
-      <c r="E120" s="73"/>
-      <c r="F120" s="74"/>
-      <c r="G120" s="80"/>
-      <c r="H120" s="92" t="s">
-        <v>256</v>
-      </c>
-      <c r="I120" s="75"/>
+      <c r="D120" s="79" t="s">
+        <v>254</v>
+      </c>
+      <c r="E120" s="74"/>
+      <c r="F120" s="75"/>
+      <c r="G120" s="81"/>
+      <c r="H120" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="I120" s="76"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="71" t="s">
+      <c r="B121" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="C121" s="79" t="s">
-        <v>255</v>
-      </c>
-      <c r="D121" s="79"/>
-      <c r="E121" s="73"/>
-      <c r="F121" s="80"/>
-      <c r="G121" s="80"/>
-      <c r="H121" s="93" t="s">
-        <v>255</v>
-      </c>
-      <c r="I121" s="75"/>
+      <c r="C121" s="80" t="s">
+        <v>253</v>
+      </c>
+      <c r="D121" s="80"/>
+      <c r="E121" s="74"/>
+      <c r="F121" s="81"/>
+      <c r="G121" s="81"/>
+      <c r="H121" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="I121" s="76"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B122" s="79" t="s">
+      <c r="B122" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="C122" s="81" t="s">
+      <c r="C122" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="D122" s="82" t="s">
-        <v>256</v>
-      </c>
-      <c r="E122" s="73"/>
-      <c r="F122" s="80"/>
-      <c r="G122" s="80"/>
-      <c r="H122" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="I122" s="75"/>
+      <c r="D122" s="83" t="s">
+        <v>254</v>
+      </c>
+      <c r="E122" s="74"/>
+      <c r="F122" s="81"/>
+      <c r="G122" s="81"/>
+      <c r="H122" s="95" t="s">
+        <v>254</v>
+      </c>
+      <c r="I122" s="76"/>
     </row>
     <row r="123" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B123" s="79" t="s">
+      <c r="B123" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="C123" s="83" t="s">
-        <v>436</v>
-      </c>
-      <c r="D123" s="79" t="s">
-        <v>435</v>
-      </c>
-      <c r="E123" s="73"/>
-      <c r="F123" s="87"/>
-      <c r="G123" s="87"/>
-      <c r="H123" s="94" t="s">
-        <v>434</v>
-      </c>
-      <c r="I123" s="85"/>
+      <c r="C123" s="84" t="s">
+        <v>426</v>
+      </c>
+      <c r="D123" s="80" t="s">
+        <v>425</v>
+      </c>
+      <c r="E123" s="74"/>
+      <c r="F123" s="88"/>
+      <c r="G123" s="88"/>
+      <c r="H123" s="95" t="s">
+        <v>424</v>
+      </c>
+      <c r="I123" s="86"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="79" t="s">
+      <c r="B124" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="C124" s="79" t="s">
-        <v>262</v>
-      </c>
-      <c r="D124" s="79"/>
-      <c r="E124" s="73"/>
-      <c r="F124" s="80"/>
-      <c r="G124" s="88"/>
-      <c r="H124" s="93"/>
-      <c r="I124" s="75"/>
+      <c r="C124" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="D124" s="80"/>
+      <c r="E124" s="74"/>
+      <c r="F124" s="81"/>
+      <c r="G124" s="89"/>
+      <c r="H124" s="94"/>
+      <c r="I124" s="76"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B125" s="79" t="s">
-        <v>426</v>
-      </c>
-      <c r="C125" s="81" t="s">
-        <v>427</v>
-      </c>
-      <c r="D125" s="79" t="s">
-        <v>428</v>
-      </c>
-      <c r="E125" s="73"/>
-      <c r="F125" s="80"/>
-      <c r="G125" s="88"/>
-      <c r="H125" s="93" t="s">
-        <v>428</v>
-      </c>
-      <c r="I125" s="75"/>
+      <c r="B125" s="80" t="s">
+        <v>416</v>
+      </c>
+      <c r="C125" s="82" t="s">
+        <v>417</v>
+      </c>
+      <c r="D125" s="80" t="s">
+        <v>418</v>
+      </c>
+      <c r="E125" s="74"/>
+      <c r="F125" s="81"/>
+      <c r="G125" s="89"/>
+      <c r="H125" s="94" t="s">
+        <v>418</v>
+      </c>
+      <c r="I125" s="76"/>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B126" s="79" t="s">
+      <c r="B126" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="C126" s="81" t="s">
-        <v>432</v>
-      </c>
-      <c r="D126" s="79" t="s">
-        <v>433</v>
-      </c>
-      <c r="E126" s="73"/>
-      <c r="F126" s="87"/>
-      <c r="G126" s="80"/>
-      <c r="H126" s="93" t="s">
-        <v>433</v>
-      </c>
-      <c r="I126" s="75"/>
+      <c r="C126" s="82" t="s">
+        <v>422</v>
+      </c>
+      <c r="D126" s="80" t="s">
+        <v>423</v>
+      </c>
+      <c r="E126" s="74"/>
+      <c r="F126" s="88"/>
+      <c r="G126" s="81"/>
+      <c r="H126" s="94" t="s">
+        <v>423</v>
+      </c>
+      <c r="I126" s="76"/>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="79" t="s">
+      <c r="B127" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="C127" s="86" t="s">
-        <v>430</v>
-      </c>
-      <c r="D127" s="87" t="s">
-        <v>431</v>
-      </c>
-      <c r="E127" s="73"/>
-      <c r="F127" s="88"/>
-      <c r="G127" s="80"/>
-      <c r="H127" s="95" t="s">
-        <v>431</v>
-      </c>
-      <c r="I127" s="75"/>
+      <c r="C127" s="87" t="s">
+        <v>420</v>
+      </c>
+      <c r="D127" s="88" t="s">
+        <v>421</v>
+      </c>
+      <c r="E127" s="74"/>
+      <c r="F127" s="89"/>
+      <c r="G127" s="81"/>
+      <c r="H127" s="96" t="s">
+        <v>421</v>
+      </c>
+      <c r="I127" s="76"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="79" t="s">
-        <v>429</v>
-      </c>
-      <c r="C128" s="84" t="s">
+      <c r="B128" s="80" t="s">
+        <v>419</v>
+      </c>
+      <c r="C128" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="D128" s="79"/>
-      <c r="E128" s="73"/>
-      <c r="F128" s="88"/>
-      <c r="G128" s="80"/>
-      <c r="H128" s="95" t="s">
+      <c r="D128" s="80"/>
+      <c r="E128" s="74"/>
+      <c r="F128" s="89"/>
+      <c r="G128" s="81"/>
+      <c r="H128" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="I128" s="75"/>
+      <c r="I128" s="76"/>
     </row>
     <row r="129" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>117</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="C129" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D129" s="22" t="s">
-        <v>354</v>
+      <c r="D129" s="21" t="s">
+        <v>347</v>
       </c>
       <c r="E129" s="32" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="F129" s="37" t="s">
         <v>102</v>
       </c>
       <c r="G129" s="38"/>
       <c r="H129" s="48" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I129" s="46"/>
     </row>
@@ -4529,32 +4571,32 @@
       <c r="B131" t="s">
         <v>131</v>
       </c>
-      <c r="C131" s="89" t="s">
-        <v>470</v>
+      <c r="C131" s="90" t="s">
+        <v>455</v>
       </c>
       <c r="E131" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="F131" s="40" t="s">
-        <v>474</v>
+        <v>456</v>
+      </c>
+      <c r="F131" s="97" t="s">
+        <v>459</v>
       </c>
       <c r="G131" s="37"/>
       <c r="H131" s="45" t="s">
         <v>26</v>
       </c>
       <c r="I131" s="46" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
     </row>
     <row r="132" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>132</v>
       </c>
-      <c r="C132" s="14" t="s">
+      <c r="C132" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D132" s="22" t="s">
-        <v>354</v>
+      <c r="D132" s="21" t="s">
+        <v>347</v>
       </c>
       <c r="E132" s="32" t="s">
         <v>131</v>
@@ -4562,7 +4604,7 @@
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
       <c r="H132" s="48" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I132" s="46"/>
     </row>
@@ -4570,17 +4612,17 @@
       <c r="B133" t="s">
         <v>133</v>
       </c>
-      <c r="C133" s="14" t="s">
+      <c r="C133" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D133" s="23" t="s">
-        <v>254</v>
+      <c r="D133" s="22" t="s">
+        <v>252</v>
       </c>
       <c r="E133" s="32"/>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
       <c r="H133" s="45" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I133" s="46"/>
     </row>
@@ -4588,32 +4630,32 @@
       <c r="B134" t="s">
         <v>129</v>
       </c>
-      <c r="C134" s="89" t="s">
-        <v>470</v>
+      <c r="C134" s="90" t="s">
+        <v>455</v>
       </c>
       <c r="E134" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="F134" s="40" t="s">
-        <v>474</v>
+      <c r="F134" s="97" t="s">
+        <v>459</v>
       </c>
       <c r="G134" s="37"/>
       <c r="H134" s="45" t="s">
         <v>26</v>
       </c>
       <c r="I134" s="46" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
     </row>
     <row r="135" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>134</v>
       </c>
-      <c r="C135" s="14" t="s">
+      <c r="C135" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D135" s="22" t="s">
-        <v>354</v>
+      <c r="D135" s="21" t="s">
+        <v>347</v>
       </c>
       <c r="E135" s="32" t="s">
         <v>129</v>
@@ -4621,7 +4663,7 @@
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
       <c r="H135" s="48" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I135" s="46"/>
     </row>
@@ -4629,21 +4671,21 @@
       <c r="B136" t="s">
         <v>130</v>
       </c>
-      <c r="C136" s="89" t="s">
-        <v>470</v>
+      <c r="C136" s="90" t="s">
+        <v>455</v>
       </c>
       <c r="E136" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="F136" s="40" t="s">
-        <v>474</v>
+      <c r="F136" s="97" t="s">
+        <v>459</v>
       </c>
       <c r="G136" s="37"/>
       <c r="H136" s="45" t="s">
         <v>26</v>
       </c>
       <c r="I136" s="46" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
@@ -4664,7 +4706,7 @@
       <c r="B139" t="s">
         <v>118</v>
       </c>
-      <c r="C139" s="23" t="s">
+      <c r="C139" s="22" t="s">
         <v>126</v>
       </c>
       <c r="E139" s="32"/>
@@ -4679,17 +4721,17 @@
       <c r="B140" t="s">
         <v>119</v>
       </c>
-      <c r="C140" s="14" t="s">
+      <c r="C140" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D140" s="21" t="s">
-        <v>355</v>
+      <c r="D140" s="20" t="s">
+        <v>348</v>
       </c>
       <c r="E140" s="32"/>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
       <c r="H140" s="47" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="I140" s="46"/>
     </row>
@@ -4697,7 +4739,7 @@
       <c r="B141" t="s">
         <v>120</v>
       </c>
-      <c r="C141" s="23" t="s">
+      <c r="C141" s="22" t="s">
         <v>128</v>
       </c>
       <c r="E141" s="32"/>
@@ -4709,7 +4751,7 @@
       <c r="I141" s="46"/>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B142" s="4"/>
+      <c r="B142" s="3"/>
       <c r="E142" s="32"/>
       <c r="F142" s="37"/>
       <c r="G142" s="37"/>
@@ -4717,7 +4759,7 @@
       <c r="I142" s="46"/>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="6" t="s">
         <v>136</v>
       </c>
       <c r="E143" s="32"/>
@@ -4730,17 +4772,17 @@
       <c r="B144" t="s">
         <v>137</v>
       </c>
-      <c r="C144" s="14" t="s">
+      <c r="C144" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D144" s="23" t="s">
-        <v>362</v>
+      <c r="D144" s="22" t="s">
+        <v>354</v>
       </c>
       <c r="E144" s="32"/>
       <c r="F144" s="38"/>
       <c r="G144" s="37"/>
       <c r="H144" s="45" t="s">
-        <v>443</v>
+        <v>354</v>
       </c>
       <c r="I144" s="46"/>
     </row>
@@ -4748,35 +4790,35 @@
       <c r="B145" t="s">
         <v>138</v>
       </c>
-      <c r="C145" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="D145" s="20" t="s">
-        <v>454</v>
+      <c r="C145" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>439</v>
       </c>
       <c r="E145" s="32"/>
       <c r="F145" s="38"/>
       <c r="G145" s="37"/>
       <c r="H145" s="49" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="I145" s="46"/>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>445</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="D146" s="20" t="s">
-        <v>289</v>
+        <v>432</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D146" s="19" t="s">
+        <v>287</v>
       </c>
       <c r="E146" s="32"/>
       <c r="F146" s="38"/>
       <c r="G146" s="37"/>
       <c r="H146" s="49" t="s">
-        <v>447</v>
+        <v>287</v>
       </c>
       <c r="I146" s="46"/>
     </row>
@@ -4784,15 +4826,17 @@
       <c r="B147" t="s">
         <v>139</v>
       </c>
-      <c r="C147" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="D147" s="3"/>
+      <c r="C147" s="70" t="s">
+        <v>478</v>
+      </c>
+      <c r="D147" s="25" t="s">
+        <v>477</v>
+      </c>
       <c r="E147" s="32"/>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
       <c r="H147" s="54" t="s">
-        <v>253</v>
+        <v>477</v>
       </c>
       <c r="I147" s="46"/>
     </row>
@@ -4800,7 +4844,7 @@
       <c r="B148" t="s">
         <v>140</v>
       </c>
-      <c r="C148" s="23" t="s">
+      <c r="C148" s="22" t="s">
         <v>141</v>
       </c>
       <c r="E148" s="32"/>
@@ -4819,7 +4863,7 @@
       <c r="I149" s="46"/>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="6" t="s">
         <v>142</v>
       </c>
       <c r="E150" s="32"/>
@@ -4832,17 +4876,17 @@
       <c r="B151" t="s">
         <v>143</v>
       </c>
-      <c r="C151" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="D151" s="23" t="s">
-        <v>248</v>
+      <c r="C151" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>247</v>
       </c>
       <c r="E151" s="32"/>
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
       <c r="H151" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I151" s="46"/>
     </row>
@@ -4850,11 +4894,11 @@
       <c r="B152" t="s">
         <v>144</v>
       </c>
-      <c r="C152" s="27" t="s">
-        <v>475</v>
-      </c>
-      <c r="D152" s="23" t="s">
-        <v>477</v>
+      <c r="C152" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="D152" s="22" t="s">
+        <v>462</v>
       </c>
       <c r="E152" s="32"/>
       <c r="F152" s="37"/>
@@ -4866,19 +4910,19 @@
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>476</v>
-      </c>
-      <c r="C153" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="C153" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D153" s="23" t="s">
-        <v>362</v>
+      <c r="D153" s="22" t="s">
+        <v>354</v>
       </c>
       <c r="E153" s="32"/>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
       <c r="H153" s="45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I153" s="46"/>
     </row>
@@ -4886,29 +4930,29 @@
       <c r="B154" t="s">
         <v>145</v>
       </c>
-      <c r="C154" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="D154" s="29" t="s">
-        <v>370</v>
+      <c r="C154" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="D154" s="28" t="s">
+        <v>362</v>
       </c>
       <c r="E154" s="32"/>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
       <c r="H154" s="45" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="I154" s="46"/>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>479</v>
-      </c>
-      <c r="C155" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="D155" s="29" t="s">
-        <v>447</v>
+        <v>464</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="D155" s="28" t="s">
+        <v>433</v>
       </c>
       <c r="E155" s="32"/>
       <c r="F155" s="37"/>
@@ -4920,7 +4964,7 @@
       <c r="B156" t="s">
         <v>146</v>
       </c>
-      <c r="C156" s="26" t="s">
+      <c r="C156" s="25" t="s">
         <v>122</v>
       </c>
       <c r="E156" s="32"/>
@@ -4935,7 +4979,7 @@
       <c r="B157" t="s">
         <v>147</v>
       </c>
-      <c r="C157" s="23" t="s">
+      <c r="C157" s="22" t="s">
         <v>149</v>
       </c>
       <c r="E157" s="32"/>
@@ -4954,7 +4998,7 @@
       <c r="I158" s="46"/>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E159" s="32"/>
@@ -4967,21 +5011,21 @@
       <c r="B160" t="s">
         <v>151</v>
       </c>
-      <c r="C160" s="14" t="s">
+      <c r="C160" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D160" s="21" t="s">
-        <v>356</v>
+      <c r="D160" s="20" t="s">
+        <v>349</v>
       </c>
       <c r="E160" s="64" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F160" s="37" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="G160" s="37"/>
       <c r="H160" s="47" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I160" s="46"/>
     </row>
@@ -4989,42 +5033,42 @@
       <c r="B161" t="s">
         <v>152</v>
       </c>
-      <c r="C161" s="23" t="s">
+      <c r="C161" s="22" t="s">
         <v>164</v>
       </c>
       <c r="E161" s="64" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="F161" s="40" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="G161" s="37"/>
       <c r="H161" s="45" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="I161" s="46" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="162" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>153</v>
       </c>
-      <c r="C162" s="14" t="s">
+      <c r="C162" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D162" s="21" t="s">
-        <v>356</v>
+      <c r="D162" s="20" t="s">
+        <v>349</v>
       </c>
       <c r="E162" s="64" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F162" s="37" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G162" s="37"/>
       <c r="H162" s="47" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I162" s="46"/>
     </row>
@@ -5032,44 +5076,44 @@
       <c r="B163" t="s">
         <v>154</v>
       </c>
-      <c r="C163" s="29" t="s">
-        <v>379</v>
+      <c r="C163" s="28" t="s">
+        <v>369</v>
       </c>
       <c r="E163" s="67" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F163" s="59" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G163" s="39" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H163" s="45" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I163" s="46" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="164" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>155</v>
       </c>
-      <c r="C164" s="14" t="s">
+      <c r="C164" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D164" s="21" t="s">
-        <v>356</v>
+      <c r="D164" s="20" t="s">
+        <v>349</v>
       </c>
       <c r="E164" s="68" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F164" s="37" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G164" s="37"/>
       <c r="H164" s="47" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I164" s="46"/>
     </row>
@@ -5077,44 +5121,44 @@
       <c r="B165" t="s">
         <v>156</v>
       </c>
-      <c r="C165" s="23" t="s">
-        <v>383</v>
+      <c r="C165" s="22" t="s">
+        <v>373</v>
       </c>
       <c r="E165" s="67" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F165" s="59" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G165" s="39" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="H165" s="45" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="I165" s="46" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="166" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>157</v>
       </c>
-      <c r="C166" s="14" t="s">
+      <c r="C166" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D166" s="21" t="s">
-        <v>356</v>
+      <c r="D166" s="20" t="s">
+        <v>349</v>
       </c>
       <c r="E166" s="64" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F166" s="37" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="G166" s="37"/>
       <c r="H166" s="47" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I166" s="46"/>
     </row>
@@ -5122,44 +5166,44 @@
       <c r="B167" t="s">
         <v>158</v>
       </c>
-      <c r="C167" s="23" t="s">
+      <c r="C167" s="22" t="s">
         <v>165</v>
       </c>
       <c r="E167" s="66" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F167" s="59" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="G167" s="39" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="H167" s="45" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="I167" s="46" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="168" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>159</v>
       </c>
-      <c r="C168" s="14" t="s">
+      <c r="C168" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D168" s="21" t="s">
-        <v>356</v>
+      <c r="D168" s="20" t="s">
+        <v>349</v>
       </c>
       <c r="E168" s="64" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F168" s="37" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="G168" s="37"/>
       <c r="H168" s="47" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I168" s="46"/>
     </row>
@@ -5167,44 +5211,44 @@
       <c r="B169" t="s">
         <v>160</v>
       </c>
-      <c r="C169" s="23" t="s">
-        <v>320</v>
+      <c r="C169" s="22" t="s">
+        <v>318</v>
       </c>
       <c r="E169" s="66" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F169" s="59" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G169" s="40" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="H169" s="48" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="I169" s="50" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="170" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>161</v>
       </c>
-      <c r="C170" s="14" t="s">
+      <c r="C170" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D170" s="21" t="s">
-        <v>356</v>
+      <c r="D170" s="20" t="s">
+        <v>349</v>
       </c>
       <c r="E170" s="64" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F170" s="37" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G170" s="37"/>
       <c r="H170" s="47" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I170" s="46"/>
     </row>
@@ -5212,44 +5256,44 @@
       <c r="B171" t="s">
         <v>90</v>
       </c>
-      <c r="C171" s="23" t="s">
+      <c r="C171" s="22" t="s">
         <v>167</v>
       </c>
       <c r="E171" s="66" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F171" s="59" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="G171" s="40" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="H171" s="45" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="I171" s="50" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="172" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>162</v>
       </c>
-      <c r="C172" s="14" t="s">
+      <c r="C172" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D172" s="21" t="s">
-        <v>356</v>
+      <c r="D172" s="20" t="s">
+        <v>349</v>
       </c>
       <c r="E172" s="64" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F172" s="37" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G172" s="37"/>
       <c r="H172" s="47" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I172" s="46"/>
     </row>
@@ -5257,21 +5301,21 @@
       <c r="B173" t="s">
         <v>163</v>
       </c>
-      <c r="C173" s="14" t="s">
+      <c r="C173" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="D173" s="21" t="s">
-        <v>356</v>
+      <c r="D173" s="20" t="s">
+        <v>349</v>
       </c>
       <c r="E173" s="69" t="s">
         <v>162</v>
       </c>
       <c r="F173" s="37" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G173" s="37"/>
       <c r="H173" s="47" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I173" s="46"/>
     </row>
@@ -5283,7 +5327,7 @@
       <c r="I174" s="46"/>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="6" t="s">
         <v>169</v>
       </c>
       <c r="E175" s="32"/>
@@ -5293,26 +5337,26 @@
       <c r="I175" s="46"/>
     </row>
     <row r="176" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C176" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D176" s="21" t="s">
-        <v>357</v>
+      <c r="C176" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="D176" s="20" t="s">
+        <v>485</v>
       </c>
       <c r="E176" s="64" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F176" s="62" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="G176" s="37" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="H176" s="47" t="s">
-        <v>357</v>
+        <v>485</v>
       </c>
       <c r="I176" s="46"/>
     </row>
@@ -5320,14 +5364,14 @@
       <c r="B177" t="s">
         <v>171</v>
       </c>
-      <c r="C177" s="23" t="s">
-        <v>174</v>
+      <c r="C177" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="E177" s="32"/>
       <c r="F177" s="37"/>
       <c r="G177" s="37"/>
       <c r="H177" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I177" s="46"/>
     </row>
@@ -5335,14 +5379,14 @@
       <c r="B178" t="s">
         <v>172</v>
       </c>
-      <c r="C178" s="23" t="s">
-        <v>175</v>
+      <c r="C178" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="E178" s="32"/>
       <c r="F178" s="37"/>
       <c r="G178" s="37"/>
       <c r="H178" s="45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I178" s="46"/>
     </row>
@@ -5354,8 +5398,8 @@
       <c r="I179" s="46"/>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B180" s="7" t="s">
-        <v>250</v>
+      <c r="B180" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="E180" s="32"/>
       <c r="F180" s="37"/>
@@ -5365,31 +5409,31 @@
     </row>
     <row r="181" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C181" s="21" t="s">
         <v>176</v>
-      </c>
-      <c r="C181" s="22" t="s">
-        <v>177</v>
       </c>
       <c r="E181" s="32"/>
       <c r="F181" s="37"/>
       <c r="G181" s="37"/>
       <c r="H181" s="48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I181" s="46"/>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C182" s="25" t="s">
-        <v>267</v>
+        <v>248</v>
+      </c>
+      <c r="C182" s="24" t="s">
+        <v>265</v>
       </c>
       <c r="E182" s="32"/>
       <c r="F182" s="37"/>
       <c r="G182" s="37"/>
       <c r="H182" s="53" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I182" s="46"/>
     </row>
@@ -5401,8 +5445,8 @@
       <c r="I183" s="46"/>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B184" s="7" t="s">
-        <v>178</v>
+      <c r="B184" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="E184" s="32"/>
       <c r="F184" s="37"/>
@@ -5411,8 +5455,8 @@
       <c r="I184" s="46"/>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B185" s="9" t="s">
-        <v>183</v>
+      <c r="B185" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="E185" s="32"/>
       <c r="F185" s="37"/>
@@ -5422,42 +5466,42 @@
     </row>
     <row r="186" spans="2:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>179</v>
-      </c>
-      <c r="C186" s="23" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="C186" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="E186" s="64" t="s">
         <v>9</v>
       </c>
       <c r="F186" s="38" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G186" s="37"/>
       <c r="H186" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I186" s="46"/>
     </row>
     <row r="187" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>180</v>
-      </c>
-      <c r="C187" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
+      </c>
+      <c r="C187" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="E187" s="64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F187" s="40" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G187" s="37"/>
       <c r="H187" s="45" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="I187" s="50" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.25">
@@ -5468,8 +5512,8 @@
       <c r="I188" s="46"/>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B189" s="9" t="s">
-        <v>184</v>
+      <c r="B189" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="E189" s="32"/>
       <c r="F189" s="37"/>
@@ -5479,80 +5523,80 @@
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>185</v>
-      </c>
-      <c r="C190" s="23" t="s">
-        <v>188</v>
+        <v>184</v>
+      </c>
+      <c r="C190" s="22" t="s">
+        <v>187</v>
       </c>
       <c r="E190" s="32"/>
       <c r="F190" s="37"/>
       <c r="G190" s="37"/>
       <c r="H190" s="45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I190" s="46"/>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>186</v>
-      </c>
-      <c r="C191" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D191" s="23" t="s">
-        <v>251</v>
+        <v>185</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D191" s="22" t="s">
+        <v>250</v>
       </c>
       <c r="E191" s="32"/>
       <c r="F191" s="37"/>
       <c r="G191" s="37"/>
       <c r="H191" s="45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I191" s="46"/>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>187</v>
-      </c>
-      <c r="C192" s="23" t="s">
-        <v>189</v>
+        <v>186</v>
+      </c>
+      <c r="C192" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="E192" s="32"/>
       <c r="F192" s="37"/>
       <c r="G192" s="37"/>
       <c r="H192" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I192" s="46"/>
     </row>
-    <row r="193" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>277</v>
-      </c>
-      <c r="C193" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="D193" s="22" t="s">
-        <v>467</v>
+        <v>275</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="D193" s="21" t="s">
+        <v>452</v>
       </c>
       <c r="E193" s="32"/>
       <c r="F193" s="37"/>
       <c r="G193" s="37"/>
       <c r="H193" s="48" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="I193" s="46"/>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E194" s="32"/>
       <c r="F194" s="37"/>
       <c r="G194" s="37"/>
       <c r="H194" s="45"/>
       <c r="I194" s="46"/>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B195" s="7" t="s">
-        <v>191</v>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B195" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="E195" s="32"/>
       <c r="F195" s="37"/>
@@ -5560,16 +5604,16 @@
       <c r="H195" s="45"/>
       <c r="I195" s="46"/>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E196" s="32"/>
       <c r="F196" s="37"/>
       <c r="G196" s="37"/>
       <c r="H196" s="45"/>
       <c r="I196" s="46"/>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B197" s="9" t="s">
-        <v>192</v>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B197" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="E197" s="32"/>
       <c r="F197" s="37"/>
@@ -5577,49 +5621,49 @@
       <c r="H197" s="45"/>
       <c r="I197" s="46"/>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>194</v>
-      </c>
-      <c r="C198" s="23" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="C198" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="E198" s="32"/>
       <c r="F198" s="37"/>
       <c r="G198" s="37"/>
       <c r="H198" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="I198" s="46"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>194</v>
+      </c>
+      <c r="C199" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="I198" s="46"/>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>195</v>
-      </c>
-      <c r="C199" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D199" s="23" t="s">
-        <v>252</v>
+      <c r="D199" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="E199" s="32"/>
       <c r="F199" s="37"/>
       <c r="G199" s="37"/>
       <c r="H199" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I199" s="46"/>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E200" s="32"/>
       <c r="F200" s="37"/>
       <c r="G200" s="37"/>
       <c r="H200" s="45"/>
       <c r="I200" s="46"/>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B201" s="9" t="s">
-        <v>193</v>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B201" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="E201" s="32"/>
       <c r="F201" s="37"/>
@@ -5627,46 +5671,46 @@
       <c r="H201" s="45"/>
       <c r="I201" s="46"/>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>198</v>
-      </c>
-      <c r="C202" s="23" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="C202" s="22" t="s">
+        <v>199</v>
       </c>
       <c r="E202" s="32"/>
       <c r="F202" s="37"/>
       <c r="G202" s="37"/>
       <c r="H202" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="I202" s="46"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>198</v>
+      </c>
+      <c r="C203" s="22" t="s">
         <v>200</v>
-      </c>
-      <c r="I202" s="46"/>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
-        <v>199</v>
-      </c>
-      <c r="C203" s="23" t="s">
-        <v>201</v>
       </c>
       <c r="E203" s="32"/>
       <c r="F203" s="37"/>
       <c r="G203" s="37"/>
       <c r="H203" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I203" s="46"/>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E204" s="32"/>
       <c r="F204" s="37"/>
       <c r="G204" s="37"/>
       <c r="H204" s="45"/>
       <c r="I204" s="46"/>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B205" s="9" t="s">
-        <v>202</v>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B205" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="E205" s="32"/>
       <c r="F205" s="37"/>
@@ -5674,91 +5718,93 @@
       <c r="H205" s="45"/>
       <c r="I205" s="46"/>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>203</v>
-      </c>
-      <c r="C206" s="23" t="s">
-        <v>206</v>
+        <v>202</v>
+      </c>
+      <c r="C206" s="22" t="s">
+        <v>205</v>
       </c>
       <c r="E206" s="32"/>
       <c r="F206" s="37"/>
       <c r="G206" s="37"/>
       <c r="H206" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="I206" s="46"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>203</v>
+      </c>
+      <c r="C207" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="I206" s="46"/>
-    </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
-        <v>204</v>
-      </c>
-      <c r="C207" s="23" t="s">
-        <v>207</v>
-      </c>
       <c r="E207" s="32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F207" s="37"/>
       <c r="G207" s="37"/>
       <c r="H207" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I207" s="46"/>
     </row>
-    <row r="208" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A208" s="30"/>
       <c r="B208" t="s">
-        <v>205</v>
-      </c>
-      <c r="C208" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="D208" s="23" t="s">
-        <v>309</v>
+        <v>204</v>
+      </c>
+      <c r="C208" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>307</v>
       </c>
       <c r="E208" s="64" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="F208" s="39" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G208" s="37"/>
       <c r="H208" s="45" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="I208" s="46" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="30"/>
       <c r="B209" t="s">
-        <v>455</v>
-      </c>
-      <c r="C209" s="23" t="s">
-        <v>308</v>
+        <v>440</v>
+      </c>
+      <c r="C209" s="22" t="s">
+        <v>306</v>
       </c>
       <c r="E209" s="64" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F209" s="37" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G209" s="37"/>
       <c r="H209" s="45" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I209" s="46"/>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E210" s="32"/>
       <c r="F210" s="37"/>
       <c r="G210" s="37"/>
       <c r="H210" s="45"/>
       <c r="I210" s="46"/>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B211" s="7" t="s">
-        <v>208</v>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B211" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="E211" s="32"/>
       <c r="F211" s="37"/>
@@ -5766,17 +5812,17 @@
       <c r="H211" s="45"/>
       <c r="I211" s="46"/>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B212" s="5"/>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B212" s="4"/>
       <c r="E212" s="32"/>
       <c r="F212" s="37"/>
       <c r="G212" s="37"/>
       <c r="H212" s="45"/>
       <c r="I212" s="46"/>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B213" s="9" t="s">
-        <v>209</v>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B213" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="E213" s="32"/>
       <c r="F213" s="37"/>
@@ -5784,61 +5830,61 @@
       <c r="H213" s="45"/>
       <c r="I213" s="46"/>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>211</v>
-      </c>
-      <c r="C214" s="23" t="s">
-        <v>214</v>
+        <v>210</v>
+      </c>
+      <c r="C214" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="E214" s="32"/>
       <c r="F214" s="37"/>
       <c r="G214" s="37"/>
       <c r="H214" s="45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I214" s="46"/>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>212</v>
-      </c>
-      <c r="C215" s="29" t="s">
-        <v>360</v>
+        <v>211</v>
+      </c>
+      <c r="C215" s="28" t="s">
+        <v>352</v>
       </c>
       <c r="E215" s="32"/>
       <c r="F215" s="37"/>
       <c r="G215" s="37"/>
       <c r="H215" s="45" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="I215" s="46"/>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>213</v>
-      </c>
-      <c r="C216" s="23" t="s">
-        <v>215</v>
+        <v>212</v>
+      </c>
+      <c r="C216" s="22" t="s">
+        <v>214</v>
       </c>
       <c r="E216" s="32"/>
       <c r="F216" s="37"/>
       <c r="G216" s="37"/>
       <c r="H216" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I216" s="46"/>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E217" s="32"/>
       <c r="F217" s="37"/>
       <c r="G217" s="37"/>
       <c r="H217" s="45"/>
       <c r="I217" s="46"/>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B218" s="9" t="s">
-        <v>210</v>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B218" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="E218" s="32"/>
       <c r="F218" s="37"/>
@@ -5846,31 +5892,31 @@
       <c r="H218" s="45"/>
       <c r="I218" s="46"/>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>216</v>
-      </c>
-      <c r="C219" s="29" t="s">
-        <v>359</v>
+        <v>215</v>
+      </c>
+      <c r="C219" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="E219" s="32"/>
       <c r="F219" s="37"/>
       <c r="G219" s="37"/>
       <c r="H219" s="45" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="I219" s="46"/>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E220" s="32"/>
       <c r="F220" s="37"/>
       <c r="G220" s="37"/>
       <c r="H220" s="45"/>
       <c r="I220" s="46"/>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B221" s="7" t="s">
-        <v>217</v>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B221" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="E221" s="32"/>
       <c r="F221" s="37"/>
@@ -5878,31 +5924,31 @@
       <c r="H221" s="45"/>
       <c r="I221" s="46"/>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
+        <v>217</v>
+      </c>
+      <c r="C222" s="22" t="s">
         <v>218</v>
-      </c>
-      <c r="C222" s="23" t="s">
-        <v>219</v>
       </c>
       <c r="E222" s="32"/>
       <c r="F222" s="38"/>
       <c r="G222" s="37"/>
       <c r="H222" s="45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I222" s="46"/>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E223" s="32"/>
       <c r="F223" s="37"/>
       <c r="G223" s="37"/>
       <c r="H223" s="45"/>
       <c r="I223" s="46"/>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B224" s="7" t="s">
-        <v>220</v>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B224" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="E224" s="32"/>
       <c r="F224" s="37"/>
@@ -5912,52 +5958,52 @@
     </row>
     <row r="225" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>221</v>
-      </c>
-      <c r="C225" s="23" t="s">
-        <v>226</v>
+        <v>220</v>
+      </c>
+      <c r="C225" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="E225" s="64" t="s">
         <v>9</v>
       </c>
       <c r="F225" s="38" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G225" s="37"/>
       <c r="H225" s="45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I225" s="46"/>
     </row>
     <row r="226" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
+        <v>277</v>
+      </c>
+      <c r="C226" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D226" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="C226" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="D226" s="23" t="s">
-        <v>281</v>
-      </c>
       <c r="E226" s="64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F226" s="40" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="G226" s="37"/>
       <c r="H226" s="45" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="I226" s="50" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>222</v>
-      </c>
-      <c r="C227" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C227" s="22" t="s">
         <v>35</v>
       </c>
       <c r="E227" s="32"/>
@@ -5970,52 +6016,52 @@
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>223</v>
-      </c>
-      <c r="C228" s="23" t="s">
-        <v>227</v>
+        <v>222</v>
+      </c>
+      <c r="C228" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="E228" s="32"/>
       <c r="F228" s="37"/>
       <c r="G228" s="37"/>
       <c r="H228" s="45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I228" s="46"/>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>224</v>
-      </c>
-      <c r="C229" s="23" t="s">
-        <v>228</v>
+        <v>223</v>
+      </c>
+      <c r="C229" s="22" t="s">
+        <v>227</v>
       </c>
       <c r="E229" s="64" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F229" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G229" s="37"/>
       <c r="H229" s="45" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I229" s="46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="230" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
-        <v>225</v>
-      </c>
-      <c r="C230" s="23" t="s">
-        <v>278</v>
+        <v>224</v>
+      </c>
+      <c r="C230" s="22" t="s">
+        <v>276</v>
       </c>
       <c r="E230" s="35"/>
       <c r="F230" s="42"/>
       <c r="G230" s="42"/>
       <c r="H230" s="56" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I230" s="57"/>
     </row>

--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780D7A95-C5D3-4CB3-8CAE-5E1409C6AE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B67BDEB-1F63-4624-8250-FE9A7382FD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="503">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -319,12 +319,6 @@
     <t>&lt;TWO_ASSIGN&gt;</t>
   </si>
   <si>
-    <t>dot ? &lt;TWO_ASSIGN&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dot ? ; </t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;INC_DEC&gt;? &lt;ASSIGN_OP&gt; </t>
   </si>
   <si>
@@ -536,9 +530,6 @@
   </si>
   <si>
     <t>Operands</t>
-  </si>
-  <si>
-    <t>&lt;OPERAND&gt;</t>
   </si>
   <si>
     <t>&lt;UNARY&gt;</t>
@@ -819,12 +810,6 @@
 ? charConst ? boolConst ? strConst </t>
   </si>
   <si>
-    <t xml:space="preserve"> dot ? inc_dec ? = ? cma ? [ ? (</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dot ? inc_dec ? = ? cma </t>
-  </si>
-  <si>
     <t xml:space="preserve">inc_dec ? = ? cma </t>
   </si>
   <si>
@@ -832,9 +817,6 @@
   </si>
   <si>
     <t>[ ? id ? dot ? inc_dec ? = ? cma ? [ ? (</t>
-  </si>
-  <si>
-    <t>&lt;INC_DEC_DOT&gt;? &lt;SUBSCRIPT&gt; ? &lt;FN_BRACKETS&gt; ? Null</t>
   </si>
   <si>
     <t>inc_dec ? dot  ? [ ? ( ? Null</t>
@@ -952,13 +934,7 @@
     <t>&lt;SUBSCRIPT&gt;</t>
   </si>
   <si>
-    <t> dot</t>
-  </si>
-  <si>
     <t> dot ? [ ? ( ? Null</t>
-  </si>
-  <si>
-    <t>&lt;POS2&gt; ? &lt;INC_DEC&gt;</t>
   </si>
   <si>
     <t>&lt;POS2&gt;</t>
@@ -1023,33 +999,14 @@
     <t>End only with id, array subscript.</t>
   </si>
   <si>
-    <t>&lt;DOT_id&gt; ? &lt;SUBSCRIPT&gt;  ? 
-&lt;FN_BRACKETS&gt; ? Null</t>
-  </si>
-  <si>
-    <t>&lt;DOT_id&gt; ? F&lt;id_TO_EXPR&gt; ? &lt;OPERAND&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;DOT_id&gt;     </t>
-  </si>
-  <si>
     <t>End with id and array subscript with posibility of pos 
 increment decrement in the end, and function call ends with null.</t>
   </si>
   <si>
-    <t>&lt;DOT_id2&gt; ? &lt;OPERANDS&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;DOT_id2&gt;    </t>
-  </si>
-  <si>
     <t>[  ? id</t>
   </si>
   <si>
     <t xml:space="preserve">dot ? &lt;id_TO_EXPR&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;DOT_id3&gt; ? &lt;SUBSCRIPT&gt; ? &lt;FN_BRACKETS&gt; </t>
   </si>
   <si>
     <t>F&lt;EXPR1&gt; ? &lt;id_TO_EXPR&gt; ? &lt;F&gt;</t>
@@ -1070,9 +1027,6 @@
 &lt;id_TO_EXPR&gt; ? &lt;J&gt; </t>
   </si>
   <si>
-    <t>&lt;INIT&gt; ? F&lt;id_TO_EXPR&gt; ? &lt;IS_FLAG&gt;</t>
-  </si>
-  <si>
     <t>pm ? Parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
 floatConst ? charConst ? boolConst ? strConst ?  new ? NaN</t>
   </si>
@@ -1132,10 +1086,6 @@
   </si>
   <si>
     <t>[ ? protected ? private ? id</t>
-  </si>
-  <si>
-    <t>power ?  mdm ?  pm ? Rop ? 
-And ? Or ? &lt;OPER_TO_EXPR&gt; ? &lt;OPERAND&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">power ?  mdm ?  pm ? Rop ? 
@@ -1155,9 +1105,6 @@
 Or ? Null</t>
   </si>
   <si>
-    <t>, ? ; ? power ?  mdm ?  pm ? Rop ? And ? Or ? &lt;OPER_TO_EXPR&gt; ? &lt;IS_FLAG&gt;</t>
-  </si>
-  <si>
     <t>And ? null</t>
   </si>
   <si>
@@ -1205,10 +1152,6 @@
   </si>
   <si>
     <t xml:space="preserve">power ? mdm? pm? Rop ? And ? or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
-  </si>
-  <si>
-    <t>&lt;DOT_id5&gt; ? &lt;SUBSCRIPT&gt;? &lt;FN_BRACKETS&gt; 
- ? Null</t>
   </si>
   <si>
     <t>SELECTION SET NULL</t>
@@ -1529,9 +1472,6 @@
 floatConst ? charConst ? boolConst ? strConst ?  new ? NaN ? )</t>
   </si>
   <si>
-    <t>&lt;INC_DEC&gt; ?  &lt;DOT_ID2&gt;</t>
-  </si>
-  <si>
     <t>&lt;IS_ACMETH&gt;? &lt;INC_DEC&gt; ? ( ? &lt;UNARY&gt;
 ? &lt;CONST&gt; ? &lt;FLAG&gt;</t>
   </si>
@@ -1572,6 +1512,95 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;DOT_ID3&gt;   </t>
+  </si>
+  <si>
+    <t>if ? shift ? const ? dt ?str? id ? Parent ?
+ Self ?  test ?  loop ? do ? stop ? ret ? Cont ? raise?state ? default ? } ?else ?till?;</t>
+  </si>
+  <si>
+    <t>&lt;DOT_ID_SUBSCRIPT&gt; ? 
+&lt;FN_BRACKETS&gt; ? Null</t>
+  </si>
+  <si>
+    <t>&lt;DOT_ID_SUBSCRIPT&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot ? &lt;SUBSCRIPT&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;DOT_ID_SUBSCRIPT2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;INC_DEC&gt; ?  &lt;DOT_ID_SUBSCRIPT2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot ? [ </t>
+  </si>
+  <si>
+    <t>&lt;INC_DEC_DOT&gt; ? &lt;FN_BRACKETS&gt;</t>
+  </si>
+  <si>
+    <t>dot ? &lt;SUBSCRIPT&gt;  ? NULL</t>
+  </si>
+  <si>
+    <t>dot ? [ ?null</t>
+  </si>
+  <si>
+    <t>inc_dec ? dot ? [?null</t>
+  </si>
+  <si>
+    <t>&lt;DOT_ID3&gt; ? &lt;FN_BRACKETS&gt; ?  
+&lt;TWO_ASSIGN&gt;</t>
+  </si>
+  <si>
+    <t>dot ? &lt;SUBSCRIPT&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DOT_ID3&gt;?;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dot ? [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  dot ? [ ? ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dot ? [ ? ; ? ( ? Inc_dec ? = ? cma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dot ? [ ? ; ? ( ? Inc_dec ? = ? Cma</t>
+  </si>
+  <si>
+    <t>dot ? [ ? ;</t>
+  </si>
+  <si>
+    <t> dot ? &lt;SUBSCRIPT&gt; ? Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;FN_BRACKETS&gt; ? &lt;DOT_ID5&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;POS2&gt; ? &lt;INC_DEC_DOT&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DOT_ID_SUBSCRIPT2&gt; ? &lt;OPERANDS&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;ID_TO_EXPR&gt; ? &lt;IS_FLAG&gt;</t>
+  </si>
+  <si>
+    <t>power ?  mdm ?  pm ? Rop ? And ? Or ? &lt;OPER_TO_EXPR&gt; ? &lt;IS_FLAG&gt;</t>
+  </si>
+  <si>
+    <t>&lt;OPERANDS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DOT_ID_SUBSCRIPT&gt; ? F&lt;ID_TO_EXPR&gt; ? &lt;OPERANDS&gt;</t>
+  </si>
+  <si>
+    <t>power ?  mdm ?  pm ? Rop ? 
+And ? Or ? &lt;OPER_TO_EXPR&gt; ? &lt;OPERANDS&gt;</t>
   </si>
 </sst>
 </file>
@@ -1889,7 +1918,7 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2107,6 +2136,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
@@ -2398,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:A83"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2423,22 +2455,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E1" s="63" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -2458,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
@@ -2472,7 +2504,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="46" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -2480,23 +2512,23 @@
         <v>4</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="E4" s="64" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G4" s="37"/>
       <c r="H4" s="47" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -2504,23 +2536,23 @@
         <v>6</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E5" s="64" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G5" s="37"/>
       <c r="H5" s="47" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -2528,23 +2560,23 @@
         <v>7</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="E6" s="64" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G6" s="37"/>
       <c r="H6" s="47" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -2584,22 +2616,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="I10" s="46"/>
     </row>
@@ -2626,20 +2658,20 @@
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="48" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="I13" s="46"/>
     </row>
@@ -2648,23 +2680,23 @@
         <v>10</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="48" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -2694,14 +2726,14 @@
         <v>11</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="32"/>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="49" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="I17" s="46"/>
     </row>
@@ -2764,30 +2796,30 @@
         <v>17</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="32"/>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="49" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I22" s="46"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="32"/>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
       <c r="H23" s="49" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I23" s="46"/>
     </row>
@@ -2818,14 +2850,14 @@
         <v>21</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="32"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="H26" s="49" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="I26" s="46"/>
     </row>
@@ -2834,14 +2866,14 @@
         <v>22</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="32"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
       <c r="H27" s="49" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I27" s="46"/>
     </row>
@@ -2854,10 +2886,10 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="64" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="49" t="s">
@@ -2870,21 +2902,21 @@
         <v>24</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="65" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="49" t="s">
         <v>26</v>
       </c>
       <c r="I29" s="46" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -2892,14 +2924,14 @@
         <v>25</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="32"/>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
       <c r="H30" s="49" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="I30" s="46"/>
     </row>
@@ -2915,7 +2947,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2934,17 +2966,17 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="64" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F33" s="58" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G33" s="37"/>
       <c r="H33" s="49" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="I33" s="46" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -3026,16 +3058,16 @@
         <v>32</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
       <c r="H40" s="49" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="I40" s="46"/>
     </row>
@@ -3057,19 +3089,19 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
       <c r="H42" s="49" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="I42" s="46"/>
     </row>
@@ -3088,16 +3120,16 @@
         <v>36</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
       <c r="H44" s="49" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="I44" s="46"/>
     </row>
@@ -3106,22 +3138,22 @@
         <v>37</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E45" s="64" t="s">
         <v>36</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G45" s="39" t="s">
         <v>35</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="I45" s="46" t="s">
         <v>35</v>
@@ -3170,52 +3202,52 @@
         <v>41</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
       <c r="H49" s="49" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I49" s="46"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
       <c r="H50" s="49" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="I50" s="46"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
       <c r="H51" s="49" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="I51" s="46"/>
     </row>
@@ -3224,40 +3256,40 @@
         <v>42</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
       <c r="H52" s="49" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="I52" s="46"/>
     </row>
     <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="E53" s="64" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G53" s="39" t="s">
         <v>35</v>
       </c>
       <c r="H53" s="49" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="I53" s="46" t="s">
         <v>35</v>
@@ -3268,14 +3300,14 @@
         <v>43</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="32"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
       <c r="H54" s="49" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="I54" s="46"/>
     </row>
@@ -3309,13 +3341,13 @@
         <v>52</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E57" s="32"/>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
       <c r="H57" s="49" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I57" s="46"/>
     </row>
@@ -3324,16 +3356,16 @@
         <v>46</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="E58" s="32"/>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
       <c r="H58" s="45" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="I58" s="46"/>
     </row>
@@ -3342,14 +3374,14 @@
         <v>47</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="32"/>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
       <c r="H59" s="49" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I59" s="46"/>
     </row>
@@ -3362,15 +3394,15 @@
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="33" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
       <c r="H60" s="49" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="I60" s="46" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -3387,7 +3419,7 @@
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
       <c r="H61" s="49" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="I61" s="46" t="s">
         <v>35</v>
@@ -3455,13 +3487,13 @@
         <v>59</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
       <c r="H66" s="49" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I66" s="46"/>
     </row>
@@ -3473,17 +3505,17 @@
         <v>60</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E67" s="64" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F67" s="37" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G67" s="37"/>
       <c r="H67" s="49" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I67" s="46"/>
     </row>
@@ -3499,7 +3531,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3511,7 +3543,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3527,25 +3559,25 @@
         <v>61</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>329</v>
+        <v>476</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E71" s="64" t="s">
-        <v>330</v>
+        <v>501</v>
       </c>
       <c r="F71" s="59" t="s">
-        <v>363</v>
+        <v>502</v>
       </c>
       <c r="G71" s="40" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="H71" s="47" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="I71" s="50" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3558,13 +3590,13 @@
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="66" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="F72" s="60" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="G72" s="38" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="H72" s="49" t="s">
         <v>26</v>
@@ -3574,29 +3606,30 @@
     <row r="73" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="30"/>
       <c r="B73" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E73" s="64" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G73" s="37"/>
       <c r="H73" s="47" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="I73" s="50" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="30"/>
       <c r="B74" s="1" t="s">
         <v>63</v>
       </c>
@@ -3613,6 +3646,7 @@
       <c r="I74" s="46"/>
     </row>
     <row r="75" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="30"/>
       <c r="B75" s="1" t="s">
         <v>64</v>
       </c>
@@ -3620,17 +3654,18 @@
         <v>67</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="E75" s="32"/>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
       <c r="H75" s="48" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="I75" s="46"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="30"/>
       <c r="B76" s="1" t="s">
         <v>65</v>
       </c>
@@ -3647,6 +3682,7 @@
       <c r="I76" s="46"/>
     </row>
     <row r="77" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="30"/>
       <c r="B77" s="1" t="s">
         <v>66</v>
       </c>
@@ -3654,33 +3690,36 @@
         <v>68</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="E77" s="64" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F77" s="37" t="s">
         <v>38</v>
       </c>
       <c r="G77" s="37"/>
       <c r="H77" s="47" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="I77" s="46"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="30"/>
       <c r="B78" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="D78" s="1"/>
+        <v>477</v>
+      </c>
+      <c r="C78" s="99" t="s">
+        <v>478</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>481</v>
+      </c>
       <c r="E78" s="32"/>
       <c r="F78" s="37"/>
       <c r="G78" s="37"/>
       <c r="H78" s="45" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I78" s="46"/>
     </row>
@@ -3696,7 +3735,7 @@
     </row>
     <row r="80" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3707,73 +3746,76 @@
       <c r="I80" s="46"/>
     </row>
     <row r="81" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="30"/>
       <c r="B81" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>267</v>
+        <v>482</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E81" s="64" t="s">
-        <v>333</v>
+        <v>497</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G81" s="40" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="H81" s="51" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="I81" s="50" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="30"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C82" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="E82" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="G82" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="H82" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="I82" s="46"/>
+    </row>
+    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C83" s="99" t="s">
         <v>483</v>
       </c>
-      <c r="D82" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="E82" s="64" t="s">
-        <v>309</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="G82" s="37"/>
-      <c r="H82" s="52" t="s">
-        <v>270</v>
-      </c>
-      <c r="I82" s="46"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="30"/>
-      <c r="B83" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="D83" s="1"/>
+      <c r="D83" s="19" t="s">
+        <v>484</v>
+      </c>
       <c r="E83" s="64" t="s">
-        <v>308</v>
+        <v>496</v>
       </c>
       <c r="F83" s="61" t="s">
-        <v>309</v>
-      </c>
-      <c r="G83" s="37"/>
+        <v>301</v>
+      </c>
+      <c r="G83" s="40" t="s">
+        <v>349</v>
+      </c>
       <c r="H83" s="49" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I83" s="46"/>
     </row>
@@ -3816,16 +3858,16 @@
         <v>73</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="38"/>
       <c r="G87" s="37"/>
       <c r="H87" s="49" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="I87" s="46"/>
     </row>
@@ -3837,13 +3879,13 @@
         <v>86</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E88" s="32"/>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
       <c r="H88" s="49" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I88" s="46"/>
     </row>
@@ -3862,16 +3904,16 @@
         <v>75</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="E90" s="34"/>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
       <c r="H90" s="47" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="I90" s="46"/>
     </row>
@@ -3880,16 +3922,16 @@
         <v>76</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="E91" s="32"/>
       <c r="F91" s="38"/>
       <c r="G91" s="37"/>
       <c r="H91" s="49" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="I91" s="46"/>
     </row>
@@ -3915,17 +3957,17 @@
         <v>88</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="E93" s="65" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="F93" s="37" t="s">
         <v>91</v>
       </c>
       <c r="G93" s="37"/>
       <c r="H93" s="48" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="I93" s="46"/>
     </row>
@@ -3937,18 +3979,18 @@
         <v>89</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F94" s="37"/>
       <c r="G94" s="37"/>
       <c r="H94" s="49" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="I94" s="46" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3956,20 +3998,20 @@
         <v>80</v>
       </c>
       <c r="C95" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D95" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="D95" s="24" t="s">
-        <v>261</v>
-      </c>
       <c r="E95" s="32" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F95" s="37" t="s">
         <v>91</v>
       </c>
       <c r="G95" s="37"/>
       <c r="H95" s="53" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I95" s="46"/>
     </row>
@@ -3979,22 +4021,22 @@
         <v>81</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="E96" s="64" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G96" s="39" t="s">
         <v>91</v>
       </c>
       <c r="H96" s="47" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="I96" s="46" t="s">
         <v>91</v>
@@ -4006,22 +4048,22 @@
         <v>82</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="E97" s="64" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G97" s="39" t="s">
         <v>91</v>
       </c>
       <c r="H97" s="47" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="I97" s="46" t="s">
         <v>91</v>
@@ -4032,22 +4074,22 @@
         <v>83</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="E98" s="64" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G98" s="39" t="s">
         <v>91</v>
       </c>
       <c r="H98" s="47" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="I98" s="46" t="s">
         <v>91</v>
@@ -4055,25 +4097,25 @@
     </row>
     <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>90</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E99" s="65" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G99" s="39" t="s">
         <v>91</v>
       </c>
       <c r="H99" s="49" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="I99" s="46" t="s">
         <v>91</v>
@@ -4145,55 +4187,57 @@
       <c r="H104" s="45"/>
       <c r="I104" s="46"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C105" s="11" t="s">
-        <v>337</v>
+      <c r="C105" s="12" t="s">
+        <v>486</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>262</v>
+        <v>491</v>
       </c>
       <c r="E105" s="32"/>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
       <c r="H105" s="49" t="s">
-        <v>262</v>
+        <v>492</v>
       </c>
       <c r="I105" s="46"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>263</v>
+        <v>489</v>
       </c>
       <c r="E106" s="32"/>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
       <c r="H106" s="49" t="s">
-        <v>263</v>
+        <v>489</v>
       </c>
       <c r="I106" s="46"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D107" s="1"/>
+        <v>488</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>493</v>
+      </c>
       <c r="E107" s="32"/>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
       <c r="H107" s="49" t="s">
-        <v>98</v>
+        <v>490</v>
       </c>
       <c r="I107" s="46"/>
     </row>
@@ -4202,16 +4246,16 @@
         <v>96</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E108" s="32"/>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
       <c r="H108" s="52" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I108" s="46"/>
     </row>
@@ -4227,7 +4271,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B110" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4239,58 +4283,58 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="32" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="F111" s="38" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="G111" s="37"/>
       <c r="H111" s="49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I111" s="46"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C112" s="71" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="E112" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="37"/>
       <c r="H112" s="49" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="I112" s="46"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E113" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="37"/>
       <c r="H113" s="49" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="I113" s="46"/>
     </row>
@@ -4306,7 +4350,7 @@
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4318,7 +4362,7 @@
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="72" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C116" s="73" t="s">
         <v>23</v>
@@ -4336,7 +4380,7 @@
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="72" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C117" s="73" t="s">
         <v>23</v>
@@ -4354,112 +4398,112 @@
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="72" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C118" s="72" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D118" s="72"/>
       <c r="E118" s="77"/>
       <c r="F118" s="75"/>
       <c r="G118" s="81"/>
       <c r="H118" s="91" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I118" s="76"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="72" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C119" s="78" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D119" s="72"/>
       <c r="E119" s="74"/>
       <c r="F119" s="75"/>
       <c r="G119" s="81"/>
       <c r="H119" s="92" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I119" s="76"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="72" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C120" s="73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D120" s="79" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E120" s="74"/>
       <c r="F120" s="75"/>
       <c r="G120" s="81"/>
       <c r="H120" s="93" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I120" s="76"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="72" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C121" s="80" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D121" s="80"/>
       <c r="E121" s="74"/>
       <c r="F121" s="81"/>
       <c r="G121" s="81"/>
       <c r="H121" s="94" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I121" s="76"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="80" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C122" s="82" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D122" s="83" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E122" s="74"/>
       <c r="F122" s="81"/>
       <c r="G122" s="81"/>
       <c r="H122" s="95" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I122" s="76"/>
     </row>
     <row r="123" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="80" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C123" s="84" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="D123" s="80" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="E123" s="74"/>
       <c r="F123" s="88"/>
       <c r="G123" s="88"/>
       <c r="H123" s="95" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="I123" s="86"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" s="80" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C124" s="80" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D124" s="80"/>
       <c r="E124" s="74"/>
@@ -4470,61 +4514,61 @@
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" s="80" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="C125" s="82" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="D125" s="80" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="E125" s="74"/>
       <c r="F125" s="81"/>
       <c r="G125" s="89"/>
       <c r="H125" s="94" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="I125" s="76"/>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" s="80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C126" s="82" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="D126" s="80" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="E126" s="74"/>
       <c r="F126" s="88"/>
       <c r="G126" s="81"/>
       <c r="H126" s="94" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="I126" s="76"/>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" s="80" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C127" s="87" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="D127" s="88" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="E127" s="74"/>
       <c r="F127" s="89"/>
       <c r="G127" s="81"/>
       <c r="H127" s="96" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="I127" s="76"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" s="80" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="C128" s="85" t="s">
         <v>91</v>
@@ -4540,23 +4584,23 @@
     </row>
     <row r="129" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="E129" s="32" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="F129" s="37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G129" s="38"/>
       <c r="H129" s="48" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="I129" s="46"/>
     </row>
@@ -4569,123 +4613,123 @@
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C131" s="90" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="E131" s="32" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="F131" s="97" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="G131" s="37"/>
       <c r="H131" s="45" t="s">
         <v>26</v>
       </c>
       <c r="I131" s="46" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
     </row>
     <row r="132" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
       <c r="H132" s="48" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="I132" s="46"/>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D133" s="22" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E133" s="32"/>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
       <c r="H133" s="45" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I133" s="46"/>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C134" s="90" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="E134" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F134" s="97" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="G134" s="37"/>
       <c r="H134" s="45" t="s">
         <v>26</v>
       </c>
       <c r="I134" s="46" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
     </row>
     <row r="135" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="E135" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
       <c r="H135" s="48" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="I135" s="46"/>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C136" s="90" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="E136" s="32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F136" s="97" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="G136" s="37"/>
       <c r="H136" s="45" t="s">
         <v>26</v>
       </c>
       <c r="I136" s="46" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
@@ -4704,49 +4748,49 @@
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E139" s="32"/>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
       <c r="H139" s="45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I139" s="46"/>
     </row>
     <row r="140" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="E140" s="32"/>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
       <c r="H140" s="47" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="I140" s="46"/>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C141" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E141" s="32"/>
       <c r="F141" s="37"/>
       <c r="G141" s="41"/>
       <c r="H141" s="45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I141" s="46"/>
     </row>
@@ -4760,7 +4804,7 @@
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E143" s="32"/>
       <c r="F143" s="37"/>
@@ -4770,88 +4814,88 @@
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D144" s="22" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="E144" s="32"/>
       <c r="F144" s="38"/>
       <c r="G144" s="37"/>
       <c r="H144" s="45" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="I144" s="46"/>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="E145" s="32"/>
       <c r="F145" s="38"/>
       <c r="G145" s="37"/>
       <c r="H145" s="49" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="I145" s="46"/>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E146" s="32"/>
       <c r="F146" s="38"/>
       <c r="G146" s="37"/>
       <c r="H146" s="49" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="I146" s="46"/>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C147" s="70" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="E147" s="32"/>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
       <c r="H147" s="54" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="I147" s="46"/>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E148" s="32"/>
       <c r="F148" s="37"/>
       <c r="G148" s="37"/>
       <c r="H148" s="45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I148" s="46"/>
     </row>
@@ -4864,7 +4908,7 @@
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E150" s="32"/>
       <c r="F150" s="37"/>
@@ -4874,85 +4918,85 @@
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C151" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D151" s="22" t="s">
         <v>244</v>
-      </c>
-      <c r="D151" s="22" t="s">
-        <v>247</v>
       </c>
       <c r="E151" s="32"/>
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
       <c r="H151" s="55" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I151" s="46"/>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="E152" s="32"/>
       <c r="F152" s="37"/>
       <c r="G152" s="37"/>
       <c r="H152" s="45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I152" s="46"/>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="C153" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="E153" s="32"/>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
       <c r="H153" s="45" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I153" s="46"/>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="E154" s="32"/>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
       <c r="H154" s="45" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="I154" s="46"/>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="E155" s="32"/>
       <c r="F155" s="37"/>
@@ -4962,31 +5006,31 @@
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E156" s="32"/>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
       <c r="H156" s="54" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I156" s="46"/>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
+        <v>145</v>
+      </c>
+      <c r="C157" s="22" t="s">
         <v>147</v>
-      </c>
-      <c r="C157" s="22" t="s">
-        <v>149</v>
       </c>
       <c r="E157" s="32"/>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
       <c r="H157" s="45" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I157" s="46"/>
     </row>
@@ -4999,7 +5043,7 @@
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E159" s="32"/>
       <c r="F159" s="37"/>
@@ -5009,246 +5053,246 @@
     </row>
     <row r="160" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
+        <v>149</v>
+      </c>
+      <c r="C160" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C160" s="13" t="s">
-        <v>153</v>
-      </c>
       <c r="D160" s="20" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="E160" s="64" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F160" s="37" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="G160" s="37"/>
       <c r="H160" s="47" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="I160" s="46"/>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E161" s="64" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="F161" s="40" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="G161" s="37"/>
       <c r="H161" s="45" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="I161" s="46" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
     </row>
     <row r="162" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
+        <v>151</v>
+      </c>
+      <c r="C162" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C162" s="13" t="s">
-        <v>155</v>
-      </c>
       <c r="D162" s="20" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="E162" s="64" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F162" s="37" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G162" s="37"/>
       <c r="H162" s="47" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="I162" s="46"/>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C163" s="28" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="E163" s="67" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="F163" s="59" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G163" s="39" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H163" s="45" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="I163" s="46" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="164" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
+        <v>153</v>
+      </c>
+      <c r="C164" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C164" s="13" t="s">
-        <v>157</v>
-      </c>
       <c r="D164" s="20" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="E164" s="68" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F164" s="37" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="G164" s="37"/>
       <c r="H164" s="47" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="I164" s="46"/>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="E165" s="67" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="F165" s="59" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="G165" s="39" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="H165" s="45" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="I165" s="46" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="166" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
+        <v>155</v>
+      </c>
+      <c r="C166" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C166" s="13" t="s">
-        <v>159</v>
-      </c>
       <c r="D166" s="20" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="E166" s="64" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F166" s="37" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="G166" s="37"/>
       <c r="H166" s="47" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="I166" s="46"/>
     </row>
     <row r="167" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C167" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E167" s="66" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="F167" s="59" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="G167" s="39" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="H167" s="45" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="I167" s="46" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="168" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="E168" s="64" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F168" s="37" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="G168" s="37"/>
       <c r="H168" s="47" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="I168" s="46"/>
     </row>
     <row r="169" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E169" s="66" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F169" s="59" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="G169" s="40" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="H169" s="48" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="I169" s="50" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
     </row>
     <row r="170" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="E170" s="64" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F170" s="37" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="G170" s="37"/>
       <c r="H170" s="47" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="I170" s="46"/>
     </row>
@@ -5257,65 +5301,65 @@
         <v>90</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E171" s="66" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F171" s="59" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="G171" s="40" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="H171" s="45" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="I171" s="50" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
     </row>
     <row r="172" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D172" s="20" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="E172" s="64" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F172" s="37" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="G172" s="37"/>
       <c r="H172" s="47" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="I172" s="46"/>
     </row>
     <row r="173" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="E173" s="69" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F173" s="37" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="G173" s="37"/>
       <c r="H173" s="47" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="I173" s="46"/>
     </row>
@@ -5328,7 +5372,7 @@
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B175" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E175" s="32"/>
       <c r="F175" s="37"/>
@@ -5338,55 +5382,55 @@
     </row>
     <row r="176" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B176" s="5" t="s">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="E176" s="64" t="s">
-        <v>343</v>
+        <v>498</v>
       </c>
       <c r="F176" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="G176" s="37" t="s">
-        <v>365</v>
+        <v>499</v>
+      </c>
+      <c r="G176" s="38" t="s">
+        <v>349</v>
       </c>
       <c r="H176" s="47" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="I176" s="46"/>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C177" s="22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E177" s="32"/>
       <c r="F177" s="37"/>
       <c r="G177" s="37"/>
       <c r="H177" s="45" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I177" s="46"/>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C178" s="22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E178" s="32"/>
       <c r="F178" s="37"/>
       <c r="G178" s="37"/>
       <c r="H178" s="45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I178" s="46"/>
     </row>
@@ -5399,7 +5443,7 @@
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B180" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E180" s="32"/>
       <c r="F180" s="37"/>
@@ -5409,31 +5453,31 @@
     </row>
     <row r="181" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E181" s="32"/>
       <c r="F181" s="37"/>
       <c r="G181" s="37"/>
       <c r="H181" s="48" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I181" s="46"/>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C182" s="24" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E182" s="32"/>
       <c r="F182" s="37"/>
       <c r="G182" s="37"/>
       <c r="H182" s="53" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I182" s="46"/>
     </row>
@@ -5446,7 +5490,7 @@
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B184" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E184" s="32"/>
       <c r="F184" s="37"/>
@@ -5456,7 +5500,7 @@
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E185" s="32"/>
       <c r="F185" s="37"/>
@@ -5466,42 +5510,42 @@
     </row>
     <row r="186" spans="2:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C186" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E186" s="64" t="s">
         <v>9</v>
       </c>
       <c r="F186" s="38" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G186" s="37"/>
       <c r="H186" s="45" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I186" s="46"/>
     </row>
     <row r="187" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C187" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E187" s="64" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F187" s="40" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G187" s="37"/>
       <c r="H187" s="45" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="I187" s="50" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.25">
@@ -5513,7 +5557,7 @@
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E189" s="32"/>
       <c r="F189" s="37"/>
@@ -5523,80 +5567,80 @@
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
+        <v>181</v>
+      </c>
+      <c r="C190" s="22" t="s">
         <v>184</v>
-      </c>
-      <c r="C190" s="22" t="s">
-        <v>187</v>
       </c>
       <c r="E190" s="32"/>
       <c r="F190" s="37"/>
       <c r="G190" s="37"/>
       <c r="H190" s="45" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I190" s="46"/>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D191" s="22" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E191" s="32"/>
       <c r="F191" s="37"/>
       <c r="G191" s="37"/>
       <c r="H191" s="45" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I191" s="46"/>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C192" s="22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E192" s="32"/>
       <c r="F192" s="37"/>
       <c r="G192" s="37"/>
       <c r="H192" s="45" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I192" s="46"/>
     </row>
-    <row r="193" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="E193" s="32"/>
       <c r="F193" s="37"/>
       <c r="G193" s="37"/>
       <c r="H193" s="48" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="I193" s="46"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E194" s="32"/>
       <c r="F194" s="37"/>
       <c r="G194" s="37"/>
       <c r="H194" s="45"/>
       <c r="I194" s="46"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B195" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E195" s="32"/>
       <c r="F195" s="37"/>
@@ -5604,16 +5648,16 @@
       <c r="H195" s="45"/>
       <c r="I195" s="46"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E196" s="32"/>
       <c r="F196" s="37"/>
       <c r="G196" s="37"/>
       <c r="H196" s="45"/>
       <c r="I196" s="46"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E197" s="32"/>
       <c r="F197" s="37"/>
@@ -5621,49 +5665,49 @@
       <c r="H197" s="45"/>
       <c r="I197" s="46"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C198" s="22" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E198" s="32"/>
       <c r="F198" s="37"/>
       <c r="G198" s="37"/>
       <c r="H198" s="45" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I198" s="46"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D199" s="22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E199" s="32"/>
       <c r="F199" s="37"/>
       <c r="G199" s="37"/>
       <c r="H199" s="45" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I199" s="46"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E200" s="32"/>
       <c r="F200" s="37"/>
       <c r="G200" s="37"/>
       <c r="H200" s="45"/>
       <c r="I200" s="46"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E201" s="32"/>
       <c r="F201" s="37"/>
@@ -5671,46 +5715,46 @@
       <c r="H201" s="45"/>
       <c r="I201" s="46"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C202" s="22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E202" s="32"/>
       <c r="F202" s="37"/>
       <c r="G202" s="37"/>
       <c r="H202" s="45" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I202" s="46"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C203" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E203" s="32"/>
       <c r="F203" s="37"/>
       <c r="G203" s="37"/>
       <c r="H203" s="45" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I203" s="46"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E204" s="32"/>
       <c r="F204" s="37"/>
       <c r="G204" s="37"/>
       <c r="H204" s="45"/>
       <c r="I204" s="46"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B205" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E205" s="32"/>
       <c r="F205" s="37"/>
@@ -5718,93 +5762,96 @@
       <c r="H205" s="45"/>
       <c r="I205" s="46"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
+        <v>199</v>
+      </c>
+      <c r="C206" s="22" t="s">
         <v>202</v>
-      </c>
-      <c r="C206" s="22" t="s">
-        <v>205</v>
       </c>
       <c r="E206" s="32"/>
       <c r="F206" s="37"/>
       <c r="G206" s="37"/>
       <c r="H206" s="45" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I206" s="46"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
+        <v>200</v>
+      </c>
+      <c r="C207" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="C207" s="22" t="s">
-        <v>206</v>
-      </c>
       <c r="E207" s="32" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F207" s="37"/>
       <c r="G207" s="37"/>
       <c r="H207" s="45" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I207" s="46"/>
     </row>
-    <row r="208" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A208" s="30"/>
+    <row r="208" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>384</v>
+        <v>495</v>
       </c>
       <c r="D208" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="E208" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="F208" s="39" t="s">
         <v>307</v>
-      </c>
-      <c r="E208" s="64" t="s">
-        <v>441</v>
-      </c>
-      <c r="F208" s="39" t="s">
-        <v>315</v>
       </c>
       <c r="G208" s="37"/>
       <c r="H208" s="45" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="I208" s="46" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="30"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>440</v>
-      </c>
-      <c r="C209" s="22" t="s">
-        <v>306</v>
+        <v>422</v>
+      </c>
+      <c r="C209" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>300</v>
       </c>
       <c r="E209" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="F209" s="37" t="s">
-        <v>315</v>
+        <v>201</v>
+      </c>
+      <c r="F209" s="39" t="s">
+        <v>307</v>
       </c>
       <c r="G209" s="37"/>
       <c r="H209" s="45" t="s">
-        <v>306</v>
-      </c>
-      <c r="I209" s="46"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="I209" s="46" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E210" s="32"/>
       <c r="F210" s="37"/>
       <c r="G210" s="37"/>
       <c r="H210" s="45"/>
       <c r="I210" s="46"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B211" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E211" s="32"/>
       <c r="F211" s="37"/>
@@ -5812,7 +5859,7 @@
       <c r="H211" s="45"/>
       <c r="I211" s="46"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B212" s="4"/>
       <c r="E212" s="32"/>
       <c r="F212" s="37"/>
@@ -5820,9 +5867,9 @@
       <c r="H212" s="45"/>
       <c r="I212" s="46"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B213" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E213" s="32"/>
       <c r="F213" s="37"/>
@@ -5830,61 +5877,61 @@
       <c r="H213" s="45"/>
       <c r="I213" s="46"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
+        <v>207</v>
+      </c>
+      <c r="C214" s="22" t="s">
         <v>210</v>
-      </c>
-      <c r="C214" s="22" t="s">
-        <v>213</v>
       </c>
       <c r="E214" s="32"/>
       <c r="F214" s="37"/>
       <c r="G214" s="37"/>
       <c r="H214" s="45" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I214" s="46"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C215" s="28" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="E215" s="32"/>
       <c r="F215" s="37"/>
       <c r="G215" s="37"/>
       <c r="H215" s="45" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="I215" s="46"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C216" s="22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E216" s="32"/>
       <c r="F216" s="37"/>
       <c r="G216" s="37"/>
       <c r="H216" s="45" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I216" s="46"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E217" s="32"/>
       <c r="F217" s="37"/>
       <c r="G217" s="37"/>
       <c r="H217" s="45"/>
       <c r="I217" s="46"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B218" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E218" s="32"/>
       <c r="F218" s="37"/>
@@ -5892,31 +5939,31 @@
       <c r="H218" s="45"/>
       <c r="I218" s="46"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C219" s="28" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="E219" s="32"/>
       <c r="F219" s="37"/>
       <c r="G219" s="37"/>
       <c r="H219" s="45" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="I219" s="46"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E220" s="32"/>
       <c r="F220" s="37"/>
       <c r="G220" s="37"/>
       <c r="H220" s="45"/>
       <c r="I220" s="46"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B221" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E221" s="32"/>
       <c r="F221" s="37"/>
@@ -5924,31 +5971,31 @@
       <c r="H221" s="45"/>
       <c r="I221" s="46"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C222" s="22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E222" s="32"/>
       <c r="F222" s="38"/>
       <c r="G222" s="37"/>
       <c r="H222" s="45" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I222" s="46"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E223" s="32"/>
       <c r="F223" s="37"/>
       <c r="G223" s="37"/>
       <c r="H223" s="45"/>
       <c r="I223" s="46"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B224" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E224" s="32"/>
       <c r="F224" s="37"/>
@@ -5958,50 +6005,50 @@
     </row>
     <row r="225" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C225" s="22" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E225" s="64" t="s">
         <v>9</v>
       </c>
       <c r="F225" s="38" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G225" s="37"/>
       <c r="H225" s="45" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I225" s="46"/>
     </row>
     <row r="226" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D226" s="22" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E226" s="64" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F226" s="40" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="G226" s="37"/>
       <c r="H226" s="45" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="I226" s="50" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C227" s="22" t="s">
         <v>35</v>
@@ -6016,52 +6063,52 @@
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C228" s="22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E228" s="32"/>
       <c r="F228" s="37"/>
       <c r="G228" s="37"/>
       <c r="H228" s="45" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I228" s="46"/>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C229" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E229" s="64" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F229" s="39" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G229" s="37"/>
       <c r="H229" s="45" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="I229" s="46" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="230" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C230" s="22" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E230" s="35"/>
       <c r="F230" s="42"/>
       <c r="G230" s="42"/>
       <c r="H230" s="56" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="I230" s="57"/>
     </row>

--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B67BDEB-1F63-4624-8250-FE9A7382FD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F252966-E375-4C05-9B38-83731D2ED382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="501">
   <si>
     <t>&lt;Start&gt;</t>
   </si>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;DOT_EXPR&gt;     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;DOT_EXPR2&gt;    </t>
   </si>
   <si>
     <t xml:space="preserve">&lt;LIST&gt;         </t>
@@ -822,12 +819,6 @@
     <t>inc_dec ? dot  ? [ ? ( ? Null</t>
   </si>
   <si>
-    <t xml:space="preserve">dot </t>
-  </si>
-  <si>
-    <t xml:space="preserve">inc_dec ? dot </t>
-  </si>
-  <si>
     <t>FOLLOW SET</t>
   </si>
   <si>
@@ -885,17 +876,7 @@
     <t>&lt;ASSIGN_EXPR&gt;</t>
   </si>
   <si>
-    <t>&lt;INIT&gt;  ? &lt;DOT_EXPR&gt; ? &lt;DOT_EXPR2&gt;</t>
-  </si>
-  <si>
     <t>&lt;INIT&gt;</t>
-  </si>
-  <si>
-    <t>&lt;OPER_TO_EXPR&gt; ? &lt;DOT_EXPR&gt; ? 
-&lt;DOT_EXPR2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;OPER_TO_EXPR&gt;  ? , ? ;</t>
   </si>
   <si>
     <t xml:space="preserve">]  ? ) ? F&lt;EXPR_LIST&gt; ? Or ? : ? , ? ; ?  &lt;EXPR_OBJ&gt; </t>
@@ -1006,9 +987,6 @@
     <t>[  ? id</t>
   </si>
   <si>
-    <t xml:space="preserve">dot ? &lt;id_TO_EXPR&gt;  </t>
-  </si>
-  <si>
     <t>F&lt;EXPR1&gt; ? &lt;id_TO_EXPR&gt; ? &lt;F&gt;</t>
   </si>
   <si>
@@ -1043,10 +1021,6 @@
   <si>
     <t>pm ? Parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
 floatConst ? charConst ? boolConst ? strConst ? {  ? }</t>
-  </si>
-  <si>
-    <t>pm ? Parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
-floatConst ? charConst ? boolConst ? strConst</t>
   </si>
   <si>
     <t>Parent ? Self</t>
@@ -1101,10 +1075,6 @@
 ? charConst ? boolConst ? strConst ? pm</t>
   </si>
   <si>
-    <t>dot ? power ?  mdm ?  pm ? Rop ? And ? 
-Or ? Null</t>
-  </si>
-  <si>
     <t>And ? null</t>
   </si>
   <si>
@@ -1184,12 +1154,6 @@
     <t>inc_dec ? dot  ? [ ? (</t>
   </si>
   <si>
-    <t xml:space="preserve">power ?  mdm ?  pm ? Rop ? And ? Or </t>
-  </si>
-  <si>
-    <t>dot ? power ?  mdm ?  pm ? Rop ? And ? Or</t>
-  </si>
-  <si>
     <t xml:space="preserve">]  ? ) ? , ? }  ? :  ? ; </t>
   </si>
   <si>
@@ -1288,14 +1252,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;ID_TO_EXPR&gt;   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dot? &lt;ASSIGN_OP&gt;? &lt;INC_DEC&gt; ? 
-&lt;ID_TO_EXPR&gt; </t>
-  </si>
-  <si>
-    <t>&lt;DOT_EXPR&gt; ?&lt;SUBSCRIPT&gt; ?
-&lt;FN_BRACKETS&gt;</t>
   </si>
   <si>
     <t>&lt;ARR_TYPE&gt;?&lt;VAR_G&gt;</t>
@@ -1476,38 +1432,6 @@
 ? &lt;CONST&gt; ? &lt;FLAG&gt;</t>
   </si>
   <si>
-    <t>Parent ? Self ? id ? ( ? typeCast ? not? intConst ? 
-floatConst ? charConst ? boolConst ? strConst ? pm</t>
-  </si>
-  <si>
-    <t>F&lt;DOT_id&gt; ? F&lt;INC_DEC_DOT&gt; ? F&lt;DOT_EXPR&gt; ?
- F&lt;DOT_ID3&gt;? F&lt;DOT_ARR&gt; ?F&lt;DOT_ID5&gt;</t>
-  </si>
-  <si>
-    <t>dot ? = ? Cma ? inc_dec ? power 
-?  mdm ?  pm ? Rop ? And ? Or ? Null</t>
-  </si>
-  <si>
-    <t>dot ? = ? Cma ? inc_dec  ? power 
-?  mdm ?  pm ? Rop ? And ? Or ? Null?
- [ ? (</t>
-  </si>
-  <si>
-    <t>dot ? = ? Cma ? inc_dec ? power 
-?  mdm ?  pm ? Rop ? And ? Or ? Null?
- [ ? (</t>
-  </si>
-  <si>
-    <t>dot ? = ? Cma ? inc_dec ?  power 
-?  mdm ?  pm ? Rop ? And ? Or ? 
-&lt;ASSIGN_EXPR&gt;</t>
-  </si>
-  <si>
-    <t>dot ? = ? Cma ? inc_dec ? power 
-?  mdm ?  pm ? Rop ? And ? Or ? 
-, ? ;</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;DOT_ID4&gt;   </t>
   </si>
   <si>
@@ -1601,13 +1525,77 @@
   <si>
     <t>power ?  mdm ?  pm ? Rop ? 
 And ? Or ? &lt;OPER_TO_EXPR&gt; ? &lt;OPERANDS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DOT_EXPR&gt; ? &lt;FN_BRACKETS&gt; ?
+&lt;ASSIGN_OP&gt;  ? &lt;INC_DEC&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot? &lt;SUBSCRIPT&gt;?
+&lt;ID_TO_EXPR&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot ? [ ? power ? mdm ?  pm ? Rop ? And ? Or ? Null? 
+ ( ? = ? Cma ? inc_dec  </t>
+  </si>
+  <si>
+    <t>dot  ? [ ? power ? mdm ?  pm ? Rop ? And ? Or ? Null</t>
+  </si>
+  <si>
+    <t>&lt;OPER_TO_EXPR&gt; ? &lt;DOT_EXPR&gt; ? &lt;ASSIGN_EXPR&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, ? ; ? </t>
+  </si>
+  <si>
+    <t>&lt;INIT&gt;  ? &lt;DOT_EXPR&gt;</t>
+  </si>
+  <si>
+    <t>&lt;POS&gt;</t>
+  </si>
+  <si>
+    <t>F&lt;POS&gt; ? F&lt;POS2&gt; ? F&lt;ASSIGN_EXPR&gt; ? F&lt;ASSIGN&gt; ?  F&lt;POS3&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power ?  mdm ?  pm ? rop ? 
+And ? Or ? ]  ? ) ? , ? }  ?  :  ? ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot ? [ ? (  ? inc_dec ?   power ? mdm ?  pm ? rop ? And ? Or ? 
+ = ? Cma ? ]  ? ) ? , ? }  ?  :  ? ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot ? [ ? power ? mdm ?  pm ? Rop ? 
+And ? Or ? ( ? = ? Cma ? inc_dec  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot  ? [ ? power ? mdm ?  pm ? Rop ? 
+And ? Or </t>
+  </si>
+  <si>
+    <t>power ?  mdm ?  pm ? Rop ? And ? 
+Or</t>
+  </si>
+  <si>
+    <t>inc_dec ? dot  ? [</t>
+  </si>
+  <si>
+    <t>dot  ?  [</t>
+  </si>
+  <si>
+    <t>Parent ? Self ? id ? inc_dec?( ? typeCast ? not? intConst ? 
+floatConst ? charConst ? boolConst ? strConst ? pm</t>
+  </si>
+  <si>
+    <t>Parent ? Self ? id ? inc_dec?( ? typeCast ? not? intConst ? 
+floatConst ? charConst ? boolConst ? strConst ? Pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1663,15 +1651,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1712,17 +1693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -1906,7 +1877,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1914,11 +1885,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1987,7 +1956,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2079,74 +2047,74 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="7" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="8" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="8">
     <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
-    <cellStyle name="Accent2" xfId="8" builtinId="33"/>
+    <cellStyle name="Accent2" xfId="7" builtinId="33"/>
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
-    <cellStyle name="Accent6" xfId="9" builtinId="49"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2428,10 +2396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I230"/>
+  <dimension ref="B1:I229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="B170" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G178" sqref="G178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2454,23 +2422,23 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>367</v>
+      <c r="D1" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -2479,32 +2447,32 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="46" t="s">
-        <v>308</v>
+      <c r="I3" s="45" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -2512,23 +2480,23 @@
         <v>4</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>449</v>
-      </c>
-      <c r="E4" s="64" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="47" t="s">
-        <v>448</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>308</v>
+      <c r="F4" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="46" t="s">
+        <v>435</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -2536,23 +2504,23 @@
         <v>6</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="E5" s="64" t="s">
+        <v>407</v>
+      </c>
+      <c r="E5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="47" t="s">
-        <v>418</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>308</v>
+      <c r="F5" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -2560,44 +2528,44 @@
         <v>7</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>268</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="47" t="s">
-        <v>417</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>308</v>
+        <v>403</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="46" t="s">
+        <v>404</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
@@ -2605,109 +2573,109 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>304</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>457</v>
-      </c>
-      <c r="I10" s="46"/>
+        <v>420</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>444</v>
+      </c>
+      <c r="I10" s="45"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
     </row>
     <row r="13" spans="2:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>452</v>
-      </c>
-      <c r="E13" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="48" t="s">
-        <v>452</v>
-      </c>
-      <c r="I13" s="46"/>
+        <v>439</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="47" t="s">
+        <v>439</v>
+      </c>
+      <c r="I13" s="45"/>
     </row>
     <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>453</v>
-      </c>
-      <c r="E14" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="48" t="s">
-        <v>455</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>276</v>
+        <v>440</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -2715,37 +2683,37 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="49" t="s">
-        <v>396</v>
-      </c>
-      <c r="I17" s="46"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
@@ -2753,11 +2721,11 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
@@ -2767,13 +2735,13 @@
         <v>18</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="49" t="s">
+      <c r="E20" s="31"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="46"/>
+      <c r="I20" s="45"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -2783,55 +2751,55 @@
         <v>19</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="49" t="s">
+      <c r="E21" s="31"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="45"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="I22" s="46"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="I22" s="45"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="I23" s="46"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="I23" s="45"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
@@ -2839,43 +2807,43 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="46"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="49" t="s">
-        <v>339</v>
-      </c>
-      <c r="I26" s="46"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="I26" s="45"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="I27" s="46"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="I27" s="45"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
@@ -2885,38 +2853,38 @@
         <v>26</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="64" t="s">
-        <v>311</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="49" t="s">
+      <c r="E28" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="46"/>
+      <c r="I28" s="45"/>
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="65" t="s">
-        <v>312</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="49" t="s">
+      <c r="E29" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="G29" s="36"/>
+      <c r="H29" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="46" t="s">
-        <v>368</v>
+      <c r="I29" s="45" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -2924,38 +2892,38 @@
         <v>25</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="49" t="s">
-        <v>335</v>
-      </c>
-      <c r="I30" s="46"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="I30" s="45"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="46"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="45"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="46"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="45"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
@@ -2965,49 +2933,49 @@
         <v>28</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="64" t="s">
-        <v>298</v>
-      </c>
-      <c r="F33" s="58" t="s">
-        <v>281</v>
-      </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="49" t="s">
-        <v>369</v>
-      </c>
-      <c r="I33" s="46" t="s">
-        <v>281</v>
+      <c r="E33" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="F33" s="57" t="s">
+        <v>278</v>
+      </c>
+      <c r="G33" s="36"/>
+      <c r="H33" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="I33" s="45" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="46"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="45"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="46"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="45"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="46"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="45"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
@@ -3015,11 +2983,11 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="46"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="45"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
@@ -3029,13 +2997,13 @@
         <v>34</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="49" t="s">
+      <c r="E38" s="31"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I38" s="46"/>
+      <c r="I38" s="45"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -3045,31 +3013,31 @@
         <v>35</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="49" t="s">
+      <c r="E39" s="31"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="I39" s="46"/>
+      <c r="I39" s="45"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="49" t="s">
-        <v>340</v>
-      </c>
-      <c r="I40" s="46"/>
+        <v>332</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="I40" s="45"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -3079,83 +3047,83 @@
         <v>38</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="49" t="s">
+      <c r="E41" s="31"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I41" s="46"/>
+      <c r="I41" s="45"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="I42" s="46"/>
+        <v>333</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="I42" s="45"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="46"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="45"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="49" t="s">
-        <v>315</v>
-      </c>
-      <c r="I44" s="46"/>
+        <v>309</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="I44" s="45"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="E45" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="E45" s="63" t="s">
         <v>36</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="G45" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G45" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="H45" s="49" t="s">
-        <v>370</v>
-      </c>
-      <c r="I45" s="46" t="s">
+      <c r="H45" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="I45" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3163,11 +3131,11 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="46"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="45"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
@@ -3175,11 +3143,11 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="45"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
@@ -3189,109 +3157,109 @@
         <v>34</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="49" t="s">
+      <c r="E48" s="31"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I48" s="46"/>
+      <c r="I48" s="45"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C49" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="D49" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="I49" s="46"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="I49" s="45"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="49" t="s">
-        <v>343</v>
-      </c>
-      <c r="I50" s="46"/>
+        <v>335</v>
+      </c>
+      <c r="E50" s="31"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="I50" s="45"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>239</v>
-      </c>
       <c r="D51" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="E51" s="32"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="49" t="s">
-        <v>344</v>
-      </c>
-      <c r="I51" s="46"/>
+        <v>336</v>
+      </c>
+      <c r="E51" s="31"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="I51" s="45"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="E52" s="32"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="49" t="s">
-        <v>343</v>
-      </c>
-      <c r="I52" s="46"/>
+        <v>335</v>
+      </c>
+      <c r="E52" s="31"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="I52" s="45"/>
     </row>
     <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="E53" s="64" t="s">
-        <v>280</v>
+        <v>337</v>
+      </c>
+      <c r="E53" s="63" t="s">
+        <v>277</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="G53" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G53" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="H53" s="49" t="s">
-        <v>371</v>
-      </c>
-      <c r="I53" s="46" t="s">
+      <c r="H53" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="I53" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3300,26 +3268,26 @@
         <v>43</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="49" t="s">
-        <v>346</v>
-      </c>
-      <c r="I54" s="46"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="I54" s="45"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="46"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="45"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
@@ -3327,11 +3295,11 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="46"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="45"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
@@ -3341,49 +3309,49 @@
         <v>52</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="E57" s="32"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="I57" s="46"/>
+        <v>231</v>
+      </c>
+      <c r="E57" s="31"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="I57" s="45"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="E58" s="32"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="I58" s="46"/>
+        <v>334</v>
+      </c>
+      <c r="E58" s="31"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="I58" s="45"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D59" s="1"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="I59" s="46"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="I59" s="45"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
@@ -3393,16 +3361,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="1"/>
-      <c r="E60" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="49" t="s">
-        <v>372</v>
-      </c>
-      <c r="I60" s="46" t="s">
-        <v>281</v>
+      <c r="E60" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="I60" s="45" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -3413,15 +3381,15 @@
         <v>54</v>
       </c>
       <c r="D61" s="1"/>
-      <c r="E61" s="33" t="s">
+      <c r="E61" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="49" t="s">
-        <v>373</v>
-      </c>
-      <c r="I61" s="46" t="s">
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="I61" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3433,13 +3401,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="49" t="s">
+      <c r="E62" s="31"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="I62" s="46"/>
+      <c r="I62" s="45"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
@@ -3449,37 +3417,37 @@
         <v>38</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="49" t="s">
+      <c r="E63" s="31"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I63" s="46"/>
+      <c r="I63" s="45"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="46"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E64" s="31"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="45"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="46"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E65" s="31"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="45"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,17 +3455,17 @@
         <v>59</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="E66" s="32"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="I66" s="46"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="E66" s="31"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="I66" s="45"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3505,83 +3473,81 @@
         <v>60</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="E67" s="64" t="s">
-        <v>306</v>
-      </c>
-      <c r="F67" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="G67" s="37"/>
-      <c r="H67" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="I67" s="46"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E67" s="63" t="s">
+        <v>300</v>
+      </c>
+      <c r="F67" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="G67" s="36"/>
+      <c r="H67" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="I67" s="45"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="46"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E68" s="31"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="45"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="46"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E69" s="31"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="45"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="46"/>
-    </row>
-    <row r="71" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="45"/>
+    </row>
+    <row r="71" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="E71" s="64" t="s">
-        <v>501</v>
-      </c>
-      <c r="F71" s="59" t="s">
-        <v>502</v>
-      </c>
-      <c r="G71" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="H71" s="47" t="s">
-        <v>374</v>
-      </c>
-      <c r="I71" s="50" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
+        <v>279</v>
+      </c>
+      <c r="E71" s="63" t="s">
+        <v>481</v>
+      </c>
+      <c r="F71" s="58" t="s">
+        <v>482</v>
+      </c>
+      <c r="G71" s="39" t="s">
+        <v>492</v>
+      </c>
+      <c r="H71" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="I71" s="49" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>62</v>
       </c>
@@ -3589,47 +3555,45 @@
         <v>26</v>
       </c>
       <c r="D72" s="1"/>
-      <c r="E72" s="66" t="s">
-        <v>467</v>
-      </c>
-      <c r="F72" s="60" t="s">
-        <v>471</v>
-      </c>
-      <c r="G72" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="H72" s="49" t="s">
+      <c r="E72" s="65" t="s">
+        <v>491</v>
+      </c>
+      <c r="F72" s="59" t="s">
+        <v>493</v>
+      </c>
+      <c r="G72" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="H72" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="I72" s="46"/>
-    </row>
-    <row r="73" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A73" s="30"/>
+      <c r="I72" s="45"/>
+    </row>
+    <row r="73" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D73" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="E73" s="64" t="s">
-        <v>299</v>
+      <c r="E73" s="63" t="s">
+        <v>293</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="G73" s="37"/>
-      <c r="H73" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="I73" s="50" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="30"/>
+        <v>493</v>
+      </c>
+      <c r="G73" s="36"/>
+      <c r="H73" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="I73" s="49" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>63</v>
       </c>
@@ -3637,16 +3601,15 @@
         <v>35</v>
       </c>
       <c r="D74" s="1"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="49" t="s">
+      <c r="E74" s="31"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="I74" s="46"/>
-    </row>
-    <row r="75" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
+      <c r="I74" s="45"/>
+    </row>
+    <row r="75" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>64</v>
       </c>
@@ -3654,18 +3617,17 @@
         <v>67</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="E75" s="32"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="I75" s="46"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
+        <v>451</v>
+      </c>
+      <c r="E75" s="31"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="47" t="s">
+        <v>451</v>
+      </c>
+      <c r="I75" s="45"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>65</v>
       </c>
@@ -3673,16 +3635,15 @@
         <v>38</v>
       </c>
       <c r="D76" s="1"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="45" t="s">
+      <c r="E76" s="31"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="I76" s="46"/>
-    </row>
-    <row r="77" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
+      <c r="I76" s="45"/>
+    </row>
+    <row r="77" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>66</v>
       </c>
@@ -3690,1719 +3651,1711 @@
         <v>68</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="E77" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="F77" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="E77" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="F77" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G77" s="37"/>
-      <c r="H77" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="I77" s="46"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="30"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="I77" s="45"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C78" s="99" t="s">
-        <v>478</v>
+        <v>457</v>
+      </c>
+      <c r="C78" s="97" t="s">
+        <v>458</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="E78" s="32"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="I78" s="46"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="I78" s="45"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="46"/>
-    </row>
-    <row r="80" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="E79" s="31"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="45"/>
+    </row>
+    <row r="80" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="46"/>
-    </row>
-    <row r="81" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="E80" s="31"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="45"/>
+    </row>
+    <row r="81" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="E81" s="64" t="s">
-        <v>497</v>
+        <v>261</v>
+      </c>
+      <c r="E81" s="63" t="s">
+        <v>477</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="G81" s="40" t="s">
-        <v>349</v>
-      </c>
-      <c r="H81" s="51" t="s">
-        <v>376</v>
-      </c>
-      <c r="I81" s="50" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="G81" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="H81" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="I81" s="49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>485</v>
-      </c>
-      <c r="E82" s="64" t="s">
-        <v>301</v>
+        <v>465</v>
+      </c>
+      <c r="E82" s="63" t="s">
+        <v>295</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="G82" s="40" t="s">
-        <v>349</v>
-      </c>
-      <c r="H82" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="I82" s="46"/>
-    </row>
-    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="G82" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="H82" s="51" t="s">
+        <v>497</v>
+      </c>
+      <c r="I82" s="49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C83" s="99" t="s">
-        <v>483</v>
+        <v>459</v>
+      </c>
+      <c r="C83" s="97" t="s">
+        <v>463</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="E83" s="64" t="s">
-        <v>496</v>
-      </c>
-      <c r="F83" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="G83" s="40" t="s">
-        <v>349</v>
-      </c>
-      <c r="H83" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="I83" s="46"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+      <c r="E83" s="63" t="s">
+        <v>476</v>
+      </c>
+      <c r="F83" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="G83" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="H83" s="48" t="s">
+        <v>498</v>
+      </c>
+      <c r="I83" s="49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="46"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E84" s="31"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="45"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="46"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E85" s="31"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="45"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="45"/>
-      <c r="I86" s="46"/>
-    </row>
-    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="E86" s="31"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="45"/>
+    </row>
+    <row r="87" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="E87" s="32"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="49" t="s">
-        <v>435</v>
-      </c>
-      <c r="I87" s="46"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="E87" s="31"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="I87" s="45"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="E88" s="32"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="49" t="s">
-        <v>261</v>
-      </c>
-      <c r="I88" s="46"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="E88" s="31"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="I88" s="45"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="11"/>
       <c r="D89" s="19"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="49"/>
-      <c r="I89" s="46"/>
-    </row>
-    <row r="90" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="E89" s="31"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="45"/>
+    </row>
+    <row r="90" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="E90" s="34"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="47" t="s">
-        <v>430</v>
-      </c>
-      <c r="I90" s="46"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="E90" s="33"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="I90" s="45"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="E91" s="32"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="49" t="s">
-        <v>322</v>
-      </c>
-      <c r="I91" s="46"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="E91" s="31"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="I91" s="45"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D92" s="1"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="45"/>
-      <c r="I92" s="46"/>
-    </row>
-    <row r="93" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="E92" s="31"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="45"/>
+    </row>
+    <row r="93" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="E93" s="65" t="s">
-        <v>409</v>
-      </c>
-      <c r="F93" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G93" s="37"/>
-      <c r="H93" s="48" t="s">
-        <v>350</v>
-      </c>
-      <c r="I93" s="46"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="E93" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="F93" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G93" s="36"/>
+      <c r="H93" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="I93" s="45"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="E94" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="49" t="s">
-        <v>331</v>
-      </c>
-      <c r="I94" s="46" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="E94" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="I94" s="45" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="E95" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="F95" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G95" s="37"/>
-      <c r="H95" s="53" t="s">
-        <v>258</v>
-      </c>
-      <c r="I95" s="46"/>
-    </row>
-    <row r="96" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="98"/>
+        <v>257</v>
+      </c>
+      <c r="E95" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="F95" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G95" s="36"/>
+      <c r="H95" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="I95" s="45"/>
+    </row>
+    <row r="96" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>412</v>
+        <v>483</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="E96" s="64" t="s">
-        <v>284</v>
+        <v>485</v>
+      </c>
+      <c r="E96" s="63" t="s">
+        <v>489</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="G96" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="H96" s="47" t="s">
-        <v>470</v>
-      </c>
-      <c r="I96" s="46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="98"/>
+        <v>281</v>
+      </c>
+      <c r="G96" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H96" s="98" t="s">
+        <v>494</v>
+      </c>
+      <c r="I96" s="45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>411</v>
+        <v>484</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="E97" s="64" t="s">
-        <v>283</v>
+        <v>486</v>
+      </c>
+      <c r="E97" s="63" t="s">
+        <v>280</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="G97" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="H97" s="47" t="s">
-        <v>468</v>
-      </c>
-      <c r="I97" s="46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="G97" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H97" s="98" t="s">
+        <v>495</v>
+      </c>
+      <c r="I97" s="45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="E98" s="64" t="s">
+        <v>487</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="G98" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H98" s="98" t="s">
+        <v>496</v>
+      </c>
+      <c r="I98" s="45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C98" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="E98" s="64" t="s">
-        <v>283</v>
-      </c>
-      <c r="F98" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="G98" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="H98" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="I98" s="46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D99" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="E99" s="65" t="s">
-        <v>286</v>
-      </c>
-      <c r="F99" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="G99" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="H99" s="49" t="s">
-        <v>377</v>
-      </c>
-      <c r="I99" s="46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D99" s="1"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="I99" s="45"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="C100" s="23" t="s">
         <v>91</v>
       </c>
       <c r="D100" s="1"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="49" t="s">
+      <c r="E100" s="31"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="I100" s="46"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C101" s="23" t="s">
+      <c r="I100" s="45"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="44"/>
+      <c r="I101" s="45"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D101" s="1"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="I101" s="46"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="46"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="9" t="s">
+      <c r="E102" s="31"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="45"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="7" t="s">
         <v>93</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="46"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="7" t="s">
+      <c r="E103" s="31"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="45"/>
+    </row>
+    <row r="104" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="37"/>
-      <c r="H104" s="45"/>
-      <c r="I104" s="46"/>
-    </row>
-    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C104" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="E104" s="31"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="48" t="s">
+        <v>472</v>
+      </c>
+      <c r="I104" s="45"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="E105" s="31"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="48" t="s">
+        <v>469</v>
+      </c>
+      <c r="I105" s="45"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E106" s="31"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="48" t="s">
+        <v>470</v>
+      </c>
+      <c r="I106" s="45"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C105" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="D105" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="E105" s="32"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="37"/>
-      <c r="H105" s="49" t="s">
-        <v>492</v>
-      </c>
-      <c r="I105" s="46"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="E106" s="32"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="49" t="s">
-        <v>489</v>
-      </c>
-      <c r="I106" s="46"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C107" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E107" s="32"/>
-      <c r="F107" s="37"/>
-      <c r="G107" s="37"/>
-      <c r="H107" s="49" t="s">
-        <v>490</v>
-      </c>
-      <c r="I107" s="46"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
+      <c r="C107" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="D107" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="E107" s="31"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="I107" s="45"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="44"/>
+      <c r="I108" s="45"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D108" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="E108" s="32"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="52" t="s">
-        <v>259</v>
-      </c>
-      <c r="I108" s="46"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="37"/>
-      <c r="H109" s="45"/>
-      <c r="I109" s="46"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="9" t="s">
+      <c r="E109" s="31"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="44"/>
+      <c r="I109" s="45"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C110" s="1"/>
+      <c r="C110" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="D110" s="1"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="37"/>
-      <c r="G110" s="37"/>
-      <c r="H110" s="45"/>
-      <c r="I110" s="46"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E110" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="F110" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="G110" s="36"/>
+      <c r="H110" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="I110" s="45"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C111" s="19" t="s">
+      <c r="C111" s="70" t="s">
+        <v>411</v>
+      </c>
+      <c r="E111" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F111" s="37"/>
+      <c r="G111" s="36"/>
+      <c r="H111" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="I111" s="45"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C112" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D111" s="1"/>
-      <c r="E111" s="32" t="s">
-        <v>440</v>
-      </c>
-      <c r="F111" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G111" s="37"/>
-      <c r="H111" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="I111" s="46"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C112" s="71" t="s">
-        <v>424</v>
-      </c>
-      <c r="E112" s="32" t="s">
+      <c r="D112" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="E112" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="F112" s="38"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="49" t="s">
-        <v>424</v>
-      </c>
-      <c r="I112" s="46"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="I112" s="45"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C113" s="11" t="s">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="44"/>
+      <c r="I113" s="45"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D113" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="E113" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="F113" s="38"/>
-      <c r="G113" s="37"/>
-      <c r="H113" s="49" t="s">
-        <v>426</v>
-      </c>
-      <c r="I113" s="46"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="37"/>
-      <c r="G114" s="37"/>
-      <c r="H114" s="45"/>
-      <c r="I114" s="46"/>
+      <c r="E114" s="31"/>
+      <c r="F114" s="36"/>
+      <c r="G114" s="36"/>
+      <c r="H114" s="44"/>
+      <c r="I114" s="45"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="37"/>
-      <c r="G115" s="37"/>
-      <c r="H115" s="45"/>
-      <c r="I115" s="46"/>
+      <c r="C115" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" s="73"/>
+      <c r="F115" s="74"/>
+      <c r="G115" s="80"/>
+      <c r="H115" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="I115" s="75"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="72" t="s">
+      <c r="B116" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="C116" s="73" t="s">
+      <c r="C116" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D116" s="72" t="s">
+      <c r="D116" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="E116" s="74"/>
-      <c r="F116" s="75"/>
-      <c r="G116" s="81"/>
-      <c r="H116" s="91" t="s">
+      <c r="E116" s="73"/>
+      <c r="F116" s="74"/>
+      <c r="G116" s="74"/>
+      <c r="H116" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="I116" s="76"/>
+      <c r="I116" s="75"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="72" t="s">
+      <c r="B117" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C117" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D117" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="E117" s="74"/>
-      <c r="F117" s="75"/>
-      <c r="G117" s="75"/>
-      <c r="H117" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="I117" s="76"/>
+      <c r="C117" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="D117" s="71"/>
+      <c r="E117" s="76"/>
+      <c r="F117" s="74"/>
+      <c r="G117" s="80"/>
+      <c r="H117" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="I117" s="75"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="72" t="s">
+      <c r="B118" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="C118" s="72" t="s">
+      <c r="C118" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="D118" s="72"/>
-      <c r="E118" s="77"/>
-      <c r="F118" s="75"/>
-      <c r="G118" s="81"/>
+      <c r="D118" s="71"/>
+      <c r="E118" s="73"/>
+      <c r="F118" s="74"/>
+      <c r="G118" s="80"/>
       <c r="H118" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="I118" s="76"/>
+      <c r="I118" s="75"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="72" t="s">
+      <c r="B119" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C119" s="78" t="s">
+      <c r="C119" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="D119" s="72"/>
-      <c r="E119" s="74"/>
-      <c r="F119" s="75"/>
-      <c r="G119" s="81"/>
+      <c r="D119" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="E119" s="73"/>
+      <c r="F119" s="74"/>
+      <c r="G119" s="80"/>
       <c r="H119" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="I119" s="75"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C120" s="79" t="s">
+        <v>249</v>
+      </c>
+      <c r="D120" s="79"/>
+      <c r="E120" s="73"/>
+      <c r="F120" s="80"/>
+      <c r="G120" s="80"/>
+      <c r="H120" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="I120" s="75"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C121" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="I119" s="76"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="C120" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="D120" s="79" t="s">
-        <v>251</v>
-      </c>
-      <c r="E120" s="74"/>
-      <c r="F120" s="75"/>
-      <c r="G120" s="81"/>
-      <c r="H120" s="93" t="s">
-        <v>251</v>
-      </c>
-      <c r="I120" s="76"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="C121" s="80" t="s">
+      <c r="D121" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="D121" s="80"/>
-      <c r="E121" s="74"/>
-      <c r="F121" s="81"/>
-      <c r="G121" s="81"/>
+      <c r="E121" s="73"/>
+      <c r="F121" s="80"/>
+      <c r="G121" s="80"/>
       <c r="H121" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="I121" s="76"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B122" s="80" t="s">
+      <c r="I121" s="75"/>
+    </row>
+    <row r="122" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B122" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="C122" s="82" t="s">
+      <c r="C122" s="83" t="s">
+        <v>397</v>
+      </c>
+      <c r="D122" s="79" t="s">
+        <v>396</v>
+      </c>
+      <c r="E122" s="73"/>
+      <c r="F122" s="87"/>
+      <c r="G122" s="87"/>
+      <c r="H122" s="94" t="s">
+        <v>395</v>
+      </c>
+      <c r="I122" s="85"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="C123" s="79" t="s">
+        <v>256</v>
+      </c>
+      <c r="D123" s="79"/>
+      <c r="E123" s="73"/>
+      <c r="F123" s="80"/>
+      <c r="G123" s="88"/>
+      <c r="H123" s="93"/>
+      <c r="I123" s="75"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="79" t="s">
+        <v>387</v>
+      </c>
+      <c r="C124" s="81" t="s">
+        <v>388</v>
+      </c>
+      <c r="D124" s="79" t="s">
+        <v>389</v>
+      </c>
+      <c r="E124" s="73"/>
+      <c r="F124" s="80"/>
+      <c r="G124" s="88"/>
+      <c r="H124" s="93" t="s">
+        <v>389</v>
+      </c>
+      <c r="I124" s="75"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="C125" s="81" t="s">
+        <v>393</v>
+      </c>
+      <c r="D125" s="79" t="s">
+        <v>394</v>
+      </c>
+      <c r="E125" s="73"/>
+      <c r="F125" s="87"/>
+      <c r="G125" s="80"/>
+      <c r="H125" s="93" t="s">
+        <v>394</v>
+      </c>
+      <c r="I125" s="75"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="C126" s="86" t="s">
+        <v>391</v>
+      </c>
+      <c r="D126" s="87" t="s">
+        <v>392</v>
+      </c>
+      <c r="E126" s="73"/>
+      <c r="F126" s="88"/>
+      <c r="G126" s="80"/>
+      <c r="H126" s="95" t="s">
+        <v>392</v>
+      </c>
+      <c r="I126" s="75"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="79" t="s">
+        <v>390</v>
+      </c>
+      <c r="C127" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="D127" s="79"/>
+      <c r="E127" s="73"/>
+      <c r="F127" s="88"/>
+      <c r="G127" s="80"/>
+      <c r="H127" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="I127" s="75"/>
+    </row>
+    <row r="128" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>114</v>
+      </c>
+      <c r="C128" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D122" s="83" t="s">
-        <v>251</v>
-      </c>
-      <c r="E122" s="74"/>
-      <c r="F122" s="81"/>
-      <c r="G122" s="81"/>
-      <c r="H122" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="I122" s="76"/>
-    </row>
-    <row r="123" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B123" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="C123" s="84" t="s">
-        <v>408</v>
-      </c>
-      <c r="D123" s="80" t="s">
-        <v>407</v>
-      </c>
-      <c r="E123" s="74"/>
-      <c r="F123" s="88"/>
-      <c r="G123" s="88"/>
-      <c r="H123" s="95" t="s">
-        <v>406</v>
-      </c>
-      <c r="I123" s="86"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="C124" s="80" t="s">
-        <v>257</v>
-      </c>
-      <c r="D124" s="80"/>
-      <c r="E124" s="74"/>
-      <c r="F124" s="81"/>
-      <c r="G124" s="89"/>
-      <c r="H124" s="94"/>
-      <c r="I124" s="76"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B125" s="80" t="s">
-        <v>398</v>
-      </c>
-      <c r="C125" s="82" t="s">
-        <v>399</v>
-      </c>
-      <c r="D125" s="80" t="s">
-        <v>400</v>
-      </c>
-      <c r="E125" s="74"/>
-      <c r="F125" s="81"/>
-      <c r="G125" s="89"/>
-      <c r="H125" s="94" t="s">
-        <v>400</v>
-      </c>
-      <c r="I125" s="76"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B126" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="C126" s="82" t="s">
-        <v>404</v>
-      </c>
-      <c r="D126" s="80" t="s">
-        <v>405</v>
-      </c>
-      <c r="E126" s="74"/>
-      <c r="F126" s="88"/>
-      <c r="G126" s="81"/>
-      <c r="H126" s="94" t="s">
-        <v>405</v>
-      </c>
-      <c r="I126" s="76"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="C127" s="87" t="s">
-        <v>402</v>
-      </c>
-      <c r="D127" s="88" t="s">
-        <v>403</v>
-      </c>
-      <c r="E127" s="74"/>
-      <c r="F127" s="89"/>
-      <c r="G127" s="81"/>
-      <c r="H127" s="96" t="s">
-        <v>403</v>
-      </c>
-      <c r="I127" s="76"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="80" t="s">
-        <v>401</v>
-      </c>
-      <c r="C128" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="D128" s="80"/>
-      <c r="E128" s="74"/>
-      <c r="F128" s="89"/>
-      <c r="G128" s="81"/>
-      <c r="H128" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="I128" s="76"/>
-    </row>
-    <row r="129" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>115</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="E129" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="F129" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="G129" s="38"/>
-      <c r="H129" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="I129" s="46"/>
+      <c r="D128" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="E128" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="F128" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G128" s="37"/>
+      <c r="H128" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="I128" s="45"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E129" s="31"/>
+      <c r="F129" s="36"/>
+      <c r="G129" s="36"/>
+      <c r="H129" s="44"/>
+      <c r="I129" s="45"/>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E130" s="32"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="45"/>
-      <c r="I130" s="46"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>128</v>
+      </c>
+      <c r="C130" s="89" t="s">
+        <v>424</v>
+      </c>
+      <c r="E130" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="F130" s="96" t="s">
+        <v>428</v>
+      </c>
+      <c r="G130" s="36"/>
+      <c r="H130" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I130" s="45" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>129</v>
       </c>
-      <c r="C131" s="90" t="s">
-        <v>437</v>
-      </c>
-      <c r="E131" s="32" t="s">
-        <v>438</v>
-      </c>
-      <c r="F131" s="97" t="s">
-        <v>441</v>
-      </c>
-      <c r="G131" s="37"/>
-      <c r="H131" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I131" s="46" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C131" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="E131" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F131" s="36"/>
+      <c r="G131" s="36"/>
+      <c r="H131" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="I131" s="45"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>130</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D132" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="E132" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="F132" s="37"/>
-      <c r="G132" s="37"/>
-      <c r="H132" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="I132" s="46"/>
+        <v>122</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="E132" s="31"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="36"/>
+      <c r="H132" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="I132" s="45"/>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
+        <v>126</v>
+      </c>
+      <c r="C133" s="89" t="s">
+        <v>424</v>
+      </c>
+      <c r="E133" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F133" s="96" t="s">
+        <v>428</v>
+      </c>
+      <c r="G133" s="36"/>
+      <c r="H133" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I133" s="45" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
         <v>131</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="C134" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="E134" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F134" s="36"/>
+      <c r="G134" s="36"/>
+      <c r="H134" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="I134" s="45"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>127</v>
+      </c>
+      <c r="C135" s="89" t="s">
+        <v>424</v>
+      </c>
+      <c r="E135" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F135" s="96" t="s">
+        <v>428</v>
+      </c>
+      <c r="G135" s="36"/>
+      <c r="H135" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I135" s="45" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E136" s="31"/>
+      <c r="F136" s="36"/>
+      <c r="G136" s="36"/>
+      <c r="H136" s="44"/>
+      <c r="I136" s="45"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E137" s="31"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="36"/>
+      <c r="H137" s="44"/>
+      <c r="I137" s="45"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>115</v>
+      </c>
+      <c r="C138" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D133" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="E133" s="32"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="I133" s="46"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>127</v>
-      </c>
-      <c r="C134" s="90" t="s">
-        <v>437</v>
-      </c>
-      <c r="E134" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="F134" s="97" t="s">
-        <v>441</v>
-      </c>
-      <c r="G134" s="37"/>
-      <c r="H134" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I134" s="46" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>132</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D135" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="E135" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F135" s="37"/>
-      <c r="G135" s="37"/>
-      <c r="H135" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="I135" s="46"/>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>128</v>
-      </c>
-      <c r="C136" s="90" t="s">
-        <v>437</v>
-      </c>
-      <c r="E136" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F136" s="97" t="s">
-        <v>441</v>
-      </c>
-      <c r="G136" s="37"/>
-      <c r="H136" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I136" s="46" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E137" s="32"/>
-      <c r="F137" s="37"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="45"/>
-      <c r="I137" s="46"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E138" s="32"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="45"/>
-      <c r="I138" s="46"/>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E138" s="31"/>
+      <c r="F138" s="36"/>
+      <c r="G138" s="36"/>
+      <c r="H138" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I138" s="45"/>
+    </row>
+    <row r="139" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>116</v>
       </c>
-      <c r="C139" s="22" t="s">
+      <c r="C139" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E139" s="32"/>
-      <c r="F139" s="37"/>
-      <c r="G139" s="37"/>
-      <c r="H139" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="I139" s="46"/>
-    </row>
-    <row r="140" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D139" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E139" s="31"/>
+      <c r="F139" s="36"/>
+      <c r="G139" s="36"/>
+      <c r="H139" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="I139" s="45"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>117</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="C140" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D140" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="E140" s="32"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
-      <c r="H140" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="I140" s="46"/>
+      <c r="E140" s="31"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="40"/>
+      <c r="H140" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="I140" s="45"/>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>118</v>
-      </c>
-      <c r="C141" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E141" s="32"/>
-      <c r="F141" s="37"/>
-      <c r="G141" s="41"/>
-      <c r="H141" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="I141" s="46"/>
+      <c r="B141" s="3"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="36"/>
+      <c r="G141" s="36"/>
+      <c r="H141" s="44"/>
+      <c r="I141" s="45"/>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B142" s="3"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="37"/>
-      <c r="G142" s="37"/>
-      <c r="H142" s="45"/>
-      <c r="I142" s="46"/>
+      <c r="B142" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E142" s="31"/>
+      <c r="F142" s="36"/>
+      <c r="G142" s="36"/>
+      <c r="H142" s="44"/>
+      <c r="I142" s="45"/>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B143" s="6" t="s">
+      <c r="B143" t="s">
         <v>134</v>
       </c>
-      <c r="E143" s="32"/>
+      <c r="C143" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="E143" s="31"/>
       <c r="F143" s="37"/>
-      <c r="G143" s="37"/>
-      <c r="H143" s="45"/>
-      <c r="I143" s="46"/>
+      <c r="G143" s="36"/>
+      <c r="H143" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="I143" s="45"/>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>135</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D144" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="E144" s="32"/>
-      <c r="F144" s="38"/>
-      <c r="G144" s="37"/>
-      <c r="H144" s="45" t="s">
-        <v>339</v>
-      </c>
-      <c r="I144" s="46"/>
+        <v>400</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="E144" s="31"/>
+      <c r="F144" s="37"/>
+      <c r="G144" s="36"/>
+      <c r="H144" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="I144" s="45"/>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>136</v>
+        <v>401</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>413</v>
+        <v>278</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="E145" s="32"/>
-      <c r="F145" s="38"/>
-      <c r="G145" s="37"/>
-      <c r="H145" s="49" t="s">
-        <v>421</v>
-      </c>
-      <c r="I145" s="46"/>
+        <v>278</v>
+      </c>
+      <c r="E145" s="31"/>
+      <c r="F145" s="37"/>
+      <c r="G145" s="36"/>
+      <c r="H145" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="I145" s="45"/>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>414</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="D146" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="E146" s="32"/>
-      <c r="F146" s="38"/>
-      <c r="G146" s="37"/>
-      <c r="H146" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="I146" s="46"/>
+        <v>136</v>
+      </c>
+      <c r="C146" s="69" t="s">
+        <v>447</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="E146" s="31"/>
+      <c r="F146" s="36"/>
+      <c r="G146" s="36"/>
+      <c r="H146" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="I146" s="45"/>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>137</v>
       </c>
-      <c r="C147" s="70" t="s">
-        <v>460</v>
-      </c>
-      <c r="D147" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="E147" s="32"/>
-      <c r="F147" s="37"/>
-      <c r="G147" s="37"/>
-      <c r="H147" s="54" t="s">
-        <v>459</v>
-      </c>
-      <c r="I147" s="46"/>
+      <c r="C147" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E147" s="31"/>
+      <c r="F147" s="36"/>
+      <c r="G147" s="36"/>
+      <c r="H147" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="I147" s="45"/>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>138</v>
-      </c>
-      <c r="C148" s="22" t="s">
+      <c r="E148" s="31"/>
+      <c r="F148" s="36"/>
+      <c r="G148" s="36"/>
+      <c r="H148" s="44"/>
+      <c r="I148" s="45"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B149" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E148" s="32"/>
-      <c r="F148" s="37"/>
-      <c r="G148" s="37"/>
-      <c r="H148" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="I148" s="46"/>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E149" s="32"/>
-      <c r="F149" s="37"/>
-      <c r="G149" s="37"/>
-      <c r="H149" s="45"/>
-      <c r="I149" s="46"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="36"/>
+      <c r="G149" s="36"/>
+      <c r="H149" s="44"/>
+      <c r="I149" s="45"/>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B150" s="6" t="s">
+      <c r="B150" t="s">
         <v>140</v>
       </c>
-      <c r="E150" s="32"/>
-      <c r="F150" s="37"/>
-      <c r="G150" s="37"/>
-      <c r="H150" s="45"/>
-      <c r="I150" s="46"/>
+      <c r="C150" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="E150" s="31"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="36"/>
+      <c r="H150" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="I150" s="45"/>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>141</v>
       </c>
-      <c r="C151" s="13" t="s">
-        <v>241</v>
+      <c r="C151" s="26" t="s">
+        <v>429</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="E151" s="32"/>
-      <c r="F151" s="37"/>
-      <c r="G151" s="37"/>
-      <c r="H151" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="I151" s="46"/>
+        <v>431</v>
+      </c>
+      <c r="E151" s="31"/>
+      <c r="F151" s="36"/>
+      <c r="G151" s="36"/>
+      <c r="H151" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="I151" s="45"/>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>142</v>
+        <v>430</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>442</v>
+        <v>21</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="E152" s="32"/>
-      <c r="F152" s="37"/>
-      <c r="G152" s="37"/>
-      <c r="H152" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="I152" s="46"/>
+        <v>331</v>
+      </c>
+      <c r="E152" s="31"/>
+      <c r="F152" s="36"/>
+      <c r="G152" s="36"/>
+      <c r="H152" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="I152" s="45"/>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>443</v>
-      </c>
-      <c r="C153" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D153" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="D153" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="E153" s="32"/>
-      <c r="F153" s="37"/>
-      <c r="G153" s="37"/>
-      <c r="H153" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="I153" s="46"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="36"/>
+      <c r="G153" s="36"/>
+      <c r="H153" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="I153" s="45"/>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>143</v>
+        <v>433</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="E154" s="32"/>
-      <c r="F154" s="37"/>
-      <c r="G154" s="37"/>
-      <c r="H154" s="45" t="s">
-        <v>347</v>
-      </c>
-      <c r="I154" s="46"/>
+        <v>402</v>
+      </c>
+      <c r="E154" s="31"/>
+      <c r="F154" s="36"/>
+      <c r="G154" s="36"/>
+      <c r="H154" s="44"/>
+      <c r="I154" s="45"/>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>446</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="D155" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="E155" s="32"/>
-      <c r="F155" s="37"/>
-      <c r="G155" s="37"/>
-      <c r="H155" s="45"/>
-      <c r="I155" s="46"/>
+        <v>143</v>
+      </c>
+      <c r="C155" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E155" s="31"/>
+      <c r="F155" s="36"/>
+      <c r="G155" s="36"/>
+      <c r="H155" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="I155" s="45"/>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>144</v>
       </c>
-      <c r="C156" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E156" s="32"/>
-      <c r="F156" s="37"/>
-      <c r="G156" s="37"/>
-      <c r="H156" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="I156" s="46"/>
+      <c r="C156" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E156" s="31"/>
+      <c r="F156" s="36"/>
+      <c r="G156" s="36"/>
+      <c r="H156" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="I156" s="45"/>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>145</v>
-      </c>
-      <c r="C157" s="22" t="s">
+      <c r="E157" s="31"/>
+      <c r="F157" s="36"/>
+      <c r="G157" s="36"/>
+      <c r="H157" s="44"/>
+      <c r="I157" s="45"/>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B158" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E157" s="32"/>
-      <c r="F157" s="37"/>
-      <c r="G157" s="37"/>
-      <c r="H157" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="I157" s="46"/>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E158" s="32"/>
-      <c r="F158" s="37"/>
-      <c r="G158" s="37"/>
-      <c r="H158" s="45"/>
-      <c r="I158" s="46"/>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B159" s="6" t="s">
+      <c r="E158" s="31"/>
+      <c r="F158" s="36"/>
+      <c r="G158" s="36"/>
+      <c r="H158" s="44"/>
+      <c r="I158" s="45"/>
+    </row>
+    <row r="159" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
         <v>148</v>
       </c>
-      <c r="E159" s="32"/>
-      <c r="F159" s="37"/>
-      <c r="G159" s="37"/>
-      <c r="H159" s="45"/>
-      <c r="I159" s="46"/>
-    </row>
-    <row r="160" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C159" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D159" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="E159" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="F159" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="G159" s="36"/>
+      <c r="H159" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="I159" s="45"/>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>149</v>
       </c>
-      <c r="C160" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D160" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="E160" s="64" t="s">
-        <v>288</v>
-      </c>
-      <c r="F160" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="G160" s="37"/>
-      <c r="H160" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="I160" s="46"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C160" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E160" s="63" t="s">
+        <v>416</v>
+      </c>
+      <c r="F160" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="G160" s="36"/>
+      <c r="H160" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="I160" s="45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>150</v>
       </c>
-      <c r="C161" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E161" s="64" t="s">
-        <v>429</v>
-      </c>
-      <c r="F161" s="40" t="s">
-        <v>379</v>
-      </c>
-      <c r="G161" s="37"/>
-      <c r="H161" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="I161" s="46" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C161" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D161" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="E161" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="F161" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="G161" s="36"/>
+      <c r="H161" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="I161" s="45"/>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>151</v>
       </c>
-      <c r="C162" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D162" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="E162" s="64" t="s">
-        <v>292</v>
-      </c>
-      <c r="F162" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="G162" s="37"/>
-      <c r="H162" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="I162" s="46"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C162" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="E162" s="66" t="s">
+        <v>317</v>
+      </c>
+      <c r="F162" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="G162" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="H162" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="I162" s="45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>152</v>
       </c>
-      <c r="C163" s="28" t="s">
-        <v>352</v>
+      <c r="C163" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D163" s="20" t="s">
+        <v>500</v>
       </c>
       <c r="E163" s="67" t="s">
-        <v>324</v>
-      </c>
-      <c r="F163" s="59" t="s">
-        <v>290</v>
-      </c>
-      <c r="G163" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="H163" s="45" t="s">
-        <v>381</v>
-      </c>
-      <c r="I163" s="46" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="F163" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="G163" s="36"/>
+      <c r="H163" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="I163" s="45"/>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>153</v>
       </c>
-      <c r="C164" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D164" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="E164" s="68" t="s">
-        <v>291</v>
-      </c>
-      <c r="F164" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="G164" s="37"/>
-      <c r="H164" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="I164" s="46"/>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C164" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="E164" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="F164" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="G164" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="H164" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="I164" s="45" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>154</v>
       </c>
-      <c r="C165" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="E165" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="F165" s="59" t="s">
-        <v>354</v>
-      </c>
-      <c r="G165" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="H165" s="45" t="s">
-        <v>382</v>
-      </c>
-      <c r="I165" s="46" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C165" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D165" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="E165" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="F165" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="G165" s="36"/>
+      <c r="H165" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="I165" s="45"/>
+    </row>
+    <row r="166" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>155</v>
       </c>
-      <c r="C166" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D166" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="E166" s="64" t="s">
-        <v>293</v>
-      </c>
-      <c r="F166" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="G166" s="37"/>
-      <c r="H166" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="I166" s="46"/>
-    </row>
-    <row r="167" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C166" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E166" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="F166" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="G166" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="H166" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="I166" s="45" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>156</v>
       </c>
-      <c r="C167" s="22" t="s">
+      <c r="C167" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E167" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="F167" s="59" t="s">
-        <v>359</v>
-      </c>
-      <c r="G167" s="39" t="s">
-        <v>357</v>
-      </c>
-      <c r="H167" s="45" t="s">
-        <v>384</v>
-      </c>
-      <c r="I167" s="46" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="D167" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="E167" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="F167" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="G167" s="36"/>
+      <c r="H167" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="I167" s="45"/>
+    </row>
+    <row r="168" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>157</v>
       </c>
-      <c r="C168" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D168" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="E168" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="F168" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="G168" s="37"/>
+      <c r="C168" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="E168" s="65" t="s">
+        <v>320</v>
+      </c>
+      <c r="F168" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="G168" s="39" t="s">
+        <v>353</v>
+      </c>
       <c r="H168" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="I168" s="46"/>
-    </row>
-    <row r="169" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="I168" s="49" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>158</v>
       </c>
-      <c r="C169" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="E169" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="F169" s="59" t="s">
-        <v>361</v>
-      </c>
-      <c r="G169" s="40" t="s">
-        <v>362</v>
-      </c>
-      <c r="H169" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="I169" s="50" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C169" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D169" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="E169" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="F169" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="G169" s="36"/>
+      <c r="H169" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="I169" s="45"/>
+    </row>
+    <row r="170" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
+        <v>89</v>
+      </c>
+      <c r="C170" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="E170" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="F170" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="G170" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="H170" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="I170" s="49" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
         <v>159</v>
       </c>
-      <c r="C170" s="13" t="s">
+      <c r="C171" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D170" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="E170" s="64" t="s">
-        <v>296</v>
-      </c>
-      <c r="F170" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="G170" s="37"/>
-      <c r="H170" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="I170" s="46"/>
-    </row>
-    <row r="171" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>90</v>
-      </c>
-      <c r="C171" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="E171" s="66" t="s">
-        <v>328</v>
-      </c>
-      <c r="F171" s="59" t="s">
-        <v>364</v>
-      </c>
-      <c r="G171" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="H171" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="I171" s="50" t="s">
-        <v>393</v>
-      </c>
+      <c r="D171" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="E171" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="F171" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="G171" s="36"/>
+      <c r="H171" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="I171" s="45"/>
     </row>
     <row r="172" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>160</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D172" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="E172" s="64" t="s">
-        <v>295</v>
-      </c>
-      <c r="F172" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="G172" s="37"/>
-      <c r="H172" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="I172" s="46"/>
-    </row>
-    <row r="173" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
-        <v>161</v>
-      </c>
-      <c r="C173" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="E172" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="F172" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="G172" s="36"/>
+      <c r="H172" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="I172" s="45"/>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E173" s="31"/>
+      <c r="F173" s="36"/>
+      <c r="G173" s="36"/>
+      <c r="H173" s="44"/>
+      <c r="I173" s="45"/>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B174" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D173" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="E173" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="F173" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="G173" s="37"/>
-      <c r="H173" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="I173" s="46"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E174" s="32"/>
-      <c r="F174" s="37"/>
-      <c r="G174" s="37"/>
-      <c r="H174" s="45"/>
-      <c r="I174" s="46"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B175" s="6" t="s">
+      <c r="E174" s="31"/>
+      <c r="F174" s="36"/>
+      <c r="G174" s="36"/>
+      <c r="H174" s="44"/>
+      <c r="I174" s="45"/>
+    </row>
+    <row r="175" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B175" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C175" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D175" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="E175" s="63" t="s">
+        <v>478</v>
+      </c>
+      <c r="F175" s="61" t="s">
+        <v>479</v>
+      </c>
+      <c r="G175" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="H175" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="I175" s="45"/>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
         <v>167</v>
       </c>
-      <c r="E175" s="32"/>
-      <c r="F175" s="37"/>
-      <c r="G175" s="37"/>
-      <c r="H175" s="45"/>
-      <c r="I175" s="46"/>
-    </row>
-    <row r="176" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B176" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="C176" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="D176" s="20" t="s">
-        <v>466</v>
-      </c>
-      <c r="E176" s="64" t="s">
-        <v>498</v>
-      </c>
-      <c r="F176" s="62" t="s">
-        <v>499</v>
-      </c>
-      <c r="G176" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="H176" s="47" t="s">
-        <v>466</v>
-      </c>
-      <c r="I176" s="46"/>
+      <c r="C176" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E176" s="31"/>
+      <c r="F176" s="36"/>
+      <c r="G176" s="36"/>
+      <c r="H176" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="I176" s="45"/>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
@@ -5411,309 +5364,309 @@
       <c r="C177" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="E177" s="32"/>
-      <c r="F177" s="37"/>
-      <c r="G177" s="37"/>
-      <c r="H177" s="45" t="s">
+      <c r="E177" s="31"/>
+      <c r="F177" s="36"/>
+      <c r="G177" s="36"/>
+      <c r="H177" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="I177" s="46"/>
+      <c r="I177" s="45"/>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
-        <v>169</v>
-      </c>
-      <c r="C178" s="22" t="s">
+      <c r="E178" s="31"/>
+      <c r="F178" s="36"/>
+      <c r="G178" s="36"/>
+      <c r="H178" s="44"/>
+      <c r="I178" s="45"/>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B179" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E179" s="31"/>
+      <c r="F179" s="36"/>
+      <c r="G179" s="36"/>
+      <c r="H179" s="44"/>
+      <c r="I179" s="45"/>
+    </row>
+    <row r="180" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B180" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E178" s="32"/>
-      <c r="F178" s="37"/>
-      <c r="G178" s="37"/>
-      <c r="H178" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="I178" s="46"/>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E179" s="32"/>
-      <c r="F179" s="37"/>
-      <c r="G179" s="37"/>
-      <c r="H179" s="45"/>
-      <c r="I179" s="46"/>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B180" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="E180" s="32"/>
-      <c r="F180" s="37"/>
-      <c r="G180" s="37"/>
-      <c r="H180" s="45"/>
-      <c r="I180" s="46"/>
-    </row>
-    <row r="181" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C180" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E180" s="31"/>
+      <c r="F180" s="36"/>
+      <c r="G180" s="36"/>
+      <c r="H180" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="I180" s="45"/>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C181" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C181" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="E181" s="31"/>
+      <c r="F181" s="36"/>
+      <c r="G181" s="36"/>
+      <c r="H181" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="I181" s="45"/>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E182" s="31"/>
+      <c r="F182" s="36"/>
+      <c r="G182" s="36"/>
+      <c r="H182" s="44"/>
+      <c r="I182" s="45"/>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B183" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E181" s="32"/>
-      <c r="F181" s="37"/>
-      <c r="G181" s="37"/>
-      <c r="H181" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="I181" s="46"/>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B182" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C182" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="E182" s="32"/>
-      <c r="F182" s="37"/>
-      <c r="G182" s="37"/>
-      <c r="H182" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="I182" s="46"/>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E183" s="32"/>
-      <c r="F183" s="37"/>
-      <c r="G183" s="37"/>
-      <c r="H183" s="45"/>
-      <c r="I183" s="46"/>
+      <c r="E183" s="31"/>
+      <c r="F183" s="36"/>
+      <c r="G183" s="36"/>
+      <c r="H183" s="44"/>
+      <c r="I183" s="45"/>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B184" s="6" t="s">
+      <c r="B184" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E184" s="31"/>
+      <c r="F184" s="36"/>
+      <c r="G184" s="36"/>
+      <c r="H184" s="44"/>
+      <c r="I184" s="45"/>
+    </row>
+    <row r="185" spans="2:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
         <v>174</v>
       </c>
-      <c r="E184" s="32"/>
-      <c r="F184" s="37"/>
-      <c r="G184" s="37"/>
-      <c r="H184" s="45"/>
-      <c r="I184" s="46"/>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B185" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E185" s="32"/>
-      <c r="F185" s="37"/>
-      <c r="G185" s="37"/>
-      <c r="H185" s="45"/>
-      <c r="I185" s="46"/>
-    </row>
-    <row r="186" spans="2:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C185" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E185" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="G185" s="36"/>
+      <c r="H185" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="I185" s="45"/>
+    </row>
+    <row r="186" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>175</v>
       </c>
       <c r="C186" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="E186" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F186" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="G186" s="37"/>
-      <c r="H186" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="I186" s="46"/>
-    </row>
-    <row r="187" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>176</v>
-      </c>
-      <c r="C187" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E187" s="64" t="s">
-        <v>175</v>
-      </c>
-      <c r="F187" s="40" t="s">
-        <v>456</v>
-      </c>
-      <c r="G187" s="37"/>
-      <c r="H187" s="45" t="s">
-        <v>389</v>
-      </c>
-      <c r="I187" s="50" t="s">
-        <v>456</v>
-      </c>
+      <c r="E186" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="F186" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="G186" s="36"/>
+      <c r="H186" s="44" t="s">
+        <v>378</v>
+      </c>
+      <c r="I186" s="49" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E187" s="31"/>
+      <c r="F187" s="36"/>
+      <c r="G187" s="36"/>
+      <c r="H187" s="44"/>
+      <c r="I187" s="45"/>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E188" s="32"/>
-      <c r="F188" s="37"/>
-      <c r="G188" s="37"/>
-      <c r="H188" s="45"/>
-      <c r="I188" s="46"/>
+      <c r="B188" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E188" s="31"/>
+      <c r="F188" s="36"/>
+      <c r="G188" s="36"/>
+      <c r="H188" s="44"/>
+      <c r="I188" s="45"/>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B189" s="8" t="s">
+      <c r="B189" t="s">
         <v>180</v>
       </c>
-      <c r="E189" s="32"/>
-      <c r="F189" s="37"/>
-      <c r="G189" s="37"/>
-      <c r="H189" s="45"/>
-      <c r="I189" s="46"/>
+      <c r="C189" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E189" s="31"/>
+      <c r="F189" s="36"/>
+      <c r="G189" s="36"/>
+      <c r="H189" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="I189" s="45"/>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>181</v>
       </c>
-      <c r="C190" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="E190" s="32"/>
-      <c r="F190" s="37"/>
-      <c r="G190" s="37"/>
-      <c r="H190" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="I190" s="46"/>
+      <c r="C190" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D190" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="E190" s="31"/>
+      <c r="F190" s="36"/>
+      <c r="G190" s="36"/>
+      <c r="H190" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="I190" s="45"/>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>182</v>
       </c>
-      <c r="C191" s="13" t="s">
+      <c r="C191" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E191" s="31"/>
+      <c r="F191" s="36"/>
+      <c r="G191" s="36"/>
+      <c r="H191" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="I191" s="45"/>
+    </row>
+    <row r="192" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>266</v>
+      </c>
+      <c r="C192" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="D192" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="E192" s="31"/>
+      <c r="F192" s="36"/>
+      <c r="G192" s="36"/>
+      <c r="H192" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="I192" s="45"/>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E193" s="31"/>
+      <c r="F193" s="36"/>
+      <c r="G193" s="36"/>
+      <c r="H193" s="44"/>
+      <c r="I193" s="45"/>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B194" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D191" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="E191" s="32"/>
-      <c r="F191" s="37"/>
-      <c r="G191" s="37"/>
-      <c r="H191" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="I191" s="46"/>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
-        <v>183</v>
-      </c>
-      <c r="C192" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="E192" s="32"/>
-      <c r="F192" s="37"/>
-      <c r="G192" s="37"/>
-      <c r="H192" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="I192" s="46"/>
-    </row>
-    <row r="193" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
-        <v>269</v>
-      </c>
-      <c r="C193" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="D193" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="E193" s="32"/>
-      <c r="F193" s="37"/>
-      <c r="G193" s="37"/>
-      <c r="H193" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="I193" s="46"/>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E194" s="32"/>
-      <c r="F194" s="37"/>
-      <c r="G194" s="37"/>
-      <c r="H194" s="45"/>
-      <c r="I194" s="46"/>
+      <c r="E194" s="31"/>
+      <c r="F194" s="36"/>
+      <c r="G194" s="36"/>
+      <c r="H194" s="44"/>
+      <c r="I194" s="45"/>
     </row>
     <row r="195" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B195" s="6" t="s">
+      <c r="E195" s="31"/>
+      <c r="F195" s="36"/>
+      <c r="G195" s="36"/>
+      <c r="H195" s="44"/>
+      <c r="I195" s="45"/>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B196" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E195" s="32"/>
-      <c r="F195" s="37"/>
-      <c r="G195" s="37"/>
-      <c r="H195" s="45"/>
-      <c r="I195" s="46"/>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E196" s="32"/>
-      <c r="F196" s="37"/>
-      <c r="G196" s="37"/>
-      <c r="H196" s="45"/>
-      <c r="I196" s="46"/>
+      <c r="E196" s="31"/>
+      <c r="F196" s="36"/>
+      <c r="G196" s="36"/>
+      <c r="H196" s="44"/>
+      <c r="I196" s="45"/>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B197" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E197" s="32"/>
-      <c r="F197" s="37"/>
-      <c r="G197" s="37"/>
-      <c r="H197" s="45"/>
-      <c r="I197" s="46"/>
+      <c r="B197" t="s">
+        <v>189</v>
+      </c>
+      <c r="C197" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E197" s="31"/>
+      <c r="F197" s="36"/>
+      <c r="G197" s="36"/>
+      <c r="H197" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="I197" s="45"/>
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>190</v>
       </c>
-      <c r="C198" s="22" t="s">
+      <c r="C198" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E198" s="32"/>
-      <c r="F198" s="37"/>
-      <c r="G198" s="37"/>
-      <c r="H198" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="I198" s="46"/>
+      <c r="D198" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="E198" s="31"/>
+      <c r="F198" s="36"/>
+      <c r="G198" s="36"/>
+      <c r="H198" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="I198" s="45"/>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>191</v>
-      </c>
-      <c r="C199" s="13" t="s">
+      <c r="E199" s="31"/>
+      <c r="F199" s="36"/>
+      <c r="G199" s="36"/>
+      <c r="H199" s="44"/>
+      <c r="I199" s="45"/>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B200" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E200" s="31"/>
+      <c r="F200" s="36"/>
+      <c r="G200" s="36"/>
+      <c r="H200" s="44"/>
+      <c r="I200" s="45"/>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
         <v>193</v>
       </c>
-      <c r="D199" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="E199" s="32"/>
-      <c r="F199" s="37"/>
-      <c r="G199" s="37"/>
-      <c r="H199" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="I199" s="46"/>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E200" s="32"/>
-      <c r="F200" s="37"/>
-      <c r="G200" s="37"/>
-      <c r="H200" s="45"/>
-      <c r="I200" s="46"/>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B201" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E201" s="32"/>
-      <c r="F201" s="37"/>
-      <c r="G201" s="37"/>
-      <c r="H201" s="45"/>
-      <c r="I201" s="46"/>
+      <c r="C201" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E201" s="31"/>
+      <c r="F201" s="36"/>
+      <c r="G201" s="36"/>
+      <c r="H201" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="I201" s="45"/>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
@@ -5722,45 +5675,45 @@
       <c r="C202" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="E202" s="32"/>
-      <c r="F202" s="37"/>
-      <c r="G202" s="37"/>
-      <c r="H202" s="45" t="s">
+      <c r="E202" s="31"/>
+      <c r="F202" s="36"/>
+      <c r="G202" s="36"/>
+      <c r="H202" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="I202" s="46"/>
+      <c r="I202" s="45"/>
     </row>
     <row r="203" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
-        <v>195</v>
-      </c>
-      <c r="C203" s="22" t="s">
+      <c r="E203" s="31"/>
+      <c r="F203" s="36"/>
+      <c r="G203" s="36"/>
+      <c r="H203" s="44"/>
+      <c r="I203" s="45"/>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B204" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="E203" s="32"/>
-      <c r="F203" s="37"/>
-      <c r="G203" s="37"/>
-      <c r="H203" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="I203" s="46"/>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E204" s="32"/>
-      <c r="F204" s="37"/>
-      <c r="G204" s="37"/>
-      <c r="H204" s="45"/>
-      <c r="I204" s="46"/>
+      <c r="E204" s="31"/>
+      <c r="F204" s="36"/>
+      <c r="G204" s="36"/>
+      <c r="H204" s="44"/>
+      <c r="I204" s="45"/>
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B205" s="8" t="s">
+      <c r="B205" t="s">
         <v>198</v>
       </c>
-      <c r="E205" s="32"/>
-      <c r="F205" s="37"/>
-      <c r="G205" s="37"/>
-      <c r="H205" s="45"/>
-      <c r="I205" s="46"/>
+      <c r="C205" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E205" s="31"/>
+      <c r="F205" s="36"/>
+      <c r="G205" s="36"/>
+      <c r="H205" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="I205" s="45"/>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
@@ -5769,297 +5722,297 @@
       <c r="C206" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="E206" s="32"/>
-      <c r="F206" s="37"/>
-      <c r="G206" s="37"/>
-      <c r="H206" s="45" t="s">
+      <c r="E206" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="F206" s="36"/>
+      <c r="G206" s="36"/>
+      <c r="H206" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="I206" s="46"/>
-    </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I206" s="45"/>
+    </row>
+    <row r="207" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>200</v>
       </c>
-      <c r="C207" s="22" t="s">
+      <c r="C207" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="D207" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="E207" s="63" t="s">
+        <v>410</v>
+      </c>
+      <c r="F207" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="G207" s="36"/>
+      <c r="H207" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="I207" s="45" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>409</v>
+      </c>
+      <c r="C208" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="E208" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="F208" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="G208" s="36"/>
+      <c r="H208" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="I208" s="45" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E209" s="31"/>
+      <c r="F209" s="36"/>
+      <c r="G209" s="36"/>
+      <c r="H209" s="44"/>
+      <c r="I209" s="45"/>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B210" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E207" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="F207" s="37"/>
-      <c r="G207" s="37"/>
-      <c r="H207" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="I207" s="46"/>
-    </row>
-    <row r="208" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
-        <v>201</v>
-      </c>
-      <c r="C208" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="D208" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="E208" s="64" t="s">
-        <v>423</v>
-      </c>
-      <c r="F208" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="G208" s="37"/>
-      <c r="H208" s="45" t="s">
-        <v>390</v>
-      </c>
-      <c r="I208" s="46" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
-        <v>422</v>
-      </c>
-      <c r="C209" s="26" t="s">
-        <v>494</v>
-      </c>
-      <c r="D209" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="E209" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="F209" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="G209" s="37"/>
-      <c r="H209" s="45" t="s">
-        <v>390</v>
-      </c>
-      <c r="I209" s="46" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E210" s="32"/>
-      <c r="F210" s="37"/>
-      <c r="G210" s="37"/>
-      <c r="H210" s="45"/>
-      <c r="I210" s="46"/>
+      <c r="E210" s="31"/>
+      <c r="F210" s="36"/>
+      <c r="G210" s="36"/>
+      <c r="H210" s="44"/>
+      <c r="I210" s="45"/>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B211" s="6" t="s">
+      <c r="B211" s="4"/>
+      <c r="E211" s="31"/>
+      <c r="F211" s="36"/>
+      <c r="G211" s="36"/>
+      <c r="H211" s="44"/>
+      <c r="I211" s="45"/>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B212" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E211" s="32"/>
-      <c r="F211" s="37"/>
-      <c r="G211" s="37"/>
-      <c r="H211" s="45"/>
-      <c r="I211" s="46"/>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B212" s="4"/>
-      <c r="E212" s="32"/>
-      <c r="F212" s="37"/>
-      <c r="G212" s="37"/>
-      <c r="H212" s="45"/>
-      <c r="I212" s="46"/>
+      <c r="E212" s="31"/>
+      <c r="F212" s="36"/>
+      <c r="G212" s="36"/>
+      <c r="H212" s="44"/>
+      <c r="I212" s="45"/>
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B213" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E213" s="32"/>
-      <c r="F213" s="37"/>
-      <c r="G213" s="37"/>
-      <c r="H213" s="45"/>
-      <c r="I213" s="46"/>
+      <c r="B213" t="s">
+        <v>206</v>
+      </c>
+      <c r="C213" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="E213" s="31"/>
+      <c r="F213" s="36"/>
+      <c r="G213" s="36"/>
+      <c r="H213" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="I213" s="45"/>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>207</v>
       </c>
-      <c r="C214" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="E214" s="32"/>
-      <c r="F214" s="37"/>
-      <c r="G214" s="37"/>
-      <c r="H214" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="I214" s="46"/>
+      <c r="C214" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="E214" s="31"/>
+      <c r="F214" s="36"/>
+      <c r="G214" s="36"/>
+      <c r="H214" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="I214" s="45"/>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>208</v>
       </c>
-      <c r="C215" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="E215" s="32"/>
-      <c r="F215" s="37"/>
-      <c r="G215" s="37"/>
-      <c r="H215" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="I215" s="46"/>
+      <c r="C215" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="E215" s="31"/>
+      <c r="F215" s="36"/>
+      <c r="G215" s="36"/>
+      <c r="H215" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="I215" s="45"/>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B216" t="s">
-        <v>209</v>
-      </c>
-      <c r="C216" s="22" t="s">
+      <c r="E216" s="31"/>
+      <c r="F216" s="36"/>
+      <c r="G216" s="36"/>
+      <c r="H216" s="44"/>
+      <c r="I216" s="45"/>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B217" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E217" s="31"/>
+      <c r="F217" s="36"/>
+      <c r="G217" s="36"/>
+      <c r="H217" s="44"/>
+      <c r="I217" s="45"/>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
         <v>211</v>
       </c>
-      <c r="E216" s="32"/>
-      <c r="F216" s="37"/>
-      <c r="G216" s="37"/>
-      <c r="H216" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="I216" s="46"/>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E217" s="32"/>
-      <c r="F217" s="37"/>
-      <c r="G217" s="37"/>
-      <c r="H217" s="45"/>
-      <c r="I217" s="46"/>
-    </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B218" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E218" s="32"/>
-      <c r="F218" s="37"/>
-      <c r="G218" s="37"/>
-      <c r="H218" s="45"/>
-      <c r="I218" s="46"/>
+      <c r="C218" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="E218" s="31"/>
+      <c r="F218" s="36"/>
+      <c r="G218" s="36"/>
+      <c r="H218" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="I218" s="45"/>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B219" t="s">
+      <c r="E219" s="31"/>
+      <c r="F219" s="36"/>
+      <c r="G219" s="36"/>
+      <c r="H219" s="44"/>
+      <c r="I219" s="45"/>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B220" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C219" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="E219" s="32"/>
-      <c r="F219" s="37"/>
-      <c r="G219" s="37"/>
-      <c r="H219" s="45" t="s">
-        <v>336</v>
-      </c>
-      <c r="I219" s="46"/>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E220" s="32"/>
-      <c r="F220" s="37"/>
-      <c r="G220" s="37"/>
-      <c r="H220" s="45"/>
-      <c r="I220" s="46"/>
+      <c r="E220" s="31"/>
+      <c r="F220" s="36"/>
+      <c r="G220" s="36"/>
+      <c r="H220" s="44"/>
+      <c r="I220" s="45"/>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B221" s="6" t="s">
+      <c r="B221" t="s">
         <v>213</v>
       </c>
-      <c r="E221" s="32"/>
+      <c r="C221" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E221" s="31"/>
       <c r="F221" s="37"/>
-      <c r="G221" s="37"/>
-      <c r="H221" s="45"/>
-      <c r="I221" s="46"/>
+      <c r="G221" s="36"/>
+      <c r="H221" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="I221" s="45"/>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B222" t="s">
-        <v>214</v>
-      </c>
-      <c r="C222" s="22" t="s">
+      <c r="E222" s="31"/>
+      <c r="F222" s="36"/>
+      <c r="G222" s="36"/>
+      <c r="H222" s="44"/>
+      <c r="I222" s="45"/>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B223" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E222" s="32"/>
-      <c r="F222" s="38"/>
-      <c r="G222" s="37"/>
-      <c r="H222" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="I222" s="46"/>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E223" s="32"/>
-      <c r="F223" s="37"/>
-      <c r="G223" s="37"/>
-      <c r="H223" s="45"/>
-      <c r="I223" s="46"/>
-    </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B224" s="6" t="s">
+      <c r="E223" s="31"/>
+      <c r="F223" s="36"/>
+      <c r="G223" s="36"/>
+      <c r="H223" s="44"/>
+      <c r="I223" s="45"/>
+    </row>
+    <row r="224" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
         <v>216</v>
       </c>
-      <c r="E224" s="32"/>
-      <c r="F224" s="37"/>
-      <c r="G224" s="37"/>
-      <c r="H224" s="45"/>
-      <c r="I224" s="46"/>
-    </row>
-    <row r="225" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C224" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E224" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F224" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="G224" s="36"/>
+      <c r="H224" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="I224" s="45"/>
+    </row>
+    <row r="225" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
+        <v>268</v>
+      </c>
+      <c r="C225" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D225" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="E225" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="F225" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="G225" s="36"/>
+      <c r="H225" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="I225" s="49" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
         <v>217</v>
       </c>
-      <c r="C225" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E225" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F225" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="G225" s="37"/>
-      <c r="H225" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="I225" s="46"/>
-    </row>
-    <row r="226" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B226" t="s">
-        <v>271</v>
-      </c>
-      <c r="C226" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="D226" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="E226" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="F226" s="40" t="s">
-        <v>461</v>
-      </c>
-      <c r="G226" s="37"/>
-      <c r="H226" s="45" t="s">
-        <v>391</v>
-      </c>
-      <c r="I226" s="50" t="s">
-        <v>462</v>
-      </c>
+      <c r="C226" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E226" s="31"/>
+      <c r="F226" s="36"/>
+      <c r="G226" s="36"/>
+      <c r="H226" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="I226" s="45"/>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>218</v>
       </c>
       <c r="C227" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E227" s="32"/>
-      <c r="F227" s="37"/>
-      <c r="G227" s="37"/>
-      <c r="H227" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="I227" s="46"/>
+        <v>222</v>
+      </c>
+      <c r="E227" s="31"/>
+      <c r="F227" s="36"/>
+      <c r="G227" s="36"/>
+      <c r="H227" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="I227" s="45"/>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
@@ -6068,49 +6021,34 @@
       <c r="C228" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="E228" s="32"/>
-      <c r="F228" s="37"/>
-      <c r="G228" s="37"/>
-      <c r="H228" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="I228" s="46"/>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E228" s="63" t="s">
+        <v>271</v>
+      </c>
+      <c r="F228" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="G228" s="36"/>
+      <c r="H228" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="I228" s="45" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
         <v>220</v>
       </c>
       <c r="C229" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="E229" s="64" t="s">
-        <v>274</v>
-      </c>
-      <c r="F229" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="G229" s="37"/>
-      <c r="H229" s="45" t="s">
-        <v>392</v>
-      </c>
-      <c r="I229" s="46" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="230" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B230" t="s">
-        <v>221</v>
-      </c>
-      <c r="C230" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="E230" s="35"/>
-      <c r="F230" s="42"/>
-      <c r="G230" s="42"/>
-      <c r="H230" s="56" t="s">
-        <v>270</v>
-      </c>
-      <c r="I230" s="57"/>
+        <v>267</v>
+      </c>
+      <c r="E229" s="34"/>
+      <c r="F229" s="41"/>
+      <c r="G229" s="41"/>
+      <c r="H229" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="I229" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
+++ b/Mio Language Design/Syntax Analyze Phase/FirstFollowSelectionSet/firstFollowSelectionSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\Mio Language Design\Syntax Analyze Phase\FirstFollowSelectionSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F252966-E375-4C05-9B38-83731D2ED382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C823B29-F94A-4726-B687-470D72B31CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1595,7 +1595,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1651,8 +1651,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1689,6 +1696,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1877,7 +1889,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1885,9 +1897,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1956,6 +1969,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2047,59 +2061,59 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="7" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="7" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="8" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2110,11 +2124,12 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
-    <cellStyle name="Accent2" xfId="7" builtinId="33"/>
+    <cellStyle name="Accent2" xfId="8" builtinId="33"/>
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2396,10 +2411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I229"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B170" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G178" sqref="G178"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2422,22 +2437,22 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="44" t="s">
         <v>358</v>
       </c>
     </row>
@@ -2447,11 +2462,11 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -2463,15 +2478,15 @@
       <c r="D3" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="44" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="46" t="s">
         <v>302</v>
       </c>
     </row>
@@ -2485,17 +2500,17 @@
       <c r="D4" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="46" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="47" t="s">
         <v>435</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="46" t="s">
         <v>302</v>
       </c>
     </row>
@@ -2509,17 +2524,17 @@
       <c r="D5" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="46" t="s">
+      <c r="G5" s="37"/>
+      <c r="H5" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="46" t="s">
         <v>302</v>
       </c>
     </row>
@@ -2533,17 +2548,17 @@
       <c r="D6" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="46" t="s">
+      <c r="G6" s="37"/>
+      <c r="H6" s="47" t="s">
         <v>404</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="46" t="s">
         <v>302</v>
       </c>
     </row>
@@ -2551,21 +2566,21 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
@@ -2573,11 +2588,11 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="46"/>
     </row>
     <row r="10" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -2589,37 +2604,37 @@
       <c r="D10" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="38" t="s">
         <v>455</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="48" t="s">
         <v>444</v>
       </c>
-      <c r="I10" s="45"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
     </row>
     <row r="13" spans="2:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -2631,17 +2646,17 @@
       <c r="D13" s="27" t="s">
         <v>439</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="38" t="s">
         <v>455</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="47" t="s">
+      <c r="G13" s="38"/>
+      <c r="H13" s="48" t="s">
         <v>439</v>
       </c>
-      <c r="I13" s="45"/>
+      <c r="I13" s="46"/>
     </row>
     <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -2653,17 +2668,17 @@
       <c r="D14" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="47" t="s">
+      <c r="G14" s="37"/>
+      <c r="H14" s="48" t="s">
         <v>442</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="46" t="s">
         <v>273</v>
       </c>
     </row>
@@ -2671,11 +2686,11 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -2683,11 +2698,11 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
@@ -2697,23 +2712,23 @@
         <v>385</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="48" t="s">
+      <c r="E17" s="32"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="49" t="s">
         <v>385</v>
       </c>
-      <c r="I17" s="45"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
@@ -2721,11 +2736,11 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
@@ -2735,13 +2750,13 @@
         <v>18</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="48" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="45"/>
+      <c r="I20" s="46"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -2751,13 +2766,13 @@
         <v>19</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="48" t="s">
+      <c r="E21" s="32"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="45"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
@@ -2767,13 +2782,13 @@
         <v>253</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="48" t="s">
+      <c r="E22" s="32"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="I22" s="45"/>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
@@ -2783,23 +2798,23 @@
         <v>252</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="48" t="s">
+      <c r="E23" s="32"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="I23" s="45"/>
+      <c r="I23" s="46"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
@@ -2807,11 +2822,11 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="45"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
@@ -2821,13 +2836,13 @@
         <v>331</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="48" t="s">
+      <c r="E26" s="32"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="I26" s="45"/>
+      <c r="I26" s="46"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
@@ -2837,13 +2852,13 @@
         <v>228</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="48" t="s">
+      <c r="E27" s="32"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="I27" s="45"/>
+      <c r="I27" s="46"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
@@ -2853,17 +2868,17 @@
         <v>26</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="63" t="s">
+      <c r="E28" s="64" t="s">
         <v>305</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="G28" s="36"/>
-      <c r="H28" s="48" t="s">
+      <c r="G28" s="37"/>
+      <c r="H28" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="45"/>
+      <c r="I28" s="46"/>
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
@@ -2873,17 +2888,17 @@
         <v>227</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="64" t="s">
+      <c r="E29" s="65" t="s">
         <v>306</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="48" t="s">
+      <c r="G29" s="37"/>
+      <c r="H29" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="46" t="s">
         <v>359</v>
       </c>
     </row>
@@ -2895,23 +2910,23 @@
         <v>327</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="48" t="s">
+      <c r="E30" s="32"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="49" t="s">
         <v>327</v>
       </c>
-      <c r="I30" s="45"/>
+      <c r="I30" s="46"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="45"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
@@ -2919,11 +2934,11 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="45"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
@@ -2933,17 +2948,17 @@
         <v>28</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="64" t="s">
         <v>292</v>
       </c>
-      <c r="F33" s="57" t="s">
+      <c r="F33" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="G33" s="36"/>
-      <c r="H33" s="48" t="s">
+      <c r="G33" s="37"/>
+      <c r="H33" s="49" t="s">
         <v>360</v>
       </c>
-      <c r="I33" s="45" t="s">
+      <c r="I33" s="46" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2951,31 +2966,31 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="45"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="46"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="45"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="45"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="46"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
@@ -2983,11 +2998,11 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="45"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
@@ -2997,13 +3012,13 @@
         <v>34</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="48" t="s">
+      <c r="E38" s="32"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="I38" s="45"/>
+      <c r="I38" s="46"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -3013,13 +3028,13 @@
         <v>35</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="48" t="s">
+      <c r="E39" s="32"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="I39" s="45"/>
+      <c r="I39" s="46"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
@@ -3031,13 +3046,13 @@
       <c r="D40" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="48" t="s">
+      <c r="E40" s="32"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="I40" s="45"/>
+      <c r="I40" s="46"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -3047,13 +3062,13 @@
         <v>38</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="48" t="s">
+      <c r="E41" s="32"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I41" s="45"/>
+      <c r="I41" s="46"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
@@ -3065,23 +3080,23 @@
       <c r="D42" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="48" t="s">
+      <c r="E42" s="32"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="I42" s="45"/>
+      <c r="I42" s="46"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="45"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="46"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
@@ -3093,13 +3108,13 @@
       <c r="D44" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="48" t="s">
+      <c r="E44" s="32"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="I44" s="45"/>
+      <c r="I44" s="46"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
@@ -3111,19 +3126,19 @@
       <c r="D45" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="E45" s="63" t="s">
+      <c r="E45" s="64" t="s">
         <v>36</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="G45" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H45" s="48" t="s">
+      <c r="H45" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="I45" s="45" t="s">
+      <c r="I45" s="46" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3131,11 +3146,11 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="45"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="46"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
@@ -3143,11 +3158,11 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="45"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="46"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
@@ -3157,13 +3172,13 @@
         <v>34</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="48" t="s">
+      <c r="E48" s="32"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="I48" s="45"/>
+      <c r="I48" s="46"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
@@ -3175,13 +3190,13 @@
       <c r="D49" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="48" t="s">
+      <c r="E49" s="32"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="I49" s="45"/>
+      <c r="I49" s="46"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
@@ -3193,13 +3208,13 @@
       <c r="D50" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="E50" s="31"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="48" t="s">
+      <c r="E50" s="32"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="I50" s="45"/>
+      <c r="I50" s="46"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
@@ -3211,13 +3226,13 @@
       <c r="D51" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="48" t="s">
+      <c r="E51" s="32"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="I51" s="45"/>
+      <c r="I51" s="46"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
@@ -3229,13 +3244,13 @@
       <c r="D52" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="48" t="s">
+      <c r="E52" s="32"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="I52" s="45"/>
+      <c r="I52" s="46"/>
     </row>
     <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
@@ -3247,19 +3262,19 @@
       <c r="D53" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="E53" s="63" t="s">
+      <c r="E53" s="64" t="s">
         <v>277</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="G53" s="38" t="s">
+      <c r="G53" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H53" s="48" t="s">
+      <c r="H53" s="49" t="s">
         <v>362</v>
       </c>
-      <c r="I53" s="45" t="s">
+      <c r="I53" s="46" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3271,23 +3286,23 @@
         <v>338</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="48" t="s">
+      <c r="E54" s="32"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="I54" s="45"/>
+      <c r="I54" s="46"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="45"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="46"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
@@ -3295,11 +3310,11 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="45"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="46"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
@@ -3311,13 +3326,13 @@
       <c r="D57" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="E57" s="31"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="48" t="s">
+      <c r="E57" s="32"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="I57" s="45"/>
+      <c r="I57" s="46"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
@@ -3329,13 +3344,13 @@
       <c r="D58" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="E58" s="31"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="44" t="s">
+      <c r="E58" s="32"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="45" t="s">
         <v>334</v>
       </c>
-      <c r="I58" s="45"/>
+      <c r="I58" s="46"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
@@ -3345,13 +3360,13 @@
         <v>225</v>
       </c>
       <c r="D59" s="1"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="48" t="s">
+      <c r="E59" s="32"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="I59" s="45"/>
+      <c r="I59" s="46"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
@@ -3361,15 +3376,15 @@
         <v>53</v>
       </c>
       <c r="D60" s="1"/>
-      <c r="E60" s="32" t="s">
+      <c r="E60" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="48" t="s">
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="I60" s="45" t="s">
+      <c r="I60" s="46" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3381,15 +3396,15 @@
         <v>54</v>
       </c>
       <c r="D61" s="1"/>
-      <c r="E61" s="32" t="s">
+      <c r="E61" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="48" t="s">
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="49" t="s">
         <v>364</v>
       </c>
-      <c r="I61" s="45" t="s">
+      <c r="I61" s="46" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3401,13 +3416,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="48" t="s">
+      <c r="E62" s="32"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="I62" s="45"/>
+      <c r="I62" s="46"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
@@ -3417,23 +3432,23 @@
         <v>38</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="48" t="s">
+      <c r="E63" s="32"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I63" s="45"/>
+      <c r="I63" s="46"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="45"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="46"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
@@ -3441,11 +3456,11 @@
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="45"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="46"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
@@ -3457,13 +3472,13 @@
       <c r="D66" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E66" s="31"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="48" t="s">
+      <c r="E66" s="32"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="I66" s="45"/>
+      <c r="I66" s="46"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
@@ -3475,27 +3490,29 @@
       <c r="D67" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="E67" s="63" t="s">
+      <c r="E67" s="64" t="s">
         <v>300</v>
       </c>
-      <c r="F67" s="36" t="s">
+      <c r="F67" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="G67" s="36"/>
-      <c r="H67" s="48" t="s">
+      <c r="G67" s="37"/>
+      <c r="H67" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="I67" s="45"/>
+      <c r="I67" s="46"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="45"/>
+      <c r="E68" s="64" t="s">
+        <v>481</v>
+      </c>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="46"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
@@ -3503,11 +3520,11 @@
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="45"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="46"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
@@ -3515,11 +3532,11 @@
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="45"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="46"/>
     </row>
     <row r="71" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
@@ -3531,19 +3548,16 @@
       <c r="D71" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="E71" s="63" t="s">
-        <v>481</v>
-      </c>
-      <c r="F71" s="58" t="s">
+      <c r="F71" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="G71" s="39" t="s">
+      <c r="G71" s="40" t="s">
         <v>492</v>
       </c>
-      <c r="H71" s="46" t="s">
+      <c r="H71" s="47" t="s">
         <v>365</v>
       </c>
-      <c r="I71" s="49" t="s">
+      <c r="I71" s="50" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3555,19 +3569,19 @@
         <v>26</v>
       </c>
       <c r="D72" s="1"/>
-      <c r="E72" s="65" t="s">
+      <c r="E72" s="66" t="s">
         <v>491</v>
       </c>
-      <c r="F72" s="59" t="s">
+      <c r="F72" s="60" t="s">
         <v>493</v>
       </c>
-      <c r="G72" s="37" t="s">
+      <c r="G72" s="38" t="s">
         <v>493</v>
       </c>
-      <c r="H72" s="48" t="s">
+      <c r="H72" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="I72" s="45"/>
+      <c r="I72" s="46"/>
     </row>
     <row r="73" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
@@ -3579,17 +3593,17 @@
       <c r="D73" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="E73" s="63" t="s">
+      <c r="E73" s="64" t="s">
         <v>293</v>
       </c>
       <c r="F73" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="G73" s="36"/>
-      <c r="H73" s="46" t="s">
+      <c r="G73" s="37"/>
+      <c r="H73" s="47" t="s">
         <v>366</v>
       </c>
-      <c r="I73" s="49" t="s">
+      <c r="I73" s="50" t="s">
         <v>493</v>
       </c>
     </row>
@@ -3601,13 +3615,13 @@
         <v>35</v>
       </c>
       <c r="D74" s="1"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="48" t="s">
+      <c r="E74" s="32"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="I74" s="45"/>
+      <c r="I74" s="46"/>
     </row>
     <row r="75" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
@@ -3619,13 +3633,13 @@
       <c r="D75" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="E75" s="31"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="47" t="s">
+      <c r="E75" s="32"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="48" t="s">
         <v>451</v>
       </c>
-      <c r="I75" s="45"/>
+      <c r="I75" s="46"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
@@ -3635,13 +3649,13 @@
         <v>38</v>
       </c>
       <c r="D76" s="1"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="44" t="s">
+      <c r="E76" s="32"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="I76" s="45"/>
+      <c r="I76" s="46"/>
     </row>
     <row r="77" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
@@ -3653,23 +3667,23 @@
       <c r="D77" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="E77" s="63" t="s">
+      <c r="E77" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="F77" s="36" t="s">
+      <c r="F77" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G77" s="36"/>
-      <c r="H77" s="46" t="s">
+      <c r="G77" s="37"/>
+      <c r="H77" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="I77" s="45"/>
+      <c r="I77" s="46"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C78" s="97" t="s">
+      <c r="C78" s="98" t="s">
         <v>458</v>
       </c>
       <c r="D78" s="19" t="s">
@@ -3678,22 +3692,22 @@
       <c r="E78" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="44" t="s">
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="45" t="s">
         <v>461</v>
       </c>
-      <c r="I78" s="45"/>
+      <c r="I78" s="46"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="45"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="46"/>
     </row>
     <row r="80" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
@@ -3701,11 +3715,11 @@
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="45"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="46"/>
     </row>
     <row r="81" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
@@ -3717,19 +3731,19 @@
       <c r="D81" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="E81" s="63" t="s">
+      <c r="E81" s="64" t="s">
         <v>477</v>
       </c>
       <c r="F81" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="G81" s="39" t="s">
+      <c r="G81" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="H81" s="50" t="s">
+      <c r="H81" s="51" t="s">
         <v>367</v>
       </c>
-      <c r="I81" s="49" t="s">
+      <c r="I81" s="50" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3743,19 +3757,19 @@
       <c r="D82" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="E82" s="63" t="s">
+      <c r="E82" s="64" t="s">
         <v>295</v>
       </c>
       <c r="F82" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="G82" s="39" t="s">
+      <c r="G82" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="H82" s="51" t="s">
+      <c r="H82" s="52" t="s">
         <v>497</v>
       </c>
-      <c r="I82" s="49" t="s">
+      <c r="I82" s="50" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3763,25 +3777,25 @@
       <c r="B83" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C83" s="97" t="s">
+      <c r="C83" s="98" t="s">
         <v>463</v>
       </c>
       <c r="D83" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="E83" s="63" t="s">
+      <c r="E83" s="64" t="s">
         <v>476</v>
       </c>
-      <c r="F83" s="60" t="s">
+      <c r="F83" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="G83" s="39" t="s">
+      <c r="G83" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="H83" s="48" t="s">
+      <c r="H83" s="49" t="s">
         <v>498</v>
       </c>
-      <c r="I83" s="49" t="s">
+      <c r="I83" s="50" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3789,11 +3803,11 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="45"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="46"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="9" t="s">
@@ -3801,11 +3815,11 @@
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="45"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="46"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
@@ -3813,11 +3827,11 @@
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="45"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="46"/>
     </row>
     <row r="87" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
@@ -3829,13 +3843,13 @@
       <c r="D87" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="E87" s="31"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="48" t="s">
+      <c r="E87" s="32"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="49" t="s">
         <v>422</v>
       </c>
-      <c r="I87" s="45"/>
+      <c r="I87" s="46"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
@@ -3847,23 +3861,23 @@
       <c r="D88" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="E88" s="31"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="48" t="s">
+      <c r="E88" s="32"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="I88" s="45"/>
+      <c r="I88" s="46"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="11"/>
       <c r="D89" s="19"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="45"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="46"/>
     </row>
     <row r="90" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
@@ -3875,13 +3889,13 @@
       <c r="D90" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="E90" s="33"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="46" t="s">
+      <c r="E90" s="34"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="47" t="s">
         <v>417</v>
       </c>
-      <c r="I90" s="45"/>
+      <c r="I90" s="46"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
@@ -3893,13 +3907,13 @@
       <c r="D91" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="E91" s="31"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="48" t="s">
+      <c r="E91" s="32"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="49" t="s">
         <v>316</v>
       </c>
-      <c r="I91" s="45"/>
+      <c r="I91" s="46"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
@@ -3909,11 +3923,11 @@
         <v>86</v>
       </c>
       <c r="D92" s="1"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="45"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="46"/>
     </row>
     <row r="93" spans="2:9" ht="60" x14ac:dy